--- a/DASHBOARD.xlsx
+++ b/DASHBOARD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idan\Downloads\לגיל ולינוי\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDCF136-8551-42BD-A8F4-92E1879FF1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB081E06-808C-4FD5-9A0E-50F934F55E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AA$95</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="140">
   <si>
     <t>Employee</t>
   </si>
@@ -439,6 +439,15 @@
   </si>
   <si>
     <t>תלמידים להייטק</t>
+  </si>
+  <si>
+    <t>EventType</t>
+  </si>
+  <si>
+    <t>HOLIDAY</t>
+  </si>
+  <si>
+    <t>COURSE</t>
   </si>
 </sst>
 </file>
@@ -448,9 +457,9 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="[$-1000000]h:mm;@"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,6 +512,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -552,14 +566,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -570,14 +583,19 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
@@ -923,5529 +941,5813 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z131"/>
+  <dimension ref="A1:AA131"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:XFD56"/>
-    </sheetView>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="8.7265625" style="3" customWidth="1"/>
-    <col min="9" max="27" width="8.7265625" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="8.7265625" style="2"/>
+    <col min="3" max="3" width="12" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="8.7265625" style="3" customWidth="1"/>
+    <col min="10" max="28" width="8.7265625" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="X1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11">
+      <c r="C2" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="15">
         <v>46084</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-    </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="4" t="s">
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+    </row>
+    <row r="3" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11">
+      <c r="C3" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="15">
         <v>46085</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-    </row>
-    <row r="4" spans="1:24" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="4" t="s">
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+    </row>
+    <row r="4" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11">
+      <c r="C4" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="15">
         <v>46105</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-    </row>
-    <row r="5" spans="1:24" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="4" t="s">
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+    </row>
+    <row r="5" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11">
+      <c r="C5" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="15">
         <v>46106</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-    </row>
-    <row r="6" spans="1:24" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="4" t="s">
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+    </row>
+    <row r="6" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11">
+      <c r="C6" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="15">
         <v>46107</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-    </row>
-    <row r="7" spans="1:24" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="4" t="s">
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+    </row>
+    <row r="7" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11">
+      <c r="C7" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="15">
         <v>46108</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-    </row>
-    <row r="8" spans="1:24" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="4" t="s">
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+    </row>
+    <row r="8" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11">
+      <c r="C8" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="15">
         <v>46109</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-    </row>
-    <row r="9" spans="1:24" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="4" t="s">
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+    </row>
+    <row r="9" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11">
+      <c r="C9" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="15">
         <v>46110</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-    </row>
-    <row r="10" spans="1:24" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="4" t="s">
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+    </row>
+    <row r="10" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11">
+      <c r="C10" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="15">
         <v>46111</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-    </row>
-    <row r="11" spans="1:24" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="4" t="s">
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+    </row>
+    <row r="11" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11">
+      <c r="C11" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="15">
         <v>46112</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-    </row>
-    <row r="12" spans="1:24" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="4" t="s">
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+    </row>
+    <row r="12" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11">
+      <c r="C12" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="15">
         <v>46113</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-    </row>
-    <row r="13" spans="1:24" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="4" t="s">
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+    </row>
+    <row r="13" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11">
+      <c r="C13" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="15">
         <v>46114</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-    </row>
-    <row r="14" spans="1:24" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="4" t="s">
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+    </row>
+    <row r="14" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11">
+      <c r="C14" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="15">
         <v>46115</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-    </row>
-    <row r="15" spans="1:24" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="4" t="s">
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+    </row>
+    <row r="15" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11">
+      <c r="C15" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="15">
         <v>46116</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-    </row>
-    <row r="16" spans="1:24" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="4" t="s">
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+    </row>
+    <row r="16" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11">
+      <c r="C16" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="15">
         <v>46117</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-    </row>
-    <row r="17" spans="1:26" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="4" t="s">
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+    </row>
+    <row r="17" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11">
+      <c r="C17" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="15">
         <v>46118</v>
       </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-    </row>
-    <row r="18" spans="1:26" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="4" t="s">
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+    </row>
+    <row r="18" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11">
+      <c r="C18" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="15">
         <v>46119</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-    </row>
-    <row r="19" spans="1:26" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="4" t="s">
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+    </row>
+    <row r="19" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11">
+      <c r="C19" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="15">
         <v>46120</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-    </row>
-    <row r="20" spans="1:26" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="4" t="s">
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+    </row>
+    <row r="20" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11">
+      <c r="C20" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="15">
         <v>46132</v>
       </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-    </row>
-    <row r="21" spans="1:26" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="4" t="s">
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+    </row>
+    <row r="21" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="11">
+      <c r="C21" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="15">
         <v>46133</v>
       </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-    </row>
-    <row r="22" spans="1:26" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="4" t="s">
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+    </row>
+    <row r="22" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="11">
+      <c r="C22" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="15">
         <v>46134</v>
       </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-    </row>
-    <row r="23" spans="1:26" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="4" t="s">
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+    </row>
+    <row r="23" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="11">
+      <c r="C23" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="15">
         <v>46150</v>
       </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-    </row>
-    <row r="24" spans="1:26" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="4" t="s">
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+    </row>
+    <row r="24" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="11">
+      <c r="C24" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="15">
         <v>46163</v>
       </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-    </row>
-    <row r="25" spans="1:26" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="4" t="s">
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+    </row>
+    <row r="25" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="11">
+      <c r="C25" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="15">
         <v>46164</v>
       </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-    </row>
-    <row r="26" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+    </row>
+    <row r="26" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A26" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="12">
+      <c r="H26" s="17">
         <v>0.36458333333333331</v>
       </c>
-      <c r="H26" s="12">
+      <c r="I26" s="17">
         <v>0.59375</v>
       </c>
-      <c r="I26" s="11">
+      <c r="J26" s="15">
         <v>46044</v>
       </c>
-      <c r="J26" s="11">
+      <c r="K26" s="15">
         <v>46051</v>
       </c>
-      <c r="K26" s="11">
+      <c r="L26" s="15">
         <v>46058</v>
       </c>
-      <c r="L26" s="11">
+      <c r="M26" s="15">
         <v>46065</v>
       </c>
-      <c r="M26" s="11">
+      <c r="N26" s="15">
         <v>46072</v>
       </c>
-      <c r="N26" s="11">
+      <c r="O26" s="10">
         <v>46079</v>
       </c>
-      <c r="O26" s="11">
+      <c r="P26" s="10">
         <v>46086</v>
       </c>
-      <c r="P26" s="11">
+      <c r="Q26" s="10">
         <v>46093</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="R26" s="10">
         <v>46100</v>
       </c>
-      <c r="R26" s="11">
+      <c r="S26" s="10">
         <v>46121</v>
       </c>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="6"/>
-    </row>
-    <row r="27" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="5"/>
+    </row>
+    <row r="27" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A27" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="12">
+      <c r="H27" s="17">
         <v>0.36458333333333331</v>
       </c>
-      <c r="H27" s="12">
+      <c r="I27" s="17">
         <v>0.59375</v>
       </c>
-      <c r="I27" s="11">
+      <c r="J27" s="15">
         <v>46044</v>
       </c>
-      <c r="J27" s="11">
+      <c r="K27" s="15">
         <v>46051</v>
       </c>
-      <c r="K27" s="11">
+      <c r="L27" s="15">
         <v>46058</v>
       </c>
-      <c r="L27" s="11">
+      <c r="M27" s="15">
         <v>46065</v>
       </c>
-      <c r="M27" s="11">
+      <c r="N27" s="15">
         <v>46072</v>
       </c>
-      <c r="N27" s="11">
+      <c r="O27" s="10">
         <v>46079</v>
       </c>
-      <c r="O27" s="11">
+      <c r="P27" s="10">
         <v>46086</v>
       </c>
-      <c r="P27" s="11">
+      <c r="Q27" s="10">
         <v>46093</v>
       </c>
-      <c r="Q27" s="11">
+      <c r="R27" s="10">
         <v>46100</v>
       </c>
-      <c r="R27" s="11">
+      <c r="S27" s="10">
         <v>46121</v>
       </c>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="6"/>
-    </row>
-    <row r="28" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="5"/>
+    </row>
+    <row r="28" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A28" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G28" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="12">
+      <c r="H28" s="17">
         <v>0.36458333333333331</v>
       </c>
-      <c r="H28" s="12">
+      <c r="I28" s="17">
         <v>0.59375</v>
       </c>
-      <c r="I28" s="11">
+      <c r="J28" s="15">
         <v>46044</v>
       </c>
-      <c r="J28" s="11">
+      <c r="K28" s="15">
         <v>46051</v>
       </c>
-      <c r="K28" s="11">
+      <c r="L28" s="15">
         <v>46058</v>
       </c>
-      <c r="L28" s="11">
+      <c r="M28" s="15">
         <v>46065</v>
       </c>
-      <c r="M28" s="11">
+      <c r="N28" s="15">
         <v>46072</v>
       </c>
-      <c r="N28" s="11">
+      <c r="O28" s="10">
         <v>46079</v>
       </c>
-      <c r="O28" s="11">
+      <c r="P28" s="10">
         <v>46086</v>
       </c>
-      <c r="P28" s="11">
+      <c r="Q28" s="10">
         <v>46093</v>
       </c>
-      <c r="Q28" s="11">
+      <c r="R28" s="10">
         <v>46100</v>
       </c>
-      <c r="R28" s="11">
+      <c r="S28" s="10">
         <v>46121</v>
       </c>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="6"/>
-    </row>
-    <row r="29" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="5"/>
+    </row>
+    <row r="29" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A29" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="12">
+      <c r="H29" s="17">
         <v>0.57291666666666663</v>
       </c>
-      <c r="H29" s="12">
+      <c r="I29" s="17">
         <v>0.60416666666666663</v>
       </c>
-      <c r="I29" s="11">
+      <c r="J29" s="15">
         <v>46050</v>
       </c>
-      <c r="J29" s="11">
+      <c r="K29" s="15">
         <v>46057</v>
       </c>
-      <c r="K29" s="11">
+      <c r="L29" s="15">
         <v>46064</v>
       </c>
-      <c r="L29" s="11">
+      <c r="M29" s="15">
         <v>46071</v>
       </c>
-      <c r="M29" s="11">
+      <c r="N29" s="15">
         <v>46078</v>
       </c>
-      <c r="N29" s="11">
+      <c r="O29" s="10">
         <v>46092</v>
       </c>
-      <c r="O29" s="11">
+      <c r="P29" s="10">
         <v>46099</v>
       </c>
-      <c r="P29" s="11">
+      <c r="Q29" s="10">
         <v>46127</v>
       </c>
-      <c r="Q29" s="11">
+      <c r="R29" s="10">
         <v>46141</v>
       </c>
-      <c r="R29" s="11">
+      <c r="S29" s="10">
         <v>46148</v>
       </c>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="6"/>
-    </row>
-    <row r="30" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="5"/>
+    </row>
+    <row r="30" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A30" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="G30" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G30" s="12">
+      <c r="H30" s="17">
         <v>0.4548611111111111</v>
       </c>
-      <c r="H30" s="12">
+      <c r="I30" s="17">
         <v>0.55902777777777779</v>
       </c>
-      <c r="I30" s="11">
+      <c r="J30" s="15">
         <v>46042</v>
       </c>
-      <c r="J30" s="11">
+      <c r="K30" s="15">
         <v>46049</v>
       </c>
-      <c r="K30" s="11">
+      <c r="L30" s="15">
         <v>46056</v>
       </c>
-      <c r="L30" s="11">
+      <c r="M30" s="15">
         <v>46063</v>
       </c>
-      <c r="M30" s="11">
+      <c r="N30" s="15">
         <v>46070</v>
       </c>
-      <c r="N30" s="11">
+      <c r="O30" s="10">
         <v>46077</v>
       </c>
-      <c r="O30" s="11">
+      <c r="P30" s="10">
         <v>46091</v>
       </c>
-      <c r="P30" s="11">
+      <c r="Q30" s="10">
         <v>46098</v>
       </c>
-      <c r="Q30" s="11">
+      <c r="R30" s="10">
         <v>46126</v>
       </c>
-      <c r="R30" s="11">
+      <c r="S30" s="10">
         <v>46140</v>
       </c>
-      <c r="S30" s="11">
+      <c r="T30" s="10">
         <v>46147</v>
       </c>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="6"/>
-    </row>
-    <row r="31" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4" t="s">
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="5"/>
+    </row>
+    <row r="31" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="12">
+      <c r="H31" s="17">
         <v>0.35416666666666669</v>
       </c>
-      <c r="H31" s="12">
+      <c r="I31" s="17">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I31" s="11">
+      <c r="J31" s="15">
         <v>46042</v>
       </c>
-      <c r="J31" s="11">
+      <c r="K31" s="15">
         <v>46049</v>
       </c>
-      <c r="K31" s="11">
+      <c r="L31" s="15">
         <v>46056</v>
       </c>
-      <c r="L31" s="11">
+      <c r="M31" s="15">
         <v>46063</v>
       </c>
-      <c r="M31" s="11">
+      <c r="N31" s="15">
         <v>46070</v>
       </c>
-      <c r="N31" s="11">
+      <c r="O31" s="10">
         <v>46077</v>
       </c>
-      <c r="O31" s="11">
+      <c r="P31" s="10">
         <v>46091</v>
       </c>
-      <c r="P31" s="11">
+      <c r="Q31" s="10">
         <v>46098</v>
       </c>
-      <c r="Q31" s="11">
+      <c r="R31" s="10">
         <v>46126</v>
       </c>
-      <c r="R31" s="11">
+      <c r="S31" s="10">
         <v>46140</v>
       </c>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="6"/>
-    </row>
-    <row r="32" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="5"/>
+    </row>
+    <row r="32" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A32" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G32" s="12">
+      <c r="H32" s="17">
         <v>0.34722222222222221</v>
       </c>
-      <c r="H32" s="12">
+      <c r="I32" s="17">
         <v>0.40972222222222221</v>
       </c>
-      <c r="I32" s="11">
+      <c r="J32" s="15">
         <v>46027</v>
       </c>
-      <c r="J32" s="11">
+      <c r="K32" s="15">
         <v>46034</v>
       </c>
-      <c r="K32" s="11">
+      <c r="L32" s="15">
         <v>46041</v>
       </c>
-      <c r="L32" s="11">
+      <c r="M32" s="15">
         <v>46048</v>
       </c>
-      <c r="M32" s="11">
+      <c r="N32" s="15">
         <v>46055</v>
       </c>
-      <c r="N32" s="11">
+      <c r="O32" s="10">
         <v>46062</v>
       </c>
-      <c r="O32" s="11">
+      <c r="P32" s="10">
         <v>46069</v>
       </c>
-      <c r="P32" s="11">
+      <c r="Q32" s="10">
         <v>46076</v>
       </c>
-      <c r="Q32" s="11">
+      <c r="R32" s="10">
         <v>46083</v>
       </c>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="6"/>
-    </row>
-    <row r="33" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4" t="s">
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="5"/>
+    </row>
+    <row r="33" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="G33" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G33" s="12">
+      <c r="H33" s="17">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H33" s="12">
+      <c r="I33" s="17">
         <v>0.39583333333333331</v>
       </c>
-      <c r="I33" s="11">
+      <c r="J33" s="15">
         <v>46090</v>
       </c>
-      <c r="J33" s="11">
+      <c r="K33" s="15">
         <v>46097</v>
       </c>
-      <c r="K33" s="11">
+      <c r="L33" s="15">
         <v>46132</v>
       </c>
-      <c r="L33" s="11">
+      <c r="M33" s="15">
         <v>46139</v>
       </c>
-      <c r="M33" s="11">
+      <c r="N33" s="15">
         <v>46146</v>
       </c>
-      <c r="N33" s="11">
+      <c r="O33" s="10">
         <v>46153</v>
       </c>
-      <c r="O33" s="11">
+      <c r="P33" s="10">
         <v>46167</v>
       </c>
-      <c r="P33" s="11">
+      <c r="Q33" s="10">
         <v>46174</v>
       </c>
-      <c r="Q33" s="11">
+      <c r="R33" s="10">
         <v>46167</v>
       </c>
-      <c r="R33" s="11">
+      <c r="S33" s="10">
         <v>46174</v>
       </c>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="6"/>
-    </row>
-    <row r="34" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4" t="s">
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="5"/>
+    </row>
+    <row r="34" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="G34" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G34" s="12">
+      <c r="H34" s="17">
         <v>0.40625</v>
       </c>
-      <c r="H34" s="12">
+      <c r="I34" s="17">
         <v>0.46875</v>
       </c>
-      <c r="I34" s="11">
+      <c r="J34" s="15">
         <v>46090</v>
       </c>
-      <c r="J34" s="11">
+      <c r="K34" s="15">
         <v>46097</v>
       </c>
-      <c r="K34" s="11">
+      <c r="L34" s="15">
         <v>46132</v>
       </c>
-      <c r="L34" s="11">
+      <c r="M34" s="15">
         <v>46139</v>
       </c>
-      <c r="M34" s="11">
+      <c r="N34" s="15">
         <v>46146</v>
       </c>
-      <c r="N34" s="11">
+      <c r="O34" s="10">
         <v>46153</v>
       </c>
-      <c r="O34" s="11">
+      <c r="P34" s="10">
         <v>46167</v>
       </c>
-      <c r="P34" s="11">
+      <c r="Q34" s="10">
         <v>46174</v>
       </c>
-      <c r="Q34" s="11">
+      <c r="R34" s="10">
         <v>46167</v>
       </c>
-      <c r="R34" s="11">
+      <c r="S34" s="10">
         <v>46174</v>
       </c>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="6"/>
-    </row>
-    <row r="35" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4" t="s">
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="5"/>
+    </row>
+    <row r="35" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="E35" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="F35" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="G35" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G35" s="12">
+      <c r="H35" s="17">
         <v>0.4826388888888889</v>
       </c>
-      <c r="H35" s="12">
+      <c r="I35" s="17">
         <v>0.54513888888888884</v>
       </c>
-      <c r="I35" s="11">
+      <c r="J35" s="15">
         <v>46090</v>
       </c>
-      <c r="J35" s="11">
+      <c r="K35" s="15">
         <v>46097</v>
       </c>
-      <c r="K35" s="11">
+      <c r="L35" s="15">
         <v>46132</v>
       </c>
-      <c r="L35" s="11">
+      <c r="M35" s="15">
         <v>46139</v>
       </c>
-      <c r="M35" s="11">
+      <c r="N35" s="15">
         <v>46146</v>
       </c>
-      <c r="N35" s="11">
+      <c r="O35" s="10">
         <v>46153</v>
       </c>
-      <c r="O35" s="11">
+      <c r="P35" s="10">
         <v>46167</v>
       </c>
-      <c r="P35" s="11">
+      <c r="Q35" s="10">
         <v>46174</v>
       </c>
-      <c r="Q35" s="11">
+      <c r="R35" s="10">
         <v>46167</v>
       </c>
-      <c r="R35" s="11">
+      <c r="S35" s="10">
         <v>46174</v>
       </c>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="6"/>
-    </row>
-    <row r="36" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4" t="s">
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="5"/>
+    </row>
+    <row r="36" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="F36" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="G36" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="12">
+      <c r="H36" s="17">
         <v>0.48958333333333331</v>
       </c>
-      <c r="H36" s="12">
+      <c r="I36" s="17">
         <v>0.55208333333333337</v>
       </c>
-      <c r="I36" s="11">
+      <c r="J36" s="15">
         <v>46089</v>
       </c>
-      <c r="J36" s="11">
+      <c r="K36" s="15">
         <v>46096</v>
       </c>
-      <c r="K36" s="11">
+      <c r="L36" s="15">
         <v>46103</v>
       </c>
-      <c r="L36" s="11">
+      <c r="M36" s="15">
         <v>46124</v>
       </c>
-      <c r="M36" s="11">
+      <c r="N36" s="15">
         <v>46131</v>
       </c>
-      <c r="N36" s="11">
+      <c r="O36" s="10">
         <v>46138</v>
       </c>
-      <c r="O36" s="11">
+      <c r="P36" s="10">
         <v>46145</v>
       </c>
-      <c r="P36" s="11">
+      <c r="Q36" s="10">
         <v>46152</v>
       </c>
-      <c r="Q36" s="11">
+      <c r="R36" s="10">
         <v>46159</v>
       </c>
-      <c r="R36" s="11">
+      <c r="S36" s="10">
         <v>46166</v>
       </c>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="6"/>
-    </row>
-    <row r="37" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4" t="s">
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="5"/>
+    </row>
+    <row r="37" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="G37" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="12">
+      <c r="H37" s="17">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H37" s="12">
+      <c r="I37" s="17">
         <v>0.3923611111111111</v>
       </c>
-      <c r="I37" s="11">
+      <c r="J37" s="15">
         <v>46089</v>
       </c>
-      <c r="J37" s="11">
+      <c r="K37" s="15">
         <v>46096</v>
       </c>
-      <c r="K37" s="11">
+      <c r="L37" s="15">
         <v>46103</v>
       </c>
-      <c r="L37" s="11">
+      <c r="M37" s="15">
         <v>46124</v>
       </c>
-      <c r="M37" s="11">
+      <c r="N37" s="15">
         <v>46131</v>
       </c>
-      <c r="N37" s="11">
+      <c r="O37" s="10">
         <v>46138</v>
       </c>
-      <c r="O37" s="11">
+      <c r="P37" s="10">
         <v>46145</v>
       </c>
-      <c r="P37" s="11">
+      <c r="Q37" s="10">
         <v>46152</v>
       </c>
-      <c r="Q37" s="11">
+      <c r="R37" s="10">
         <v>46159</v>
       </c>
-      <c r="R37" s="11">
+      <c r="S37" s="10">
         <v>46166</v>
       </c>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="6"/>
-    </row>
-    <row r="38" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4" t="s">
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="5"/>
+    </row>
+    <row r="38" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="F38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="G38" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="12">
+      <c r="H38" s="17">
         <v>0.4201388888888889</v>
       </c>
-      <c r="H38" s="12">
+      <c r="I38" s="17">
         <v>0.47916666666666669</v>
       </c>
-      <c r="I38" s="11">
+      <c r="J38" s="15">
         <v>46064</v>
       </c>
-      <c r="J38" s="11">
+      <c r="K38" s="15">
         <v>46071</v>
       </c>
-      <c r="K38" s="11">
+      <c r="L38" s="15">
         <v>46078</v>
       </c>
-      <c r="L38" s="11">
+      <c r="M38" s="15">
         <v>46092</v>
       </c>
-      <c r="M38" s="11">
+      <c r="N38" s="15">
         <v>46099</v>
       </c>
-      <c r="N38" s="11">
+      <c r="O38" s="10">
         <v>46127</v>
       </c>
-      <c r="O38" s="11">
+      <c r="P38" s="10">
         <v>46141</v>
       </c>
-      <c r="P38" s="11">
+      <c r="Q38" s="10">
         <v>46148</v>
       </c>
-      <c r="Q38" s="11">
+      <c r="R38" s="10">
         <v>46155</v>
       </c>
-      <c r="R38" s="11">
+      <c r="S38" s="10">
         <v>46162</v>
       </c>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="6"/>
-    </row>
-    <row r="39" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4" t="s">
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="5"/>
+    </row>
+    <row r="39" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="E39" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="F39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="G39" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G39" s="12">
+      <c r="H39" s="17">
         <v>0.34375</v>
       </c>
-      <c r="H39" s="12">
+      <c r="I39" s="17">
         <v>0.40277777777777779</v>
       </c>
-      <c r="I39" s="11">
+      <c r="J39" s="15">
         <v>46064</v>
       </c>
-      <c r="J39" s="11">
+      <c r="K39" s="15">
         <v>46071</v>
       </c>
-      <c r="K39" s="11">
+      <c r="L39" s="15">
         <v>46078</v>
       </c>
-      <c r="L39" s="11">
+      <c r="M39" s="15">
         <v>46092</v>
       </c>
-      <c r="M39" s="11">
+      <c r="N39" s="15">
         <v>46099</v>
       </c>
-      <c r="N39" s="11">
+      <c r="O39" s="10">
         <v>46127</v>
       </c>
-      <c r="O39" s="11">
+      <c r="P39" s="10">
         <v>46141</v>
       </c>
-      <c r="P39" s="11">
+      <c r="Q39" s="10">
         <v>46148</v>
       </c>
-      <c r="Q39" s="11">
+      <c r="R39" s="10">
         <v>46155</v>
       </c>
-      <c r="R39" s="11">
+      <c r="S39" s="10">
         <v>46162</v>
       </c>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="6"/>
-    </row>
-    <row r="40" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="5"/>
+    </row>
+    <row r="40" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A40" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="E40" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="F40" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="G40" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G40" s="12">
+      <c r="H40" s="17">
         <v>0.48958333333333331</v>
       </c>
-      <c r="H40" s="12">
+      <c r="I40" s="17">
         <v>0.55902777777777779</v>
       </c>
-      <c r="I40" s="11">
+      <c r="J40" s="15">
         <v>46034</v>
       </c>
-      <c r="J40" s="11">
+      <c r="K40" s="15">
         <v>46041</v>
       </c>
-      <c r="K40" s="11">
+      <c r="L40" s="15">
         <v>46055</v>
       </c>
-      <c r="L40" s="11">
+      <c r="M40" s="15">
         <v>46062</v>
       </c>
-      <c r="M40" s="11">
+      <c r="N40" s="15">
         <v>46069</v>
       </c>
-      <c r="N40" s="11">
+      <c r="O40" s="10">
         <v>46076</v>
       </c>
-      <c r="O40" s="11">
+      <c r="P40" s="10">
         <v>46090</v>
       </c>
-      <c r="P40" s="11">
+      <c r="Q40" s="10">
         <v>46097</v>
       </c>
-      <c r="Q40" s="11">
+      <c r="R40" s="10">
         <v>46139</v>
       </c>
-      <c r="R40" s="11">
+      <c r="S40" s="10">
         <v>46146</v>
       </c>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="6"/>
-    </row>
-    <row r="41" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="5"/>
+    </row>
+    <row r="41" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A41" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="E41" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="F41" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="G41" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G41" s="12">
+      <c r="H41" s="17">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H41" s="12">
+      <c r="I41" s="17">
         <v>0.40277777777777779</v>
       </c>
-      <c r="I41" s="11">
+      <c r="J41" s="15">
         <v>46035</v>
       </c>
-      <c r="J41" s="11">
+      <c r="K41" s="15">
         <v>46042</v>
       </c>
-      <c r="K41" s="11">
+      <c r="L41" s="15">
         <v>46056</v>
       </c>
-      <c r="L41" s="11">
+      <c r="M41" s="15">
         <v>46063</v>
       </c>
-      <c r="M41" s="11">
+      <c r="N41" s="15">
         <v>46070</v>
       </c>
-      <c r="N41" s="11">
+      <c r="O41" s="10">
         <v>46077</v>
       </c>
-      <c r="O41" s="11">
+      <c r="P41" s="10">
         <v>46091</v>
       </c>
-      <c r="P41" s="11">
+      <c r="Q41" s="10">
         <v>46098</v>
       </c>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="6"/>
-    </row>
-    <row r="42" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="5"/>
+    </row>
+    <row r="42" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A42" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="E42" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="F42" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="G42" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G42" s="12">
+      <c r="H42" s="17">
         <v>0.40972222222222221</v>
       </c>
-      <c r="H42" s="12">
+      <c r="I42" s="17">
         <v>0.48958333333333331</v>
       </c>
-      <c r="I42" s="11">
+      <c r="J42" s="15">
         <v>46035</v>
       </c>
-      <c r="J42" s="11">
+      <c r="K42" s="15">
         <v>46042</v>
       </c>
-      <c r="K42" s="11">
+      <c r="L42" s="15">
         <v>46056</v>
       </c>
-      <c r="L42" s="11">
+      <c r="M42" s="15">
         <v>46070</v>
       </c>
-      <c r="M42" s="11">
+      <c r="N42" s="15">
         <v>46077</v>
       </c>
-      <c r="N42" s="11">
+      <c r="O42" s="10">
         <v>46091</v>
       </c>
-      <c r="O42" s="11">
+      <c r="P42" s="10">
         <v>46098</v>
       </c>
-      <c r="P42" s="11">
+      <c r="Q42" s="10">
         <v>46140</v>
       </c>
-      <c r="Q42" s="11">
+      <c r="R42" s="10">
         <v>46147</v>
       </c>
-      <c r="R42" s="11">
+      <c r="S42" s="10">
         <v>46154</v>
       </c>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="6"/>
-    </row>
-    <row r="43" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="5"/>
+    </row>
+    <row r="43" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A43" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="E43" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="F43" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="G43" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="12">
+      <c r="H43" s="17">
         <v>0.48958333333333331</v>
       </c>
-      <c r="H43" s="12">
+      <c r="I43" s="17">
         <v>0.55902777777777779</v>
       </c>
-      <c r="I43" s="11">
+      <c r="J43" s="15">
         <v>46035</v>
       </c>
-      <c r="J43" s="11">
+      <c r="K43" s="15">
         <v>46042</v>
       </c>
-      <c r="K43" s="11">
+      <c r="L43" s="15">
         <v>46056</v>
       </c>
-      <c r="L43" s="11">
+      <c r="M43" s="15">
         <v>46070</v>
       </c>
-      <c r="M43" s="11">
+      <c r="N43" s="15">
         <v>46077</v>
       </c>
-      <c r="N43" s="11">
+      <c r="O43" s="10">
         <v>46091</v>
       </c>
-      <c r="O43" s="11">
+      <c r="P43" s="10">
         <v>46098</v>
       </c>
-      <c r="P43" s="11">
+      <c r="Q43" s="10">
         <v>46140</v>
       </c>
-      <c r="Q43" s="11">
+      <c r="R43" s="10">
         <v>46147</v>
       </c>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="6"/>
-    </row>
-    <row r="44" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="5"/>
+    </row>
+    <row r="44" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A44" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="E44" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="F44" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="G44" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G44" s="12">
+      <c r="H44" s="17">
         <v>0.42708333333333331</v>
       </c>
-      <c r="H44" s="12">
+      <c r="I44" s="17">
         <v>0.48958333333333331</v>
       </c>
-      <c r="I44" s="11">
+      <c r="J44" s="15">
         <v>46034</v>
       </c>
-      <c r="J44" s="11">
+      <c r="K44" s="15">
         <v>46048</v>
       </c>
-      <c r="K44" s="11">
+      <c r="L44" s="15">
         <v>46062</v>
       </c>
-      <c r="L44" s="11">
+      <c r="M44" s="15">
         <v>46076</v>
       </c>
-      <c r="M44" s="11">
+      <c r="N44" s="15">
         <v>46090</v>
       </c>
-      <c r="N44" s="11">
+      <c r="O44" s="10">
         <v>46104</v>
       </c>
-      <c r="O44" s="11">
+      <c r="P44" s="10">
         <v>46146</v>
       </c>
-      <c r="P44" s="11">
+      <c r="Q44" s="10">
         <v>46160</v>
       </c>
-      <c r="Q44" s="11">
+      <c r="R44" s="10">
         <v>46181</v>
       </c>
-      <c r="R44" s="11">
+      <c r="S44" s="10">
         <v>46188</v>
       </c>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="9"/>
-      <c r="Z44" s="6"/>
-    </row>
-    <row r="45" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="5"/>
+    </row>
+    <row r="45" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A45" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="E45" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="F45" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="G45" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="12">
+      <c r="H45" s="17">
         <v>0.5</v>
       </c>
-      <c r="H45" s="12">
+      <c r="I45" s="17">
         <v>0.56944444444444442</v>
       </c>
-      <c r="I45" s="11">
+      <c r="J45" s="15">
         <v>46034</v>
       </c>
-      <c r="J45" s="11">
+      <c r="K45" s="15">
         <v>46048</v>
       </c>
-      <c r="K45" s="11">
+      <c r="L45" s="15">
         <v>46062</v>
       </c>
-      <c r="L45" s="11">
+      <c r="M45" s="15">
         <v>46076</v>
       </c>
-      <c r="M45" s="11">
+      <c r="N45" s="15">
         <v>46090</v>
       </c>
-      <c r="N45" s="11">
+      <c r="O45" s="10">
         <v>46104</v>
       </c>
-      <c r="O45" s="11">
+      <c r="P45" s="10">
         <v>46146</v>
       </c>
-      <c r="P45" s="11">
+      <c r="Q45" s="10">
         <v>46160</v>
       </c>
-      <c r="Q45" s="11">
+      <c r="R45" s="10">
         <v>46181</v>
       </c>
-      <c r="R45" s="11">
+      <c r="S45" s="10">
         <v>46188</v>
       </c>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="9"/>
-      <c r="Z45" s="6"/>
-    </row>
-    <row r="46" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="5"/>
+    </row>
+    <row r="46" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A46" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="E46" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="F46" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="G46" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G46" s="12">
+      <c r="H46" s="17">
         <v>0.42708333333333331</v>
       </c>
-      <c r="H46" s="12">
+      <c r="I46" s="17">
         <v>0.49305555555555558</v>
       </c>
-      <c r="I46" s="11">
+      <c r="J46" s="15">
         <v>46040</v>
       </c>
-      <c r="J46" s="11">
+      <c r="K46" s="15">
         <v>46047</v>
       </c>
-      <c r="K46" s="11">
+      <c r="L46" s="15">
         <v>46054</v>
       </c>
-      <c r="L46" s="11">
+      <c r="M46" s="15">
         <v>46061</v>
       </c>
-      <c r="M46" s="11">
+      <c r="N46" s="15">
         <v>46068</v>
       </c>
-      <c r="N46" s="11">
+      <c r="O46" s="10">
         <v>46075</v>
       </c>
-      <c r="O46" s="11">
+      <c r="P46" s="10">
         <v>46082</v>
       </c>
-      <c r="P46" s="11">
+      <c r="Q46" s="10">
         <v>46089</v>
       </c>
-      <c r="Q46" s="11">
+      <c r="R46" s="10">
         <v>46096</v>
       </c>
-      <c r="R46" s="11">
+      <c r="S46" s="10">
         <v>46103</v>
       </c>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="6"/>
-    </row>
-    <row r="47" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="5"/>
+    </row>
+    <row r="47" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A47" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="E47" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="F47" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="G47" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G47" s="12">
+      <c r="H47" s="17">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H47" s="12">
+      <c r="I47" s="17">
         <v>0.40277777777777779</v>
       </c>
-      <c r="I47" s="11">
+      <c r="J47" s="15">
         <v>46036</v>
       </c>
-      <c r="J47" s="11">
+      <c r="K47" s="15">
         <v>46043</v>
       </c>
-      <c r="K47" s="11">
+      <c r="L47" s="15">
         <v>46050</v>
       </c>
-      <c r="L47" s="11">
+      <c r="M47" s="15">
         <v>46057</v>
       </c>
-      <c r="M47" s="11">
+      <c r="N47" s="15">
         <v>46064</v>
       </c>
-      <c r="N47" s="11">
+      <c r="O47" s="10">
         <v>46071</v>
       </c>
-      <c r="O47" s="11">
+      <c r="P47" s="10">
         <v>46078</v>
       </c>
-      <c r="P47" s="11">
+      <c r="Q47" s="10">
         <v>46092</v>
       </c>
-      <c r="Q47" s="11">
+      <c r="R47" s="10">
         <v>46099</v>
       </c>
-      <c r="R47" s="11">
+      <c r="S47" s="10">
         <v>46127</v>
       </c>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="6"/>
-    </row>
-    <row r="48" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="5"/>
+    </row>
+    <row r="48" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A48" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="E48" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="F48" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="G48" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G48" s="12">
+      <c r="H48" s="17">
         <v>0.5</v>
       </c>
-      <c r="H48" s="12">
+      <c r="I48" s="17">
         <v>0.5625</v>
       </c>
-      <c r="I48" s="11">
+      <c r="J48" s="15">
         <v>46064</v>
       </c>
-      <c r="J48" s="11">
+      <c r="K48" s="15">
         <v>46071</v>
       </c>
-      <c r="K48" s="11">
+      <c r="L48" s="15">
         <v>46078</v>
       </c>
-      <c r="L48" s="11">
+      <c r="M48" s="15">
         <v>46092</v>
       </c>
-      <c r="M48" s="11">
+      <c r="N48" s="15">
         <v>46099</v>
       </c>
-      <c r="N48" s="11">
+      <c r="O48" s="10">
         <v>46127</v>
       </c>
-      <c r="O48" s="11">
+      <c r="P48" s="10">
         <v>46141</v>
       </c>
-      <c r="P48" s="11">
+      <c r="Q48" s="10">
         <v>46148</v>
       </c>
-      <c r="Q48" s="11">
+      <c r="R48" s="10">
         <v>46155</v>
       </c>
-      <c r="R48" s="11">
+      <c r="S48" s="10">
         <v>46162</v>
       </c>
-      <c r="S48" s="11">
+      <c r="T48" s="10">
         <v>46169</v>
       </c>
-      <c r="T48" s="11">
+      <c r="U48" s="10">
         <v>46176</v>
       </c>
-      <c r="U48" s="11">
+      <c r="V48" s="10">
         <v>46183</v>
       </c>
-      <c r="V48" s="11">
+      <c r="W48" s="10">
         <v>46190</v>
       </c>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="9"/>
-      <c r="Z48" s="6"/>
-    </row>
-    <row r="49" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="5"/>
+    </row>
+    <row r="49" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A49" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="E49" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="F49" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="G49" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G49" s="12">
+      <c r="H49" s="17">
         <v>0.34722222222222221</v>
       </c>
-      <c r="H49" s="12">
+      <c r="I49" s="17">
         <v>0.40625</v>
       </c>
-      <c r="I49" s="11">
+      <c r="J49" s="15">
         <v>46031</v>
       </c>
-      <c r="J49" s="11">
+      <c r="K49" s="15">
         <v>46038</v>
       </c>
-      <c r="K49" s="11">
+      <c r="L49" s="15">
         <v>46045</v>
       </c>
-      <c r="L49" s="11">
+      <c r="M49" s="15">
         <v>46052</v>
       </c>
-      <c r="M49" s="11">
+      <c r="N49" s="15">
         <v>46059</v>
       </c>
-      <c r="N49" s="11">
+      <c r="O49" s="10">
         <v>46066</v>
       </c>
-      <c r="O49" s="11">
+      <c r="P49" s="10">
         <v>46073</v>
       </c>
-      <c r="P49" s="11">
+      <c r="Q49" s="10">
         <v>46080</v>
       </c>
-      <c r="Q49" s="11">
+      <c r="R49" s="10">
         <v>46087</v>
       </c>
-      <c r="R49" s="11">
+      <c r="S49" s="10">
         <v>46094</v>
       </c>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="9"/>
-      <c r="Z49" s="6"/>
-    </row>
-    <row r="50" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="5"/>
+    </row>
+    <row r="50" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A50" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="E50" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="F50" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="G50" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G50" s="12">
+      <c r="H50" s="17">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H50" s="12">
+      <c r="I50" s="17">
         <v>0.40277777777777779</v>
       </c>
-      <c r="I50" s="11">
+      <c r="J50" s="15">
         <v>46026</v>
       </c>
-      <c r="J50" s="11">
+      <c r="K50" s="15">
         <v>46033</v>
       </c>
-      <c r="K50" s="11">
+      <c r="L50" s="15">
         <v>46040</v>
       </c>
-      <c r="L50" s="11">
+      <c r="M50" s="15">
         <v>46047</v>
       </c>
-      <c r="M50" s="11">
+      <c r="N50" s="15">
         <v>46054</v>
       </c>
-      <c r="N50" s="11">
+      <c r="O50" s="10">
         <v>46061</v>
       </c>
-      <c r="O50" s="11">
+      <c r="P50" s="10">
         <v>46068</v>
       </c>
-      <c r="P50" s="11">
+      <c r="Q50" s="10">
         <v>46075</v>
       </c>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="5"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="9"/>
-      <c r="Z50" s="6"/>
-    </row>
-    <row r="51" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="5"/>
+    </row>
+    <row r="51" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A51" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="E51" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="F51" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="G51" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G51" s="12">
+      <c r="H51" s="17">
         <v>0.42708333333333331</v>
       </c>
-      <c r="H51" s="12">
+      <c r="I51" s="17">
         <v>0.5</v>
       </c>
-      <c r="I51" s="11">
+      <c r="J51" s="15">
         <v>46026</v>
       </c>
-      <c r="J51" s="11">
+      <c r="K51" s="15">
         <v>46033</v>
       </c>
-      <c r="K51" s="11">
+      <c r="L51" s="15">
         <v>46040</v>
       </c>
-      <c r="L51" s="11">
+      <c r="M51" s="15">
         <v>46047</v>
       </c>
-      <c r="M51" s="11">
+      <c r="N51" s="15">
         <v>46054</v>
       </c>
-      <c r="N51" s="11">
+      <c r="O51" s="10">
         <v>46061</v>
       </c>
-      <c r="O51" s="11">
+      <c r="P51" s="10">
         <v>46068</v>
       </c>
-      <c r="P51" s="11">
+      <c r="Q51" s="10">
         <v>46075</v>
       </c>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="9"/>
-      <c r="Z51" s="6"/>
-    </row>
-    <row r="52" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="5"/>
+    </row>
+    <row r="52" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A52" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="E52" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="F52" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="G52" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G52" s="12">
+      <c r="H52" s="17">
         <v>0.34375</v>
       </c>
-      <c r="H52" s="12">
+      <c r="I52" s="17">
         <v>0.40625</v>
       </c>
-      <c r="I52" s="11">
+      <c r="J52" s="15">
         <v>46027</v>
       </c>
-      <c r="J52" s="11">
+      <c r="K52" s="15">
         <v>46034</v>
       </c>
-      <c r="K52" s="11">
+      <c r="L52" s="15">
         <v>46041</v>
       </c>
-      <c r="L52" s="11">
+      <c r="M52" s="15">
         <v>46048</v>
       </c>
-      <c r="M52" s="11">
+      <c r="N52" s="15">
         <v>46055</v>
       </c>
-      <c r="N52" s="11">
+      <c r="O52" s="10">
         <v>46062</v>
       </c>
-      <c r="O52" s="11">
+      <c r="P52" s="10">
         <v>46069</v>
       </c>
-      <c r="P52" s="11">
+      <c r="Q52" s="10">
         <v>46076</v>
       </c>
-      <c r="Q52" s="11">
+      <c r="R52" s="10">
         <v>46083</v>
       </c>
-      <c r="R52" s="11">
+      <c r="S52" s="10">
         <v>46090</v>
       </c>
-      <c r="S52" s="11">
+      <c r="T52" s="10">
         <v>46097</v>
       </c>
-      <c r="T52" s="11">
+      <c r="U52" s="10">
         <v>46104</v>
       </c>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="6"/>
-    </row>
-    <row r="53" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="5"/>
+    </row>
+    <row r="53" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A53" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="E53" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="F53" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="G53" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G53" s="12">
+      <c r="H53" s="17">
         <v>0.34375</v>
       </c>
-      <c r="H53" s="12">
+      <c r="I53" s="17">
         <v>0.40625</v>
       </c>
-      <c r="I53" s="11">
+      <c r="J53" s="15">
         <v>46035</v>
       </c>
-      <c r="J53" s="11">
+      <c r="K53" s="15">
         <v>46042</v>
       </c>
-      <c r="K53" s="11">
+      <c r="L53" s="15">
         <v>46049</v>
       </c>
-      <c r="L53" s="11">
+      <c r="M53" s="15">
         <v>46056</v>
       </c>
-      <c r="M53" s="11">
+      <c r="N53" s="15">
         <v>46063</v>
       </c>
-      <c r="N53" s="11">
+      <c r="O53" s="10">
         <v>46070</v>
       </c>
-      <c r="O53" s="11">
+      <c r="P53" s="10">
         <v>46077</v>
       </c>
-      <c r="P53" s="11">
+      <c r="Q53" s="10">
         <v>46091</v>
       </c>
-      <c r="Q53" s="11">
+      <c r="R53" s="10">
         <v>46098</v>
       </c>
-      <c r="R53" s="11">
+      <c r="S53" s="10">
         <v>46126</v>
       </c>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="6"/>
-    </row>
-    <row r="54" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="5"/>
+    </row>
+    <row r="54" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A54" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="E54" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="F54" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="G54" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G54" s="12">
+      <c r="H54" s="17">
         <v>0.4375</v>
       </c>
-      <c r="H54" s="12">
+      <c r="I54" s="17">
         <v>0.5</v>
       </c>
-      <c r="I54" s="11">
+      <c r="J54" s="15">
         <v>46063</v>
       </c>
-      <c r="J54" s="11">
+      <c r="K54" s="15">
         <v>46070</v>
       </c>
-      <c r="K54" s="11">
+      <c r="L54" s="15">
         <v>46077</v>
       </c>
-      <c r="L54" s="11">
+      <c r="M54" s="15">
         <v>46091</v>
       </c>
-      <c r="M54" s="11">
+      <c r="N54" s="15">
         <v>46098</v>
       </c>
-      <c r="N54" s="11">
+      <c r="O54" s="10">
         <v>46126</v>
       </c>
-      <c r="O54" s="11">
+      <c r="P54" s="10">
         <v>46140</v>
       </c>
-      <c r="P54" s="11">
+      <c r="Q54" s="10">
         <v>46147</v>
       </c>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="9"/>
-      <c r="Z54" s="6"/>
-    </row>
-    <row r="55" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="5"/>
+    </row>
+    <row r="55" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A55" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="E55" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="F55" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="G55" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G55" s="12">
+      <c r="H55" s="17">
         <v>0.5</v>
       </c>
-      <c r="H55" s="12">
+      <c r="I55" s="17">
         <v>0.5625</v>
       </c>
-      <c r="I55" s="11">
+      <c r="J55" s="15">
         <v>46061</v>
       </c>
-      <c r="J55" s="11">
+      <c r="K55" s="15">
         <v>46068</v>
       </c>
-      <c r="K55" s="11">
+      <c r="L55" s="15">
         <v>46075</v>
       </c>
-      <c r="L55" s="11">
+      <c r="M55" s="15">
         <v>46082</v>
       </c>
-      <c r="M55" s="11">
+      <c r="N55" s="15">
         <v>46089</v>
       </c>
-      <c r="N55" s="11">
+      <c r="O55" s="10">
         <v>46096</v>
       </c>
-      <c r="O55" s="11">
+      <c r="P55" s="10">
         <v>46103</v>
       </c>
-      <c r="P55" s="11">
+      <c r="Q55" s="10">
         <v>46124</v>
       </c>
-      <c r="Q55" s="11">
+      <c r="R55" s="10">
         <v>46131</v>
       </c>
-      <c r="R55" s="11">
+      <c r="S55" s="10">
         <v>46138</v>
       </c>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="9"/>
-      <c r="Z55" s="6"/>
-    </row>
-    <row r="56" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="5"/>
+    </row>
+    <row r="56" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A56" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="E56" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="F56" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="G56" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G56" s="12">
+      <c r="H56" s="17">
         <v>0.57291666666666663</v>
       </c>
-      <c r="H56" s="12">
+      <c r="I56" s="17">
         <v>0.63541666666666663</v>
       </c>
-      <c r="I56" s="11">
+      <c r="J56" s="15">
         <v>46061</v>
       </c>
-      <c r="J56" s="11">
+      <c r="K56" s="15">
         <v>46068</v>
       </c>
-      <c r="K56" s="11">
+      <c r="L56" s="15">
         <v>46075</v>
       </c>
-      <c r="L56" s="11">
+      <c r="M56" s="15">
         <v>46082</v>
       </c>
-      <c r="M56" s="11">
+      <c r="N56" s="15">
         <v>46089</v>
       </c>
-      <c r="N56" s="11">
+      <c r="O56" s="10">
         <v>46096</v>
       </c>
-      <c r="O56" s="11">
+      <c r="P56" s="10">
         <v>46103</v>
       </c>
-      <c r="P56" s="11">
+      <c r="Q56" s="10">
         <v>46124</v>
       </c>
-      <c r="Q56" s="11">
+      <c r="R56" s="10">
         <v>46131</v>
       </c>
-      <c r="R56" s="11">
+      <c r="S56" s="10">
         <v>46138</v>
       </c>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="9"/>
-      <c r="Z56" s="6"/>
-    </row>
-    <row r="57" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="8"/>
+      <c r="AA56" s="5"/>
+    </row>
+    <row r="57" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A57" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="E57" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="F57" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="G57" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G57" s="12">
+      <c r="H57" s="17">
         <v>0.36805555555555558</v>
       </c>
-      <c r="H57" s="12">
+      <c r="I57" s="17">
         <v>0.45833333333333331</v>
       </c>
-      <c r="I57" s="11">
+      <c r="J57" s="15">
         <v>46062</v>
       </c>
-      <c r="J57" s="11">
+      <c r="K57" s="15">
         <v>46069</v>
       </c>
-      <c r="K57" s="11">
+      <c r="L57" s="15">
         <v>46076</v>
       </c>
-      <c r="L57" s="11">
+      <c r="M57" s="15">
         <v>46083</v>
       </c>
-      <c r="M57" s="11">
+      <c r="N57" s="15">
         <v>46090</v>
       </c>
-      <c r="N57" s="11">
+      <c r="O57" s="10">
         <v>46097</v>
       </c>
-      <c r="O57" s="11">
+      <c r="P57" s="10">
         <v>46104</v>
       </c>
-      <c r="P57" s="11">
+      <c r="Q57" s="10">
         <v>46125</v>
       </c>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="9"/>
-      <c r="Z57" s="6"/>
-    </row>
-    <row r="58" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="5"/>
+    </row>
+    <row r="58" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A58" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="E58" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="F58" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="G58" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G58" s="12">
+      <c r="H58" s="17">
         <v>0.59375</v>
       </c>
-      <c r="H58" s="12">
+      <c r="I58" s="17">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I58" s="11">
+      <c r="J58" s="15">
         <v>46062</v>
       </c>
-      <c r="J58" s="11">
+      <c r="K58" s="15">
         <v>46069</v>
       </c>
-      <c r="K58" s="11">
+      <c r="L58" s="15">
         <v>46076</v>
       </c>
-      <c r="L58" s="11">
+      <c r="M58" s="15">
         <v>46083</v>
       </c>
-      <c r="M58" s="11">
+      <c r="N58" s="15">
         <v>46090</v>
       </c>
-      <c r="N58" s="11">
+      <c r="O58" s="10">
         <v>46097</v>
       </c>
-      <c r="O58" s="11">
+      <c r="P58" s="10">
         <v>46104</v>
       </c>
-      <c r="P58" s="11">
+      <c r="Q58" s="10">
         <v>46125</v>
       </c>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="9"/>
-      <c r="Z58" s="6"/>
-    </row>
-    <row r="59" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="5"/>
+    </row>
+    <row r="59" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A59" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="E59" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="F59" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="G59" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G59" s="12">
+      <c r="H59" s="17">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H59" s="12">
+      <c r="I59" s="17">
         <v>0.40625</v>
       </c>
-      <c r="I59" s="11">
+      <c r="J59" s="15">
         <v>45971</v>
       </c>
-      <c r="J59" s="11">
+      <c r="K59" s="15">
         <v>45978</v>
       </c>
-      <c r="K59" s="11">
+      <c r="L59" s="15">
         <v>45992</v>
       </c>
-      <c r="L59" s="11">
+      <c r="M59" s="15">
         <v>46006</v>
       </c>
-      <c r="M59" s="11">
+      <c r="N59" s="15">
         <v>46020</v>
       </c>
-      <c r="N59" s="11">
+      <c r="O59" s="10">
         <v>46034</v>
       </c>
-      <c r="O59" s="11">
+      <c r="P59" s="10">
         <v>46048</v>
       </c>
-      <c r="P59" s="11">
+      <c r="Q59" s="10">
         <v>46062</v>
       </c>
-      <c r="Q59" s="11">
+      <c r="R59" s="10">
         <v>46076</v>
       </c>
-      <c r="R59" s="11">
+      <c r="S59" s="10">
         <v>46090</v>
       </c>
-      <c r="S59" s="11">
+      <c r="T59" s="10">
         <v>46104</v>
       </c>
-      <c r="T59" s="11">
+      <c r="U59" s="10">
         <v>46132</v>
       </c>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
-      <c r="W59" s="5"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="9"/>
-      <c r="Z59" s="6"/>
-    </row>
-    <row r="60" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="5"/>
+    </row>
+    <row r="60" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A60" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="E60" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="F60" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="G60" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G60" s="12">
+      <c r="H60" s="17">
         <v>0.51041666666666663</v>
       </c>
-      <c r="H60" s="12">
+      <c r="I60" s="17">
         <v>0.56597222222222221</v>
       </c>
-      <c r="I60" s="11">
+      <c r="J60" s="15">
         <v>45972</v>
       </c>
-      <c r="J60" s="11">
+      <c r="K60" s="15">
         <v>45979</v>
       </c>
-      <c r="K60" s="11">
+      <c r="L60" s="15">
         <v>45986</v>
       </c>
-      <c r="L60" s="11">
+      <c r="M60" s="15">
         <v>45993</v>
       </c>
-      <c r="M60" s="11">
+      <c r="N60" s="15">
         <v>46000</v>
       </c>
-      <c r="N60" s="11">
+      <c r="O60" s="10">
         <v>46014</v>
       </c>
-      <c r="O60" s="11">
+      <c r="P60" s="10">
         <v>46021</v>
       </c>
-      <c r="P60" s="11">
+      <c r="Q60" s="10">
         <v>46028</v>
       </c>
-      <c r="Q60" s="11">
+      <c r="R60" s="10">
         <v>46035</v>
       </c>
-      <c r="R60" s="11">
+      <c r="S60" s="10">
         <v>46042</v>
       </c>
-      <c r="S60" s="11">
+      <c r="T60" s="10">
         <v>46049</v>
       </c>
-      <c r="T60" s="11">
+      <c r="U60" s="10">
         <v>46056</v>
       </c>
-      <c r="U60" s="11">
+      <c r="V60" s="10">
         <v>46063</v>
       </c>
-      <c r="V60" s="11">
+      <c r="W60" s="10">
         <v>46070</v>
       </c>
-      <c r="W60" s="11">
+      <c r="X60" s="10">
         <v>46077</v>
       </c>
-      <c r="X60" s="11">
+      <c r="Y60" s="10">
         <v>46091</v>
       </c>
-      <c r="Y60" s="9"/>
-      <c r="Z60" s="6"/>
-    </row>
-    <row r="61" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="5"/>
+    </row>
+    <row r="61" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A61" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="E61" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="F61" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="G61" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G61" s="12">
+      <c r="H61" s="17">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H61" s="12">
+      <c r="I61" s="17">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I61" s="11">
+      <c r="J61" s="15">
         <v>45974</v>
       </c>
-      <c r="J61" s="11">
+      <c r="K61" s="15">
         <v>45988</v>
       </c>
-      <c r="K61" s="11">
+      <c r="L61" s="15">
         <v>46002</v>
       </c>
-      <c r="L61" s="11">
+      <c r="M61" s="15">
         <v>46023</v>
       </c>
-      <c r="M61" s="11">
+      <c r="N61" s="15">
         <v>46030</v>
       </c>
-      <c r="N61" s="11">
+      <c r="O61" s="10">
         <v>46044</v>
       </c>
-      <c r="O61" s="11">
+      <c r="P61" s="10">
         <v>46062</v>
       </c>
-      <c r="P61" s="11">
+      <c r="Q61" s="10">
         <v>46083</v>
       </c>
-      <c r="Q61" s="11">
+      <c r="R61" s="10">
         <v>46097</v>
       </c>
-      <c r="R61" s="11">
+      <c r="S61" s="10">
         <v>46125</v>
       </c>
-      <c r="S61" s="11">
+      <c r="T61" s="10">
         <v>46146</v>
       </c>
-      <c r="T61" s="11">
+      <c r="U61" s="10">
         <v>46160</v>
       </c>
-      <c r="U61" s="11">
+      <c r="V61" s="10">
         <v>46174</v>
       </c>
-      <c r="V61" s="11">
+      <c r="W61" s="10">
         <v>46188</v>
       </c>
-      <c r="W61" s="5"/>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="9"/>
-      <c r="Z61" s="6"/>
-    </row>
-    <row r="62" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="8"/>
+      <c r="AA61" s="5"/>
+    </row>
+    <row r="62" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A62" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D62" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="E62" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="F62" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="G62" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G62" s="12">
+      <c r="H62" s="17">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H62" s="12">
+      <c r="I62" s="17">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I62" s="11">
+      <c r="J62" s="15">
         <v>45974</v>
       </c>
-      <c r="J62" s="11">
+      <c r="K62" s="15">
         <v>45988</v>
       </c>
-      <c r="K62" s="11">
+      <c r="L62" s="15">
         <v>46002</v>
       </c>
-      <c r="L62" s="11">
+      <c r="M62" s="15">
         <v>46023</v>
       </c>
-      <c r="M62" s="11">
+      <c r="N62" s="15">
         <v>46030</v>
       </c>
-      <c r="N62" s="11">
+      <c r="O62" s="10">
         <v>46044</v>
       </c>
-      <c r="O62" s="11">
+      <c r="P62" s="10">
         <v>46076</v>
       </c>
-      <c r="P62" s="11">
+      <c r="Q62" s="10">
         <v>46090</v>
       </c>
-      <c r="Q62" s="11">
+      <c r="R62" s="10">
         <v>46104</v>
       </c>
-      <c r="R62" s="11">
+      <c r="S62" s="10">
         <v>46139</v>
       </c>
-      <c r="S62" s="11">
+      <c r="T62" s="10">
         <v>46153</v>
       </c>
-      <c r="T62" s="11">
+      <c r="U62" s="10">
         <v>46167</v>
       </c>
-      <c r="U62" s="11">
+      <c r="V62" s="10">
         <v>46181</v>
       </c>
-      <c r="V62" s="11">
+      <c r="W62" s="10">
         <v>46195</v>
       </c>
-      <c r="W62" s="5"/>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="9"/>
-      <c r="Z62" s="6"/>
-    </row>
-    <row r="63" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="5"/>
+    </row>
+    <row r="63" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A63" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="E63" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="F63" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="G63" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G63" s="12">
+      <c r="H63" s="17">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H63" s="12">
+      <c r="I63" s="17">
         <v>0.375</v>
       </c>
-      <c r="I63" s="11">
+      <c r="J63" s="15">
         <v>45914</v>
       </c>
-      <c r="J63" s="11">
+      <c r="K63" s="15">
         <v>45921</v>
       </c>
-      <c r="K63" s="11">
+      <c r="L63" s="15">
         <v>45984</v>
       </c>
-      <c r="L63" s="11">
+      <c r="M63" s="15">
         <v>45991</v>
       </c>
-      <c r="M63" s="11">
+      <c r="N63" s="15">
         <v>45998</v>
       </c>
-      <c r="N63" s="11">
+      <c r="O63" s="10">
         <v>46005</v>
       </c>
-      <c r="O63" s="11">
+      <c r="P63" s="10">
         <v>46019</v>
       </c>
-      <c r="P63" s="11">
+      <c r="Q63" s="10">
         <v>46026</v>
       </c>
-      <c r="Q63" s="11">
+      <c r="R63" s="10">
         <v>46033</v>
       </c>
-      <c r="R63" s="11">
+      <c r="S63" s="10">
         <v>46040</v>
       </c>
-      <c r="S63" s="11">
+      <c r="T63" s="10">
         <v>46047</v>
       </c>
-      <c r="T63" s="11">
+      <c r="U63" s="10">
         <v>46054</v>
       </c>
-      <c r="U63" s="11">
+      <c r="V63" s="10">
         <v>46061</v>
       </c>
-      <c r="V63" s="11">
+      <c r="W63" s="10">
         <v>46068</v>
       </c>
-      <c r="W63" s="11">
+      <c r="X63" s="10">
         <v>46075</v>
       </c>
-      <c r="X63" s="11">
+      <c r="Y63" s="10">
         <v>46082</v>
       </c>
-      <c r="Y63" s="9"/>
-      <c r="Z63" s="6"/>
-    </row>
-    <row r="64" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
+      <c r="Z63" s="8"/>
+      <c r="AA63" s="5"/>
+    </row>
+    <row r="64" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A64" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D64" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="E64" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="F64" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="G64" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G64" s="12">
+      <c r="H64" s="17">
         <v>0.375</v>
       </c>
-      <c r="H64" s="12">
+      <c r="I64" s="17">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I64" s="11">
+      <c r="J64" s="15">
         <v>45914</v>
       </c>
-      <c r="J64" s="11">
+      <c r="K64" s="15">
         <v>45921</v>
       </c>
-      <c r="K64" s="11">
+      <c r="L64" s="15">
         <v>45984</v>
       </c>
-      <c r="L64" s="11">
+      <c r="M64" s="15">
         <v>45991</v>
       </c>
-      <c r="M64" s="11">
+      <c r="N64" s="15">
         <v>45998</v>
       </c>
-      <c r="N64" s="11">
+      <c r="O64" s="10">
         <v>46005</v>
       </c>
-      <c r="O64" s="11">
+      <c r="P64" s="10">
         <v>46019</v>
       </c>
-      <c r="P64" s="11">
+      <c r="Q64" s="10">
         <v>46026</v>
       </c>
-      <c r="Q64" s="11">
+      <c r="R64" s="10">
         <v>46033</v>
       </c>
-      <c r="R64" s="11">
+      <c r="S64" s="10">
         <v>46040</v>
       </c>
-      <c r="S64" s="11">
+      <c r="T64" s="10">
         <v>46047</v>
       </c>
-      <c r="T64" s="11">
+      <c r="U64" s="10">
         <v>46054</v>
       </c>
-      <c r="U64" s="11">
+      <c r="V64" s="10">
         <v>46061</v>
       </c>
-      <c r="V64" s="11">
+      <c r="W64" s="10">
         <v>46068</v>
       </c>
-      <c r="W64" s="11">
+      <c r="X64" s="10">
         <v>46075</v>
       </c>
-      <c r="X64" s="11">
+      <c r="Y64" s="10">
         <v>46082</v>
       </c>
-      <c r="Y64" s="9"/>
-      <c r="Z64" s="6"/>
-    </row>
-    <row r="65" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+      <c r="Z64" s="8"/>
+      <c r="AA64" s="5"/>
+    </row>
+    <row r="65" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A65" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="E65" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="F65" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="G65" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G65" s="12">
+      <c r="H65" s="17">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H65" s="12">
+      <c r="I65" s="17">
         <v>0.45833333333333331</v>
       </c>
-      <c r="I65" s="11">
+      <c r="J65" s="15">
         <v>45914</v>
       </c>
-      <c r="J65" s="11">
+      <c r="K65" s="15">
         <v>45921</v>
       </c>
-      <c r="K65" s="11">
+      <c r="L65" s="15">
         <v>45984</v>
       </c>
-      <c r="L65" s="11">
+      <c r="M65" s="15">
         <v>45991</v>
       </c>
-      <c r="M65" s="11">
+      <c r="N65" s="15">
         <v>45998</v>
       </c>
-      <c r="N65" s="11">
+      <c r="O65" s="10">
         <v>46005</v>
       </c>
-      <c r="O65" s="11">
+      <c r="P65" s="10">
         <v>46019</v>
       </c>
-      <c r="P65" s="11">
+      <c r="Q65" s="10">
         <v>46026</v>
       </c>
-      <c r="Q65" s="11">
+      <c r="R65" s="10">
         <v>46033</v>
       </c>
-      <c r="R65" s="11">
+      <c r="S65" s="10">
         <v>46040</v>
       </c>
-      <c r="S65" s="11">
+      <c r="T65" s="10">
         <v>46047</v>
       </c>
-      <c r="T65" s="11">
+      <c r="U65" s="10">
         <v>46054</v>
       </c>
-      <c r="U65" s="11">
+      <c r="V65" s="10">
         <v>46061</v>
       </c>
-      <c r="V65" s="11">
+      <c r="W65" s="10">
         <v>46068</v>
       </c>
-      <c r="W65" s="11">
+      <c r="X65" s="10">
         <v>46075</v>
       </c>
-      <c r="X65" s="11">
+      <c r="Y65" s="10">
         <v>46082</v>
       </c>
-      <c r="Y65" s="9"/>
-      <c r="Z65" s="6"/>
-    </row>
-    <row r="66" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+      <c r="Z65" s="8"/>
+      <c r="AA65" s="5"/>
+    </row>
+    <row r="66" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A66" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="E66" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="F66" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="G66" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G66" s="12">
+      <c r="H66" s="17">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H66" s="12">
+      <c r="I66" s="17">
         <v>0.60416666666666663</v>
       </c>
-      <c r="I66" s="11">
+      <c r="J66" s="15">
         <v>46071</v>
       </c>
-      <c r="J66" s="11">
+      <c r="K66" s="15">
         <v>46078</v>
       </c>
-      <c r="K66" s="11">
+      <c r="L66" s="15">
         <v>46092</v>
       </c>
-      <c r="L66" s="11">
+      <c r="M66" s="15">
         <v>46099</v>
       </c>
-      <c r="M66" s="11">
+      <c r="N66" s="15">
         <v>46127</v>
       </c>
-      <c r="N66" s="11">
+      <c r="O66" s="10">
         <v>46141</v>
       </c>
-      <c r="O66" s="11">
+      <c r="P66" s="10">
         <v>46148</v>
       </c>
-      <c r="P66" s="11">
+      <c r="Q66" s="10">
         <v>46155</v>
       </c>
-      <c r="Q66" s="11">
+      <c r="R66" s="10">
         <v>46162</v>
       </c>
-      <c r="R66" s="11">
+      <c r="S66" s="10">
         <v>46169</v>
       </c>
-      <c r="S66" s="11">
+      <c r="T66" s="10">
         <v>46176</v>
       </c>
-      <c r="T66" s="11">
+      <c r="U66" s="10">
         <v>46183</v>
       </c>
-      <c r="U66" s="11">
+      <c r="V66" s="10">
         <v>46190</v>
       </c>
-      <c r="V66" s="11">
+      <c r="W66" s="10">
         <v>46197</v>
       </c>
-      <c r="W66" s="5"/>
-      <c r="X66" s="5"/>
-      <c r="Y66" s="9"/>
-      <c r="Z66" s="6"/>
-    </row>
-    <row r="67" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="8"/>
+      <c r="AA66" s="5"/>
+    </row>
+    <row r="67" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A67" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D67" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="E67" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="F67" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="G67" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G67" s="12">
+      <c r="H67" s="17">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H67" s="12">
+      <c r="I67" s="17">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I67" s="11">
+      <c r="J67" s="15">
         <v>45951</v>
       </c>
-      <c r="J67" s="11">
+      <c r="K67" s="15">
         <v>45972</v>
       </c>
-      <c r="K67" s="11">
+      <c r="L67" s="15">
         <v>45993</v>
       </c>
-      <c r="L67" s="11">
+      <c r="M67" s="15">
         <v>46014</v>
       </c>
-      <c r="M67" s="11">
+      <c r="N67" s="15">
         <v>46035</v>
       </c>
-      <c r="N67" s="11">
+      <c r="O67" s="10">
         <v>46056</v>
       </c>
-      <c r="O67" s="11">
+      <c r="P67" s="10">
         <v>46077</v>
       </c>
-      <c r="P67" s="11">
+      <c r="Q67" s="10">
         <v>46098</v>
       </c>
-      <c r="Q67" s="11">
+      <c r="R67" s="10">
         <v>46140</v>
       </c>
-      <c r="R67" s="11">
+      <c r="S67" s="10">
         <v>46161</v>
       </c>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5"/>
-      <c r="W67" s="5"/>
-      <c r="X67" s="5"/>
-      <c r="Y67" s="9"/>
-      <c r="Z67" s="6"/>
-    </row>
-    <row r="68" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="8"/>
+      <c r="AA67" s="5"/>
+    </row>
+    <row r="68" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A68" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="E68" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="F68" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="G68" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G68" s="12">
+      <c r="H68" s="17">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H68" s="12">
+      <c r="I68" s="17">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I68" s="11">
+      <c r="J68" s="15">
         <v>45952</v>
       </c>
-      <c r="J68" s="11">
+      <c r="K68" s="15">
         <v>45973</v>
       </c>
-      <c r="K68" s="11">
+      <c r="L68" s="15">
         <v>45994</v>
       </c>
-      <c r="L68" s="11">
+      <c r="M68" s="15">
         <v>46015</v>
       </c>
-      <c r="M68" s="11">
+      <c r="N68" s="15">
         <v>46036</v>
       </c>
-      <c r="N68" s="11">
+      <c r="O68" s="10">
         <v>46057</v>
       </c>
-      <c r="O68" s="11">
+      <c r="P68" s="10">
         <v>46078</v>
       </c>
-      <c r="P68" s="11">
+      <c r="Q68" s="10">
         <v>46099</v>
       </c>
-      <c r="Q68" s="11">
+      <c r="R68" s="10">
         <v>46141</v>
       </c>
-      <c r="R68" s="11">
+      <c r="S68" s="10">
         <v>46162</v>
       </c>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5"/>
-      <c r="V68" s="5"/>
-      <c r="W68" s="5"/>
-      <c r="X68" s="5"/>
-      <c r="Y68" s="9"/>
-      <c r="Z68" s="6"/>
-    </row>
-    <row r="69" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="8"/>
+      <c r="AA68" s="5"/>
+    </row>
+    <row r="69" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A69" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="E69" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="F69" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="G69" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G69" s="12">
+      <c r="H69" s="17">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H69" s="12">
+      <c r="I69" s="17">
         <v>0.5</v>
       </c>
-      <c r="I69" s="11">
+      <c r="J69" s="15">
         <v>45952</v>
       </c>
-      <c r="J69" s="11">
+      <c r="K69" s="15">
         <v>45973</v>
       </c>
-      <c r="K69" s="11">
+      <c r="L69" s="15">
         <v>45994</v>
       </c>
-      <c r="L69" s="11">
+      <c r="M69" s="15">
         <v>46015</v>
       </c>
-      <c r="M69" s="11">
+      <c r="N69" s="15">
         <v>46036</v>
       </c>
-      <c r="N69" s="11">
+      <c r="O69" s="10">
         <v>46057</v>
       </c>
-      <c r="O69" s="11">
+      <c r="P69" s="10">
         <v>46078</v>
       </c>
-      <c r="P69" s="11">
+      <c r="Q69" s="10">
         <v>46099</v>
       </c>
-      <c r="Q69" s="11">
+      <c r="R69" s="10">
         <v>46141</v>
       </c>
-      <c r="R69" s="11">
+      <c r="S69" s="10">
         <v>46162</v>
       </c>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5"/>
-      <c r="V69" s="5"/>
-      <c r="W69" s="5"/>
-      <c r="X69" s="5"/>
-      <c r="Y69" s="9"/>
-      <c r="Z69" s="6"/>
-    </row>
-    <row r="70" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
+      <c r="X69" s="4"/>
+      <c r="Y69" s="4"/>
+      <c r="Z69" s="8"/>
+      <c r="AA69" s="5"/>
+    </row>
+    <row r="70" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A70" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D70" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="E70" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="F70" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="G70" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G70" s="12">
+      <c r="H70" s="17">
         <v>0.34375</v>
       </c>
-      <c r="H70" s="12">
+      <c r="I70" s="17">
         <v>0.40625</v>
       </c>
-      <c r="I70" s="11">
+      <c r="J70" s="15">
         <v>45986</v>
       </c>
-      <c r="J70" s="11">
+      <c r="K70" s="15">
         <v>45993</v>
       </c>
-      <c r="K70" s="11">
+      <c r="L70" s="15">
         <v>46000</v>
       </c>
-      <c r="L70" s="11">
+      <c r="M70" s="15">
         <v>46014</v>
       </c>
-      <c r="M70" s="11">
+      <c r="N70" s="15">
         <v>46021</v>
       </c>
-      <c r="N70" s="11">
+      <c r="O70" s="10">
         <v>46028</v>
       </c>
-      <c r="O70" s="11">
+      <c r="P70" s="10">
         <v>46035</v>
       </c>
-      <c r="P70" s="11">
+      <c r="Q70" s="10">
         <v>46042</v>
       </c>
-      <c r="Q70" s="11">
+      <c r="R70" s="10">
         <v>46049</v>
       </c>
-      <c r="R70" s="11">
+      <c r="S70" s="10">
         <v>46056</v>
       </c>
-      <c r="S70" s="11">
+      <c r="T70" s="10">
         <v>46063</v>
       </c>
-      <c r="T70" s="11">
+      <c r="U70" s="10">
         <v>46070</v>
       </c>
-      <c r="U70" s="11">
+      <c r="V70" s="10">
         <v>46077</v>
       </c>
-      <c r="V70" s="11">
+      <c r="W70" s="10">
         <v>46091</v>
       </c>
-      <c r="W70" s="5"/>
-      <c r="X70" s="5"/>
-      <c r="Y70" s="9"/>
-      <c r="Z70" s="6"/>
-    </row>
-    <row r="71" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="8"/>
+      <c r="AA70" s="5"/>
+    </row>
+    <row r="71" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A71" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D71" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="E71" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="F71" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="G71" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G71" s="12">
+      <c r="H71" s="17">
         <v>0.42708333333333331</v>
       </c>
-      <c r="H71" s="12">
+      <c r="I71" s="17">
         <v>0.48958333333333331</v>
       </c>
-      <c r="I71" s="11">
+      <c r="J71" s="15">
         <v>45986</v>
       </c>
-      <c r="J71" s="11">
+      <c r="K71" s="15">
         <v>46000</v>
       </c>
-      <c r="K71" s="11">
+      <c r="L71" s="15">
         <v>46014</v>
       </c>
-      <c r="L71" s="11">
+      <c r="M71" s="15">
         <v>46016</v>
       </c>
-      <c r="M71" s="11">
+      <c r="N71" s="15">
         <v>46021</v>
       </c>
-      <c r="N71" s="11">
+      <c r="O71" s="10">
         <v>46042</v>
       </c>
-      <c r="O71" s="11">
+      <c r="P71" s="10">
         <v>46049</v>
       </c>
-      <c r="P71" s="11">
+      <c r="Q71" s="10">
         <v>46063</v>
       </c>
-      <c r="Q71" s="11">
+      <c r="R71" s="10">
         <v>46077</v>
       </c>
-      <c r="R71" s="11">
+      <c r="S71" s="10">
         <v>46091</v>
       </c>
-      <c r="S71" s="11">
+      <c r="T71" s="10">
         <v>46105</v>
       </c>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5"/>
-      <c r="V71" s="5"/>
-      <c r="W71" s="5"/>
-      <c r="X71" s="5"/>
-      <c r="Y71" s="9"/>
-      <c r="Z71" s="6"/>
-    </row>
-    <row r="72" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="8"/>
+      <c r="AA71" s="5"/>
+    </row>
+    <row r="72" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A72" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D72" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="E72" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="F72" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="G72" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G72" s="12">
+      <c r="H72" s="17">
         <v>0.4375</v>
       </c>
-      <c r="H72" s="12">
+      <c r="I72" s="17">
         <v>0.5</v>
       </c>
-      <c r="I72" s="11">
+      <c r="J72" s="15">
         <v>46016</v>
       </c>
-      <c r="J72" s="11">
+      <c r="K72" s="15">
         <v>46023</v>
       </c>
-      <c r="K72" s="11">
+      <c r="L72" s="15">
         <v>46030</v>
       </c>
-      <c r="L72" s="11">
+      <c r="M72" s="15">
         <v>46037</v>
       </c>
-      <c r="M72" s="11">
+      <c r="N72" s="15">
         <v>46044</v>
       </c>
-      <c r="N72" s="11">
+      <c r="O72" s="10">
         <v>46051</v>
       </c>
-      <c r="O72" s="11">
+      <c r="P72" s="10">
         <v>46058</v>
       </c>
-      <c r="P72" s="11">
+      <c r="Q72" s="10">
         <v>46065</v>
       </c>
-      <c r="Q72" s="11">
+      <c r="R72" s="10">
         <v>46072</v>
       </c>
-      <c r="R72" s="11">
+      <c r="S72" s="10">
         <v>46079</v>
       </c>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
-      <c r="U72" s="5"/>
-      <c r="V72" s="5"/>
-      <c r="W72" s="5"/>
-      <c r="X72" s="5"/>
-      <c r="Y72" s="9"/>
-      <c r="Z72" s="6"/>
-    </row>
-    <row r="73" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="8"/>
+      <c r="AA72" s="5"/>
+    </row>
+    <row r="73" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A73" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D73" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="E73" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="F73" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="G73" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G73" s="12">
+      <c r="H73" s="17">
         <v>0.35416666666666669</v>
       </c>
-      <c r="H73" s="12">
+      <c r="I73" s="17">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I73" s="11">
+      <c r="J73" s="15">
         <v>45991</v>
       </c>
-      <c r="J73" s="11">
+      <c r="K73" s="15">
         <v>45998</v>
       </c>
-      <c r="K73" s="11">
+      <c r="L73" s="15">
         <v>46005</v>
       </c>
-      <c r="L73" s="11">
+      <c r="M73" s="15">
         <v>46019</v>
       </c>
-      <c r="M73" s="11">
+      <c r="N73" s="15">
         <v>46026</v>
       </c>
-      <c r="N73" s="11">
+      <c r="O73" s="10">
         <v>46033</v>
       </c>
-      <c r="O73" s="11">
+      <c r="P73" s="10">
         <v>46040</v>
       </c>
-      <c r="P73" s="11">
+      <c r="Q73" s="10">
         <v>46047</v>
       </c>
-      <c r="Q73" s="11">
+      <c r="R73" s="10">
         <v>46054</v>
       </c>
-      <c r="R73" s="11">
+      <c r="S73" s="10">
         <v>46061</v>
       </c>
-      <c r="S73" s="11">
+      <c r="T73" s="10">
         <v>46068</v>
       </c>
-      <c r="T73" s="11">
+      <c r="U73" s="10">
         <v>46075</v>
       </c>
-      <c r="U73" s="11">
+      <c r="V73" s="10">
         <v>46082</v>
       </c>
-      <c r="V73" s="5"/>
-      <c r="W73" s="5"/>
-      <c r="X73" s="5"/>
-      <c r="Y73" s="9"/>
-      <c r="Z73" s="6"/>
-    </row>
-    <row r="74" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
+      <c r="W73" s="4"/>
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="8"/>
+      <c r="AA73" s="5"/>
+    </row>
+    <row r="74" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A74" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D74" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="E74" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="F74" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="G74" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G74" s="12">
+      <c r="H74" s="17">
         <v>0.4375</v>
       </c>
-      <c r="H74" s="12">
+      <c r="I74" s="17">
         <v>0.5</v>
       </c>
-      <c r="I74" s="11">
+      <c r="J74" s="15">
         <v>45991</v>
       </c>
-      <c r="J74" s="11">
+      <c r="K74" s="15">
         <v>45998</v>
       </c>
-      <c r="K74" s="11">
+      <c r="L74" s="15">
         <v>46005</v>
       </c>
-      <c r="L74" s="11">
+      <c r="M74" s="15">
         <v>46019</v>
       </c>
-      <c r="M74" s="11">
+      <c r="N74" s="15">
         <v>46026</v>
       </c>
-      <c r="N74" s="11">
+      <c r="O74" s="10">
         <v>46033</v>
       </c>
-      <c r="O74" s="11">
+      <c r="P74" s="10">
         <v>46040</v>
       </c>
-      <c r="P74" s="11">
+      <c r="Q74" s="10">
         <v>46047</v>
       </c>
-      <c r="Q74" s="11">
+      <c r="R74" s="10">
         <v>46054</v>
       </c>
-      <c r="R74" s="11">
+      <c r="S74" s="10">
         <v>46061</v>
       </c>
-      <c r="S74" s="11">
+      <c r="T74" s="10">
         <v>46068</v>
       </c>
-      <c r="T74" s="11">
+      <c r="U74" s="10">
         <v>46075</v>
       </c>
-      <c r="U74" s="11">
+      <c r="V74" s="10">
         <v>46082</v>
       </c>
-      <c r="V74" s="5"/>
-      <c r="W74" s="5"/>
-      <c r="X74" s="5"/>
-      <c r="Y74" s="9"/>
-      <c r="Z74" s="6"/>
-    </row>
-    <row r="75" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
+      <c r="W74" s="4"/>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="8"/>
+      <c r="AA74" s="5"/>
+    </row>
+    <row r="75" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A75" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D75" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="E75" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="F75" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="G75" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G75" s="12">
+      <c r="H75" s="17">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H75" s="12">
+      <c r="I75" s="17">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I75" s="11">
+      <c r="J75" s="15">
         <v>46022</v>
       </c>
-      <c r="J75" s="11">
+      <c r="K75" s="15">
         <v>46029</v>
       </c>
-      <c r="K75" s="11">
+      <c r="L75" s="15">
         <v>46036</v>
       </c>
-      <c r="L75" s="11">
+      <c r="M75" s="15">
         <v>46043</v>
       </c>
-      <c r="M75" s="11">
+      <c r="N75" s="15">
         <v>46050</v>
       </c>
-      <c r="N75" s="11">
+      <c r="O75" s="10">
         <v>46057</v>
       </c>
-      <c r="O75" s="11">
+      <c r="P75" s="10">
         <v>46064</v>
       </c>
-      <c r="P75" s="11">
+      <c r="Q75" s="10">
         <v>46071</v>
       </c>
-      <c r="Q75" s="11">
+      <c r="R75" s="10">
         <v>46078</v>
       </c>
-      <c r="R75" s="11">
+      <c r="S75" s="10">
         <v>46092</v>
       </c>
-      <c r="S75" s="11">
+      <c r="T75" s="10">
         <v>46099</v>
       </c>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5"/>
-      <c r="V75" s="5"/>
-      <c r="W75" s="5"/>
-      <c r="X75" s="5"/>
-      <c r="Y75" s="9"/>
-      <c r="Z75" s="6"/>
-    </row>
-    <row r="76" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="8"/>
+      <c r="AA75" s="5"/>
+    </row>
+    <row r="76" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A76" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D76" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="E76" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="F76" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="G76" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G76" s="12">
+      <c r="H76" s="17">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H76" s="12">
+      <c r="I76" s="17">
         <v>0.5</v>
       </c>
-      <c r="I76" s="11">
+      <c r="J76" s="15">
         <v>46022</v>
       </c>
-      <c r="J76" s="11">
+      <c r="K76" s="15">
         <v>46029</v>
       </c>
-      <c r="K76" s="11">
+      <c r="L76" s="15">
         <v>46036</v>
       </c>
-      <c r="L76" s="11">
+      <c r="M76" s="15">
         <v>46043</v>
       </c>
-      <c r="M76" s="11">
+      <c r="N76" s="15">
         <v>46050</v>
       </c>
-      <c r="N76" s="11">
+      <c r="O76" s="10">
         <v>46057</v>
       </c>
-      <c r="O76" s="11">
+      <c r="P76" s="10">
         <v>46064</v>
       </c>
-      <c r="P76" s="11">
+      <c r="Q76" s="10">
         <v>46071</v>
       </c>
-      <c r="Q76" s="11">
+      <c r="R76" s="10">
         <v>46078</v>
       </c>
-      <c r="R76" s="11">
+      <c r="S76" s="10">
         <v>46092</v>
       </c>
-      <c r="S76" s="11">
+      <c r="T76" s="10">
         <v>46099</v>
       </c>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5"/>
-      <c r="V76" s="5"/>
-      <c r="W76" s="5"/>
-      <c r="X76" s="5"/>
-      <c r="Y76" s="9"/>
-      <c r="Z76" s="6"/>
-    </row>
-    <row r="77" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="8"/>
+      <c r="AA76" s="5"/>
+    </row>
+    <row r="77" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A77" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D77" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="E77" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="F77" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="G77" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G77" s="12">
+      <c r="H77" s="17">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H77" s="12">
+      <c r="I77" s="17">
         <v>0.47916666666666669</v>
       </c>
-      <c r="I77" s="11">
+      <c r="J77" s="15">
         <v>46079</v>
       </c>
-      <c r="J77" s="11">
+      <c r="K77" s="15">
         <v>46086</v>
       </c>
-      <c r="K77" s="11">
+      <c r="L77" s="15">
         <v>46093</v>
       </c>
-      <c r="L77" s="11">
+      <c r="M77" s="15">
         <v>46100</v>
       </c>
-      <c r="M77" s="11">
+      <c r="N77" s="15">
         <v>46121</v>
       </c>
-      <c r="N77" s="11">
+      <c r="O77" s="10">
         <v>46128</v>
       </c>
-      <c r="O77" s="11">
+      <c r="P77" s="10">
         <v>46135</v>
       </c>
-      <c r="P77" s="11">
+      <c r="Q77" s="10">
         <v>46156</v>
       </c>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
-      <c r="U77" s="5"/>
-      <c r="V77" s="5"/>
-      <c r="W77" s="5"/>
-      <c r="X77" s="5"/>
-      <c r="Y77" s="9"/>
-      <c r="Z77" s="6"/>
-    </row>
-    <row r="78" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="8"/>
+      <c r="AA77" s="5"/>
+    </row>
+    <row r="78" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A78" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D78" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="E78" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="F78" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="G78" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G78" s="12">
+      <c r="H78" s="17">
         <v>0.5</v>
       </c>
-      <c r="H78" s="12">
+      <c r="I78" s="17">
         <v>0.5625</v>
       </c>
-      <c r="I78" s="11">
+      <c r="J78" s="15">
         <v>46079</v>
       </c>
-      <c r="J78" s="11">
+      <c r="K78" s="15">
         <v>46086</v>
       </c>
-      <c r="K78" s="11">
+      <c r="L78" s="15">
         <v>46093</v>
       </c>
-      <c r="L78" s="11">
+      <c r="M78" s="15">
         <v>46100</v>
       </c>
-      <c r="M78" s="11">
+      <c r="N78" s="15">
         <v>46121</v>
       </c>
-      <c r="N78" s="11">
+      <c r="O78" s="10">
         <v>46128</v>
       </c>
-      <c r="O78" s="11">
+      <c r="P78" s="10">
         <v>46135</v>
       </c>
-      <c r="P78" s="11">
+      <c r="Q78" s="10">
         <v>46156</v>
       </c>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5"/>
-      <c r="V78" s="5"/>
-      <c r="W78" s="5"/>
-      <c r="X78" s="5"/>
-      <c r="Y78" s="9"/>
-      <c r="Z78" s="6"/>
-    </row>
-    <row r="79" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="8"/>
+      <c r="AA78" s="5"/>
+    </row>
+    <row r="79" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A79" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D79" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="E79" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="F79" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="G79" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G79" s="12">
+      <c r="H79" s="17">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H79" s="12">
+      <c r="I79" s="17">
         <v>0.39583333333333331</v>
       </c>
-      <c r="I79" s="11">
+      <c r="J79" s="15">
         <v>46079</v>
       </c>
-      <c r="J79" s="11">
+      <c r="K79" s="15">
         <v>46086</v>
       </c>
-      <c r="K79" s="11">
+      <c r="L79" s="15">
         <v>46093</v>
       </c>
-      <c r="L79" s="11">
+      <c r="M79" s="15">
         <v>46100</v>
       </c>
-      <c r="M79" s="11">
+      <c r="N79" s="15">
         <v>46121</v>
       </c>
-      <c r="N79" s="11">
+      <c r="O79" s="10">
         <v>46128</v>
       </c>
-      <c r="O79" s="11">
+      <c r="P79" s="10">
         <v>46135</v>
       </c>
-      <c r="P79" s="11">
+      <c r="Q79" s="10">
         <v>46156</v>
       </c>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-      <c r="U79" s="5"/>
-      <c r="V79" s="5"/>
-      <c r="W79" s="5"/>
-      <c r="X79" s="5"/>
-      <c r="Y79" s="9"/>
-      <c r="Z79" s="6"/>
-    </row>
-    <row r="80" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="8"/>
+      <c r="AA79" s="5"/>
+    </row>
+    <row r="80" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A80" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D80" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="E80" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="F80" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="G80" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G80" s="12">
+      <c r="H80" s="17">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H80" s="12">
+      <c r="I80" s="17">
         <v>0.39583333333333331</v>
       </c>
-      <c r="I80" s="11">
+      <c r="J80" s="15">
         <v>46061</v>
       </c>
-      <c r="J80" s="11">
+      <c r="K80" s="15">
         <v>46068</v>
       </c>
-      <c r="K80" s="11">
+      <c r="L80" s="15">
         <v>46075</v>
       </c>
-      <c r="L80" s="11">
+      <c r="M80" s="15">
         <v>46082</v>
       </c>
-      <c r="M80" s="11">
+      <c r="N80" s="15">
         <v>46089</v>
       </c>
-      <c r="N80" s="11">
+      <c r="O80" s="10">
         <v>46096</v>
       </c>
-      <c r="O80" s="11">
+      <c r="P80" s="10">
         <v>46103</v>
       </c>
-      <c r="P80" s="11">
+      <c r="Q80" s="10">
         <v>46156</v>
       </c>
-      <c r="Q80" s="5"/>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
-      <c r="U80" s="5"/>
-      <c r="V80" s="5"/>
-      <c r="W80" s="5"/>
-      <c r="X80" s="5"/>
-      <c r="Y80" s="9"/>
-      <c r="Z80" s="6"/>
-    </row>
-    <row r="81" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="8"/>
+      <c r="AA80" s="5"/>
+    </row>
+    <row r="81" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A81" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D81" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="E81" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="F81" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="G81" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G81" s="12">
+      <c r="H81" s="17">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H81" s="12">
+      <c r="I81" s="17">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I81" s="11">
+      <c r="J81" s="15">
         <v>46061</v>
       </c>
-      <c r="J81" s="11">
+      <c r="K81" s="15">
         <v>46068</v>
       </c>
-      <c r="K81" s="11">
+      <c r="L81" s="15">
         <v>46075</v>
       </c>
-      <c r="L81" s="11">
+      <c r="M81" s="15">
         <v>46082</v>
       </c>
-      <c r="M81" s="11">
+      <c r="N81" s="15">
         <v>46089</v>
       </c>
-      <c r="N81" s="11">
+      <c r="O81" s="10">
         <v>46096</v>
       </c>
-      <c r="O81" s="11">
+      <c r="P81" s="10">
         <v>46103</v>
       </c>
-      <c r="P81" s="11">
+      <c r="Q81" s="10">
         <v>46156</v>
       </c>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="5"/>
-      <c r="U81" s="5"/>
-      <c r="V81" s="5"/>
-      <c r="W81" s="5"/>
-      <c r="X81" s="5"/>
-      <c r="Y81" s="9"/>
-      <c r="Z81" s="6"/>
-    </row>
-    <row r="82" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
+      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="4"/>
+      <c r="X81" s="4"/>
+      <c r="Y81" s="4"/>
+      <c r="Z81" s="8"/>
+      <c r="AA81" s="5"/>
+    </row>
+    <row r="82" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A82" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D82" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="E82" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="F82" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="G82" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G82" s="12">
+      <c r="H82" s="17">
         <v>0.39583333333333331</v>
       </c>
-      <c r="H82" s="12">
+      <c r="I82" s="17">
         <v>0.45833333333333331</v>
       </c>
-      <c r="I82" s="11">
+      <c r="J82" s="15">
         <v>46064</v>
       </c>
-      <c r="J82" s="11">
+      <c r="K82" s="15">
         <v>46071</v>
       </c>
-      <c r="K82" s="11">
+      <c r="L82" s="15">
         <v>46078</v>
       </c>
-      <c r="L82" s="11">
+      <c r="M82" s="15">
         <v>46092</v>
       </c>
-      <c r="M82" s="11">
+      <c r="N82" s="15">
         <v>46099</v>
       </c>
-      <c r="N82" s="11">
+      <c r="O82" s="10">
         <v>46127</v>
       </c>
-      <c r="O82" s="11">
+      <c r="P82" s="10">
         <v>46141</v>
       </c>
-      <c r="P82" s="11">
+      <c r="Q82" s="10">
         <v>46156</v>
       </c>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5"/>
-      <c r="V82" s="5"/>
-      <c r="W82" s="5"/>
-      <c r="X82" s="5"/>
-      <c r="Y82" s="9"/>
-      <c r="Z82" s="6"/>
-    </row>
-    <row r="83" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="8"/>
+      <c r="AA82" s="5"/>
+    </row>
+    <row r="83" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A83" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D83" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="E83" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="F83" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="G83" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G83" s="12">
+      <c r="H83" s="17">
         <v>0.48958333333333331</v>
       </c>
-      <c r="H83" s="12">
+      <c r="I83" s="17">
         <v>0.52083333333333337</v>
       </c>
-      <c r="I83" s="11">
+      <c r="J83" s="15">
         <v>46064</v>
       </c>
-      <c r="J83" s="11">
+      <c r="K83" s="15">
         <v>46071</v>
       </c>
-      <c r="K83" s="11">
+      <c r="L83" s="15">
         <v>46078</v>
       </c>
-      <c r="L83" s="11">
+      <c r="M83" s="15">
         <v>46092</v>
       </c>
-      <c r="M83" s="11">
+      <c r="N83" s="15">
         <v>46099</v>
       </c>
-      <c r="N83" s="11">
+      <c r="O83" s="10">
         <v>46127</v>
       </c>
-      <c r="O83" s="11">
+      <c r="P83" s="10">
         <v>46141</v>
       </c>
-      <c r="P83" s="11">
+      <c r="Q83" s="10">
         <v>46156</v>
       </c>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5"/>
-      <c r="V83" s="5"/>
-      <c r="W83" s="5"/>
-      <c r="X83" s="5"/>
-      <c r="Y83" s="9"/>
-      <c r="Z83" s="6"/>
-    </row>
-    <row r="84" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
+      <c r="R83" s="4"/>
+      <c r="S83" s="4"/>
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="4"/>
+      <c r="X83" s="4"/>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="8"/>
+      <c r="AA83" s="5"/>
+    </row>
+    <row r="84" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A84" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D84" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="E84" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="F84" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="G84" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G84" s="12">
+      <c r="H84" s="17">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H84" s="12">
+      <c r="I84" s="17">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I84" s="11">
+      <c r="J84" s="15">
         <v>46058</v>
       </c>
-      <c r="J84" s="11">
+      <c r="K84" s="15">
         <v>46065</v>
       </c>
-      <c r="K84" s="11">
+      <c r="L84" s="15">
         <v>46072</v>
       </c>
-      <c r="L84" s="11">
+      <c r="M84" s="15">
         <v>46079</v>
       </c>
-      <c r="M84" s="11">
+      <c r="N84" s="15">
         <v>46086</v>
       </c>
-      <c r="N84" s="11">
+      <c r="O84" s="10">
         <v>46093</v>
       </c>
-      <c r="O84" s="11">
+      <c r="P84" s="10">
         <v>46100</v>
       </c>
-      <c r="P84" s="11">
+      <c r="Q84" s="10">
         <v>46156</v>
       </c>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
-      <c r="U84" s="5"/>
-      <c r="V84" s="5"/>
-      <c r="W84" s="5"/>
-      <c r="X84" s="5"/>
-      <c r="Y84" s="9"/>
-      <c r="Z84" s="6"/>
-    </row>
-    <row r="85" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4" t="s">
+      <c r="R84" s="4"/>
+      <c r="S84" s="4"/>
+      <c r="T84" s="4"/>
+      <c r="U84" s="4"/>
+      <c r="V84" s="4"/>
+      <c r="W84" s="4"/>
+      <c r="X84" s="4"/>
+      <c r="Y84" s="4"/>
+      <c r="Z84" s="8"/>
+      <c r="AA84" s="5"/>
+    </row>
+    <row r="85" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A85" s="13"/>
+      <c r="B85" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D85" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="E85" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
-      <c r="N85" s="5"/>
-      <c r="O85" s="5"/>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
-      <c r="U85" s="5"/>
-      <c r="V85" s="5"/>
-      <c r="W85" s="5"/>
-      <c r="X85" s="5"/>
-      <c r="Y85" s="9"/>
-      <c r="Z85" s="6"/>
-    </row>
-    <row r="86" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4" t="s">
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="18"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4"/>
+      <c r="S85" s="4"/>
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="4"/>
+      <c r="W85" s="4"/>
+      <c r="X85" s="4"/>
+      <c r="Y85" s="4"/>
+      <c r="Z85" s="8"/>
+      <c r="AA85" s="5"/>
+    </row>
+    <row r="86" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A86" s="13"/>
+      <c r="B86" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D86" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="E86" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-      <c r="U86" s="5"/>
-      <c r="V86" s="5"/>
-      <c r="W86" s="5"/>
-      <c r="X86" s="5"/>
-      <c r="Y86" s="9"/>
-      <c r="Z86" s="6"/>
-    </row>
-    <row r="87" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4" t="s">
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="18"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4"/>
+      <c r="S86" s="4"/>
+      <c r="T86" s="4"/>
+      <c r="U86" s="4"/>
+      <c r="V86" s="4"/>
+      <c r="W86" s="4"/>
+      <c r="X86" s="4"/>
+      <c r="Y86" s="4"/>
+      <c r="Z86" s="8"/>
+      <c r="AA86" s="5"/>
+    </row>
+    <row r="87" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A87" s="13"/>
+      <c r="B87" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D87" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="E87" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
-      <c r="O87" s="5"/>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="5"/>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="5"/>
-      <c r="U87" s="5"/>
-      <c r="V87" s="5"/>
-      <c r="W87" s="5"/>
-      <c r="X87" s="5"/>
-      <c r="Y87" s="9"/>
-      <c r="Z87" s="6"/>
-    </row>
-    <row r="88" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4" t="s">
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="18"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4"/>
+      <c r="S87" s="4"/>
+      <c r="T87" s="4"/>
+      <c r="U87" s="4"/>
+      <c r="V87" s="4"/>
+      <c r="W87" s="4"/>
+      <c r="X87" s="4"/>
+      <c r="Y87" s="4"/>
+      <c r="Z87" s="8"/>
+      <c r="AA87" s="5"/>
+    </row>
+    <row r="88" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A88" s="13"/>
+      <c r="B88" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D88" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="E88" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="5"/>
-      <c r="N88" s="5"/>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="5"/>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
-      <c r="U88" s="5"/>
-      <c r="V88" s="5"/>
-      <c r="W88" s="5"/>
-      <c r="X88" s="5"/>
-      <c r="Y88" s="9"/>
-      <c r="Z88" s="6"/>
-    </row>
-    <row r="89" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4" t="s">
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="18"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4"/>
+      <c r="S88" s="4"/>
+      <c r="T88" s="4"/>
+      <c r="U88" s="4"/>
+      <c r="V88" s="4"/>
+      <c r="W88" s="4"/>
+      <c r="X88" s="4"/>
+      <c r="Y88" s="4"/>
+      <c r="Z88" s="8"/>
+      <c r="AA88" s="5"/>
+    </row>
+    <row r="89" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A89" s="13"/>
+      <c r="B89" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D89" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="E89" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="5"/>
-      <c r="S89" s="5"/>
-      <c r="T89" s="5"/>
-      <c r="U89" s="5"/>
-      <c r="V89" s="5"/>
-      <c r="W89" s="5"/>
-      <c r="X89" s="5"/>
-      <c r="Y89" s="9"/>
-      <c r="Z89" s="6"/>
-    </row>
-    <row r="90" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="18"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
+      <c r="S89" s="4"/>
+      <c r="T89" s="4"/>
+      <c r="U89" s="4"/>
+      <c r="V89" s="4"/>
+      <c r="W89" s="4"/>
+      <c r="X89" s="4"/>
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="8"/>
+      <c r="AA89" s="5"/>
+    </row>
+    <row r="90" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A90" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D90" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="E90" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="F90" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="G90" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G90" s="12">
+      <c r="H90" s="17">
         <v>0.5</v>
       </c>
-      <c r="H90" s="12">
+      <c r="I90" s="17">
         <v>0.5625</v>
       </c>
-      <c r="I90" s="11">
+      <c r="J90" s="15">
         <v>46061</v>
       </c>
-      <c r="J90" s="11">
+      <c r="K90" s="15">
         <v>46068</v>
       </c>
-      <c r="K90" s="11">
+      <c r="L90" s="15">
         <v>46075</v>
       </c>
-      <c r="L90" s="11">
+      <c r="M90" s="15">
         <v>46082</v>
       </c>
-      <c r="M90" s="11">
+      <c r="N90" s="15">
         <v>46089</v>
       </c>
-      <c r="N90" s="11">
+      <c r="O90" s="10">
         <v>46096</v>
       </c>
-      <c r="O90" s="11">
+      <c r="P90" s="10">
         <v>46103</v>
       </c>
-      <c r="P90" s="11">
+      <c r="Q90" s="10">
         <v>46124</v>
       </c>
-      <c r="Q90" s="11">
+      <c r="R90" s="10">
         <v>46131</v>
       </c>
-      <c r="R90" s="11">
+      <c r="S90" s="10">
         <v>46138</v>
       </c>
-      <c r="S90" s="5"/>
-      <c r="T90" s="5"/>
-      <c r="U90" s="5"/>
-      <c r="V90" s="5"/>
-      <c r="W90" s="5"/>
-      <c r="X90" s="5"/>
-      <c r="Y90" s="9"/>
-      <c r="Z90" s="6"/>
-    </row>
-    <row r="91" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
+      <c r="T90" s="4"/>
+      <c r="U90" s="4"/>
+      <c r="V90" s="4"/>
+      <c r="W90" s="4"/>
+      <c r="X90" s="4"/>
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="8"/>
+      <c r="AA90" s="5"/>
+    </row>
+    <row r="91" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A91" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D91" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="E91" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="F91" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="G91" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G91" s="12">
+      <c r="H91" s="17">
         <v>0.55208333333333337</v>
       </c>
-      <c r="H91" s="12">
+      <c r="I91" s="17">
         <v>0.61458333333333337</v>
       </c>
-      <c r="I91" s="11">
+      <c r="J91" s="15">
         <v>46063</v>
       </c>
-      <c r="J91" s="11">
+      <c r="K91" s="15">
         <v>46070</v>
       </c>
-      <c r="K91" s="11">
+      <c r="L91" s="15">
         <v>46077</v>
       </c>
-      <c r="L91" s="11">
+      <c r="M91" s="15">
         <v>46091</v>
       </c>
-      <c r="M91" s="11">
+      <c r="N91" s="15">
         <v>46098</v>
       </c>
-      <c r="N91" s="11">
+      <c r="O91" s="10">
         <v>46126</v>
       </c>
-      <c r="O91" s="11">
+      <c r="P91" s="10">
         <v>46140</v>
       </c>
-      <c r="P91" s="11">
+      <c r="Q91" s="10">
         <v>46147</v>
       </c>
-      <c r="Q91" s="11">
+      <c r="R91" s="10">
         <v>46154</v>
       </c>
-      <c r="R91" s="11">
+      <c r="S91" s="10">
         <v>46161</v>
       </c>
-      <c r="S91" s="5"/>
-      <c r="T91" s="5"/>
-      <c r="U91" s="5"/>
-      <c r="V91" s="5"/>
-      <c r="W91" s="5"/>
-      <c r="X91" s="5"/>
-      <c r="Y91" s="9"/>
-      <c r="Z91" s="6"/>
-    </row>
-    <row r="92" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
+      <c r="T91" s="4"/>
+      <c r="U91" s="4"/>
+      <c r="V91" s="4"/>
+      <c r="W91" s="4"/>
+      <c r="X91" s="4"/>
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="8"/>
+      <c r="AA91" s="5"/>
+    </row>
+    <row r="92" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A92" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D92" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="E92" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="F92" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="G92" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G92" s="12">
+      <c r="H92" s="17">
         <v>0.63541666666666663</v>
       </c>
-      <c r="H92" s="12">
+      <c r="I92" s="17">
         <v>0.67708333333333337</v>
       </c>
-      <c r="I92" s="11">
+      <c r="J92" s="15">
         <v>45904</v>
       </c>
-      <c r="J92" s="11">
+      <c r="K92" s="15">
         <v>45911</v>
       </c>
-      <c r="K92" s="11">
+      <c r="L92" s="15">
         <v>45918</v>
       </c>
-      <c r="L92" s="11">
+      <c r="M92" s="15">
         <v>45925</v>
       </c>
-      <c r="M92" s="11">
+      <c r="N92" s="15">
         <v>45946</v>
       </c>
-      <c r="N92" s="11">
+      <c r="O92" s="10">
         <v>45953</v>
       </c>
-      <c r="O92" s="11">
+      <c r="P92" s="10">
         <v>45960</v>
       </c>
-      <c r="P92" s="11">
+      <c r="Q92" s="10">
         <v>45967</v>
       </c>
-      <c r="Q92" s="11">
+      <c r="R92" s="10">
         <v>45974</v>
       </c>
-      <c r="R92" s="11">
+      <c r="S92" s="10">
         <v>45981</v>
       </c>
-      <c r="S92" s="11">
+      <c r="T92" s="10">
         <v>45988</v>
       </c>
-      <c r="T92" s="11">
+      <c r="U92" s="10">
         <v>45995</v>
       </c>
-      <c r="U92" s="11">
+      <c r="V92" s="10">
         <v>46002</v>
       </c>
-      <c r="V92" s="11">
+      <c r="W92" s="10">
         <v>46016</v>
       </c>
-      <c r="W92" s="11">
+      <c r="X92" s="10">
         <v>46023</v>
       </c>
-      <c r="X92" s="11">
+      <c r="Y92" s="10">
         <v>46030</v>
       </c>
-      <c r="Y92" s="9"/>
-      <c r="Z92" s="6"/>
-    </row>
-    <row r="93" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
+      <c r="Z92" s="8"/>
+      <c r="AA92" s="5"/>
+    </row>
+    <row r="93" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A93" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D93" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="E93" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="F93" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="G93" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G93" s="12">
+      <c r="H93" s="17">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H93" s="12">
+      <c r="I93" s="17">
         <v>0.625</v>
       </c>
-      <c r="I93" s="11">
+      <c r="J93" s="15">
         <v>45904</v>
       </c>
-      <c r="J93" s="11">
+      <c r="K93" s="15">
         <v>45911</v>
       </c>
-      <c r="K93" s="11">
+      <c r="L93" s="15">
         <v>45918</v>
       </c>
-      <c r="L93" s="11">
+      <c r="M93" s="15">
         <v>45925</v>
       </c>
-      <c r="M93" s="11">
+      <c r="N93" s="15">
         <v>45946</v>
       </c>
-      <c r="N93" s="11">
+      <c r="O93" s="10">
         <v>45953</v>
       </c>
-      <c r="O93" s="11">
+      <c r="P93" s="10">
         <v>45960</v>
       </c>
-      <c r="P93" s="11">
+      <c r="Q93" s="10">
         <v>45967</v>
       </c>
-      <c r="Q93" s="11">
+      <c r="R93" s="10">
         <v>45974</v>
       </c>
-      <c r="R93" s="11">
+      <c r="S93" s="10">
         <v>45981</v>
       </c>
-      <c r="S93" s="11">
+      <c r="T93" s="10">
         <v>45988</v>
       </c>
-      <c r="T93" s="11">
+      <c r="U93" s="10">
         <v>45995</v>
       </c>
-      <c r="U93" s="11">
+      <c r="V93" s="10">
         <v>46002</v>
       </c>
-      <c r="V93" s="11">
+      <c r="W93" s="10">
         <v>46016</v>
       </c>
-      <c r="W93" s="11">
+      <c r="X93" s="10">
         <v>46023</v>
       </c>
-      <c r="X93" s="11">
+      <c r="Y93" s="10">
         <v>46030</v>
       </c>
-      <c r="Y93" s="9"/>
-      <c r="Z93" s="6"/>
-    </row>
-    <row r="94" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
+      <c r="Z93" s="8"/>
+      <c r="AA93" s="5"/>
+    </row>
+    <row r="94" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A94" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D94" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="E94" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="F94" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="G94" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G94" s="12">
+      <c r="H94" s="17">
         <v>0.6875</v>
       </c>
-      <c r="H94" s="12">
+      <c r="I94" s="17">
         <v>0.72916666666666663</v>
       </c>
-      <c r="I94" s="11">
+      <c r="J94" s="15">
         <v>45965</v>
       </c>
-      <c r="J94" s="11">
+      <c r="K94" s="15">
         <v>45972</v>
       </c>
-      <c r="K94" s="11">
+      <c r="L94" s="15">
         <v>45979</v>
       </c>
-      <c r="L94" s="11">
+      <c r="M94" s="15">
         <v>45986</v>
       </c>
-      <c r="M94" s="11">
+      <c r="N94" s="15">
         <v>45993</v>
       </c>
-      <c r="N94" s="11">
+      <c r="O94" s="10">
         <v>46000</v>
       </c>
-      <c r="O94" s="11">
+      <c r="P94" s="10">
         <v>46014</v>
       </c>
-      <c r="P94" s="11">
+      <c r="Q94" s="10">
         <v>46021</v>
       </c>
-      <c r="Q94" s="11">
+      <c r="R94" s="10">
         <v>46028</v>
       </c>
-      <c r="R94" s="11">
+      <c r="S94" s="10">
         <v>46035</v>
       </c>
-      <c r="S94" s="11">
+      <c r="T94" s="10">
         <v>46042</v>
       </c>
-      <c r="T94" s="11">
+      <c r="U94" s="10">
         <v>46049</v>
       </c>
-      <c r="U94" s="11">
+      <c r="V94" s="10">
         <v>46056</v>
       </c>
-      <c r="V94" s="11">
+      <c r="W94" s="10">
         <v>46063</v>
       </c>
-      <c r="W94" s="11">
+      <c r="X94" s="10">
         <v>46070</v>
       </c>
-      <c r="X94" s="11">
+      <c r="Y94" s="10">
         <v>46077</v>
       </c>
-      <c r="Y94" s="9"/>
-      <c r="Z94" s="6"/>
-    </row>
-    <row r="95" spans="1:26" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
+      <c r="Z94" s="8"/>
+      <c r="AA94" s="5"/>
+    </row>
+    <row r="95" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A95" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D95" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="E95" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="F95" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="G95" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G95" s="12">
+      <c r="H95" s="17">
         <v>0.72916666666666663</v>
       </c>
-      <c r="H95" s="12">
+      <c r="I95" s="17">
         <v>0.75</v>
       </c>
-      <c r="I95" s="11">
+      <c r="J95" s="15">
         <v>45965</v>
       </c>
-      <c r="J95" s="11">
+      <c r="K95" s="15">
         <v>45972</v>
       </c>
-      <c r="K95" s="11">
+      <c r="L95" s="15">
         <v>45979</v>
       </c>
-      <c r="L95" s="11">
+      <c r="M95" s="15">
         <v>45986</v>
       </c>
-      <c r="M95" s="11">
+      <c r="N95" s="15">
         <v>45993</v>
       </c>
-      <c r="N95" s="11">
+      <c r="O95" s="10">
         <v>46000</v>
       </c>
-      <c r="O95" s="11">
+      <c r="P95" s="10">
         <v>46007</v>
       </c>
-      <c r="P95" s="11">
+      <c r="Q95" s="10">
         <v>46021</v>
       </c>
-      <c r="Q95" s="11">
+      <c r="R95" s="10">
         <v>46028</v>
       </c>
-      <c r="R95" s="11">
+      <c r="S95" s="10">
         <v>46035</v>
       </c>
-      <c r="S95" s="11">
+      <c r="T95" s="10">
         <v>46042</v>
       </c>
-      <c r="T95" s="11">
+      <c r="U95" s="10">
         <v>46049</v>
       </c>
-      <c r="U95" s="11">
+      <c r="V95" s="10">
         <v>46056</v>
       </c>
-      <c r="V95" s="11">
+      <c r="W95" s="10">
         <v>46063</v>
       </c>
-      <c r="W95" s="11">
+      <c r="X95" s="10">
         <v>46070</v>
       </c>
-      <c r="X95" s="11">
+      <c r="Y95" s="10">
         <v>46077</v>
       </c>
-      <c r="Y95" s="9"/>
-      <c r="Z95" s="6"/>
-    </row>
-    <row r="96" spans="1:26" ht="13.85" x14ac:dyDescent="0.25">
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
-    </row>
-    <row r="97" spans="1:9" ht="13.85" x14ac:dyDescent="0.25">
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-    </row>
-    <row r="98" spans="1:9" ht="13.85" x14ac:dyDescent="0.25">
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
-    </row>
-    <row r="99" spans="1:9" ht="13.85" x14ac:dyDescent="0.25">
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
-    </row>
-    <row r="100" spans="1:9" ht="13.85" x14ac:dyDescent="0.25">
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-    </row>
-    <row r="101" spans="1:9" ht="13.85" x14ac:dyDescent="0.25">
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
-    </row>
-    <row r="102" spans="1:9" ht="13.85" x14ac:dyDescent="0.25">
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-    </row>
-    <row r="103" spans="1:9" ht="13.85" x14ac:dyDescent="0.25">
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
-    </row>
-    <row r="104" spans="1:9" ht="13.85" x14ac:dyDescent="0.25">
-      <c r="G104" s="13"/>
-      <c r="H104" s="13"/>
-    </row>
-    <row r="105" spans="1:9" ht="13.85" x14ac:dyDescent="0.25">
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-    </row>
-    <row r="106" spans="1:9" ht="13.85" x14ac:dyDescent="0.25">
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
-    </row>
-    <row r="107" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z95" s="8"/>
+      <c r="AA95" s="5"/>
+    </row>
+    <row r="96" spans="1:27" ht="13.85">
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+    </row>
+    <row r="97" spans="1:10" ht="13.85">
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+    </row>
+    <row r="98" spans="1:10" ht="13.85">
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+    </row>
+    <row r="99" spans="1:10" ht="13.85">
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+    </row>
+    <row r="100" spans="1:10" ht="13.85">
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+    </row>
+    <row r="101" spans="1:10" ht="13.85">
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+    </row>
+    <row r="102" spans="1:10" ht="13.85">
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+    </row>
+    <row r="103" spans="1:10" ht="13.85">
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+    </row>
+    <row r="104" spans="1:10" ht="13.85">
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+    </row>
+    <row r="105" spans="1:10" ht="13.85">
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+    </row>
+    <row r="106" spans="1:10" ht="13.85">
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+    </row>
+    <row r="107" spans="1:10" ht="19.95" customHeight="1">
       <c r="A107" t="s">
         <v>0</v>
       </c>
       <c r="B107" t="s">
         <v>1</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>2</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>3</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>4</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
         <v>5</v>
       </c>
-      <c r="G107" s="14" t="s">
+      <c r="H107" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H107" s="14" t="s">
+      <c r="I107" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I107" t="s">
+      <c r="J107" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="19.95" customHeight="1">
       <c r="B108" t="s">
         <v>24</v>
       </c>
-      <c r="G108" s="13"/>
-      <c r="H108" s="14">
+      <c r="H108" s="11"/>
+      <c r="I108" s="12">
         <v>46084</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="19.95" customHeight="1">
       <c r="B109" t="s">
         <v>24</v>
       </c>
-      <c r="G109" s="13"/>
-      <c r="H109" s="14">
+      <c r="H109" s="11"/>
+      <c r="I109" s="12">
         <v>46085</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="19.95" customHeight="1">
       <c r="B110" t="s">
         <v>25</v>
       </c>
-      <c r="G110" s="13"/>
-      <c r="H110" s="14">
+      <c r="H110" s="11"/>
+      <c r="I110" s="12">
         <v>46105</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="19.95" customHeight="1">
       <c r="B111" t="s">
         <v>25</v>
       </c>
-      <c r="G111" s="13"/>
-      <c r="H111" s="14">
+      <c r="H111" s="11"/>
+      <c r="I111" s="12">
         <v>46106</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="19.95" customHeight="1">
       <c r="B112" t="s">
         <v>25</v>
       </c>
-      <c r="G112" s="13"/>
-      <c r="H112" s="14">
+      <c r="H112" s="11"/>
+      <c r="I112" s="12">
         <v>46107</v>
       </c>
     </row>
-    <row r="113" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" ht="19.95" customHeight="1">
       <c r="B113" t="s">
         <v>25</v>
       </c>
-      <c r="G113" s="13"/>
-      <c r="H113" s="14">
+      <c r="H113" s="11"/>
+      <c r="I113" s="12">
         <v>46108</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" ht="19.95" customHeight="1">
       <c r="B114" t="s">
         <v>25</v>
       </c>
-      <c r="G114" s="13"/>
-      <c r="H114" s="14">
+      <c r="H114" s="11"/>
+      <c r="I114" s="12">
         <v>46109</v>
       </c>
     </row>
-    <row r="115" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="19.95" customHeight="1">
       <c r="B115" t="s">
         <v>25</v>
       </c>
-      <c r="G115" s="13"/>
-      <c r="H115" s="14">
+      <c r="H115" s="11"/>
+      <c r="I115" s="12">
         <v>46110</v>
       </c>
     </row>
-    <row r="116" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" ht="19.95" customHeight="1">
       <c r="B116" t="s">
         <v>25</v>
       </c>
-      <c r="G116" s="13"/>
-      <c r="H116" s="14">
+      <c r="H116" s="11"/>
+      <c r="I116" s="12">
         <v>46111</v>
       </c>
     </row>
-    <row r="117" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" ht="19.95" customHeight="1">
       <c r="B117" t="s">
         <v>25</v>
       </c>
-      <c r="G117" s="13"/>
-      <c r="H117" s="14">
+      <c r="H117" s="11"/>
+      <c r="I117" s="12">
         <v>46112</v>
       </c>
     </row>
-    <row r="118" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" ht="19.95" customHeight="1">
       <c r="B118" t="s">
         <v>25</v>
       </c>
-      <c r="G118" s="13"/>
-      <c r="H118" s="14">
+      <c r="H118" s="11"/>
+      <c r="I118" s="12">
         <v>46113</v>
       </c>
     </row>
-    <row r="119" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" ht="19.95" customHeight="1">
       <c r="B119" t="s">
         <v>25</v>
       </c>
-      <c r="G119" s="13"/>
-      <c r="H119" s="14">
+      <c r="H119" s="11"/>
+      <c r="I119" s="12">
         <v>46114</v>
       </c>
     </row>
-    <row r="120" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" ht="19.95" customHeight="1">
       <c r="B120" t="s">
         <v>25</v>
       </c>
-      <c r="G120" s="13"/>
-      <c r="H120" s="14">
+      <c r="H120" s="11"/>
+      <c r="I120" s="12">
         <v>46115</v>
       </c>
     </row>
-    <row r="121" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" ht="19.95" customHeight="1">
       <c r="B121" t="s">
         <v>25</v>
       </c>
-      <c r="G121" s="13"/>
-      <c r="H121" s="14">
+      <c r="H121" s="11"/>
+      <c r="I121" s="12">
         <v>46116</v>
       </c>
     </row>
-    <row r="122" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" ht="19.95" customHeight="1">
       <c r="B122" t="s">
         <v>25</v>
       </c>
-      <c r="G122" s="13"/>
-      <c r="H122" s="14">
+      <c r="H122" s="11"/>
+      <c r="I122" s="12">
         <v>46117</v>
       </c>
     </row>
-    <row r="123" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" ht="19.95" customHeight="1">
       <c r="B123" t="s">
         <v>25</v>
       </c>
-      <c r="G123" s="13"/>
-      <c r="H123" s="14">
+      <c r="H123" s="11"/>
+      <c r="I123" s="12">
         <v>46118</v>
       </c>
     </row>
-    <row r="124" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" ht="19.95" customHeight="1">
       <c r="B124" t="s">
         <v>25</v>
       </c>
-      <c r="G124" s="13"/>
-      <c r="H124" s="14">
+      <c r="H124" s="11"/>
+      <c r="I124" s="12">
         <v>46119</v>
       </c>
     </row>
-    <row r="125" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" ht="19.95" customHeight="1">
       <c r="B125" t="s">
         <v>25</v>
       </c>
-      <c r="G125" s="13"/>
-      <c r="H125" s="14">
+      <c r="H125" s="11"/>
+      <c r="I125" s="12">
         <v>46120</v>
       </c>
     </row>
-    <row r="126" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" ht="19.95" customHeight="1">
       <c r="B126" t="s">
         <v>26</v>
       </c>
-      <c r="G126" s="13"/>
-      <c r="H126" s="14">
+      <c r="H126" s="11"/>
+      <c r="I126" s="12">
         <v>46132</v>
       </c>
     </row>
-    <row r="127" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" ht="19.95" customHeight="1">
       <c r="B127" t="s">
         <v>27</v>
       </c>
-      <c r="G127" s="13"/>
-      <c r="H127" s="14">
+      <c r="H127" s="11"/>
+      <c r="I127" s="12">
         <v>46133</v>
       </c>
     </row>
-    <row r="128" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" ht="19.95" customHeight="1">
       <c r="B128" t="s">
         <v>28</v>
       </c>
-      <c r="G128" s="13"/>
-      <c r="H128" s="14">
+      <c r="H128" s="11"/>
+      <c r="I128" s="12">
         <v>46134</v>
       </c>
     </row>
-    <row r="129" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" ht="19.95" customHeight="1">
       <c r="B129" t="s">
         <v>29</v>
       </c>
-      <c r="G129" s="13"/>
-      <c r="H129" s="14">
+      <c r="H129" s="11"/>
+      <c r="I129" s="12">
         <v>46150</v>
       </c>
     </row>
-    <row r="130" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" ht="19.95" customHeight="1">
       <c r="B130" t="s">
         <v>30</v>
       </c>
-      <c r="G130" s="13"/>
-      <c r="H130" s="14">
+      <c r="H130" s="11"/>
+      <c r="I130" s="12">
         <v>46163</v>
       </c>
     </row>
-    <row r="131" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" ht="19.95" customHeight="1">
       <c r="B131" t="s">
         <v>30</v>
       </c>
-      <c r="G131" s="13"/>
-      <c r="H131" s="14">
+      <c r="H131" s="11"/>
+      <c r="I131" s="12">
         <v>46164</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z95" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AA95" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DASHBOARD.xlsx
+++ b/DASHBOARD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idan\Downloads\לגיל ולינוי\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB081E06-808C-4FD5-9A0E-50F934F55E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB578540-0C49-4160-A5AE-CA0F30EC610C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -943,7 +943,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA131"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
   <cols>

--- a/DASHBOARD.xlsx
+++ b/DASHBOARD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idan\Downloads\לגיל ולינוי\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB578540-0C49-4160-A5AE-CA0F30EC610C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0526E3-EB2D-465C-A0B6-48E6AB53327E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AA$95</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -943,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA131"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:C26"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61:U61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
@@ -4196,41 +4205,37 @@
         <v>45988</v>
       </c>
       <c r="L61" s="15">
-        <v>46002</v>
-      </c>
-      <c r="M61" s="15">
-        <v>46023</v>
-      </c>
-      <c r="N61" s="15">
         <v>46030</v>
       </c>
+      <c r="M61" s="10">
+        <v>46044</v>
+      </c>
+      <c r="N61" s="10">
+        <v>46062</v>
+      </c>
       <c r="O61" s="10">
-        <v>46044</v>
+        <v>46083</v>
       </c>
       <c r="P61" s="10">
-        <v>46062</v>
+        <v>46097</v>
       </c>
       <c r="Q61" s="10">
-        <v>46083</v>
+        <v>46125</v>
       </c>
       <c r="R61" s="10">
-        <v>46097</v>
+        <v>46146</v>
       </c>
       <c r="S61" s="10">
-        <v>46125</v>
+        <v>46160</v>
       </c>
       <c r="T61" s="10">
-        <v>46146</v>
+        <v>46174</v>
       </c>
       <c r="U61" s="10">
-        <v>46160</v>
-      </c>
-      <c r="V61" s="10">
-        <v>46174</v>
-      </c>
-      <c r="W61" s="10">
         <v>46188</v>
       </c>
+      <c r="V61" s="10"/>
+      <c r="W61" s="10"/>
       <c r="X61" s="4"/>
       <c r="Y61" s="4"/>
       <c r="Z61" s="8"/>
@@ -4271,41 +4276,37 @@
         <v>45988</v>
       </c>
       <c r="L62" s="15">
-        <v>46002</v>
-      </c>
-      <c r="M62" s="15">
-        <v>46023</v>
-      </c>
-      <c r="N62" s="15">
         <v>46030</v>
       </c>
+      <c r="M62" s="10">
+        <v>46044</v>
+      </c>
+      <c r="N62" s="10">
+        <v>46076</v>
+      </c>
       <c r="O62" s="10">
-        <v>46044</v>
+        <v>46090</v>
       </c>
       <c r="P62" s="10">
-        <v>46076</v>
+        <v>46104</v>
       </c>
       <c r="Q62" s="10">
-        <v>46090</v>
+        <v>46139</v>
       </c>
       <c r="R62" s="10">
-        <v>46104</v>
+        <v>46153</v>
       </c>
       <c r="S62" s="10">
-        <v>46139</v>
+        <v>46167</v>
       </c>
       <c r="T62" s="10">
-        <v>46153</v>
+        <v>46181</v>
       </c>
       <c r="U62" s="10">
-        <v>46167</v>
-      </c>
-      <c r="V62" s="10">
-        <v>46181</v>
-      </c>
-      <c r="W62" s="10">
         <v>46195</v>
       </c>
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
       <c r="X62" s="4"/>
       <c r="Y62" s="4"/>
       <c r="Z62" s="8"/>
@@ -6748,7 +6749,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA95" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/DASHBOARD.xlsx
+++ b/DASHBOARD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idan\Downloads\לגיל ולינוי\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idan\Downloads\דשבורד סטטוס\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0526E3-EB2D-465C-A0B6-48E6AB53327E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB7626E-D8ED-4566-A307-2C7295B00094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AA$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AA$90</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="142">
   <si>
     <t>Employee</t>
   </si>
@@ -457,6 +479,12 @@
   </si>
   <si>
     <t>COURSE</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>MonthEnd</t>
   </si>
 </sst>
 </file>
@@ -575,7 +603,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -583,20 +611,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -604,7 +627,6 @@
     <xf numFmtId="20" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
@@ -950,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA131"/>
+  <dimension ref="A1:AA151"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61:U61"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AA26" sqref="AA26:AA100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
@@ -970,931 +992,985 @@
     <col min="29" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="13" t="s">
+      <c r="Z1" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="15">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="12">
         <v>46084</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-    </row>
-    <row r="3" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="13" t="s">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="10"/>
+    </row>
+    <row r="3" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="15">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="12">
         <v>46085</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-    </row>
-    <row r="4" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="13" t="s">
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="10"/>
+    </row>
+    <row r="4" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="15">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="12">
         <v>46105</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-    </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="13" t="s">
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="10"/>
+    </row>
+    <row r="5" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="15">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="12">
         <v>46106</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-    </row>
-    <row r="6" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="13" t="s">
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="10"/>
+    </row>
+    <row r="6" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="15">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="12">
         <v>46107</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-    </row>
-    <row r="7" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="13" t="s">
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="10"/>
+    </row>
+    <row r="7" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="15">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="12">
         <v>46108</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-    </row>
-    <row r="8" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="13" t="s">
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="10"/>
+    </row>
+    <row r="8" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="15">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="12">
         <v>46109</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-    </row>
-    <row r="9" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="13" t="s">
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="10"/>
+    </row>
+    <row r="9" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="15">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="12">
         <v>46110</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-    </row>
-    <row r="10" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="13" t="s">
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="10"/>
+    </row>
+    <row r="10" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="15">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="12">
         <v>46111</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-    </row>
-    <row r="11" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="13" t="s">
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="10"/>
+    </row>
+    <row r="11" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="15">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="12">
         <v>46112</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-    </row>
-    <row r="12" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="13" t="s">
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="10"/>
+    </row>
+    <row r="12" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="15">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="12">
         <v>46113</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-    </row>
-    <row r="13" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="13" t="s">
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="10"/>
+    </row>
+    <row r="13" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="15">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="12">
         <v>46114</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-    </row>
-    <row r="14" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="13" t="s">
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="10"/>
+    </row>
+    <row r="14" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="15">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="12">
         <v>46115</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-    </row>
-    <row r="15" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="13" t="s">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="10"/>
+    </row>
+    <row r="15" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="15">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="12">
         <v>46116</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-    </row>
-    <row r="16" spans="1:25" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="13" t="s">
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="10"/>
+    </row>
+    <row r="16" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="15">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="12">
         <v>46117</v>
       </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="10"/>
     </row>
     <row r="17" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="15">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="12">
         <v>46118</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="10"/>
     </row>
     <row r="18" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="15">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="12">
         <v>46119</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="10"/>
     </row>
     <row r="19" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="15">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="12">
         <v>46120</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="10"/>
     </row>
     <row r="20" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="15">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="12">
         <v>46132</v>
       </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="10"/>
     </row>
     <row r="21" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="15">
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="12">
         <v>46133</v>
       </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="10"/>
     </row>
     <row r="22" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="15">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="12">
         <v>46134</v>
       </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="10"/>
     </row>
     <row r="23" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="15">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="12">
         <v>46150</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="10"/>
     </row>
     <row r="24" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A24" s="7"/>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="15">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="12">
         <v>46163</v>
       </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="10"/>
     </row>
     <row r="25" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="15">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="12">
         <v>46164</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-    </row>
-    <row r="26" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A26" s="13" t="s">
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="10"/>
+    </row>
+    <row r="26" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A26" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="14">
         <v>0.36458333333333331</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="14">
         <v>0.59375</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26" s="12">
         <v>46044</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="12">
         <v>46051</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L26" s="12">
         <v>46058</v>
       </c>
-      <c r="M26" s="15">
+      <c r="M26" s="12">
         <v>46065</v>
       </c>
-      <c r="N26" s="15">
+      <c r="N26" s="12">
         <v>46072</v>
       </c>
-      <c r="O26" s="10">
+      <c r="O26" s="8">
         <v>46079</v>
       </c>
-      <c r="P26" s="10">
+      <c r="P26" s="8">
         <v>46086</v>
       </c>
-      <c r="Q26" s="10">
+      <c r="Q26" s="8">
         <v>46093</v>
       </c>
-      <c r="R26" s="10">
+      <c r="R26" s="8">
         <v>46100</v>
       </c>
-      <c r="S26" s="10">
+      <c r="S26" s="8">
         <v>46121</v>
       </c>
       <c r="T26" s="4"/>
@@ -1903,65 +1979,71 @@
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="5"/>
-    </row>
-    <row r="27" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A27" s="13" t="s">
+      <c r="Z26" s="12" cm="1">
+        <f t="array" ref="Z26">LOOKUP(2,1/(A26:Y26&lt;&gt;""),A26:Y26)</f>
+        <v>46121</v>
+      </c>
+      <c r="AA26" s="10" t="str">
+        <f t="shared" ref="AA3:AA66" si="0">TEXT(Z26,"[$-he-IL]mmmm")</f>
+        <v>אפריל</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A27" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="14">
         <v>0.36458333333333331</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="14">
         <v>0.59375</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="12">
         <v>46044</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K27" s="12">
         <v>46051</v>
       </c>
-      <c r="L27" s="15">
+      <c r="L27" s="12">
         <v>46058</v>
       </c>
-      <c r="M27" s="15">
+      <c r="M27" s="12">
         <v>46065</v>
       </c>
-      <c r="N27" s="15">
+      <c r="N27" s="12">
         <v>46072</v>
       </c>
-      <c r="O27" s="10">
+      <c r="O27" s="8">
         <v>46079</v>
       </c>
-      <c r="P27" s="10">
+      <c r="P27" s="8">
         <v>46086</v>
       </c>
-      <c r="Q27" s="10">
+      <c r="Q27" s="8">
         <v>46093</v>
       </c>
-      <c r="R27" s="10">
+      <c r="R27" s="8">
         <v>46100</v>
       </c>
-      <c r="S27" s="10">
+      <c r="S27" s="8">
         <v>46121</v>
       </c>
       <c r="T27" s="4"/>
@@ -1970,65 +2052,71 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="5"/>
-    </row>
-    <row r="28" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A28" s="13" t="s">
+      <c r="Z27" s="12" cm="1">
+        <f t="array" ref="Z27">LOOKUP(2,1/(A27:Y27&lt;&gt;""),A27:Y27)</f>
+        <v>46121</v>
+      </c>
+      <c r="AA27" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>אפריל</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="14">
         <v>0.36458333333333331</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="14">
         <v>0.59375</v>
       </c>
-      <c r="J28" s="15">
+      <c r="J28" s="12">
         <v>46044</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K28" s="12">
         <v>46051</v>
       </c>
-      <c r="L28" s="15">
+      <c r="L28" s="12">
         <v>46058</v>
       </c>
-      <c r="M28" s="15">
+      <c r="M28" s="12">
         <v>46065</v>
       </c>
-      <c r="N28" s="15">
+      <c r="N28" s="12">
         <v>46072</v>
       </c>
-      <c r="O28" s="10">
+      <c r="O28" s="8">
         <v>46079</v>
       </c>
-      <c r="P28" s="10">
+      <c r="P28" s="8">
         <v>46086</v>
       </c>
-      <c r="Q28" s="10">
+      <c r="Q28" s="8">
         <v>46093</v>
       </c>
-      <c r="R28" s="10">
+      <c r="R28" s="8">
         <v>46100</v>
       </c>
-      <c r="S28" s="10">
+      <c r="S28" s="8">
         <v>46121</v>
       </c>
       <c r="T28" s="4"/>
@@ -2037,65 +2125,71 @@
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="5"/>
-    </row>
-    <row r="29" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A29" s="13" t="s">
+      <c r="Z28" s="12" cm="1">
+        <f t="array" ref="Z28">LOOKUP(2,1/(A28:Y28&lt;&gt;""),A28:Y28)</f>
+        <v>46121</v>
+      </c>
+      <c r="AA28" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>אפריל</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A29" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="14">
         <v>0.57291666666666663</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="14">
         <v>0.60416666666666663</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J29" s="12">
         <v>46050</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K29" s="12">
         <v>46057</v>
       </c>
-      <c r="L29" s="15">
+      <c r="L29" s="12">
         <v>46064</v>
       </c>
-      <c r="M29" s="15">
+      <c r="M29" s="12">
         <v>46071</v>
       </c>
-      <c r="N29" s="15">
+      <c r="N29" s="12">
         <v>46078</v>
       </c>
-      <c r="O29" s="10">
+      <c r="O29" s="8">
         <v>46092</v>
       </c>
-      <c r="P29" s="10">
+      <c r="P29" s="8">
         <v>46099</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="Q29" s="8">
         <v>46127</v>
       </c>
-      <c r="R29" s="10">
+      <c r="R29" s="8">
         <v>46141</v>
       </c>
-      <c r="S29" s="10">
+      <c r="S29" s="8">
         <v>46148</v>
       </c>
       <c r="T29" s="4"/>
@@ -2104,68 +2198,74 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="5"/>
-    </row>
-    <row r="30" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A30" s="13" t="s">
+      <c r="Z29" s="12" cm="1">
+        <f t="array" ref="Z29">LOOKUP(2,1/(A29:Y29&lt;&gt;""),A29:Y29)</f>
+        <v>46148</v>
+      </c>
+      <c r="AA29" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>מאי</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A30" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="14">
         <v>0.4548611111111111</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="14">
         <v>0.55902777777777779</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J30" s="12">
         <v>46042</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K30" s="12">
         <v>46049</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="12">
         <v>46056</v>
       </c>
-      <c r="M30" s="15">
+      <c r="M30" s="12">
         <v>46063</v>
       </c>
-      <c r="N30" s="15">
+      <c r="N30" s="12">
         <v>46070</v>
       </c>
-      <c r="O30" s="10">
+      <c r="O30" s="8">
         <v>46077</v>
       </c>
-      <c r="P30" s="10">
+      <c r="P30" s="8">
         <v>46091</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="Q30" s="8">
         <v>46098</v>
       </c>
-      <c r="R30" s="10">
+      <c r="R30" s="8">
         <v>46126</v>
       </c>
-      <c r="S30" s="10">
+      <c r="S30" s="8">
         <v>46140</v>
       </c>
-      <c r="T30" s="10">
+      <c r="T30" s="8">
         <v>46147</v>
       </c>
       <c r="U30" s="4"/>
@@ -2173,63 +2273,69 @@
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="5"/>
-    </row>
-    <row r="31" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13" t="s">
+      <c r="Z30" s="12" cm="1">
+        <f t="array" ref="Z30">LOOKUP(2,1/(A30:Y30&lt;&gt;""),A30:Y30)</f>
+        <v>46147</v>
+      </c>
+      <c r="AA30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>מאי</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="14">
         <v>0.35416666666666669</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J31" s="12">
         <v>46042</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K31" s="12">
         <v>46049</v>
       </c>
-      <c r="L31" s="15">
+      <c r="L31" s="12">
         <v>46056</v>
       </c>
-      <c r="M31" s="15">
+      <c r="M31" s="12">
         <v>46063</v>
       </c>
-      <c r="N31" s="15">
+      <c r="N31" s="12">
         <v>46070</v>
       </c>
-      <c r="O31" s="10">
+      <c r="O31" s="8">
         <v>46077</v>
       </c>
-      <c r="P31" s="10">
+      <c r="P31" s="8">
         <v>46091</v>
       </c>
-      <c r="Q31" s="10">
+      <c r="Q31" s="8">
         <v>46098</v>
       </c>
-      <c r="R31" s="10">
+      <c r="R31" s="8">
         <v>46126</v>
       </c>
-      <c r="S31" s="10">
+      <c r="S31" s="8">
         <v>46140</v>
       </c>
       <c r="T31" s="4"/>
@@ -2238,62 +2344,68 @@
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="5"/>
-    </row>
-    <row r="32" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A32" s="13" t="s">
+      <c r="Z31" s="12" cm="1">
+        <f t="array" ref="Z31">LOOKUP(2,1/(A31:Y31&lt;&gt;""),A31:Y31)</f>
+        <v>46140</v>
+      </c>
+      <c r="AA31" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>אפריל</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A32" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="14">
         <v>0.34722222222222221</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="14">
         <v>0.40972222222222221</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J32" s="12">
         <v>46027</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K32" s="12">
         <v>46034</v>
       </c>
-      <c r="L32" s="15">
+      <c r="L32" s="12">
         <v>46041</v>
       </c>
-      <c r="M32" s="15">
+      <c r="M32" s="12">
         <v>46048</v>
       </c>
-      <c r="N32" s="15">
+      <c r="N32" s="12">
         <v>46055</v>
       </c>
-      <c r="O32" s="10">
+      <c r="O32" s="8">
         <v>46062</v>
       </c>
-      <c r="P32" s="10">
+      <c r="P32" s="8">
         <v>46069</v>
       </c>
-      <c r="Q32" s="10">
+      <c r="Q32" s="8">
         <v>46076</v>
       </c>
-      <c r="R32" s="10">
+      <c r="R32" s="8">
         <v>46083</v>
       </c>
       <c r="S32" s="4"/>
@@ -2303,63 +2415,69 @@
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="5"/>
-    </row>
-    <row r="33" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13" t="s">
+      <c r="Z32" s="12" cm="1">
+        <f t="array" ref="Z32">LOOKUP(2,1/(A32:Y32&lt;&gt;""),A32:Y32)</f>
+        <v>46083</v>
+      </c>
+      <c r="AA32" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>מרץ</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="14">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="14">
         <v>0.39583333333333331</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J33" s="12">
         <v>46090</v>
       </c>
-      <c r="K33" s="15">
+      <c r="K33" s="12">
         <v>46097</v>
       </c>
-      <c r="L33" s="15">
+      <c r="L33" s="12">
         <v>46132</v>
       </c>
-      <c r="M33" s="15">
+      <c r="M33" s="12">
         <v>46139</v>
       </c>
-      <c r="N33" s="15">
+      <c r="N33" s="12">
         <v>46146</v>
       </c>
-      <c r="O33" s="10">
+      <c r="O33" s="8">
         <v>46153</v>
       </c>
-      <c r="P33" s="10">
+      <c r="P33" s="8">
         <v>46167</v>
       </c>
-      <c r="Q33" s="10">
+      <c r="Q33" s="8">
         <v>46174</v>
       </c>
-      <c r="R33" s="10">
+      <c r="R33" s="8">
         <v>46167</v>
       </c>
-      <c r="S33" s="10">
+      <c r="S33" s="8">
         <v>46174</v>
       </c>
       <c r="T33" s="4"/>
@@ -2368,63 +2486,69 @@
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="5"/>
-    </row>
-    <row r="34" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13" t="s">
+      <c r="Z33" s="12" cm="1">
+        <f t="array" ref="Z33">LOOKUP(2,1/(A33:Y33&lt;&gt;""),A33:Y33)</f>
+        <v>46174</v>
+      </c>
+      <c r="AA33" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>יוני</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="14">
         <v>0.40625</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="14">
         <v>0.46875</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J34" s="12">
         <v>46090</v>
       </c>
-      <c r="K34" s="15">
+      <c r="K34" s="12">
         <v>46097</v>
       </c>
-      <c r="L34" s="15">
+      <c r="L34" s="12">
         <v>46132</v>
       </c>
-      <c r="M34" s="15">
+      <c r="M34" s="12">
         <v>46139</v>
       </c>
-      <c r="N34" s="15">
+      <c r="N34" s="12">
         <v>46146</v>
       </c>
-      <c r="O34" s="10">
+      <c r="O34" s="8">
         <v>46153</v>
       </c>
-      <c r="P34" s="10">
+      <c r="P34" s="8">
         <v>46167</v>
       </c>
-      <c r="Q34" s="10">
+      <c r="Q34" s="8">
         <v>46174</v>
       </c>
-      <c r="R34" s="10">
+      <c r="R34" s="8">
         <v>46167</v>
       </c>
-      <c r="S34" s="10">
+      <c r="S34" s="8">
         <v>46174</v>
       </c>
       <c r="T34" s="4"/>
@@ -2433,63 +2557,69 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="5"/>
-    </row>
-    <row r="35" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13" t="s">
+      <c r="Z34" s="12" cm="1">
+        <f t="array" ref="Z34">LOOKUP(2,1/(A34:Y34&lt;&gt;""),A34:Y34)</f>
+        <v>46174</v>
+      </c>
+      <c r="AA34" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>יוני</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="14">
         <v>0.4826388888888889</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="14">
         <v>0.54513888888888884</v>
       </c>
-      <c r="J35" s="15">
+      <c r="J35" s="12">
         <v>46090</v>
       </c>
-      <c r="K35" s="15">
+      <c r="K35" s="12">
         <v>46097</v>
       </c>
-      <c r="L35" s="15">
+      <c r="L35" s="12">
         <v>46132</v>
       </c>
-      <c r="M35" s="15">
+      <c r="M35" s="12">
         <v>46139</v>
       </c>
-      <c r="N35" s="15">
+      <c r="N35" s="12">
         <v>46146</v>
       </c>
-      <c r="O35" s="10">
+      <c r="O35" s="8">
         <v>46153</v>
       </c>
-      <c r="P35" s="10">
+      <c r="P35" s="8">
         <v>46167</v>
       </c>
-      <c r="Q35" s="10">
+      <c r="Q35" s="8">
         <v>46174</v>
       </c>
-      <c r="R35" s="10">
+      <c r="R35" s="8">
         <v>46167</v>
       </c>
-      <c r="S35" s="10">
+      <c r="S35" s="8">
         <v>46174</v>
       </c>
       <c r="T35" s="4"/>
@@ -2498,63 +2628,69 @@
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="5"/>
-    </row>
-    <row r="36" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13" t="s">
+      <c r="Z35" s="12" cm="1">
+        <f t="array" ref="Z35">LOOKUP(2,1/(A35:Y35&lt;&gt;""),A35:Y35)</f>
+        <v>46174</v>
+      </c>
+      <c r="AA35" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>יוני</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="14">
         <v>0.48958333333333331</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="14">
         <v>0.55208333333333337</v>
       </c>
-      <c r="J36" s="15">
+      <c r="J36" s="12">
         <v>46089</v>
       </c>
-      <c r="K36" s="15">
+      <c r="K36" s="12">
         <v>46096</v>
       </c>
-      <c r="L36" s="15">
+      <c r="L36" s="12">
         <v>46103</v>
       </c>
-      <c r="M36" s="15">
+      <c r="M36" s="12">
         <v>46124</v>
       </c>
-      <c r="N36" s="15">
+      <c r="N36" s="12">
         <v>46131</v>
       </c>
-      <c r="O36" s="10">
+      <c r="O36" s="8">
         <v>46138</v>
       </c>
-      <c r="P36" s="10">
+      <c r="P36" s="8">
         <v>46145</v>
       </c>
-      <c r="Q36" s="10">
+      <c r="Q36" s="8">
         <v>46152</v>
       </c>
-      <c r="R36" s="10">
+      <c r="R36" s="8">
         <v>46159</v>
       </c>
-      <c r="S36" s="10">
+      <c r="S36" s="8">
         <v>46166</v>
       </c>
       <c r="T36" s="4"/>
@@ -2563,63 +2699,69 @@
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="5"/>
-    </row>
-    <row r="37" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13" t="s">
+      <c r="Z36" s="12" cm="1">
+        <f t="array" ref="Z36">LOOKUP(2,1/(A36:Y36&lt;&gt;""),A36:Y36)</f>
+        <v>46166</v>
+      </c>
+      <c r="AA36" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>מאי</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="14">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="14">
         <v>0.3923611111111111</v>
       </c>
-      <c r="J37" s="15">
+      <c r="J37" s="12">
         <v>46089</v>
       </c>
-      <c r="K37" s="15">
+      <c r="K37" s="12">
         <v>46096</v>
       </c>
-      <c r="L37" s="15">
+      <c r="L37" s="12">
         <v>46103</v>
       </c>
-      <c r="M37" s="15">
+      <c r="M37" s="12">
         <v>46124</v>
       </c>
-      <c r="N37" s="15">
+      <c r="N37" s="12">
         <v>46131</v>
       </c>
-      <c r="O37" s="10">
+      <c r="O37" s="8">
         <v>46138</v>
       </c>
-      <c r="P37" s="10">
+      <c r="P37" s="8">
         <v>46145</v>
       </c>
-      <c r="Q37" s="10">
+      <c r="Q37" s="8">
         <v>46152</v>
       </c>
-      <c r="R37" s="10">
+      <c r="R37" s="8">
         <v>46159</v>
       </c>
-      <c r="S37" s="10">
+      <c r="S37" s="8">
         <v>46166</v>
       </c>
       <c r="T37" s="4"/>
@@ -2628,63 +2770,69 @@
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
-      <c r="Z37" s="8"/>
-      <c r="AA37" s="5"/>
-    </row>
-    <row r="38" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13" t="s">
+      <c r="Z37" s="12" cm="1">
+        <f t="array" ref="Z37">LOOKUP(2,1/(A37:Y37&lt;&gt;""),A37:Y37)</f>
+        <v>46166</v>
+      </c>
+      <c r="AA37" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>מאי</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="14">
         <v>0.4201388888888889</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="14">
         <v>0.47916666666666669</v>
       </c>
-      <c r="J38" s="15">
+      <c r="J38" s="12">
         <v>46064</v>
       </c>
-      <c r="K38" s="15">
+      <c r="K38" s="12">
         <v>46071</v>
       </c>
-      <c r="L38" s="15">
+      <c r="L38" s="12">
         <v>46078</v>
       </c>
-      <c r="M38" s="15">
+      <c r="M38" s="12">
         <v>46092</v>
       </c>
-      <c r="N38" s="15">
+      <c r="N38" s="12">
         <v>46099</v>
       </c>
-      <c r="O38" s="10">
+      <c r="O38" s="8">
         <v>46127</v>
       </c>
-      <c r="P38" s="10">
+      <c r="P38" s="8">
         <v>46141</v>
       </c>
-      <c r="Q38" s="10">
+      <c r="Q38" s="8">
         <v>46148</v>
       </c>
-      <c r="R38" s="10">
+      <c r="R38" s="8">
         <v>46155</v>
       </c>
-      <c r="S38" s="10">
+      <c r="S38" s="8">
         <v>46162</v>
       </c>
       <c r="T38" s="4"/>
@@ -2693,63 +2841,69 @@
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="5"/>
-    </row>
-    <row r="39" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13" t="s">
+      <c r="Z38" s="12" cm="1">
+        <f t="array" ref="Z38">LOOKUP(2,1/(A38:Y38&lt;&gt;""),A38:Y38)</f>
+        <v>46162</v>
+      </c>
+      <c r="AA38" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>מאי</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="14">
         <v>0.34375</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I39" s="14">
         <v>0.40277777777777779</v>
       </c>
-      <c r="J39" s="15">
+      <c r="J39" s="12">
         <v>46064</v>
       </c>
-      <c r="K39" s="15">
+      <c r="K39" s="12">
         <v>46071</v>
       </c>
-      <c r="L39" s="15">
+      <c r="L39" s="12">
         <v>46078</v>
       </c>
-      <c r="M39" s="15">
+      <c r="M39" s="12">
         <v>46092</v>
       </c>
-      <c r="N39" s="15">
+      <c r="N39" s="12">
         <v>46099</v>
       </c>
-      <c r="O39" s="10">
+      <c r="O39" s="8">
         <v>46127</v>
       </c>
-      <c r="P39" s="10">
+      <c r="P39" s="8">
         <v>46141</v>
       </c>
-      <c r="Q39" s="10">
+      <c r="Q39" s="8">
         <v>46148</v>
       </c>
-      <c r="R39" s="10">
+      <c r="R39" s="8">
         <v>46155</v>
       </c>
-      <c r="S39" s="10">
+      <c r="S39" s="8">
         <v>46162</v>
       </c>
       <c r="T39" s="4"/>
@@ -2758,65 +2912,71 @@
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="5"/>
-    </row>
-    <row r="40" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A40" s="13" t="s">
+      <c r="Z39" s="12" cm="1">
+        <f t="array" ref="Z39">LOOKUP(2,1/(A39:Y39&lt;&gt;""),A39:Y39)</f>
+        <v>46162</v>
+      </c>
+      <c r="AA39" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>מאי</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A40" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="14">
         <v>0.48958333333333331</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I40" s="14">
         <v>0.55902777777777779</v>
       </c>
-      <c r="J40" s="15">
+      <c r="J40" s="12">
         <v>46034</v>
       </c>
-      <c r="K40" s="15">
+      <c r="K40" s="12">
         <v>46041</v>
       </c>
-      <c r="L40" s="15">
+      <c r="L40" s="12">
         <v>46055</v>
       </c>
-      <c r="M40" s="15">
+      <c r="M40" s="12">
         <v>46062</v>
       </c>
-      <c r="N40" s="15">
+      <c r="N40" s="12">
         <v>46069</v>
       </c>
-      <c r="O40" s="10">
+      <c r="O40" s="8">
         <v>46076</v>
       </c>
-      <c r="P40" s="10">
+      <c r="P40" s="8">
         <v>46090</v>
       </c>
-      <c r="Q40" s="10">
+      <c r="Q40" s="8">
         <v>46097</v>
       </c>
-      <c r="R40" s="10">
+      <c r="R40" s="8">
         <v>46139</v>
       </c>
-      <c r="S40" s="10">
+      <c r="S40" s="8">
         <v>46146</v>
       </c>
       <c r="T40" s="4"/>
@@ -2825,59 +2985,65 @@
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
-      <c r="Z40" s="8"/>
-      <c r="AA40" s="5"/>
-    </row>
-    <row r="41" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A41" s="13" t="s">
+      <c r="Z40" s="12" cm="1">
+        <f t="array" ref="Z40">LOOKUP(2,1/(A40:Y40&lt;&gt;""),A40:Y40)</f>
+        <v>46146</v>
+      </c>
+      <c r="AA40" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>מאי</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A41" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="14">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I41" s="17">
+      <c r="I41" s="14">
         <v>0.40277777777777779</v>
       </c>
-      <c r="J41" s="15">
+      <c r="J41" s="12">
         <v>46035</v>
       </c>
-      <c r="K41" s="15">
+      <c r="K41" s="12">
         <v>46042</v>
       </c>
-      <c r="L41" s="15">
+      <c r="L41" s="12">
         <v>46056</v>
       </c>
-      <c r="M41" s="15">
+      <c r="M41" s="12">
         <v>46063</v>
       </c>
-      <c r="N41" s="15">
+      <c r="N41" s="12">
         <v>46070</v>
       </c>
-      <c r="O41" s="10">
+      <c r="O41" s="8">
         <v>46077</v>
       </c>
-      <c r="P41" s="10">
+      <c r="P41" s="8">
         <v>46091</v>
       </c>
-      <c r="Q41" s="10">
+      <c r="Q41" s="8">
         <v>46098</v>
       </c>
       <c r="R41" s="4"/>
@@ -2888,65 +3054,71 @@
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
-      <c r="Z41" s="8"/>
-      <c r="AA41" s="5"/>
-    </row>
-    <row r="42" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A42" s="13" t="s">
+      <c r="Z41" s="12" cm="1">
+        <f t="array" ref="Z41">LOOKUP(2,1/(A41:Y41&lt;&gt;""),A41:Y41)</f>
+        <v>46098</v>
+      </c>
+      <c r="AA41" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>מרץ</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A42" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H42" s="14">
         <v>0.40972222222222221</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I42" s="14">
         <v>0.48958333333333331</v>
       </c>
-      <c r="J42" s="15">
+      <c r="J42" s="12">
         <v>46035</v>
       </c>
-      <c r="K42" s="15">
+      <c r="K42" s="12">
         <v>46042</v>
       </c>
-      <c r="L42" s="15">
+      <c r="L42" s="12">
         <v>46056</v>
       </c>
-      <c r="M42" s="15">
+      <c r="M42" s="12">
         <v>46070</v>
       </c>
-      <c r="N42" s="15">
+      <c r="N42" s="12">
         <v>46077</v>
       </c>
-      <c r="O42" s="10">
+      <c r="O42" s="8">
         <v>46091</v>
       </c>
-      <c r="P42" s="10">
+      <c r="P42" s="8">
         <v>46098</v>
       </c>
-      <c r="Q42" s="10">
+      <c r="Q42" s="8">
         <v>46140</v>
       </c>
-      <c r="R42" s="10">
+      <c r="R42" s="8">
         <v>46147</v>
       </c>
-      <c r="S42" s="10">
+      <c r="S42" s="8">
         <v>46154</v>
       </c>
       <c r="T42" s="4"/>
@@ -2955,62 +3127,68 @@
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
-      <c r="Z42" s="8"/>
-      <c r="AA42" s="5"/>
-    </row>
-    <row r="43" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A43" s="13" t="s">
+      <c r="Z42" s="12" cm="1">
+        <f t="array" ref="Z42">LOOKUP(2,1/(A42:Y42&lt;&gt;""),A42:Y42)</f>
+        <v>46154</v>
+      </c>
+      <c r="AA42" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>מאי</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A43" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="14">
         <v>0.48958333333333331</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I43" s="14">
         <v>0.55902777777777779</v>
       </c>
-      <c r="J43" s="15">
+      <c r="J43" s="12">
         <v>46035</v>
       </c>
-      <c r="K43" s="15">
+      <c r="K43" s="12">
         <v>46042</v>
       </c>
-      <c r="L43" s="15">
+      <c r="L43" s="12">
         <v>46056</v>
       </c>
-      <c r="M43" s="15">
+      <c r="M43" s="12">
         <v>46070</v>
       </c>
-      <c r="N43" s="15">
+      <c r="N43" s="12">
         <v>46077</v>
       </c>
-      <c r="O43" s="10">
+      <c r="O43" s="8">
         <v>46091</v>
       </c>
-      <c r="P43" s="10">
+      <c r="P43" s="8">
         <v>46098</v>
       </c>
-      <c r="Q43" s="10">
+      <c r="Q43" s="8">
         <v>46140</v>
       </c>
-      <c r="R43" s="10">
+      <c r="R43" s="8">
         <v>46147</v>
       </c>
       <c r="S43" s="4"/>
@@ -3020,65 +3198,71 @@
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
-      <c r="Z43" s="8"/>
-      <c r="AA43" s="5"/>
-    </row>
-    <row r="44" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A44" s="13" t="s">
+      <c r="Z43" s="12" cm="1">
+        <f t="array" ref="Z43">LOOKUP(2,1/(A43:Y43&lt;&gt;""),A43:Y43)</f>
+        <v>46147</v>
+      </c>
+      <c r="AA43" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>מאי</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A44" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="G44" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="14">
         <v>0.42708333333333331</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I44" s="14">
         <v>0.48958333333333331</v>
       </c>
-      <c r="J44" s="15">
+      <c r="J44" s="12">
         <v>46034</v>
       </c>
-      <c r="K44" s="15">
+      <c r="K44" s="12">
         <v>46048</v>
       </c>
-      <c r="L44" s="15">
+      <c r="L44" s="12">
         <v>46062</v>
       </c>
-      <c r="M44" s="15">
+      <c r="M44" s="12">
         <v>46076</v>
       </c>
-      <c r="N44" s="15">
+      <c r="N44" s="12">
         <v>46090</v>
       </c>
-      <c r="O44" s="10">
+      <c r="O44" s="8">
         <v>46104</v>
       </c>
-      <c r="P44" s="10">
+      <c r="P44" s="8">
         <v>46146</v>
       </c>
-      <c r="Q44" s="10">
+      <c r="Q44" s="8">
         <v>46160</v>
       </c>
-      <c r="R44" s="10">
+      <c r="R44" s="8">
         <v>46181</v>
       </c>
-      <c r="S44" s="10">
+      <c r="S44" s="8">
         <v>46188</v>
       </c>
       <c r="T44" s="4"/>
@@ -3087,65 +3271,71 @@
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
-      <c r="Z44" s="8"/>
-      <c r="AA44" s="5"/>
-    </row>
-    <row r="45" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A45" s="13" t="s">
+      <c r="Z44" s="12" cm="1">
+        <f t="array" ref="Z44">LOOKUP(2,1/(A44:Y44&lt;&gt;""),A44:Y44)</f>
+        <v>46188</v>
+      </c>
+      <c r="AA44" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>יוני</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A45" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="G45" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="14">
         <v>0.5</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="14">
         <v>0.56944444444444442</v>
       </c>
-      <c r="J45" s="15">
+      <c r="J45" s="12">
         <v>46034</v>
       </c>
-      <c r="K45" s="15">
+      <c r="K45" s="12">
         <v>46048</v>
       </c>
-      <c r="L45" s="15">
+      <c r="L45" s="12">
         <v>46062</v>
       </c>
-      <c r="M45" s="15">
+      <c r="M45" s="12">
         <v>46076</v>
       </c>
-      <c r="N45" s="15">
+      <c r="N45" s="12">
         <v>46090</v>
       </c>
-      <c r="O45" s="10">
+      <c r="O45" s="8">
         <v>46104</v>
       </c>
-      <c r="P45" s="10">
+      <c r="P45" s="8">
         <v>46146</v>
       </c>
-      <c r="Q45" s="10">
+      <c r="Q45" s="8">
         <v>46160</v>
       </c>
-      <c r="R45" s="10">
+      <c r="R45" s="8">
         <v>46181</v>
       </c>
-      <c r="S45" s="10">
+      <c r="S45" s="8">
         <v>46188</v>
       </c>
       <c r="T45" s="4"/>
@@ -3154,65 +3344,71 @@
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
-      <c r="Z45" s="8"/>
-      <c r="AA45" s="5"/>
-    </row>
-    <row r="46" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A46" s="13" t="s">
+      <c r="Z45" s="12" cm="1">
+        <f t="array" ref="Z45">LOOKUP(2,1/(A45:Y45&lt;&gt;""),A45:Y45)</f>
+        <v>46188</v>
+      </c>
+      <c r="AA45" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>יוני</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A46" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F46" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="G46" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="14">
         <v>0.42708333333333331</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I46" s="14">
         <v>0.49305555555555558</v>
       </c>
-      <c r="J46" s="15">
+      <c r="J46" s="12">
         <v>46040</v>
       </c>
-      <c r="K46" s="15">
+      <c r="K46" s="12">
         <v>46047</v>
       </c>
-      <c r="L46" s="15">
+      <c r="L46" s="12">
         <v>46054</v>
       </c>
-      <c r="M46" s="15">
+      <c r="M46" s="12">
         <v>46061</v>
       </c>
-      <c r="N46" s="15">
+      <c r="N46" s="12">
         <v>46068</v>
       </c>
-      <c r="O46" s="10">
+      <c r="O46" s="8">
         <v>46075</v>
       </c>
-      <c r="P46" s="10">
+      <c r="P46" s="8">
         <v>46082</v>
       </c>
-      <c r="Q46" s="10">
+      <c r="Q46" s="8">
         <v>46089</v>
       </c>
-      <c r="R46" s="10">
+      <c r="R46" s="8">
         <v>46096</v>
       </c>
-      <c r="S46" s="10">
+      <c r="S46" s="8">
         <v>46103</v>
       </c>
       <c r="T46" s="4"/>
@@ -3221,65 +3417,71 @@
       <c r="W46" s="4"/>
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
-      <c r="Z46" s="8"/>
-      <c r="AA46" s="5"/>
-    </row>
-    <row r="47" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A47" s="13" t="s">
+      <c r="Z46" s="12" cm="1">
+        <f t="array" ref="Z46">LOOKUP(2,1/(A46:Y46&lt;&gt;""),A46:Y46)</f>
+        <v>46103</v>
+      </c>
+      <c r="AA46" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>מרץ</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A47" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="G47" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="14">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I47" s="14">
         <v>0.40277777777777779</v>
       </c>
-      <c r="J47" s="15">
+      <c r="J47" s="12">
         <v>46036</v>
       </c>
-      <c r="K47" s="15">
+      <c r="K47" s="12">
         <v>46043</v>
       </c>
-      <c r="L47" s="15">
+      <c r="L47" s="12">
         <v>46050</v>
       </c>
-      <c r="M47" s="15">
+      <c r="M47" s="12">
         <v>46057</v>
       </c>
-      <c r="N47" s="15">
+      <c r="N47" s="12">
         <v>46064</v>
       </c>
-      <c r="O47" s="10">
+      <c r="O47" s="8">
         <v>46071</v>
       </c>
-      <c r="P47" s="10">
+      <c r="P47" s="8">
         <v>46078</v>
       </c>
-      <c r="Q47" s="10">
+      <c r="Q47" s="8">
         <v>46092</v>
       </c>
-      <c r="R47" s="10">
+      <c r="R47" s="8">
         <v>46099</v>
       </c>
-      <c r="S47" s="10">
+      <c r="S47" s="8">
         <v>46127</v>
       </c>
       <c r="T47" s="4"/>
@@ -3288,140 +3490,152 @@
       <c r="W47" s="4"/>
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
-      <c r="Z47" s="8"/>
-      <c r="AA47" s="5"/>
-    </row>
-    <row r="48" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A48" s="13" t="s">
+      <c r="Z47" s="12" cm="1">
+        <f t="array" ref="Z47">LOOKUP(2,1/(A47:Y47&lt;&gt;""),A47:Y47)</f>
+        <v>46127</v>
+      </c>
+      <c r="AA47" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>אפריל</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A48" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G48" s="13" t="s">
+      <c r="G48" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H48" s="14">
         <v>0.5</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I48" s="14">
         <v>0.5625</v>
       </c>
-      <c r="J48" s="15">
+      <c r="J48" s="12">
         <v>46064</v>
       </c>
-      <c r="K48" s="15">
+      <c r="K48" s="12">
         <v>46071</v>
       </c>
-      <c r="L48" s="15">
+      <c r="L48" s="12">
         <v>46078</v>
       </c>
-      <c r="M48" s="15">
+      <c r="M48" s="12">
         <v>46092</v>
       </c>
-      <c r="N48" s="15">
+      <c r="N48" s="12">
         <v>46099</v>
       </c>
-      <c r="O48" s="10">
+      <c r="O48" s="8">
         <v>46127</v>
       </c>
-      <c r="P48" s="10">
+      <c r="P48" s="8">
         <v>46141</v>
       </c>
-      <c r="Q48" s="10">
+      <c r="Q48" s="8">
         <v>46148</v>
       </c>
-      <c r="R48" s="10">
+      <c r="R48" s="8">
         <v>46155</v>
       </c>
-      <c r="S48" s="10">
+      <c r="S48" s="8">
         <v>46162</v>
       </c>
-      <c r="T48" s="10">
+      <c r="T48" s="8">
         <v>46169</v>
       </c>
-      <c r="U48" s="10">
+      <c r="U48" s="8">
         <v>46176</v>
       </c>
-      <c r="V48" s="10">
+      <c r="V48" s="8">
         <v>46183</v>
       </c>
-      <c r="W48" s="10">
+      <c r="W48" s="8">
         <v>46190</v>
       </c>
       <c r="X48" s="4"/>
       <c r="Y48" s="4"/>
-      <c r="Z48" s="8"/>
-      <c r="AA48" s="5"/>
-    </row>
-    <row r="49" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A49" s="13" t="s">
+      <c r="Z48" s="12" cm="1">
+        <f t="array" ref="Z48">LOOKUP(2,1/(A48:Y48&lt;&gt;""),A48:Y48)</f>
+        <v>46190</v>
+      </c>
+      <c r="AA48" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>יוני</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A49" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G49" s="13" t="s">
+      <c r="G49" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H49" s="14">
         <v>0.34722222222222221</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I49" s="14">
         <v>0.40625</v>
       </c>
-      <c r="J49" s="15">
+      <c r="J49" s="12">
         <v>46031</v>
       </c>
-      <c r="K49" s="15">
+      <c r="K49" s="12">
         <v>46038</v>
       </c>
-      <c r="L49" s="15">
+      <c r="L49" s="12">
         <v>46045</v>
       </c>
-      <c r="M49" s="15">
+      <c r="M49" s="12">
         <v>46052</v>
       </c>
-      <c r="N49" s="15">
+      <c r="N49" s="12">
         <v>46059</v>
       </c>
-      <c r="O49" s="10">
+      <c r="O49" s="8">
         <v>46066</v>
       </c>
-      <c r="P49" s="10">
+      <c r="P49" s="8">
         <v>46073</v>
       </c>
-      <c r="Q49" s="10">
+      <c r="Q49" s="8">
         <v>46080</v>
       </c>
-      <c r="R49" s="10">
+      <c r="R49" s="8">
         <v>46087</v>
       </c>
-      <c r="S49" s="10">
+      <c r="S49" s="8">
         <v>46094</v>
       </c>
       <c r="T49" s="4"/>
@@ -3430,59 +3644,65 @@
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
       <c r="Y49" s="4"/>
-      <c r="Z49" s="8"/>
-      <c r="AA49" s="5"/>
-    </row>
-    <row r="50" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A50" s="13" t="s">
+      <c r="Z49" s="12" cm="1">
+        <f t="array" ref="Z49">LOOKUP(2,1/(A49:Y49&lt;&gt;""),A49:Y49)</f>
+        <v>46094</v>
+      </c>
+      <c r="AA49" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>מרץ</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A50" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="G50" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H50" s="14">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I50" s="14">
         <v>0.40277777777777779</v>
       </c>
-      <c r="J50" s="15">
+      <c r="J50" s="12">
         <v>46026</v>
       </c>
-      <c r="K50" s="15">
+      <c r="K50" s="12">
         <v>46033</v>
       </c>
-      <c r="L50" s="15">
+      <c r="L50" s="12">
         <v>46040</v>
       </c>
-      <c r="M50" s="15">
+      <c r="M50" s="12">
         <v>46047</v>
       </c>
-      <c r="N50" s="15">
+      <c r="N50" s="12">
         <v>46054</v>
       </c>
-      <c r="O50" s="10">
+      <c r="O50" s="8">
         <v>46061</v>
       </c>
-      <c r="P50" s="10">
+      <c r="P50" s="8">
         <v>46068</v>
       </c>
-      <c r="Q50" s="10">
+      <c r="Q50" s="8">
         <v>46075</v>
       </c>
       <c r="R50" s="4"/>
@@ -3493,59 +3713,65 @@
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
       <c r="Y50" s="4"/>
-      <c r="Z50" s="8"/>
-      <c r="AA50" s="5"/>
-    </row>
-    <row r="51" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A51" s="13" t="s">
+      <c r="Z50" s="12" cm="1">
+        <f t="array" ref="Z50">LOOKUP(2,1/(A50:Y50&lt;&gt;""),A50:Y50)</f>
+        <v>46075</v>
+      </c>
+      <c r="AA50" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>פברואר</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A51" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G51" s="13" t="s">
+      <c r="G51" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H51" s="14">
         <v>0.42708333333333331</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I51" s="14">
         <v>0.5</v>
       </c>
-      <c r="J51" s="15">
+      <c r="J51" s="12">
         <v>46026</v>
       </c>
-      <c r="K51" s="15">
+      <c r="K51" s="12">
         <v>46033</v>
       </c>
-      <c r="L51" s="15">
+      <c r="L51" s="12">
         <v>46040</v>
       </c>
-      <c r="M51" s="15">
+      <c r="M51" s="12">
         <v>46047</v>
       </c>
-      <c r="N51" s="15">
+      <c r="N51" s="12">
         <v>46054</v>
       </c>
-      <c r="O51" s="10">
+      <c r="O51" s="8">
         <v>46061</v>
       </c>
-      <c r="P51" s="10">
+      <c r="P51" s="8">
         <v>46068</v>
       </c>
-      <c r="Q51" s="10">
+      <c r="Q51" s="8">
         <v>46075</v>
       </c>
       <c r="R51" s="4"/>
@@ -3556,136 +3782,148 @@
       <c r="W51" s="4"/>
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
-      <c r="Z51" s="8"/>
-      <c r="AA51" s="5"/>
-    </row>
-    <row r="52" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A52" s="13" t="s">
+      <c r="Z51" s="12" cm="1">
+        <f t="array" ref="Z51">LOOKUP(2,1/(A51:Y51&lt;&gt;""),A51:Y51)</f>
+        <v>46075</v>
+      </c>
+      <c r="AA51" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>פברואר</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A52" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H52" s="14">
         <v>0.34375</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I52" s="14">
         <v>0.40625</v>
       </c>
-      <c r="J52" s="15">
+      <c r="J52" s="12">
         <v>46027</v>
       </c>
-      <c r="K52" s="15">
+      <c r="K52" s="12">
         <v>46034</v>
       </c>
-      <c r="L52" s="15">
+      <c r="L52" s="12">
         <v>46041</v>
       </c>
-      <c r="M52" s="15">
+      <c r="M52" s="12">
         <v>46048</v>
       </c>
-      <c r="N52" s="15">
+      <c r="N52" s="12">
         <v>46055</v>
       </c>
-      <c r="O52" s="10">
+      <c r="O52" s="8">
         <v>46062</v>
       </c>
-      <c r="P52" s="10">
+      <c r="P52" s="8">
         <v>46069</v>
       </c>
-      <c r="Q52" s="10">
+      <c r="Q52" s="8">
         <v>46076</v>
       </c>
-      <c r="R52" s="10">
+      <c r="R52" s="8">
         <v>46083</v>
       </c>
-      <c r="S52" s="10">
+      <c r="S52" s="8">
         <v>46090</v>
       </c>
-      <c r="T52" s="10">
+      <c r="T52" s="8">
         <v>46097</v>
       </c>
-      <c r="U52" s="10">
+      <c r="U52" s="8">
         <v>46104</v>
       </c>
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
       <c r="X52" s="4"/>
       <c r="Y52" s="4"/>
-      <c r="Z52" s="8"/>
-      <c r="AA52" s="5"/>
-    </row>
-    <row r="53" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A53" s="13" t="s">
+      <c r="Z52" s="12" cm="1">
+        <f t="array" ref="Z52">LOOKUP(2,1/(A52:Y52&lt;&gt;""),A52:Y52)</f>
+        <v>46104</v>
+      </c>
+      <c r="AA52" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>מרץ</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A53" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G53" s="13" t="s">
+      <c r="G53" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H53" s="14">
         <v>0.34375</v>
       </c>
-      <c r="I53" s="17">
+      <c r="I53" s="14">
         <v>0.40625</v>
       </c>
-      <c r="J53" s="15">
+      <c r="J53" s="12">
         <v>46035</v>
       </c>
-      <c r="K53" s="15">
+      <c r="K53" s="12">
         <v>46042</v>
       </c>
-      <c r="L53" s="15">
+      <c r="L53" s="12">
         <v>46049</v>
       </c>
-      <c r="M53" s="15">
+      <c r="M53" s="12">
         <v>46056</v>
       </c>
-      <c r="N53" s="15">
+      <c r="N53" s="12">
         <v>46063</v>
       </c>
-      <c r="O53" s="10">
+      <c r="O53" s="8">
         <v>46070</v>
       </c>
-      <c r="P53" s="10">
+      <c r="P53" s="8">
         <v>46077</v>
       </c>
-      <c r="Q53" s="10">
+      <c r="Q53" s="8">
         <v>46091</v>
       </c>
-      <c r="R53" s="10">
+      <c r="R53" s="8">
         <v>46098</v>
       </c>
-      <c r="S53" s="10">
+      <c r="S53" s="8">
         <v>46126</v>
       </c>
       <c r="T53" s="4"/>
@@ -3694,59 +3932,65 @@
       <c r="W53" s="4"/>
       <c r="X53" s="4"/>
       <c r="Y53" s="4"/>
-      <c r="Z53" s="8"/>
-      <c r="AA53" s="5"/>
-    </row>
-    <row r="54" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A54" s="13" t="s">
+      <c r="Z53" s="12" cm="1">
+        <f t="array" ref="Z53">LOOKUP(2,1/(A53:Y53&lt;&gt;""),A53:Y53)</f>
+        <v>46126</v>
+      </c>
+      <c r="AA53" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>אפריל</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A54" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="13" t="s">
+      <c r="G54" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H54" s="14">
         <v>0.4375</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I54" s="14">
         <v>0.5</v>
       </c>
-      <c r="J54" s="15">
+      <c r="J54" s="12">
         <v>46063</v>
       </c>
-      <c r="K54" s="15">
+      <c r="K54" s="12">
         <v>46070</v>
       </c>
-      <c r="L54" s="15">
+      <c r="L54" s="12">
         <v>46077</v>
       </c>
-      <c r="M54" s="15">
+      <c r="M54" s="12">
         <v>46091</v>
       </c>
-      <c r="N54" s="15">
+      <c r="N54" s="12">
         <v>46098</v>
       </c>
-      <c r="O54" s="10">
+      <c r="O54" s="8">
         <v>46126</v>
       </c>
-      <c r="P54" s="10">
+      <c r="P54" s="8">
         <v>46140</v>
       </c>
-      <c r="Q54" s="10">
+      <c r="Q54" s="8">
         <v>46147</v>
       </c>
       <c r="R54" s="4"/>
@@ -3757,65 +4001,71 @@
       <c r="W54" s="4"/>
       <c r="X54" s="4"/>
       <c r="Y54" s="4"/>
-      <c r="Z54" s="8"/>
-      <c r="AA54" s="5"/>
-    </row>
-    <row r="55" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A55" s="13" t="s">
+      <c r="Z54" s="12" cm="1">
+        <f t="array" ref="Z54">LOOKUP(2,1/(A54:Y54&lt;&gt;""),A54:Y54)</f>
+        <v>46147</v>
+      </c>
+      <c r="AA54" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>מאי</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A55" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G55" s="13" t="s">
+      <c r="G55" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H55" s="14">
         <v>0.5</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I55" s="14">
         <v>0.5625</v>
       </c>
-      <c r="J55" s="15">
+      <c r="J55" s="12">
         <v>46061</v>
       </c>
-      <c r="K55" s="15">
+      <c r="K55" s="12">
         <v>46068</v>
       </c>
-      <c r="L55" s="15">
+      <c r="L55" s="12">
         <v>46075</v>
       </c>
-      <c r="M55" s="15">
+      <c r="M55" s="12">
         <v>46082</v>
       </c>
-      <c r="N55" s="15">
+      <c r="N55" s="12">
         <v>46089</v>
       </c>
-      <c r="O55" s="10">
+      <c r="O55" s="8">
         <v>46096</v>
       </c>
-      <c r="P55" s="10">
+      <c r="P55" s="8">
         <v>46103</v>
       </c>
-      <c r="Q55" s="10">
+      <c r="Q55" s="8">
         <v>46124</v>
       </c>
-      <c r="R55" s="10">
+      <c r="R55" s="8">
         <v>46131</v>
       </c>
-      <c r="S55" s="10">
+      <c r="S55" s="8">
         <v>46138</v>
       </c>
       <c r="T55" s="4"/>
@@ -3824,65 +4074,71 @@
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
       <c r="Y55" s="4"/>
-      <c r="Z55" s="8"/>
-      <c r="AA55" s="5"/>
-    </row>
-    <row r="56" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A56" s="13" t="s">
+      <c r="Z55" s="12" cm="1">
+        <f t="array" ref="Z55">LOOKUP(2,1/(A55:Y55&lt;&gt;""),A55:Y55)</f>
+        <v>46138</v>
+      </c>
+      <c r="AA55" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>אפריל</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A56" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E56" s="13" t="s">
+      <c r="E56" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="F56" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G56" s="13" t="s">
+      <c r="G56" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H56" s="14">
         <v>0.57291666666666663</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I56" s="14">
         <v>0.63541666666666663</v>
       </c>
-      <c r="J56" s="15">
+      <c r="J56" s="12">
         <v>46061</v>
       </c>
-      <c r="K56" s="15">
+      <c r="K56" s="12">
         <v>46068</v>
       </c>
-      <c r="L56" s="15">
+      <c r="L56" s="12">
         <v>46075</v>
       </c>
-      <c r="M56" s="15">
+      <c r="M56" s="12">
         <v>46082</v>
       </c>
-      <c r="N56" s="15">
+      <c r="N56" s="12">
         <v>46089</v>
       </c>
-      <c r="O56" s="10">
+      <c r="O56" s="8">
         <v>46096</v>
       </c>
-      <c r="P56" s="10">
+      <c r="P56" s="8">
         <v>46103</v>
       </c>
-      <c r="Q56" s="10">
+      <c r="Q56" s="8">
         <v>46124</v>
       </c>
-      <c r="R56" s="10">
+      <c r="R56" s="8">
         <v>46131</v>
       </c>
-      <c r="S56" s="10">
+      <c r="S56" s="8">
         <v>46138</v>
       </c>
       <c r="T56" s="4"/>
@@ -3891,59 +4147,65 @@
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
       <c r="Y56" s="4"/>
-      <c r="Z56" s="8"/>
-      <c r="AA56" s="5"/>
-    </row>
-    <row r="57" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A57" s="13" t="s">
+      <c r="Z56" s="12" cm="1">
+        <f t="array" ref="Z56">LOOKUP(2,1/(A56:Y56&lt;&gt;""),A56:Y56)</f>
+        <v>46138</v>
+      </c>
+      <c r="AA56" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>אפריל</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A57" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G57" s="13" t="s">
+      <c r="G57" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H57" s="14">
         <v>0.36805555555555558</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I57" s="14">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J57" s="15">
+      <c r="J57" s="12">
         <v>46062</v>
       </c>
-      <c r="K57" s="15">
+      <c r="K57" s="12">
         <v>46069</v>
       </c>
-      <c r="L57" s="15">
+      <c r="L57" s="12">
         <v>46076</v>
       </c>
-      <c r="M57" s="15">
+      <c r="M57" s="12">
         <v>46083</v>
       </c>
-      <c r="N57" s="15">
+      <c r="N57" s="12">
         <v>46090</v>
       </c>
-      <c r="O57" s="10">
+      <c r="O57" s="8">
         <v>46097</v>
       </c>
-      <c r="P57" s="10">
+      <c r="P57" s="8">
         <v>46104</v>
       </c>
-      <c r="Q57" s="10">
+      <c r="Q57" s="8">
         <v>46125</v>
       </c>
       <c r="R57" s="4"/>
@@ -3954,59 +4216,65 @@
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
       <c r="Y57" s="4"/>
-      <c r="Z57" s="8"/>
-      <c r="AA57" s="5"/>
-    </row>
-    <row r="58" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A58" s="13" t="s">
+      <c r="Z57" s="12" cm="1">
+        <f t="array" ref="Z57">LOOKUP(2,1/(A57:Y57&lt;&gt;""),A57:Y57)</f>
+        <v>46125</v>
+      </c>
+      <c r="AA57" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>אפריל</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A58" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F58" s="13" t="s">
+      <c r="F58" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G58" s="13" t="s">
+      <c r="G58" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H58" s="14">
         <v>0.59375</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I58" s="14">
         <v>0.64583333333333337</v>
       </c>
-      <c r="J58" s="15">
+      <c r="J58" s="12">
         <v>46062</v>
       </c>
-      <c r="K58" s="15">
+      <c r="K58" s="12">
         <v>46069</v>
       </c>
-      <c r="L58" s="15">
+      <c r="L58" s="12">
         <v>46076</v>
       </c>
-      <c r="M58" s="15">
+      <c r="M58" s="12">
         <v>46083</v>
       </c>
-      <c r="N58" s="15">
+      <c r="N58" s="12">
         <v>46090</v>
       </c>
-      <c r="O58" s="10">
+      <c r="O58" s="8">
         <v>46097</v>
       </c>
-      <c r="P58" s="10">
+      <c r="P58" s="8">
         <v>46104</v>
       </c>
-      <c r="Q58" s="10">
+      <c r="Q58" s="8">
         <v>46125</v>
       </c>
       <c r="R58" s="4"/>
@@ -4017,669 +4285,723 @@
       <c r="W58" s="4"/>
       <c r="X58" s="4"/>
       <c r="Y58" s="4"/>
-      <c r="Z58" s="8"/>
-      <c r="AA58" s="5"/>
-    </row>
-    <row r="59" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A59" s="13" t="s">
+      <c r="Z58" s="12" cm="1">
+        <f t="array" ref="Z58">LOOKUP(2,1/(A58:Y58&lt;&gt;""),A58:Y58)</f>
+        <v>46125</v>
+      </c>
+      <c r="AA58" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>אפריל</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A59" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="E59" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F59" s="13" t="s">
+      <c r="F59" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G59" s="13" t="s">
+      <c r="G59" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H59" s="14">
         <v>0.34027777777777779</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I59" s="14">
         <v>0.40625</v>
       </c>
-      <c r="J59" s="15">
+      <c r="J59" s="12">
         <v>45971</v>
       </c>
-      <c r="K59" s="15">
+      <c r="K59" s="12">
         <v>45978</v>
       </c>
-      <c r="L59" s="15">
+      <c r="L59" s="12">
         <v>45992</v>
       </c>
-      <c r="M59" s="15">
+      <c r="M59" s="12">
         <v>46006</v>
       </c>
-      <c r="N59" s="15">
+      <c r="N59" s="12">
         <v>46020</v>
       </c>
-      <c r="O59" s="10">
+      <c r="O59" s="8">
         <v>46034</v>
       </c>
-      <c r="P59" s="10">
+      <c r="P59" s="8">
         <v>46048</v>
       </c>
-      <c r="Q59" s="10">
+      <c r="Q59" s="8">
         <v>46062</v>
       </c>
-      <c r="R59" s="10">
+      <c r="R59" s="8">
         <v>46076</v>
       </c>
-      <c r="S59" s="10">
+      <c r="S59" s="8">
         <v>46090</v>
       </c>
-      <c r="T59" s="10">
+      <c r="T59" s="8">
         <v>46104</v>
       </c>
-      <c r="U59" s="10">
+      <c r="U59" s="8">
         <v>46132</v>
       </c>
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
       <c r="Y59" s="4"/>
-      <c r="Z59" s="8"/>
-      <c r="AA59" s="5"/>
-    </row>
-    <row r="60" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A60" s="13" t="s">
+      <c r="Z59" s="12" cm="1">
+        <f t="array" ref="Z59">LOOKUP(2,1/(A59:Y59&lt;&gt;""),A59:Y59)</f>
+        <v>46132</v>
+      </c>
+      <c r="AA59" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>אפריל</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A60" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E60" s="13" t="s">
+      <c r="E60" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F60" s="13" t="s">
+      <c r="F60" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G60" s="13" t="s">
+      <c r="G60" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H60" s="14">
         <v>0.51041666666666663</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I60" s="14">
         <v>0.56597222222222221</v>
       </c>
-      <c r="J60" s="15">
+      <c r="J60" s="12">
         <v>45972</v>
       </c>
-      <c r="K60" s="15">
+      <c r="K60" s="12">
         <v>45979</v>
       </c>
-      <c r="L60" s="15">
+      <c r="L60" s="12">
         <v>45986</v>
       </c>
-      <c r="M60" s="15">
+      <c r="M60" s="12">
         <v>45993</v>
       </c>
-      <c r="N60" s="15">
+      <c r="N60" s="12">
         <v>46000</v>
       </c>
-      <c r="O60" s="10">
+      <c r="O60" s="8">
         <v>46014</v>
       </c>
-      <c r="P60" s="10">
+      <c r="P60" s="8">
         <v>46021</v>
       </c>
-      <c r="Q60" s="10">
+      <c r="Q60" s="8">
         <v>46028</v>
       </c>
-      <c r="R60" s="10">
+      <c r="R60" s="8">
         <v>46035</v>
       </c>
-      <c r="S60" s="10">
+      <c r="S60" s="8">
         <v>46042</v>
       </c>
-      <c r="T60" s="10">
+      <c r="T60" s="8">
         <v>46049</v>
       </c>
-      <c r="U60" s="10">
+      <c r="U60" s="8">
         <v>46056</v>
       </c>
-      <c r="V60" s="10">
+      <c r="V60" s="8">
         <v>46063</v>
       </c>
-      <c r="W60" s="10">
+      <c r="W60" s="8">
         <v>46070</v>
       </c>
-      <c r="X60" s="10">
+      <c r="X60" s="8">
         <v>46077</v>
       </c>
-      <c r="Y60" s="10">
+      <c r="Y60" s="8">
         <v>46091</v>
       </c>
-      <c r="Z60" s="8"/>
-      <c r="AA60" s="5"/>
-    </row>
-    <row r="61" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A61" s="13" t="s">
+      <c r="Z60" s="12" cm="1">
+        <f t="array" ref="Z60">LOOKUP(2,1/(A60:Y60&lt;&gt;""),A60:Y60)</f>
+        <v>46091</v>
+      </c>
+      <c r="AA60" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>מרץ</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A61" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="E61" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F61" s="13" t="s">
+      <c r="F61" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G61" s="13" t="s">
+      <c r="G61" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H61" s="17">
+      <c r="H61" s="14">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I61" s="17">
+      <c r="I61" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J61" s="15">
+      <c r="J61" s="12">
         <v>45974</v>
       </c>
-      <c r="K61" s="15">
+      <c r="K61" s="12">
         <v>45988</v>
       </c>
-      <c r="L61" s="15">
+      <c r="L61" s="12">
         <v>46030</v>
       </c>
-      <c r="M61" s="10">
+      <c r="M61" s="8">
         <v>46044</v>
       </c>
-      <c r="N61" s="10">
+      <c r="N61" s="8">
         <v>46062</v>
       </c>
-      <c r="O61" s="10">
+      <c r="O61" s="8">
         <v>46083</v>
       </c>
-      <c r="P61" s="10">
+      <c r="P61" s="8">
         <v>46097</v>
       </c>
-      <c r="Q61" s="10">
+      <c r="Q61" s="8">
         <v>46125</v>
       </c>
-      <c r="R61" s="10">
+      <c r="R61" s="8">
         <v>46146</v>
       </c>
-      <c r="S61" s="10">
+      <c r="S61" s="8">
         <v>46160</v>
       </c>
-      <c r="T61" s="10">
+      <c r="T61" s="8">
         <v>46174</v>
       </c>
-      <c r="U61" s="10">
+      <c r="U61" s="8">
         <v>46188</v>
       </c>
-      <c r="V61" s="10"/>
-      <c r="W61" s="10"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
       <c r="X61" s="4"/>
       <c r="Y61" s="4"/>
-      <c r="Z61" s="8"/>
-      <c r="AA61" s="5"/>
-    </row>
-    <row r="62" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A62" s="13" t="s">
+      <c r="Z61" s="12" cm="1">
+        <f t="array" ref="Z61">LOOKUP(2,1/(A61:Y61&lt;&gt;""),A61:Y61)</f>
+        <v>46188</v>
+      </c>
+      <c r="AA61" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>יוני</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A62" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E62" s="13" t="s">
+      <c r="E62" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F62" s="13" t="s">
+      <c r="F62" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G62" s="13" t="s">
+      <c r="G62" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H62" s="14">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I62" s="17">
+      <c r="I62" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J62" s="15">
+      <c r="J62" s="12">
         <v>45974</v>
       </c>
-      <c r="K62" s="15">
+      <c r="K62" s="12">
         <v>45988</v>
       </c>
-      <c r="L62" s="15">
+      <c r="L62" s="12">
         <v>46030</v>
       </c>
-      <c r="M62" s="10">
+      <c r="M62" s="8">
         <v>46044</v>
       </c>
-      <c r="N62" s="10">
+      <c r="N62" s="8">
         <v>46076</v>
       </c>
-      <c r="O62" s="10">
+      <c r="O62" s="8">
         <v>46090</v>
       </c>
-      <c r="P62" s="10">
+      <c r="P62" s="8">
         <v>46104</v>
       </c>
-      <c r="Q62" s="10">
+      <c r="Q62" s="8">
         <v>46139</v>
       </c>
-      <c r="R62" s="10">
+      <c r="R62" s="8">
         <v>46153</v>
       </c>
-      <c r="S62" s="10">
+      <c r="S62" s="8">
         <v>46167</v>
       </c>
-      <c r="T62" s="10">
+      <c r="T62" s="8">
         <v>46181</v>
       </c>
-      <c r="U62" s="10">
+      <c r="U62" s="8">
         <v>46195</v>
       </c>
-      <c r="V62" s="10"/>
-      <c r="W62" s="10"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="8"/>
       <c r="X62" s="4"/>
       <c r="Y62" s="4"/>
-      <c r="Z62" s="8"/>
-      <c r="AA62" s="5"/>
-    </row>
-    <row r="63" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A63" s="13" t="s">
+      <c r="Z62" s="12" cm="1">
+        <f t="array" ref="Z62">LOOKUP(2,1/(A62:Y62&lt;&gt;""),A62:Y62)</f>
+        <v>46195</v>
+      </c>
+      <c r="AA62" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>יוני</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A63" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E63" s="13" t="s">
+      <c r="E63" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F63" s="13" t="s">
+      <c r="F63" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G63" s="13" t="s">
+      <c r="G63" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H63" s="17">
+      <c r="H63" s="14">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I63" s="17">
+      <c r="I63" s="14">
         <v>0.375</v>
       </c>
-      <c r="J63" s="15">
+      <c r="J63" s="12">
         <v>45914</v>
       </c>
-      <c r="K63" s="15">
+      <c r="K63" s="12">
         <v>45921</v>
       </c>
-      <c r="L63" s="15">
+      <c r="L63" s="12">
         <v>45984</v>
       </c>
-      <c r="M63" s="15">
+      <c r="M63" s="12">
         <v>45991</v>
       </c>
-      <c r="N63" s="15">
+      <c r="N63" s="12">
         <v>45998</v>
       </c>
-      <c r="O63" s="10">
+      <c r="O63" s="8">
         <v>46005</v>
       </c>
-      <c r="P63" s="10">
+      <c r="P63" s="8">
         <v>46019</v>
       </c>
-      <c r="Q63" s="10">
+      <c r="Q63" s="8">
         <v>46026</v>
       </c>
-      <c r="R63" s="10">
+      <c r="R63" s="8">
         <v>46033</v>
       </c>
-      <c r="S63" s="10">
+      <c r="S63" s="8">
         <v>46040</v>
       </c>
-      <c r="T63" s="10">
+      <c r="T63" s="8">
         <v>46047</v>
       </c>
-      <c r="U63" s="10">
+      <c r="U63" s="8">
         <v>46054</v>
       </c>
-      <c r="V63" s="10">
+      <c r="V63" s="8">
         <v>46061</v>
       </c>
-      <c r="W63" s="10">
+      <c r="W63" s="8">
         <v>46068</v>
       </c>
-      <c r="X63" s="10">
+      <c r="X63" s="8">
         <v>46075</v>
       </c>
-      <c r="Y63" s="10">
+      <c r="Y63" s="8">
         <v>46082</v>
       </c>
-      <c r="Z63" s="8"/>
-      <c r="AA63" s="5"/>
-    </row>
-    <row r="64" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A64" s="13" t="s">
+      <c r="Z63" s="12" cm="1">
+        <f t="array" ref="Z63">LOOKUP(2,1/(A63:Y63&lt;&gt;""),A63:Y63)</f>
+        <v>46082</v>
+      </c>
+      <c r="AA63" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>מרץ</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A64" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E64" s="13" t="s">
+      <c r="E64" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="F64" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G64" s="13" t="s">
+      <c r="G64" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H64" s="14">
         <v>0.375</v>
       </c>
-      <c r="I64" s="17">
+      <c r="I64" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J64" s="15">
+      <c r="J64" s="12">
         <v>45914</v>
       </c>
-      <c r="K64" s="15">
+      <c r="K64" s="12">
         <v>45921</v>
       </c>
-      <c r="L64" s="15">
+      <c r="L64" s="12">
         <v>45984</v>
       </c>
-      <c r="M64" s="15">
+      <c r="M64" s="12">
         <v>45991</v>
       </c>
-      <c r="N64" s="15">
+      <c r="N64" s="12">
         <v>45998</v>
       </c>
-      <c r="O64" s="10">
+      <c r="O64" s="8">
         <v>46005</v>
       </c>
-      <c r="P64" s="10">
+      <c r="P64" s="8">
         <v>46019</v>
       </c>
-      <c r="Q64" s="10">
+      <c r="Q64" s="8">
         <v>46026</v>
       </c>
-      <c r="R64" s="10">
+      <c r="R64" s="8">
         <v>46033</v>
       </c>
-      <c r="S64" s="10">
+      <c r="S64" s="8">
         <v>46040</v>
       </c>
-      <c r="T64" s="10">
+      <c r="T64" s="8">
         <v>46047</v>
       </c>
-      <c r="U64" s="10">
+      <c r="U64" s="8">
         <v>46054</v>
       </c>
-      <c r="V64" s="10">
+      <c r="V64" s="8">
         <v>46061</v>
       </c>
-      <c r="W64" s="10">
+      <c r="W64" s="8">
         <v>46068</v>
       </c>
-      <c r="X64" s="10">
+      <c r="X64" s="8">
         <v>46075</v>
       </c>
-      <c r="Y64" s="10">
+      <c r="Y64" s="8">
         <v>46082</v>
       </c>
-      <c r="Z64" s="8"/>
-      <c r="AA64" s="5"/>
-    </row>
-    <row r="65" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A65" s="13" t="s">
+      <c r="Z64" s="12" cm="1">
+        <f t="array" ref="Z64">LOOKUP(2,1/(A64:Y64&lt;&gt;""),A64:Y64)</f>
+        <v>46082</v>
+      </c>
+      <c r="AA64" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>מרץ</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A65" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E65" s="13" t="s">
+      <c r="E65" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F65" s="13" t="s">
+      <c r="F65" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G65" s="13" t="s">
+      <c r="G65" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H65" s="17">
+      <c r="H65" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I65" s="17">
+      <c r="I65" s="14">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J65" s="15">
+      <c r="J65" s="12">
         <v>45914</v>
       </c>
-      <c r="K65" s="15">
+      <c r="K65" s="12">
         <v>45921</v>
       </c>
-      <c r="L65" s="15">
+      <c r="L65" s="12">
         <v>45984</v>
       </c>
-      <c r="M65" s="15">
+      <c r="M65" s="12">
         <v>45991</v>
       </c>
-      <c r="N65" s="15">
+      <c r="N65" s="12">
         <v>45998</v>
       </c>
-      <c r="O65" s="10">
+      <c r="O65" s="8">
         <v>46005</v>
       </c>
-      <c r="P65" s="10">
+      <c r="P65" s="8">
         <v>46019</v>
       </c>
-      <c r="Q65" s="10">
+      <c r="Q65" s="8">
         <v>46026</v>
       </c>
-      <c r="R65" s="10">
+      <c r="R65" s="8">
         <v>46033</v>
       </c>
-      <c r="S65" s="10">
+      <c r="S65" s="8">
         <v>46040</v>
       </c>
-      <c r="T65" s="10">
+      <c r="T65" s="8">
         <v>46047</v>
       </c>
-      <c r="U65" s="10">
+      <c r="U65" s="8">
         <v>46054</v>
       </c>
-      <c r="V65" s="10">
+      <c r="V65" s="8">
         <v>46061</v>
       </c>
-      <c r="W65" s="10">
+      <c r="W65" s="8">
         <v>46068</v>
       </c>
-      <c r="X65" s="10">
+      <c r="X65" s="8">
         <v>46075</v>
       </c>
-      <c r="Y65" s="10">
+      <c r="Y65" s="8">
         <v>46082</v>
       </c>
-      <c r="Z65" s="8"/>
-      <c r="AA65" s="5"/>
-    </row>
-    <row r="66" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A66" s="13" t="s">
+      <c r="Z65" s="12" cm="1">
+        <f t="array" ref="Z65">LOOKUP(2,1/(A65:Y65&lt;&gt;""),A65:Y65)</f>
+        <v>46082</v>
+      </c>
+      <c r="AA65" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>מרץ</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A66" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="E66" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F66" s="13" t="s">
+      <c r="F66" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G66" s="13" t="s">
+      <c r="G66" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H66" s="17">
+      <c r="H66" s="14">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I66" s="17">
+      <c r="I66" s="14">
         <v>0.60416666666666663</v>
       </c>
-      <c r="J66" s="15">
+      <c r="J66" s="12">
         <v>46071</v>
       </c>
-      <c r="K66" s="15">
+      <c r="K66" s="12">
         <v>46078</v>
       </c>
-      <c r="L66" s="15">
+      <c r="L66" s="12">
         <v>46092</v>
       </c>
-      <c r="M66" s="15">
+      <c r="M66" s="12">
         <v>46099</v>
       </c>
-      <c r="N66" s="15">
+      <c r="N66" s="12">
         <v>46127</v>
       </c>
-      <c r="O66" s="10">
+      <c r="O66" s="8">
         <v>46141</v>
       </c>
-      <c r="P66" s="10">
+      <c r="P66" s="8">
         <v>46148</v>
       </c>
-      <c r="Q66" s="10">
+      <c r="Q66" s="8">
         <v>46155</v>
       </c>
-      <c r="R66" s="10">
+      <c r="R66" s="8">
         <v>46162</v>
       </c>
-      <c r="S66" s="10">
+      <c r="S66" s="8">
         <v>46169</v>
       </c>
-      <c r="T66" s="10">
+      <c r="T66" s="8">
         <v>46176</v>
       </c>
-      <c r="U66" s="10">
+      <c r="U66" s="8">
         <v>46183</v>
       </c>
-      <c r="V66" s="10">
+      <c r="V66" s="8">
         <v>46190</v>
       </c>
-      <c r="W66" s="10">
+      <c r="W66" s="8">
         <v>46197</v>
       </c>
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
-      <c r="Z66" s="8"/>
-      <c r="AA66" s="5"/>
-    </row>
-    <row r="67" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A67" s="13" t="s">
+      <c r="Z66" s="12" cm="1">
+        <f t="array" ref="Z66">LOOKUP(2,1/(A66:Y66&lt;&gt;""),A66:Y66)</f>
+        <v>46197</v>
+      </c>
+      <c r="AA66" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>יוני</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A67" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E67" s="13" t="s">
+      <c r="E67" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F67" s="13" t="s">
+      <c r="F67" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G67" s="13" t="s">
+      <c r="G67" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H67" s="17">
+      <c r="H67" s="14">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I67" s="17">
+      <c r="I67" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J67" s="15">
+      <c r="J67" s="12">
         <v>45951</v>
       </c>
-      <c r="K67" s="15">
+      <c r="K67" s="12">
         <v>45972</v>
       </c>
-      <c r="L67" s="15">
+      <c r="L67" s="12">
         <v>45993</v>
       </c>
-      <c r="M67" s="15">
+      <c r="M67" s="12">
         <v>46014</v>
       </c>
-      <c r="N67" s="15">
+      <c r="N67" s="12">
         <v>46035</v>
       </c>
-      <c r="O67" s="10">
+      <c r="O67" s="8">
         <v>46056</v>
       </c>
-      <c r="P67" s="10">
+      <c r="P67" s="8">
         <v>46077</v>
       </c>
-      <c r="Q67" s="10">
+      <c r="Q67" s="8">
         <v>46098</v>
       </c>
-      <c r="R67" s="10">
+      <c r="R67" s="8">
         <v>46140</v>
       </c>
-      <c r="S67" s="10">
+      <c r="S67" s="8">
         <v>46161</v>
       </c>
       <c r="T67" s="4"/>
@@ -4688,65 +5010,71 @@
       <c r="W67" s="4"/>
       <c r="X67" s="4"/>
       <c r="Y67" s="4"/>
-      <c r="Z67" s="8"/>
-      <c r="AA67" s="5"/>
-    </row>
-    <row r="68" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A68" s="13" t="s">
+      <c r="Z67" s="12" cm="1">
+        <f t="array" ref="Z67">LOOKUP(2,1/(A67:Y67&lt;&gt;""),A67:Y67)</f>
+        <v>46161</v>
+      </c>
+      <c r="AA67" s="10" t="str">
+        <f t="shared" ref="AA67:AA90" si="1">TEXT(Z67,"[$-he-IL]mmmm")</f>
+        <v>מאי</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A68" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E68" s="13" t="s">
+      <c r="E68" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F68" s="13" t="s">
+      <c r="F68" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G68" s="13" t="s">
+      <c r="G68" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H68" s="17">
+      <c r="H68" s="14">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I68" s="17">
+      <c r="I68" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J68" s="15">
+      <c r="J68" s="12">
         <v>45952</v>
       </c>
-      <c r="K68" s="15">
+      <c r="K68" s="12">
         <v>45973</v>
       </c>
-      <c r="L68" s="15">
+      <c r="L68" s="12">
         <v>45994</v>
       </c>
-      <c r="M68" s="15">
+      <c r="M68" s="12">
         <v>46015</v>
       </c>
-      <c r="N68" s="15">
+      <c r="N68" s="12">
         <v>46036</v>
       </c>
-      <c r="O68" s="10">
+      <c r="O68" s="8">
         <v>46057</v>
       </c>
-      <c r="P68" s="10">
+      <c r="P68" s="8">
         <v>46078</v>
       </c>
-      <c r="Q68" s="10">
+      <c r="Q68" s="8">
         <v>46099</v>
       </c>
-      <c r="R68" s="10">
+      <c r="R68" s="8">
         <v>46141</v>
       </c>
-      <c r="S68" s="10">
+      <c r="S68" s="8">
         <v>46162</v>
       </c>
       <c r="T68" s="4"/>
@@ -4755,65 +5083,71 @@
       <c r="W68" s="4"/>
       <c r="X68" s="4"/>
       <c r="Y68" s="4"/>
-      <c r="Z68" s="8"/>
-      <c r="AA68" s="5"/>
-    </row>
-    <row r="69" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A69" s="13" t="s">
+      <c r="Z68" s="12" cm="1">
+        <f t="array" ref="Z68">LOOKUP(2,1/(A68:Y68&lt;&gt;""),A68:Y68)</f>
+        <v>46162</v>
+      </c>
+      <c r="AA68" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>מאי</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A69" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D69" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E69" s="13" t="s">
+      <c r="E69" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F69" s="13" t="s">
+      <c r="F69" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G69" s="13" t="s">
+      <c r="G69" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H69" s="17">
+      <c r="H69" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I69" s="17">
+      <c r="I69" s="14">
         <v>0.5</v>
       </c>
-      <c r="J69" s="15">
+      <c r="J69" s="12">
         <v>45952</v>
       </c>
-      <c r="K69" s="15">
+      <c r="K69" s="12">
         <v>45973</v>
       </c>
-      <c r="L69" s="15">
+      <c r="L69" s="12">
         <v>45994</v>
       </c>
-      <c r="M69" s="15">
+      <c r="M69" s="12">
         <v>46015</v>
       </c>
-      <c r="N69" s="15">
+      <c r="N69" s="12">
         <v>46036</v>
       </c>
-      <c r="O69" s="10">
+      <c r="O69" s="8">
         <v>46057</v>
       </c>
-      <c r="P69" s="10">
+      <c r="P69" s="8">
         <v>46078</v>
       </c>
-      <c r="Q69" s="10">
+      <c r="Q69" s="8">
         <v>46099</v>
       </c>
-      <c r="R69" s="10">
+      <c r="R69" s="8">
         <v>46141</v>
       </c>
-      <c r="S69" s="10">
+      <c r="S69" s="8">
         <v>46162</v>
       </c>
       <c r="T69" s="4"/>
@@ -4822,143 +5156,155 @@
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
       <c r="Y69" s="4"/>
-      <c r="Z69" s="8"/>
-      <c r="AA69" s="5"/>
-    </row>
-    <row r="70" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A70" s="13" t="s">
+      <c r="Z69" s="12" cm="1">
+        <f t="array" ref="Z69">LOOKUP(2,1/(A69:Y69&lt;&gt;""),A69:Y69)</f>
+        <v>46162</v>
+      </c>
+      <c r="AA69" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>מאי</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A70" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D70" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E70" s="13" t="s">
+      <c r="E70" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F70" s="13" t="s">
+      <c r="F70" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G70" s="13" t="s">
+      <c r="G70" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H70" s="17">
+      <c r="H70" s="14">
         <v>0.34375</v>
       </c>
-      <c r="I70" s="17">
+      <c r="I70" s="14">
         <v>0.40625</v>
       </c>
-      <c r="J70" s="15">
+      <c r="J70" s="12">
         <v>45986</v>
       </c>
-      <c r="K70" s="15">
+      <c r="K70" s="12">
         <v>45993</v>
       </c>
-      <c r="L70" s="15">
+      <c r="L70" s="12">
         <v>46000</v>
       </c>
-      <c r="M70" s="15">
+      <c r="M70" s="12">
         <v>46014</v>
       </c>
-      <c r="N70" s="15">
+      <c r="N70" s="12">
         <v>46021</v>
       </c>
-      <c r="O70" s="10">
+      <c r="O70" s="8">
         <v>46028</v>
       </c>
-      <c r="P70" s="10">
+      <c r="P70" s="8">
         <v>46035</v>
       </c>
-      <c r="Q70" s="10">
+      <c r="Q70" s="8">
         <v>46042</v>
       </c>
-      <c r="R70" s="10">
+      <c r="R70" s="8">
         <v>46049</v>
       </c>
-      <c r="S70" s="10">
+      <c r="S70" s="8">
         <v>46056</v>
       </c>
-      <c r="T70" s="10">
+      <c r="T70" s="8">
         <v>46063</v>
       </c>
-      <c r="U70" s="10">
+      <c r="U70" s="8">
         <v>46070</v>
       </c>
-      <c r="V70" s="10">
+      <c r="V70" s="8">
         <v>46077</v>
       </c>
-      <c r="W70" s="10">
+      <c r="W70" s="8">
         <v>46091</v>
       </c>
       <c r="X70" s="4"/>
       <c r="Y70" s="4"/>
-      <c r="Z70" s="8"/>
-      <c r="AA70" s="5"/>
-    </row>
-    <row r="71" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A71" s="13" t="s">
+      <c r="Z70" s="12" cm="1">
+        <f t="array" ref="Z70">LOOKUP(2,1/(A70:Y70&lt;&gt;""),A70:Y70)</f>
+        <v>46091</v>
+      </c>
+      <c r="AA70" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>מרץ</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A71" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="D71" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E71" s="13" t="s">
+      <c r="E71" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F71" s="13" t="s">
+      <c r="F71" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="G71" s="13" t="s">
+      <c r="G71" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H71" s="17">
+      <c r="H71" s="14">
         <v>0.42708333333333331</v>
       </c>
-      <c r="I71" s="17">
+      <c r="I71" s="14">
         <v>0.48958333333333331</v>
       </c>
-      <c r="J71" s="15">
+      <c r="J71" s="12">
         <v>45986</v>
       </c>
-      <c r="K71" s="15">
+      <c r="K71" s="12">
         <v>46000</v>
       </c>
-      <c r="L71" s="15">
+      <c r="L71" s="12">
         <v>46014</v>
       </c>
-      <c r="M71" s="15">
+      <c r="M71" s="12">
         <v>46016</v>
       </c>
-      <c r="N71" s="15">
+      <c r="N71" s="12">
         <v>46021</v>
       </c>
-      <c r="O71" s="10">
+      <c r="O71" s="8">
         <v>46042</v>
       </c>
-      <c r="P71" s="10">
+      <c r="P71" s="8">
         <v>46049</v>
       </c>
-      <c r="Q71" s="10">
+      <c r="Q71" s="8">
         <v>46063</v>
       </c>
-      <c r="R71" s="10">
+      <c r="R71" s="8">
         <v>46077</v>
       </c>
-      <c r="S71" s="10">
+      <c r="S71" s="8">
         <v>46091</v>
       </c>
-      <c r="T71" s="10">
+      <c r="T71" s="8">
         <v>46105</v>
       </c>
       <c r="U71" s="4"/>
@@ -4966,65 +5312,71 @@
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
       <c r="Y71" s="4"/>
-      <c r="Z71" s="8"/>
-      <c r="AA71" s="5"/>
-    </row>
-    <row r="72" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A72" s="13" t="s">
+      <c r="Z71" s="12" cm="1">
+        <f t="array" ref="Z71">LOOKUP(2,1/(A71:Y71&lt;&gt;""),A71:Y71)</f>
+        <v>46105</v>
+      </c>
+      <c r="AA71" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>מרץ</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A72" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C72" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D72" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E72" s="13" t="s">
+      <c r="E72" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F72" s="13" t="s">
+      <c r="F72" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G72" s="13" t="s">
+      <c r="G72" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H72" s="17">
+      <c r="H72" s="14">
         <v>0.4375</v>
       </c>
-      <c r="I72" s="17">
+      <c r="I72" s="14">
         <v>0.5</v>
       </c>
-      <c r="J72" s="15">
+      <c r="J72" s="12">
         <v>46016</v>
       </c>
-      <c r="K72" s="15">
+      <c r="K72" s="12">
         <v>46023</v>
       </c>
-      <c r="L72" s="15">
+      <c r="L72" s="12">
         <v>46030</v>
       </c>
-      <c r="M72" s="15">
+      <c r="M72" s="12">
         <v>46037</v>
       </c>
-      <c r="N72" s="15">
+      <c r="N72" s="12">
         <v>46044</v>
       </c>
-      <c r="O72" s="10">
+      <c r="O72" s="8">
         <v>46051</v>
       </c>
-      <c r="P72" s="10">
+      <c r="P72" s="8">
         <v>46058</v>
       </c>
-      <c r="Q72" s="10">
+      <c r="Q72" s="8">
         <v>46065</v>
       </c>
-      <c r="R72" s="10">
+      <c r="R72" s="8">
         <v>46072</v>
       </c>
-      <c r="S72" s="10">
+      <c r="S72" s="8">
         <v>46079</v>
       </c>
       <c r="T72" s="4"/>
@@ -5033,214 +5385,232 @@
       <c r="W72" s="4"/>
       <c r="X72" s="4"/>
       <c r="Y72" s="4"/>
-      <c r="Z72" s="8"/>
-      <c r="AA72" s="5"/>
-    </row>
-    <row r="73" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A73" s="13" t="s">
+      <c r="Z72" s="12" cm="1">
+        <f t="array" ref="Z72">LOOKUP(2,1/(A72:Y72&lt;&gt;""),A72:Y72)</f>
+        <v>46079</v>
+      </c>
+      <c r="AA72" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>פברואר</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A73" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="D73" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E73" s="13" t="s">
+      <c r="E73" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F73" s="13" t="s">
+      <c r="F73" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="G73" s="13" t="s">
+      <c r="G73" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H73" s="17">
+      <c r="H73" s="14">
         <v>0.35416666666666669</v>
       </c>
-      <c r="I73" s="17">
+      <c r="I73" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J73" s="15">
+      <c r="J73" s="12">
         <v>45991</v>
       </c>
-      <c r="K73" s="15">
+      <c r="K73" s="12">
         <v>45998</v>
       </c>
-      <c r="L73" s="15">
+      <c r="L73" s="12">
         <v>46005</v>
       </c>
-      <c r="M73" s="15">
+      <c r="M73" s="12">
         <v>46019</v>
       </c>
-      <c r="N73" s="15">
+      <c r="N73" s="12">
         <v>46026</v>
       </c>
-      <c r="O73" s="10">
+      <c r="O73" s="8">
         <v>46033</v>
       </c>
-      <c r="P73" s="10">
+      <c r="P73" s="8">
         <v>46040</v>
       </c>
-      <c r="Q73" s="10">
+      <c r="Q73" s="8">
         <v>46047</v>
       </c>
-      <c r="R73" s="10">
+      <c r="R73" s="8">
         <v>46054</v>
       </c>
-      <c r="S73" s="10">
+      <c r="S73" s="8">
         <v>46061</v>
       </c>
-      <c r="T73" s="10">
+      <c r="T73" s="8">
         <v>46068</v>
       </c>
-      <c r="U73" s="10">
+      <c r="U73" s="8">
         <v>46075</v>
       </c>
-      <c r="V73" s="10">
+      <c r="V73" s="8">
         <v>46082</v>
       </c>
       <c r="W73" s="4"/>
       <c r="X73" s="4"/>
       <c r="Y73" s="4"/>
-      <c r="Z73" s="8"/>
-      <c r="AA73" s="5"/>
-    </row>
-    <row r="74" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A74" s="13" t="s">
+      <c r="Z73" s="12" cm="1">
+        <f t="array" ref="Z73">LOOKUP(2,1/(A73:Y73&lt;&gt;""),A73:Y73)</f>
+        <v>46082</v>
+      </c>
+      <c r="AA73" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>מרץ</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A74" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C74" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D74" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="E74" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F74" s="13" t="s">
+      <c r="F74" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="G74" s="13" t="s">
+      <c r="G74" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H74" s="17">
+      <c r="H74" s="14">
         <v>0.4375</v>
       </c>
-      <c r="I74" s="17">
+      <c r="I74" s="14">
         <v>0.5</v>
       </c>
-      <c r="J74" s="15">
+      <c r="J74" s="12">
         <v>45991</v>
       </c>
-      <c r="K74" s="15">
+      <c r="K74" s="12">
         <v>45998</v>
       </c>
-      <c r="L74" s="15">
+      <c r="L74" s="12">
         <v>46005</v>
       </c>
-      <c r="M74" s="15">
+      <c r="M74" s="12">
         <v>46019</v>
       </c>
-      <c r="N74" s="15">
+      <c r="N74" s="12">
         <v>46026</v>
       </c>
-      <c r="O74" s="10">
+      <c r="O74" s="8">
         <v>46033</v>
       </c>
-      <c r="P74" s="10">
+      <c r="P74" s="8">
         <v>46040</v>
       </c>
-      <c r="Q74" s="10">
+      <c r="Q74" s="8">
         <v>46047</v>
       </c>
-      <c r="R74" s="10">
+      <c r="R74" s="8">
         <v>46054</v>
       </c>
-      <c r="S74" s="10">
+      <c r="S74" s="8">
         <v>46061</v>
       </c>
-      <c r="T74" s="10">
+      <c r="T74" s="8">
         <v>46068</v>
       </c>
-      <c r="U74" s="10">
+      <c r="U74" s="8">
         <v>46075</v>
       </c>
-      <c r="V74" s="10">
+      <c r="V74" s="8">
         <v>46082</v>
       </c>
       <c r="W74" s="4"/>
       <c r="X74" s="4"/>
       <c r="Y74" s="4"/>
-      <c r="Z74" s="8"/>
-      <c r="AA74" s="5"/>
-    </row>
-    <row r="75" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A75" s="13" t="s">
+      <c r="Z74" s="12" cm="1">
+        <f t="array" ref="Z74">LOOKUP(2,1/(A74:Y74&lt;&gt;""),A74:Y74)</f>
+        <v>46082</v>
+      </c>
+      <c r="AA74" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>מרץ</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A75" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C75" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="D75" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="E75" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F75" s="13" t="s">
+      <c r="F75" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="G75" s="13" t="s">
+      <c r="G75" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H75" s="17">
+      <c r="H75" s="14">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I75" s="17">
+      <c r="I75" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J75" s="15">
+      <c r="J75" s="12">
         <v>46022</v>
       </c>
-      <c r="K75" s="15">
+      <c r="K75" s="12">
         <v>46029</v>
       </c>
-      <c r="L75" s="15">
+      <c r="L75" s="12">
         <v>46036</v>
       </c>
-      <c r="M75" s="15">
+      <c r="M75" s="12">
         <v>46043</v>
       </c>
-      <c r="N75" s="15">
+      <c r="N75" s="12">
         <v>46050</v>
       </c>
-      <c r="O75" s="10">
+      <c r="O75" s="8">
         <v>46057</v>
       </c>
-      <c r="P75" s="10">
+      <c r="P75" s="8">
         <v>46064</v>
       </c>
-      <c r="Q75" s="10">
+      <c r="Q75" s="8">
         <v>46071</v>
       </c>
-      <c r="R75" s="10">
+      <c r="R75" s="8">
         <v>46078</v>
       </c>
-      <c r="S75" s="10">
+      <c r="S75" s="8">
         <v>46092</v>
       </c>
-      <c r="T75" s="10">
+      <c r="T75" s="8">
         <v>46099</v>
       </c>
       <c r="U75" s="4"/>
@@ -5248,68 +5618,74 @@
       <c r="W75" s="4"/>
       <c r="X75" s="4"/>
       <c r="Y75" s="4"/>
-      <c r="Z75" s="8"/>
-      <c r="AA75" s="5"/>
-    </row>
-    <row r="76" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A76" s="13" t="s">
+      <c r="Z75" s="12" cm="1">
+        <f t="array" ref="Z75">LOOKUP(2,1/(A75:Y75&lt;&gt;""),A75:Y75)</f>
+        <v>46099</v>
+      </c>
+      <c r="AA75" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>מרץ</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A76" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C76" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D76" s="13" t="s">
+      <c r="D76" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E76" s="13" t="s">
+      <c r="E76" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F76" s="13" t="s">
+      <c r="F76" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="G76" s="13" t="s">
+      <c r="G76" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H76" s="17">
+      <c r="H76" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I76" s="17">
+      <c r="I76" s="14">
         <v>0.5</v>
       </c>
-      <c r="J76" s="15">
+      <c r="J76" s="12">
         <v>46022</v>
       </c>
-      <c r="K76" s="15">
+      <c r="K76" s="12">
         <v>46029</v>
       </c>
-      <c r="L76" s="15">
+      <c r="L76" s="12">
         <v>46036</v>
       </c>
-      <c r="M76" s="15">
+      <c r="M76" s="12">
         <v>46043</v>
       </c>
-      <c r="N76" s="15">
+      <c r="N76" s="12">
         <v>46050</v>
       </c>
-      <c r="O76" s="10">
+      <c r="O76" s="8">
         <v>46057</v>
       </c>
-      <c r="P76" s="10">
+      <c r="P76" s="8">
         <v>46064</v>
       </c>
-      <c r="Q76" s="10">
+      <c r="Q76" s="8">
         <v>46071</v>
       </c>
-      <c r="R76" s="10">
+      <c r="R76" s="8">
         <v>46078</v>
       </c>
-      <c r="S76" s="10">
+      <c r="S76" s="8">
         <v>46092</v>
       </c>
-      <c r="T76" s="10">
+      <c r="T76" s="8">
         <v>46099</v>
       </c>
       <c r="U76" s="4"/>
@@ -5317,59 +5693,65 @@
       <c r="W76" s="4"/>
       <c r="X76" s="4"/>
       <c r="Y76" s="4"/>
-      <c r="Z76" s="8"/>
-      <c r="AA76" s="5"/>
-    </row>
-    <row r="77" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A77" s="13" t="s">
+      <c r="Z76" s="12" cm="1">
+        <f t="array" ref="Z76">LOOKUP(2,1/(A76:Y76&lt;&gt;""),A76:Y76)</f>
+        <v>46099</v>
+      </c>
+      <c r="AA76" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>מרץ</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A77" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C77" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D77" s="13" t="s">
+      <c r="D77" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E77" s="13" t="s">
+      <c r="E77" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F77" s="13" t="s">
+      <c r="F77" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="G77" s="13" t="s">
+      <c r="G77" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H77" s="17">
+      <c r="H77" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I77" s="17">
+      <c r="I77" s="14">
         <v>0.47916666666666669</v>
       </c>
-      <c r="J77" s="15">
+      <c r="J77" s="12">
         <v>46079</v>
       </c>
-      <c r="K77" s="15">
+      <c r="K77" s="12">
         <v>46086</v>
       </c>
-      <c r="L77" s="15">
+      <c r="L77" s="12">
         <v>46093</v>
       </c>
-      <c r="M77" s="15">
+      <c r="M77" s="12">
         <v>46100</v>
       </c>
-      <c r="N77" s="15">
+      <c r="N77" s="12">
         <v>46121</v>
       </c>
-      <c r="O77" s="10">
+      <c r="O77" s="8">
         <v>46128</v>
       </c>
-      <c r="P77" s="10">
+      <c r="P77" s="8">
         <v>46135</v>
       </c>
-      <c r="Q77" s="10">
+      <c r="Q77" s="8">
         <v>46156</v>
       </c>
       <c r="R77" s="4"/>
@@ -5380,59 +5762,65 @@
       <c r="W77" s="4"/>
       <c r="X77" s="4"/>
       <c r="Y77" s="4"/>
-      <c r="Z77" s="8"/>
-      <c r="AA77" s="5"/>
-    </row>
-    <row r="78" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A78" s="13" t="s">
+      <c r="Z77" s="12" cm="1">
+        <f t="array" ref="Z77">LOOKUP(2,1/(A77:Y77&lt;&gt;""),A77:Y77)</f>
+        <v>46156</v>
+      </c>
+      <c r="AA77" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>מאי</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A78" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C78" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D78" s="13" t="s">
+      <c r="D78" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E78" s="13" t="s">
+      <c r="E78" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F78" s="13" t="s">
+      <c r="F78" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="G78" s="13" t="s">
+      <c r="G78" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H78" s="17">
+      <c r="H78" s="14">
         <v>0.5</v>
       </c>
-      <c r="I78" s="17">
+      <c r="I78" s="14">
         <v>0.5625</v>
       </c>
-      <c r="J78" s="15">
+      <c r="J78" s="12">
         <v>46079</v>
       </c>
-      <c r="K78" s="15">
+      <c r="K78" s="12">
         <v>46086</v>
       </c>
-      <c r="L78" s="15">
+      <c r="L78" s="12">
         <v>46093</v>
       </c>
-      <c r="M78" s="15">
+      <c r="M78" s="12">
         <v>46100</v>
       </c>
-      <c r="N78" s="15">
+      <c r="N78" s="12">
         <v>46121</v>
       </c>
-      <c r="O78" s="10">
+      <c r="O78" s="8">
         <v>46128</v>
       </c>
-      <c r="P78" s="10">
+      <c r="P78" s="8">
         <v>46135</v>
       </c>
-      <c r="Q78" s="10">
+      <c r="Q78" s="8">
         <v>46156</v>
       </c>
       <c r="R78" s="4"/>
@@ -5443,59 +5831,65 @@
       <c r="W78" s="4"/>
       <c r="X78" s="4"/>
       <c r="Y78" s="4"/>
-      <c r="Z78" s="8"/>
-      <c r="AA78" s="5"/>
-    </row>
-    <row r="79" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A79" s="13" t="s">
+      <c r="Z78" s="12" cm="1">
+        <f t="array" ref="Z78">LOOKUP(2,1/(A78:Y78&lt;&gt;""),A78:Y78)</f>
+        <v>46156</v>
+      </c>
+      <c r="AA78" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>מאי</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A79" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C79" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="D79" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E79" s="13" t="s">
+      <c r="E79" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F79" s="13" t="s">
+      <c r="F79" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="G79" s="13" t="s">
+      <c r="G79" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H79" s="17">
+      <c r="H79" s="14">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I79" s="17">
+      <c r="I79" s="14">
         <v>0.39583333333333331</v>
       </c>
-      <c r="J79" s="15">
+      <c r="J79" s="12">
         <v>46079</v>
       </c>
-      <c r="K79" s="15">
+      <c r="K79" s="12">
         <v>46086</v>
       </c>
-      <c r="L79" s="15">
+      <c r="L79" s="12">
         <v>46093</v>
       </c>
-      <c r="M79" s="15">
+      <c r="M79" s="12">
         <v>46100</v>
       </c>
-      <c r="N79" s="15">
+      <c r="N79" s="12">
         <v>46121</v>
       </c>
-      <c r="O79" s="10">
+      <c r="O79" s="8">
         <v>46128</v>
       </c>
-      <c r="P79" s="10">
+      <c r="P79" s="8">
         <v>46135</v>
       </c>
-      <c r="Q79" s="10">
+      <c r="Q79" s="8">
         <v>46156</v>
       </c>
       <c r="R79" s="4"/>
@@ -5506,59 +5900,65 @@
       <c r="W79" s="4"/>
       <c r="X79" s="4"/>
       <c r="Y79" s="4"/>
-      <c r="Z79" s="8"/>
-      <c r="AA79" s="5"/>
-    </row>
-    <row r="80" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A80" s="13" t="s">
+      <c r="Z79" s="12" cm="1">
+        <f t="array" ref="Z79">LOOKUP(2,1/(A79:Y79&lt;&gt;""),A79:Y79)</f>
+        <v>46156</v>
+      </c>
+      <c r="AA79" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>מאי</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A80" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C80" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D80" s="13" t="s">
+      <c r="D80" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E80" s="13" t="s">
+      <c r="E80" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F80" s="13" t="s">
+      <c r="F80" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="G80" s="13" t="s">
+      <c r="G80" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H80" s="17">
+      <c r="H80" s="14">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I80" s="17">
+      <c r="I80" s="14">
         <v>0.39583333333333331</v>
       </c>
-      <c r="J80" s="15">
+      <c r="J80" s="12">
         <v>46061</v>
       </c>
-      <c r="K80" s="15">
+      <c r="K80" s="12">
         <v>46068</v>
       </c>
-      <c r="L80" s="15">
+      <c r="L80" s="12">
         <v>46075</v>
       </c>
-      <c r="M80" s="15">
+      <c r="M80" s="12">
         <v>46082</v>
       </c>
-      <c r="N80" s="15">
+      <c r="N80" s="12">
         <v>46089</v>
       </c>
-      <c r="O80" s="10">
+      <c r="O80" s="8">
         <v>46096</v>
       </c>
-      <c r="P80" s="10">
+      <c r="P80" s="8">
         <v>46103</v>
       </c>
-      <c r="Q80" s="10">
+      <c r="Q80" s="8">
         <v>46156</v>
       </c>
       <c r="R80" s="4"/>
@@ -5569,59 +5969,65 @@
       <c r="W80" s="4"/>
       <c r="X80" s="4"/>
       <c r="Y80" s="4"/>
-      <c r="Z80" s="8"/>
-      <c r="AA80" s="5"/>
-    </row>
-    <row r="81" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A81" s="13" t="s">
+      <c r="Z80" s="12" cm="1">
+        <f t="array" ref="Z80">LOOKUP(2,1/(A80:Y80&lt;&gt;""),A80:Y80)</f>
+        <v>46156</v>
+      </c>
+      <c r="AA80" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>מאי</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A81" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C81" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D81" s="13" t="s">
+      <c r="D81" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E81" s="13" t="s">
+      <c r="E81" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F81" s="13" t="s">
+      <c r="F81" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G81" s="13" t="s">
+      <c r="G81" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H81" s="17">
+      <c r="H81" s="14">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I81" s="17">
+      <c r="I81" s="14">
         <v>0.64583333333333337</v>
       </c>
-      <c r="J81" s="15">
+      <c r="J81" s="12">
         <v>46061</v>
       </c>
-      <c r="K81" s="15">
+      <c r="K81" s="12">
         <v>46068</v>
       </c>
-      <c r="L81" s="15">
+      <c r="L81" s="12">
         <v>46075</v>
       </c>
-      <c r="M81" s="15">
+      <c r="M81" s="12">
         <v>46082</v>
       </c>
-      <c r="N81" s="15">
+      <c r="N81" s="12">
         <v>46089</v>
       </c>
-      <c r="O81" s="10">
+      <c r="O81" s="8">
         <v>46096</v>
       </c>
-      <c r="P81" s="10">
+      <c r="P81" s="8">
         <v>46103</v>
       </c>
-      <c r="Q81" s="10">
+      <c r="Q81" s="8">
         <v>46156</v>
       </c>
       <c r="R81" s="4"/>
@@ -5632,59 +6038,65 @@
       <c r="W81" s="4"/>
       <c r="X81" s="4"/>
       <c r="Y81" s="4"/>
-      <c r="Z81" s="8"/>
-      <c r="AA81" s="5"/>
-    </row>
-    <row r="82" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A82" s="13" t="s">
+      <c r="Z81" s="12" cm="1">
+        <f t="array" ref="Z81">LOOKUP(2,1/(A81:Y81&lt;&gt;""),A81:Y81)</f>
+        <v>46156</v>
+      </c>
+      <c r="AA81" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>מאי</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A82" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C82" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D82" s="13" t="s">
+      <c r="D82" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E82" s="13" t="s">
+      <c r="E82" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F82" s="13" t="s">
+      <c r="F82" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G82" s="13" t="s">
+      <c r="G82" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H82" s="17">
+      <c r="H82" s="14">
         <v>0.39583333333333331</v>
       </c>
-      <c r="I82" s="17">
+      <c r="I82" s="14">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J82" s="15">
+      <c r="J82" s="12">
         <v>46064</v>
       </c>
-      <c r="K82" s="15">
+      <c r="K82" s="12">
         <v>46071</v>
       </c>
-      <c r="L82" s="15">
+      <c r="L82" s="12">
         <v>46078</v>
       </c>
-      <c r="M82" s="15">
+      <c r="M82" s="12">
         <v>46092</v>
       </c>
-      <c r="N82" s="15">
+      <c r="N82" s="12">
         <v>46099</v>
       </c>
-      <c r="O82" s="10">
+      <c r="O82" s="8">
         <v>46127</v>
       </c>
-      <c r="P82" s="10">
+      <c r="P82" s="8">
         <v>46141</v>
       </c>
-      <c r="Q82" s="10">
+      <c r="Q82" s="8">
         <v>46156</v>
       </c>
       <c r="R82" s="4"/>
@@ -5695,59 +6107,65 @@
       <c r="W82" s="4"/>
       <c r="X82" s="4"/>
       <c r="Y82" s="4"/>
-      <c r="Z82" s="8"/>
-      <c r="AA82" s="5"/>
-    </row>
-    <row r="83" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A83" s="13" t="s">
+      <c r="Z82" s="12" cm="1">
+        <f t="array" ref="Z82">LOOKUP(2,1/(A82:Y82&lt;&gt;""),A82:Y82)</f>
+        <v>46156</v>
+      </c>
+      <c r="AA82" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>מאי</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A83" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C83" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D83" s="13" t="s">
+      <c r="D83" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E83" s="13" t="s">
+      <c r="E83" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F83" s="13" t="s">
+      <c r="F83" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="G83" s="13" t="s">
+      <c r="G83" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H83" s="17">
+      <c r="H83" s="14">
         <v>0.48958333333333331</v>
       </c>
-      <c r="I83" s="17">
+      <c r="I83" s="14">
         <v>0.52083333333333337</v>
       </c>
-      <c r="J83" s="15">
+      <c r="J83" s="12">
         <v>46064</v>
       </c>
-      <c r="K83" s="15">
+      <c r="K83" s="12">
         <v>46071</v>
       </c>
-      <c r="L83" s="15">
+      <c r="L83" s="12">
         <v>46078</v>
       </c>
-      <c r="M83" s="15">
+      <c r="M83" s="12">
         <v>46092</v>
       </c>
-      <c r="N83" s="15">
+      <c r="N83" s="12">
         <v>46099</v>
       </c>
-      <c r="O83" s="10">
+      <c r="O83" s="8">
         <v>46127</v>
       </c>
-      <c r="P83" s="10">
+      <c r="P83" s="8">
         <v>46141</v>
       </c>
-      <c r="Q83" s="10">
+      <c r="Q83" s="8">
         <v>46156</v>
       </c>
       <c r="R83" s="4"/>
@@ -5758,59 +6176,65 @@
       <c r="W83" s="4"/>
       <c r="X83" s="4"/>
       <c r="Y83" s="4"/>
-      <c r="Z83" s="8"/>
-      <c r="AA83" s="5"/>
-    </row>
-    <row r="84" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A84" s="13" t="s">
+      <c r="Z83" s="12" cm="1">
+        <f t="array" ref="Z83">LOOKUP(2,1/(A83:Y83&lt;&gt;""),A83:Y83)</f>
+        <v>46156</v>
+      </c>
+      <c r="AA83" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>מאי</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A84" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C84" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D84" s="13" t="s">
+      <c r="D84" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E84" s="13" t="s">
+      <c r="E84" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F84" s="13" t="s">
+      <c r="F84" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G84" s="13" t="s">
+      <c r="G84" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H84" s="17">
+      <c r="H84" s="14">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I84" s="17">
+      <c r="I84" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J84" s="15">
+      <c r="J84" s="12">
         <v>46058</v>
       </c>
-      <c r="K84" s="15">
+      <c r="K84" s="12">
         <v>46065</v>
       </c>
-      <c r="L84" s="15">
+      <c r="L84" s="12">
         <v>46072</v>
       </c>
-      <c r="M84" s="15">
+      <c r="M84" s="12">
         <v>46079</v>
       </c>
-      <c r="N84" s="15">
+      <c r="N84" s="12">
         <v>46086</v>
       </c>
-      <c r="O84" s="10">
+      <c r="O84" s="8">
         <v>46093</v>
       </c>
-      <c r="P84" s="10">
+      <c r="P84" s="8">
         <v>46100</v>
       </c>
-      <c r="Q84" s="10">
+      <c r="Q84" s="8">
         <v>46156</v>
       </c>
       <c r="R84" s="4"/>
@@ -5821,932 +6245,1470 @@
       <c r="W84" s="4"/>
       <c r="X84" s="4"/>
       <c r="Y84" s="4"/>
-      <c r="Z84" s="8"/>
-      <c r="AA84" s="5"/>
-    </row>
-    <row r="85" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C85" s="16" t="s">
+      <c r="Z84" s="12" cm="1">
+        <f t="array" ref="Z84">LOOKUP(2,1/(A84:Y84&lt;&gt;""),A84:Y84)</f>
+        <v>46156</v>
+      </c>
+      <c r="AA84" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>מאי</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A85" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D85" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E85" s="13" t="s">
+      <c r="D85" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E85" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="18"/>
-      <c r="L85" s="18"/>
-      <c r="M85" s="18"/>
-      <c r="N85" s="18"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
-      <c r="R85" s="4"/>
-      <c r="S85" s="4"/>
+      <c r="F85" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H85" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="I85" s="14">
+        <v>0.5625</v>
+      </c>
+      <c r="J85" s="12">
+        <v>46061</v>
+      </c>
+      <c r="K85" s="12">
+        <v>46068</v>
+      </c>
+      <c r="L85" s="12">
+        <v>46075</v>
+      </c>
+      <c r="M85" s="12">
+        <v>46082</v>
+      </c>
+      <c r="N85" s="12">
+        <v>46089</v>
+      </c>
+      <c r="O85" s="8">
+        <v>46096</v>
+      </c>
+      <c r="P85" s="8">
+        <v>46103</v>
+      </c>
+      <c r="Q85" s="8">
+        <v>46124</v>
+      </c>
+      <c r="R85" s="8">
+        <v>46131</v>
+      </c>
+      <c r="S85" s="8">
+        <v>46138</v>
+      </c>
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
       <c r="X85" s="4"/>
       <c r="Y85" s="4"/>
-      <c r="Z85" s="8"/>
-      <c r="AA85" s="5"/>
-    </row>
-    <row r="86" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A86" s="13"/>
-      <c r="B86" s="13" t="s">
+      <c r="Z85" s="12" cm="1">
+        <f t="array" ref="Z85">LOOKUP(2,1/(A85:Y85&lt;&gt;""),A85:Y85)</f>
+        <v>46138</v>
+      </c>
+      <c r="AA85" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>אפריל</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A86" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B86" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C86" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D86" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E86" s="13" t="s">
+      <c r="D86" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E86" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="18"/>
-      <c r="L86" s="18"/>
-      <c r="M86" s="18"/>
-      <c r="N86" s="18"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
-      <c r="R86" s="4"/>
-      <c r="S86" s="4"/>
+      <c r="F86" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" s="14">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="I86" s="14">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="J86" s="12">
+        <v>46063</v>
+      </c>
+      <c r="K86" s="12">
+        <v>46070</v>
+      </c>
+      <c r="L86" s="12">
+        <v>46077</v>
+      </c>
+      <c r="M86" s="12">
+        <v>46091</v>
+      </c>
+      <c r="N86" s="12">
+        <v>46098</v>
+      </c>
+      <c r="O86" s="8">
+        <v>46126</v>
+      </c>
+      <c r="P86" s="8">
+        <v>46140</v>
+      </c>
+      <c r="Q86" s="8">
+        <v>46147</v>
+      </c>
+      <c r="R86" s="8">
+        <v>46154</v>
+      </c>
+      <c r="S86" s="8">
+        <v>46161</v>
+      </c>
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
       <c r="X86" s="4"/>
       <c r="Y86" s="4"/>
-      <c r="Z86" s="8"/>
-      <c r="AA86" s="5"/>
-    </row>
-    <row r="87" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C87" s="16" t="s">
+      <c r="Z86" s="12" cm="1">
+        <f t="array" ref="Z86">LOOKUP(2,1/(A86:Y86&lt;&gt;""),A86:Y86)</f>
+        <v>46161</v>
+      </c>
+      <c r="AA86" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>מאי</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A87" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D87" s="13" t="s">
+      <c r="D87" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H87" s="14">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="I87" s="14">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="J87" s="12">
+        <v>46030</v>
+      </c>
+      <c r="K87" s="8">
+        <v>46044</v>
+      </c>
+      <c r="L87" s="8">
+        <v>46058</v>
+      </c>
+      <c r="M87" s="8">
+        <v>46065</v>
+      </c>
+      <c r="N87" s="8">
+        <v>46072</v>
+      </c>
+      <c r="O87" s="8">
+        <v>46079</v>
+      </c>
+      <c r="P87" s="8">
+        <v>46086</v>
+      </c>
+      <c r="Q87" s="8">
+        <v>46093</v>
+      </c>
+      <c r="R87" s="8">
+        <v>46100</v>
+      </c>
+      <c r="S87" s="8">
+        <v>46121</v>
+      </c>
+      <c r="T87" s="8">
+        <v>46128</v>
+      </c>
+      <c r="U87" s="8">
+        <v>46135</v>
+      </c>
+      <c r="V87" s="8"/>
+      <c r="W87" s="8"/>
+      <c r="X87" s="8"/>
+      <c r="Y87" s="8"/>
+      <c r="Z87" s="12" cm="1">
+        <f t="array" ref="Z87">LOOKUP(2,1/(A87:Y87&lt;&gt;""),A87:Y87)</f>
+        <v>46135</v>
+      </c>
+      <c r="AA87" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>אפריל</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A88" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H88" s="14">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I88" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="J88" s="12">
+        <v>46030</v>
+      </c>
+      <c r="K88" s="8">
+        <v>46044</v>
+      </c>
+      <c r="L88" s="8">
+        <v>46058</v>
+      </c>
+      <c r="M88" s="8">
+        <v>46065</v>
+      </c>
+      <c r="N88" s="8">
+        <v>46072</v>
+      </c>
+      <c r="O88" s="8">
+        <v>46079</v>
+      </c>
+      <c r="P88" s="8">
+        <v>46086</v>
+      </c>
+      <c r="Q88" s="8">
+        <v>46093</v>
+      </c>
+      <c r="R88" s="8">
+        <v>46100</v>
+      </c>
+      <c r="S88" s="8">
+        <v>46121</v>
+      </c>
+      <c r="T88" s="8">
+        <v>46128</v>
+      </c>
+      <c r="U88" s="8">
+        <v>46135</v>
+      </c>
+      <c r="V88" s="8"/>
+      <c r="W88" s="8"/>
+      <c r="X88" s="8"/>
+      <c r="Y88" s="8"/>
+      <c r="Z88" s="12" cm="1">
+        <f t="array" ref="Z88">LOOKUP(2,1/(A88:Y88&lt;&gt;""),A88:Y88)</f>
+        <v>46135</v>
+      </c>
+      <c r="AA88" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>אפריל</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A89" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D89" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E87" s="13" t="s">
+      <c r="E89" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="18"/>
-      <c r="M87" s="18"/>
-      <c r="N87" s="18"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
-      <c r="S87" s="4"/>
-      <c r="T87" s="4"/>
-      <c r="U87" s="4"/>
-      <c r="V87" s="4"/>
-      <c r="W87" s="4"/>
-      <c r="X87" s="4"/>
-      <c r="Y87" s="4"/>
-      <c r="Z87" s="8"/>
-      <c r="AA87" s="5"/>
-    </row>
-    <row r="88" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A88" s="13"/>
-      <c r="B88" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C88" s="16" t="s">
+      <c r="F89" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" s="14">
+        <v>0.6875</v>
+      </c>
+      <c r="I89" s="14">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="J89" s="12">
+        <v>45965</v>
+      </c>
+      <c r="K89" s="12">
+        <v>45972</v>
+      </c>
+      <c r="L89" s="12">
+        <v>45979</v>
+      </c>
+      <c r="M89" s="12">
+        <v>45986</v>
+      </c>
+      <c r="N89" s="12">
+        <v>45993</v>
+      </c>
+      <c r="O89" s="8">
+        <v>46000</v>
+      </c>
+      <c r="P89" s="8">
+        <v>46014</v>
+      </c>
+      <c r="Q89" s="8">
+        <v>46021</v>
+      </c>
+      <c r="R89" s="8">
+        <v>46028</v>
+      </c>
+      <c r="S89" s="8">
+        <v>46035</v>
+      </c>
+      <c r="T89" s="8">
+        <v>46042</v>
+      </c>
+      <c r="U89" s="8">
+        <v>46049</v>
+      </c>
+      <c r="V89" s="8">
+        <v>46056</v>
+      </c>
+      <c r="W89" s="8">
+        <v>46063</v>
+      </c>
+      <c r="X89" s="8">
+        <v>46070</v>
+      </c>
+      <c r="Y89" s="8">
+        <v>46077</v>
+      </c>
+      <c r="Z89" s="12" cm="1">
+        <f t="array" ref="Z89">LOOKUP(2,1/(A89:Y89&lt;&gt;""),A89:Y89)</f>
+        <v>46077</v>
+      </c>
+      <c r="AA89" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>פברואר</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A90" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C90" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D88" s="13" t="s">
+      <c r="D90" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E88" s="13" t="s">
+      <c r="E90" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="18"/>
-      <c r="N88" s="18"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="4"/>
-      <c r="S88" s="4"/>
-      <c r="T88" s="4"/>
-      <c r="U88" s="4"/>
-      <c r="V88" s="4"/>
-      <c r="W88" s="4"/>
-      <c r="X88" s="4"/>
-      <c r="Y88" s="4"/>
-      <c r="Z88" s="8"/>
-      <c r="AA88" s="5"/>
-    </row>
-    <row r="89" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A89" s="13"/>
-      <c r="B89" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E89" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="18"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="18"/>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="4"/>
-      <c r="R89" s="4"/>
-      <c r="S89" s="4"/>
-      <c r="T89" s="4"/>
-      <c r="U89" s="4"/>
-      <c r="V89" s="4"/>
-      <c r="W89" s="4"/>
-      <c r="X89" s="4"/>
-      <c r="Y89" s="4"/>
-      <c r="Z89" s="8"/>
-      <c r="AA89" s="5"/>
-    </row>
-    <row r="90" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A90" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D90" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="G90" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H90" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I90" s="17">
-        <v>0.5625</v>
-      </c>
-      <c r="J90" s="15">
-        <v>46061</v>
-      </c>
-      <c r="K90" s="15">
-        <v>46068</v>
-      </c>
-      <c r="L90" s="15">
-        <v>46075</v>
-      </c>
-      <c r="M90" s="15">
-        <v>46082</v>
-      </c>
-      <c r="N90" s="15">
-        <v>46089</v>
-      </c>
-      <c r="O90" s="10">
-        <v>46096</v>
-      </c>
-      <c r="P90" s="10">
-        <v>46103</v>
-      </c>
-      <c r="Q90" s="10">
-        <v>46124</v>
-      </c>
-      <c r="R90" s="10">
-        <v>46131</v>
-      </c>
-      <c r="S90" s="10">
-        <v>46138</v>
-      </c>
-      <c r="T90" s="4"/>
-      <c r="U90" s="4"/>
-      <c r="V90" s="4"/>
-      <c r="W90" s="4"/>
-      <c r="X90" s="4"/>
-      <c r="Y90" s="4"/>
-      <c r="Z90" s="8"/>
-      <c r="AA90" s="5"/>
-    </row>
-    <row r="91" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A91" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D91" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E91" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F91" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G91" s="13" t="s">
+      <c r="F90" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G90" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H91" s="17">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="I91" s="17">
-        <v>0.61458333333333337</v>
-      </c>
-      <c r="J91" s="15">
+      <c r="H90" s="14">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="I90" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="J90" s="12">
+        <v>45965</v>
+      </c>
+      <c r="K90" s="12">
+        <v>45972</v>
+      </c>
+      <c r="L90" s="12">
+        <v>45979</v>
+      </c>
+      <c r="M90" s="12">
+        <v>45986</v>
+      </c>
+      <c r="N90" s="12">
+        <v>45993</v>
+      </c>
+      <c r="O90" s="8">
+        <v>46000</v>
+      </c>
+      <c r="P90" s="8">
+        <v>46007</v>
+      </c>
+      <c r="Q90" s="8">
+        <v>46021</v>
+      </c>
+      <c r="R90" s="8">
+        <v>46028</v>
+      </c>
+      <c r="S90" s="8">
+        <v>46035</v>
+      </c>
+      <c r="T90" s="8">
+        <v>46042</v>
+      </c>
+      <c r="U90" s="8">
+        <v>46049</v>
+      </c>
+      <c r="V90" s="8">
+        <v>46056</v>
+      </c>
+      <c r="W90" s="8">
         <v>46063</v>
       </c>
-      <c r="K91" s="15">
+      <c r="X90" s="8">
         <v>46070</v>
       </c>
-      <c r="L91" s="15">
+      <c r="Y90" s="8">
         <v>46077</v>
       </c>
-      <c r="M91" s="15">
-        <v>46091</v>
-      </c>
-      <c r="N91" s="15">
-        <v>46098</v>
-      </c>
-      <c r="O91" s="10">
-        <v>46126</v>
-      </c>
-      <c r="P91" s="10">
-        <v>46140</v>
-      </c>
-      <c r="Q91" s="10">
-        <v>46147</v>
-      </c>
-      <c r="R91" s="10">
-        <v>46154</v>
-      </c>
-      <c r="S91" s="10">
-        <v>46161</v>
-      </c>
-      <c r="T91" s="4"/>
-      <c r="U91" s="4"/>
-      <c r="V91" s="4"/>
-      <c r="W91" s="4"/>
-      <c r="X91" s="4"/>
-      <c r="Y91" s="4"/>
-      <c r="Z91" s="8"/>
-      <c r="AA91" s="5"/>
-    </row>
-    <row r="92" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A92" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="E92" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F92" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G92" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H92" s="17">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="I92" s="17">
-        <v>0.67708333333333337</v>
-      </c>
-      <c r="J92" s="15">
-        <v>45904</v>
-      </c>
-      <c r="K92" s="15">
-        <v>45911</v>
-      </c>
-      <c r="L92" s="15">
-        <v>45918</v>
-      </c>
-      <c r="M92" s="15">
-        <v>45925</v>
-      </c>
-      <c r="N92" s="15">
-        <v>45946</v>
-      </c>
-      <c r="O92" s="10">
-        <v>45953</v>
-      </c>
-      <c r="P92" s="10">
-        <v>45960</v>
-      </c>
-      <c r="Q92" s="10">
-        <v>45967</v>
-      </c>
-      <c r="R92" s="10">
-        <v>45974</v>
-      </c>
-      <c r="S92" s="10">
-        <v>45981</v>
-      </c>
-      <c r="T92" s="10">
-        <v>45988</v>
-      </c>
-      <c r="U92" s="10">
-        <v>45995</v>
-      </c>
-      <c r="V92" s="10">
-        <v>46002</v>
-      </c>
-      <c r="W92" s="10">
-        <v>46016</v>
-      </c>
-      <c r="X92" s="10">
-        <v>46023</v>
-      </c>
-      <c r="Y92" s="10">
-        <v>46030</v>
-      </c>
-      <c r="Z92" s="8"/>
-      <c r="AA92" s="5"/>
-    </row>
-    <row r="93" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A93" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D93" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="E93" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F93" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G93" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H93" s="17">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="I93" s="17">
-        <v>0.625</v>
-      </c>
-      <c r="J93" s="15">
-        <v>45904</v>
-      </c>
-      <c r="K93" s="15">
-        <v>45911</v>
-      </c>
-      <c r="L93" s="15">
-        <v>45918</v>
-      </c>
-      <c r="M93" s="15">
-        <v>45925</v>
-      </c>
-      <c r="N93" s="15">
-        <v>45946</v>
-      </c>
-      <c r="O93" s="10">
-        <v>45953</v>
-      </c>
-      <c r="P93" s="10">
-        <v>45960</v>
-      </c>
-      <c r="Q93" s="10">
-        <v>45967</v>
-      </c>
-      <c r="R93" s="10">
-        <v>45974</v>
-      </c>
-      <c r="S93" s="10">
-        <v>45981</v>
-      </c>
-      <c r="T93" s="10">
-        <v>45988</v>
-      </c>
-      <c r="U93" s="10">
-        <v>45995</v>
-      </c>
-      <c r="V93" s="10">
-        <v>46002</v>
-      </c>
-      <c r="W93" s="10">
-        <v>46016</v>
-      </c>
-      <c r="X93" s="10">
-        <v>46023</v>
-      </c>
-      <c r="Y93" s="10">
-        <v>46030</v>
-      </c>
-      <c r="Z93" s="8"/>
-      <c r="AA93" s="5"/>
-    </row>
-    <row r="94" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A94" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D94" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E94" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F94" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G94" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H94" s="17">
-        <v>0.6875</v>
-      </c>
-      <c r="I94" s="17">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="J94" s="15">
-        <v>45965</v>
-      </c>
-      <c r="K94" s="15">
-        <v>45972</v>
-      </c>
-      <c r="L94" s="15">
-        <v>45979</v>
-      </c>
-      <c r="M94" s="15">
-        <v>45986</v>
-      </c>
-      <c r="N94" s="15">
-        <v>45993</v>
-      </c>
-      <c r="O94" s="10">
-        <v>46000</v>
-      </c>
-      <c r="P94" s="10">
-        <v>46014</v>
-      </c>
-      <c r="Q94" s="10">
-        <v>46021</v>
-      </c>
-      <c r="R94" s="10">
-        <v>46028</v>
-      </c>
-      <c r="S94" s="10">
-        <v>46035</v>
-      </c>
-      <c r="T94" s="10">
-        <v>46042</v>
-      </c>
-      <c r="U94" s="10">
-        <v>46049</v>
-      </c>
-      <c r="V94" s="10">
-        <v>46056</v>
-      </c>
-      <c r="W94" s="10">
-        <v>46063</v>
-      </c>
-      <c r="X94" s="10">
-        <v>46070</v>
-      </c>
-      <c r="Y94" s="10">
+      <c r="Z90" s="12" cm="1">
+        <f t="array" ref="Z90">LOOKUP(2,1/(A90:Y90&lt;&gt;""),A90:Y90)</f>
         <v>46077</v>
       </c>
-      <c r="Z94" s="8"/>
-      <c r="AA94" s="5"/>
-    </row>
-    <row r="95" spans="1:27" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A95" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D95" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E95" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F95" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G95" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H95" s="17">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="I95" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="J95" s="15">
-        <v>45965</v>
-      </c>
-      <c r="K95" s="15">
-        <v>45972</v>
-      </c>
-      <c r="L95" s="15">
-        <v>45979</v>
-      </c>
-      <c r="M95" s="15">
-        <v>45986</v>
-      </c>
-      <c r="N95" s="15">
-        <v>45993</v>
-      </c>
-      <c r="O95" s="10">
-        <v>46000</v>
-      </c>
-      <c r="P95" s="10">
-        <v>46007</v>
-      </c>
-      <c r="Q95" s="10">
-        <v>46021</v>
-      </c>
-      <c r="R95" s="10">
-        <v>46028</v>
-      </c>
-      <c r="S95" s="10">
-        <v>46035</v>
-      </c>
-      <c r="T95" s="10">
-        <v>46042</v>
-      </c>
-      <c r="U95" s="10">
-        <v>46049</v>
-      </c>
-      <c r="V95" s="10">
-        <v>46056</v>
-      </c>
-      <c r="W95" s="10">
-        <v>46063</v>
-      </c>
-      <c r="X95" s="10">
-        <v>46070</v>
-      </c>
-      <c r="Y95" s="10">
-        <v>46077</v>
-      </c>
-      <c r="Z95" s="8"/>
-      <c r="AA95" s="5"/>
+      <c r="AA90" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>פברואר</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" ht="13.85">
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+    </row>
+    <row r="92" spans="1:27" ht="13.85">
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+    </row>
+    <row r="93" spans="1:27" ht="13.85">
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+    </row>
+    <row r="94" spans="1:27" ht="13.85">
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+    </row>
+    <row r="95" spans="1:27" ht="13.85">
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
     </row>
     <row r="96" spans="1:27" ht="13.85">
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
-    </row>
-    <row r="97" spans="1:10" ht="13.85">
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-    </row>
-    <row r="98" spans="1:10" ht="13.85">
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
-    </row>
-    <row r="99" spans="1:10" ht="13.85">
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
-    </row>
-    <row r="100" spans="1:10" ht="13.85">
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
-    </row>
-    <row r="101" spans="1:10" ht="13.85">
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
-    </row>
-    <row r="102" spans="1:10" ht="13.85">
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
-    </row>
-    <row r="103" spans="1:10" ht="13.85">
-      <c r="H103" s="11"/>
-      <c r="I103" s="11"/>
-    </row>
-    <row r="104" spans="1:10" ht="13.85">
-      <c r="H104" s="11"/>
-      <c r="I104" s="11"/>
-    </row>
-    <row r="105" spans="1:10" ht="13.85">
-      <c r="H105" s="11"/>
-      <c r="I105" s="11"/>
-    </row>
-    <row r="106" spans="1:10" ht="13.85">
-      <c r="H106" s="11"/>
-      <c r="I106" s="11"/>
-    </row>
-    <row r="107" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A107" t="s">
-        <v>0</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1</v>
-      </c>
-      <c r="D107" t="s">
-        <v>2</v>
-      </c>
-      <c r="E107" t="s">
-        <v>3</v>
-      </c>
-      <c r="F107" t="s">
-        <v>4</v>
-      </c>
-      <c r="G107" t="s">
-        <v>5</v>
-      </c>
-      <c r="H107" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I107" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J107" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="19.95" customHeight="1">
-      <c r="B108" t="s">
-        <v>24</v>
-      </c>
-      <c r="H108" s="11"/>
-      <c r="I108" s="12">
-        <v>46084</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="19.95" customHeight="1">
-      <c r="B109" t="s">
-        <v>24</v>
-      </c>
-      <c r="H109" s="11"/>
-      <c r="I109" s="12">
-        <v>46085</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="19.95" customHeight="1">
-      <c r="B110" t="s">
-        <v>25</v>
-      </c>
-      <c r="H110" s="11"/>
-      <c r="I110" s="12">
-        <v>46105</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="19.95" customHeight="1">
-      <c r="B111" t="s">
-        <v>25</v>
-      </c>
-      <c r="H111" s="11"/>
-      <c r="I111" s="12">
-        <v>46106</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="19.95" customHeight="1">
-      <c r="B112" t="s">
-        <v>25</v>
-      </c>
-      <c r="H112" s="11"/>
-      <c r="I112" s="12">
-        <v>46107</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B113" t="s">
-        <v>25</v>
-      </c>
-      <c r="H113" s="11"/>
-      <c r="I113" s="12">
-        <v>46108</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B114" t="s">
-        <v>25</v>
-      </c>
-      <c r="H114" s="11"/>
-      <c r="I114" s="12">
-        <v>46109</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B115" t="s">
-        <v>25</v>
-      </c>
-      <c r="H115" s="11"/>
-      <c r="I115" s="12">
-        <v>46110</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B116" t="s">
-        <v>25</v>
-      </c>
-      <c r="H116" s="11"/>
-      <c r="I116" s="12">
-        <v>46111</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B117" t="s">
-        <v>25</v>
-      </c>
-      <c r="H117" s="11"/>
-      <c r="I117" s="12">
-        <v>46112</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B118" t="s">
-        <v>25</v>
-      </c>
-      <c r="H118" s="11"/>
-      <c r="I118" s="12">
-        <v>46113</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B119" t="s">
-        <v>25</v>
-      </c>
-      <c r="H119" s="11"/>
-      <c r="I119" s="12">
-        <v>46114</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B120" t="s">
-        <v>25</v>
-      </c>
-      <c r="H120" s="11"/>
-      <c r="I120" s="12">
-        <v>46115</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B121" t="s">
-        <v>25</v>
-      </c>
-      <c r="H121" s="11"/>
-      <c r="I121" s="12">
-        <v>46116</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B122" t="s">
-        <v>25</v>
-      </c>
-      <c r="H122" s="11"/>
-      <c r="I122" s="12">
-        <v>46117</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B123" t="s">
-        <v>25</v>
-      </c>
-      <c r="H123" s="11"/>
-      <c r="I123" s="12">
-        <v>46118</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B124" t="s">
-        <v>25</v>
-      </c>
-      <c r="H124" s="11"/>
-      <c r="I124" s="12">
-        <v>46119</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B125" t="s">
-        <v>25</v>
-      </c>
-      <c r="H125" s="11"/>
-      <c r="I125" s="12">
-        <v>46120</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B126" t="s">
-        <v>26</v>
-      </c>
-      <c r="H126" s="11"/>
-      <c r="I126" s="12">
-        <v>46132</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B127" t="s">
-        <v>27</v>
-      </c>
-      <c r="H127" s="11"/>
-      <c r="I127" s="12">
-        <v>46133</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B128" t="s">
-        <v>28</v>
-      </c>
-      <c r="H128" s="11"/>
-      <c r="I128" s="12">
-        <v>46134</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B129" t="s">
-        <v>29</v>
-      </c>
-      <c r="H129" s="11"/>
-      <c r="I129" s="12">
-        <v>46150</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B130" t="s">
-        <v>30</v>
-      </c>
-      <c r="H130" s="11"/>
-      <c r="I130" s="12">
-        <v>46163</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B131" t="s">
-        <v>30</v>
-      </c>
-      <c r="H131" s="11"/>
-      <c r="I131" s="12">
-        <v>46164</v>
-      </c>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+    </row>
+    <row r="97" spans="1:16" ht="13.85">
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+    </row>
+    <row r="98" spans="1:16" ht="13.85">
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+    </row>
+    <row r="99" spans="1:16" ht="13.85">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99"/>
+    </row>
+    <row r="100" spans="1:16" ht="13.85">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
+    </row>
+    <row r="101" spans="1:16" ht="13.85">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
+    </row>
+    <row r="102" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102"/>
+      <c r="P102"/>
+    </row>
+    <row r="103" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103"/>
+      <c r="P103"/>
+    </row>
+    <row r="104" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+      <c r="P104"/>
+    </row>
+    <row r="105" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+      <c r="P105"/>
+    </row>
+    <row r="106" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106"/>
+      <c r="P106"/>
+    </row>
+    <row r="107" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+      <c r="P107"/>
+    </row>
+    <row r="108" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+      <c r="P108"/>
+    </row>
+    <row r="109" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+      <c r="P109"/>
+    </row>
+    <row r="110" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+      <c r="P110"/>
+    </row>
+    <row r="111" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+      <c r="P111"/>
+    </row>
+    <row r="112" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+    </row>
+    <row r="113" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A113"/>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113"/>
+    </row>
+    <row r="114" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A114"/>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
+    </row>
+    <row r="115" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A115"/>
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115"/>
+    </row>
+    <row r="116" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A116"/>
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+      <c r="P116"/>
+    </row>
+    <row r="117" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A117"/>
+      <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117"/>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+      <c r="P117"/>
+    </row>
+    <row r="118" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A118"/>
+      <c r="B118"/>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
+      <c r="P118"/>
+    </row>
+    <row r="119" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A119"/>
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
+      <c r="P119"/>
+    </row>
+    <row r="120" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A120"/>
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120"/>
+      <c r="P120"/>
+    </row>
+    <row r="121" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A121"/>
+      <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121"/>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="O121"/>
+      <c r="P121"/>
+    </row>
+    <row r="122" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A122"/>
+      <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122"/>
+      <c r="K122"/>
+      <c r="L122"/>
+      <c r="M122"/>
+      <c r="N122"/>
+      <c r="O122"/>
+      <c r="P122"/>
+    </row>
+    <row r="123" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A123"/>
+      <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123"/>
+      <c r="H123"/>
+      <c r="I123"/>
+      <c r="J123"/>
+      <c r="K123"/>
+      <c r="L123"/>
+      <c r="M123"/>
+      <c r="N123"/>
+      <c r="O123"/>
+      <c r="P123"/>
+    </row>
+    <row r="124" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A124"/>
+      <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124"/>
+      <c r="H124"/>
+      <c r="I124"/>
+      <c r="J124"/>
+      <c r="K124"/>
+      <c r="L124"/>
+      <c r="M124"/>
+      <c r="N124"/>
+      <c r="O124"/>
+      <c r="P124"/>
+    </row>
+    <row r="125" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A125"/>
+      <c r="B125"/>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125"/>
+      <c r="G125"/>
+      <c r="H125"/>
+      <c r="I125"/>
+      <c r="J125"/>
+      <c r="K125"/>
+      <c r="L125"/>
+      <c r="M125"/>
+      <c r="N125"/>
+      <c r="O125"/>
+      <c r="P125"/>
+    </row>
+    <row r="126" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A126"/>
+      <c r="B126"/>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126"/>
+      <c r="K126"/>
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+      <c r="O126"/>
+      <c r="P126"/>
+    </row>
+    <row r="127" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A127"/>
+      <c r="B127"/>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127"/>
+      <c r="H127"/>
+      <c r="I127"/>
+      <c r="J127"/>
+      <c r="K127"/>
+      <c r="L127"/>
+      <c r="M127"/>
+      <c r="N127"/>
+      <c r="O127"/>
+      <c r="P127"/>
+    </row>
+    <row r="128" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A128"/>
+      <c r="B128"/>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
+      <c r="H128"/>
+      <c r="I128"/>
+      <c r="J128"/>
+      <c r="K128"/>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128"/>
+      <c r="O128"/>
+      <c r="P128"/>
+    </row>
+    <row r="129" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A129"/>
+      <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
+      <c r="H129"/>
+      <c r="I129"/>
+      <c r="J129"/>
+      <c r="K129"/>
+      <c r="L129"/>
+      <c r="M129"/>
+      <c r="N129"/>
+      <c r="O129"/>
+      <c r="P129"/>
+    </row>
+    <row r="130" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A130"/>
+      <c r="B130"/>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130"/>
+      <c r="H130"/>
+      <c r="I130"/>
+      <c r="J130"/>
+      <c r="K130"/>
+      <c r="L130"/>
+      <c r="M130"/>
+      <c r="N130"/>
+      <c r="O130"/>
+      <c r="P130"/>
+    </row>
+    <row r="131" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A131"/>
+      <c r="B131"/>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+      <c r="G131"/>
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131"/>
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+      <c r="O131"/>
+      <c r="P131"/>
+    </row>
+    <row r="132" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A132"/>
+      <c r="B132"/>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132"/>
+      <c r="H132"/>
+      <c r="I132"/>
+      <c r="J132"/>
+      <c r="K132"/>
+      <c r="L132"/>
+      <c r="M132"/>
+      <c r="N132"/>
+      <c r="O132"/>
+      <c r="P132"/>
+    </row>
+    <row r="133" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A133"/>
+      <c r="B133"/>
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133"/>
+      <c r="G133"/>
+      <c r="H133"/>
+      <c r="I133"/>
+      <c r="J133"/>
+      <c r="K133"/>
+      <c r="L133"/>
+      <c r="M133"/>
+      <c r="N133"/>
+      <c r="O133"/>
+      <c r="P133"/>
+    </row>
+    <row r="134" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A134"/>
+      <c r="B134"/>
+      <c r="C134"/>
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="F134"/>
+      <c r="G134"/>
+      <c r="H134"/>
+      <c r="I134"/>
+      <c r="J134"/>
+      <c r="K134"/>
+      <c r="L134"/>
+      <c r="M134"/>
+      <c r="N134"/>
+      <c r="O134"/>
+      <c r="P134"/>
+    </row>
+    <row r="135" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A135"/>
+      <c r="B135"/>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
+      <c r="P135"/>
+    </row>
+    <row r="136" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A136"/>
+      <c r="B136"/>
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="F136"/>
+      <c r="G136"/>
+      <c r="H136"/>
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
+      <c r="O136"/>
+      <c r="P136"/>
+    </row>
+    <row r="137" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A137"/>
+      <c r="B137"/>
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="F137"/>
+      <c r="G137"/>
+      <c r="H137"/>
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+      <c r="O137"/>
+      <c r="P137"/>
+    </row>
+    <row r="138" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A138"/>
+      <c r="B138"/>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138"/>
+      <c r="G138"/>
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138"/>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138"/>
+      <c r="P138"/>
+    </row>
+    <row r="139" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A139"/>
+      <c r="B139"/>
+      <c r="C139"/>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139"/>
+      <c r="G139"/>
+      <c r="H139"/>
+      <c r="I139"/>
+      <c r="J139"/>
+      <c r="K139"/>
+      <c r="L139"/>
+      <c r="M139"/>
+      <c r="N139"/>
+      <c r="O139"/>
+      <c r="P139"/>
+    </row>
+    <row r="140" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A140"/>
+      <c r="B140"/>
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140"/>
+      <c r="F140"/>
+      <c r="G140"/>
+      <c r="H140"/>
+      <c r="I140"/>
+      <c r="J140"/>
+      <c r="K140"/>
+      <c r="L140"/>
+      <c r="M140"/>
+      <c r="N140"/>
+      <c r="O140"/>
+      <c r="P140"/>
+    </row>
+    <row r="141" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A141"/>
+      <c r="B141"/>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141"/>
+      <c r="G141"/>
+      <c r="H141"/>
+      <c r="I141"/>
+      <c r="J141"/>
+      <c r="K141"/>
+      <c r="L141"/>
+      <c r="M141"/>
+      <c r="N141"/>
+      <c r="O141"/>
+      <c r="P141"/>
+    </row>
+    <row r="142" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A142"/>
+      <c r="B142"/>
+      <c r="C142"/>
+      <c r="D142"/>
+      <c r="E142"/>
+      <c r="F142"/>
+      <c r="G142"/>
+      <c r="H142"/>
+      <c r="I142"/>
+      <c r="J142"/>
+      <c r="K142"/>
+      <c r="L142"/>
+      <c r="M142"/>
+      <c r="N142"/>
+      <c r="O142"/>
+      <c r="P142"/>
+    </row>
+    <row r="143" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A143"/>
+      <c r="B143"/>
+      <c r="C143"/>
+      <c r="D143"/>
+      <c r="E143"/>
+      <c r="F143"/>
+      <c r="G143"/>
+      <c r="H143"/>
+      <c r="I143"/>
+      <c r="J143"/>
+      <c r="K143"/>
+      <c r="L143"/>
+      <c r="M143"/>
+      <c r="N143"/>
+      <c r="O143"/>
+      <c r="P143"/>
+    </row>
+    <row r="144" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A144"/>
+      <c r="B144"/>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144"/>
+      <c r="F144"/>
+      <c r="G144"/>
+      <c r="H144"/>
+      <c r="I144"/>
+      <c r="J144"/>
+      <c r="K144"/>
+      <c r="L144"/>
+      <c r="M144"/>
+      <c r="N144"/>
+      <c r="O144"/>
+      <c r="P144"/>
+    </row>
+    <row r="145" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A145"/>
+      <c r="B145"/>
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="E145"/>
+      <c r="F145"/>
+      <c r="G145"/>
+      <c r="H145"/>
+      <c r="I145"/>
+      <c r="J145"/>
+      <c r="K145"/>
+      <c r="L145"/>
+      <c r="M145"/>
+      <c r="N145"/>
+      <c r="O145"/>
+      <c r="P145"/>
+    </row>
+    <row r="146" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A146"/>
+      <c r="B146"/>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146"/>
+      <c r="F146"/>
+      <c r="G146"/>
+      <c r="H146"/>
+      <c r="I146"/>
+      <c r="J146"/>
+      <c r="K146"/>
+      <c r="L146"/>
+      <c r="M146"/>
+      <c r="N146"/>
+      <c r="O146"/>
+      <c r="P146"/>
+    </row>
+    <row r="147" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A147"/>
+      <c r="B147"/>
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147"/>
+      <c r="F147"/>
+      <c r="G147"/>
+      <c r="H147"/>
+      <c r="I147"/>
+      <c r="J147"/>
+      <c r="K147"/>
+      <c r="L147"/>
+      <c r="M147"/>
+      <c r="N147"/>
+      <c r="O147"/>
+      <c r="P147"/>
+    </row>
+    <row r="148" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A148"/>
+      <c r="B148"/>
+      <c r="C148"/>
+      <c r="D148"/>
+      <c r="E148"/>
+      <c r="F148"/>
+      <c r="G148"/>
+      <c r="H148"/>
+      <c r="I148"/>
+      <c r="J148"/>
+      <c r="K148"/>
+      <c r="L148"/>
+      <c r="M148"/>
+      <c r="N148"/>
+      <c r="O148"/>
+      <c r="P148"/>
+    </row>
+    <row r="149" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A149"/>
+      <c r="B149"/>
+      <c r="C149"/>
+      <c r="D149"/>
+      <c r="E149"/>
+      <c r="F149"/>
+      <c r="G149"/>
+      <c r="H149"/>
+      <c r="I149"/>
+      <c r="J149"/>
+      <c r="K149"/>
+      <c r="L149"/>
+      <c r="M149"/>
+      <c r="N149"/>
+      <c r="O149"/>
+      <c r="P149"/>
+    </row>
+    <row r="150" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A150"/>
+      <c r="B150"/>
+      <c r="C150"/>
+      <c r="D150"/>
+      <c r="E150"/>
+      <c r="F150"/>
+      <c r="G150"/>
+      <c r="H150"/>
+      <c r="I150"/>
+      <c r="J150"/>
+      <c r="K150"/>
+      <c r="L150"/>
+      <c r="M150"/>
+      <c r="N150"/>
+      <c r="O150"/>
+      <c r="P150"/>
+    </row>
+    <row r="151" spans="1:16" ht="19.95" customHeight="1">
+      <c r="A151"/>
+      <c r="B151"/>
+      <c r="C151"/>
+      <c r="D151"/>
+      <c r="E151"/>
+      <c r="F151"/>
+      <c r="G151"/>
+      <c r="H151"/>
+      <c r="I151"/>
+      <c r="J151"/>
+      <c r="K151"/>
+      <c r="L151"/>
+      <c r="M151"/>
+      <c r="N151"/>
+      <c r="O151"/>
+      <c r="P151"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DASHBOARD.xlsx
+++ b/DASHBOARD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idan\Downloads\דשבורד סטטוס\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB7626E-D8ED-4566-A307-2C7295B00094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B861FE72-5F87-467E-8C3F-E720649EBC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="147">
   <si>
     <t>Employee</t>
   </si>
@@ -485,23 +485,47 @@
   </si>
   <si>
     <t>MonthEnd</t>
+  </si>
+  <si>
+    <t>המגינים</t>
+  </si>
+  <si>
+    <t>תל-חי</t>
+  </si>
+  <si>
+    <t>רמב"ם</t>
+  </si>
+  <si>
+    <t>אוסם</t>
+  </si>
+  <si>
+    <t>פרימיום</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="[$-1000000]h:mm;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="169" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -593,50 +617,65 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="15">
     <cellStyle name="Comma 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Comma 2 2" xfId="14" xr:uid="{A697A9F4-2CB9-43FF-B677-30B8BEC4C915}"/>
     <cellStyle name="Comma 2 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma 2 4 2" xfId="11" xr:uid="{64A73DA3-9DF7-4565-A135-E8353E2DE5DF}"/>
     <cellStyle name="Comma 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Comma 3 2" xfId="12" xr:uid="{766E5B9F-6C7D-4208-B7B2-378EA145CC33}"/>
     <cellStyle name="Comma 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 5" xfId="8" xr:uid="{299B8A52-EE0C-4B62-81B9-7AF43A821838}"/>
     <cellStyle name="Hyperlink" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="13" xr:uid="{D5AAC47D-58DB-4575-890F-32EF730B57A3}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2 3 2 2" xfId="10" xr:uid="{1852CCB3-53E8-4FE1-A3AD-60A2F4C5858B}"/>
     <cellStyle name="Normal 2 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 4 2" xfId="9" xr:uid="{AEA81B4F-4F2A-447B-9173-661AA1EA8432}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -974,11 +1013,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA151"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA26" sqref="AA26:AA100"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A84" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:C99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="25.1" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
@@ -992,985 +1031,985 @@
     <col min="29" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A2" s="14"/>
+      <c r="B2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="12">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="10">
         <v>46084</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="10"/>
-    </row>
-    <row r="3" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="10" t="s">
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="8"/>
+    </row>
+    <row r="3" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A3" s="14"/>
+      <c r="B3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="12">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="10">
         <v>46085</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="10"/>
-    </row>
-    <row r="4" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="10" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="8"/>
+    </row>
+    <row r="4" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A4" s="14"/>
+      <c r="B4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="12">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="10">
         <v>46105</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="10"/>
-    </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="10" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="8"/>
+    </row>
+    <row r="5" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="12">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="10">
         <v>46106</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="10"/>
-    </row>
-    <row r="6" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="10" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="8"/>
+    </row>
+    <row r="6" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="12">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="10">
         <v>46107</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="10"/>
-    </row>
-    <row r="7" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="10" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="8"/>
+    </row>
+    <row r="7" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A7" s="14"/>
+      <c r="B7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="12">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="10">
         <v>46108</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="10"/>
-    </row>
-    <row r="8" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="10" t="s">
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="8"/>
+    </row>
+    <row r="8" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="12">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="10">
         <v>46109</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="10"/>
-    </row>
-    <row r="9" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="10" t="s">
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="8"/>
+    </row>
+    <row r="9" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="12">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="10">
         <v>46110</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="10"/>
-    </row>
-    <row r="10" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="10" t="s">
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="8"/>
+    </row>
+    <row r="10" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A10" s="14"/>
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="12">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="10">
         <v>46111</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="10"/>
-    </row>
-    <row r="11" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="10" t="s">
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="8"/>
+    </row>
+    <row r="11" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A11" s="14"/>
+      <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="12">
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="10">
         <v>46112</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="10"/>
-    </row>
-    <row r="12" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="10" t="s">
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="8"/>
+    </row>
+    <row r="12" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A12" s="14"/>
+      <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="12">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10">
         <v>46113</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="10"/>
-    </row>
-    <row r="13" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="10" t="s">
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="8"/>
+    </row>
+    <row r="13" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A13" s="14"/>
+      <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="12">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="10">
         <v>46114</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="10"/>
-    </row>
-    <row r="14" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="10" t="s">
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="8"/>
+    </row>
+    <row r="14" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A14" s="14"/>
+      <c r="B14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="12">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="10">
         <v>46115</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="10"/>
-    </row>
-    <row r="15" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="10" t="s">
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="8"/>
+    </row>
+    <row r="15" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A15" s="14"/>
+      <c r="B15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="12">
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="10">
         <v>46116</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="10"/>
-    </row>
-    <row r="16" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="10" t="s">
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="8"/>
+    </row>
+    <row r="16" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A16" s="14"/>
+      <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="12">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="10">
         <v>46117</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="10"/>
-    </row>
-    <row r="17" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="10" t="s">
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="8"/>
+    </row>
+    <row r="17" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A17" s="14"/>
+      <c r="B17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="12">
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="10">
         <v>46118</v>
       </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="10"/>
-    </row>
-    <row r="18" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="10" t="s">
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="8"/>
+    </row>
+    <row r="18" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A18" s="14"/>
+      <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="12">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="10">
         <v>46119</v>
       </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="10"/>
-    </row>
-    <row r="19" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="10" t="s">
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="8"/>
+    </row>
+    <row r="19" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A19" s="14"/>
+      <c r="B19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="12">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="10">
         <v>46120</v>
       </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="10"/>
-    </row>
-    <row r="20" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="10" t="s">
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="8"/>
+    </row>
+    <row r="20" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A20" s="14"/>
+      <c r="B20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="12">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="10">
         <v>46132</v>
       </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="10"/>
-    </row>
-    <row r="21" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="10" t="s">
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="8"/>
+    </row>
+    <row r="21" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A21" s="14"/>
+      <c r="B21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="12">
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="10">
         <v>46133</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="10"/>
-    </row>
-    <row r="22" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="10" t="s">
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="8"/>
+    </row>
+    <row r="22" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A22" s="14"/>
+      <c r="B22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="12">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="10">
         <v>46134</v>
       </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="10"/>
-    </row>
-    <row r="23" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="10" t="s">
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="8"/>
+    </row>
+    <row r="23" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A23" s="14"/>
+      <c r="B23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="12">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="10">
         <v>46150</v>
       </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="10"/>
-    </row>
-    <row r="24" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="10" t="s">
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="8"/>
+    </row>
+    <row r="24" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A24" s="14"/>
+      <c r="B24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="12">
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="10">
         <v>46163</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="10"/>
-    </row>
-    <row r="25" spans="1:27" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="B25" s="10" t="s">
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="8"/>
+    </row>
+    <row r="25" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A25" s="14"/>
+      <c r="B25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="12">
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="10">
         <v>46164</v>
       </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="10"/>
-    </row>
-    <row r="26" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A26" s="10" t="s">
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="8"/>
+    </row>
+    <row r="26" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="11">
         <v>0.36458333333333331</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="11">
         <v>0.59375</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="10">
         <v>46044</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K26" s="10">
         <v>46051</v>
       </c>
-      <c r="L26" s="12">
+      <c r="L26" s="10">
         <v>46058</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M26" s="10">
         <v>46065</v>
       </c>
-      <c r="N26" s="12">
+      <c r="N26" s="10">
         <v>46072</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O26" s="7">
         <v>46079</v>
       </c>
-      <c r="P26" s="8">
+      <c r="P26" s="7">
         <v>46086</v>
       </c>
-      <c r="Q26" s="8">
+      <c r="Q26" s="7">
         <v>46093</v>
       </c>
-      <c r="R26" s="8">
+      <c r="R26" s="7">
         <v>46100</v>
       </c>
-      <c r="S26" s="8">
+      <c r="S26" s="7">
         <v>46121</v>
       </c>
       <c r="T26" s="4"/>
@@ -1979,71 +2018,71 @@
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
-      <c r="Z26" s="12" cm="1">
+      <c r="Z26" s="10" cm="1">
         <f t="array" ref="Z26">LOOKUP(2,1/(A26:Y26&lt;&gt;""),A26:Y26)</f>
         <v>46121</v>
       </c>
-      <c r="AA26" s="10" t="str">
-        <f t="shared" ref="AA3:AA66" si="0">TEXT(Z26,"[$-he-IL]mmmm")</f>
+      <c r="AA26" s="8" t="str">
+        <f t="shared" ref="AA26:AA66" si="0">TEXT(Z26,"[$-he-IL]mmmm")</f>
         <v>אפריל</v>
       </c>
     </row>
-    <row r="27" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A27" s="10" t="s">
+    <row r="27" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A27" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="11">
         <v>0.36458333333333331</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="11">
         <v>0.59375</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="10">
         <v>46044</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="10">
         <v>46051</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="10">
         <v>46058</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M27" s="10">
         <v>46065</v>
       </c>
-      <c r="N27" s="12">
+      <c r="N27" s="10">
         <v>46072</v>
       </c>
-      <c r="O27" s="8">
+      <c r="O27" s="7">
         <v>46079</v>
       </c>
-      <c r="P27" s="8">
+      <c r="P27" s="7">
         <v>46086</v>
       </c>
-      <c r="Q27" s="8">
+      <c r="Q27" s="7">
         <v>46093</v>
       </c>
-      <c r="R27" s="8">
+      <c r="R27" s="7">
         <v>46100</v>
       </c>
-      <c r="S27" s="8">
+      <c r="S27" s="7">
         <v>46121</v>
       </c>
       <c r="T27" s="4"/>
@@ -2052,71 +2091,71 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
-      <c r="Z27" s="12" cm="1">
+      <c r="Z27" s="10" cm="1">
         <f t="array" ref="Z27">LOOKUP(2,1/(A27:Y27&lt;&gt;""),A27:Y27)</f>
         <v>46121</v>
       </c>
-      <c r="AA27" s="10" t="str">
+      <c r="AA27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>אפריל</v>
       </c>
     </row>
-    <row r="28" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A28" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="11">
         <v>0.36458333333333331</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="11">
         <v>0.59375</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="10">
         <v>46044</v>
       </c>
-      <c r="K28" s="12">
+      <c r="K28" s="10">
         <v>46051</v>
       </c>
-      <c r="L28" s="12">
+      <c r="L28" s="10">
         <v>46058</v>
       </c>
-      <c r="M28" s="12">
+      <c r="M28" s="10">
         <v>46065</v>
       </c>
-      <c r="N28" s="12">
+      <c r="N28" s="10">
         <v>46072</v>
       </c>
-      <c r="O28" s="8">
+      <c r="O28" s="7">
         <v>46079</v>
       </c>
-      <c r="P28" s="8">
+      <c r="P28" s="7">
         <v>46086</v>
       </c>
-      <c r="Q28" s="8">
+      <c r="Q28" s="7">
         <v>46093</v>
       </c>
-      <c r="R28" s="8">
+      <c r="R28" s="7">
         <v>46100</v>
       </c>
-      <c r="S28" s="8">
+      <c r="S28" s="7">
         <v>46121</v>
       </c>
       <c r="T28" s="4"/>
@@ -2125,71 +2164,71 @@
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
-      <c r="Z28" s="12" cm="1">
+      <c r="Z28" s="10" cm="1">
         <f t="array" ref="Z28">LOOKUP(2,1/(A28:Y28&lt;&gt;""),A28:Y28)</f>
         <v>46121</v>
       </c>
-      <c r="AA28" s="10" t="str">
+      <c r="AA28" s="8" t="str">
         <f t="shared" si="0"/>
         <v>אפריל</v>
       </c>
     </row>
-    <row r="29" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A29" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="11">
         <v>0.57291666666666663</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="11">
         <v>0.60416666666666663</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="10">
         <v>46050</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29" s="10">
         <v>46057</v>
       </c>
-      <c r="L29" s="12">
+      <c r="L29" s="10">
         <v>46064</v>
       </c>
-      <c r="M29" s="12">
+      <c r="M29" s="10">
         <v>46071</v>
       </c>
-      <c r="N29" s="12">
+      <c r="N29" s="10">
         <v>46078</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O29" s="7">
         <v>46092</v>
       </c>
-      <c r="P29" s="8">
+      <c r="P29" s="7">
         <v>46099</v>
       </c>
-      <c r="Q29" s="8">
+      <c r="Q29" s="7">
         <v>46127</v>
       </c>
-      <c r="R29" s="8">
+      <c r="R29" s="7">
         <v>46141</v>
       </c>
-      <c r="S29" s="8">
+      <c r="S29" s="7">
         <v>46148</v>
       </c>
       <c r="T29" s="4"/>
@@ -2198,74 +2237,74 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
-      <c r="Z29" s="12" cm="1">
+      <c r="Z29" s="10" cm="1">
         <f t="array" ref="Z29">LOOKUP(2,1/(A29:Y29&lt;&gt;""),A29:Y29)</f>
         <v>46148</v>
       </c>
-      <c r="AA29" s="10" t="str">
+      <c r="AA29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>מאי</v>
       </c>
     </row>
-    <row r="30" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A30" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="11">
         <v>0.4548611111111111</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="11">
         <v>0.55902777777777779</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="10">
         <v>46042</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="10">
         <v>46049</v>
       </c>
-      <c r="L30" s="12">
+      <c r="L30" s="10">
         <v>46056</v>
       </c>
-      <c r="M30" s="12">
+      <c r="M30" s="10">
         <v>46063</v>
       </c>
-      <c r="N30" s="12">
+      <c r="N30" s="10">
         <v>46070</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O30" s="7">
         <v>46077</v>
       </c>
-      <c r="P30" s="8">
+      <c r="P30" s="7">
         <v>46091</v>
       </c>
-      <c r="Q30" s="8">
+      <c r="Q30" s="7">
         <v>46098</v>
       </c>
-      <c r="R30" s="8">
+      <c r="R30" s="7">
         <v>46126</v>
       </c>
-      <c r="S30" s="8">
+      <c r="S30" s="7">
         <v>46140</v>
       </c>
-      <c r="T30" s="8">
+      <c r="T30" s="7">
         <v>46147</v>
       </c>
       <c r="U30" s="4"/>
@@ -2273,69 +2312,69 @@
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
-      <c r="Z30" s="12" cm="1">
+      <c r="Z30" s="10" cm="1">
         <f t="array" ref="Z30">LOOKUP(2,1/(A30:Y30&lt;&gt;""),A30:Y30)</f>
         <v>46147</v>
       </c>
-      <c r="AA30" s="10" t="str">
+      <c r="AA30" s="8" t="str">
         <f t="shared" si="0"/>
         <v>מאי</v>
       </c>
     </row>
-    <row r="31" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10" t="s">
+    <row r="31" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="11">
         <v>0.35416666666666669</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="10">
         <v>46042</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K31" s="10">
         <v>46049</v>
       </c>
-      <c r="L31" s="12">
+      <c r="L31" s="10">
         <v>46056</v>
       </c>
-      <c r="M31" s="12">
+      <c r="M31" s="10">
         <v>46063</v>
       </c>
-      <c r="N31" s="12">
+      <c r="N31" s="10">
         <v>46070</v>
       </c>
-      <c r="O31" s="8">
+      <c r="O31" s="7">
         <v>46077</v>
       </c>
-      <c r="P31" s="8">
+      <c r="P31" s="7">
         <v>46091</v>
       </c>
-      <c r="Q31" s="8">
+      <c r="Q31" s="7">
         <v>46098</v>
       </c>
-      <c r="R31" s="8">
+      <c r="R31" s="7">
         <v>46126</v>
       </c>
-      <c r="S31" s="8">
+      <c r="S31" s="7">
         <v>46140</v>
       </c>
       <c r="T31" s="4"/>
@@ -2344,68 +2383,68 @@
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
-      <c r="Z31" s="12" cm="1">
+      <c r="Z31" s="10" cm="1">
         <f t="array" ref="Z31">LOOKUP(2,1/(A31:Y31&lt;&gt;""),A31:Y31)</f>
         <v>46140</v>
       </c>
-      <c r="AA31" s="10" t="str">
+      <c r="AA31" s="8" t="str">
         <f t="shared" si="0"/>
         <v>אפריל</v>
       </c>
     </row>
-    <row r="32" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A32" s="10" t="s">
+    <row r="32" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A32" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="11">
         <v>0.34722222222222221</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="11">
         <v>0.40972222222222221</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="10">
         <v>46027</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K32" s="10">
         <v>46034</v>
       </c>
-      <c r="L32" s="12">
+      <c r="L32" s="10">
         <v>46041</v>
       </c>
-      <c r="M32" s="12">
+      <c r="M32" s="10">
         <v>46048</v>
       </c>
-      <c r="N32" s="12">
+      <c r="N32" s="10">
         <v>46055</v>
       </c>
-      <c r="O32" s="8">
+      <c r="O32" s="7">
         <v>46062</v>
       </c>
-      <c r="P32" s="8">
+      <c r="P32" s="7">
         <v>46069</v>
       </c>
-      <c r="Q32" s="8">
+      <c r="Q32" s="7">
         <v>46076</v>
       </c>
-      <c r="R32" s="8">
+      <c r="R32" s="7">
         <v>46083</v>
       </c>
       <c r="S32" s="4"/>
@@ -2415,69 +2454,69 @@
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="12" cm="1">
+      <c r="Z32" s="10" cm="1">
         <f t="array" ref="Z32">LOOKUP(2,1/(A32:Y32&lt;&gt;""),A32:Y32)</f>
         <v>46083</v>
       </c>
-      <c r="AA32" s="10" t="str">
+      <c r="AA32" s="8" t="str">
         <f t="shared" si="0"/>
         <v>מרץ</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10" t="s">
+    <row r="33" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="11">
         <v>0.39583333333333331</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="10">
         <v>46090</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K33" s="10">
         <v>46097</v>
       </c>
-      <c r="L33" s="12">
+      <c r="L33" s="10">
         <v>46132</v>
       </c>
-      <c r="M33" s="12">
+      <c r="M33" s="10">
         <v>46139</v>
       </c>
-      <c r="N33" s="12">
+      <c r="N33" s="10">
         <v>46146</v>
       </c>
-      <c r="O33" s="8">
+      <c r="O33" s="7">
         <v>46153</v>
       </c>
-      <c r="P33" s="8">
+      <c r="P33" s="7">
         <v>46167</v>
       </c>
-      <c r="Q33" s="8">
+      <c r="Q33" s="7">
         <v>46174</v>
       </c>
-      <c r="R33" s="8">
+      <c r="R33" s="7">
         <v>46167</v>
       </c>
-      <c r="S33" s="8">
+      <c r="S33" s="7">
         <v>46174</v>
       </c>
       <c r="T33" s="4"/>
@@ -2486,69 +2525,69 @@
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
-      <c r="Z33" s="12" cm="1">
+      <c r="Z33" s="10" cm="1">
         <f t="array" ref="Z33">LOOKUP(2,1/(A33:Y33&lt;&gt;""),A33:Y33)</f>
         <v>46174</v>
       </c>
-      <c r="AA33" s="10" t="str">
+      <c r="AA33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>יוני</v>
       </c>
     </row>
-    <row r="34" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10" t="s">
+    <row r="34" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="11">
         <v>0.40625</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="11">
         <v>0.46875</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="10">
         <v>46090</v>
       </c>
-      <c r="K34" s="12">
+      <c r="K34" s="10">
         <v>46097</v>
       </c>
-      <c r="L34" s="12">
+      <c r="L34" s="10">
         <v>46132</v>
       </c>
-      <c r="M34" s="12">
+      <c r="M34" s="10">
         <v>46139</v>
       </c>
-      <c r="N34" s="12">
+      <c r="N34" s="10">
         <v>46146</v>
       </c>
-      <c r="O34" s="8">
+      <c r="O34" s="7">
         <v>46153</v>
       </c>
-      <c r="P34" s="8">
+      <c r="P34" s="7">
         <v>46167</v>
       </c>
-      <c r="Q34" s="8">
+      <c r="Q34" s="7">
         <v>46174</v>
       </c>
-      <c r="R34" s="8">
+      <c r="R34" s="7">
         <v>46167</v>
       </c>
-      <c r="S34" s="8">
+      <c r="S34" s="7">
         <v>46174</v>
       </c>
       <c r="T34" s="4"/>
@@ -2557,69 +2596,69 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
-      <c r="Z34" s="12" cm="1">
+      <c r="Z34" s="10" cm="1">
         <f t="array" ref="Z34">LOOKUP(2,1/(A34:Y34&lt;&gt;""),A34:Y34)</f>
         <v>46174</v>
       </c>
-      <c r="AA34" s="10" t="str">
+      <c r="AA34" s="8" t="str">
         <f t="shared" si="0"/>
         <v>יוני</v>
       </c>
     </row>
-    <row r="35" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10" t="s">
+    <row r="35" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="11">
         <v>0.4826388888888889</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I35" s="11">
         <v>0.54513888888888884</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="10">
         <v>46090</v>
       </c>
-      <c r="K35" s="12">
+      <c r="K35" s="10">
         <v>46097</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L35" s="10">
         <v>46132</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M35" s="10">
         <v>46139</v>
       </c>
-      <c r="N35" s="12">
+      <c r="N35" s="10">
         <v>46146</v>
       </c>
-      <c r="O35" s="8">
+      <c r="O35" s="7">
         <v>46153</v>
       </c>
-      <c r="P35" s="8">
+      <c r="P35" s="7">
         <v>46167</v>
       </c>
-      <c r="Q35" s="8">
+      <c r="Q35" s="7">
         <v>46174</v>
       </c>
-      <c r="R35" s="8">
+      <c r="R35" s="7">
         <v>46167</v>
       </c>
-      <c r="S35" s="8">
+      <c r="S35" s="7">
         <v>46174</v>
       </c>
       <c r="T35" s="4"/>
@@ -2628,69 +2667,69 @@
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
-      <c r="Z35" s="12" cm="1">
+      <c r="Z35" s="10" cm="1">
         <f t="array" ref="Z35">LOOKUP(2,1/(A35:Y35&lt;&gt;""),A35:Y35)</f>
         <v>46174</v>
       </c>
-      <c r="AA35" s="10" t="str">
+      <c r="AA35" s="8" t="str">
         <f t="shared" si="0"/>
         <v>יוני</v>
       </c>
     </row>
-    <row r="36" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10" t="s">
+    <row r="36" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="11">
         <v>0.48958333333333331</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I36" s="11">
         <v>0.55208333333333337</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J36" s="10">
         <v>46089</v>
       </c>
-      <c r="K36" s="12">
+      <c r="K36" s="10">
         <v>46096</v>
       </c>
-      <c r="L36" s="12">
+      <c r="L36" s="10">
         <v>46103</v>
       </c>
-      <c r="M36" s="12">
+      <c r="M36" s="10">
         <v>46124</v>
       </c>
-      <c r="N36" s="12">
+      <c r="N36" s="10">
         <v>46131</v>
       </c>
-      <c r="O36" s="8">
+      <c r="O36" s="7">
         <v>46138</v>
       </c>
-      <c r="P36" s="8">
+      <c r="P36" s="7">
         <v>46145</v>
       </c>
-      <c r="Q36" s="8">
+      <c r="Q36" s="7">
         <v>46152</v>
       </c>
-      <c r="R36" s="8">
+      <c r="R36" s="7">
         <v>46159</v>
       </c>
-      <c r="S36" s="8">
+      <c r="S36" s="7">
         <v>46166</v>
       </c>
       <c r="T36" s="4"/>
@@ -2699,69 +2738,69 @@
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
-      <c r="Z36" s="12" cm="1">
+      <c r="Z36" s="10" cm="1">
         <f t="array" ref="Z36">LOOKUP(2,1/(A36:Y36&lt;&gt;""),A36:Y36)</f>
         <v>46166</v>
       </c>
-      <c r="AA36" s="10" t="str">
+      <c r="AA36" s="8" t="str">
         <f t="shared" si="0"/>
         <v>מאי</v>
       </c>
     </row>
-    <row r="37" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10" t="s">
+    <row r="37" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I37" s="11">
         <v>0.3923611111111111</v>
       </c>
-      <c r="J37" s="12">
+      <c r="J37" s="10">
         <v>46089</v>
       </c>
-      <c r="K37" s="12">
+      <c r="K37" s="10">
         <v>46096</v>
       </c>
-      <c r="L37" s="12">
+      <c r="L37" s="10">
         <v>46103</v>
       </c>
-      <c r="M37" s="12">
+      <c r="M37" s="10">
         <v>46124</v>
       </c>
-      <c r="N37" s="12">
+      <c r="N37" s="10">
         <v>46131</v>
       </c>
-      <c r="O37" s="8">
+      <c r="O37" s="7">
         <v>46138</v>
       </c>
-      <c r="P37" s="8">
+      <c r="P37" s="7">
         <v>46145</v>
       </c>
-      <c r="Q37" s="8">
+      <c r="Q37" s="7">
         <v>46152</v>
       </c>
-      <c r="R37" s="8">
+      <c r="R37" s="7">
         <v>46159</v>
       </c>
-      <c r="S37" s="8">
+      <c r="S37" s="7">
         <v>46166</v>
       </c>
       <c r="T37" s="4"/>
@@ -2770,213 +2809,209 @@
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
-      <c r="Z37" s="12" cm="1">
+      <c r="Z37" s="10" cm="1">
         <f t="array" ref="Z37">LOOKUP(2,1/(A37:Y37&lt;&gt;""),A37:Y37)</f>
         <v>46166</v>
       </c>
-      <c r="AA37" s="10" t="str">
+      <c r="AA37" s="8" t="str">
         <f t="shared" si="0"/>
         <v>מאי</v>
       </c>
     </row>
-    <row r="38" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10" t="s">
+    <row r="38" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="11">
         <v>0.4201388888888889</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I38" s="11">
         <v>0.47916666666666669</v>
       </c>
-      <c r="J38" s="12">
-        <v>46064</v>
-      </c>
-      <c r="K38" s="12">
+      <c r="J38" s="10">
         <v>46071</v>
       </c>
-      <c r="L38" s="12">
+      <c r="K38" s="10">
         <v>46078</v>
       </c>
-      <c r="M38" s="12">
+      <c r="L38" s="10">
         <v>46092</v>
       </c>
-      <c r="N38" s="12">
+      <c r="M38" s="10">
         <v>46099</v>
       </c>
-      <c r="O38" s="8">
+      <c r="N38" s="7">
         <v>46127</v>
       </c>
-      <c r="P38" s="8">
+      <c r="O38" s="7">
         <v>46141</v>
       </c>
-      <c r="Q38" s="8">
+      <c r="P38" s="7">
         <v>46148</v>
       </c>
-      <c r="R38" s="8">
+      <c r="Q38" s="7">
         <v>46155</v>
       </c>
-      <c r="S38" s="8">
+      <c r="R38" s="7">
         <v>46162</v>
       </c>
+      <c r="S38" s="12"/>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
-      <c r="Z38" s="12" cm="1">
+      <c r="Z38" s="10" cm="1">
         <f t="array" ref="Z38">LOOKUP(2,1/(A38:Y38&lt;&gt;""),A38:Y38)</f>
         <v>46162</v>
       </c>
-      <c r="AA38" s="10" t="str">
+      <c r="AA38" s="8" t="str">
         <f t="shared" si="0"/>
         <v>מאי</v>
       </c>
     </row>
-    <row r="39" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10" t="s">
+    <row r="39" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="11">
         <v>0.34375</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I39" s="11">
         <v>0.40277777777777779</v>
       </c>
-      <c r="J39" s="12">
-        <v>46064</v>
-      </c>
-      <c r="K39" s="12">
+      <c r="J39" s="10">
         <v>46071</v>
       </c>
-      <c r="L39" s="12">
+      <c r="K39" s="10">
         <v>46078</v>
       </c>
-      <c r="M39" s="12">
+      <c r="L39" s="10">
         <v>46092</v>
       </c>
-      <c r="N39" s="12">
+      <c r="M39" s="10">
         <v>46099</v>
       </c>
-      <c r="O39" s="8">
+      <c r="N39" s="7">
         <v>46127</v>
       </c>
-      <c r="P39" s="8">
+      <c r="O39" s="7">
         <v>46141</v>
       </c>
-      <c r="Q39" s="8">
+      <c r="P39" s="7">
         <v>46148</v>
       </c>
-      <c r="R39" s="8">
+      <c r="Q39" s="7">
         <v>46155</v>
       </c>
-      <c r="S39" s="8">
+      <c r="R39" s="7">
         <v>46162</v>
       </c>
+      <c r="S39" s="12"/>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
-      <c r="Z39" s="12" cm="1">
+      <c r="Z39" s="10" cm="1">
         <f t="array" ref="Z39">LOOKUP(2,1/(A39:Y39&lt;&gt;""),A39:Y39)</f>
         <v>46162</v>
       </c>
-      <c r="AA39" s="10" t="str">
+      <c r="AA39" s="8" t="str">
         <f t="shared" si="0"/>
         <v>מאי</v>
       </c>
     </row>
-    <row r="40" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A40" s="10" t="s">
+    <row r="40" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A40" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H40" s="11">
         <v>0.48958333333333331</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I40" s="11">
         <v>0.55902777777777779</v>
       </c>
-      <c r="J40" s="12">
+      <c r="J40" s="10">
         <v>46034</v>
       </c>
-      <c r="K40" s="12">
+      <c r="K40" s="10">
         <v>46041</v>
       </c>
-      <c r="L40" s="12">
+      <c r="L40" s="10">
         <v>46055</v>
       </c>
-      <c r="M40" s="12">
+      <c r="M40" s="10">
         <v>46062</v>
       </c>
-      <c r="N40" s="12">
+      <c r="N40" s="10">
         <v>46069</v>
       </c>
-      <c r="O40" s="8">
+      <c r="O40" s="7">
         <v>46076</v>
       </c>
-      <c r="P40" s="8">
+      <c r="P40" s="7">
         <v>46090</v>
       </c>
-      <c r="Q40" s="8">
+      <c r="Q40" s="7">
         <v>46097</v>
       </c>
-      <c r="R40" s="8">
+      <c r="R40" s="7">
         <v>46139</v>
       </c>
-      <c r="S40" s="8">
+      <c r="S40" s="7">
         <v>46146</v>
       </c>
       <c r="T40" s="4"/>
@@ -2985,65 +3020,65 @@
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
-      <c r="Z40" s="12" cm="1">
+      <c r="Z40" s="10" cm="1">
         <f t="array" ref="Z40">LOOKUP(2,1/(A40:Y40&lt;&gt;""),A40:Y40)</f>
         <v>46146</v>
       </c>
-      <c r="AA40" s="10" t="str">
+      <c r="AA40" s="8" t="str">
         <f t="shared" si="0"/>
         <v>מאי</v>
       </c>
     </row>
-    <row r="41" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A41" s="10" t="s">
+    <row r="41" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A41" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I41" s="11">
         <v>0.40277777777777779</v>
       </c>
-      <c r="J41" s="12">
+      <c r="J41" s="10">
         <v>46035</v>
       </c>
-      <c r="K41" s="12">
+      <c r="K41" s="10">
         <v>46042</v>
       </c>
-      <c r="L41" s="12">
+      <c r="L41" s="10">
         <v>46056</v>
       </c>
-      <c r="M41" s="12">
+      <c r="M41" s="10">
         <v>46063</v>
       </c>
-      <c r="N41" s="12">
+      <c r="N41" s="10">
         <v>46070</v>
       </c>
-      <c r="O41" s="8">
+      <c r="O41" s="7">
         <v>46077</v>
       </c>
-      <c r="P41" s="8">
+      <c r="P41" s="7">
         <v>46091</v>
       </c>
-      <c r="Q41" s="8">
+      <c r="Q41" s="7">
         <v>46098</v>
       </c>
       <c r="R41" s="4"/>
@@ -3054,71 +3089,71 @@
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
-      <c r="Z41" s="12" cm="1">
+      <c r="Z41" s="10" cm="1">
         <f t="array" ref="Z41">LOOKUP(2,1/(A41:Y41&lt;&gt;""),A41:Y41)</f>
         <v>46098</v>
       </c>
-      <c r="AA41" s="10" t="str">
+      <c r="AA41" s="8" t="str">
         <f t="shared" si="0"/>
         <v>מרץ</v>
       </c>
     </row>
-    <row r="42" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A42" s="10" t="s">
+    <row r="42" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A42" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G42" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="11">
         <v>0.40972222222222221</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I42" s="11">
         <v>0.48958333333333331</v>
       </c>
-      <c r="J42" s="12">
+      <c r="J42" s="10">
         <v>46035</v>
       </c>
-      <c r="K42" s="12">
+      <c r="K42" s="10">
         <v>46042</v>
       </c>
-      <c r="L42" s="12">
+      <c r="L42" s="10">
         <v>46056</v>
       </c>
-      <c r="M42" s="12">
+      <c r="M42" s="10">
         <v>46070</v>
       </c>
-      <c r="N42" s="12">
+      <c r="N42" s="10">
         <v>46077</v>
       </c>
-      <c r="O42" s="8">
+      <c r="O42" s="7">
         <v>46091</v>
       </c>
-      <c r="P42" s="8">
+      <c r="P42" s="7">
         <v>46098</v>
       </c>
-      <c r="Q42" s="8">
+      <c r="Q42" s="7">
         <v>46140</v>
       </c>
-      <c r="R42" s="8">
+      <c r="R42" s="7">
         <v>46147</v>
       </c>
-      <c r="S42" s="8">
+      <c r="S42" s="7">
         <v>46154</v>
       </c>
       <c r="T42" s="4"/>
@@ -3127,68 +3162,68 @@
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
-      <c r="Z42" s="12" cm="1">
+      <c r="Z42" s="10" cm="1">
         <f t="array" ref="Z42">LOOKUP(2,1/(A42:Y42&lt;&gt;""),A42:Y42)</f>
         <v>46154</v>
       </c>
-      <c r="AA42" s="10" t="str">
+      <c r="AA42" s="8" t="str">
         <f t="shared" si="0"/>
         <v>מאי</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A43" s="10" t="s">
+    <row r="43" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A43" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="11">
         <v>0.48958333333333331</v>
       </c>
-      <c r="I43" s="14">
+      <c r="I43" s="11">
         <v>0.55902777777777779</v>
       </c>
-      <c r="J43" s="12">
+      <c r="J43" s="10">
         <v>46035</v>
       </c>
-      <c r="K43" s="12">
+      <c r="K43" s="10">
         <v>46042</v>
       </c>
-      <c r="L43" s="12">
+      <c r="L43" s="10">
         <v>46056</v>
       </c>
-      <c r="M43" s="12">
+      <c r="M43" s="10">
         <v>46070</v>
       </c>
-      <c r="N43" s="12">
+      <c r="N43" s="10">
         <v>46077</v>
       </c>
-      <c r="O43" s="8">
+      <c r="O43" s="7">
         <v>46091</v>
       </c>
-      <c r="P43" s="8">
+      <c r="P43" s="7">
         <v>46098</v>
       </c>
-      <c r="Q43" s="8">
+      <c r="Q43" s="7">
         <v>46140</v>
       </c>
-      <c r="R43" s="8">
+      <c r="R43" s="7">
         <v>46147</v>
       </c>
       <c r="S43" s="4"/>
@@ -3198,71 +3233,71 @@
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
-      <c r="Z43" s="12" cm="1">
+      <c r="Z43" s="10" cm="1">
         <f t="array" ref="Z43">LOOKUP(2,1/(A43:Y43&lt;&gt;""),A43:Y43)</f>
         <v>46147</v>
       </c>
-      <c r="AA43" s="10" t="str">
+      <c r="AA43" s="8" t="str">
         <f t="shared" si="0"/>
         <v>מאי</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A44" s="10" t="s">
+    <row r="44" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A44" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G44" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="11">
         <v>0.42708333333333331</v>
       </c>
-      <c r="I44" s="14">
+      <c r="I44" s="11">
         <v>0.48958333333333331</v>
       </c>
-      <c r="J44" s="12">
+      <c r="J44" s="10">
         <v>46034</v>
       </c>
-      <c r="K44" s="12">
+      <c r="K44" s="10">
         <v>46048</v>
       </c>
-      <c r="L44" s="12">
+      <c r="L44" s="10">
         <v>46062</v>
       </c>
-      <c r="M44" s="12">
+      <c r="M44" s="10">
         <v>46076</v>
       </c>
-      <c r="N44" s="12">
+      <c r="N44" s="10">
         <v>46090</v>
       </c>
-      <c r="O44" s="8">
+      <c r="O44" s="7">
         <v>46104</v>
       </c>
-      <c r="P44" s="8">
+      <c r="P44" s="7">
         <v>46146</v>
       </c>
-      <c r="Q44" s="8">
+      <c r="Q44" s="7">
         <v>46160</v>
       </c>
-      <c r="R44" s="8">
+      <c r="R44" s="7">
         <v>46181</v>
       </c>
-      <c r="S44" s="8">
+      <c r="S44" s="7">
         <v>46188</v>
       </c>
       <c r="T44" s="4"/>
@@ -3271,71 +3306,71 @@
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
-      <c r="Z44" s="12" cm="1">
+      <c r="Z44" s="10" cm="1">
         <f t="array" ref="Z44">LOOKUP(2,1/(A44:Y44&lt;&gt;""),A44:Y44)</f>
         <v>46188</v>
       </c>
-      <c r="AA44" s="10" t="str">
+      <c r="AA44" s="8" t="str">
         <f t="shared" si="0"/>
         <v>יוני</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A45" s="10" t="s">
+    <row r="45" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A45" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="11">
         <v>0.5</v>
       </c>
-      <c r="I45" s="14">
+      <c r="I45" s="11">
         <v>0.56944444444444442</v>
       </c>
-      <c r="J45" s="12">
+      <c r="J45" s="10">
         <v>46034</v>
       </c>
-      <c r="K45" s="12">
+      <c r="K45" s="10">
         <v>46048</v>
       </c>
-      <c r="L45" s="12">
+      <c r="L45" s="10">
         <v>46062</v>
       </c>
-      <c r="M45" s="12">
+      <c r="M45" s="10">
         <v>46076</v>
       </c>
-      <c r="N45" s="12">
+      <c r="N45" s="10">
         <v>46090</v>
       </c>
-      <c r="O45" s="8">
+      <c r="O45" s="7">
         <v>46104</v>
       </c>
-      <c r="P45" s="8">
+      <c r="P45" s="7">
         <v>46146</v>
       </c>
-      <c r="Q45" s="8">
+      <c r="Q45" s="7">
         <v>46160</v>
       </c>
-      <c r="R45" s="8">
+      <c r="R45" s="7">
         <v>46181</v>
       </c>
-      <c r="S45" s="8">
+      <c r="S45" s="7">
         <v>46188</v>
       </c>
       <c r="T45" s="4"/>
@@ -3344,71 +3379,71 @@
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
-      <c r="Z45" s="12" cm="1">
+      <c r="Z45" s="10" cm="1">
         <f t="array" ref="Z45">LOOKUP(2,1/(A45:Y45&lt;&gt;""),A45:Y45)</f>
         <v>46188</v>
       </c>
-      <c r="AA45" s="10" t="str">
+      <c r="AA45" s="8" t="str">
         <f t="shared" si="0"/>
         <v>יוני</v>
       </c>
     </row>
-    <row r="46" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A46" s="10" t="s">
+    <row r="46" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A46" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G46" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="11">
         <v>0.42708333333333331</v>
       </c>
-      <c r="I46" s="14">
+      <c r="I46" s="11">
         <v>0.49305555555555558</v>
       </c>
-      <c r="J46" s="12">
+      <c r="J46" s="10">
         <v>46040</v>
       </c>
-      <c r="K46" s="12">
+      <c r="K46" s="10">
         <v>46047</v>
       </c>
-      <c r="L46" s="12">
+      <c r="L46" s="10">
         <v>46054</v>
       </c>
-      <c r="M46" s="12">
+      <c r="M46" s="10">
         <v>46061</v>
       </c>
-      <c r="N46" s="12">
+      <c r="N46" s="10">
         <v>46068</v>
       </c>
-      <c r="O46" s="8">
+      <c r="O46" s="7">
         <v>46075</v>
       </c>
-      <c r="P46" s="8">
+      <c r="P46" s="7">
         <v>46082</v>
       </c>
-      <c r="Q46" s="8">
+      <c r="Q46" s="7">
         <v>46089</v>
       </c>
-      <c r="R46" s="8">
+      <c r="R46" s="7">
         <v>46096</v>
       </c>
-      <c r="S46" s="8">
+      <c r="S46" s="7">
         <v>46103</v>
       </c>
       <c r="T46" s="4"/>
@@ -3417,71 +3452,71 @@
       <c r="W46" s="4"/>
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
-      <c r="Z46" s="12" cm="1">
+      <c r="Z46" s="10" cm="1">
         <f t="array" ref="Z46">LOOKUP(2,1/(A46:Y46&lt;&gt;""),A46:Y46)</f>
         <v>46103</v>
       </c>
-      <c r="AA46" s="10" t="str">
+      <c r="AA46" s="8" t="str">
         <f t="shared" si="0"/>
         <v>מרץ</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A47" s="10" t="s">
+    <row r="47" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A47" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I47" s="14">
+      <c r="I47" s="11">
         <v>0.40277777777777779</v>
       </c>
-      <c r="J47" s="12">
+      <c r="J47" s="10">
         <v>46036</v>
       </c>
-      <c r="K47" s="12">
+      <c r="K47" s="10">
         <v>46043</v>
       </c>
-      <c r="L47" s="12">
+      <c r="L47" s="10">
         <v>46050</v>
       </c>
-      <c r="M47" s="12">
+      <c r="M47" s="10">
         <v>46057</v>
       </c>
-      <c r="N47" s="12">
+      <c r="N47" s="10">
         <v>46064</v>
       </c>
-      <c r="O47" s="8">
+      <c r="O47" s="7">
         <v>46071</v>
       </c>
-      <c r="P47" s="8">
+      <c r="P47" s="7">
         <v>46078</v>
       </c>
-      <c r="Q47" s="8">
+      <c r="Q47" s="7">
         <v>46092</v>
       </c>
-      <c r="R47" s="8">
+      <c r="R47" s="7">
         <v>46099</v>
       </c>
-      <c r="S47" s="8">
+      <c r="S47" s="7">
         <v>46127</v>
       </c>
       <c r="T47" s="4"/>
@@ -3490,152 +3525,152 @@
       <c r="W47" s="4"/>
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
-      <c r="Z47" s="12" cm="1">
+      <c r="Z47" s="10" cm="1">
         <f t="array" ref="Z47">LOOKUP(2,1/(A47:Y47&lt;&gt;""),A47:Y47)</f>
         <v>46127</v>
       </c>
-      <c r="AA47" s="10" t="str">
+      <c r="AA47" s="8" t="str">
         <f t="shared" si="0"/>
         <v>אפריל</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A48" s="10" t="s">
+    <row r="48" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A48" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H48" s="11">
         <v>0.5</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I48" s="11">
         <v>0.5625</v>
       </c>
-      <c r="J48" s="12">
+      <c r="J48" s="10">
         <v>46064</v>
       </c>
-      <c r="K48" s="12">
+      <c r="K48" s="10">
         <v>46071</v>
       </c>
-      <c r="L48" s="12">
+      <c r="L48" s="10">
         <v>46078</v>
       </c>
-      <c r="M48" s="12">
+      <c r="M48" s="10">
         <v>46092</v>
       </c>
-      <c r="N48" s="12">
+      <c r="N48" s="10">
         <v>46099</v>
       </c>
-      <c r="O48" s="8">
+      <c r="O48" s="7">
         <v>46127</v>
       </c>
-      <c r="P48" s="8">
+      <c r="P48" s="7">
         <v>46141</v>
       </c>
-      <c r="Q48" s="8">
+      <c r="Q48" s="7">
         <v>46148</v>
       </c>
-      <c r="R48" s="8">
+      <c r="R48" s="7">
         <v>46155</v>
       </c>
-      <c r="S48" s="8">
+      <c r="S48" s="7">
         <v>46162</v>
       </c>
-      <c r="T48" s="8">
+      <c r="T48" s="7">
         <v>46169</v>
       </c>
-      <c r="U48" s="8">
+      <c r="U48" s="7">
         <v>46176</v>
       </c>
-      <c r="V48" s="8">
+      <c r="V48" s="7">
         <v>46183</v>
       </c>
-      <c r="W48" s="8">
+      <c r="W48" s="7">
         <v>46190</v>
       </c>
       <c r="X48" s="4"/>
       <c r="Y48" s="4"/>
-      <c r="Z48" s="12" cm="1">
+      <c r="Z48" s="10" cm="1">
         <f t="array" ref="Z48">LOOKUP(2,1/(A48:Y48&lt;&gt;""),A48:Y48)</f>
         <v>46190</v>
       </c>
-      <c r="AA48" s="10" t="str">
+      <c r="AA48" s="8" t="str">
         <f t="shared" si="0"/>
         <v>יוני</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A49" s="10" t="s">
+    <row r="49" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A49" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G49" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="11">
         <v>0.34722222222222221</v>
       </c>
-      <c r="I49" s="14">
+      <c r="I49" s="11">
         <v>0.40625</v>
       </c>
-      <c r="J49" s="12">
+      <c r="J49" s="10">
         <v>46031</v>
       </c>
-      <c r="K49" s="12">
+      <c r="K49" s="10">
         <v>46038</v>
       </c>
-      <c r="L49" s="12">
+      <c r="L49" s="10">
         <v>46045</v>
       </c>
-      <c r="M49" s="12">
+      <c r="M49" s="10">
         <v>46052</v>
       </c>
-      <c r="N49" s="12">
+      <c r="N49" s="10">
         <v>46059</v>
       </c>
-      <c r="O49" s="8">
+      <c r="O49" s="7">
         <v>46066</v>
       </c>
-      <c r="P49" s="8">
+      <c r="P49" s="7">
         <v>46073</v>
       </c>
-      <c r="Q49" s="8">
+      <c r="Q49" s="7">
         <v>46080</v>
       </c>
-      <c r="R49" s="8">
+      <c r="R49" s="7">
         <v>46087</v>
       </c>
-      <c r="S49" s="8">
+      <c r="S49" s="7">
         <v>46094</v>
       </c>
       <c r="T49" s="4"/>
@@ -3644,65 +3679,65 @@
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
       <c r="Y49" s="4"/>
-      <c r="Z49" s="12" cm="1">
+      <c r="Z49" s="10" cm="1">
         <f t="array" ref="Z49">LOOKUP(2,1/(A49:Y49&lt;&gt;""),A49:Y49)</f>
         <v>46094</v>
       </c>
-      <c r="AA49" s="10" t="str">
+      <c r="AA49" s="8" t="str">
         <f t="shared" si="0"/>
         <v>מרץ</v>
       </c>
     </row>
-    <row r="50" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A50" s="10" t="s">
+    <row r="50" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A50" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="G50" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H50" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I50" s="14">
+      <c r="I50" s="11">
         <v>0.40277777777777779</v>
       </c>
-      <c r="J50" s="12">
+      <c r="J50" s="10">
         <v>46026</v>
       </c>
-      <c r="K50" s="12">
+      <c r="K50" s="10">
         <v>46033</v>
       </c>
-      <c r="L50" s="12">
+      <c r="L50" s="10">
         <v>46040</v>
       </c>
-      <c r="M50" s="12">
+      <c r="M50" s="10">
         <v>46047</v>
       </c>
-      <c r="N50" s="12">
+      <c r="N50" s="10">
         <v>46054</v>
       </c>
-      <c r="O50" s="8">
+      <c r="O50" s="7">
         <v>46061</v>
       </c>
-      <c r="P50" s="8">
+      <c r="P50" s="7">
         <v>46068</v>
       </c>
-      <c r="Q50" s="8">
+      <c r="Q50" s="7">
         <v>46075</v>
       </c>
       <c r="R50" s="4"/>
@@ -3713,65 +3748,65 @@
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
       <c r="Y50" s="4"/>
-      <c r="Z50" s="12" cm="1">
+      <c r="Z50" s="10" cm="1">
         <f t="array" ref="Z50">LOOKUP(2,1/(A50:Y50&lt;&gt;""),A50:Y50)</f>
         <v>46075</v>
       </c>
-      <c r="AA50" s="10" t="str">
+      <c r="AA50" s="8" t="str">
         <f t="shared" si="0"/>
         <v>פברואר</v>
       </c>
     </row>
-    <row r="51" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A51" s="10" t="s">
+    <row r="51" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A51" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="F51" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="G51" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51" s="11">
         <v>0.42708333333333331</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I51" s="11">
         <v>0.5</v>
       </c>
-      <c r="J51" s="12">
+      <c r="J51" s="10">
         <v>46026</v>
       </c>
-      <c r="K51" s="12">
+      <c r="K51" s="10">
         <v>46033</v>
       </c>
-      <c r="L51" s="12">
+      <c r="L51" s="10">
         <v>46040</v>
       </c>
-      <c r="M51" s="12">
+      <c r="M51" s="10">
         <v>46047</v>
       </c>
-      <c r="N51" s="12">
+      <c r="N51" s="10">
         <v>46054</v>
       </c>
-      <c r="O51" s="8">
+      <c r="O51" s="7">
         <v>46061</v>
       </c>
-      <c r="P51" s="8">
+      <c r="P51" s="7">
         <v>46068</v>
       </c>
-      <c r="Q51" s="8">
+      <c r="Q51" s="7">
         <v>46075</v>
       </c>
       <c r="R51" s="4"/>
@@ -3782,148 +3817,148 @@
       <c r="W51" s="4"/>
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
-      <c r="Z51" s="12" cm="1">
+      <c r="Z51" s="10" cm="1">
         <f t="array" ref="Z51">LOOKUP(2,1/(A51:Y51&lt;&gt;""),A51:Y51)</f>
         <v>46075</v>
       </c>
-      <c r="AA51" s="10" t="str">
+      <c r="AA51" s="8" t="str">
         <f t="shared" si="0"/>
         <v>פברואר</v>
       </c>
     </row>
-    <row r="52" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A52" s="10" t="s">
+    <row r="52" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A52" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E52" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="G52" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H52" s="11">
         <v>0.34375</v>
       </c>
-      <c r="I52" s="14">
+      <c r="I52" s="11">
         <v>0.40625</v>
       </c>
-      <c r="J52" s="12">
+      <c r="J52" s="10">
         <v>46027</v>
       </c>
-      <c r="K52" s="12">
+      <c r="K52" s="10">
         <v>46034</v>
       </c>
-      <c r="L52" s="12">
+      <c r="L52" s="10">
         <v>46041</v>
       </c>
-      <c r="M52" s="12">
+      <c r="M52" s="10">
         <v>46048</v>
       </c>
-      <c r="N52" s="12">
+      <c r="N52" s="10">
         <v>46055</v>
       </c>
-      <c r="O52" s="8">
+      <c r="O52" s="7">
         <v>46062</v>
       </c>
-      <c r="P52" s="8">
+      <c r="P52" s="7">
         <v>46069</v>
       </c>
-      <c r="Q52" s="8">
+      <c r="Q52" s="7">
         <v>46076</v>
       </c>
-      <c r="R52" s="8">
+      <c r="R52" s="7">
         <v>46083</v>
       </c>
-      <c r="S52" s="8">
+      <c r="S52" s="7">
         <v>46090</v>
       </c>
-      <c r="T52" s="8">
+      <c r="T52" s="7">
         <v>46097</v>
       </c>
-      <c r="U52" s="8">
+      <c r="U52" s="7">
         <v>46104</v>
       </c>
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
       <c r="X52" s="4"/>
       <c r="Y52" s="4"/>
-      <c r="Z52" s="12" cm="1">
+      <c r="Z52" s="10" cm="1">
         <f t="array" ref="Z52">LOOKUP(2,1/(A52:Y52&lt;&gt;""),A52:Y52)</f>
         <v>46104</v>
       </c>
-      <c r="AA52" s="10" t="str">
+      <c r="AA52" s="8" t="str">
         <f t="shared" si="0"/>
         <v>מרץ</v>
       </c>
     </row>
-    <row r="53" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A53" s="10" t="s">
+    <row r="53" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A53" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G53" s="10" t="s">
+      <c r="G53" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H53" s="11">
         <v>0.34375</v>
       </c>
-      <c r="I53" s="14">
+      <c r="I53" s="11">
         <v>0.40625</v>
       </c>
-      <c r="J53" s="12">
+      <c r="J53" s="10">
         <v>46035</v>
       </c>
-      <c r="K53" s="12">
+      <c r="K53" s="10">
         <v>46042</v>
       </c>
-      <c r="L53" s="12">
+      <c r="L53" s="10">
         <v>46049</v>
       </c>
-      <c r="M53" s="12">
+      <c r="M53" s="10">
         <v>46056</v>
       </c>
-      <c r="N53" s="12">
+      <c r="N53" s="10">
         <v>46063</v>
       </c>
-      <c r="O53" s="8">
+      <c r="O53" s="7">
         <v>46070</v>
       </c>
-      <c r="P53" s="8">
+      <c r="P53" s="7">
         <v>46077</v>
       </c>
-      <c r="Q53" s="8">
+      <c r="Q53" s="7">
         <v>46091</v>
       </c>
-      <c r="R53" s="8">
+      <c r="R53" s="7">
         <v>46098</v>
       </c>
-      <c r="S53" s="8">
+      <c r="S53" s="7">
         <v>46126</v>
       </c>
       <c r="T53" s="4"/>
@@ -3932,65 +3967,65 @@
       <c r="W53" s="4"/>
       <c r="X53" s="4"/>
       <c r="Y53" s="4"/>
-      <c r="Z53" s="12" cm="1">
+      <c r="Z53" s="10" cm="1">
         <f t="array" ref="Z53">LOOKUP(2,1/(A53:Y53&lt;&gt;""),A53:Y53)</f>
         <v>46126</v>
       </c>
-      <c r="AA53" s="10" t="str">
+      <c r="AA53" s="8" t="str">
         <f t="shared" si="0"/>
         <v>אפריל</v>
       </c>
     </row>
-    <row r="54" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A54" s="10" t="s">
+    <row r="54" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A54" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="F54" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="G54" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H54" s="14">
+      <c r="H54" s="11">
         <v>0.4375</v>
       </c>
-      <c r="I54" s="14">
+      <c r="I54" s="11">
         <v>0.5</v>
       </c>
-      <c r="J54" s="12">
+      <c r="J54" s="10">
         <v>46063</v>
       </c>
-      <c r="K54" s="12">
+      <c r="K54" s="10">
         <v>46070</v>
       </c>
-      <c r="L54" s="12">
+      <c r="L54" s="10">
         <v>46077</v>
       </c>
-      <c r="M54" s="12">
+      <c r="M54" s="10">
         <v>46091</v>
       </c>
-      <c r="N54" s="12">
+      <c r="N54" s="10">
         <v>46098</v>
       </c>
-      <c r="O54" s="8">
+      <c r="O54" s="7">
         <v>46126</v>
       </c>
-      <c r="P54" s="8">
+      <c r="P54" s="7">
         <v>46140</v>
       </c>
-      <c r="Q54" s="8">
+      <c r="Q54" s="7">
         <v>46147</v>
       </c>
       <c r="R54" s="4"/>
@@ -4001,71 +4036,71 @@
       <c r="W54" s="4"/>
       <c r="X54" s="4"/>
       <c r="Y54" s="4"/>
-      <c r="Z54" s="12" cm="1">
+      <c r="Z54" s="10" cm="1">
         <f t="array" ref="Z54">LOOKUP(2,1/(A54:Y54&lt;&gt;""),A54:Y54)</f>
         <v>46147</v>
       </c>
-      <c r="AA54" s="10" t="str">
+      <c r="AA54" s="8" t="str">
         <f t="shared" si="0"/>
         <v>מאי</v>
       </c>
     </row>
-    <row r="55" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A55" s="10" t="s">
+    <row r="55" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A55" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G55" s="10" t="s">
+      <c r="G55" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H55" s="11">
         <v>0.5</v>
       </c>
-      <c r="I55" s="14">
+      <c r="I55" s="11">
         <v>0.5625</v>
       </c>
-      <c r="J55" s="12">
+      <c r="J55" s="10">
         <v>46061</v>
       </c>
-      <c r="K55" s="12">
+      <c r="K55" s="10">
         <v>46068</v>
       </c>
-      <c r="L55" s="12">
+      <c r="L55" s="10">
         <v>46075</v>
       </c>
-      <c r="M55" s="12">
+      <c r="M55" s="10">
         <v>46082</v>
       </c>
-      <c r="N55" s="12">
+      <c r="N55" s="10">
         <v>46089</v>
       </c>
-      <c r="O55" s="8">
+      <c r="O55" s="7">
         <v>46096</v>
       </c>
-      <c r="P55" s="8">
+      <c r="P55" s="7">
         <v>46103</v>
       </c>
-      <c r="Q55" s="8">
+      <c r="Q55" s="7">
         <v>46124</v>
       </c>
-      <c r="R55" s="8">
+      <c r="R55" s="7">
         <v>46131</v>
       </c>
-      <c r="S55" s="8">
+      <c r="S55" s="7">
         <v>46138</v>
       </c>
       <c r="T55" s="4"/>
@@ -4074,71 +4109,71 @@
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
       <c r="Y55" s="4"/>
-      <c r="Z55" s="12" cm="1">
+      <c r="Z55" s="10" cm="1">
         <f t="array" ref="Z55">LOOKUP(2,1/(A55:Y55&lt;&gt;""),A55:Y55)</f>
         <v>46138</v>
       </c>
-      <c r="AA55" s="10" t="str">
+      <c r="AA55" s="8" t="str">
         <f t="shared" si="0"/>
         <v>אפריל</v>
       </c>
     </row>
-    <row r="56" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A56" s="10" t="s">
+    <row r="56" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A56" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G56" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H56" s="14">
+      <c r="H56" s="11">
         <v>0.57291666666666663</v>
       </c>
-      <c r="I56" s="14">
+      <c r="I56" s="11">
         <v>0.63541666666666663</v>
       </c>
-      <c r="J56" s="12">
+      <c r="J56" s="10">
         <v>46061</v>
       </c>
-      <c r="K56" s="12">
+      <c r="K56" s="10">
         <v>46068</v>
       </c>
-      <c r="L56" s="12">
+      <c r="L56" s="10">
         <v>46075</v>
       </c>
-      <c r="M56" s="12">
+      <c r="M56" s="10">
         <v>46082</v>
       </c>
-      <c r="N56" s="12">
+      <c r="N56" s="10">
         <v>46089</v>
       </c>
-      <c r="O56" s="8">
+      <c r="O56" s="7">
         <v>46096</v>
       </c>
-      <c r="P56" s="8">
+      <c r="P56" s="7">
         <v>46103</v>
       </c>
-      <c r="Q56" s="8">
+      <c r="Q56" s="7">
         <v>46124</v>
       </c>
-      <c r="R56" s="8">
+      <c r="R56" s="7">
         <v>46131</v>
       </c>
-      <c r="S56" s="8">
+      <c r="S56" s="7">
         <v>46138</v>
       </c>
       <c r="T56" s="4"/>
@@ -4147,65 +4182,65 @@
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
       <c r="Y56" s="4"/>
-      <c r="Z56" s="12" cm="1">
+      <c r="Z56" s="10" cm="1">
         <f t="array" ref="Z56">LOOKUP(2,1/(A56:Y56&lt;&gt;""),A56:Y56)</f>
         <v>46138</v>
       </c>
-      <c r="AA56" s="10" t="str">
+      <c r="AA56" s="8" t="str">
         <f t="shared" si="0"/>
         <v>אפריל</v>
       </c>
     </row>
-    <row r="57" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A57" s="10" t="s">
+    <row r="57" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A57" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="F57" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G57" s="10" t="s">
+      <c r="G57" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H57" s="11">
         <v>0.36805555555555558</v>
       </c>
-      <c r="I57" s="14">
+      <c r="I57" s="11">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J57" s="12">
+      <c r="J57" s="10">
         <v>46062</v>
       </c>
-      <c r="K57" s="12">
+      <c r="K57" s="10">
         <v>46069</v>
       </c>
-      <c r="L57" s="12">
+      <c r="L57" s="10">
         <v>46076</v>
       </c>
-      <c r="M57" s="12">
+      <c r="M57" s="10">
         <v>46083</v>
       </c>
-      <c r="N57" s="12">
+      <c r="N57" s="10">
         <v>46090</v>
       </c>
-      <c r="O57" s="8">
+      <c r="O57" s="7">
         <v>46097</v>
       </c>
-      <c r="P57" s="8">
+      <c r="P57" s="7">
         <v>46104</v>
       </c>
-      <c r="Q57" s="8">
+      <c r="Q57" s="7">
         <v>46125</v>
       </c>
       <c r="R57" s="4"/>
@@ -4216,65 +4251,65 @@
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
       <c r="Y57" s="4"/>
-      <c r="Z57" s="12" cm="1">
+      <c r="Z57" s="10" cm="1">
         <f t="array" ref="Z57">LOOKUP(2,1/(A57:Y57&lt;&gt;""),A57:Y57)</f>
         <v>46125</v>
       </c>
-      <c r="AA57" s="10" t="str">
+      <c r="AA57" s="8" t="str">
         <f t="shared" si="0"/>
         <v>אפריל</v>
       </c>
     </row>
-    <row r="58" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A58" s="10" t="s">
+    <row r="58" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A58" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F58" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="G58" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H58" s="11">
         <v>0.59375</v>
       </c>
-      <c r="I58" s="14">
+      <c r="I58" s="11">
         <v>0.64583333333333337</v>
       </c>
-      <c r="J58" s="12">
+      <c r="J58" s="10">
         <v>46062</v>
       </c>
-      <c r="K58" s="12">
+      <c r="K58" s="10">
         <v>46069</v>
       </c>
-      <c r="L58" s="12">
+      <c r="L58" s="10">
         <v>46076</v>
       </c>
-      <c r="M58" s="12">
+      <c r="M58" s="10">
         <v>46083</v>
       </c>
-      <c r="N58" s="12">
+      <c r="N58" s="10">
         <v>46090</v>
       </c>
-      <c r="O58" s="8">
+      <c r="O58" s="7">
         <v>46097</v>
       </c>
-      <c r="P58" s="8">
+      <c r="P58" s="7">
         <v>46104</v>
       </c>
-      <c r="Q58" s="8">
+      <c r="Q58" s="7">
         <v>46125</v>
       </c>
       <c r="R58" s="4"/>
@@ -4285,723 +4320,723 @@
       <c r="W58" s="4"/>
       <c r="X58" s="4"/>
       <c r="Y58" s="4"/>
-      <c r="Z58" s="12" cm="1">
+      <c r="Z58" s="10" cm="1">
         <f t="array" ref="Z58">LOOKUP(2,1/(A58:Y58&lt;&gt;""),A58:Y58)</f>
         <v>46125</v>
       </c>
-      <c r="AA58" s="10" t="str">
+      <c r="AA58" s="8" t="str">
         <f t="shared" si="0"/>
         <v>אפריל</v>
       </c>
     </row>
-    <row r="59" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A59" s="10" t="s">
+    <row r="59" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A59" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="F59" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G59" s="10" t="s">
+      <c r="G59" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H59" s="11">
         <v>0.34027777777777779</v>
       </c>
-      <c r="I59" s="14">
+      <c r="I59" s="11">
         <v>0.40625</v>
       </c>
-      <c r="J59" s="12">
+      <c r="J59" s="10">
         <v>45971</v>
       </c>
-      <c r="K59" s="12">
+      <c r="K59" s="10">
         <v>45978</v>
       </c>
-      <c r="L59" s="12">
+      <c r="L59" s="10">
         <v>45992</v>
       </c>
-      <c r="M59" s="12">
+      <c r="M59" s="10">
         <v>46006</v>
       </c>
-      <c r="N59" s="12">
+      <c r="N59" s="10">
         <v>46020</v>
       </c>
-      <c r="O59" s="8">
+      <c r="O59" s="7">
         <v>46034</v>
       </c>
-      <c r="P59" s="8">
+      <c r="P59" s="7">
         <v>46048</v>
       </c>
-      <c r="Q59" s="8">
+      <c r="Q59" s="7">
         <v>46062</v>
       </c>
-      <c r="R59" s="8">
+      <c r="R59" s="7">
         <v>46076</v>
       </c>
-      <c r="S59" s="8">
+      <c r="S59" s="7">
         <v>46090</v>
       </c>
-      <c r="T59" s="8">
+      <c r="T59" s="7">
         <v>46104</v>
       </c>
-      <c r="U59" s="8">
+      <c r="U59" s="7">
         <v>46132</v>
       </c>
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
       <c r="Y59" s="4"/>
-      <c r="Z59" s="12" cm="1">
+      <c r="Z59" s="10" cm="1">
         <f t="array" ref="Z59">LOOKUP(2,1/(A59:Y59&lt;&gt;""),A59:Y59)</f>
         <v>46132</v>
       </c>
-      <c r="AA59" s="10" t="str">
+      <c r="AA59" s="8" t="str">
         <f t="shared" si="0"/>
         <v>אפריל</v>
       </c>
     </row>
-    <row r="60" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A60" s="10" t="s">
+    <row r="60" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A60" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="F60" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G60" s="10" t="s">
+      <c r="G60" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H60" s="11">
         <v>0.51041666666666663</v>
       </c>
-      <c r="I60" s="14">
+      <c r="I60" s="11">
         <v>0.56597222222222221</v>
       </c>
-      <c r="J60" s="12">
+      <c r="J60" s="10">
         <v>45972</v>
       </c>
-      <c r="K60" s="12">
+      <c r="K60" s="10">
         <v>45979</v>
       </c>
-      <c r="L60" s="12">
+      <c r="L60" s="10">
         <v>45986</v>
       </c>
-      <c r="M60" s="12">
+      <c r="M60" s="10">
         <v>45993</v>
       </c>
-      <c r="N60" s="12">
+      <c r="N60" s="10">
         <v>46000</v>
       </c>
-      <c r="O60" s="8">
+      <c r="O60" s="7">
         <v>46014</v>
       </c>
-      <c r="P60" s="8">
+      <c r="P60" s="7">
         <v>46021</v>
       </c>
-      <c r="Q60" s="8">
+      <c r="Q60" s="7">
         <v>46028</v>
       </c>
-      <c r="R60" s="8">
+      <c r="R60" s="7">
         <v>46035</v>
       </c>
-      <c r="S60" s="8">
+      <c r="S60" s="7">
         <v>46042</v>
       </c>
-      <c r="T60" s="8">
+      <c r="T60" s="7">
         <v>46049</v>
       </c>
-      <c r="U60" s="8">
+      <c r="U60" s="7">
         <v>46056</v>
       </c>
-      <c r="V60" s="8">
+      <c r="V60" s="7">
         <v>46063</v>
       </c>
-      <c r="W60" s="8">
+      <c r="W60" s="7">
         <v>46070</v>
       </c>
-      <c r="X60" s="8">
+      <c r="X60" s="7">
         <v>46077</v>
       </c>
-      <c r="Y60" s="8">
+      <c r="Y60" s="7">
         <v>46091</v>
       </c>
-      <c r="Z60" s="12" cm="1">
+      <c r="Z60" s="10" cm="1">
         <f t="array" ref="Z60">LOOKUP(2,1/(A60:Y60&lt;&gt;""),A60:Y60)</f>
         <v>46091</v>
       </c>
-      <c r="AA60" s="10" t="str">
+      <c r="AA60" s="8" t="str">
         <f t="shared" si="0"/>
         <v>מרץ</v>
       </c>
     </row>
-    <row r="61" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A61" s="10" t="s">
+    <row r="61" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A61" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E61" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="F61" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G61" s="10" t="s">
+      <c r="G61" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H61" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I61" s="14">
+      <c r="I61" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J61" s="12">
+      <c r="J61" s="10">
         <v>45974</v>
       </c>
-      <c r="K61" s="12">
+      <c r="K61" s="10">
         <v>45988</v>
       </c>
-      <c r="L61" s="12">
+      <c r="L61" s="10">
         <v>46030</v>
       </c>
-      <c r="M61" s="8">
+      <c r="M61" s="7">
         <v>46044</v>
       </c>
-      <c r="N61" s="8">
+      <c r="N61" s="7">
         <v>46062</v>
       </c>
-      <c r="O61" s="8">
+      <c r="O61" s="7">
         <v>46083</v>
       </c>
-      <c r="P61" s="8">
+      <c r="P61" s="7">
         <v>46097</v>
       </c>
-      <c r="Q61" s="8">
+      <c r="Q61" s="7">
         <v>46125</v>
       </c>
-      <c r="R61" s="8">
+      <c r="R61" s="7">
         <v>46146</v>
       </c>
-      <c r="S61" s="8">
+      <c r="S61" s="7">
         <v>46160</v>
       </c>
-      <c r="T61" s="8">
+      <c r="T61" s="7">
         <v>46174</v>
       </c>
-      <c r="U61" s="8">
+      <c r="U61" s="7">
         <v>46188</v>
       </c>
-      <c r="V61" s="8"/>
-      <c r="W61" s="8"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
       <c r="X61" s="4"/>
       <c r="Y61" s="4"/>
-      <c r="Z61" s="12" cm="1">
+      <c r="Z61" s="10" cm="1">
         <f t="array" ref="Z61">LOOKUP(2,1/(A61:Y61&lt;&gt;""),A61:Y61)</f>
         <v>46188</v>
       </c>
-      <c r="AA61" s="10" t="str">
+      <c r="AA61" s="8" t="str">
         <f t="shared" si="0"/>
         <v>יוני</v>
       </c>
     </row>
-    <row r="62" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A62" s="10" t="s">
+    <row r="62" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A62" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E62" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="F62" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G62" s="10" t="s">
+      <c r="G62" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H62" s="14">
+      <c r="H62" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I62" s="14">
+      <c r="I62" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J62" s="12">
+      <c r="J62" s="10">
         <v>45974</v>
       </c>
-      <c r="K62" s="12">
+      <c r="K62" s="10">
         <v>45988</v>
       </c>
-      <c r="L62" s="12">
+      <c r="L62" s="10">
         <v>46030</v>
       </c>
-      <c r="M62" s="8">
+      <c r="M62" s="7">
         <v>46044</v>
       </c>
-      <c r="N62" s="8">
+      <c r="N62" s="7">
         <v>46076</v>
       </c>
-      <c r="O62" s="8">
+      <c r="O62" s="7">
         <v>46090</v>
       </c>
-      <c r="P62" s="8">
+      <c r="P62" s="7">
         <v>46104</v>
       </c>
-      <c r="Q62" s="8">
+      <c r="Q62" s="7">
         <v>46139</v>
       </c>
-      <c r="R62" s="8">
+      <c r="R62" s="7">
         <v>46153</v>
       </c>
-      <c r="S62" s="8">
+      <c r="S62" s="7">
         <v>46167</v>
       </c>
-      <c r="T62" s="8">
+      <c r="T62" s="7">
         <v>46181</v>
       </c>
-      <c r="U62" s="8">
+      <c r="U62" s="7">
         <v>46195</v>
       </c>
-      <c r="V62" s="8"/>
-      <c r="W62" s="8"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
       <c r="X62" s="4"/>
       <c r="Y62" s="4"/>
-      <c r="Z62" s="12" cm="1">
+      <c r="Z62" s="10" cm="1">
         <f t="array" ref="Z62">LOOKUP(2,1/(A62:Y62&lt;&gt;""),A62:Y62)</f>
         <v>46195</v>
       </c>
-      <c r="AA62" s="10" t="str">
+      <c r="AA62" s="8" t="str">
         <f t="shared" si="0"/>
         <v>יוני</v>
       </c>
     </row>
-    <row r="63" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A63" s="10" t="s">
+    <row r="63" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A63" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E63" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F63" s="10" t="s">
+      <c r="F63" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G63" s="10" t="s">
+      <c r="G63" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H63" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I63" s="14">
+      <c r="I63" s="11">
         <v>0.375</v>
       </c>
-      <c r="J63" s="12">
+      <c r="J63" s="10">
         <v>45914</v>
       </c>
-      <c r="K63" s="12">
+      <c r="K63" s="10">
         <v>45921</v>
       </c>
-      <c r="L63" s="12">
+      <c r="L63" s="10">
         <v>45984</v>
       </c>
-      <c r="M63" s="12">
+      <c r="M63" s="10">
         <v>45991</v>
       </c>
-      <c r="N63" s="12">
+      <c r="N63" s="10">
         <v>45998</v>
       </c>
-      <c r="O63" s="8">
+      <c r="O63" s="7">
         <v>46005</v>
       </c>
-      <c r="P63" s="8">
+      <c r="P63" s="7">
         <v>46019</v>
       </c>
-      <c r="Q63" s="8">
+      <c r="Q63" s="7">
         <v>46026</v>
       </c>
-      <c r="R63" s="8">
+      <c r="R63" s="7">
         <v>46033</v>
       </c>
-      <c r="S63" s="8">
+      <c r="S63" s="7">
         <v>46040</v>
       </c>
-      <c r="T63" s="8">
+      <c r="T63" s="7">
         <v>46047</v>
       </c>
-      <c r="U63" s="8">
+      <c r="U63" s="7">
         <v>46054</v>
       </c>
-      <c r="V63" s="8">
+      <c r="V63" s="7">
         <v>46061</v>
       </c>
-      <c r="W63" s="8">
+      <c r="W63" s="7">
         <v>46068</v>
       </c>
-      <c r="X63" s="8">
+      <c r="X63" s="7">
         <v>46075</v>
       </c>
-      <c r="Y63" s="8">
+      <c r="Y63" s="7">
         <v>46082</v>
       </c>
-      <c r="Z63" s="12" cm="1">
+      <c r="Z63" s="10" cm="1">
         <f t="array" ref="Z63">LOOKUP(2,1/(A63:Y63&lt;&gt;""),A63:Y63)</f>
         <v>46082</v>
       </c>
-      <c r="AA63" s="10" t="str">
+      <c r="AA63" s="8" t="str">
         <f t="shared" si="0"/>
         <v>מרץ</v>
       </c>
     </row>
-    <row r="64" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A64" s="10" t="s">
+    <row r="64" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A64" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E64" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F64" s="10" t="s">
+      <c r="F64" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G64" s="10" t="s">
+      <c r="G64" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H64" s="11">
         <v>0.375</v>
       </c>
-      <c r="I64" s="14">
+      <c r="I64" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J64" s="12">
+      <c r="J64" s="10">
         <v>45914</v>
       </c>
-      <c r="K64" s="12">
+      <c r="K64" s="10">
         <v>45921</v>
       </c>
-      <c r="L64" s="12">
+      <c r="L64" s="10">
         <v>45984</v>
       </c>
-      <c r="M64" s="12">
+      <c r="M64" s="10">
         <v>45991</v>
       </c>
-      <c r="N64" s="12">
+      <c r="N64" s="10">
         <v>45998</v>
       </c>
-      <c r="O64" s="8">
+      <c r="O64" s="7">
         <v>46005</v>
       </c>
-      <c r="P64" s="8">
+      <c r="P64" s="7">
         <v>46019</v>
       </c>
-      <c r="Q64" s="8">
+      <c r="Q64" s="7">
         <v>46026</v>
       </c>
-      <c r="R64" s="8">
+      <c r="R64" s="7">
         <v>46033</v>
       </c>
-      <c r="S64" s="8">
+      <c r="S64" s="7">
         <v>46040</v>
       </c>
-      <c r="T64" s="8">
+      <c r="T64" s="7">
         <v>46047</v>
       </c>
-      <c r="U64" s="8">
+      <c r="U64" s="7">
         <v>46054</v>
       </c>
-      <c r="V64" s="8">
+      <c r="V64" s="7">
         <v>46061</v>
       </c>
-      <c r="W64" s="8">
+      <c r="W64" s="7">
         <v>46068</v>
       </c>
-      <c r="X64" s="8">
+      <c r="X64" s="7">
         <v>46075</v>
       </c>
-      <c r="Y64" s="8">
+      <c r="Y64" s="7">
         <v>46082</v>
       </c>
-      <c r="Z64" s="12" cm="1">
+      <c r="Z64" s="10" cm="1">
         <f t="array" ref="Z64">LOOKUP(2,1/(A64:Y64&lt;&gt;""),A64:Y64)</f>
         <v>46082</v>
       </c>
-      <c r="AA64" s="10" t="str">
+      <c r="AA64" s="8" t="str">
         <f t="shared" si="0"/>
         <v>מרץ</v>
       </c>
     </row>
-    <row r="65" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A65" s="10" t="s">
+    <row r="65" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A65" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="E65" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F65" s="10" t="s">
+      <c r="F65" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G65" s="10" t="s">
+      <c r="G65" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H65" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I65" s="14">
+      <c r="I65" s="11">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J65" s="12">
+      <c r="J65" s="10">
         <v>45914</v>
       </c>
-      <c r="K65" s="12">
+      <c r="K65" s="10">
         <v>45921</v>
       </c>
-      <c r="L65" s="12">
+      <c r="L65" s="10">
         <v>45984</v>
       </c>
-      <c r="M65" s="12">
+      <c r="M65" s="10">
         <v>45991</v>
       </c>
-      <c r="N65" s="12">
+      <c r="N65" s="10">
         <v>45998</v>
       </c>
-      <c r="O65" s="8">
+      <c r="O65" s="7">
         <v>46005</v>
       </c>
-      <c r="P65" s="8">
+      <c r="P65" s="7">
         <v>46019</v>
       </c>
-      <c r="Q65" s="8">
+      <c r="Q65" s="7">
         <v>46026</v>
       </c>
-      <c r="R65" s="8">
+      <c r="R65" s="7">
         <v>46033</v>
       </c>
-      <c r="S65" s="8">
+      <c r="S65" s="7">
         <v>46040</v>
       </c>
-      <c r="T65" s="8">
+      <c r="T65" s="7">
         <v>46047</v>
       </c>
-      <c r="U65" s="8">
+      <c r="U65" s="7">
         <v>46054</v>
       </c>
-      <c r="V65" s="8">
+      <c r="V65" s="7">
         <v>46061</v>
       </c>
-      <c r="W65" s="8">
+      <c r="W65" s="7">
         <v>46068</v>
       </c>
-      <c r="X65" s="8">
+      <c r="X65" s="7">
         <v>46075</v>
       </c>
-      <c r="Y65" s="8">
+      <c r="Y65" s="7">
         <v>46082</v>
       </c>
-      <c r="Z65" s="12" cm="1">
+      <c r="Z65" s="10" cm="1">
         <f t="array" ref="Z65">LOOKUP(2,1/(A65:Y65&lt;&gt;""),A65:Y65)</f>
         <v>46082</v>
       </c>
-      <c r="AA65" s="10" t="str">
+      <c r="AA65" s="8" t="str">
         <f t="shared" si="0"/>
         <v>מרץ</v>
       </c>
     </row>
-    <row r="66" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A66" s="10" t="s">
+    <row r="66" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A66" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F66" s="10" t="s">
+      <c r="F66" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G66" s="10" t="s">
+      <c r="G66" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H66" s="14">
+      <c r="H66" s="11">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I66" s="14">
+      <c r="I66" s="11">
         <v>0.60416666666666663</v>
       </c>
-      <c r="J66" s="12">
+      <c r="J66" s="10">
         <v>46071</v>
       </c>
-      <c r="K66" s="12">
+      <c r="K66" s="10">
         <v>46078</v>
       </c>
-      <c r="L66" s="12">
+      <c r="L66" s="10">
         <v>46092</v>
       </c>
-      <c r="M66" s="12">
+      <c r="M66" s="10">
         <v>46099</v>
       </c>
-      <c r="N66" s="12">
+      <c r="N66" s="10">
         <v>46127</v>
       </c>
-      <c r="O66" s="8">
+      <c r="O66" s="7">
         <v>46141</v>
       </c>
-      <c r="P66" s="8">
+      <c r="P66" s="7">
         <v>46148</v>
       </c>
-      <c r="Q66" s="8">
+      <c r="Q66" s="7">
         <v>46155</v>
       </c>
-      <c r="R66" s="8">
+      <c r="R66" s="7">
         <v>46162</v>
       </c>
-      <c r="S66" s="8">
+      <c r="S66" s="7">
         <v>46169</v>
       </c>
-      <c r="T66" s="8">
+      <c r="T66" s="7">
         <v>46176</v>
       </c>
-      <c r="U66" s="8">
+      <c r="U66" s="7">
         <v>46183</v>
       </c>
-      <c r="V66" s="8">
+      <c r="V66" s="7">
         <v>46190</v>
       </c>
-      <c r="W66" s="8">
+      <c r="W66" s="7">
         <v>46197</v>
       </c>
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
-      <c r="Z66" s="12" cm="1">
+      <c r="Z66" s="10" cm="1">
         <f t="array" ref="Z66">LOOKUP(2,1/(A66:Y66&lt;&gt;""),A66:Y66)</f>
         <v>46197</v>
       </c>
-      <c r="AA66" s="10" t="str">
+      <c r="AA66" s="8" t="str">
         <f t="shared" si="0"/>
         <v>יוני</v>
       </c>
     </row>
-    <row r="67" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A67" s="10" t="s">
+    <row r="67" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A67" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="E67" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F67" s="10" t="s">
+      <c r="F67" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G67" s="10" t="s">
+      <c r="G67" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H67" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I67" s="14">
+      <c r="I67" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J67" s="12">
+      <c r="J67" s="10">
         <v>45951</v>
       </c>
-      <c r="K67" s="12">
+      <c r="K67" s="10">
         <v>45972</v>
       </c>
-      <c r="L67" s="12">
+      <c r="L67" s="10">
         <v>45993</v>
       </c>
-      <c r="M67" s="12">
+      <c r="M67" s="10">
         <v>46014</v>
       </c>
-      <c r="N67" s="12">
+      <c r="N67" s="10">
         <v>46035</v>
       </c>
-      <c r="O67" s="8">
+      <c r="O67" s="7">
         <v>46056</v>
       </c>
-      <c r="P67" s="8">
+      <c r="P67" s="7">
         <v>46077</v>
       </c>
-      <c r="Q67" s="8">
+      <c r="Q67" s="7">
         <v>46098</v>
       </c>
-      <c r="R67" s="8">
+      <c r="R67" s="7">
         <v>46140</v>
       </c>
-      <c r="S67" s="8">
+      <c r="S67" s="7">
         <v>46161</v>
       </c>
       <c r="T67" s="4"/>
@@ -5010,71 +5045,71 @@
       <c r="W67" s="4"/>
       <c r="X67" s="4"/>
       <c r="Y67" s="4"/>
-      <c r="Z67" s="12" cm="1">
+      <c r="Z67" s="10" cm="1">
         <f t="array" ref="Z67">LOOKUP(2,1/(A67:Y67&lt;&gt;""),A67:Y67)</f>
         <v>46161</v>
       </c>
-      <c r="AA67" s="10" t="str">
+      <c r="AA67" s="8" t="str">
         <f t="shared" ref="AA67:AA90" si="1">TEXT(Z67,"[$-he-IL]mmmm")</f>
         <v>מאי</v>
       </c>
     </row>
-    <row r="68" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A68" s="10" t="s">
+    <row r="68" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A68" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C68" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E68" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F68" s="10" t="s">
+      <c r="F68" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G68" s="10" t="s">
+      <c r="G68" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H68" s="14">
+      <c r="H68" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I68" s="14">
+      <c r="I68" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J68" s="12">
+      <c r="J68" s="10">
         <v>45952</v>
       </c>
-      <c r="K68" s="12">
+      <c r="K68" s="10">
         <v>45973</v>
       </c>
-      <c r="L68" s="12">
+      <c r="L68" s="10">
         <v>45994</v>
       </c>
-      <c r="M68" s="12">
+      <c r="M68" s="10">
         <v>46015</v>
       </c>
-      <c r="N68" s="12">
+      <c r="N68" s="10">
         <v>46036</v>
       </c>
-      <c r="O68" s="8">
+      <c r="O68" s="7">
         <v>46057</v>
       </c>
-      <c r="P68" s="8">
+      <c r="P68" s="7">
         <v>46078</v>
       </c>
-      <c r="Q68" s="8">
+      <c r="Q68" s="7">
         <v>46099</v>
       </c>
-      <c r="R68" s="8">
+      <c r="R68" s="7">
         <v>46141</v>
       </c>
-      <c r="S68" s="8">
+      <c r="S68" s="7">
         <v>46162</v>
       </c>
       <c r="T68" s="4"/>
@@ -5083,71 +5118,71 @@
       <c r="W68" s="4"/>
       <c r="X68" s="4"/>
       <c r="Y68" s="4"/>
-      <c r="Z68" s="12" cm="1">
+      <c r="Z68" s="10" cm="1">
         <f t="array" ref="Z68">LOOKUP(2,1/(A68:Y68&lt;&gt;""),A68:Y68)</f>
         <v>46162</v>
       </c>
-      <c r="AA68" s="10" t="str">
+      <c r="AA68" s="8" t="str">
         <f t="shared" si="1"/>
         <v>מאי</v>
       </c>
     </row>
-    <row r="69" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A69" s="10" t="s">
+    <row r="69" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A69" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C69" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E69" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F69" s="10" t="s">
+      <c r="F69" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G69" s="10" t="s">
+      <c r="G69" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H69" s="14">
+      <c r="H69" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I69" s="14">
+      <c r="I69" s="11">
         <v>0.5</v>
       </c>
-      <c r="J69" s="12">
+      <c r="J69" s="10">
         <v>45952</v>
       </c>
-      <c r="K69" s="12">
+      <c r="K69" s="10">
         <v>45973</v>
       </c>
-      <c r="L69" s="12">
+      <c r="L69" s="10">
         <v>45994</v>
       </c>
-      <c r="M69" s="12">
+      <c r="M69" s="10">
         <v>46015</v>
       </c>
-      <c r="N69" s="12">
+      <c r="N69" s="10">
         <v>46036</v>
       </c>
-      <c r="O69" s="8">
+      <c r="O69" s="7">
         <v>46057</v>
       </c>
-      <c r="P69" s="8">
+      <c r="P69" s="7">
         <v>46078</v>
       </c>
-      <c r="Q69" s="8">
+      <c r="Q69" s="7">
         <v>46099</v>
       </c>
-      <c r="R69" s="8">
+      <c r="R69" s="7">
         <v>46141</v>
       </c>
-      <c r="S69" s="8">
+      <c r="S69" s="7">
         <v>46162</v>
       </c>
       <c r="T69" s="4"/>
@@ -5156,155 +5191,155 @@
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
       <c r="Y69" s="4"/>
-      <c r="Z69" s="12" cm="1">
+      <c r="Z69" s="10" cm="1">
         <f t="array" ref="Z69">LOOKUP(2,1/(A69:Y69&lt;&gt;""),A69:Y69)</f>
         <v>46162</v>
       </c>
-      <c r="AA69" s="10" t="str">
+      <c r="AA69" s="8" t="str">
         <f t="shared" si="1"/>
         <v>מאי</v>
       </c>
     </row>
-    <row r="70" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A70" s="10" t="s">
+    <row r="70" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A70" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E70" s="10" t="s">
+      <c r="E70" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F70" s="10" t="s">
+      <c r="F70" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G70" s="10" t="s">
+      <c r="G70" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H70" s="11">
         <v>0.34375</v>
       </c>
-      <c r="I70" s="14">
+      <c r="I70" s="11">
         <v>0.40625</v>
       </c>
-      <c r="J70" s="12">
+      <c r="J70" s="10">
         <v>45986</v>
       </c>
-      <c r="K70" s="12">
+      <c r="K70" s="10">
         <v>45993</v>
       </c>
-      <c r="L70" s="12">
+      <c r="L70" s="10">
         <v>46000</v>
       </c>
-      <c r="M70" s="12">
+      <c r="M70" s="10">
         <v>46014</v>
       </c>
-      <c r="N70" s="12">
+      <c r="N70" s="10">
         <v>46021</v>
       </c>
-      <c r="O70" s="8">
+      <c r="O70" s="7">
         <v>46028</v>
       </c>
-      <c r="P70" s="8">
+      <c r="P70" s="7">
         <v>46035</v>
       </c>
-      <c r="Q70" s="8">
+      <c r="Q70" s="7">
         <v>46042</v>
       </c>
-      <c r="R70" s="8">
+      <c r="R70" s="7">
         <v>46049</v>
       </c>
-      <c r="S70" s="8">
+      <c r="S70" s="7">
         <v>46056</v>
       </c>
-      <c r="T70" s="8">
+      <c r="T70" s="7">
         <v>46063</v>
       </c>
-      <c r="U70" s="8">
+      <c r="U70" s="7">
         <v>46070</v>
       </c>
-      <c r="V70" s="8">
+      <c r="V70" s="7">
         <v>46077</v>
       </c>
-      <c r="W70" s="8">
+      <c r="W70" s="7">
         <v>46091</v>
       </c>
       <c r="X70" s="4"/>
       <c r="Y70" s="4"/>
-      <c r="Z70" s="12" cm="1">
+      <c r="Z70" s="10" cm="1">
         <f t="array" ref="Z70">LOOKUP(2,1/(A70:Y70&lt;&gt;""),A70:Y70)</f>
         <v>46091</v>
       </c>
-      <c r="AA70" s="10" t="str">
+      <c r="AA70" s="8" t="str">
         <f t="shared" si="1"/>
         <v>מרץ</v>
       </c>
     </row>
-    <row r="71" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A71" s="10" t="s">
+    <row r="71" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A71" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="E71" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F71" s="10" t="s">
+      <c r="F71" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G71" s="10" t="s">
+      <c r="G71" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H71" s="14">
+      <c r="H71" s="11">
         <v>0.42708333333333331</v>
       </c>
-      <c r="I71" s="14">
+      <c r="I71" s="11">
         <v>0.48958333333333331</v>
       </c>
-      <c r="J71" s="12">
+      <c r="J71" s="10">
         <v>45986</v>
       </c>
-      <c r="K71" s="12">
+      <c r="K71" s="10">
         <v>46000</v>
       </c>
-      <c r="L71" s="12">
+      <c r="L71" s="10">
         <v>46014</v>
       </c>
-      <c r="M71" s="12">
+      <c r="M71" s="10">
         <v>46016</v>
       </c>
-      <c r="N71" s="12">
+      <c r="N71" s="10">
         <v>46021</v>
       </c>
-      <c r="O71" s="8">
+      <c r="O71" s="7">
         <v>46042</v>
       </c>
-      <c r="P71" s="8">
+      <c r="P71" s="7">
         <v>46049</v>
       </c>
-      <c r="Q71" s="8">
+      <c r="Q71" s="7">
         <v>46063</v>
       </c>
-      <c r="R71" s="8">
+      <c r="R71" s="7">
         <v>46077</v>
       </c>
-      <c r="S71" s="8">
+      <c r="S71" s="7">
         <v>46091</v>
       </c>
-      <c r="T71" s="8">
+      <c r="T71" s="7">
         <v>46105</v>
       </c>
       <c r="U71" s="4"/>
@@ -5312,71 +5347,71 @@
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
       <c r="Y71" s="4"/>
-      <c r="Z71" s="12" cm="1">
+      <c r="Z71" s="10" cm="1">
         <f t="array" ref="Z71">LOOKUP(2,1/(A71:Y71&lt;&gt;""),A71:Y71)</f>
         <v>46105</v>
       </c>
-      <c r="AA71" s="10" t="str">
+      <c r="AA71" s="8" t="str">
         <f t="shared" si="1"/>
         <v>מרץ</v>
       </c>
     </row>
-    <row r="72" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A72" s="10" t="s">
+    <row r="72" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A72" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E72" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F72" s="10" t="s">
+      <c r="F72" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G72" s="10" t="s">
+      <c r="G72" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H72" s="14">
+      <c r="H72" s="11">
         <v>0.4375</v>
       </c>
-      <c r="I72" s="14">
+      <c r="I72" s="11">
         <v>0.5</v>
       </c>
-      <c r="J72" s="12">
+      <c r="J72" s="10">
         <v>46016</v>
       </c>
-      <c r="K72" s="12">
+      <c r="K72" s="10">
         <v>46023</v>
       </c>
-      <c r="L72" s="12">
+      <c r="L72" s="10">
         <v>46030</v>
       </c>
-      <c r="M72" s="12">
+      <c r="M72" s="10">
         <v>46037</v>
       </c>
-      <c r="N72" s="12">
+      <c r="N72" s="10">
         <v>46044</v>
       </c>
-      <c r="O72" s="8">
+      <c r="O72" s="7">
         <v>46051</v>
       </c>
-      <c r="P72" s="8">
+      <c r="P72" s="7">
         <v>46058</v>
       </c>
-      <c r="Q72" s="8">
+      <c r="Q72" s="7">
         <v>46065</v>
       </c>
-      <c r="R72" s="8">
+      <c r="R72" s="7">
         <v>46072</v>
       </c>
-      <c r="S72" s="8">
+      <c r="S72" s="7">
         <v>46079</v>
       </c>
       <c r="T72" s="4"/>
@@ -5385,232 +5420,232 @@
       <c r="W72" s="4"/>
       <c r="X72" s="4"/>
       <c r="Y72" s="4"/>
-      <c r="Z72" s="12" cm="1">
+      <c r="Z72" s="10" cm="1">
         <f t="array" ref="Z72">LOOKUP(2,1/(A72:Y72&lt;&gt;""),A72:Y72)</f>
         <v>46079</v>
       </c>
-      <c r="AA72" s="10" t="str">
+      <c r="AA72" s="8" t="str">
         <f t="shared" si="1"/>
         <v>פברואר</v>
       </c>
     </row>
-    <row r="73" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A73" s="10" t="s">
+    <row r="73" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A73" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D73" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E73" s="10" t="s">
+      <c r="E73" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F73" s="10" t="s">
+      <c r="F73" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G73" s="10" t="s">
+      <c r="G73" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H73" s="14">
+      <c r="H73" s="11">
         <v>0.35416666666666669</v>
       </c>
-      <c r="I73" s="14">
+      <c r="I73" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J73" s="12">
+      <c r="J73" s="10">
         <v>45991</v>
       </c>
-      <c r="K73" s="12">
+      <c r="K73" s="10">
         <v>45998</v>
       </c>
-      <c r="L73" s="12">
+      <c r="L73" s="10">
         <v>46005</v>
       </c>
-      <c r="M73" s="12">
+      <c r="M73" s="10">
         <v>46019</v>
       </c>
-      <c r="N73" s="12">
+      <c r="N73" s="10">
         <v>46026</v>
       </c>
-      <c r="O73" s="8">
+      <c r="O73" s="7">
         <v>46033</v>
       </c>
-      <c r="P73" s="8">
+      <c r="P73" s="7">
         <v>46040</v>
       </c>
-      <c r="Q73" s="8">
+      <c r="Q73" s="7">
         <v>46047</v>
       </c>
-      <c r="R73" s="8">
+      <c r="R73" s="7">
         <v>46054</v>
       </c>
-      <c r="S73" s="8">
+      <c r="S73" s="7">
         <v>46061</v>
       </c>
-      <c r="T73" s="8">
+      <c r="T73" s="7">
         <v>46068</v>
       </c>
-      <c r="U73" s="8">
+      <c r="U73" s="7">
         <v>46075</v>
       </c>
-      <c r="V73" s="8">
+      <c r="V73" s="7">
         <v>46082</v>
       </c>
       <c r="W73" s="4"/>
       <c r="X73" s="4"/>
       <c r="Y73" s="4"/>
-      <c r="Z73" s="12" cm="1">
+      <c r="Z73" s="10" cm="1">
         <f t="array" ref="Z73">LOOKUP(2,1/(A73:Y73&lt;&gt;""),A73:Y73)</f>
         <v>46082</v>
       </c>
-      <c r="AA73" s="10" t="str">
+      <c r="AA73" s="8" t="str">
         <f t="shared" si="1"/>
         <v>מרץ</v>
       </c>
     </row>
-    <row r="74" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A74" s="10" t="s">
+    <row r="74" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A74" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="E74" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F74" s="10" t="s">
+      <c r="F74" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G74" s="10" t="s">
+      <c r="G74" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H74" s="14">
+      <c r="H74" s="11">
         <v>0.4375</v>
       </c>
-      <c r="I74" s="14">
+      <c r="I74" s="11">
         <v>0.5</v>
       </c>
-      <c r="J74" s="12">
+      <c r="J74" s="10">
         <v>45991</v>
       </c>
-      <c r="K74" s="12">
+      <c r="K74" s="10">
         <v>45998</v>
       </c>
-      <c r="L74" s="12">
+      <c r="L74" s="10">
         <v>46005</v>
       </c>
-      <c r="M74" s="12">
+      <c r="M74" s="10">
         <v>46019</v>
       </c>
-      <c r="N74" s="12">
+      <c r="N74" s="10">
         <v>46026</v>
       </c>
-      <c r="O74" s="8">
+      <c r="O74" s="7">
         <v>46033</v>
       </c>
-      <c r="P74" s="8">
+      <c r="P74" s="7">
         <v>46040</v>
       </c>
-      <c r="Q74" s="8">
+      <c r="Q74" s="7">
         <v>46047</v>
       </c>
-      <c r="R74" s="8">
+      <c r="R74" s="7">
         <v>46054</v>
       </c>
-      <c r="S74" s="8">
+      <c r="S74" s="7">
         <v>46061</v>
       </c>
-      <c r="T74" s="8">
+      <c r="T74" s="7">
         <v>46068</v>
       </c>
-      <c r="U74" s="8">
+      <c r="U74" s="7">
         <v>46075</v>
       </c>
-      <c r="V74" s="8">
+      <c r="V74" s="7">
         <v>46082</v>
       </c>
       <c r="W74" s="4"/>
       <c r="X74" s="4"/>
       <c r="Y74" s="4"/>
-      <c r="Z74" s="12" cm="1">
+      <c r="Z74" s="10" cm="1">
         <f t="array" ref="Z74">LOOKUP(2,1/(A74:Y74&lt;&gt;""),A74:Y74)</f>
         <v>46082</v>
       </c>
-      <c r="AA74" s="10" t="str">
+      <c r="AA74" s="8" t="str">
         <f t="shared" si="1"/>
         <v>מרץ</v>
       </c>
     </row>
-    <row r="75" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A75" s="10" t="s">
+    <row r="75" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A75" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E75" s="10" t="s">
+      <c r="E75" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F75" s="10" t="s">
+      <c r="F75" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="G75" s="10" t="s">
+      <c r="G75" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H75" s="14">
+      <c r="H75" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I75" s="14">
+      <c r="I75" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J75" s="12">
+      <c r="J75" s="10">
         <v>46022</v>
       </c>
-      <c r="K75" s="12">
+      <c r="K75" s="10">
         <v>46029</v>
       </c>
-      <c r="L75" s="12">
+      <c r="L75" s="10">
         <v>46036</v>
       </c>
-      <c r="M75" s="12">
+      <c r="M75" s="10">
         <v>46043</v>
       </c>
-      <c r="N75" s="12">
+      <c r="N75" s="10">
         <v>46050</v>
       </c>
-      <c r="O75" s="8">
+      <c r="O75" s="7">
         <v>46057</v>
       </c>
-      <c r="P75" s="8">
+      <c r="P75" s="7">
         <v>46064</v>
       </c>
-      <c r="Q75" s="8">
+      <c r="Q75" s="7">
         <v>46071</v>
       </c>
-      <c r="R75" s="8">
+      <c r="R75" s="7">
         <v>46078</v>
       </c>
-      <c r="S75" s="8">
+      <c r="S75" s="7">
         <v>46092</v>
       </c>
-      <c r="T75" s="8">
+      <c r="T75" s="7">
         <v>46099</v>
       </c>
       <c r="U75" s="4"/>
@@ -5618,74 +5653,74 @@
       <c r="W75" s="4"/>
       <c r="X75" s="4"/>
       <c r="Y75" s="4"/>
-      <c r="Z75" s="12" cm="1">
+      <c r="Z75" s="10" cm="1">
         <f t="array" ref="Z75">LOOKUP(2,1/(A75:Y75&lt;&gt;""),A75:Y75)</f>
         <v>46099</v>
       </c>
-      <c r="AA75" s="10" t="str">
+      <c r="AA75" s="8" t="str">
         <f t="shared" si="1"/>
         <v>מרץ</v>
       </c>
     </row>
-    <row r="76" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A76" s="10" t="s">
+    <row r="76" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A76" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="D76" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E76" s="10" t="s">
+      <c r="E76" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F76" s="10" t="s">
+      <c r="F76" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="G76" s="10" t="s">
+      <c r="G76" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H76" s="14">
+      <c r="H76" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I76" s="14">
+      <c r="I76" s="11">
         <v>0.5</v>
       </c>
-      <c r="J76" s="12">
+      <c r="J76" s="10">
         <v>46022</v>
       </c>
-      <c r="K76" s="12">
+      <c r="K76" s="10">
         <v>46029</v>
       </c>
-      <c r="L76" s="12">
+      <c r="L76" s="10">
         <v>46036</v>
       </c>
-      <c r="M76" s="12">
+      <c r="M76" s="10">
         <v>46043</v>
       </c>
-      <c r="N76" s="12">
+      <c r="N76" s="10">
         <v>46050</v>
       </c>
-      <c r="O76" s="8">
+      <c r="O76" s="7">
         <v>46057</v>
       </c>
-      <c r="P76" s="8">
+      <c r="P76" s="7">
         <v>46064</v>
       </c>
-      <c r="Q76" s="8">
+      <c r="Q76" s="7">
         <v>46071</v>
       </c>
-      <c r="R76" s="8">
+      <c r="R76" s="7">
         <v>46078</v>
       </c>
-      <c r="S76" s="8">
+      <c r="S76" s="7">
         <v>46092</v>
       </c>
-      <c r="T76" s="8">
+      <c r="T76" s="7">
         <v>46099</v>
       </c>
       <c r="U76" s="4"/>
@@ -5693,65 +5728,65 @@
       <c r="W76" s="4"/>
       <c r="X76" s="4"/>
       <c r="Y76" s="4"/>
-      <c r="Z76" s="12" cm="1">
+      <c r="Z76" s="10" cm="1">
         <f t="array" ref="Z76">LOOKUP(2,1/(A76:Y76&lt;&gt;""),A76:Y76)</f>
         <v>46099</v>
       </c>
-      <c r="AA76" s="10" t="str">
+      <c r="AA76" s="8" t="str">
         <f t="shared" si="1"/>
         <v>מרץ</v>
       </c>
     </row>
-    <row r="77" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A77" s="10" t="s">
+    <row r="77" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A77" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="E77" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F77" s="10" t="s">
+      <c r="F77" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="G77" s="10" t="s">
+      <c r="G77" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H77" s="14">
+      <c r="H77" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I77" s="14">
+      <c r="I77" s="11">
         <v>0.47916666666666669</v>
       </c>
-      <c r="J77" s="12">
+      <c r="J77" s="10">
         <v>46079</v>
       </c>
-      <c r="K77" s="12">
+      <c r="K77" s="10">
         <v>46086</v>
       </c>
-      <c r="L77" s="12">
+      <c r="L77" s="10">
         <v>46093</v>
       </c>
-      <c r="M77" s="12">
+      <c r="M77" s="10">
         <v>46100</v>
       </c>
-      <c r="N77" s="12">
+      <c r="N77" s="10">
         <v>46121</v>
       </c>
-      <c r="O77" s="8">
+      <c r="O77" s="7">
         <v>46128</v>
       </c>
-      <c r="P77" s="8">
+      <c r="P77" s="7">
         <v>46135</v>
       </c>
-      <c r="Q77" s="8">
+      <c r="Q77" s="7">
         <v>46156</v>
       </c>
       <c r="R77" s="4"/>
@@ -5762,65 +5797,65 @@
       <c r="W77" s="4"/>
       <c r="X77" s="4"/>
       <c r="Y77" s="4"/>
-      <c r="Z77" s="12" cm="1">
+      <c r="Z77" s="10" cm="1">
         <f t="array" ref="Z77">LOOKUP(2,1/(A77:Y77&lt;&gt;""),A77:Y77)</f>
         <v>46156</v>
       </c>
-      <c r="AA77" s="10" t="str">
+      <c r="AA77" s="8" t="str">
         <f t="shared" si="1"/>
         <v>מאי</v>
       </c>
     </row>
-    <row r="78" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A78" s="10" t="s">
+    <row r="78" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A78" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C78" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D78" s="10" t="s">
+      <c r="D78" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E78" s="10" t="s">
+      <c r="E78" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F78" s="10" t="s">
+      <c r="F78" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="G78" s="10" t="s">
+      <c r="G78" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H78" s="14">
+      <c r="H78" s="11">
         <v>0.5</v>
       </c>
-      <c r="I78" s="14">
+      <c r="I78" s="11">
         <v>0.5625</v>
       </c>
-      <c r="J78" s="12">
+      <c r="J78" s="10">
         <v>46079</v>
       </c>
-      <c r="K78" s="12">
+      <c r="K78" s="10">
         <v>46086</v>
       </c>
-      <c r="L78" s="12">
+      <c r="L78" s="10">
         <v>46093</v>
       </c>
-      <c r="M78" s="12">
+      <c r="M78" s="10">
         <v>46100</v>
       </c>
-      <c r="N78" s="12">
+      <c r="N78" s="10">
         <v>46121</v>
       </c>
-      <c r="O78" s="8">
+      <c r="O78" s="7">
         <v>46128</v>
       </c>
-      <c r="P78" s="8">
+      <c r="P78" s="7">
         <v>46135</v>
       </c>
-      <c r="Q78" s="8">
+      <c r="Q78" s="7">
         <v>46156</v>
       </c>
       <c r="R78" s="4"/>
@@ -5831,65 +5866,65 @@
       <c r="W78" s="4"/>
       <c r="X78" s="4"/>
       <c r="Y78" s="4"/>
-      <c r="Z78" s="12" cm="1">
+      <c r="Z78" s="10" cm="1">
         <f t="array" ref="Z78">LOOKUP(2,1/(A78:Y78&lt;&gt;""),A78:Y78)</f>
         <v>46156</v>
       </c>
-      <c r="AA78" s="10" t="str">
+      <c r="AA78" s="8" t="str">
         <f t="shared" si="1"/>
         <v>מאי</v>
       </c>
     </row>
-    <row r="79" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A79" s="10" t="s">
+    <row r="79" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A79" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E79" s="10" t="s">
+      <c r="E79" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F79" s="10" t="s">
+      <c r="F79" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="G79" s="10" t="s">
+      <c r="G79" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H79" s="14">
+      <c r="H79" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I79" s="14">
+      <c r="I79" s="11">
         <v>0.39583333333333331</v>
       </c>
-      <c r="J79" s="12">
+      <c r="J79" s="10">
         <v>46079</v>
       </c>
-      <c r="K79" s="12">
+      <c r="K79" s="10">
         <v>46086</v>
       </c>
-      <c r="L79" s="12">
+      <c r="L79" s="10">
         <v>46093</v>
       </c>
-      <c r="M79" s="12">
+      <c r="M79" s="10">
         <v>46100</v>
       </c>
-      <c r="N79" s="12">
+      <c r="N79" s="10">
         <v>46121</v>
       </c>
-      <c r="O79" s="8">
+      <c r="O79" s="7">
         <v>46128</v>
       </c>
-      <c r="P79" s="8">
+      <c r="P79" s="7">
         <v>46135</v>
       </c>
-      <c r="Q79" s="8">
+      <c r="Q79" s="7">
         <v>46156</v>
       </c>
       <c r="R79" s="4"/>
@@ -5900,65 +5935,65 @@
       <c r="W79" s="4"/>
       <c r="X79" s="4"/>
       <c r="Y79" s="4"/>
-      <c r="Z79" s="12" cm="1">
+      <c r="Z79" s="10" cm="1">
         <f t="array" ref="Z79">LOOKUP(2,1/(A79:Y79&lt;&gt;""),A79:Y79)</f>
         <v>46156</v>
       </c>
-      <c r="AA79" s="10" t="str">
+      <c r="AA79" s="8" t="str">
         <f t="shared" si="1"/>
         <v>מאי</v>
       </c>
     </row>
-    <row r="80" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A80" s="10" t="s">
+    <row r="80" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A80" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E80" s="10" t="s">
+      <c r="E80" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F80" s="10" t="s">
+      <c r="F80" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G80" s="10" t="s">
+      <c r="G80" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H80" s="14">
+      <c r="H80" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I80" s="14">
+      <c r="I80" s="11">
         <v>0.39583333333333331</v>
       </c>
-      <c r="J80" s="12">
+      <c r="J80" s="10">
         <v>46061</v>
       </c>
-      <c r="K80" s="12">
+      <c r="K80" s="10">
         <v>46068</v>
       </c>
-      <c r="L80" s="12">
+      <c r="L80" s="10">
         <v>46075</v>
       </c>
-      <c r="M80" s="12">
+      <c r="M80" s="10">
         <v>46082</v>
       </c>
-      <c r="N80" s="12">
+      <c r="N80" s="10">
         <v>46089</v>
       </c>
-      <c r="O80" s="8">
+      <c r="O80" s="7">
         <v>46096</v>
       </c>
-      <c r="P80" s="8">
+      <c r="P80" s="7">
         <v>46103</v>
       </c>
-      <c r="Q80" s="8">
+      <c r="Q80" s="7">
         <v>46156</v>
       </c>
       <c r="R80" s="4"/>
@@ -5969,65 +6004,65 @@
       <c r="W80" s="4"/>
       <c r="X80" s="4"/>
       <c r="Y80" s="4"/>
-      <c r="Z80" s="12" cm="1">
+      <c r="Z80" s="10" cm="1">
         <f t="array" ref="Z80">LOOKUP(2,1/(A80:Y80&lt;&gt;""),A80:Y80)</f>
         <v>46156</v>
       </c>
-      <c r="AA80" s="10" t="str">
+      <c r="AA80" s="8" t="str">
         <f t="shared" si="1"/>
         <v>מאי</v>
       </c>
     </row>
-    <row r="81" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A81" s="10" t="s">
+    <row r="81" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A81" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C81" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D81" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E81" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F81" s="10" t="s">
+      <c r="F81" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G81" s="10" t="s">
+      <c r="G81" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H81" s="14">
+      <c r="H81" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I81" s="14">
+      <c r="I81" s="11">
         <v>0.64583333333333337</v>
       </c>
-      <c r="J81" s="12">
+      <c r="J81" s="10">
         <v>46061</v>
       </c>
-      <c r="K81" s="12">
+      <c r="K81" s="10">
         <v>46068</v>
       </c>
-      <c r="L81" s="12">
+      <c r="L81" s="10">
         <v>46075</v>
       </c>
-      <c r="M81" s="12">
+      <c r="M81" s="10">
         <v>46082</v>
       </c>
-      <c r="N81" s="12">
+      <c r="N81" s="10">
         <v>46089</v>
       </c>
-      <c r="O81" s="8">
+      <c r="O81" s="7">
         <v>46096</v>
       </c>
-      <c r="P81" s="8">
+      <c r="P81" s="7">
         <v>46103</v>
       </c>
-      <c r="Q81" s="8">
+      <c r="Q81" s="7">
         <v>46156</v>
       </c>
       <c r="R81" s="4"/>
@@ -6038,65 +6073,65 @@
       <c r="W81" s="4"/>
       <c r="X81" s="4"/>
       <c r="Y81" s="4"/>
-      <c r="Z81" s="12" cm="1">
+      <c r="Z81" s="10" cm="1">
         <f t="array" ref="Z81">LOOKUP(2,1/(A81:Y81&lt;&gt;""),A81:Y81)</f>
         <v>46156</v>
       </c>
-      <c r="AA81" s="10" t="str">
+      <c r="AA81" s="8" t="str">
         <f t="shared" si="1"/>
         <v>מאי</v>
       </c>
     </row>
-    <row r="82" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A82" s="10" t="s">
+    <row r="82" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A82" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="D82" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E82" s="10" t="s">
+      <c r="E82" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F82" s="10" t="s">
+      <c r="F82" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G82" s="10" t="s">
+      <c r="G82" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H82" s="14">
+      <c r="H82" s="11">
         <v>0.39583333333333331</v>
       </c>
-      <c r="I82" s="14">
+      <c r="I82" s="11">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J82" s="12">
+      <c r="J82" s="10">
         <v>46064</v>
       </c>
-      <c r="K82" s="12">
+      <c r="K82" s="10">
         <v>46071</v>
       </c>
-      <c r="L82" s="12">
+      <c r="L82" s="10">
         <v>46078</v>
       </c>
-      <c r="M82" s="12">
+      <c r="M82" s="10">
         <v>46092</v>
       </c>
-      <c r="N82" s="12">
+      <c r="N82" s="10">
         <v>46099</v>
       </c>
-      <c r="O82" s="8">
+      <c r="O82" s="7">
         <v>46127</v>
       </c>
-      <c r="P82" s="8">
+      <c r="P82" s="7">
         <v>46141</v>
       </c>
-      <c r="Q82" s="8">
+      <c r="Q82" s="7">
         <v>46156</v>
       </c>
       <c r="R82" s="4"/>
@@ -6107,65 +6142,65 @@
       <c r="W82" s="4"/>
       <c r="X82" s="4"/>
       <c r="Y82" s="4"/>
-      <c r="Z82" s="12" cm="1">
+      <c r="Z82" s="10" cm="1">
         <f t="array" ref="Z82">LOOKUP(2,1/(A82:Y82&lt;&gt;""),A82:Y82)</f>
         <v>46156</v>
       </c>
-      <c r="AA82" s="10" t="str">
+      <c r="AA82" s="8" t="str">
         <f t="shared" si="1"/>
         <v>מאי</v>
       </c>
     </row>
-    <row r="83" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A83" s="10" t="s">
+    <row r="83" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A83" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E83" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F83" s="10" t="s">
+      <c r="F83" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="G83" s="10" t="s">
+      <c r="G83" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H83" s="14">
+      <c r="H83" s="11">
         <v>0.48958333333333331</v>
       </c>
-      <c r="I83" s="14">
+      <c r="I83" s="11">
         <v>0.52083333333333337</v>
       </c>
-      <c r="J83" s="12">
+      <c r="J83" s="10">
         <v>46064</v>
       </c>
-      <c r="K83" s="12">
+      <c r="K83" s="10">
         <v>46071</v>
       </c>
-      <c r="L83" s="12">
+      <c r="L83" s="10">
         <v>46078</v>
       </c>
-      <c r="M83" s="12">
+      <c r="M83" s="10">
         <v>46092</v>
       </c>
-      <c r="N83" s="12">
+      <c r="N83" s="10">
         <v>46099</v>
       </c>
-      <c r="O83" s="8">
+      <c r="O83" s="7">
         <v>46127</v>
       </c>
-      <c r="P83" s="8">
+      <c r="P83" s="7">
         <v>46141</v>
       </c>
-      <c r="Q83" s="8">
+      <c r="Q83" s="7">
         <v>46156</v>
       </c>
       <c r="R83" s="4"/>
@@ -6176,65 +6211,65 @@
       <c r="W83" s="4"/>
       <c r="X83" s="4"/>
       <c r="Y83" s="4"/>
-      <c r="Z83" s="12" cm="1">
+      <c r="Z83" s="10" cm="1">
         <f t="array" ref="Z83">LOOKUP(2,1/(A83:Y83&lt;&gt;""),A83:Y83)</f>
         <v>46156</v>
       </c>
-      <c r="AA83" s="10" t="str">
+      <c r="AA83" s="8" t="str">
         <f t="shared" si="1"/>
         <v>מאי</v>
       </c>
     </row>
-    <row r="84" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A84" s="10" t="s">
+    <row r="84" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A84" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D84" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="E84" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F84" s="10" t="s">
+      <c r="F84" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="G84" s="10" t="s">
+      <c r="G84" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H84" s="14">
+      <c r="H84" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I84" s="14">
+      <c r="I84" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J84" s="12">
+      <c r="J84" s="10">
         <v>46058</v>
       </c>
-      <c r="K84" s="12">
+      <c r="K84" s="10">
         <v>46065</v>
       </c>
-      <c r="L84" s="12">
+      <c r="L84" s="10">
         <v>46072</v>
       </c>
-      <c r="M84" s="12">
+      <c r="M84" s="10">
         <v>46079</v>
       </c>
-      <c r="N84" s="12">
+      <c r="N84" s="10">
         <v>46086</v>
       </c>
-      <c r="O84" s="8">
+      <c r="O84" s="7">
         <v>46093</v>
       </c>
-      <c r="P84" s="8">
+      <c r="P84" s="7">
         <v>46100</v>
       </c>
-      <c r="Q84" s="8">
+      <c r="Q84" s="7">
         <v>46156</v>
       </c>
       <c r="R84" s="4"/>
@@ -6245,71 +6280,71 @@
       <c r="W84" s="4"/>
       <c r="X84" s="4"/>
       <c r="Y84" s="4"/>
-      <c r="Z84" s="12" cm="1">
+      <c r="Z84" s="10" cm="1">
         <f t="array" ref="Z84">LOOKUP(2,1/(A84:Y84&lt;&gt;""),A84:Y84)</f>
         <v>46156</v>
       </c>
-      <c r="AA84" s="10" t="str">
+      <c r="AA84" s="8" t="str">
         <f t="shared" si="1"/>
         <v>מאי</v>
       </c>
     </row>
-    <row r="85" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A85" s="10" t="s">
+    <row r="85" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A85" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C85" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D85" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E85" s="10" t="s">
+      <c r="E85" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F85" s="10" t="s">
+      <c r="F85" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G85" s="10" t="s">
+      <c r="G85" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H85" s="14">
+      <c r="H85" s="11">
         <v>0.5</v>
       </c>
-      <c r="I85" s="14">
+      <c r="I85" s="11">
         <v>0.5625</v>
       </c>
-      <c r="J85" s="12">
+      <c r="J85" s="10">
         <v>46061</v>
       </c>
-      <c r="K85" s="12">
+      <c r="K85" s="10">
         <v>46068</v>
       </c>
-      <c r="L85" s="12">
+      <c r="L85" s="10">
         <v>46075</v>
       </c>
-      <c r="M85" s="12">
+      <c r="M85" s="10">
         <v>46082</v>
       </c>
-      <c r="N85" s="12">
+      <c r="N85" s="10">
         <v>46089</v>
       </c>
-      <c r="O85" s="8">
+      <c r="O85" s="7">
         <v>46096</v>
       </c>
-      <c r="P85" s="8">
+      <c r="P85" s="7">
         <v>46103</v>
       </c>
-      <c r="Q85" s="8">
+      <c r="Q85" s="7">
         <v>46124</v>
       </c>
-      <c r="R85" s="8">
+      <c r="R85" s="7">
         <v>46131</v>
       </c>
-      <c r="S85" s="8">
+      <c r="S85" s="7">
         <v>46138</v>
       </c>
       <c r="T85" s="4"/>
@@ -6318,71 +6353,71 @@
       <c r="W85" s="4"/>
       <c r="X85" s="4"/>
       <c r="Y85" s="4"/>
-      <c r="Z85" s="12" cm="1">
+      <c r="Z85" s="10" cm="1">
         <f t="array" ref="Z85">LOOKUP(2,1/(A85:Y85&lt;&gt;""),A85:Y85)</f>
         <v>46138</v>
       </c>
-      <c r="AA85" s="10" t="str">
+      <c r="AA85" s="8" t="str">
         <f t="shared" si="1"/>
         <v>אפריל</v>
       </c>
     </row>
-    <row r="86" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A86" s="10" t="s">
+    <row r="86" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A86" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="D86" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E86" s="10" t="s">
+      <c r="E86" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F86" s="10" t="s">
+      <c r="F86" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="G86" s="10" t="s">
+      <c r="G86" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H86" s="14">
+      <c r="H86" s="11">
         <v>0.55208333333333337</v>
       </c>
-      <c r="I86" s="14">
+      <c r="I86" s="11">
         <v>0.61458333333333337</v>
       </c>
-      <c r="J86" s="12">
+      <c r="J86" s="10">
         <v>46063</v>
       </c>
-      <c r="K86" s="12">
+      <c r="K86" s="10">
         <v>46070</v>
       </c>
-      <c r="L86" s="12">
+      <c r="L86" s="10">
         <v>46077</v>
       </c>
-      <c r="M86" s="12">
+      <c r="M86" s="10">
         <v>46091</v>
       </c>
-      <c r="N86" s="12">
+      <c r="N86" s="10">
         <v>46098</v>
       </c>
-      <c r="O86" s="8">
+      <c r="O86" s="7">
         <v>46126</v>
       </c>
-      <c r="P86" s="8">
+      <c r="P86" s="7">
         <v>46140</v>
       </c>
-      <c r="Q86" s="8">
+      <c r="Q86" s="7">
         <v>46147</v>
       </c>
-      <c r="R86" s="8">
+      <c r="R86" s="7">
         <v>46154</v>
       </c>
-      <c r="S86" s="8">
+      <c r="S86" s="7">
         <v>46161</v>
       </c>
       <c r="T86" s="4"/>
@@ -6391,390 +6426,993 @@
       <c r="W86" s="4"/>
       <c r="X86" s="4"/>
       <c r="Y86" s="4"/>
-      <c r="Z86" s="12" cm="1">
+      <c r="Z86" s="10" cm="1">
         <f t="array" ref="Z86">LOOKUP(2,1/(A86:Y86&lt;&gt;""),A86:Y86)</f>
         <v>46161</v>
       </c>
-      <c r="AA86" s="10" t="str">
+      <c r="AA86" s="8" t="str">
         <f t="shared" si="1"/>
         <v>מאי</v>
       </c>
     </row>
-    <row r="87" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A87" s="10" t="s">
+    <row r="87" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A87" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E87" s="10" t="s">
+      <c r="E87" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F87" s="10" t="s">
+      <c r="F87" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="G87" s="10" t="s">
+      <c r="G87" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H87" s="14">
+      <c r="H87" s="11">
         <v>0.63541666666666663</v>
       </c>
-      <c r="I87" s="14">
+      <c r="I87" s="11">
         <v>0.67708333333333337</v>
       </c>
-      <c r="J87" s="12">
+      <c r="J87" s="10">
         <v>46030</v>
       </c>
-      <c r="K87" s="8">
+      <c r="K87" s="7">
         <v>46044</v>
       </c>
-      <c r="L87" s="8">
+      <c r="L87" s="7">
         <v>46058</v>
       </c>
-      <c r="M87" s="8">
+      <c r="M87" s="7">
         <v>46065</v>
       </c>
-      <c r="N87" s="8">
+      <c r="N87" s="7">
         <v>46072</v>
       </c>
-      <c r="O87" s="8">
+      <c r="O87" s="7">
         <v>46079</v>
       </c>
-      <c r="P87" s="8">
+      <c r="P87" s="7">
         <v>46086</v>
       </c>
-      <c r="Q87" s="8">
+      <c r="Q87" s="7">
         <v>46093</v>
       </c>
-      <c r="R87" s="8">
+      <c r="R87" s="7">
         <v>46100</v>
       </c>
-      <c r="S87" s="8">
+      <c r="S87" s="7">
         <v>46121</v>
       </c>
-      <c r="T87" s="8">
+      <c r="T87" s="7">
         <v>46128</v>
       </c>
-      <c r="U87" s="8">
+      <c r="U87" s="7">
         <v>46135</v>
       </c>
-      <c r="V87" s="8"/>
-      <c r="W87" s="8"/>
-      <c r="X87" s="8"/>
-      <c r="Y87" s="8"/>
-      <c r="Z87" s="12" cm="1">
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+      <c r="X87" s="7"/>
+      <c r="Y87" s="7"/>
+      <c r="Z87" s="10" cm="1">
         <f t="array" ref="Z87">LOOKUP(2,1/(A87:Y87&lt;&gt;""),A87:Y87)</f>
         <v>46135</v>
       </c>
-      <c r="AA87" s="10" t="str">
+      <c r="AA87" s="8" t="str">
         <f t="shared" si="1"/>
         <v>אפריל</v>
       </c>
     </row>
-    <row r="88" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A88" s="10" t="s">
+    <row r="88" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A88" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D88" s="10" t="s">
+      <c r="D88" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E88" s="10" t="s">
+      <c r="E88" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F88" s="10" t="s">
+      <c r="F88" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="G88" s="10" t="s">
+      <c r="G88" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H88" s="14">
+      <c r="H88" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I88" s="14">
+      <c r="I88" s="11">
         <v>0.625</v>
       </c>
-      <c r="J88" s="12">
+      <c r="J88" s="10">
         <v>46030</v>
       </c>
-      <c r="K88" s="8">
+      <c r="K88" s="7">
         <v>46044</v>
       </c>
-      <c r="L88" s="8">
+      <c r="L88" s="7">
         <v>46058</v>
       </c>
-      <c r="M88" s="8">
+      <c r="M88" s="7">
         <v>46065</v>
       </c>
-      <c r="N88" s="8">
+      <c r="N88" s="7">
         <v>46072</v>
       </c>
-      <c r="O88" s="8">
+      <c r="O88" s="7">
         <v>46079</v>
       </c>
-      <c r="P88" s="8">
+      <c r="P88" s="7">
         <v>46086</v>
       </c>
-      <c r="Q88" s="8">
+      <c r="Q88" s="7">
         <v>46093</v>
       </c>
-      <c r="R88" s="8">
+      <c r="R88" s="7">
         <v>46100</v>
       </c>
-      <c r="S88" s="8">
+      <c r="S88" s="7">
         <v>46121</v>
       </c>
-      <c r="T88" s="8">
+      <c r="T88" s="7">
         <v>46128</v>
       </c>
-      <c r="U88" s="8">
+      <c r="U88" s="7">
         <v>46135</v>
       </c>
-      <c r="V88" s="8"/>
-      <c r="W88" s="8"/>
-      <c r="X88" s="8"/>
-      <c r="Y88" s="8"/>
-      <c r="Z88" s="12" cm="1">
+      <c r="V88" s="7"/>
+      <c r="W88" s="7"/>
+      <c r="X88" s="7"/>
+      <c r="Y88" s="7"/>
+      <c r="Z88" s="10" cm="1">
         <f t="array" ref="Z88">LOOKUP(2,1/(A88:Y88&lt;&gt;""),A88:Y88)</f>
         <v>46135</v>
       </c>
-      <c r="AA88" s="10" t="str">
+      <c r="AA88" s="8" t="str">
         <f t="shared" si="1"/>
         <v>אפריל</v>
       </c>
     </row>
-    <row r="89" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A89" s="10" t="s">
+    <row r="89" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A89" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D89" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E89" s="10" t="s">
+      <c r="E89" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F89" s="10" t="s">
+      <c r="F89" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="G89" s="10" t="s">
+      <c r="G89" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H89" s="14">
+      <c r="H89" s="11">
         <v>0.6875</v>
       </c>
-      <c r="I89" s="14">
+      <c r="I89" s="11">
         <v>0.72916666666666663</v>
       </c>
-      <c r="J89" s="12">
+      <c r="J89" s="10">
         <v>45965</v>
       </c>
-      <c r="K89" s="12">
+      <c r="K89" s="10">
         <v>45972</v>
       </c>
-      <c r="L89" s="12">
+      <c r="L89" s="10">
         <v>45979</v>
       </c>
-      <c r="M89" s="12">
+      <c r="M89" s="10">
         <v>45986</v>
       </c>
-      <c r="N89" s="12">
+      <c r="N89" s="10">
         <v>45993</v>
       </c>
-      <c r="O89" s="8">
+      <c r="O89" s="7">
         <v>46000</v>
       </c>
-      <c r="P89" s="8">
+      <c r="P89" s="7">
         <v>46014</v>
       </c>
-      <c r="Q89" s="8">
+      <c r="Q89" s="7">
         <v>46021</v>
       </c>
-      <c r="R89" s="8">
+      <c r="R89" s="7">
         <v>46028</v>
       </c>
-      <c r="S89" s="8">
+      <c r="S89" s="7">
         <v>46035</v>
       </c>
-      <c r="T89" s="8">
+      <c r="T89" s="7">
         <v>46042</v>
       </c>
-      <c r="U89" s="8">
+      <c r="U89" s="7">
         <v>46049</v>
       </c>
-      <c r="V89" s="8">
+      <c r="V89" s="7">
         <v>46056</v>
       </c>
-      <c r="W89" s="8">
+      <c r="W89" s="7">
         <v>46063</v>
       </c>
-      <c r="X89" s="8">
+      <c r="X89" s="7">
         <v>46070</v>
       </c>
-      <c r="Y89" s="8">
+      <c r="Y89" s="7">
         <v>46077</v>
       </c>
-      <c r="Z89" s="12" cm="1">
+      <c r="Z89" s="10" cm="1">
         <f t="array" ref="Z89">LOOKUP(2,1/(A89:Y89&lt;&gt;""),A89:Y89)</f>
         <v>46077</v>
       </c>
-      <c r="AA89" s="10" t="str">
+      <c r="AA89" s="8" t="str">
         <f t="shared" si="1"/>
         <v>פברואר</v>
       </c>
     </row>
-    <row r="90" spans="1:27" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A90" s="10" t="s">
+    <row r="90" spans="1:27" s="5" customFormat="1" ht="25.1" customHeight="1">
+      <c r="A90" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="D90" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E90" s="10" t="s">
+      <c r="E90" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F90" s="10" t="s">
+      <c r="F90" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="G90" s="10" t="s">
+      <c r="G90" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H90" s="14">
+      <c r="H90" s="11">
         <v>0.72916666666666663</v>
       </c>
-      <c r="I90" s="14">
+      <c r="I90" s="11">
         <v>0.75</v>
       </c>
-      <c r="J90" s="12">
+      <c r="J90" s="10">
         <v>45965</v>
       </c>
-      <c r="K90" s="12">
+      <c r="K90" s="10">
         <v>45972</v>
       </c>
-      <c r="L90" s="12">
+      <c r="L90" s="10">
         <v>45979</v>
       </c>
-      <c r="M90" s="12">
+      <c r="M90" s="10">
         <v>45986</v>
       </c>
-      <c r="N90" s="12">
+      <c r="N90" s="10">
         <v>45993</v>
       </c>
-      <c r="O90" s="8">
+      <c r="O90" s="7">
         <v>46000</v>
       </c>
-      <c r="P90" s="8">
+      <c r="P90" s="7">
         <v>46007</v>
       </c>
-      <c r="Q90" s="8">
+      <c r="Q90" s="7">
         <v>46021</v>
       </c>
-      <c r="R90" s="8">
+      <c r="R90" s="7">
         <v>46028</v>
       </c>
-      <c r="S90" s="8">
+      <c r="S90" s="7">
         <v>46035</v>
       </c>
-      <c r="T90" s="8">
+      <c r="T90" s="7">
         <v>46042</v>
       </c>
-      <c r="U90" s="8">
+      <c r="U90" s="7">
         <v>46049</v>
       </c>
-      <c r="V90" s="8">
+      <c r="V90" s="7">
         <v>46056</v>
       </c>
-      <c r="W90" s="8">
+      <c r="W90" s="7">
         <v>46063</v>
       </c>
-      <c r="X90" s="8">
+      <c r="X90" s="7">
         <v>46070</v>
       </c>
-      <c r="Y90" s="8">
+      <c r="Y90" s="7">
         <v>46077</v>
       </c>
-      <c r="Z90" s="12" cm="1">
+      <c r="Z90" s="10" cm="1">
         <f t="array" ref="Z90">LOOKUP(2,1/(A90:Y90&lt;&gt;""),A90:Y90)</f>
         <v>46077</v>
       </c>
-      <c r="AA90" s="10" t="str">
+      <c r="AA90" s="8" t="str">
         <f t="shared" si="1"/>
         <v>פברואר</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="13.85">
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
-    </row>
-    <row r="92" spans="1:27" ht="13.85">
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
-    </row>
-    <row r="93" spans="1:27" ht="13.85">
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
-    </row>
-    <row r="94" spans="1:27" ht="13.85">
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
-    </row>
-    <row r="95" spans="1:27" ht="13.85">
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
-    </row>
-    <row r="96" spans="1:27" ht="13.85">
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
-    </row>
-    <row r="97" spans="1:16" ht="13.85">
-      <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
-    </row>
-    <row r="98" spans="1:16" ht="13.85">
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
-    </row>
-    <row r="99" spans="1:16" ht="13.85">
-      <c r="A99"/>
-      <c r="B99"/>
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
-      <c r="H99"/>
-      <c r="I99"/>
-      <c r="J99"/>
-      <c r="K99"/>
-      <c r="L99"/>
-      <c r="M99"/>
-      <c r="N99"/>
-      <c r="O99"/>
-      <c r="P99"/>
-    </row>
-    <row r="100" spans="1:16" ht="13.85">
+    <row r="91" spans="1:27" ht="25.1" customHeight="1">
+      <c r="A91" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H91" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I91" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J91" s="10">
+        <v>46034</v>
+      </c>
+      <c r="K91" s="10">
+        <v>46048</v>
+      </c>
+      <c r="L91" s="10">
+        <v>46062</v>
+      </c>
+      <c r="M91" s="10">
+        <v>46076</v>
+      </c>
+      <c r="N91" s="10">
+        <v>46090</v>
+      </c>
+      <c r="O91" s="7">
+        <v>46104</v>
+      </c>
+      <c r="P91" s="7">
+        <v>46146</v>
+      </c>
+      <c r="Q91" s="7">
+        <v>46160</v>
+      </c>
+      <c r="R91" s="7">
+        <v>46181</v>
+      </c>
+      <c r="S91" s="7">
+        <v>46188</v>
+      </c>
+      <c r="T91" s="13"/>
+      <c r="U91" s="13"/>
+      <c r="V91" s="13"/>
+      <c r="W91" s="13"/>
+      <c r="X91" s="13"/>
+      <c r="Y91" s="13"/>
+      <c r="Z91" s="10" cm="1">
+        <f t="array" ref="Z91">LOOKUP(2,1/(A91:Y91&lt;&gt;""),A91:Y91)</f>
+        <v>46188</v>
+      </c>
+      <c r="AA91" s="8" t="str">
+        <f t="shared" ref="AA91:AA97" si="2">TEXT(Z91,"[$-he-IL]mmmm")</f>
+        <v>יוני</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" ht="25.1" customHeight="1">
+      <c r="A92" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H92" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I92" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J92" s="10">
+        <v>46078</v>
+      </c>
+      <c r="K92" s="10">
+        <v>46092</v>
+      </c>
+      <c r="L92" s="10">
+        <v>46099</v>
+      </c>
+      <c r="M92" s="7">
+        <v>46127</v>
+      </c>
+      <c r="N92" s="7">
+        <v>46141</v>
+      </c>
+      <c r="O92" s="7">
+        <v>46148</v>
+      </c>
+      <c r="P92" s="7">
+        <v>46155</v>
+      </c>
+      <c r="Q92" s="7">
+        <v>46162</v>
+      </c>
+      <c r="R92" s="7">
+        <v>46169</v>
+      </c>
+      <c r="S92" s="7">
+        <v>46176</v>
+      </c>
+      <c r="T92" s="7"/>
+      <c r="U92" s="7"/>
+      <c r="V92" s="13"/>
+      <c r="W92" s="13"/>
+      <c r="X92" s="13"/>
+      <c r="Y92" s="13"/>
+      <c r="Z92" s="10" cm="1">
+        <f t="array" ref="Z92">LOOKUP(2,1/(A92:Y92&lt;&gt;""),A92:Y92)</f>
+        <v>46176</v>
+      </c>
+      <c r="AA92" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>יוני</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" ht="25.1" customHeight="1">
+      <c r="A93" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H93" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I93" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J93" s="7">
+        <v>46079</v>
+      </c>
+      <c r="K93" s="7">
+        <v>46086</v>
+      </c>
+      <c r="L93" s="7">
+        <v>46093</v>
+      </c>
+      <c r="M93" s="7">
+        <v>46100</v>
+      </c>
+      <c r="N93" s="7">
+        <v>46121</v>
+      </c>
+      <c r="O93" s="7">
+        <v>46128</v>
+      </c>
+      <c r="P93" s="7">
+        <v>46135</v>
+      </c>
+      <c r="Q93" s="7">
+        <v>46142</v>
+      </c>
+      <c r="R93" s="7">
+        <v>46149</v>
+      </c>
+      <c r="S93" s="7">
+        <v>46156</v>
+      </c>
+      <c r="T93" s="13"/>
+      <c r="U93" s="13"/>
+      <c r="V93" s="13"/>
+      <c r="W93" s="13"/>
+      <c r="X93" s="13"/>
+      <c r="Y93" s="13"/>
+      <c r="Z93" s="10" cm="1">
+        <f t="array" ref="Z93">LOOKUP(2,1/(A93:Y93&lt;&gt;""),A93:Y93)</f>
+        <v>46156</v>
+      </c>
+      <c r="AA93" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>מאי</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" ht="25.1" customHeight="1">
+      <c r="A94" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H94" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I94" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J94" s="10">
+        <v>46078</v>
+      </c>
+      <c r="K94" s="10">
+        <v>46092</v>
+      </c>
+      <c r="L94" s="10">
+        <v>46099</v>
+      </c>
+      <c r="M94" s="7">
+        <v>46127</v>
+      </c>
+      <c r="N94" s="7">
+        <v>46141</v>
+      </c>
+      <c r="O94" s="7">
+        <v>46148</v>
+      </c>
+      <c r="P94" s="7">
+        <v>46155</v>
+      </c>
+      <c r="Q94" s="7">
+        <v>46162</v>
+      </c>
+      <c r="R94" s="7">
+        <v>46169</v>
+      </c>
+      <c r="S94" s="7">
+        <v>46176</v>
+      </c>
+      <c r="T94" s="13"/>
+      <c r="U94" s="13"/>
+      <c r="V94" s="13"/>
+      <c r="W94" s="13"/>
+      <c r="X94" s="13"/>
+      <c r="Y94" s="13"/>
+      <c r="Z94" s="10" cm="1">
+        <f t="array" ref="Z94">LOOKUP(2,1/(A94:Y94&lt;&gt;""),A94:Y94)</f>
+        <v>46176</v>
+      </c>
+      <c r="AA94" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>יוני</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" ht="25.1" customHeight="1">
+      <c r="A95" s="8"/>
+      <c r="B95" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H95" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I95" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J95" s="7">
+        <v>46079</v>
+      </c>
+      <c r="K95" s="7">
+        <v>46086</v>
+      </c>
+      <c r="L95" s="7">
+        <v>46093</v>
+      </c>
+      <c r="M95" s="7">
+        <v>46100</v>
+      </c>
+      <c r="N95" s="7">
+        <v>46121</v>
+      </c>
+      <c r="O95" s="7">
+        <v>46128</v>
+      </c>
+      <c r="P95" s="7">
+        <v>46135</v>
+      </c>
+      <c r="Q95" s="7">
+        <v>46142</v>
+      </c>
+      <c r="R95" s="7">
+        <v>46149</v>
+      </c>
+      <c r="S95" s="7">
+        <v>46156</v>
+      </c>
+      <c r="T95" s="13"/>
+      <c r="U95" s="13"/>
+      <c r="V95" s="13"/>
+      <c r="W95" s="13"/>
+      <c r="X95" s="13"/>
+      <c r="Y95" s="13"/>
+      <c r="Z95" s="10" cm="1">
+        <f t="array" ref="Z95">LOOKUP(2,1/(A95:Y95&lt;&gt;""),A95:Y95)</f>
+        <v>46156</v>
+      </c>
+      <c r="AA95" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>מאי</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" ht="25.1" customHeight="1">
+      <c r="A96" s="8"/>
+      <c r="B96" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I96" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J96" s="10">
+        <v>46076</v>
+      </c>
+      <c r="K96" s="10">
+        <v>46083</v>
+      </c>
+      <c r="L96" s="7">
+        <v>46090</v>
+      </c>
+      <c r="M96" s="7">
+        <v>46097</v>
+      </c>
+      <c r="N96" s="7">
+        <v>46104</v>
+      </c>
+      <c r="O96" s="7">
+        <v>46125</v>
+      </c>
+      <c r="P96" s="7">
+        <v>46139</v>
+      </c>
+      <c r="Q96" s="7">
+        <v>46146</v>
+      </c>
+      <c r="R96" s="7">
+        <v>46153</v>
+      </c>
+      <c r="S96" s="7">
+        <v>46160</v>
+      </c>
+      <c r="T96" s="13"/>
+      <c r="U96" s="13"/>
+      <c r="V96" s="13"/>
+      <c r="W96" s="13"/>
+      <c r="X96" s="13"/>
+      <c r="Y96" s="13"/>
+      <c r="Z96" s="10" cm="1">
+        <f t="array" ref="Z96">LOOKUP(2,1/(A96:Y96&lt;&gt;""),A96:Y96)</f>
+        <v>46160</v>
+      </c>
+      <c r="AA96" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>מאי</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" ht="25.1" customHeight="1">
+      <c r="A97" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I97" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J97" s="10">
+        <v>46076</v>
+      </c>
+      <c r="K97" s="10">
+        <v>46083</v>
+      </c>
+      <c r="L97" s="7">
+        <v>46090</v>
+      </c>
+      <c r="M97" s="7">
+        <v>46097</v>
+      </c>
+      <c r="N97" s="7">
+        <v>46104</v>
+      </c>
+      <c r="O97" s="7">
+        <v>46125</v>
+      </c>
+      <c r="P97" s="7">
+        <v>46139</v>
+      </c>
+      <c r="Q97" s="7">
+        <v>46146</v>
+      </c>
+      <c r="R97" s="7">
+        <v>46153</v>
+      </c>
+      <c r="S97" s="7">
+        <v>46160</v>
+      </c>
+      <c r="T97" s="13"/>
+      <c r="U97" s="13"/>
+      <c r="V97" s="13"/>
+      <c r="W97" s="13"/>
+      <c r="X97" s="13"/>
+      <c r="Y97" s="13"/>
+      <c r="Z97" s="10" cm="1">
+        <f t="array" ref="Z97">LOOKUP(2,1/(A97:Y97&lt;&gt;""),A97:Y97)</f>
+        <v>46160</v>
+      </c>
+      <c r="AA97" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>מאי</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" ht="25.1" customHeight="1">
+      <c r="A98" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H98" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I98" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J98" s="10">
+        <v>46062</v>
+      </c>
+      <c r="K98" s="10">
+        <v>46069</v>
+      </c>
+      <c r="L98" s="10">
+        <v>46076</v>
+      </c>
+      <c r="M98" s="10">
+        <v>46083</v>
+      </c>
+      <c r="N98" s="10">
+        <v>46090</v>
+      </c>
+      <c r="O98" s="7">
+        <v>46097</v>
+      </c>
+      <c r="P98" s="7">
+        <v>46104</v>
+      </c>
+      <c r="Q98" s="7">
+        <v>46125</v>
+      </c>
+      <c r="R98" s="7">
+        <v>46139</v>
+      </c>
+      <c r="S98" s="7">
+        <v>46146</v>
+      </c>
+      <c r="T98" s="13"/>
+      <c r="U98" s="13"/>
+      <c r="V98" s="13"/>
+      <c r="W98" s="13"/>
+      <c r="X98" s="13"/>
+      <c r="Y98" s="13"/>
+      <c r="Z98" s="10" cm="1">
+        <f t="array" ref="Z98">LOOKUP(2,1/(A98:Y98&lt;&gt;""),A98:Y98)</f>
+        <v>46146</v>
+      </c>
+      <c r="AA98" s="8" t="str">
+        <f t="shared" ref="AA98:AA99" si="3">TEXT(Z98,"[$-he-IL]mmmm")</f>
+        <v>מאי</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" ht="25.1" customHeight="1">
+      <c r="A99" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H99" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I99" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J99" s="10">
+        <v>46062</v>
+      </c>
+      <c r="K99" s="10">
+        <v>46069</v>
+      </c>
+      <c r="L99" s="10">
+        <v>46076</v>
+      </c>
+      <c r="M99" s="10">
+        <v>46083</v>
+      </c>
+      <c r="N99" s="10">
+        <v>46090</v>
+      </c>
+      <c r="O99" s="7">
+        <v>46097</v>
+      </c>
+      <c r="P99" s="7">
+        <v>46104</v>
+      </c>
+      <c r="Q99" s="7">
+        <v>46125</v>
+      </c>
+      <c r="R99" s="7">
+        <v>46139</v>
+      </c>
+      <c r="S99" s="7">
+        <v>46146</v>
+      </c>
+      <c r="T99" s="13"/>
+      <c r="U99" s="13"/>
+      <c r="V99" s="13"/>
+      <c r="W99" s="13"/>
+      <c r="X99" s="13"/>
+      <c r="Y99" s="13"/>
+      <c r="Z99" s="10" cm="1">
+        <f t="array" ref="Z99">LOOKUP(2,1/(A99:Y99&lt;&gt;""),A99:Y99)</f>
+        <v>46146</v>
+      </c>
+      <c r="AA99" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>מאי</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" ht="25.1" customHeight="1">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -6791,8 +7429,12 @@
       <c r="N100"/>
       <c r="O100"/>
       <c r="P100"/>
-    </row>
-    <row r="101" spans="1:16" ht="13.85">
+      <c r="Q100"/>
+      <c r="R100"/>
+      <c r="S100"/>
+      <c r="T100"/>
+    </row>
+    <row r="101" spans="1:27" ht="25.1" customHeight="1">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -6809,8 +7451,15 @@
       <c r="N101"/>
       <c r="O101"/>
       <c r="P101"/>
-    </row>
-    <row r="102" spans="1:16" ht="19.95" customHeight="1">
+      <c r="Q101"/>
+      <c r="R101"/>
+      <c r="S101"/>
+      <c r="T101"/>
+      <c r="U101"/>
+      <c r="V101"/>
+      <c r="W101"/>
+    </row>
+    <row r="102" spans="1:27" ht="25.1" customHeight="1">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -6827,8 +7476,15 @@
       <c r="N102"/>
       <c r="O102"/>
       <c r="P102"/>
-    </row>
-    <row r="103" spans="1:16" ht="19.95" customHeight="1">
+      <c r="Q102"/>
+      <c r="R102"/>
+      <c r="S102"/>
+      <c r="T102"/>
+      <c r="U102"/>
+      <c r="V102"/>
+      <c r="W102"/>
+    </row>
+    <row r="103" spans="1:27" ht="25.1" customHeight="1">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -6845,8 +7501,15 @@
       <c r="N103"/>
       <c r="O103"/>
       <c r="P103"/>
-    </row>
-    <row r="104" spans="1:16" ht="19.95" customHeight="1">
+      <c r="Q103"/>
+      <c r="R103"/>
+      <c r="S103"/>
+      <c r="T103"/>
+      <c r="U103"/>
+      <c r="V103"/>
+      <c r="W103"/>
+    </row>
+    <row r="104" spans="1:27" ht="25.1" customHeight="1">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -6863,8 +7526,15 @@
       <c r="N104"/>
       <c r="O104"/>
       <c r="P104"/>
-    </row>
-    <row r="105" spans="1:16" ht="19.95" customHeight="1">
+      <c r="Q104"/>
+      <c r="R104"/>
+      <c r="S104"/>
+      <c r="T104"/>
+      <c r="U104"/>
+      <c r="V104"/>
+      <c r="W104"/>
+    </row>
+    <row r="105" spans="1:27" ht="25.1" customHeight="1">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -6882,7 +7552,7 @@
       <c r="O105"/>
       <c r="P105"/>
     </row>
-    <row r="106" spans="1:16" ht="19.95" customHeight="1">
+    <row r="106" spans="1:27" ht="25.1" customHeight="1">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -6900,7 +7570,7 @@
       <c r="O106"/>
       <c r="P106"/>
     </row>
-    <row r="107" spans="1:16" ht="19.95" customHeight="1">
+    <row r="107" spans="1:27" ht="25.1" customHeight="1">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -6918,7 +7588,7 @@
       <c r="O107"/>
       <c r="P107"/>
     </row>
-    <row r="108" spans="1:16" ht="19.95" customHeight="1">
+    <row r="108" spans="1:27" ht="25.1" customHeight="1">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -6936,7 +7606,7 @@
       <c r="O108"/>
       <c r="P108"/>
     </row>
-    <row r="109" spans="1:16" ht="19.95" customHeight="1">
+    <row r="109" spans="1:27" ht="25.1" customHeight="1">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -6954,7 +7624,7 @@
       <c r="O109"/>
       <c r="P109"/>
     </row>
-    <row r="110" spans="1:16" ht="19.95" customHeight="1">
+    <row r="110" spans="1:27" ht="25.1" customHeight="1">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -6972,7 +7642,7 @@
       <c r="O110"/>
       <c r="P110"/>
     </row>
-    <row r="111" spans="1:16" ht="19.95" customHeight="1">
+    <row r="111" spans="1:27" ht="25.1" customHeight="1">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -6990,7 +7660,7 @@
       <c r="O111"/>
       <c r="P111"/>
     </row>
-    <row r="112" spans="1:16" ht="19.95" customHeight="1">
+    <row r="112" spans="1:27" ht="25.1" customHeight="1">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -7008,7 +7678,7 @@
       <c r="O112"/>
       <c r="P112"/>
     </row>
-    <row r="113" spans="1:16" ht="19.95" customHeight="1">
+    <row r="113" spans="1:16" ht="25.1" customHeight="1">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -7026,7 +7696,7 @@
       <c r="O113"/>
       <c r="P113"/>
     </row>
-    <row r="114" spans="1:16" ht="19.95" customHeight="1">
+    <row r="114" spans="1:16" ht="25.1" customHeight="1">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -7044,7 +7714,7 @@
       <c r="O114"/>
       <c r="P114"/>
     </row>
-    <row r="115" spans="1:16" ht="19.95" customHeight="1">
+    <row r="115" spans="1:16" ht="25.1" customHeight="1">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -7062,7 +7732,7 @@
       <c r="O115"/>
       <c r="P115"/>
     </row>
-    <row r="116" spans="1:16" ht="19.95" customHeight="1">
+    <row r="116" spans="1:16" ht="25.1" customHeight="1">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -7080,7 +7750,7 @@
       <c r="O116"/>
       <c r="P116"/>
     </row>
-    <row r="117" spans="1:16" ht="19.95" customHeight="1">
+    <row r="117" spans="1:16" ht="25.1" customHeight="1">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -7098,7 +7768,7 @@
       <c r="O117"/>
       <c r="P117"/>
     </row>
-    <row r="118" spans="1:16" ht="19.95" customHeight="1">
+    <row r="118" spans="1:16" ht="25.1" customHeight="1">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -7116,7 +7786,7 @@
       <c r="O118"/>
       <c r="P118"/>
     </row>
-    <row r="119" spans="1:16" ht="19.95" customHeight="1">
+    <row r="119" spans="1:16" ht="25.1" customHeight="1">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -7134,7 +7804,7 @@
       <c r="O119"/>
       <c r="P119"/>
     </row>
-    <row r="120" spans="1:16" ht="19.95" customHeight="1">
+    <row r="120" spans="1:16" ht="25.1" customHeight="1">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -7152,7 +7822,7 @@
       <c r="O120"/>
       <c r="P120"/>
     </row>
-    <row r="121" spans="1:16" ht="19.95" customHeight="1">
+    <row r="121" spans="1:16" ht="25.1" customHeight="1">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -7170,7 +7840,7 @@
       <c r="O121"/>
       <c r="P121"/>
     </row>
-    <row r="122" spans="1:16" ht="19.95" customHeight="1">
+    <row r="122" spans="1:16" ht="25.1" customHeight="1">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -7188,7 +7858,7 @@
       <c r="O122"/>
       <c r="P122"/>
     </row>
-    <row r="123" spans="1:16" ht="19.95" customHeight="1">
+    <row r="123" spans="1:16" ht="25.1" customHeight="1">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -7206,7 +7876,7 @@
       <c r="O123"/>
       <c r="P123"/>
     </row>
-    <row r="124" spans="1:16" ht="19.95" customHeight="1">
+    <row r="124" spans="1:16" ht="25.1" customHeight="1">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -7224,7 +7894,7 @@
       <c r="O124"/>
       <c r="P124"/>
     </row>
-    <row r="125" spans="1:16" ht="19.95" customHeight="1">
+    <row r="125" spans="1:16" ht="25.1" customHeight="1">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -7242,7 +7912,7 @@
       <c r="O125"/>
       <c r="P125"/>
     </row>
-    <row r="126" spans="1:16" ht="19.95" customHeight="1">
+    <row r="126" spans="1:16" ht="25.1" customHeight="1">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -7260,7 +7930,7 @@
       <c r="O126"/>
       <c r="P126"/>
     </row>
-    <row r="127" spans="1:16" ht="19.95" customHeight="1">
+    <row r="127" spans="1:16" ht="25.1" customHeight="1">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -7278,7 +7948,7 @@
       <c r="O127"/>
       <c r="P127"/>
     </row>
-    <row r="128" spans="1:16" ht="19.95" customHeight="1">
+    <row r="128" spans="1:16" ht="25.1" customHeight="1">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -7296,7 +7966,7 @@
       <c r="O128"/>
       <c r="P128"/>
     </row>
-    <row r="129" spans="1:16" ht="19.95" customHeight="1">
+    <row r="129" spans="1:16" ht="25.1" customHeight="1">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -7314,7 +7984,7 @@
       <c r="O129"/>
       <c r="P129"/>
     </row>
-    <row r="130" spans="1:16" ht="19.95" customHeight="1">
+    <row r="130" spans="1:16" ht="25.1" customHeight="1">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -7332,7 +8002,7 @@
       <c r="O130"/>
       <c r="P130"/>
     </row>
-    <row r="131" spans="1:16" ht="19.95" customHeight="1">
+    <row r="131" spans="1:16" ht="25.1" customHeight="1">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -7350,7 +8020,7 @@
       <c r="O131"/>
       <c r="P131"/>
     </row>
-    <row r="132" spans="1:16" ht="19.95" customHeight="1">
+    <row r="132" spans="1:16" ht="25.1" customHeight="1">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -7368,7 +8038,7 @@
       <c r="O132"/>
       <c r="P132"/>
     </row>
-    <row r="133" spans="1:16" ht="19.95" customHeight="1">
+    <row r="133" spans="1:16" ht="25.1" customHeight="1">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -7386,7 +8056,7 @@
       <c r="O133"/>
       <c r="P133"/>
     </row>
-    <row r="134" spans="1:16" ht="19.95" customHeight="1">
+    <row r="134" spans="1:16" ht="25.1" customHeight="1">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -7404,7 +8074,7 @@
       <c r="O134"/>
       <c r="P134"/>
     </row>
-    <row r="135" spans="1:16" ht="19.95" customHeight="1">
+    <row r="135" spans="1:16" ht="25.1" customHeight="1">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -7422,7 +8092,7 @@
       <c r="O135"/>
       <c r="P135"/>
     </row>
-    <row r="136" spans="1:16" ht="19.95" customHeight="1">
+    <row r="136" spans="1:16" ht="25.1" customHeight="1">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -7440,7 +8110,7 @@
       <c r="O136"/>
       <c r="P136"/>
     </row>
-    <row r="137" spans="1:16" ht="19.95" customHeight="1">
+    <row r="137" spans="1:16" ht="25.1" customHeight="1">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -7458,7 +8128,7 @@
       <c r="O137"/>
       <c r="P137"/>
     </row>
-    <row r="138" spans="1:16" ht="19.95" customHeight="1">
+    <row r="138" spans="1:16" ht="25.1" customHeight="1">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -7476,7 +8146,7 @@
       <c r="O138"/>
       <c r="P138"/>
     </row>
-    <row r="139" spans="1:16" ht="19.95" customHeight="1">
+    <row r="139" spans="1:16" ht="25.1" customHeight="1">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -7494,7 +8164,7 @@
       <c r="O139"/>
       <c r="P139"/>
     </row>
-    <row r="140" spans="1:16" ht="19.95" customHeight="1">
+    <row r="140" spans="1:16" ht="25.1" customHeight="1">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -7512,7 +8182,7 @@
       <c r="O140"/>
       <c r="P140"/>
     </row>
-    <row r="141" spans="1:16" ht="19.95" customHeight="1">
+    <row r="141" spans="1:16" ht="25.1" customHeight="1">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -7530,7 +8200,7 @@
       <c r="O141"/>
       <c r="P141"/>
     </row>
-    <row r="142" spans="1:16" ht="19.95" customHeight="1">
+    <row r="142" spans="1:16" ht="25.1" customHeight="1">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -7548,7 +8218,7 @@
       <c r="O142"/>
       <c r="P142"/>
     </row>
-    <row r="143" spans="1:16" ht="19.95" customHeight="1">
+    <row r="143" spans="1:16" ht="25.1" customHeight="1">
       <c r="A143"/>
       <c r="B143"/>
       <c r="C143"/>
@@ -7566,7 +8236,7 @@
       <c r="O143"/>
       <c r="P143"/>
     </row>
-    <row r="144" spans="1:16" ht="19.95" customHeight="1">
+    <row r="144" spans="1:16" ht="25.1" customHeight="1">
       <c r="A144"/>
       <c r="B144"/>
       <c r="C144"/>
@@ -7584,7 +8254,7 @@
       <c r="O144"/>
       <c r="P144"/>
     </row>
-    <row r="145" spans="1:16" ht="19.95" customHeight="1">
+    <row r="145" spans="1:16" ht="25.1" customHeight="1">
       <c r="A145"/>
       <c r="B145"/>
       <c r="C145"/>
@@ -7602,7 +8272,7 @@
       <c r="O145"/>
       <c r="P145"/>
     </row>
-    <row r="146" spans="1:16" ht="19.95" customHeight="1">
+    <row r="146" spans="1:16" ht="25.1" customHeight="1">
       <c r="A146"/>
       <c r="B146"/>
       <c r="C146"/>
@@ -7620,7 +8290,7 @@
       <c r="O146"/>
       <c r="P146"/>
     </row>
-    <row r="147" spans="1:16" ht="19.95" customHeight="1">
+    <row r="147" spans="1:16" ht="25.1" customHeight="1">
       <c r="A147"/>
       <c r="B147"/>
       <c r="C147"/>
@@ -7638,7 +8308,7 @@
       <c r="O147"/>
       <c r="P147"/>
     </row>
-    <row r="148" spans="1:16" ht="19.95" customHeight="1">
+    <row r="148" spans="1:16" ht="25.1" customHeight="1">
       <c r="A148"/>
       <c r="B148"/>
       <c r="C148"/>
@@ -7656,7 +8326,7 @@
       <c r="O148"/>
       <c r="P148"/>
     </row>
-    <row r="149" spans="1:16" ht="19.95" customHeight="1">
+    <row r="149" spans="1:16" ht="25.1" customHeight="1">
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
@@ -7674,7 +8344,7 @@
       <c r="O149"/>
       <c r="P149"/>
     </row>
-    <row r="150" spans="1:16" ht="19.95" customHeight="1">
+    <row r="150" spans="1:16" ht="25.1" customHeight="1">
       <c r="A150"/>
       <c r="B150"/>
       <c r="C150"/>
@@ -7692,7 +8362,7 @@
       <c r="O150"/>
       <c r="P150"/>
     </row>
-    <row r="151" spans="1:16" ht="19.95" customHeight="1">
+    <row r="151" spans="1:16" ht="25.1" customHeight="1">
       <c r="A151"/>
       <c r="B151"/>
       <c r="C151"/>

--- a/DASHBOARD.xlsx
+++ b/DASHBOARD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idan\Downloads\דשבורד סטטוס\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E6626C-0775-4482-B76D-31E5041E5121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461DB511-90A0-49E4-A45B-E957977E01F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="178">
   <si>
     <t>Employee</t>
   </si>
@@ -572,6 +572,21 @@
   </si>
   <si>
     <t>ישיבת אבירי יעקב</t>
+  </si>
+  <si>
+    <t>EmploymentType</t>
+  </si>
+  <si>
+    <t>תעשיידע</t>
+  </si>
+  <si>
+    <t>מעוף</t>
+  </si>
+  <si>
+    <t>מנפאואר</t>
+  </si>
+  <si>
+    <t>עצמאי</t>
   </si>
 </sst>
 </file>
@@ -663,7 +678,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -675,32 +690,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -750,14 +739,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Comma 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
@@ -1076,11 +1063,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA141"/>
+  <dimension ref="A1:AB141"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C90" sqref="C90:C117"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB106" sqref="AB106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.1" customHeight="1"/>
@@ -1092,10 +1079,11 @@
     <col min="8" max="9" width="10.36328125" style="2" customWidth="1"/>
     <col min="10" max="25" width="10.81640625" customWidth="1"/>
     <col min="26" max="27" width="11" customWidth="1"/>
-    <col min="28" max="29" width="8.7265625" customWidth="1"/>
+    <col min="28" max="28" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1177,8 +1165,11 @@
       <c r="AA1" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB1" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>47</v>
       </c>
@@ -1206,38 +1197,38 @@
       <c r="I2" s="8">
         <v>0.45833333333333282</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="11">
         <v>46064</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="11">
         <v>46071</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="11">
         <v>46078</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="11">
         <v>46092</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="11">
         <v>46099</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="11">
         <v>46127</v>
       </c>
-      <c r="P2" s="13">
+      <c r="P2" s="11">
         <v>46141</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="Q2" s="11">
         <v>46156</v>
       </c>
-      <c r="R2" s="13"/>
+      <c r="R2" s="11"/>
       <c r="S2" s="7"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
       <c r="Z2" s="7" cm="1">
         <f t="array" ref="Z2">LOOKUP(2,1/(A2:Y2&lt;&gt;""),A2:Y2)</f>
         <v>46156</v>
@@ -1246,8 +1237,11 @@
         <f t="shared" ref="AA2:AA33" si="0">TEXT(Z2,"[$-he-IL]mmmm")</f>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB2" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>47</v>
       </c>
@@ -1275,38 +1269,38 @@
       <c r="I3" s="8">
         <v>0.64583333333333215</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="11">
         <v>46061</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="11">
         <v>46068</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="11">
         <v>46075</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="11">
         <v>46082</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="11">
         <v>46089</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="11">
         <v>46096</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="11">
         <v>46103</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="11">
         <v>46156</v>
       </c>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
       <c r="Z3" s="7" cm="1">
         <f t="array" ref="Z3">LOOKUP(2,1/(A3:Y3&lt;&gt;""),A3:Y3)</f>
         <v>46156</v>
@@ -1315,8 +1309,11 @@
         <f t="shared" si="0"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB3" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>100</v>
       </c>
@@ -1344,38 +1341,38 @@
       <c r="I4" s="8">
         <v>0.47916666666666607</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="11">
         <v>46079</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="11">
         <v>46086</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="11">
         <v>46093</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="11">
         <v>46100</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="11">
         <v>46121</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="11">
         <v>46128</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="11">
         <v>46135</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="11">
         <v>46156</v>
       </c>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
       <c r="Z4" s="7" cm="1">
         <f t="array" ref="Z4">LOOKUP(2,1/(A4:Y4&lt;&gt;""),A4:Y4)</f>
         <v>46156</v>
@@ -1384,8 +1381,11 @@
         <f t="shared" si="0"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB4" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>100</v>
       </c>
@@ -1413,38 +1413,38 @@
       <c r="I5" s="8">
         <v>0.39583333333333304</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="11">
         <v>46079</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="11">
         <v>46086</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="11">
         <v>46093</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="11">
         <v>46100</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="11">
         <v>46121</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="11">
         <v>46128</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="11">
         <v>46135</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="11">
         <v>46156</v>
       </c>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
       <c r="Z5" s="7" cm="1">
         <f t="array" ref="Z5">LOOKUP(2,1/(A5:Y5&lt;&gt;""),A5:Y5)</f>
         <v>46156</v>
@@ -1453,8 +1453,11 @@
         <f t="shared" si="0"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB5" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>100</v>
       </c>
@@ -1482,38 +1485,38 @@
       <c r="I6" s="8">
         <v>0.56249999999999911</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="11">
         <v>46079</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="11">
         <v>46086</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="11">
         <v>46093</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="11">
         <v>46100</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="11">
         <v>46121</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="11">
         <v>46128</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="11">
         <v>46135</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="11">
         <v>46156</v>
       </c>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
       <c r="Z6" s="7" cm="1">
         <f t="array" ref="Z6">LOOKUP(2,1/(A6:Y6&lt;&gt;""),A6:Y6)</f>
         <v>46156</v>
@@ -1522,8 +1525,11 @@
         <f t="shared" si="0"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB6" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>126</v>
       </c>
@@ -1551,38 +1557,38 @@
       <c r="I7" s="8">
         <v>0.5590277777777769</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="11">
         <v>46058</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="11">
         <v>46065</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="11">
         <v>46072</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="11">
         <v>46079</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="11">
         <v>46086</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="11">
         <v>46093</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="11">
         <v>46100</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="11">
         <v>46156</v>
       </c>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
       <c r="Z7" s="7" cm="1">
         <f t="array" ref="Z7">LOOKUP(2,1/(A7:Y7&lt;&gt;""),A7:Y7)</f>
         <v>46156</v>
@@ -1591,8 +1597,11 @@
         <f t="shared" si="0"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB7" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
@@ -1620,38 +1629,38 @@
       <c r="I8" s="8">
         <v>0.52083333333333259</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="11">
         <v>46064</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="11">
         <v>46071</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="11">
         <v>46078</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="11">
         <v>46092</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="11">
         <v>46099</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="11">
         <v>46127</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="11">
         <v>46141</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="11">
         <v>46156</v>
       </c>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
       <c r="Z8" s="7" cm="1">
         <f t="array" ref="Z8">LOOKUP(2,1/(A8:Y8&lt;&gt;""),A8:Y8)</f>
         <v>46156</v>
@@ -1660,8 +1669,11 @@
         <f t="shared" si="0"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB8" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -1689,38 +1701,38 @@
       <c r="I9" s="8">
         <v>0.39583333333333304</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="11">
         <v>46061</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="11">
         <v>46068</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="11">
         <v>46075</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="11">
         <v>46082</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="11">
         <v>46089</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="11">
         <v>46096</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="11">
         <v>46103</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="11">
         <v>46156</v>
       </c>
-      <c r="R9" s="13"/>
+      <c r="R9" s="11"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
       <c r="Z9" s="7" cm="1">
         <f t="array" ref="Z9">LOOKUP(2,1/(A9:Y9&lt;&gt;""),A9:Y9)</f>
         <v>46156</v>
@@ -1729,8 +1741,11 @@
         <f t="shared" si="0"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB9" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>53</v>
       </c>
@@ -1758,42 +1773,42 @@
       <c r="I10" s="8">
         <v>0.39583333333333304</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="11">
         <v>46090</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="11">
         <v>46097</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="11">
         <v>46104</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="11">
         <v>46125</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="11">
         <v>46139</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="11">
         <v>46146</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="11">
         <v>46153</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="11">
         <v>46160</v>
       </c>
-      <c r="R10" s="13">
+      <c r="R10" s="11">
         <v>46167</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S10" s="11">
         <v>46174</v>
       </c>
       <c r="T10" s="7"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
       <c r="Z10" s="7" cm="1">
         <f t="array" ref="Z10">LOOKUP(2,1/(A10:Y10&lt;&gt;""),A10:Y10)</f>
         <v>46174</v>
@@ -1802,8 +1817,11 @@
         <f t="shared" si="0"/>
         <v>יוני</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB10" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
@@ -1831,42 +1849,42 @@
       <c r="I11" s="8">
         <v>0.46874999999999944</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="11">
         <v>46090</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="11">
         <v>46097</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="11">
         <v>46104</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="11">
         <v>46125</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="11">
         <v>46139</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="11">
         <v>46146</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="11">
         <v>46153</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="11">
         <v>46160</v>
       </c>
-      <c r="R11" s="13">
+      <c r="R11" s="11">
         <v>46167</v>
       </c>
-      <c r="S11" s="13">
+      <c r="S11" s="11">
         <v>46174</v>
       </c>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
       <c r="Z11" s="7" cm="1">
         <f t="array" ref="Z11">LOOKUP(2,1/(A11:Y11&lt;&gt;""),A11:Y11)</f>
         <v>46174</v>
@@ -1875,8 +1893,11 @@
         <f t="shared" si="0"/>
         <v>יוני</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB11" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>53</v>
       </c>
@@ -1904,42 +1925,42 @@
       <c r="I12" s="8">
         <v>0.54513888888888806</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="11">
         <v>46090</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="11">
         <v>46097</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="11">
         <v>46104</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="11">
         <v>46125</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="11">
         <v>46139</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="11">
         <v>46146</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="11">
         <v>46153</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="11">
         <v>46160</v>
       </c>
-      <c r="R12" s="13">
+      <c r="R12" s="11">
         <v>46167</v>
       </c>
-      <c r="S12" s="13">
+      <c r="S12" s="11">
         <v>46174</v>
       </c>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
       <c r="Z12" s="7" cm="1">
         <f t="array" ref="Z12">LOOKUP(2,1/(A12:Y12&lt;&gt;""),A12:Y12)</f>
         <v>46174</v>
@@ -1948,8 +1969,11 @@
         <f t="shared" si="0"/>
         <v>יוני</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB12" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>53</v>
       </c>
@@ -1977,42 +2001,42 @@
       <c r="I13" s="8">
         <v>0.39236111111111083</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="11">
         <v>46086</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="11">
         <v>46093</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="11">
         <v>46100</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="11">
         <v>46121</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="11">
         <v>46128</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="11">
         <v>46135</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="11">
         <v>46142</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="11">
         <v>46149</v>
       </c>
-      <c r="R13" s="13">
+      <c r="R13" s="11">
         <v>46156</v>
       </c>
-      <c r="S13" s="13">
+      <c r="S13" s="11">
         <v>46170</v>
       </c>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
       <c r="Z13" s="7" cm="1">
         <f t="array" ref="Z13">LOOKUP(2,1/(A13:Y13&lt;&gt;""),A13:Y13)</f>
         <v>46170</v>
@@ -2021,8 +2045,11 @@
         <f t="shared" si="0"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB13" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
@@ -2050,28 +2077,28 @@
       <c r="I14" s="8">
         <v>0.44097222222222177</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="11">
         <v>46086</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="11">
         <v>46093</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="11">
         <v>46100</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="11">
         <v>46121</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="11">
         <v>46128</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="11">
         <v>46135</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="11">
         <v>46142</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="Q14" s="11">
         <v>46149</v>
       </c>
       <c r="R14" s="7">
@@ -2081,11 +2108,11 @@
         <v>46170</v>
       </c>
       <c r="T14" s="7"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
       <c r="Z14" s="7" cm="1">
         <f t="array" ref="Z14">LOOKUP(2,1/(A14:Y14&lt;&gt;""),A14:Y14)</f>
         <v>46170</v>
@@ -2094,8 +2121,11 @@
         <f t="shared" si="0"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB14" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
@@ -2123,42 +2153,42 @@
       <c r="I15" s="8">
         <v>0.54513888888888806</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="11">
         <v>46086</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="11">
         <v>46093</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="11">
         <v>46100</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="11">
         <v>46121</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="11">
         <v>46128</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="11">
         <v>46135</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="11">
         <v>46142</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="11">
         <v>46149</v>
       </c>
-      <c r="R15" s="13">
+      <c r="R15" s="11">
         <v>46156</v>
       </c>
-      <c r="S15" s="13">
+      <c r="S15" s="11">
         <v>46170</v>
       </c>
       <c r="T15" s="7"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
       <c r="Z15" s="7" cm="1">
         <f t="array" ref="Z15">LOOKUP(2,1/(A15:Y15&lt;&gt;""),A15:Y15)</f>
         <v>46170</v>
@@ -2167,8 +2197,11 @@
         <f t="shared" si="0"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB15" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>53</v>
       </c>
@@ -2196,40 +2229,40 @@
       <c r="I16" s="8">
         <v>0.47569444444444386</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="11">
         <v>46092</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="11">
         <v>46099</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="11">
         <v>46127</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="11">
         <v>46141</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="11">
         <v>46148</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="11">
         <v>46155</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="11">
         <v>46162</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="11">
         <v>46169</v>
       </c>
-      <c r="R16" s="13">
+      <c r="R16" s="11">
         <v>46176</v>
       </c>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
       <c r="Z16" s="7" cm="1">
         <f t="array" ref="Z16">LOOKUP(2,1/(A16:Y16&lt;&gt;""),A16:Y16)</f>
         <v>46176</v>
@@ -2238,8 +2271,11 @@
         <f t="shared" si="0"/>
         <v>יוני</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB16" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>53</v>
       </c>
@@ -2267,42 +2303,42 @@
       <c r="I17" s="8">
         <v>0.54513888888888806</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="11">
         <v>46092</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="11">
         <v>46099</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="11">
         <v>46127</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="11">
         <v>46141</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="11">
         <v>46148</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="11">
         <v>46155</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="11">
         <v>46162</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="11">
         <v>46169</v>
       </c>
-      <c r="R17" s="13">
+      <c r="R17" s="11">
         <v>46176</v>
       </c>
-      <c r="S17" s="13">
+      <c r="S17" s="11">
         <v>46183</v>
       </c>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
       <c r="Z17" s="7" cm="1">
         <f t="array" ref="Z17">LOOKUP(2,1/(A17:Y17&lt;&gt;""),A17:Y17)</f>
         <v>46183</v>
@@ -2311,8 +2347,11 @@
         <f t="shared" si="0"/>
         <v>יוני</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB17" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>53</v>
       </c>
@@ -2340,42 +2379,42 @@
       <c r="I18" s="8">
         <v>0.40277777777777746</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="11">
         <v>46092</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="11">
         <v>46099</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="11">
         <v>46127</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="11">
         <v>46141</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="11">
         <v>46148</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="11">
         <v>46155</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="11">
         <v>46162</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="11">
         <v>46169</v>
       </c>
-      <c r="R18" s="13">
+      <c r="R18" s="11">
         <v>46176</v>
       </c>
-      <c r="S18" s="13">
+      <c r="S18" s="11">
         <v>46183</v>
       </c>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
       <c r="Z18" s="7" cm="1">
         <f t="array" ref="Z18">LOOKUP(2,1/(A18:Y18&lt;&gt;""),A18:Y18)</f>
         <v>46183</v>
@@ -2384,8 +2423,11 @@
         <f t="shared" si="0"/>
         <v>יוני</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB18" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>53</v>
       </c>
@@ -2413,42 +2455,42 @@
       <c r="I19" s="8">
         <v>0.47916666666666607</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="11">
         <v>46091</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="11">
         <v>46098</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="11">
         <v>46126</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="11">
         <v>46140</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="11">
         <v>46147</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="11">
         <v>46154</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="11">
         <v>46161</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="Q19" s="11">
         <v>46168</v>
       </c>
-      <c r="R19" s="13">
+      <c r="R19" s="11">
         <v>46175</v>
       </c>
-      <c r="S19" s="13">
+      <c r="S19" s="11">
         <v>46182</v>
       </c>
       <c r="T19" s="7"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
       <c r="Z19" s="7" cm="1">
         <f t="array" ref="Z19">LOOKUP(2,1/(A19:Y19&lt;&gt;""),A19:Y19)</f>
         <v>46182</v>
@@ -2457,8 +2499,11 @@
         <f t="shared" si="0"/>
         <v>יוני</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB19" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>53</v>
       </c>
@@ -2486,42 +2531,42 @@
       <c r="I20" s="8">
         <v>0.51736111111111038</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="11">
         <v>46091</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="11">
         <v>46098</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="11">
         <v>46126</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="11">
         <v>46140</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="11">
         <v>46147</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="11">
         <v>46154</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="11">
         <v>46161</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q20" s="11">
         <v>46168</v>
       </c>
-      <c r="R20" s="13">
+      <c r="R20" s="11">
         <v>46175</v>
       </c>
-      <c r="S20" s="13">
+      <c r="S20" s="11">
         <v>46182</v>
       </c>
       <c r="T20" s="7"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
       <c r="Z20" s="7" cm="1">
         <f t="array" ref="Z20">LOOKUP(2,1/(A20:Y20&lt;&gt;""),A20:Y20)</f>
         <v>46182</v>
@@ -2530,8 +2575,11 @@
         <f t="shared" si="0"/>
         <v>יוני</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB20" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>53</v>
       </c>
@@ -2559,42 +2607,42 @@
       <c r="I21" s="8">
         <v>0.55208333333333248</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="11">
         <v>46091</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="11">
         <v>46098</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="11">
         <v>46126</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="11">
         <v>46140</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="11">
         <v>46147</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="11">
         <v>46154</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="11">
         <v>46161</v>
       </c>
-      <c r="Q21" s="13">
+      <c r="Q21" s="11">
         <v>46168</v>
       </c>
-      <c r="R21" s="13">
+      <c r="R21" s="11">
         <v>46175</v>
       </c>
-      <c r="S21" s="13">
+      <c r="S21" s="11">
         <v>46182</v>
       </c>
       <c r="T21" s="7"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
       <c r="Z21" s="7" cm="1">
         <f t="array" ref="Z21">LOOKUP(2,1/(A21:Y21&lt;&gt;""),A21:Y21)</f>
         <v>46182</v>
@@ -2603,8 +2651,11 @@
         <f t="shared" si="0"/>
         <v>יוני</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB21" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>34</v>
       </c>
@@ -2632,42 +2683,42 @@
       <c r="I22" s="8">
         <v>0.4166666666666663</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="11">
         <v>45991</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="11">
         <v>45998</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="11">
         <v>46005</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="11">
         <v>46019</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="11">
         <v>46040</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="11">
         <v>46047</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="11">
         <v>46054</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="Q22" s="11">
         <v>46061</v>
       </c>
-      <c r="R22" s="13">
+      <c r="R22" s="11">
         <v>46075</v>
       </c>
-      <c r="S22" s="13">
+      <c r="S22" s="11">
         <v>46082</v>
       </c>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
       <c r="Z22" s="7" cm="1">
         <f t="array" ref="Z22">LOOKUP(2,1/(A22:Y22&lt;&gt;""),A22:Y22)</f>
         <v>46082</v>
@@ -2676,8 +2727,11 @@
         <f t="shared" si="0"/>
         <v>מרץ</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB22" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>61</v>
       </c>
@@ -2705,28 +2759,28 @@
       <c r="I23" s="8">
         <v>0.40624999999999967</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="11">
         <v>45996</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="11">
         <v>46003</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="11">
         <v>46017</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M23" s="11">
         <v>46024</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N23" s="11">
         <v>46031</v>
       </c>
-      <c r="O23" s="13">
+      <c r="O23" s="11">
         <v>46038</v>
       </c>
-      <c r="P23" s="13">
+      <c r="P23" s="11">
         <v>46045</v>
       </c>
-      <c r="Q23" s="13">
+      <c r="Q23" s="11">
         <v>46052</v>
       </c>
       <c r="R23" s="7">
@@ -2736,11 +2790,11 @@
         <v>46066</v>
       </c>
       <c r="T23" s="7"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
       <c r="Z23" s="7" cm="1">
         <f t="array" ref="Z23">LOOKUP(2,1/(A23:Y23&lt;&gt;""),A23:Y23)</f>
         <v>46066</v>
@@ -2749,8 +2803,11 @@
         <f t="shared" si="0"/>
         <v>פברואר</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB23" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>34</v>
       </c>
@@ -2778,40 +2835,40 @@
       <c r="I24" s="8">
         <v>0.57291666666666574</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="11">
         <v>46002</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="11">
         <v>46016</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="11">
         <v>46023</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M24" s="11">
         <v>46030</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N24" s="11">
         <v>46037</v>
       </c>
-      <c r="O24" s="13">
+      <c r="O24" s="11">
         <v>46044</v>
       </c>
-      <c r="P24" s="13">
+      <c r="P24" s="11">
         <v>46051</v>
       </c>
-      <c r="Q24" s="13">
+      <c r="Q24" s="11">
         <v>46058</v>
       </c>
-      <c r="R24" s="13">
+      <c r="R24" s="11">
         <v>46072</v>
       </c>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
       <c r="Z24" s="7" cm="1">
         <f t="array" ref="Z24">LOOKUP(2,1/(A24:Y24&lt;&gt;""),A24:Y24)</f>
         <v>46072</v>
@@ -2820,8 +2877,11 @@
         <f t="shared" si="0"/>
         <v>פברואר</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB24" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>133</v>
       </c>
@@ -2845,42 +2905,42 @@
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="13">
+      <c r="J25" s="11">
         <v>46071</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="11">
         <v>46078</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="11">
         <v>46092</v>
       </c>
-      <c r="M25" s="13">
+      <c r="M25" s="11">
         <v>46099</v>
       </c>
-      <c r="N25" s="13">
+      <c r="N25" s="11">
         <v>46127</v>
       </c>
-      <c r="O25" s="13">
+      <c r="O25" s="11">
         <v>46141</v>
       </c>
-      <c r="P25" s="13">
+      <c r="P25" s="11">
         <v>46148</v>
       </c>
-      <c r="Q25" s="13">
+      <c r="Q25" s="11">
         <v>46162</v>
       </c>
-      <c r="R25" s="13">
+      <c r="R25" s="11">
         <v>46169</v>
       </c>
-      <c r="S25" s="13">
+      <c r="S25" s="11">
         <v>46176</v>
       </c>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
       <c r="Z25" s="7" cm="1">
         <f t="array" ref="Z25">LOOKUP(2,1/(A25:Y25&lt;&gt;""),A25:Y25)</f>
         <v>46176</v>
@@ -2889,8 +2949,11 @@
         <f t="shared" si="0"/>
         <v>יוני</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB25" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
@@ -2915,46 +2978,46 @@
       <c r="H26" s="8">
         <v>0.43749999999999956</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="8">
         <v>0.49999999999999933</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="11">
         <v>45991</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="11">
         <v>45998</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="11">
         <v>46005</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="11">
         <v>46019</v>
       </c>
-      <c r="N26" s="13">
+      <c r="N26" s="11">
         <v>46040</v>
       </c>
-      <c r="O26" s="13">
+      <c r="O26" s="11">
         <v>46047</v>
       </c>
-      <c r="P26" s="13">
+      <c r="P26" s="11">
         <v>46054</v>
       </c>
-      <c r="Q26" s="13">
+      <c r="Q26" s="11">
         <v>46061</v>
       </c>
-      <c r="R26" s="13">
+      <c r="R26" s="11">
         <v>46075</v>
       </c>
-      <c r="S26" s="13">
+      <c r="S26" s="11">
         <v>46082</v>
       </c>
       <c r="T26" s="7"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="12" cm="1">
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="7" cm="1">
         <f t="array" ref="Z26">LOOKUP(2,1/(A26:Y26&lt;&gt;""),A26:Y26)</f>
         <v>46082</v>
       </c>
@@ -2962,8 +3025,11 @@
         <f t="shared" si="0"/>
         <v>מרץ</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB26" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>59</v>
       </c>
@@ -2988,46 +3054,46 @@
       <c r="H27" s="8">
         <v>0.35416666666666652</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="8">
         <v>0.4166666666666663</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="11">
         <v>46042</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="11">
         <v>46049</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="11">
         <v>46056</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="11">
         <v>46063</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N27" s="11">
         <v>46077</v>
       </c>
-      <c r="O27" s="13">
+      <c r="O27" s="11">
         <v>46091</v>
       </c>
-      <c r="P27" s="13">
+      <c r="P27" s="11">
         <v>46098</v>
       </c>
-      <c r="Q27" s="13">
+      <c r="Q27" s="11">
         <v>46126</v>
       </c>
-      <c r="R27" s="13">
+      <c r="R27" s="11">
         <v>46140</v>
       </c>
-      <c r="S27" s="13">
+      <c r="S27" s="11">
         <v>46147</v>
       </c>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="12" cm="1">
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="7" cm="1">
         <f t="array" ref="Z27">LOOKUP(2,1/(A27:Y27&lt;&gt;""),A27:Y27)</f>
         <v>46147</v>
       </c>
@@ -3035,8 +3101,11 @@
         <f t="shared" si="0"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB27" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>34</v>
       </c>
@@ -3061,44 +3130,44 @@
       <c r="H28" s="8">
         <v>0.38541666666666641</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="8">
         <v>0.46874999999999944</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="11">
         <v>46002</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="11">
         <v>46016</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="11">
         <v>46023</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="11">
         <v>46030</v>
       </c>
-      <c r="N28" s="13">
+      <c r="N28" s="11">
         <v>46037</v>
       </c>
-      <c r="O28" s="13">
+      <c r="O28" s="11">
         <v>46044</v>
       </c>
-      <c r="P28" s="13">
+      <c r="P28" s="11">
         <v>46051</v>
       </c>
-      <c r="Q28" s="13">
+      <c r="Q28" s="11">
         <v>46058</v>
       </c>
-      <c r="R28" s="13">
+      <c r="R28" s="11">
         <v>46072</v>
       </c>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="12" cm="1">
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="7" cm="1">
         <f t="array" ref="Z28">LOOKUP(2,1/(A28:Y28&lt;&gt;""),A28:Y28)</f>
         <v>46072</v>
       </c>
@@ -3106,8 +3175,11 @@
         <f t="shared" si="0"/>
         <v>פברואר</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB28" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>61</v>
       </c>
@@ -3132,46 +3204,46 @@
       <c r="H29" s="8">
         <v>0.43749999999999956</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="8">
         <v>0.49305555555555491</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="11">
         <v>45996</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="11">
         <v>46003</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="11">
         <v>46017</v>
       </c>
-      <c r="M29" s="13">
+      <c r="M29" s="11">
         <v>46024</v>
       </c>
-      <c r="N29" s="13">
+      <c r="N29" s="11">
         <v>46031</v>
       </c>
-      <c r="O29" s="13">
+      <c r="O29" s="11">
         <v>46038</v>
       </c>
-      <c r="P29" s="13">
+      <c r="P29" s="11">
         <v>46045</v>
       </c>
-      <c r="Q29" s="13">
+      <c r="Q29" s="11">
         <v>46052</v>
       </c>
-      <c r="R29" s="13">
+      <c r="R29" s="11">
         <v>46059</v>
       </c>
-      <c r="S29" s="13">
+      <c r="S29" s="11">
         <v>46066</v>
       </c>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="12" cm="1">
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="7" cm="1">
         <f t="array" ref="Z29">LOOKUP(2,1/(A29:Y29&lt;&gt;""),A29:Y29)</f>
         <v>46066</v>
       </c>
@@ -3179,8 +3251,11 @@
         <f t="shared" si="0"/>
         <v>פברואר</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB29" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>145</v>
       </c>
@@ -3205,52 +3280,52 @@
       <c r="H30" s="8">
         <v>0.68749999999999867</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="8">
         <v>0.72916666666666519</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="11">
         <v>46077</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="11">
         <v>46091</v>
       </c>
-      <c r="L30" s="13">
+      <c r="L30" s="11">
         <v>46098</v>
       </c>
-      <c r="M30" s="13">
+      <c r="M30" s="11">
         <v>46126</v>
       </c>
-      <c r="N30" s="13">
+      <c r="N30" s="11">
         <v>46140</v>
       </c>
-      <c r="O30" s="13">
+      <c r="O30" s="11">
         <v>46147</v>
       </c>
-      <c r="P30" s="13">
+      <c r="P30" s="11">
         <v>46154</v>
       </c>
-      <c r="Q30" s="13">
+      <c r="Q30" s="11">
         <v>46161</v>
       </c>
-      <c r="R30" s="13">
+      <c r="R30" s="11">
         <v>46168</v>
       </c>
-      <c r="S30" s="13">
+      <c r="S30" s="11">
         <v>46175</v>
       </c>
-      <c r="T30" s="13">
+      <c r="T30" s="11">
         <v>46182</v>
       </c>
-      <c r="U30" s="13">
+      <c r="U30" s="11">
         <v>46189</v>
       </c>
-      <c r="V30" s="13">
+      <c r="V30" s="11">
         <v>46196</v>
       </c>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="12" cm="1">
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="7" cm="1">
         <f t="array" ref="Z30">LOOKUP(2,1/(A30:Y30&lt;&gt;""),A30:Y30)</f>
         <v>46196</v>
       </c>
@@ -3258,8 +3333,11 @@
         <f t="shared" si="0"/>
         <v>יוני</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB30" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>145</v>
       </c>
@@ -3284,52 +3362,52 @@
       <c r="H31" s="8">
         <v>0.72916666666666519</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="8">
         <v>0.74999999999999845</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="11">
         <v>46077</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="11">
         <v>46091</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="11">
         <v>46098</v>
       </c>
-      <c r="M31" s="13">
+      <c r="M31" s="11">
         <v>46126</v>
       </c>
-      <c r="N31" s="13">
+      <c r="N31" s="11">
         <v>46140</v>
       </c>
-      <c r="O31" s="13">
+      <c r="O31" s="11">
         <v>46147</v>
       </c>
-      <c r="P31" s="13">
+      <c r="P31" s="11">
         <v>46154</v>
       </c>
-      <c r="Q31" s="13">
+      <c r="Q31" s="11">
         <v>46161</v>
       </c>
-      <c r="R31" s="13">
+      <c r="R31" s="11">
         <v>46168</v>
       </c>
-      <c r="S31" s="13">
+      <c r="S31" s="11">
         <v>46175</v>
       </c>
-      <c r="T31" s="13">
+      <c r="T31" s="11">
         <v>46182</v>
       </c>
-      <c r="U31" s="13">
+      <c r="U31" s="11">
         <v>46189</v>
       </c>
-      <c r="V31" s="13">
+      <c r="V31" s="11">
         <v>46196</v>
       </c>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="12" cm="1">
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="7" cm="1">
         <f t="array" ref="Z31">LOOKUP(2,1/(A31:Y31&lt;&gt;""),A31:Y31)</f>
         <v>46196</v>
       </c>
@@ -3337,8 +3415,11 @@
         <f t="shared" si="0"/>
         <v>יוני</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB31" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>111</v>
       </c>
@@ -3363,46 +3444,46 @@
       <c r="H32" s="8">
         <v>0.42708333333333293</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="8">
         <v>0.4895833333333327</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="11">
         <v>46034</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K32" s="11">
         <v>46048</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="11">
         <v>46062</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M32" s="11">
         <v>46076</v>
       </c>
-      <c r="N32" s="13">
+      <c r="N32" s="11">
         <v>46090</v>
       </c>
-      <c r="O32" s="13">
+      <c r="O32" s="11">
         <v>46104</v>
       </c>
-      <c r="P32" s="13">
+      <c r="P32" s="11">
         <v>46146</v>
       </c>
-      <c r="Q32" s="13">
+      <c r="Q32" s="11">
         <v>46160</v>
       </c>
-      <c r="R32" s="13">
+      <c r="R32" s="11">
         <v>46181</v>
       </c>
-      <c r="S32" s="13">
+      <c r="S32" s="11">
         <v>46188</v>
       </c>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="12" cm="1">
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="7" cm="1">
         <f t="array" ref="Z32">LOOKUP(2,1/(A32:Y32&lt;&gt;""),A32:Y32)</f>
         <v>46188</v>
       </c>
@@ -3410,8 +3491,11 @@
         <f t="shared" si="0"/>
         <v>יוני</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB32" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>111</v>
       </c>
@@ -3436,46 +3520,46 @@
       <c r="H33" s="8">
         <v>0.49999999999999933</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="8">
         <v>0.56944444444444353</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="11">
         <v>46034</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K33" s="11">
         <v>46048</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="11">
         <v>46062</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="11">
         <v>46076</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N33" s="11">
         <v>46090</v>
       </c>
-      <c r="O33" s="13">
+      <c r="O33" s="11">
         <v>46104</v>
       </c>
-      <c r="P33" s="13">
+      <c r="P33" s="11">
         <v>46146</v>
       </c>
-      <c r="Q33" s="13">
+      <c r="Q33" s="11">
         <v>46160</v>
       </c>
-      <c r="R33" s="13">
+      <c r="R33" s="11">
         <v>46181</v>
       </c>
-      <c r="S33" s="13">
+      <c r="S33" s="11">
         <v>46188</v>
       </c>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
-      <c r="Z33" s="12" cm="1">
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="7" cm="1">
         <f t="array" ref="Z33">LOOKUP(2,1/(A33:Y33&lt;&gt;""),A33:Y33)</f>
         <v>46188</v>
       </c>
@@ -3483,8 +3567,11 @@
         <f t="shared" si="0"/>
         <v>יוני</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB33" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>111</v>
       </c>
@@ -3509,42 +3596,42 @@
       <c r="H34" s="8">
         <v>0.35416666666666652</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="8">
         <v>0.4166666666666663</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="11">
         <v>46076</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="11">
         <v>46090</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L34" s="11">
         <v>46104</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M34" s="11">
         <v>46146</v>
       </c>
-      <c r="N34" s="13">
+      <c r="N34" s="11">
         <v>46160</v>
       </c>
-      <c r="O34" s="13">
+      <c r="O34" s="11">
         <v>46181</v>
       </c>
-      <c r="P34" s="13">
+      <c r="P34" s="11">
         <v>46188</v>
       </c>
-      <c r="Q34" s="13">
+      <c r="Q34" s="11">
         <v>46195</v>
       </c>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="12" cm="1">
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="7" cm="1">
         <f t="array" ref="Z34">LOOKUP(2,1/(A34:Y34&lt;&gt;""),A34:Y34)</f>
         <v>46195</v>
       </c>
@@ -3552,8 +3639,11 @@
         <f t="shared" ref="AA34:AA65" si="1">TEXT(Z34,"[$-he-IL]mmmm")</f>
         <v>יוני</v>
       </c>
-    </row>
-    <row r="35" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB34" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>111</v>
       </c>
@@ -3578,46 +3668,46 @@
       <c r="H35" s="8">
         <v>0.44791666666666619</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35" s="8">
         <v>0.52083333333333259</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="11">
         <v>46070</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K35" s="11">
         <v>46077</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L35" s="11">
         <v>46091</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M35" s="11">
         <v>46140</v>
       </c>
-      <c r="N35" s="13">
+      <c r="N35" s="11">
         <v>46154</v>
       </c>
-      <c r="O35" s="13">
+      <c r="O35" s="11">
         <v>46161</v>
       </c>
-      <c r="P35" s="13">
+      <c r="P35" s="11">
         <v>46168</v>
       </c>
-      <c r="Q35" s="13">
+      <c r="Q35" s="11">
         <v>46175</v>
       </c>
-      <c r="R35" s="13">
+      <c r="R35" s="11">
         <v>46182</v>
       </c>
-      <c r="S35" s="13">
+      <c r="S35" s="11">
         <v>46189</v>
       </c>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="12" cm="1">
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="7" cm="1">
         <f t="array" ref="Z35">LOOKUP(2,1/(A35:Y35&lt;&gt;""),A35:Y35)</f>
         <v>46189</v>
       </c>
@@ -3625,8 +3715,11 @@
         <f t="shared" si="1"/>
         <v>יוני</v>
       </c>
-    </row>
-    <row r="36" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB35" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>111</v>
       </c>
@@ -3651,46 +3744,46 @@
       <c r="H36" s="8">
         <v>0.52083333333333259</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="8">
         <v>0.60069444444444342</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J36" s="11">
         <v>46070</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K36" s="11">
         <v>46077</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L36" s="11">
         <v>46091</v>
       </c>
-      <c r="M36" s="13">
+      <c r="M36" s="11">
         <v>46140</v>
       </c>
-      <c r="N36" s="13">
+      <c r="N36" s="11">
         <v>46154</v>
       </c>
-      <c r="O36" s="13">
+      <c r="O36" s="11">
         <v>46161</v>
       </c>
-      <c r="P36" s="13">
+      <c r="P36" s="11">
         <v>46168</v>
       </c>
-      <c r="Q36" s="13">
+      <c r="Q36" s="11">
         <v>46175</v>
       </c>
-      <c r="R36" s="13">
+      <c r="R36" s="11">
         <v>46182</v>
       </c>
-      <c r="S36" s="13">
+      <c r="S36" s="11">
         <v>46189</v>
       </c>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="12" cm="1">
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="7" cm="1">
         <f t="array" ref="Z36">LOOKUP(2,1/(A36:Y36&lt;&gt;""),A36:Y36)</f>
         <v>46189</v>
       </c>
@@ -3698,8 +3791,11 @@
         <f t="shared" si="1"/>
         <v>יוני</v>
       </c>
-    </row>
-    <row r="37" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB36" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>145</v>
       </c>
@@ -3724,31 +3820,31 @@
       <c r="H37" s="8">
         <v>0.33333333333333326</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I37" s="8">
         <v>0.40277777777777746</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J37" s="11">
         <v>46089</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K37" s="11">
         <v>46096</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L37" s="11">
         <v>46103</v>
       </c>
-      <c r="M37" s="13">
+      <c r="M37" s="11">
         <v>46124</v>
       </c>
-      <c r="N37" s="13">
+      <c r="N37" s="11">
         <v>46131</v>
       </c>
-      <c r="O37" s="13">
+      <c r="O37" s="11">
         <v>46138</v>
       </c>
-      <c r="P37" s="13">
+      <c r="P37" s="11">
         <v>46145</v>
       </c>
-      <c r="Q37" s="13">
+      <c r="Q37" s="11">
         <v>46152</v>
       </c>
       <c r="R37" s="7">
@@ -3758,12 +3854,12 @@
         <v>46166</v>
       </c>
       <c r="T37" s="7"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="13"/>
-      <c r="Z37" s="12" cm="1">
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="7" cm="1">
         <f t="array" ref="Z37">LOOKUP(2,1/(A37:Y37&lt;&gt;""),A37:Y37)</f>
         <v>46166</v>
       </c>
@@ -3771,8 +3867,11 @@
         <f t="shared" si="1"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="38" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB37" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>111</v>
       </c>
@@ -3797,31 +3896,31 @@
       <c r="H38" s="8">
         <v>0.42013888888888851</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I38" s="8">
         <v>0.48263888888888828</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J38" s="11">
         <v>46075</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K38" s="11">
         <v>46082</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L38" s="11">
         <v>46089</v>
       </c>
-      <c r="M38" s="13">
+      <c r="M38" s="11">
         <v>46096</v>
       </c>
-      <c r="N38" s="13">
+      <c r="N38" s="11">
         <v>46103</v>
       </c>
-      <c r="O38" s="13">
+      <c r="O38" s="11">
         <v>46124</v>
       </c>
-      <c r="P38" s="13">
+      <c r="P38" s="11">
         <v>46131</v>
       </c>
-      <c r="Q38" s="13">
+      <c r="Q38" s="11">
         <v>46138</v>
       </c>
       <c r="R38" s="7">
@@ -3831,12 +3930,12 @@
         <v>46152</v>
       </c>
       <c r="T38" s="7"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="12" cm="1">
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="7" cm="1">
         <f t="array" ref="Z38">LOOKUP(2,1/(A38:Y38&lt;&gt;""),A38:Y38)</f>
         <v>46152</v>
       </c>
@@ -3844,8 +3943,11 @@
         <f t="shared" si="1"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="39" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB38" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>111</v>
       </c>
@@ -3870,46 +3972,46 @@
       <c r="H39" s="8">
         <v>0.52083333333333259</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I39" s="8">
         <v>0.59722222222222121</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="11">
         <v>46071</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K39" s="11">
         <v>46078</v>
       </c>
-      <c r="L39" s="13">
+      <c r="L39" s="11">
         <v>46092</v>
       </c>
-      <c r="M39" s="13">
+      <c r="M39" s="11">
         <v>46099</v>
       </c>
-      <c r="N39" s="13">
+      <c r="N39" s="11">
         <v>46127</v>
       </c>
-      <c r="O39" s="13">
+      <c r="O39" s="11">
         <v>46141</v>
       </c>
-      <c r="P39" s="13">
+      <c r="P39" s="11">
         <v>46148</v>
       </c>
-      <c r="Q39" s="13">
+      <c r="Q39" s="11">
         <v>46155</v>
       </c>
-      <c r="R39" s="13">
+      <c r="R39" s="11">
         <v>46162</v>
       </c>
-      <c r="S39" s="13">
+      <c r="S39" s="11">
         <v>46169</v>
       </c>
       <c r="T39" s="7"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="12" cm="1">
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="7" cm="1">
         <f t="array" ref="Z39">LOOKUP(2,1/(A39:Y39&lt;&gt;""),A39:Y39)</f>
         <v>46169</v>
       </c>
@@ -3917,8 +4019,11 @@
         <f t="shared" si="1"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="40" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB39" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A40" s="5"/>
       <c r="B40" s="5" t="s">
         <v>65</v>
@@ -3937,44 +4042,44 @@
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="8"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="13">
+      <c r="I40" s="8"/>
+      <c r="J40" s="11">
         <v>46124</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K40" s="11">
         <v>46131</v>
       </c>
-      <c r="L40" s="13">
+      <c r="L40" s="11">
         <v>46138</v>
       </c>
-      <c r="M40" s="13">
+      <c r="M40" s="11">
         <v>46145</v>
       </c>
-      <c r="N40" s="13">
+      <c r="N40" s="11">
         <v>46152</v>
       </c>
-      <c r="O40" s="13">
+      <c r="O40" s="11">
         <v>46159</v>
       </c>
-      <c r="P40" s="13">
+      <c r="P40" s="11">
         <v>46166</v>
       </c>
-      <c r="Q40" s="13">
+      <c r="Q40" s="11">
         <v>46173</v>
       </c>
-      <c r="R40" s="13">
+      <c r="R40" s="11">
         <v>46180</v>
       </c>
-      <c r="S40" s="13">
+      <c r="S40" s="11">
         <v>46187</v>
       </c>
       <c r="T40" s="7"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="12" cm="1">
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="7" cm="1">
         <f t="array" ref="Z40">LOOKUP(2,1/(A40:Y40&lt;&gt;""),A40:Y40)</f>
         <v>46187</v>
       </c>
@@ -3982,8 +4087,9 @@
         <f t="shared" si="1"/>
         <v>יוני</v>
       </c>
-    </row>
-    <row r="41" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB40" s="14"/>
+    </row>
+    <row r="41" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A41" s="5"/>
       <c r="B41" s="5" t="s">
         <v>65</v>
@@ -4002,44 +4108,44 @@
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="13">
+      <c r="I41" s="8"/>
+      <c r="J41" s="11">
         <v>46124</v>
       </c>
-      <c r="K41" s="13">
+      <c r="K41" s="11">
         <v>46131</v>
       </c>
-      <c r="L41" s="13">
+      <c r="L41" s="11">
         <v>46138</v>
       </c>
-      <c r="M41" s="13">
+      <c r="M41" s="11">
         <v>46145</v>
       </c>
-      <c r="N41" s="13">
+      <c r="N41" s="11">
         <v>46152</v>
       </c>
-      <c r="O41" s="13">
+      <c r="O41" s="11">
         <v>46159</v>
       </c>
-      <c r="P41" s="13">
+      <c r="P41" s="11">
         <v>46166</v>
       </c>
-      <c r="Q41" s="13">
+      <c r="Q41" s="11">
         <v>46173</v>
       </c>
-      <c r="R41" s="13">
+      <c r="R41" s="11">
         <v>46180</v>
       </c>
-      <c r="S41" s="13">
+      <c r="S41" s="11">
         <v>46187</v>
       </c>
       <c r="T41" s="7"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="13"/>
-      <c r="W41" s="13"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="13"/>
-      <c r="Z41" s="12" cm="1">
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="7" cm="1">
         <f t="array" ref="Z41">LOOKUP(2,1/(A41:Y41&lt;&gt;""),A41:Y41)</f>
         <v>46187</v>
       </c>
@@ -4047,8 +4153,9 @@
         <f t="shared" si="1"/>
         <v>יוני</v>
       </c>
-    </row>
-    <row r="42" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB41" s="14"/>
+    </row>
+    <row r="42" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A42" s="5" t="s">
         <v>47</v>
       </c>
@@ -4069,34 +4176,34 @@
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="13">
+      <c r="I42" s="8"/>
+      <c r="J42" s="11">
         <v>46174</v>
       </c>
-      <c r="K42" s="13">
+      <c r="K42" s="11">
         <v>46181</v>
       </c>
-      <c r="L42" s="13">
+      <c r="L42" s="11">
         <v>46188</v>
       </c>
-      <c r="M42" s="13">
+      <c r="M42" s="11">
         <v>46195</v>
       </c>
-      <c r="N42" s="13">
+      <c r="N42" s="11">
         <v>46202</v>
       </c>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="12" cm="1">
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="7" cm="1">
         <f t="array" ref="Z42">LOOKUP(2,1/(A42:Y42&lt;&gt;""),A42:Y42)</f>
         <v>46202</v>
       </c>
@@ -4104,8 +4211,11 @@
         <f t="shared" si="1"/>
         <v>יוני</v>
       </c>
-    </row>
-    <row r="43" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB42" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>47</v>
       </c>
@@ -4126,34 +4236,34 @@
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="13">
+      <c r="I43" s="8"/>
+      <c r="J43" s="11">
         <v>46174</v>
       </c>
-      <c r="K43" s="13">
+      <c r="K43" s="11">
         <v>46181</v>
       </c>
-      <c r="L43" s="13">
+      <c r="L43" s="11">
         <v>46188</v>
       </c>
-      <c r="M43" s="13">
+      <c r="M43" s="11">
         <v>46195</v>
       </c>
-      <c r="N43" s="13">
+      <c r="N43" s="11">
         <v>46202</v>
       </c>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="13"/>
-      <c r="W43" s="13"/>
-      <c r="X43" s="13"/>
-      <c r="Y43" s="13"/>
-      <c r="Z43" s="12" cm="1">
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="7" cm="1">
         <f t="array" ref="Z43">LOOKUP(2,1/(A43:Y43&lt;&gt;""),A43:Y43)</f>
         <v>46202</v>
       </c>
@@ -4161,8 +4271,11 @@
         <f t="shared" si="1"/>
         <v>יוני</v>
       </c>
-    </row>
-    <row r="44" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB43" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A44" s="5" t="s">
         <v>27</v>
       </c>
@@ -4187,44 +4300,44 @@
       <c r="H44" s="8">
         <v>0.36805555555555536</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I44" s="8">
         <v>0.4513888888888884</v>
       </c>
-      <c r="J44" s="13">
+      <c r="J44" s="11">
         <v>45991</v>
       </c>
-      <c r="K44" s="13">
+      <c r="K44" s="11">
         <v>45998</v>
       </c>
-      <c r="L44" s="13">
+      <c r="L44" s="11">
         <v>46005</v>
       </c>
-      <c r="M44" s="13">
+      <c r="M44" s="11">
         <v>46019</v>
       </c>
-      <c r="N44" s="13">
+      <c r="N44" s="11">
         <v>46026</v>
       </c>
-      <c r="O44" s="13">
+      <c r="O44" s="11">
         <v>46033</v>
       </c>
-      <c r="P44" s="13">
+      <c r="P44" s="11">
         <v>46040</v>
       </c>
-      <c r="Q44" s="13">
+      <c r="Q44" s="11">
         <v>46047</v>
       </c>
-      <c r="R44" s="13">
+      <c r="R44" s="11">
         <v>46054</v>
       </c>
-      <c r="S44" s="13"/>
+      <c r="S44" s="11"/>
       <c r="T44" s="7"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="13"/>
-      <c r="X44" s="13"/>
-      <c r="Y44" s="13"/>
-      <c r="Z44" s="12" cm="1">
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="7" cm="1">
         <f t="array" ref="Z44">LOOKUP(2,1/(A44:Y44&lt;&gt;""),A44:Y44)</f>
         <v>46054</v>
       </c>
@@ -4232,8 +4345,11 @@
         <f t="shared" si="1"/>
         <v>פברואר</v>
       </c>
-    </row>
-    <row r="45" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB44" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>27</v>
       </c>
@@ -4258,46 +4374,46 @@
       <c r="H45" s="8">
         <v>0.3472222222222221</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I45" s="8">
         <v>0.40624999999999967</v>
       </c>
-      <c r="J45" s="13">
+      <c r="J45" s="11">
         <v>46031</v>
       </c>
-      <c r="K45" s="13">
+      <c r="K45" s="11">
         <v>46038</v>
       </c>
-      <c r="L45" s="13">
+      <c r="L45" s="11">
         <v>46045</v>
       </c>
-      <c r="M45" s="13">
+      <c r="M45" s="11">
         <v>46052</v>
       </c>
-      <c r="N45" s="13">
+      <c r="N45" s="11">
         <v>46059</v>
       </c>
-      <c r="O45" s="13">
+      <c r="O45" s="11">
         <v>46066</v>
       </c>
-      <c r="P45" s="13">
+      <c r="P45" s="11">
         <v>46073</v>
       </c>
-      <c r="Q45" s="13">
+      <c r="Q45" s="11">
         <v>46080</v>
       </c>
-      <c r="R45" s="13">
+      <c r="R45" s="11">
         <v>46087</v>
       </c>
-      <c r="S45" s="13">
+      <c r="S45" s="11">
         <v>46094</v>
       </c>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
-      <c r="X45" s="13"/>
-      <c r="Y45" s="13"/>
-      <c r="Z45" s="12" cm="1">
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="7" cm="1">
         <f t="array" ref="Z45">LOOKUP(2,1/(A45:Y45&lt;&gt;""),A45:Y45)</f>
         <v>46094</v>
       </c>
@@ -4305,8 +4421,11 @@
         <f t="shared" si="1"/>
         <v>מרץ</v>
       </c>
-    </row>
-    <row r="46" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB45" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>43</v>
       </c>
@@ -4331,46 +4450,46 @@
       <c r="H46" s="8">
         <v>0.43749999999999956</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I46" s="8">
         <v>0.49999999999999933</v>
       </c>
-      <c r="J46" s="13">
+      <c r="J46" s="11">
         <v>46016</v>
       </c>
-      <c r="K46" s="13">
+      <c r="K46" s="11">
         <v>46023</v>
       </c>
-      <c r="L46" s="13">
+      <c r="L46" s="11">
         <v>46030</v>
       </c>
-      <c r="M46" s="13">
+      <c r="M46" s="11">
         <v>46037</v>
       </c>
-      <c r="N46" s="13">
+      <c r="N46" s="11">
         <v>46044</v>
       </c>
-      <c r="O46" s="13">
+      <c r="O46" s="11">
         <v>46051</v>
       </c>
-      <c r="P46" s="13">
+      <c r="P46" s="11">
         <v>46058</v>
       </c>
-      <c r="Q46" s="13">
+      <c r="Q46" s="11">
         <v>46065</v>
       </c>
-      <c r="R46" s="13">
+      <c r="R46" s="11">
         <v>46072</v>
       </c>
-      <c r="S46" s="13">
+      <c r="S46" s="11">
         <v>46079</v>
       </c>
-      <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="13"/>
-      <c r="W46" s="13"/>
-      <c r="X46" s="13"/>
-      <c r="Y46" s="13"/>
-      <c r="Z46" s="12" cm="1">
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="7" cm="1">
         <f t="array" ref="Z46">LOOKUP(2,1/(A46:Y46&lt;&gt;""),A46:Y46)</f>
         <v>46079</v>
       </c>
@@ -4378,8 +4497,11 @@
         <f t="shared" si="1"/>
         <v>פברואר</v>
       </c>
-    </row>
-    <row r="47" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB46" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>133</v>
       </c>
@@ -4404,42 +4526,42 @@
       <c r="H47" s="8">
         <v>0.33333333333333326</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I47" s="8">
         <v>0.40277777777777746</v>
       </c>
-      <c r="J47" s="13">
+      <c r="J47" s="11">
         <v>46026</v>
       </c>
-      <c r="K47" s="13">
+      <c r="K47" s="11">
         <v>46033</v>
       </c>
-      <c r="L47" s="13">
+      <c r="L47" s="11">
         <v>46040</v>
       </c>
-      <c r="M47" s="13">
+      <c r="M47" s="11">
         <v>46047</v>
       </c>
-      <c r="N47" s="13">
+      <c r="N47" s="11">
         <v>46054</v>
       </c>
-      <c r="O47" s="13">
+      <c r="O47" s="11">
         <v>46061</v>
       </c>
-      <c r="P47" s="13">
+      <c r="P47" s="11">
         <v>46068</v>
       </c>
-      <c r="Q47" s="13">
+      <c r="Q47" s="11">
         <v>46075</v>
       </c>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="13"/>
-      <c r="V47" s="13"/>
-      <c r="W47" s="13"/>
-      <c r="X47" s="13"/>
-      <c r="Y47" s="13"/>
-      <c r="Z47" s="12" cm="1">
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="7" cm="1">
         <f t="array" ref="Z47">LOOKUP(2,1/(A47:Y47&lt;&gt;""),A47:Y47)</f>
         <v>46075</v>
       </c>
@@ -4447,8 +4569,11 @@
         <f t="shared" si="1"/>
         <v>פברואר</v>
       </c>
-    </row>
-    <row r="48" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB47" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A48" s="5" t="s">
         <v>133</v>
       </c>
@@ -4473,42 +4598,42 @@
       <c r="H48" s="8">
         <v>0.42708333333333293</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I48" s="8">
         <v>0.49999999999999933</v>
       </c>
-      <c r="J48" s="13">
+      <c r="J48" s="11">
         <v>46026</v>
       </c>
-      <c r="K48" s="13">
+      <c r="K48" s="11">
         <v>46033</v>
       </c>
-      <c r="L48" s="13">
+      <c r="L48" s="11">
         <v>46040</v>
       </c>
-      <c r="M48" s="13">
+      <c r="M48" s="11">
         <v>46047</v>
       </c>
-      <c r="N48" s="13">
+      <c r="N48" s="11">
         <v>46054</v>
       </c>
-      <c r="O48" s="13">
+      <c r="O48" s="11">
         <v>46061</v>
       </c>
-      <c r="P48" s="13">
+      <c r="P48" s="11">
         <v>46068</v>
       </c>
-      <c r="Q48" s="13">
+      <c r="Q48" s="11">
         <v>46075</v>
       </c>
-      <c r="R48" s="13"/>
+      <c r="R48" s="11"/>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
-      <c r="U48" s="13"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="13"/>
-      <c r="Y48" s="13"/>
-      <c r="Z48" s="12" cm="1">
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="7" cm="1">
         <f t="array" ref="Z48">LOOKUP(2,1/(A48:Y48&lt;&gt;""),A48:Y48)</f>
         <v>46075</v>
       </c>
@@ -4516,8 +4641,11 @@
         <f t="shared" si="1"/>
         <v>פברואר</v>
       </c>
-    </row>
-    <row r="49" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB48" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A49" s="5" t="s">
         <v>43</v>
       </c>
@@ -4542,54 +4670,54 @@
       <c r="H49" s="8">
         <v>0.34027777777777779</v>
       </c>
-      <c r="I49" s="11">
+      <c r="I49" s="8">
         <v>0.40624999999999967</v>
       </c>
-      <c r="J49" s="13">
+      <c r="J49" s="11">
         <v>45971</v>
       </c>
-      <c r="K49" s="13">
+      <c r="K49" s="11">
         <v>45978</v>
       </c>
-      <c r="L49" s="13">
+      <c r="L49" s="11">
         <v>45985</v>
       </c>
-      <c r="M49" s="13">
+      <c r="M49" s="11">
         <v>45992</v>
       </c>
-      <c r="N49" s="13">
+      <c r="N49" s="11">
         <v>45999</v>
       </c>
-      <c r="O49" s="13">
+      <c r="O49" s="11">
         <v>46006</v>
       </c>
-      <c r="P49" s="13">
+      <c r="P49" s="11">
         <v>46020</v>
       </c>
-      <c r="Q49" s="13">
+      <c r="Q49" s="11">
         <v>46034</v>
       </c>
-      <c r="R49" s="13">
+      <c r="R49" s="11">
         <v>46048</v>
       </c>
-      <c r="S49" s="13">
+      <c r="S49" s="11">
         <v>46062</v>
       </c>
-      <c r="T49" s="13">
+      <c r="T49" s="11">
         <v>46076</v>
       </c>
-      <c r="U49" s="13">
+      <c r="U49" s="11">
         <v>46090</v>
       </c>
-      <c r="V49" s="13">
+      <c r="V49" s="11">
         <v>46104</v>
       </c>
-      <c r="W49" s="13">
+      <c r="W49" s="11">
         <v>46132</v>
       </c>
-      <c r="X49" s="13"/>
-      <c r="Y49" s="13"/>
-      <c r="Z49" s="12" cm="1">
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="7" cm="1">
         <f t="array" ref="Z49">LOOKUP(2,1/(A49:Y49&lt;&gt;""),A49:Y49)</f>
         <v>46132</v>
       </c>
@@ -4597,8 +4725,11 @@
         <f t="shared" si="1"/>
         <v>אפריל</v>
       </c>
-    </row>
-    <row r="50" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB49" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A50" s="5" t="s">
         <v>43</v>
       </c>
@@ -4623,48 +4754,48 @@
       <c r="H50" s="8">
         <v>0.34027777777777779</v>
       </c>
-      <c r="I50" s="11">
+      <c r="I50" s="8">
         <v>0.40624999999999967</v>
       </c>
-      <c r="J50" s="13">
+      <c r="J50" s="11">
         <v>45970</v>
       </c>
-      <c r="K50" s="13">
+      <c r="K50" s="11">
         <v>45977</v>
       </c>
-      <c r="L50" s="13">
+      <c r="L50" s="11">
         <v>45991</v>
       </c>
-      <c r="M50" s="13">
+      <c r="M50" s="11">
         <v>46019</v>
       </c>
-      <c r="N50" s="13">
+      <c r="N50" s="11">
         <v>46033</v>
       </c>
-      <c r="O50" s="13">
+      <c r="O50" s="11">
         <v>46047</v>
       </c>
-      <c r="P50" s="13">
+      <c r="P50" s="11">
         <v>46061</v>
       </c>
-      <c r="Q50" s="13">
+      <c r="Q50" s="11">
         <v>46075</v>
       </c>
-      <c r="R50" s="13">
+      <c r="R50" s="11">
         <v>46089</v>
       </c>
-      <c r="S50" s="13">
+      <c r="S50" s="11">
         <v>46103</v>
       </c>
-      <c r="T50" s="13">
+      <c r="T50" s="11">
         <v>46124</v>
       </c>
-      <c r="U50" s="13"/>
-      <c r="V50" s="13"/>
-      <c r="W50" s="13"/>
-      <c r="X50" s="13"/>
-      <c r="Y50" s="13"/>
-      <c r="Z50" s="12" cm="1">
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="7" cm="1">
         <f t="array" ref="Z50">LOOKUP(2,1/(A50:Y50&lt;&gt;""),A50:Y50)</f>
         <v>46124</v>
       </c>
@@ -4672,8 +4803,11 @@
         <f t="shared" si="1"/>
         <v>אפריל</v>
       </c>
-    </row>
-    <row r="51" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB50" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A51" s="5" t="s">
         <v>43</v>
       </c>
@@ -4698,40 +4832,40 @@
       <c r="H51" s="8">
         <v>0.34027777777777779</v>
       </c>
-      <c r="I51" s="11">
+      <c r="I51" s="8">
         <v>0.40624999999999967</v>
       </c>
-      <c r="J51" s="13">
+      <c r="J51" s="11">
         <v>45984</v>
       </c>
-      <c r="K51" s="13">
+      <c r="K51" s="11">
         <v>45998</v>
       </c>
-      <c r="L51" s="13">
+      <c r="L51" s="11">
         <v>46026</v>
       </c>
-      <c r="M51" s="13">
+      <c r="M51" s="11">
         <v>45675</v>
       </c>
-      <c r="N51" s="13">
+      <c r="N51" s="11">
         <v>46054</v>
       </c>
-      <c r="O51" s="13">
+      <c r="O51" s="11">
         <v>46082</v>
       </c>
-      <c r="P51" s="13">
+      <c r="P51" s="11">
         <v>46096</v>
       </c>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="13"/>
-      <c r="S51" s="13"/>
-      <c r="T51" s="13"/>
-      <c r="U51" s="13"/>
-      <c r="V51" s="13"/>
-      <c r="W51" s="13"/>
-      <c r="X51" s="13"/>
-      <c r="Y51" s="13"/>
-      <c r="Z51" s="12" cm="1">
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="7" cm="1">
         <f t="array" ref="Z51">LOOKUP(2,1/(A51:Y51&lt;&gt;""),A51:Y51)</f>
         <v>46096</v>
       </c>
@@ -4739,8 +4873,11 @@
         <f t="shared" si="1"/>
         <v>מרץ</v>
       </c>
-    </row>
-    <row r="52" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB51" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A52" s="5" t="s">
         <v>43</v>
       </c>
@@ -4765,46 +4902,46 @@
       <c r="H52" s="8">
         <v>0.42708333333333293</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I52" s="8">
         <v>0.4895833333333327</v>
       </c>
-      <c r="J52" s="13">
+      <c r="J52" s="11">
         <v>45986</v>
       </c>
-      <c r="K52" s="13">
+      <c r="K52" s="11">
         <v>45993</v>
       </c>
-      <c r="L52" s="13">
+      <c r="L52" s="11">
         <v>46021</v>
       </c>
-      <c r="M52" s="13">
+      <c r="M52" s="11">
         <v>46028</v>
       </c>
-      <c r="N52" s="13">
+      <c r="N52" s="11">
         <v>46035</v>
       </c>
-      <c r="O52" s="13">
+      <c r="O52" s="11">
         <v>46042</v>
       </c>
-      <c r="P52" s="13">
+      <c r="P52" s="11">
         <v>46049</v>
       </c>
-      <c r="Q52" s="13">
+      <c r="Q52" s="11">
         <v>46056</v>
       </c>
-      <c r="R52" s="13">
+      <c r="R52" s="11">
         <v>46063</v>
       </c>
-      <c r="S52" s="13">
+      <c r="S52" s="11">
         <v>46070</v>
       </c>
-      <c r="T52" s="13"/>
-      <c r="U52" s="13"/>
-      <c r="V52" s="13"/>
-      <c r="W52" s="13"/>
-      <c r="X52" s="13"/>
-      <c r="Y52" s="13"/>
-      <c r="Z52" s="12" cm="1">
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="7" cm="1">
         <f t="array" ref="Z52">LOOKUP(2,1/(A52:Y52&lt;&gt;""),A52:Y52)</f>
         <v>46070</v>
       </c>
@@ -4812,8 +4949,11 @@
         <f t="shared" si="1"/>
         <v>פברואר</v>
       </c>
-    </row>
-    <row r="53" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB52" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A53" s="5" t="s">
         <v>43</v>
       </c>
@@ -4836,42 +4976,42 @@
       <c r="H53" s="8">
         <v>0.34027777777777779</v>
       </c>
-      <c r="I53" s="11">
+      <c r="I53" s="8">
         <v>0.40624999999999967</v>
       </c>
-      <c r="J53" s="13">
+      <c r="J53" s="11">
         <v>46097</v>
       </c>
-      <c r="K53" s="13">
+      <c r="K53" s="11">
         <v>46125</v>
       </c>
-      <c r="L53" s="13">
+      <c r="L53" s="11">
         <v>46146</v>
       </c>
-      <c r="M53" s="13">
+      <c r="M53" s="11">
         <v>46153</v>
       </c>
-      <c r="N53" s="13">
+      <c r="N53" s="11">
         <v>46160</v>
       </c>
-      <c r="O53" s="13">
+      <c r="O53" s="11">
         <v>46167</v>
       </c>
-      <c r="P53" s="13">
+      <c r="P53" s="11">
         <v>46174</v>
       </c>
-      <c r="Q53" s="13">
+      <c r="Q53" s="11">
         <v>46181</v>
       </c>
-      <c r="R53" s="13"/>
-      <c r="S53" s="13"/>
-      <c r="T53" s="13"/>
-      <c r="U53" s="13"/>
-      <c r="V53" s="13"/>
-      <c r="W53" s="13"/>
-      <c r="X53" s="13"/>
-      <c r="Y53" s="13"/>
-      <c r="Z53" s="12" cm="1">
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="7" cm="1">
         <f t="array" ref="Z53">LOOKUP(2,1/(A53:Y53&lt;&gt;""),A53:Y53)</f>
         <v>46181</v>
       </c>
@@ -4879,8 +5019,11 @@
         <f t="shared" si="1"/>
         <v>יוני</v>
       </c>
-    </row>
-    <row r="54" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB53" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A54" s="5"/>
       <c r="B54" s="5" t="s">
         <v>65</v>
@@ -4903,44 +5046,44 @@
       <c r="H54" s="8">
         <v>0.33333333333333326</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I54" s="8">
         <v>0.37499999999999978</v>
       </c>
-      <c r="J54" s="13">
+      <c r="J54" s="11">
         <v>45914</v>
       </c>
-      <c r="K54" s="13">
+      <c r="K54" s="11">
         <v>45921</v>
       </c>
-      <c r="L54" s="13">
+      <c r="L54" s="11">
         <v>45984</v>
       </c>
-      <c r="M54" s="13">
+      <c r="M54" s="11">
         <v>45991</v>
       </c>
-      <c r="N54" s="13">
+      <c r="N54" s="11">
         <v>45998</v>
       </c>
-      <c r="O54" s="13">
+      <c r="O54" s="11">
         <v>46005</v>
       </c>
-      <c r="P54" s="13">
+      <c r="P54" s="11">
         <v>46026</v>
       </c>
-      <c r="Q54" s="13">
+      <c r="Q54" s="11">
         <v>46033</v>
       </c>
-      <c r="R54" s="13">
+      <c r="R54" s="11">
         <v>46040</v>
       </c>
-      <c r="S54" s="13"/>
-      <c r="T54" s="13"/>
-      <c r="U54" s="13"/>
-      <c r="V54" s="13"/>
-      <c r="W54" s="13"/>
-      <c r="X54" s="13"/>
-      <c r="Y54" s="13"/>
-      <c r="Z54" s="12" cm="1">
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="7" cm="1">
         <f t="array" ref="Z54">LOOKUP(2,1/(A54:Y54&lt;&gt;""),A54:Y54)</f>
         <v>46040</v>
       </c>
@@ -4948,8 +5091,9 @@
         <f t="shared" si="1"/>
         <v>ינואר</v>
       </c>
-    </row>
-    <row r="55" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB54" s="14"/>
+    </row>
+    <row r="55" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A55" s="5"/>
       <c r="B55" s="5" t="s">
         <v>65</v>
@@ -4972,44 +5116,44 @@
       <c r="H55" s="8">
         <v>0.37499999999999978</v>
       </c>
-      <c r="I55" s="11">
+      <c r="I55" s="8">
         <v>0.4166666666666663</v>
       </c>
-      <c r="J55" s="13">
+      <c r="J55" s="11">
         <v>45914</v>
       </c>
-      <c r="K55" s="13">
+      <c r="K55" s="11">
         <v>45921</v>
       </c>
-      <c r="L55" s="13">
+      <c r="L55" s="11">
         <v>45984</v>
       </c>
-      <c r="M55" s="13">
+      <c r="M55" s="11">
         <v>45991</v>
       </c>
-      <c r="N55" s="13">
+      <c r="N55" s="11">
         <v>45998</v>
       </c>
-      <c r="O55" s="13">
+      <c r="O55" s="11">
         <v>46005</v>
       </c>
-      <c r="P55" s="13">
+      <c r="P55" s="11">
         <v>46026</v>
       </c>
-      <c r="Q55" s="13">
+      <c r="Q55" s="11">
         <v>46033</v>
       </c>
-      <c r="R55" s="13">
+      <c r="R55" s="11">
         <v>46040</v>
       </c>
-      <c r="S55" s="13"/>
-      <c r="T55" s="13"/>
-      <c r="U55" s="13"/>
-      <c r="V55" s="13"/>
-      <c r="W55" s="13"/>
-      <c r="X55" s="13"/>
-      <c r="Y55" s="13"/>
-      <c r="Z55" s="12" cm="1">
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="11"/>
+      <c r="X55" s="11"/>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="7" cm="1">
         <f t="array" ref="Z55">LOOKUP(2,1/(A55:Y55&lt;&gt;""),A55:Y55)</f>
         <v>46040</v>
       </c>
@@ -5017,8 +5161,9 @@
         <f t="shared" si="1"/>
         <v>ינואר</v>
       </c>
-    </row>
-    <row r="56" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB55" s="14"/>
+    </row>
+    <row r="56" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A56" s="5"/>
       <c r="B56" s="5" t="s">
         <v>65</v>
@@ -5041,44 +5186,44 @@
       <c r="H56" s="8">
         <v>0.4166666666666663</v>
       </c>
-      <c r="I56" s="11">
+      <c r="I56" s="8">
         <v>0.45833333333333282</v>
       </c>
-      <c r="J56" s="13">
+      <c r="J56" s="11">
         <v>45914</v>
       </c>
-      <c r="K56" s="13">
+      <c r="K56" s="11">
         <v>45921</v>
       </c>
-      <c r="L56" s="13">
+      <c r="L56" s="11">
         <v>45984</v>
       </c>
-      <c r="M56" s="13">
+      <c r="M56" s="11">
         <v>45991</v>
       </c>
-      <c r="N56" s="13">
+      <c r="N56" s="11">
         <v>45998</v>
       </c>
-      <c r="O56" s="13">
+      <c r="O56" s="11">
         <v>46005</v>
       </c>
-      <c r="P56" s="13">
+      <c r="P56" s="11">
         <v>46026</v>
       </c>
-      <c r="Q56" s="13">
+      <c r="Q56" s="11">
         <v>46033</v>
       </c>
-      <c r="R56" s="13">
+      <c r="R56" s="11">
         <v>46040</v>
       </c>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="13"/>
-      <c r="V56" s="13"/>
-      <c r="W56" s="13"/>
-      <c r="X56" s="13"/>
-      <c r="Y56" s="13"/>
-      <c r="Z56" s="12" cm="1">
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="11"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="7" cm="1">
         <f t="array" ref="Z56">LOOKUP(2,1/(A56:Y56&lt;&gt;""),A56:Y56)</f>
         <v>46040</v>
       </c>
@@ -5086,8 +5231,9 @@
         <f t="shared" si="1"/>
         <v>ינואר</v>
       </c>
-    </row>
-    <row r="57" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB56" s="14"/>
+    </row>
+    <row r="57" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A57" s="5"/>
       <c r="B57" s="5" t="s">
         <v>28</v>
@@ -5110,44 +5256,44 @@
       <c r="H57" s="8">
         <v>0.45833333333333282</v>
       </c>
-      <c r="I57" s="11">
+      <c r="I57" s="8">
         <v>0.49999999999999933</v>
       </c>
-      <c r="J57" s="13">
+      <c r="J57" s="11">
         <v>45914</v>
       </c>
-      <c r="K57" s="13">
+      <c r="K57" s="11">
         <v>45921</v>
       </c>
-      <c r="L57" s="13">
+      <c r="L57" s="11">
         <v>45984</v>
       </c>
-      <c r="M57" s="13">
+      <c r="M57" s="11">
         <v>45991</v>
       </c>
-      <c r="N57" s="13">
+      <c r="N57" s="11">
         <v>45998</v>
       </c>
-      <c r="O57" s="13">
+      <c r="O57" s="11">
         <v>46005</v>
       </c>
-      <c r="P57" s="13">
+      <c r="P57" s="11">
         <v>46026</v>
       </c>
-      <c r="Q57" s="13">
+      <c r="Q57" s="11">
         <v>46033</v>
       </c>
-      <c r="R57" s="13">
+      <c r="R57" s="11">
         <v>46040</v>
       </c>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="11"/>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
       <c r="W57" s="7"/>
-      <c r="X57" s="13"/>
-      <c r="Y57" s="13"/>
-      <c r="Z57" s="12" cm="1">
+      <c r="X57" s="11"/>
+      <c r="Y57" s="11"/>
+      <c r="Z57" s="7" cm="1">
         <f t="array" ref="Z57">LOOKUP(2,1/(A57:Y57&lt;&gt;""),A57:Y57)</f>
         <v>46040</v>
       </c>
@@ -5155,8 +5301,9 @@
         <f t="shared" si="1"/>
         <v>ינואר</v>
       </c>
-    </row>
-    <row r="58" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB57" s="14"/>
+    </row>
+    <row r="58" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A58" s="5"/>
       <c r="B58" s="5" t="s">
         <v>28</v>
@@ -5179,44 +5326,44 @@
       <c r="H58" s="8">
         <v>0.49999999999999933</v>
       </c>
-      <c r="I58" s="11">
+      <c r="I58" s="8">
         <v>0.54166666666666585</v>
       </c>
-      <c r="J58" s="13">
+      <c r="J58" s="11">
         <v>45914</v>
       </c>
-      <c r="K58" s="13">
+      <c r="K58" s="11">
         <v>45921</v>
       </c>
-      <c r="L58" s="13">
+      <c r="L58" s="11">
         <v>45984</v>
       </c>
-      <c r="M58" s="13">
+      <c r="M58" s="11">
         <v>45991</v>
       </c>
-      <c r="N58" s="13">
+      <c r="N58" s="11">
         <v>45998</v>
       </c>
-      <c r="O58" s="13">
+      <c r="O58" s="11">
         <v>46005</v>
       </c>
-      <c r="P58" s="13">
+      <c r="P58" s="11">
         <v>46026</v>
       </c>
-      <c r="Q58" s="13">
+      <c r="Q58" s="11">
         <v>46033</v>
       </c>
-      <c r="R58" s="13">
+      <c r="R58" s="11">
         <v>46040</v>
       </c>
-      <c r="S58" s="13"/>
-      <c r="T58" s="13"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
       <c r="U58" s="7"/>
-      <c r="V58" s="13"/>
-      <c r="W58" s="13"/>
-      <c r="X58" s="13"/>
-      <c r="Y58" s="13"/>
-      <c r="Z58" s="12" cm="1">
+      <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11"/>
+      <c r="Z58" s="7" cm="1">
         <f t="array" ref="Z58">LOOKUP(2,1/(A58:Y58&lt;&gt;""),A58:Y58)</f>
         <v>46040</v>
       </c>
@@ -5224,8 +5371,9 @@
         <f t="shared" si="1"/>
         <v>ינואר</v>
       </c>
-    </row>
-    <row r="59" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB58" s="14"/>
+    </row>
+    <row r="59" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A59" s="5" t="s">
         <v>43</v>
       </c>
@@ -5250,42 +5398,42 @@
       <c r="H59" s="8">
         <v>0.40624999999999967</v>
       </c>
-      <c r="I59" s="11">
+      <c r="I59" s="8">
         <v>0.51041666666666596</v>
       </c>
-      <c r="J59" s="13">
+      <c r="J59" s="11">
         <v>45965</v>
       </c>
-      <c r="K59" s="13">
+      <c r="K59" s="11">
         <v>45972</v>
       </c>
-      <c r="L59" s="13">
+      <c r="L59" s="11">
         <v>46092</v>
       </c>
-      <c r="M59" s="13">
+      <c r="M59" s="11">
         <v>46099</v>
       </c>
-      <c r="N59" s="13">
+      <c r="N59" s="11">
         <v>46127</v>
       </c>
-      <c r="O59" s="13">
+      <c r="O59" s="11">
         <v>46141</v>
       </c>
-      <c r="P59" s="13">
+      <c r="P59" s="11">
         <v>46148</v>
       </c>
-      <c r="Q59" s="14">
+      <c r="Q59" s="12">
         <v>46155</v>
       </c>
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
       <c r="T59" s="7"/>
-      <c r="U59" s="13"/>
-      <c r="V59" s="13"/>
-      <c r="W59" s="13"/>
-      <c r="X59" s="13"/>
-      <c r="Y59" s="13"/>
-      <c r="Z59" s="12" cm="1">
+      <c r="U59" s="11"/>
+      <c r="V59" s="11"/>
+      <c r="W59" s="11"/>
+      <c r="X59" s="11"/>
+      <c r="Y59" s="11"/>
+      <c r="Z59" s="7" cm="1">
         <f t="array" ref="Z59">LOOKUP(2,1/(A59:Y59&lt;&gt;""),A59:Y59)</f>
         <v>46155</v>
       </c>
@@ -5293,8 +5441,11 @@
         <f t="shared" si="1"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="60" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB59" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A60" s="5" t="s">
         <v>61</v>
       </c>
@@ -5319,31 +5470,31 @@
       <c r="H60" s="8">
         <v>0.42361111111111072</v>
       </c>
-      <c r="I60" s="11">
+      <c r="I60" s="8">
         <v>0.49305555555555491</v>
       </c>
-      <c r="J60" s="13">
+      <c r="J60" s="11">
         <v>46061</v>
       </c>
-      <c r="K60" s="13">
+      <c r="K60" s="11">
         <v>46068</v>
       </c>
-      <c r="L60" s="13">
+      <c r="L60" s="11">
         <v>46075</v>
       </c>
-      <c r="M60" s="13">
+      <c r="M60" s="11">
         <v>46089</v>
       </c>
-      <c r="N60" s="13">
+      <c r="N60" s="11">
         <v>46096</v>
       </c>
-      <c r="O60" s="13">
+      <c r="O60" s="11">
         <v>46103</v>
       </c>
-      <c r="P60" s="13">
+      <c r="P60" s="11">
         <v>46124</v>
       </c>
-      <c r="Q60" s="13">
+      <c r="Q60" s="11">
         <v>46131</v>
       </c>
       <c r="R60" s="7">
@@ -5353,12 +5504,12 @@
         <v>46145</v>
       </c>
       <c r="T60" s="7"/>
-      <c r="U60" s="13"/>
-      <c r="V60" s="13"/>
-      <c r="W60" s="13"/>
-      <c r="X60" s="13"/>
-      <c r="Y60" s="13"/>
-      <c r="Z60" s="12" cm="1">
+      <c r="U60" s="11"/>
+      <c r="V60" s="11"/>
+      <c r="W60" s="11"/>
+      <c r="X60" s="11"/>
+      <c r="Y60" s="11"/>
+      <c r="Z60" s="7" cm="1">
         <f t="array" ref="Z60">LOOKUP(2,1/(A60:Y60&lt;&gt;""),A60:Y60)</f>
         <v>46145</v>
       </c>
@@ -5366,8 +5517,11 @@
         <f t="shared" si="1"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="61" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB60" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A61" s="5" t="s">
         <v>61</v>
       </c>
@@ -5392,31 +5546,31 @@
       <c r="H61" s="8">
         <v>0.57291666666666574</v>
       </c>
-      <c r="I61" s="11">
+      <c r="I61" s="8">
         <v>0.63541666666666552</v>
       </c>
-      <c r="J61" s="13">
+      <c r="J61" s="11">
         <v>46061</v>
       </c>
-      <c r="K61" s="13">
+      <c r="K61" s="11">
         <v>46068</v>
       </c>
-      <c r="L61" s="13">
+      <c r="L61" s="11">
         <v>46075</v>
       </c>
-      <c r="M61" s="13">
+      <c r="M61" s="11">
         <v>46089</v>
       </c>
-      <c r="N61" s="13">
+      <c r="N61" s="11">
         <v>46096</v>
       </c>
-      <c r="O61" s="13">
+      <c r="O61" s="11">
         <v>46103</v>
       </c>
-      <c r="P61" s="13">
+      <c r="P61" s="11">
         <v>46124</v>
       </c>
-      <c r="Q61" s="13">
+      <c r="Q61" s="11">
         <v>46131</v>
       </c>
       <c r="R61" s="7">
@@ -5426,12 +5580,12 @@
         <v>46145</v>
       </c>
       <c r="T61" s="7"/>
-      <c r="U61" s="13"/>
-      <c r="V61" s="13"/>
-      <c r="W61" s="13"/>
-      <c r="X61" s="13"/>
-      <c r="Y61" s="13"/>
-      <c r="Z61" s="12" cm="1">
+      <c r="U61" s="11"/>
+      <c r="V61" s="11"/>
+      <c r="W61" s="11"/>
+      <c r="X61" s="11"/>
+      <c r="Y61" s="11"/>
+      <c r="Z61" s="7" cm="1">
         <f t="array" ref="Z61">LOOKUP(2,1/(A61:Y61&lt;&gt;""),A61:Y61)</f>
         <v>46145</v>
       </c>
@@ -5439,8 +5593,11 @@
         <f t="shared" si="1"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="62" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB61" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A62" s="5" t="s">
         <v>82</v>
       </c>
@@ -5465,28 +5622,28 @@
       <c r="H62" s="8">
         <v>0.33333333333333326</v>
       </c>
-      <c r="I62" s="11">
+      <c r="I62" s="8">
         <v>0.4166666666666663</v>
       </c>
-      <c r="J62" s="13">
+      <c r="J62" s="11">
         <v>46022</v>
       </c>
-      <c r="K62" s="13">
+      <c r="K62" s="11">
         <v>46029</v>
       </c>
-      <c r="L62" s="13">
+      <c r="L62" s="11">
         <v>46043</v>
       </c>
-      <c r="M62" s="13">
+      <c r="M62" s="11">
         <v>46050</v>
       </c>
-      <c r="N62" s="13">
+      <c r="N62" s="11">
         <v>46057</v>
       </c>
-      <c r="O62" s="13">
+      <c r="O62" s="11">
         <v>46064</v>
       </c>
-      <c r="P62" s="13">
+      <c r="P62" s="11">
         <v>46071</v>
       </c>
       <c r="Q62" s="7">
@@ -5498,13 +5655,13 @@
       <c r="S62" s="7">
         <v>46099</v>
       </c>
-      <c r="T62" s="13"/>
-      <c r="U62" s="13"/>
-      <c r="V62" s="13"/>
-      <c r="W62" s="13"/>
-      <c r="X62" s="13"/>
-      <c r="Y62" s="13"/>
-      <c r="Z62" s="12" cm="1">
+      <c r="T62" s="11"/>
+      <c r="U62" s="11"/>
+      <c r="V62" s="11"/>
+      <c r="W62" s="11"/>
+      <c r="X62" s="11"/>
+      <c r="Y62" s="11"/>
+      <c r="Z62" s="7" cm="1">
         <f t="array" ref="Z62">LOOKUP(2,1/(A62:Y62&lt;&gt;""),A62:Y62)</f>
         <v>46099</v>
       </c>
@@ -5512,8 +5669,11 @@
         <f t="shared" si="1"/>
         <v>מרץ</v>
       </c>
-    </row>
-    <row r="63" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB62" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A63" s="5" t="s">
         <v>82</v>
       </c>
@@ -5538,46 +5698,46 @@
       <c r="H63" s="8">
         <v>0.4166666666666663</v>
       </c>
-      <c r="I63" s="11">
+      <c r="I63" s="8">
         <v>0.49999999999999933</v>
       </c>
-      <c r="J63" s="13">
+      <c r="J63" s="11">
         <v>46022</v>
       </c>
-      <c r="K63" s="13">
+      <c r="K63" s="11">
         <v>46029</v>
       </c>
-      <c r="L63" s="13">
+      <c r="L63" s="11">
         <v>46043</v>
       </c>
-      <c r="M63" s="13">
+      <c r="M63" s="11">
         <v>46050</v>
       </c>
-      <c r="N63" s="13">
+      <c r="N63" s="11">
         <v>46057</v>
       </c>
-      <c r="O63" s="13">
+      <c r="O63" s="11">
         <v>46064</v>
       </c>
-      <c r="P63" s="13">
+      <c r="P63" s="11">
         <v>46071</v>
       </c>
-      <c r="Q63" s="13">
+      <c r="Q63" s="11">
         <v>46078</v>
       </c>
-      <c r="R63" s="13">
+      <c r="R63" s="11">
         <v>46092</v>
       </c>
-      <c r="S63" s="13">
+      <c r="S63" s="11">
         <v>46099</v>
       </c>
       <c r="T63" s="7"/>
-      <c r="U63" s="13"/>
-      <c r="V63" s="13"/>
-      <c r="W63" s="13"/>
-      <c r="X63" s="13"/>
-      <c r="Y63" s="13"/>
-      <c r="Z63" s="12" cm="1">
+      <c r="U63" s="11"/>
+      <c r="V63" s="11"/>
+      <c r="W63" s="11"/>
+      <c r="X63" s="11"/>
+      <c r="Y63" s="11"/>
+      <c r="Z63" s="7" cm="1">
         <f t="array" ref="Z63">LOOKUP(2,1/(A63:Y63&lt;&gt;""),A63:Y63)</f>
         <v>46099</v>
       </c>
@@ -5585,8 +5745,11 @@
         <f t="shared" si="1"/>
         <v>מרץ</v>
       </c>
-    </row>
-    <row r="64" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB63" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A64" s="5" t="s">
         <v>61</v>
       </c>
@@ -5611,42 +5774,42 @@
       <c r="H64" s="8">
         <v>0.36805555555555536</v>
       </c>
-      <c r="I64" s="11">
+      <c r="I64" s="8">
         <v>0.45833333333333282</v>
       </c>
-      <c r="J64" s="13">
+      <c r="J64" s="11">
         <v>46062</v>
       </c>
-      <c r="K64" s="13">
+      <c r="K64" s="11">
         <v>46069</v>
       </c>
-      <c r="L64" s="13">
+      <c r="L64" s="11">
         <v>46076</v>
       </c>
-      <c r="M64" s="13">
+      <c r="M64" s="11">
         <v>46083</v>
       </c>
-      <c r="N64" s="13">
+      <c r="N64" s="11">
         <v>46090</v>
       </c>
-      <c r="O64" s="13">
+      <c r="O64" s="11">
         <v>46097</v>
       </c>
-      <c r="P64" s="13">
+      <c r="P64" s="11">
         <v>46104</v>
       </c>
-      <c r="Q64" s="13">
+      <c r="Q64" s="11">
         <v>46125</v>
       </c>
-      <c r="R64" s="13"/>
-      <c r="S64" s="13"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
       <c r="T64" s="7"/>
-      <c r="U64" s="13"/>
-      <c r="V64" s="13"/>
-      <c r="W64" s="13"/>
-      <c r="X64" s="13"/>
-      <c r="Y64" s="13"/>
-      <c r="Z64" s="12" cm="1">
+      <c r="U64" s="11"/>
+      <c r="V64" s="11"/>
+      <c r="W64" s="11"/>
+      <c r="X64" s="11"/>
+      <c r="Y64" s="11"/>
+      <c r="Z64" s="7" cm="1">
         <f t="array" ref="Z64">LOOKUP(2,1/(A64:Y64&lt;&gt;""),A64:Y64)</f>
         <v>46125</v>
       </c>
@@ -5654,8 +5817,11 @@
         <f t="shared" si="1"/>
         <v>אפריל</v>
       </c>
-    </row>
-    <row r="65" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB64" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A65" s="5" t="s">
         <v>61</v>
       </c>
@@ -5680,58 +5846,58 @@
       <c r="H65" s="8">
         <v>0.45833333333333282</v>
       </c>
-      <c r="I65" s="11">
+      <c r="I65" s="8">
         <v>0.53472222222222143</v>
       </c>
-      <c r="J65" s="13">
+      <c r="J65" s="11">
         <v>45963</v>
       </c>
-      <c r="K65" s="13">
+      <c r="K65" s="11">
         <v>45970</v>
       </c>
-      <c r="L65" s="13">
+      <c r="L65" s="11">
         <v>45977</v>
       </c>
-      <c r="M65" s="13">
+      <c r="M65" s="11">
         <v>45984</v>
       </c>
-      <c r="N65" s="13">
+      <c r="N65" s="11">
         <v>45991</v>
       </c>
-      <c r="O65" s="13">
+      <c r="O65" s="11">
         <v>45998</v>
       </c>
-      <c r="P65" s="13">
+      <c r="P65" s="11">
         <v>46005</v>
       </c>
-      <c r="Q65" s="13">
+      <c r="Q65" s="11">
         <v>46019</v>
       </c>
-      <c r="R65" s="13">
+      <c r="R65" s="11">
         <v>46026</v>
       </c>
-      <c r="S65" s="13">
+      <c r="S65" s="11">
         <v>46033</v>
       </c>
       <c r="T65" s="7">
         <v>46037</v>
       </c>
-      <c r="U65" s="13">
+      <c r="U65" s="11">
         <v>46037</v>
       </c>
-      <c r="V65" s="13">
+      <c r="V65" s="11">
         <v>46043</v>
       </c>
-      <c r="W65" s="13">
+      <c r="W65" s="11">
         <v>46050</v>
       </c>
-      <c r="X65" s="13">
+      <c r="X65" s="11">
         <v>46057</v>
       </c>
-      <c r="Y65" s="13">
+      <c r="Y65" s="11">
         <v>46064</v>
       </c>
-      <c r="Z65" s="12" cm="1">
+      <c r="Z65" s="7" cm="1">
         <f t="array" ref="Z65">LOOKUP(2,1/(A65:Y65&lt;&gt;""),A65:Y65)</f>
         <v>46064</v>
       </c>
@@ -5739,8 +5905,11 @@
         <f t="shared" si="1"/>
         <v>פברואר</v>
       </c>
-    </row>
-    <row r="66" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB65" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A66" s="5" t="s">
         <v>68</v>
       </c>
@@ -5765,56 +5934,56 @@
       <c r="H66" s="8">
         <v>0.63541666666666552</v>
       </c>
-      <c r="I66" s="11">
+      <c r="I66" s="8">
         <v>0.67708333333333204</v>
       </c>
-      <c r="J66" s="13">
+      <c r="J66" s="11">
         <v>46072</v>
       </c>
-      <c r="K66" s="13">
+      <c r="K66" s="11">
         <v>46079</v>
       </c>
-      <c r="L66" s="13">
+      <c r="L66" s="11">
         <v>46086</v>
       </c>
-      <c r="M66" s="13">
+      <c r="M66" s="11">
         <v>46093</v>
       </c>
-      <c r="N66" s="13">
+      <c r="N66" s="11">
         <v>46100</v>
       </c>
-      <c r="O66" s="13">
+      <c r="O66" s="11">
         <v>46121</v>
       </c>
-      <c r="P66" s="13">
+      <c r="P66" s="11">
         <v>46128</v>
       </c>
-      <c r="Q66" s="13">
+      <c r="Q66" s="11">
         <v>46135</v>
       </c>
-      <c r="R66" s="13">
+      <c r="R66" s="11">
         <v>46142</v>
       </c>
-      <c r="S66" s="13">
+      <c r="S66" s="11">
         <v>46149</v>
       </c>
-      <c r="T66" s="13">
+      <c r="T66" s="11">
         <v>46156</v>
       </c>
-      <c r="U66" s="13">
+      <c r="U66" s="11">
         <v>46170</v>
       </c>
-      <c r="V66" s="13">
+      <c r="V66" s="11">
         <v>46177</v>
       </c>
-      <c r="W66" s="13">
+      <c r="W66" s="11">
         <v>46184</v>
       </c>
-      <c r="X66" s="13">
+      <c r="X66" s="11">
         <v>46191</v>
       </c>
-      <c r="Y66" s="13"/>
-      <c r="Z66" s="12" cm="1">
+      <c r="Y66" s="11"/>
+      <c r="Z66" s="7" cm="1">
         <f t="array" ref="Z66">LOOKUP(2,1/(A66:Y66&lt;&gt;""),A66:Y66)</f>
         <v>46191</v>
       </c>
@@ -5822,8 +5991,11 @@
         <f t="shared" ref="AA66:AA90" si="2">TEXT(Z66,"[$-he-IL]mmmm")</f>
         <v>יוני</v>
       </c>
-    </row>
-    <row r="67" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB66" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A67" s="5" t="s">
         <v>68</v>
       </c>
@@ -5851,53 +6023,53 @@
       <c r="I67" s="8">
         <v>0.62499999999999889</v>
       </c>
-      <c r="J67" s="13">
+      <c r="J67" s="11">
         <v>46072</v>
       </c>
-      <c r="K67" s="13">
+      <c r="K67" s="11">
         <v>46079</v>
       </c>
-      <c r="L67" s="13">
+      <c r="L67" s="11">
         <v>46086</v>
       </c>
-      <c r="M67" s="13">
+      <c r="M67" s="11">
         <v>46093</v>
       </c>
-      <c r="N67" s="13">
+      <c r="N67" s="11">
         <v>46100</v>
       </c>
-      <c r="O67" s="13">
+      <c r="O67" s="11">
         <v>46121</v>
       </c>
-      <c r="P67" s="13">
+      <c r="P67" s="11">
         <v>46128</v>
       </c>
-      <c r="Q67" s="13">
+      <c r="Q67" s="11">
         <v>46135</v>
       </c>
-      <c r="R67" s="13">
+      <c r="R67" s="11">
         <v>46142</v>
       </c>
-      <c r="S67" s="13">
+      <c r="S67" s="11">
         <v>46149</v>
       </c>
-      <c r="T67" s="13">
+      <c r="T67" s="11">
         <v>46156</v>
       </c>
-      <c r="U67" s="13">
+      <c r="U67" s="11">
         <v>46170</v>
       </c>
-      <c r="V67" s="13">
+      <c r="V67" s="11">
         <v>46177</v>
       </c>
-      <c r="W67" s="13">
+      <c r="W67" s="11">
         <v>46184</v>
       </c>
-      <c r="X67" s="13">
+      <c r="X67" s="11">
         <v>46191</v>
       </c>
-      <c r="Y67" s="13"/>
-      <c r="Z67" s="12" cm="1">
+      <c r="Y67" s="11"/>
+      <c r="Z67" s="7" cm="1">
         <f t="array" ref="Z67">LOOKUP(2,1/(A67:Y67&lt;&gt;""),A67:Y67)</f>
         <v>46191</v>
       </c>
@@ -5905,8 +6077,11 @@
         <f t="shared" si="2"/>
         <v>יוני</v>
       </c>
-    </row>
-    <row r="68" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB67" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A68" s="5" t="s">
         <v>47</v>
       </c>
@@ -5934,43 +6109,43 @@
       <c r="I68" s="8">
         <v>0.593749999999999</v>
       </c>
-      <c r="J68" s="13">
+      <c r="J68" s="11">
         <v>46044</v>
       </c>
-      <c r="K68" s="13">
+      <c r="K68" s="11">
         <v>46051</v>
       </c>
-      <c r="L68" s="13">
+      <c r="L68" s="11">
         <v>46058</v>
       </c>
-      <c r="M68" s="13">
+      <c r="M68" s="11">
         <v>46065</v>
       </c>
-      <c r="N68" s="13">
+      <c r="N68" s="11">
         <v>46072</v>
       </c>
-      <c r="O68" s="13">
+      <c r="O68" s="11">
         <v>46079</v>
       </c>
-      <c r="P68" s="13">
+      <c r="P68" s="11">
         <v>46086</v>
       </c>
-      <c r="Q68" s="13">
+      <c r="Q68" s="11">
         <v>46093</v>
       </c>
-      <c r="R68" s="13">
+      <c r="R68" s="11">
         <v>46100</v>
       </c>
-      <c r="S68" s="13">
+      <c r="S68" s="11">
         <v>46121</v>
       </c>
       <c r="T68" s="7"/>
-      <c r="U68" s="13"/>
-      <c r="V68" s="13"/>
-      <c r="W68" s="13"/>
-      <c r="X68" s="13"/>
-      <c r="Y68" s="13"/>
-      <c r="Z68" s="12" cm="1">
+      <c r="U68" s="11"/>
+      <c r="V68" s="11"/>
+      <c r="W68" s="11"/>
+      <c r="X68" s="11"/>
+      <c r="Y68" s="11"/>
+      <c r="Z68" s="7" cm="1">
         <f t="array" ref="Z68">LOOKUP(2,1/(A68:Y68&lt;&gt;""),A68:Y68)</f>
         <v>46121</v>
       </c>
@@ -5978,8 +6153,11 @@
         <f t="shared" si="2"/>
         <v>אפריל</v>
       </c>
-    </row>
-    <row r="69" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB68" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A69" s="5" t="s">
         <v>47</v>
       </c>
@@ -6007,43 +6185,43 @@
       <c r="I69" s="8">
         <v>0.593749999999999</v>
       </c>
-      <c r="J69" s="13">
+      <c r="J69" s="11">
         <v>46044</v>
       </c>
-      <c r="K69" s="13">
+      <c r="K69" s="11">
         <v>46051</v>
       </c>
-      <c r="L69" s="13">
+      <c r="L69" s="11">
         <v>46058</v>
       </c>
-      <c r="M69" s="13">
+      <c r="M69" s="11">
         <v>46065</v>
       </c>
-      <c r="N69" s="13">
+      <c r="N69" s="11">
         <v>46072</v>
       </c>
-      <c r="O69" s="13">
+      <c r="O69" s="11">
         <v>46079</v>
       </c>
-      <c r="P69" s="13">
+      <c r="P69" s="11">
         <v>46086</v>
       </c>
-      <c r="Q69" s="13">
+      <c r="Q69" s="11">
         <v>46093</v>
       </c>
-      <c r="R69" s="13">
+      <c r="R69" s="11">
         <v>46100</v>
       </c>
-      <c r="S69" s="13">
+      <c r="S69" s="11">
         <v>46121</v>
       </c>
       <c r="T69" s="7"/>
-      <c r="U69" s="13"/>
-      <c r="V69" s="13"/>
-      <c r="W69" s="13"/>
-      <c r="X69" s="13"/>
-      <c r="Y69" s="13"/>
-      <c r="Z69" s="12" cm="1">
+      <c r="U69" s="11"/>
+      <c r="V69" s="11"/>
+      <c r="W69" s="11"/>
+      <c r="X69" s="11"/>
+      <c r="Y69" s="11"/>
+      <c r="Z69" s="7" cm="1">
         <f t="array" ref="Z69">LOOKUP(2,1/(A69:Y69&lt;&gt;""),A69:Y69)</f>
         <v>46121</v>
       </c>
@@ -6051,8 +6229,11 @@
         <f t="shared" si="2"/>
         <v>אפריל</v>
       </c>
-    </row>
-    <row r="70" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB69" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A70" s="5" t="s">
         <v>47</v>
       </c>
@@ -6080,28 +6261,28 @@
       <c r="I70" s="8">
         <v>0.593749999999999</v>
       </c>
-      <c r="J70" s="13">
+      <c r="J70" s="11">
         <v>46044</v>
       </c>
-      <c r="K70" s="13">
+      <c r="K70" s="11">
         <v>46051</v>
       </c>
-      <c r="L70" s="13">
+      <c r="L70" s="11">
         <v>46058</v>
       </c>
-      <c r="M70" s="13">
+      <c r="M70" s="11">
         <v>46065</v>
       </c>
-      <c r="N70" s="13">
+      <c r="N70" s="11">
         <v>46072</v>
       </c>
-      <c r="O70" s="13">
+      <c r="O70" s="11">
         <v>46079</v>
       </c>
-      <c r="P70" s="13">
+      <c r="P70" s="11">
         <v>46086</v>
       </c>
-      <c r="Q70" s="13">
+      <c r="Q70" s="11">
         <v>46093</v>
       </c>
       <c r="R70" s="7">
@@ -6114,9 +6295,9 @@
       <c r="U70" s="7"/>
       <c r="V70" s="7"/>
       <c r="W70" s="7"/>
-      <c r="X70" s="13"/>
-      <c r="Y70" s="13"/>
-      <c r="Z70" s="12" cm="1">
+      <c r="X70" s="11"/>
+      <c r="Y70" s="11"/>
+      <c r="Z70" s="7" cm="1">
         <f t="array" ref="Z70">LOOKUP(2,1/(A70:Y70&lt;&gt;""),A70:Y70)</f>
         <v>46121</v>
       </c>
@@ -6124,8 +6305,11 @@
         <f t="shared" si="2"/>
         <v>אפריל</v>
       </c>
-    </row>
-    <row r="71" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB70" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A71" s="5" t="s">
         <v>53</v>
       </c>
@@ -6153,28 +6337,28 @@
       <c r="I71" s="8">
         <v>0.61458333333333226</v>
       </c>
-      <c r="J71" s="13">
+      <c r="J71" s="11">
         <v>46068</v>
       </c>
-      <c r="K71" s="13">
+      <c r="K71" s="11">
         <v>46075</v>
       </c>
-      <c r="L71" s="13">
+      <c r="L71" s="11">
         <v>46082</v>
       </c>
-      <c r="M71" s="13">
+      <c r="M71" s="11">
         <v>46089</v>
       </c>
-      <c r="N71" s="13">
+      <c r="N71" s="11">
         <v>46096</v>
       </c>
-      <c r="O71" s="13">
+      <c r="O71" s="11">
         <v>46103</v>
       </c>
-      <c r="P71" s="13">
+      <c r="P71" s="11">
         <v>46124</v>
       </c>
-      <c r="Q71" s="13">
+      <c r="Q71" s="11">
         <v>46131</v>
       </c>
       <c r="R71" s="7">
@@ -6184,12 +6368,12 @@
         <v>46145</v>
       </c>
       <c r="T71" s="7"/>
-      <c r="U71" s="13"/>
-      <c r="V71" s="13"/>
-      <c r="W71" s="13"/>
-      <c r="X71" s="13"/>
-      <c r="Y71" s="13"/>
-      <c r="Z71" s="12" cm="1">
+      <c r="U71" s="11"/>
+      <c r="V71" s="11"/>
+      <c r="W71" s="11"/>
+      <c r="X71" s="11"/>
+      <c r="Y71" s="11"/>
+      <c r="Z71" s="7" cm="1">
         <f t="array" ref="Z71">LOOKUP(2,1/(A71:Y71&lt;&gt;""),A71:Y71)</f>
         <v>46145</v>
       </c>
@@ -6197,8 +6381,11 @@
         <f t="shared" si="2"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="72" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB71" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A72" s="5" t="s">
         <v>73</v>
       </c>
@@ -6226,25 +6413,25 @@
       <c r="I72" s="8">
         <v>0.61458333333333226</v>
       </c>
-      <c r="J72" s="13">
+      <c r="J72" s="11">
         <v>45963</v>
       </c>
-      <c r="K72" s="13">
+      <c r="K72" s="11">
         <v>45970</v>
       </c>
-      <c r="L72" s="13">
+      <c r="L72" s="11">
         <v>45977</v>
       </c>
-      <c r="M72" s="13">
+      <c r="M72" s="11">
         <v>45984</v>
       </c>
-      <c r="N72" s="13">
+      <c r="N72" s="11">
         <v>45991</v>
       </c>
-      <c r="O72" s="13">
+      <c r="O72" s="11">
         <v>45998</v>
       </c>
-      <c r="P72" s="13">
+      <c r="P72" s="11">
         <v>46005</v>
       </c>
       <c r="Q72" s="7">
@@ -6256,21 +6443,21 @@
       <c r="S72" s="7">
         <v>46033</v>
       </c>
-      <c r="T72" s="13">
+      <c r="T72" s="11">
         <v>46040</v>
       </c>
-      <c r="U72" s="13">
+      <c r="U72" s="11">
         <v>46047</v>
       </c>
-      <c r="V72" s="13">
+      <c r="V72" s="11">
         <v>46054</v>
       </c>
-      <c r="W72" s="13">
+      <c r="W72" s="11">
         <v>46061</v>
       </c>
-      <c r="X72" s="13"/>
-      <c r="Y72" s="13"/>
-      <c r="Z72" s="12" cm="1">
+      <c r="X72" s="11"/>
+      <c r="Y72" s="11"/>
+      <c r="Z72" s="7" cm="1">
         <f t="array" ref="Z72">LOOKUP(2,1/(A72:Y72&lt;&gt;""),A72:Y72)</f>
         <v>46061</v>
       </c>
@@ -6278,8 +6465,11 @@
         <f t="shared" si="2"/>
         <v>פברואר</v>
       </c>
-    </row>
-    <row r="73" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB72" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A73" s="5" t="s">
         <v>43</v>
       </c>
@@ -6307,25 +6497,25 @@
       <c r="I73" s="8">
         <v>0.56597222222222132</v>
       </c>
-      <c r="J73" s="13">
+      <c r="J73" s="11">
         <v>45972</v>
       </c>
-      <c r="K73" s="13">
+      <c r="K73" s="11">
         <v>45979</v>
       </c>
-      <c r="L73" s="13">
+      <c r="L73" s="11">
         <v>45986</v>
       </c>
-      <c r="M73" s="13">
+      <c r="M73" s="11">
         <v>46014</v>
       </c>
-      <c r="N73" s="13">
+      <c r="N73" s="11">
         <v>46028</v>
       </c>
-      <c r="O73" s="13">
+      <c r="O73" s="11">
         <v>46042</v>
       </c>
-      <c r="P73" s="13">
+      <c r="P73" s="11">
         <v>46049</v>
       </c>
       <c r="Q73" s="7">
@@ -6337,21 +6527,21 @@
       <c r="S73" s="7">
         <v>46070</v>
       </c>
-      <c r="T73" s="13">
+      <c r="T73" s="11">
         <v>46077</v>
       </c>
-      <c r="U73" s="13">
+      <c r="U73" s="11">
         <v>46091</v>
       </c>
-      <c r="V73" s="13">
+      <c r="V73" s="11">
         <v>46098</v>
       </c>
-      <c r="W73" s="13">
+      <c r="W73" s="11">
         <v>46105</v>
       </c>
-      <c r="X73" s="13"/>
-      <c r="Y73" s="13"/>
-      <c r="Z73" s="12" cm="1">
+      <c r="X73" s="11"/>
+      <c r="Y73" s="11"/>
+      <c r="Z73" s="7" cm="1">
         <f t="array" ref="Z73">LOOKUP(2,1/(A73:Y73&lt;&gt;""),A73:Y73)</f>
         <v>46105</v>
       </c>
@@ -6359,8 +6549,11 @@
         <f t="shared" si="2"/>
         <v>מרץ</v>
       </c>
-    </row>
-    <row r="74" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB73" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A74" s="5" t="s">
         <v>43</v>
       </c>
@@ -6388,43 +6581,43 @@
       <c r="I74" s="8">
         <v>0.49305555555555491</v>
       </c>
-      <c r="J74" s="13">
+      <c r="J74" s="11">
         <v>46040</v>
       </c>
-      <c r="K74" s="13">
+      <c r="K74" s="11">
         <v>46047</v>
       </c>
-      <c r="L74" s="13">
+      <c r="L74" s="11">
         <v>46054</v>
       </c>
-      <c r="M74" s="13">
+      <c r="M74" s="11">
         <v>46061</v>
       </c>
-      <c r="N74" s="13">
+      <c r="N74" s="11">
         <v>46075</v>
       </c>
-      <c r="O74" s="13">
+      <c r="O74" s="11">
         <v>46082</v>
       </c>
-      <c r="P74" s="13">
+      <c r="P74" s="11">
         <v>46089</v>
       </c>
-      <c r="Q74" s="13">
+      <c r="Q74" s="11">
         <v>46096</v>
       </c>
-      <c r="R74" s="13">
+      <c r="R74" s="11">
         <v>46103</v>
       </c>
-      <c r="S74" s="13">
+      <c r="S74" s="11">
         <v>46124</v>
       </c>
       <c r="T74" s="7"/>
-      <c r="U74" s="13"/>
-      <c r="V74" s="13"/>
-      <c r="W74" s="13"/>
-      <c r="X74" s="13"/>
-      <c r="Y74" s="13"/>
-      <c r="Z74" s="12" cm="1">
+      <c r="U74" s="11"/>
+      <c r="V74" s="11"/>
+      <c r="W74" s="11"/>
+      <c r="X74" s="11"/>
+      <c r="Y74" s="11"/>
+      <c r="Z74" s="7" cm="1">
         <f t="array" ref="Z74">LOOKUP(2,1/(A74:Y74&lt;&gt;""),A74:Y74)</f>
         <v>46124</v>
       </c>
@@ -6432,8 +6625,11 @@
         <f t="shared" si="2"/>
         <v>אפריל</v>
       </c>
-    </row>
-    <row r="75" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB74" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A75" s="5" t="s">
         <v>87</v>
       </c>
@@ -6461,25 +6657,25 @@
       <c r="I75" s="8">
         <v>0.40277777777777746</v>
       </c>
-      <c r="J75" s="13">
+      <c r="J75" s="11">
         <v>46036</v>
       </c>
-      <c r="K75" s="13">
+      <c r="K75" s="11">
         <v>46043</v>
       </c>
-      <c r="L75" s="13">
+      <c r="L75" s="11">
         <v>46050</v>
       </c>
-      <c r="M75" s="13">
+      <c r="M75" s="11">
         <v>46057</v>
       </c>
-      <c r="N75" s="13">
+      <c r="N75" s="11">
         <v>46064</v>
       </c>
-      <c r="O75" s="13">
+      <c r="O75" s="11">
         <v>46071</v>
       </c>
-      <c r="P75" s="13">
+      <c r="P75" s="11">
         <v>46078</v>
       </c>
       <c r="Q75" s="7">
@@ -6492,12 +6688,12 @@
         <v>46127</v>
       </c>
       <c r="T75" s="7"/>
-      <c r="U75" s="13"/>
-      <c r="V75" s="13"/>
-      <c r="W75" s="13"/>
-      <c r="X75" s="13"/>
-      <c r="Y75" s="13"/>
-      <c r="Z75" s="12" cm="1">
+      <c r="U75" s="11"/>
+      <c r="V75" s="11"/>
+      <c r="W75" s="11"/>
+      <c r="X75" s="11"/>
+      <c r="Y75" s="11"/>
+      <c r="Z75" s="7" cm="1">
         <f t="array" ref="Z75">LOOKUP(2,1/(A75:Y75&lt;&gt;""),A75:Y75)</f>
         <v>46127</v>
       </c>
@@ -6505,8 +6701,11 @@
         <f t="shared" si="2"/>
         <v>אפריל</v>
       </c>
-    </row>
-    <row r="76" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB75" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A76" s="5" t="s">
         <v>87</v>
       </c>
@@ -6534,51 +6733,51 @@
       <c r="I76" s="8">
         <v>0.56249999999999911</v>
       </c>
-      <c r="J76" s="13">
+      <c r="J76" s="11">
         <v>46071</v>
       </c>
-      <c r="K76" s="13">
+      <c r="K76" s="11">
         <v>46078</v>
       </c>
-      <c r="L76" s="13">
+      <c r="L76" s="11">
         <v>46092</v>
       </c>
-      <c r="M76" s="13">
+      <c r="M76" s="11">
         <v>46099</v>
       </c>
-      <c r="N76" s="13">
+      <c r="N76" s="11">
         <v>46127</v>
       </c>
-      <c r="O76" s="13">
+      <c r="O76" s="11">
         <v>46141</v>
       </c>
-      <c r="P76" s="13">
+      <c r="P76" s="11">
         <v>46148</v>
       </c>
-      <c r="Q76" s="13">
+      <c r="Q76" s="11">
         <v>46155</v>
       </c>
-      <c r="R76" s="13">
+      <c r="R76" s="11">
         <v>46162</v>
       </c>
-      <c r="S76" s="13">
+      <c r="S76" s="11">
         <v>46169</v>
       </c>
-      <c r="T76" s="13">
+      <c r="T76" s="11">
         <v>46176</v>
       </c>
-      <c r="U76" s="13">
+      <c r="U76" s="11">
         <v>46183</v>
       </c>
-      <c r="V76" s="13">
+      <c r="V76" s="11">
         <v>46190</v>
       </c>
-      <c r="W76" s="13">
+      <c r="W76" s="11">
         <v>46197</v>
       </c>
-      <c r="X76" s="13"/>
-      <c r="Y76" s="13"/>
-      <c r="Z76" s="12" cm="1">
+      <c r="X76" s="11"/>
+      <c r="Y76" s="11"/>
+      <c r="Z76" s="7" cm="1">
         <f t="array" ref="Z76">LOOKUP(2,1/(A76:Y76&lt;&gt;""),A76:Y76)</f>
         <v>46197</v>
       </c>
@@ -6586,8 +6785,11 @@
         <f t="shared" si="2"/>
         <v>יוני</v>
       </c>
-    </row>
-    <row r="77" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB76" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A77" s="5" t="s">
         <v>34</v>
       </c>
@@ -6615,25 +6817,25 @@
       <c r="I77" s="8">
         <v>0.56249999999999911</v>
       </c>
-      <c r="J77" s="13">
+      <c r="J77" s="11">
         <v>45980</v>
       </c>
-      <c r="K77" s="13">
+      <c r="K77" s="11">
         <v>45987</v>
       </c>
-      <c r="L77" s="13">
+      <c r="L77" s="11">
         <v>45994</v>
       </c>
-      <c r="M77" s="13">
+      <c r="M77" s="11">
         <v>46001</v>
       </c>
-      <c r="N77" s="13">
+      <c r="N77" s="11">
         <v>46015</v>
       </c>
-      <c r="O77" s="13">
+      <c r="O77" s="11">
         <v>46022</v>
       </c>
-      <c r="P77" s="13">
+      <c r="P77" s="11">
         <v>46029</v>
       </c>
       <c r="Q77" s="7">
@@ -6645,15 +6847,15 @@
       <c r="S77" s="7">
         <v>46050</v>
       </c>
-      <c r="T77" s="13">
+      <c r="T77" s="11">
         <v>46057</v>
       </c>
-      <c r="U77" s="13"/>
-      <c r="V77" s="13"/>
-      <c r="W77" s="13"/>
-      <c r="X77" s="13"/>
-      <c r="Y77" s="13"/>
-      <c r="Z77" s="12" cm="1">
+      <c r="U77" s="11"/>
+      <c r="V77" s="11"/>
+      <c r="W77" s="11"/>
+      <c r="X77" s="11"/>
+      <c r="Y77" s="11"/>
+      <c r="Z77" s="7" cm="1">
         <f t="array" ref="Z77">LOOKUP(2,1/(A77:Y77&lt;&gt;""),A77:Y77)</f>
         <v>46057</v>
       </c>
@@ -6661,8 +6863,11 @@
         <f t="shared" si="2"/>
         <v>פברואר</v>
       </c>
-    </row>
-    <row r="78" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB77" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A78" s="5" t="s">
         <v>64</v>
       </c>
@@ -6690,25 +6895,25 @@
       <c r="I78" s="8">
         <v>0.60416666666666563</v>
       </c>
-      <c r="J78" s="13">
+      <c r="J78" s="11">
         <v>46050</v>
       </c>
-      <c r="K78" s="13">
+      <c r="K78" s="11">
         <v>46057</v>
       </c>
-      <c r="L78" s="13">
+      <c r="L78" s="11">
         <v>46064</v>
       </c>
-      <c r="M78" s="13">
+      <c r="M78" s="11">
         <v>46071</v>
       </c>
-      <c r="N78" s="13">
+      <c r="N78" s="11">
         <v>46078</v>
       </c>
-      <c r="O78" s="13">
+      <c r="O78" s="11">
         <v>46092</v>
       </c>
-      <c r="P78" s="13">
+      <c r="P78" s="11">
         <v>46099</v>
       </c>
       <c r="Q78" s="7">
@@ -6720,13 +6925,13 @@
       <c r="S78" s="7">
         <v>46148</v>
       </c>
-      <c r="T78" s="13"/>
-      <c r="U78" s="13"/>
-      <c r="V78" s="13"/>
-      <c r="W78" s="13"/>
-      <c r="X78" s="13"/>
-      <c r="Y78" s="13"/>
-      <c r="Z78" s="12" cm="1">
+      <c r="T78" s="11"/>
+      <c r="U78" s="11"/>
+      <c r="V78" s="11"/>
+      <c r="W78" s="11"/>
+      <c r="X78" s="11"/>
+      <c r="Y78" s="11"/>
+      <c r="Z78" s="7" cm="1">
         <f t="array" ref="Z78">LOOKUP(2,1/(A78:Y78&lt;&gt;""),A78:Y78)</f>
         <v>46148</v>
       </c>
@@ -6734,8 +6939,11 @@
         <f t="shared" si="2"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="79" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB78" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A79" s="5" t="s">
         <v>53</v>
       </c>
@@ -6763,25 +6971,25 @@
       <c r="I79" s="8">
         <v>0.41319444444444409</v>
       </c>
-      <c r="J79" s="13">
+      <c r="J79" s="11">
         <v>45958</v>
       </c>
-      <c r="K79" s="13">
+      <c r="K79" s="11">
         <v>45965</v>
       </c>
-      <c r="L79" s="13">
+      <c r="L79" s="11">
         <v>45972</v>
       </c>
-      <c r="M79" s="13">
+      <c r="M79" s="11">
         <v>45979</v>
       </c>
-      <c r="N79" s="13">
+      <c r="N79" s="11">
         <v>45986</v>
       </c>
-      <c r="O79" s="13">
+      <c r="O79" s="11">
         <v>45993</v>
       </c>
-      <c r="P79" s="13">
+      <c r="P79" s="11">
         <v>46000</v>
       </c>
       <c r="Q79" s="7">
@@ -6796,16 +7004,16 @@
       <c r="T79" s="7">
         <v>46042</v>
       </c>
-      <c r="U79" s="13">
+      <c r="U79" s="11">
         <v>46049</v>
       </c>
-      <c r="V79" s="13">
+      <c r="V79" s="11">
         <v>46056</v>
       </c>
-      <c r="W79" s="13"/>
-      <c r="X79" s="13"/>
-      <c r="Y79" s="13"/>
-      <c r="Z79" s="12" cm="1">
+      <c r="W79" s="11"/>
+      <c r="X79" s="11"/>
+      <c r="Y79" s="11"/>
+      <c r="Z79" s="7" cm="1">
         <f t="array" ref="Z79">LOOKUP(2,1/(A79:Y79&lt;&gt;""),A79:Y79)</f>
         <v>46056</v>
       </c>
@@ -6813,8 +7021,11 @@
         <f t="shared" si="2"/>
         <v>פברואר</v>
       </c>
-    </row>
-    <row r="80" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB79" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A80" s="5" t="s">
         <v>87</v>
       </c>
@@ -6842,47 +7053,47 @@
       <c r="I80" s="8">
         <v>0.40624999999999967</v>
       </c>
-      <c r="J80" s="13">
+      <c r="J80" s="11">
         <v>46027</v>
       </c>
-      <c r="K80" s="13">
+      <c r="K80" s="11">
         <v>46034</v>
       </c>
-      <c r="L80" s="13">
+      <c r="L80" s="11">
         <v>46041</v>
       </c>
-      <c r="M80" s="13">
+      <c r="M80" s="11">
         <v>46048</v>
       </c>
-      <c r="N80" s="13">
+      <c r="N80" s="11">
         <v>46055</v>
       </c>
-      <c r="O80" s="13">
+      <c r="O80" s="11">
         <v>46069</v>
       </c>
-      <c r="P80" s="13">
+      <c r="P80" s="11">
         <v>46076</v>
       </c>
-      <c r="Q80" s="13">
+      <c r="Q80" s="11">
         <v>46083</v>
       </c>
-      <c r="R80" s="13">
+      <c r="R80" s="11">
         <v>46090</v>
       </c>
-      <c r="S80" s="13">
+      <c r="S80" s="11">
         <v>46097</v>
       </c>
-      <c r="T80" s="13">
+      <c r="T80" s="11">
         <v>46125</v>
       </c>
-      <c r="U80" s="13">
+      <c r="U80" s="11">
         <v>46139</v>
       </c>
-      <c r="V80" s="13"/>
-      <c r="W80" s="13"/>
-      <c r="X80" s="13"/>
-      <c r="Y80" s="13"/>
-      <c r="Z80" s="12" cm="1">
+      <c r="V80" s="11"/>
+      <c r="W80" s="11"/>
+      <c r="X80" s="11"/>
+      <c r="Y80" s="11"/>
+      <c r="Z80" s="7" cm="1">
         <f t="array" ref="Z80">LOOKUP(2,1/(A80:Y80&lt;&gt;""),A80:Y80)</f>
         <v>46139</v>
       </c>
@@ -6890,8 +7101,11 @@
         <f t="shared" si="2"/>
         <v>אפריל</v>
       </c>
-    </row>
-    <row r="81" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB80" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A81" s="5" t="s">
         <v>122</v>
       </c>
@@ -6919,43 +7133,43 @@
       <c r="I81" s="8">
         <v>0.4166666666666663</v>
       </c>
-      <c r="J81" s="13">
+      <c r="J81" s="11">
         <v>45951</v>
       </c>
-      <c r="K81" s="13">
+      <c r="K81" s="11">
         <v>45972</v>
       </c>
-      <c r="L81" s="13">
+      <c r="L81" s="11">
         <v>45993</v>
       </c>
-      <c r="M81" s="13">
+      <c r="M81" s="11">
         <v>46014</v>
       </c>
-      <c r="N81" s="13">
+      <c r="N81" s="11">
         <v>46035</v>
       </c>
-      <c r="O81" s="13">
+      <c r="O81" s="11">
         <v>46056</v>
       </c>
-      <c r="P81" s="13">
+      <c r="P81" s="11">
         <v>46077</v>
       </c>
-      <c r="Q81" s="13">
+      <c r="Q81" s="11">
         <v>46098</v>
       </c>
-      <c r="R81" s="13">
+      <c r="R81" s="11">
         <v>46140</v>
       </c>
-      <c r="S81" s="13">
+      <c r="S81" s="11">
         <v>46161</v>
       </c>
-      <c r="T81" s="13"/>
-      <c r="U81" s="13"/>
-      <c r="V81" s="13"/>
-      <c r="W81" s="13"/>
-      <c r="X81" s="13"/>
-      <c r="Y81" s="13"/>
-      <c r="Z81" s="12" cm="1">
+      <c r="T81" s="11"/>
+      <c r="U81" s="11"/>
+      <c r="V81" s="11"/>
+      <c r="W81" s="11"/>
+      <c r="X81" s="11"/>
+      <c r="Y81" s="11"/>
+      <c r="Z81" s="7" cm="1">
         <f t="array" ref="Z81">LOOKUP(2,1/(A81:Y81&lt;&gt;""),A81:Y81)</f>
         <v>46161</v>
       </c>
@@ -6963,8 +7177,11 @@
         <f t="shared" si="2"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="82" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB81" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A82" s="5" t="s">
         <v>122</v>
       </c>
@@ -6992,43 +7209,43 @@
       <c r="I82" s="8">
         <v>0.49999999999999933</v>
       </c>
-      <c r="J82" s="13">
+      <c r="J82" s="11">
         <v>45951</v>
       </c>
-      <c r="K82" s="13">
+      <c r="K82" s="11">
         <v>45972</v>
       </c>
-      <c r="L82" s="13">
+      <c r="L82" s="11">
         <v>45993</v>
       </c>
-      <c r="M82" s="13">
+      <c r="M82" s="11">
         <v>46014</v>
       </c>
-      <c r="N82" s="13">
+      <c r="N82" s="11">
         <v>46035</v>
       </c>
-      <c r="O82" s="13">
+      <c r="O82" s="11">
         <v>46056</v>
       </c>
-      <c r="P82" s="13">
+      <c r="P82" s="11">
         <v>46077</v>
       </c>
-      <c r="Q82" s="13">
+      <c r="Q82" s="11">
         <v>46098</v>
       </c>
-      <c r="R82" s="13">
+      <c r="R82" s="11">
         <v>46140</v>
       </c>
-      <c r="S82" s="13">
+      <c r="S82" s="11">
         <v>46161</v>
       </c>
-      <c r="T82" s="13"/>
-      <c r="U82" s="13"/>
-      <c r="V82" s="13"/>
-      <c r="W82" s="13"/>
-      <c r="X82" s="13"/>
-      <c r="Y82" s="13"/>
-      <c r="Z82" s="12" cm="1">
+      <c r="T82" s="11"/>
+      <c r="U82" s="11"/>
+      <c r="V82" s="11"/>
+      <c r="W82" s="11"/>
+      <c r="X82" s="11"/>
+      <c r="Y82" s="11"/>
+      <c r="Z82" s="7" cm="1">
         <f t="array" ref="Z82">LOOKUP(2,1/(A82:Y82&lt;&gt;""),A82:Y82)</f>
         <v>46161</v>
       </c>
@@ -7036,8 +7253,11 @@
         <f t="shared" si="2"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="83" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB82" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A83" s="5" t="s">
         <v>122</v>
       </c>
@@ -7065,43 +7285,43 @@
       <c r="I83" s="8">
         <v>0.4166666666666663</v>
       </c>
-      <c r="J83" s="13">
+      <c r="J83" s="11">
         <v>45952</v>
       </c>
-      <c r="K83" s="13">
+      <c r="K83" s="11">
         <v>45973</v>
       </c>
-      <c r="L83" s="13">
+      <c r="L83" s="11">
         <v>45994</v>
       </c>
-      <c r="M83" s="13">
+      <c r="M83" s="11">
         <v>46015</v>
       </c>
-      <c r="N83" s="13">
+      <c r="N83" s="11">
         <v>46036</v>
       </c>
-      <c r="O83" s="13">
+      <c r="O83" s="11">
         <v>46057</v>
       </c>
-      <c r="P83" s="13">
+      <c r="P83" s="11">
         <v>46078</v>
       </c>
-      <c r="Q83" s="13">
+      <c r="Q83" s="11">
         <v>46099</v>
       </c>
-      <c r="R83" s="13">
+      <c r="R83" s="11">
         <v>46141</v>
       </c>
-      <c r="S83" s="13">
+      <c r="S83" s="11">
         <v>46162</v>
       </c>
-      <c r="T83" s="13"/>
-      <c r="U83" s="13"/>
-      <c r="V83" s="13"/>
-      <c r="W83" s="13"/>
-      <c r="X83" s="13"/>
-      <c r="Y83" s="13"/>
-      <c r="Z83" s="12" cm="1">
+      <c r="T83" s="11"/>
+      <c r="U83" s="11"/>
+      <c r="V83" s="11"/>
+      <c r="W83" s="11"/>
+      <c r="X83" s="11"/>
+      <c r="Y83" s="11"/>
+      <c r="Z83" s="7" cm="1">
         <f t="array" ref="Z83">LOOKUP(2,1/(A83:Y83&lt;&gt;""),A83:Y83)</f>
         <v>46162</v>
       </c>
@@ -7109,8 +7329,11 @@
         <f t="shared" si="2"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="84" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB83" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A84" s="5" t="s">
         <v>122</v>
       </c>
@@ -7138,43 +7361,43 @@
       <c r="I84" s="8">
         <v>0.49999999999999933</v>
       </c>
-      <c r="J84" s="13">
+      <c r="J84" s="11">
         <v>45952</v>
       </c>
-      <c r="K84" s="13">
+      <c r="K84" s="11">
         <v>45973</v>
       </c>
-      <c r="L84" s="13">
+      <c r="L84" s="11">
         <v>45994</v>
       </c>
-      <c r="M84" s="13">
+      <c r="M84" s="11">
         <v>46015</v>
       </c>
-      <c r="N84" s="13">
+      <c r="N84" s="11">
         <v>46036</v>
       </c>
-      <c r="O84" s="13">
+      <c r="O84" s="11">
         <v>46057</v>
       </c>
-      <c r="P84" s="13">
+      <c r="P84" s="11">
         <v>46078</v>
       </c>
-      <c r="Q84" s="13">
+      <c r="Q84" s="11">
         <v>46099</v>
       </c>
-      <c r="R84" s="13">
+      <c r="R84" s="11">
         <v>46141</v>
       </c>
-      <c r="S84" s="13">
+      <c r="S84" s="11">
         <v>46162</v>
       </c>
-      <c r="T84" s="13"/>
-      <c r="U84" s="13"/>
-      <c r="V84" s="13"/>
-      <c r="W84" s="13"/>
-      <c r="X84" s="13"/>
-      <c r="Y84" s="13"/>
-      <c r="Z84" s="12" cm="1">
+      <c r="T84" s="11"/>
+      <c r="U84" s="11"/>
+      <c r="V84" s="11"/>
+      <c r="W84" s="11"/>
+      <c r="X84" s="11"/>
+      <c r="Y84" s="11"/>
+      <c r="Z84" s="7" cm="1">
         <f t="array" ref="Z84">LOOKUP(2,1/(A84:Y84&lt;&gt;""),A84:Y84)</f>
         <v>46162</v>
       </c>
@@ -7182,8 +7405,11 @@
         <f t="shared" si="2"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="85" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB84" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A85" s="5" t="s">
         <v>122</v>
       </c>
@@ -7211,39 +7437,39 @@
       <c r="I85" s="8">
         <v>0.4895833333333327</v>
       </c>
-      <c r="J85" s="13">
+      <c r="J85" s="11">
         <v>46016</v>
       </c>
-      <c r="K85" s="13">
+      <c r="K85" s="11">
         <v>46023</v>
       </c>
-      <c r="L85" s="13">
+      <c r="L85" s="11">
         <v>46030</v>
       </c>
-      <c r="M85" s="13">
+      <c r="M85" s="11">
         <v>46037</v>
       </c>
-      <c r="N85" s="13">
+      <c r="N85" s="11">
         <v>46051</v>
       </c>
-      <c r="O85" s="13">
+      <c r="O85" s="11">
         <v>46058</v>
       </c>
-      <c r="P85" s="13">
+      <c r="P85" s="11">
         <v>46065</v>
       </c>
-      <c r="Q85" s="13">
+      <c r="Q85" s="11">
         <v>46072</v>
       </c>
-      <c r="R85" s="13"/>
-      <c r="S85" s="13"/>
-      <c r="T85" s="13"/>
-      <c r="U85" s="13"/>
-      <c r="V85" s="13"/>
-      <c r="W85" s="13"/>
-      <c r="X85" s="13"/>
-      <c r="Y85" s="13"/>
-      <c r="Z85" s="12" cm="1">
+      <c r="R85" s="11"/>
+      <c r="S85" s="11"/>
+      <c r="T85" s="11"/>
+      <c r="U85" s="11"/>
+      <c r="V85" s="11"/>
+      <c r="W85" s="11"/>
+      <c r="X85" s="11"/>
+      <c r="Y85" s="11"/>
+      <c r="Z85" s="7" cm="1">
         <f t="array" ref="Z85">LOOKUP(2,1/(A85:Y85&lt;&gt;""),A85:Y85)</f>
         <v>46072</v>
       </c>
@@ -7251,8 +7477,11 @@
         <f t="shared" si="2"/>
         <v>פברואר</v>
       </c>
-    </row>
-    <row r="86" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB85" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A86" s="5" t="s">
         <v>122</v>
       </c>
@@ -7280,39 +7509,39 @@
       <c r="I86" s="8">
         <v>0.40624999999999967</v>
       </c>
-      <c r="J86" s="13">
+      <c r="J86" s="11">
         <v>46016</v>
       </c>
-      <c r="K86" s="13">
+      <c r="K86" s="11">
         <v>46023</v>
       </c>
-      <c r="L86" s="13">
+      <c r="L86" s="11">
         <v>46030</v>
       </c>
-      <c r="M86" s="13">
+      <c r="M86" s="11">
         <v>46037</v>
       </c>
-      <c r="N86" s="13">
+      <c r="N86" s="11">
         <v>46051</v>
       </c>
-      <c r="O86" s="13">
+      <c r="O86" s="11">
         <v>46058</v>
       </c>
-      <c r="P86" s="13">
+      <c r="P86" s="11">
         <v>46065</v>
       </c>
-      <c r="Q86" s="13">
+      <c r="Q86" s="11">
         <v>46072</v>
       </c>
-      <c r="R86" s="13"/>
-      <c r="S86" s="13"/>
+      <c r="R86" s="11"/>
+      <c r="S86" s="11"/>
       <c r="T86" s="7"/>
-      <c r="U86" s="13"/>
-      <c r="V86" s="13"/>
-      <c r="W86" s="13"/>
-      <c r="X86" s="13"/>
-      <c r="Y86" s="13"/>
-      <c r="Z86" s="12" cm="1">
+      <c r="U86" s="11"/>
+      <c r="V86" s="11"/>
+      <c r="W86" s="11"/>
+      <c r="X86" s="11"/>
+      <c r="Y86" s="11"/>
+      <c r="Z86" s="7" cm="1">
         <f t="array" ref="Z86">LOOKUP(2,1/(A86:Y86&lt;&gt;""),A86:Y86)</f>
         <v>46072</v>
       </c>
@@ -7320,8 +7549,11 @@
         <f t="shared" si="2"/>
         <v>פברואר</v>
       </c>
-    </row>
-    <row r="87" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB86" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A87" s="5" t="s">
         <v>87</v>
       </c>
@@ -7349,45 +7581,45 @@
       <c r="I87" s="8">
         <v>0.60416666666666563</v>
       </c>
-      <c r="J87" s="13">
+      <c r="J87" s="11">
         <v>46064</v>
       </c>
-      <c r="K87" s="13">
+      <c r="K87" s="11">
         <v>46075</v>
       </c>
-      <c r="L87" s="13">
+      <c r="L87" s="11">
         <v>46082</v>
       </c>
-      <c r="M87" s="13">
+      <c r="M87" s="11">
         <v>46089</v>
       </c>
-      <c r="N87" s="13">
+      <c r="N87" s="11">
         <v>46096</v>
       </c>
-      <c r="O87" s="13">
+      <c r="O87" s="11">
         <v>46103</v>
       </c>
-      <c r="P87" s="13">
+      <c r="P87" s="11">
         <v>46124</v>
       </c>
-      <c r="Q87" s="13">
+      <c r="Q87" s="11">
         <v>46131</v>
       </c>
-      <c r="R87" s="13">
+      <c r="R87" s="11">
         <v>46138</v>
       </c>
-      <c r="S87" s="13">
+      <c r="S87" s="11">
         <v>46145</v>
       </c>
       <c r="T87" s="7">
         <v>46152</v>
       </c>
-      <c r="U87" s="13"/>
-      <c r="V87" s="13"/>
-      <c r="W87" s="13"/>
-      <c r="X87" s="13"/>
-      <c r="Y87" s="13"/>
-      <c r="Z87" s="12" cm="1">
+      <c r="U87" s="11"/>
+      <c r="V87" s="11"/>
+      <c r="W87" s="11"/>
+      <c r="X87" s="11"/>
+      <c r="Y87" s="11"/>
+      <c r="Z87" s="7" cm="1">
         <f t="array" ref="Z87">LOOKUP(2,1/(A87:Y87&lt;&gt;""),A87:Y87)</f>
         <v>46152</v>
       </c>
@@ -7395,8 +7627,11 @@
         <f t="shared" si="2"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="88" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB87" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A88" s="5" t="s">
         <v>87</v>
       </c>
@@ -7424,43 +7659,43 @@
       <c r="I88" s="8">
         <v>0.60416666666666563</v>
       </c>
-      <c r="J88" s="13">
+      <c r="J88" s="11">
         <v>45994</v>
       </c>
-      <c r="K88" s="13">
+      <c r="K88" s="11">
         <v>46001</v>
       </c>
-      <c r="L88" s="13">
+      <c r="L88" s="11">
         <v>46015</v>
       </c>
-      <c r="M88" s="13">
+      <c r="M88" s="11">
         <v>46022</v>
       </c>
-      <c r="N88" s="13">
+      <c r="N88" s="11">
         <v>45661</v>
       </c>
-      <c r="O88" s="13">
+      <c r="O88" s="11">
         <v>46029</v>
       </c>
-      <c r="P88" s="13">
+      <c r="P88" s="11">
         <v>46036</v>
       </c>
-      <c r="Q88" s="13">
+      <c r="Q88" s="11">
         <v>46043</v>
       </c>
-      <c r="R88" s="13">
+      <c r="R88" s="11">
         <v>46050</v>
       </c>
-      <c r="S88" s="13">
+      <c r="S88" s="11">
         <v>46064</v>
       </c>
-      <c r="T88" s="13"/>
-      <c r="U88" s="13"/>
-      <c r="V88" s="13"/>
-      <c r="W88" s="13"/>
-      <c r="X88" s="13"/>
-      <c r="Y88" s="13"/>
-      <c r="Z88" s="12" cm="1">
+      <c r="T88" s="11"/>
+      <c r="U88" s="11"/>
+      <c r="V88" s="11"/>
+      <c r="W88" s="11"/>
+      <c r="X88" s="11"/>
+      <c r="Y88" s="11"/>
+      <c r="Z88" s="7" cm="1">
         <f t="array" ref="Z88">LOOKUP(2,1/(A88:Y88&lt;&gt;""),A88:Y88)</f>
         <v>46064</v>
       </c>
@@ -7468,8 +7703,11 @@
         <f t="shared" si="2"/>
         <v>פברואר</v>
       </c>
-    </row>
-    <row r="89" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB88" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A89" s="5" t="s">
         <v>68</v>
       </c>
@@ -7497,25 +7735,25 @@
       <c r="I89" s="8">
         <v>0.44791666666666619</v>
       </c>
-      <c r="J89" s="13">
+      <c r="J89" s="11">
         <v>45974</v>
       </c>
-      <c r="K89" s="13">
+      <c r="K89" s="11">
         <v>46079</v>
       </c>
-      <c r="L89" s="13">
+      <c r="L89" s="11">
         <v>46086</v>
       </c>
-      <c r="M89" s="13">
+      <c r="M89" s="11">
         <v>46093</v>
       </c>
-      <c r="N89" s="13">
+      <c r="N89" s="11">
         <v>46100</v>
       </c>
-      <c r="O89" s="13">
+      <c r="O89" s="11">
         <v>46023</v>
       </c>
-      <c r="P89" s="13">
+      <c r="P89" s="11">
         <v>46030</v>
       </c>
       <c r="Q89" s="7">
@@ -7527,19 +7765,19 @@
       <c r="S89" s="7">
         <v>46051</v>
       </c>
-      <c r="T89" s="13">
+      <c r="T89" s="11">
         <v>46058</v>
       </c>
-      <c r="U89" s="13">
+      <c r="U89" s="11">
         <v>46065</v>
       </c>
-      <c r="V89" s="13">
+      <c r="V89" s="11">
         <v>46065</v>
       </c>
-      <c r="W89" s="13"/>
-      <c r="X89" s="13"/>
-      <c r="Y89" s="13"/>
-      <c r="Z89" s="12" cm="1">
+      <c r="W89" s="11"/>
+      <c r="X89" s="11"/>
+      <c r="Y89" s="11"/>
+      <c r="Z89" s="7" cm="1">
         <f t="array" ref="Z89">LOOKUP(2,1/(A89:Y89&lt;&gt;""),A89:Y89)</f>
         <v>46065</v>
       </c>
@@ -7547,8 +7785,11 @@
         <f t="shared" si="2"/>
         <v>פברואר</v>
       </c>
-    </row>
-    <row r="90" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB89" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A90" s="5" t="s">
         <v>90</v>
       </c>
@@ -7576,39 +7817,39 @@
       <c r="I90" s="8">
         <v>0.49305555555555491</v>
       </c>
-      <c r="J90" s="13">
+      <c r="J90" s="11">
         <v>45959</v>
       </c>
-      <c r="K90" s="13">
+      <c r="K90" s="11">
         <v>45966</v>
       </c>
-      <c r="L90" s="13">
+      <c r="L90" s="11">
         <v>45973</v>
       </c>
-      <c r="M90" s="13">
+      <c r="M90" s="11">
         <v>45980</v>
       </c>
-      <c r="N90" s="13">
+      <c r="N90" s="11">
         <v>45987</v>
       </c>
-      <c r="O90" s="13">
+      <c r="O90" s="11">
         <v>46043</v>
       </c>
-      <c r="P90" s="13">
+      <c r="P90" s="11">
         <v>46050</v>
       </c>
       <c r="Q90" s="7">
         <v>46064</v>
       </c>
       <c r="R90" s="7"/>
-      <c r="S90" s="13"/>
-      <c r="T90" s="13"/>
-      <c r="U90" s="13"/>
-      <c r="V90" s="13"/>
-      <c r="W90" s="13"/>
-      <c r="X90" s="13"/>
-      <c r="Y90" s="13"/>
-      <c r="Z90" s="12" cm="1">
+      <c r="S90" s="11"/>
+      <c r="T90" s="11"/>
+      <c r="U90" s="11"/>
+      <c r="V90" s="11"/>
+      <c r="W90" s="11"/>
+      <c r="X90" s="11"/>
+      <c r="Y90" s="11"/>
+      <c r="Z90" s="7" cm="1">
         <f t="array" ref="Z90">LOOKUP(2,1/(A90:Y90&lt;&gt;""),A90:Y90)</f>
         <v>46064</v>
       </c>
@@ -7616,8 +7857,11 @@
         <f t="shared" si="2"/>
         <v>פברואר</v>
       </c>
-    </row>
-    <row r="91" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB90" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A91" s="5" t="s">
         <v>90</v>
       </c>
@@ -7645,25 +7889,25 @@
       <c r="I91" s="8">
         <v>0.56249999999999911</v>
       </c>
-      <c r="J91" s="13">
+      <c r="J91" s="11">
         <v>45959</v>
       </c>
-      <c r="K91" s="13">
+      <c r="K91" s="11">
         <v>45966</v>
       </c>
-      <c r="L91" s="13">
+      <c r="L91" s="11">
         <v>45973</v>
       </c>
-      <c r="M91" s="13">
+      <c r="M91" s="11">
         <v>45980</v>
       </c>
-      <c r="N91" s="13">
+      <c r="N91" s="11">
         <v>45987</v>
       </c>
-      <c r="O91" s="13">
+      <c r="O91" s="11">
         <v>46023</v>
       </c>
-      <c r="P91" s="13">
+      <c r="P91" s="11">
         <v>46043</v>
       </c>
       <c r="Q91" s="7">
@@ -7672,16 +7916,16 @@
       <c r="R91" s="7">
         <v>46064</v>
       </c>
-      <c r="S91" s="13">
+      <c r="S91" s="11">
         <v>46078</v>
       </c>
-      <c r="T91" s="13"/>
-      <c r="U91" s="13"/>
-      <c r="V91" s="13"/>
-      <c r="W91" s="13"/>
-      <c r="X91" s="13"/>
-      <c r="Y91" s="13"/>
-      <c r="Z91" s="12" cm="1">
+      <c r="T91" s="11"/>
+      <c r="U91" s="11"/>
+      <c r="V91" s="11"/>
+      <c r="W91" s="11"/>
+      <c r="X91" s="11"/>
+      <c r="Y91" s="11"/>
+      <c r="Z91" s="7" cm="1">
         <f t="array" ref="Z91">LOOKUP(2,1/(A91:Y91&lt;&gt;""),A91:Y91)</f>
         <v>46078</v>
       </c>
@@ -7689,8 +7933,11 @@
         <f t="shared" ref="AA91:AA117" si="3">TEXT(Z91,"[$-he-IL]mmmm")</f>
         <v>פברואר</v>
       </c>
-    </row>
-    <row r="92" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB91" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A92" s="5" t="s">
         <v>73</v>
       </c>
@@ -7718,39 +7965,39 @@
       <c r="I92" s="8">
         <v>0.54861111111111027</v>
       </c>
-      <c r="J92" s="13">
+      <c r="J92" s="11">
         <v>46089</v>
       </c>
-      <c r="K92" s="13">
+      <c r="K92" s="11">
         <v>46124</v>
       </c>
-      <c r="L92" s="13">
+      <c r="L92" s="11">
         <v>46131</v>
       </c>
-      <c r="M92" s="13">
+      <c r="M92" s="11">
         <v>46138</v>
       </c>
-      <c r="N92" s="13">
+      <c r="N92" s="11">
         <v>46145</v>
       </c>
-      <c r="O92" s="13">
+      <c r="O92" s="11">
         <v>46152</v>
       </c>
-      <c r="P92" s="13">
+      <c r="P92" s="11">
         <v>46159</v>
       </c>
       <c r="Q92" s="7">
         <v>46166</v>
       </c>
       <c r="R92" s="7"/>
-      <c r="S92" s="13"/>
-      <c r="T92" s="13"/>
-      <c r="U92" s="13"/>
-      <c r="V92" s="13"/>
-      <c r="W92" s="13"/>
-      <c r="X92" s="13"/>
-      <c r="Y92" s="13"/>
-      <c r="Z92" s="12" cm="1">
+      <c r="S92" s="11"/>
+      <c r="T92" s="11"/>
+      <c r="U92" s="11"/>
+      <c r="V92" s="11"/>
+      <c r="W92" s="11"/>
+      <c r="X92" s="11"/>
+      <c r="Y92" s="11"/>
+      <c r="Z92" s="7" cm="1">
         <f t="array" ref="Z92">LOOKUP(2,1/(A92:Y92&lt;&gt;""),A92:Y92)</f>
         <v>46166</v>
       </c>
@@ -7758,8 +8005,11 @@
         <f t="shared" si="3"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="93" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB92" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A93" s="5"/>
       <c r="B93" s="5" t="s">
         <v>28</v>
@@ -7785,39 +8035,39 @@
       <c r="I93" s="8">
         <v>0.39583333333333304</v>
       </c>
-      <c r="J93" s="13">
+      <c r="J93" s="11">
         <v>46097</v>
       </c>
-      <c r="K93" s="13">
+      <c r="K93" s="11">
         <v>46104</v>
       </c>
-      <c r="L93" s="13">
+      <c r="L93" s="11">
         <v>46125</v>
       </c>
-      <c r="M93" s="13">
+      <c r="M93" s="11">
         <v>46139</v>
       </c>
-      <c r="N93" s="13">
+      <c r="N93" s="11">
         <v>46146</v>
       </c>
-      <c r="O93" s="13">
+      <c r="O93" s="11">
         <v>46153</v>
       </c>
-      <c r="P93" s="13">
+      <c r="P93" s="11">
         <v>46160</v>
       </c>
       <c r="Q93" s="7">
         <v>46167</v>
       </c>
       <c r="R93" s="7"/>
-      <c r="S93" s="13"/>
-      <c r="T93" s="13"/>
-      <c r="U93" s="13"/>
-      <c r="V93" s="13"/>
-      <c r="W93" s="13"/>
-      <c r="X93" s="13"/>
-      <c r="Y93" s="13"/>
-      <c r="Z93" s="12" cm="1">
+      <c r="S93" s="11"/>
+      <c r="T93" s="11"/>
+      <c r="U93" s="11"/>
+      <c r="V93" s="11"/>
+      <c r="W93" s="11"/>
+      <c r="X93" s="11"/>
+      <c r="Y93" s="11"/>
+      <c r="Z93" s="7" cm="1">
         <f t="array" ref="Z93">LOOKUP(2,1/(A93:Y93&lt;&gt;""),A93:Y93)</f>
         <v>46167</v>
       </c>
@@ -7825,8 +8075,9 @@
         <f t="shared" si="3"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="94" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB93" s="14"/>
+    </row>
+    <row r="94" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A94" s="5" t="s">
         <v>73</v>
       </c>
@@ -7854,39 +8105,39 @@
       <c r="I94" s="8">
         <v>0.47222222222222165</v>
       </c>
-      <c r="J94" s="13">
+      <c r="J94" s="11">
         <v>46086</v>
       </c>
-      <c r="K94" s="13">
+      <c r="K94" s="11">
         <v>46093</v>
       </c>
-      <c r="L94" s="13">
+      <c r="L94" s="11">
         <v>46100</v>
       </c>
-      <c r="M94" s="13">
+      <c r="M94" s="11">
         <v>46121</v>
       </c>
-      <c r="N94" s="13">
+      <c r="N94" s="11">
         <v>46128</v>
       </c>
-      <c r="O94" s="13">
+      <c r="O94" s="11">
         <v>46135</v>
       </c>
-      <c r="P94" s="13">
+      <c r="P94" s="11">
         <v>46142</v>
       </c>
       <c r="Q94" s="7">
         <v>46149</v>
       </c>
       <c r="R94" s="7"/>
-      <c r="S94" s="13"/>
-      <c r="T94" s="13"/>
-      <c r="U94" s="13"/>
-      <c r="V94" s="13"/>
-      <c r="W94" s="13"/>
-      <c r="X94" s="13"/>
-      <c r="Y94" s="13"/>
-      <c r="Z94" s="12" cm="1">
+      <c r="S94" s="11"/>
+      <c r="T94" s="11"/>
+      <c r="U94" s="11"/>
+      <c r="V94" s="11"/>
+      <c r="W94" s="11"/>
+      <c r="X94" s="11"/>
+      <c r="Y94" s="11"/>
+      <c r="Z94" s="7" cm="1">
         <f t="array" ref="Z94">LOOKUP(2,1/(A94:Y94&lt;&gt;""),A94:Y94)</f>
         <v>46149</v>
       </c>
@@ -7894,8 +8145,11 @@
         <f t="shared" si="3"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="95" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB94" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A95" s="5" t="s">
         <v>73</v>
       </c>
@@ -7923,39 +8177,39 @@
       <c r="I95" s="8">
         <v>0.54861111111111027</v>
       </c>
-      <c r="J95" s="13">
+      <c r="J95" s="11">
         <v>46086</v>
       </c>
-      <c r="K95" s="13">
+      <c r="K95" s="11">
         <v>46093</v>
       </c>
-      <c r="L95" s="13">
+      <c r="L95" s="11">
         <v>46100</v>
       </c>
-      <c r="M95" s="13">
+      <c r="M95" s="11">
         <v>46121</v>
       </c>
-      <c r="N95" s="13">
+      <c r="N95" s="11">
         <v>46128</v>
       </c>
-      <c r="O95" s="13">
+      <c r="O95" s="11">
         <v>46135</v>
       </c>
-      <c r="P95" s="13">
+      <c r="P95" s="11">
         <v>46142</v>
       </c>
       <c r="Q95" s="7">
         <v>46149</v>
       </c>
       <c r="R95" s="7"/>
-      <c r="S95" s="13"/>
-      <c r="T95" s="13"/>
-      <c r="U95" s="13"/>
-      <c r="V95" s="13"/>
-      <c r="W95" s="13"/>
-      <c r="X95" s="13"/>
-      <c r="Y95" s="13"/>
-      <c r="Z95" s="12" cm="1">
+      <c r="S95" s="11"/>
+      <c r="T95" s="11"/>
+      <c r="U95" s="11"/>
+      <c r="V95" s="11"/>
+      <c r="W95" s="11"/>
+      <c r="X95" s="11"/>
+      <c r="Y95" s="11"/>
+      <c r="Z95" s="7" cm="1">
         <f t="array" ref="Z95">LOOKUP(2,1/(A95:Y95&lt;&gt;""),A95:Y95)</f>
         <v>46149</v>
       </c>
@@ -7963,8 +8217,11 @@
         <f t="shared" si="3"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="96" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB95" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A96" s="5" t="s">
         <v>94</v>
       </c>
@@ -7992,39 +8249,39 @@
       <c r="I96" s="8">
         <v>0.65624999999999878</v>
       </c>
-      <c r="J96" s="13">
+      <c r="J96" s="11">
         <v>46016</v>
       </c>
-      <c r="K96" s="13">
+      <c r="K96" s="11">
         <v>46030</v>
       </c>
-      <c r="L96" s="13">
+      <c r="L96" s="11">
         <v>46037</v>
       </c>
-      <c r="M96" s="13">
+      <c r="M96" s="11">
         <v>46044</v>
       </c>
-      <c r="N96" s="13">
+      <c r="N96" s="11">
         <v>46051</v>
       </c>
-      <c r="O96" s="13">
+      <c r="O96" s="11">
         <v>46058</v>
       </c>
-      <c r="P96" s="13">
+      <c r="P96" s="11">
         <v>46065</v>
       </c>
       <c r="Q96" s="7">
         <v>46072</v>
       </c>
       <c r="R96" s="7"/>
-      <c r="S96" s="13"/>
-      <c r="T96" s="13"/>
-      <c r="U96" s="13"/>
-      <c r="V96" s="13"/>
-      <c r="W96" s="13"/>
-      <c r="X96" s="13"/>
-      <c r="Y96" s="13"/>
-      <c r="Z96" s="12" cm="1">
+      <c r="S96" s="11"/>
+      <c r="T96" s="11"/>
+      <c r="U96" s="11"/>
+      <c r="V96" s="11"/>
+      <c r="W96" s="11"/>
+      <c r="X96" s="11"/>
+      <c r="Y96" s="11"/>
+      <c r="Z96" s="7" cm="1">
         <f t="array" ref="Z96">LOOKUP(2,1/(A96:Y96&lt;&gt;""),A96:Y96)</f>
         <v>46072</v>
       </c>
@@ -8032,8 +8289,11 @@
         <f t="shared" si="3"/>
         <v>פברואר</v>
       </c>
-    </row>
-    <row r="97" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB96" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A97" s="5" t="s">
         <v>94</v>
       </c>
@@ -8061,25 +8321,25 @@
       <c r="I97" s="8">
         <v>0.53819444444444364</v>
       </c>
-      <c r="J97" s="13">
+      <c r="J97" s="11">
         <v>45965</v>
       </c>
-      <c r="K97" s="13">
+      <c r="K97" s="11">
         <v>45972</v>
       </c>
-      <c r="L97" s="13">
+      <c r="L97" s="11">
         <v>45979</v>
       </c>
-      <c r="M97" s="13">
+      <c r="M97" s="11">
         <v>45986</v>
       </c>
-      <c r="N97" s="13">
+      <c r="N97" s="11">
         <v>45993</v>
       </c>
-      <c r="O97" s="13">
+      <c r="O97" s="11">
         <v>46000</v>
       </c>
-      <c r="P97" s="13">
+      <c r="P97" s="11">
         <v>46014</v>
       </c>
       <c r="Q97" s="7">
@@ -8088,26 +8348,26 @@
       <c r="R97" s="7">
         <v>46028</v>
       </c>
-      <c r="S97" s="13">
+      <c r="S97" s="11">
         <v>46035</v>
       </c>
-      <c r="T97" s="13">
+      <c r="T97" s="11">
         <v>46042</v>
       </c>
-      <c r="U97" s="13">
+      <c r="U97" s="11">
         <v>46049</v>
       </c>
-      <c r="V97" s="13">
+      <c r="V97" s="11">
         <v>46056</v>
       </c>
-      <c r="W97" s="13">
+      <c r="W97" s="11">
         <v>46063</v>
       </c>
-      <c r="X97" s="13">
+      <c r="X97" s="11">
         <v>46070</v>
       </c>
-      <c r="Y97" s="13"/>
-      <c r="Z97" s="12" cm="1">
+      <c r="Y97" s="11"/>
+      <c r="Z97" s="7" cm="1">
         <f t="array" ref="Z97">LOOKUP(2,1/(A97:Y97&lt;&gt;""),A97:Y97)</f>
         <v>46070</v>
       </c>
@@ -8115,8 +8375,11 @@
         <f t="shared" si="3"/>
         <v>פברואר</v>
       </c>
-    </row>
-    <row r="98" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB97" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A98" s="5" t="s">
         <v>94</v>
       </c>
@@ -8144,25 +8407,25 @@
       <c r="I98" s="8">
         <v>0.46874999999999944</v>
       </c>
-      <c r="J98" s="13">
+      <c r="J98" s="11">
         <v>45971</v>
       </c>
-      <c r="K98" s="13">
+      <c r="K98" s="11">
         <v>45978</v>
       </c>
-      <c r="L98" s="13">
+      <c r="L98" s="11">
         <v>45985</v>
       </c>
-      <c r="M98" s="13">
+      <c r="M98" s="11">
         <v>45992</v>
       </c>
-      <c r="N98" s="13">
+      <c r="N98" s="11">
         <v>45999</v>
       </c>
-      <c r="O98" s="13">
+      <c r="O98" s="11">
         <v>46006</v>
       </c>
-      <c r="P98" s="13">
+      <c r="P98" s="11">
         <v>46035</v>
       </c>
       <c r="Q98" s="7">
@@ -8171,20 +8434,20 @@
       <c r="R98" s="7">
         <v>46049</v>
       </c>
-      <c r="S98" s="13">
+      <c r="S98" s="11">
         <v>46056</v>
       </c>
-      <c r="T98" s="13">
+      <c r="T98" s="11">
         <v>46063</v>
       </c>
-      <c r="U98" s="13">
+      <c r="U98" s="11">
         <v>46070</v>
       </c>
-      <c r="V98" s="13"/>
-      <c r="W98" s="13"/>
-      <c r="X98" s="13"/>
-      <c r="Y98" s="13"/>
-      <c r="Z98" s="12" cm="1">
+      <c r="V98" s="11"/>
+      <c r="W98" s="11"/>
+      <c r="X98" s="11"/>
+      <c r="Y98" s="11"/>
+      <c r="Z98" s="7" cm="1">
         <f t="array" ref="Z98">LOOKUP(2,1/(A98:Y98&lt;&gt;""),A98:Y98)</f>
         <v>46070</v>
       </c>
@@ -8192,8 +8455,11 @@
         <f t="shared" si="3"/>
         <v>פברואר</v>
       </c>
-    </row>
-    <row r="99" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB98" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A99" s="5" t="s">
         <v>94</v>
       </c>
@@ -8221,25 +8487,25 @@
       <c r="I99" s="8">
         <v>0.60416666666666563</v>
       </c>
-      <c r="J99" s="13">
+      <c r="J99" s="11">
         <v>45971</v>
       </c>
-      <c r="K99" s="13">
+      <c r="K99" s="11">
         <v>45978</v>
       </c>
-      <c r="L99" s="13">
+      <c r="L99" s="11">
         <v>45985</v>
       </c>
-      <c r="M99" s="13">
+      <c r="M99" s="11">
         <v>45992</v>
       </c>
-      <c r="N99" s="13">
+      <c r="N99" s="11">
         <v>45999</v>
       </c>
-      <c r="O99" s="13">
+      <c r="O99" s="11">
         <v>46006</v>
       </c>
-      <c r="P99" s="13">
+      <c r="P99" s="11">
         <v>46029</v>
       </c>
       <c r="Q99" s="7">
@@ -8248,20 +8514,20 @@
       <c r="R99" s="7">
         <v>46043</v>
       </c>
-      <c r="S99" s="13">
+      <c r="S99" s="11">
         <v>46050</v>
       </c>
-      <c r="T99" s="13">
+      <c r="T99" s="11">
         <v>46057</v>
       </c>
-      <c r="U99" s="13">
+      <c r="U99" s="11">
         <v>46064</v>
       </c>
-      <c r="V99" s="13"/>
-      <c r="W99" s="13"/>
-      <c r="X99" s="13"/>
-      <c r="Y99" s="13"/>
-      <c r="Z99" s="12" cm="1">
+      <c r="V99" s="11"/>
+      <c r="W99" s="11"/>
+      <c r="X99" s="11"/>
+      <c r="Y99" s="11"/>
+      <c r="Z99" s="7" cm="1">
         <f t="array" ref="Z99">LOOKUP(2,1/(A99:Y99&lt;&gt;""),A99:Y99)</f>
         <v>46064</v>
       </c>
@@ -8269,8 +8535,11 @@
         <f t="shared" si="3"/>
         <v>פברואר</v>
       </c>
-    </row>
-    <row r="100" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB99" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A100" s="5" t="s">
         <v>47</v>
       </c>
@@ -8298,39 +8567,39 @@
       <c r="I100" s="8">
         <v>0.40972222222222188</v>
       </c>
-      <c r="J100" s="13">
+      <c r="J100" s="11">
         <v>46027</v>
       </c>
-      <c r="K100" s="13">
+      <c r="K100" s="11">
         <v>46034</v>
       </c>
-      <c r="L100" s="13">
+      <c r="L100" s="11">
         <v>46048</v>
       </c>
-      <c r="M100" s="13">
+      <c r="M100" s="11">
         <v>46055</v>
       </c>
-      <c r="N100" s="13">
+      <c r="N100" s="11">
         <v>46062</v>
       </c>
-      <c r="O100" s="13">
+      <c r="O100" s="11">
         <v>46069</v>
       </c>
-      <c r="P100" s="13">
+      <c r="P100" s="11">
         <v>46076</v>
       </c>
       <c r="Q100" s="7">
         <v>46083</v>
       </c>
       <c r="R100" s="7"/>
-      <c r="S100" s="13"/>
-      <c r="T100" s="13"/>
-      <c r="U100" s="13"/>
-      <c r="V100" s="13"/>
-      <c r="W100" s="13"/>
-      <c r="X100" s="13"/>
-      <c r="Y100" s="13"/>
-      <c r="Z100" s="12" cm="1">
+      <c r="S100" s="11"/>
+      <c r="T100" s="11"/>
+      <c r="U100" s="11"/>
+      <c r="V100" s="11"/>
+      <c r="W100" s="11"/>
+      <c r="X100" s="11"/>
+      <c r="Y100" s="11"/>
+      <c r="Z100" s="7" cm="1">
         <f t="array" ref="Z100">LOOKUP(2,1/(A100:Y100&lt;&gt;""),A100:Y100)</f>
         <v>46083</v>
       </c>
@@ -8338,8 +8607,11 @@
         <f t="shared" si="3"/>
         <v>מרץ</v>
       </c>
-    </row>
-    <row r="101" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB100" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A101" s="5" t="s">
         <v>47</v>
       </c>
@@ -8367,25 +8639,25 @@
       <c r="I101" s="8">
         <v>0.5590277777777769</v>
       </c>
-      <c r="J101" s="13">
+      <c r="J101" s="11">
         <v>46034</v>
       </c>
-      <c r="K101" s="13">
+      <c r="K101" s="11">
         <v>46041</v>
       </c>
-      <c r="L101" s="13">
+      <c r="L101" s="11">
         <v>46048</v>
       </c>
-      <c r="M101" s="13">
+      <c r="M101" s="11">
         <v>46055</v>
       </c>
-      <c r="N101" s="13">
+      <c r="N101" s="11">
         <v>46062</v>
       </c>
-      <c r="O101" s="13">
+      <c r="O101" s="11">
         <v>46069</v>
       </c>
-      <c r="P101" s="13">
+      <c r="P101" s="11">
         <v>46076</v>
       </c>
       <c r="Q101" s="7">
@@ -8394,16 +8666,16 @@
       <c r="R101" s="7">
         <v>46090</v>
       </c>
-      <c r="S101" s="13">
+      <c r="S101" s="11">
         <v>46097</v>
       </c>
-      <c r="T101" s="13"/>
-      <c r="U101" s="13"/>
-      <c r="V101" s="13"/>
-      <c r="W101" s="13"/>
-      <c r="X101" s="13"/>
-      <c r="Y101" s="13"/>
-      <c r="Z101" s="12" cm="1">
+      <c r="T101" s="11"/>
+      <c r="U101" s="11"/>
+      <c r="V101" s="11"/>
+      <c r="W101" s="11"/>
+      <c r="X101" s="11"/>
+      <c r="Y101" s="11"/>
+      <c r="Z101" s="7" cm="1">
         <f t="array" ref="Z101">LOOKUP(2,1/(A101:Y101&lt;&gt;""),A101:Y101)</f>
         <v>46097</v>
       </c>
@@ -8411,8 +8683,11 @@
         <f t="shared" si="3"/>
         <v>מרץ</v>
       </c>
-    </row>
-    <row r="102" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB101" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A102" s="5" t="s">
         <v>47</v>
       </c>
@@ -8440,25 +8715,25 @@
       <c r="I102" s="8">
         <v>0.4895833333333327</v>
       </c>
-      <c r="J102" s="13">
+      <c r="J102" s="11">
         <v>46035</v>
       </c>
-      <c r="K102" s="13">
+      <c r="K102" s="11">
         <v>46042</v>
       </c>
-      <c r="L102" s="13">
+      <c r="L102" s="11">
         <v>46049</v>
       </c>
-      <c r="M102" s="13">
+      <c r="M102" s="11">
         <v>46056</v>
       </c>
-      <c r="N102" s="13">
+      <c r="N102" s="11">
         <v>46063</v>
       </c>
-      <c r="O102" s="13">
+      <c r="O102" s="11">
         <v>46070</v>
       </c>
-      <c r="P102" s="13">
+      <c r="P102" s="11">
         <v>46077</v>
       </c>
       <c r="Q102" s="7">
@@ -8467,16 +8742,16 @@
       <c r="R102" s="7">
         <v>46098</v>
       </c>
-      <c r="S102" s="13">
+      <c r="S102" s="11">
         <v>46126</v>
       </c>
-      <c r="T102" s="13"/>
-      <c r="U102" s="13"/>
-      <c r="V102" s="13"/>
-      <c r="W102" s="13"/>
-      <c r="X102" s="13"/>
-      <c r="Y102" s="13"/>
-      <c r="Z102" s="12" cm="1">
+      <c r="T102" s="11"/>
+      <c r="U102" s="11"/>
+      <c r="V102" s="11"/>
+      <c r="W102" s="11"/>
+      <c r="X102" s="11"/>
+      <c r="Y102" s="11"/>
+      <c r="Z102" s="7" cm="1">
         <f t="array" ref="Z102">LOOKUP(2,1/(A102:Y102&lt;&gt;""),A102:Y102)</f>
         <v>46126</v>
       </c>
@@ -8484,8 +8759,11 @@
         <f t="shared" si="3"/>
         <v>אפריל</v>
       </c>
-    </row>
-    <row r="103" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB102" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A103" s="5" t="s">
         <v>47</v>
       </c>
@@ -8513,25 +8791,25 @@
       <c r="I103" s="8">
         <v>0.5590277777777769</v>
       </c>
-      <c r="J103" s="13">
+      <c r="J103" s="11">
         <v>46035</v>
       </c>
-      <c r="K103" s="13">
+      <c r="K103" s="11">
         <v>46042</v>
       </c>
-      <c r="L103" s="13">
+      <c r="L103" s="11">
         <v>46049</v>
       </c>
-      <c r="M103" s="13">
+      <c r="M103" s="11">
         <v>46056</v>
       </c>
-      <c r="N103" s="13">
+      <c r="N103" s="11">
         <v>46063</v>
       </c>
-      <c r="O103" s="13">
+      <c r="O103" s="11">
         <v>46070</v>
       </c>
-      <c r="P103" s="13">
+      <c r="P103" s="11">
         <v>46077</v>
       </c>
       <c r="Q103" s="7">
@@ -8540,14 +8818,14 @@
       <c r="R103" s="7">
         <v>46098</v>
       </c>
-      <c r="S103" s="13"/>
-      <c r="T103" s="13"/>
-      <c r="U103" s="13"/>
-      <c r="V103" s="13"/>
-      <c r="W103" s="13"/>
-      <c r="X103" s="13"/>
-      <c r="Y103" s="13"/>
-      <c r="Z103" s="12" cm="1">
+      <c r="S103" s="11"/>
+      <c r="T103" s="11"/>
+      <c r="U103" s="11"/>
+      <c r="V103" s="11"/>
+      <c r="W103" s="11"/>
+      <c r="X103" s="11"/>
+      <c r="Y103" s="11"/>
+      <c r="Z103" s="7" cm="1">
         <f t="array" ref="Z103">LOOKUP(2,1/(A103:Y103&lt;&gt;""),A103:Y103)</f>
         <v>46098</v>
       </c>
@@ -8555,8 +8833,11 @@
         <f t="shared" si="3"/>
         <v>מרץ</v>
       </c>
-    </row>
-    <row r="104" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB103" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A104" s="5" t="s">
         <v>47</v>
       </c>
@@ -8584,39 +8865,39 @@
       <c r="I104" s="8">
         <v>0.40277777777777746</v>
       </c>
-      <c r="J104" s="13">
+      <c r="J104" s="11">
         <v>46035</v>
       </c>
-      <c r="K104" s="13">
+      <c r="K104" s="11">
         <v>46042</v>
       </c>
-      <c r="L104" s="13">
+      <c r="L104" s="11">
         <v>46049</v>
       </c>
-      <c r="M104" s="13">
+      <c r="M104" s="11">
         <v>46056</v>
       </c>
-      <c r="N104" s="13">
+      <c r="N104" s="11">
         <v>46063</v>
       </c>
-      <c r="O104" s="13">
+      <c r="O104" s="11">
         <v>46070</v>
       </c>
-      <c r="P104" s="13">
+      <c r="P104" s="11">
         <v>46077</v>
       </c>
       <c r="Q104" s="7">
         <v>46091</v>
       </c>
       <c r="R104" s="7"/>
-      <c r="S104" s="13"/>
-      <c r="T104" s="13"/>
-      <c r="U104" s="13"/>
-      <c r="V104" s="13"/>
-      <c r="W104" s="13"/>
-      <c r="X104" s="13"/>
-      <c r="Y104" s="13"/>
-      <c r="Z104" s="12" cm="1">
+      <c r="S104" s="11"/>
+      <c r="T104" s="11"/>
+      <c r="U104" s="11"/>
+      <c r="V104" s="11"/>
+      <c r="W104" s="11"/>
+      <c r="X104" s="11"/>
+      <c r="Y104" s="11"/>
+      <c r="Z104" s="7" cm="1">
         <f t="array" ref="Z104">LOOKUP(2,1/(A104:Y104&lt;&gt;""),A104:Y104)</f>
         <v>46091</v>
       </c>
@@ -8624,8 +8905,11 @@
         <f t="shared" si="3"/>
         <v>מרץ</v>
       </c>
-    </row>
-    <row r="105" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB104" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A105" s="5" t="s">
         <v>82</v>
       </c>
@@ -8653,25 +8937,25 @@
       <c r="I105" s="8">
         <v>0.40624999999999967</v>
       </c>
-      <c r="J105" s="13">
+      <c r="J105" s="11">
         <v>45986</v>
       </c>
-      <c r="K105" s="13">
+      <c r="K105" s="11">
         <v>45993</v>
       </c>
-      <c r="L105" s="13">
+      <c r="L105" s="11">
         <v>46000</v>
       </c>
-      <c r="M105" s="13">
+      <c r="M105" s="11">
         <v>46014</v>
       </c>
-      <c r="N105" s="13">
+      <c r="N105" s="11">
         <v>46021</v>
       </c>
-      <c r="O105" s="13">
+      <c r="O105" s="11">
         <v>46028</v>
       </c>
-      <c r="P105" s="13">
+      <c r="P105" s="11">
         <v>46035</v>
       </c>
       <c r="Q105" s="7">
@@ -8680,24 +8964,24 @@
       <c r="R105" s="7">
         <v>46049</v>
       </c>
-      <c r="S105" s="13">
+      <c r="S105" s="11">
         <v>46056</v>
       </c>
-      <c r="T105" s="13">
+      <c r="T105" s="11">
         <v>46063</v>
       </c>
-      <c r="U105" s="13">
+      <c r="U105" s="11">
         <v>46070</v>
       </c>
-      <c r="V105" s="13">
+      <c r="V105" s="11">
         <v>46077</v>
       </c>
-      <c r="W105" s="13">
+      <c r="W105" s="11">
         <v>46091</v>
       </c>
-      <c r="X105" s="13"/>
-      <c r="Y105" s="13"/>
-      <c r="Z105" s="12" cm="1">
+      <c r="X105" s="11"/>
+      <c r="Y105" s="11"/>
+      <c r="Z105" s="7" cm="1">
         <f t="array" ref="Z105">LOOKUP(2,1/(A105:Y105&lt;&gt;""),A105:Y105)</f>
         <v>46091</v>
       </c>
@@ -8705,8 +8989,11 @@
         <f t="shared" si="3"/>
         <v>מרץ</v>
       </c>
-    </row>
-    <row r="106" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB105" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A106" s="5" t="s">
         <v>82</v>
       </c>
@@ -8734,25 +9021,25 @@
       <c r="I106" s="8">
         <v>0.4895833333333327</v>
       </c>
-      <c r="J106" s="13">
+      <c r="J106" s="11">
         <v>45993</v>
       </c>
-      <c r="K106" s="13">
+      <c r="K106" s="11">
         <v>46000</v>
       </c>
-      <c r="L106" s="13">
+      <c r="L106" s="11">
         <v>46014</v>
       </c>
-      <c r="M106" s="13">
+      <c r="M106" s="11">
         <v>46021</v>
       </c>
-      <c r="N106" s="13">
+      <c r="N106" s="11">
         <v>46035</v>
       </c>
-      <c r="O106" s="13">
+      <c r="O106" s="11">
         <v>46042</v>
       </c>
-      <c r="P106" s="13">
+      <c r="P106" s="11">
         <v>46049</v>
       </c>
       <c r="Q106" s="7">
@@ -8761,16 +9048,16 @@
       <c r="R106" s="7">
         <v>46063</v>
       </c>
-      <c r="S106" s="13">
+      <c r="S106" s="11">
         <v>46070</v>
       </c>
-      <c r="T106" s="13"/>
-      <c r="U106" s="13"/>
-      <c r="V106" s="13"/>
-      <c r="W106" s="13"/>
-      <c r="X106" s="13"/>
-      <c r="Y106" s="13"/>
-      <c r="Z106" s="12" cm="1">
+      <c r="T106" s="11"/>
+      <c r="U106" s="11"/>
+      <c r="V106" s="11"/>
+      <c r="W106" s="11"/>
+      <c r="X106" s="11"/>
+      <c r="Y106" s="11"/>
+      <c r="Z106" s="7" cm="1">
         <f t="array" ref="Z106">LOOKUP(2,1/(A106:Y106&lt;&gt;""),A106:Y106)</f>
         <v>46070</v>
       </c>
@@ -8778,8 +9065,11 @@
         <f t="shared" si="3"/>
         <v>פברואר</v>
       </c>
-    </row>
-    <row r="107" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB106" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A107" s="5" t="s">
         <v>100</v>
       </c>
@@ -8807,37 +9097,37 @@
       <c r="I107" s="8">
         <v>0.56249999999999911</v>
       </c>
-      <c r="J107" s="13">
+      <c r="J107" s="11">
         <v>46061</v>
       </c>
-      <c r="K107" s="13">
+      <c r="K107" s="11">
         <v>46075</v>
       </c>
-      <c r="L107" s="13">
+      <c r="L107" s="11">
         <v>46082</v>
       </c>
-      <c r="M107" s="13">
+      <c r="M107" s="11">
         <v>46089</v>
       </c>
-      <c r="N107" s="13">
+      <c r="N107" s="11">
         <v>46096</v>
       </c>
-      <c r="O107" s="13">
+      <c r="O107" s="11">
         <v>46103</v>
       </c>
-      <c r="P107" s="13">
+      <c r="P107" s="11">
         <v>46124</v>
       </c>
       <c r="Q107" s="7"/>
       <c r="R107" s="7"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="12" cm="1">
+      <c r="S107" s="11"/>
+      <c r="T107" s="11"/>
+      <c r="U107" s="11"/>
+      <c r="V107" s="11"/>
+      <c r="W107" s="11"/>
+      <c r="X107" s="11"/>
+      <c r="Y107" s="11"/>
+      <c r="Z107" s="7" cm="1">
         <f t="array" ref="Z107">LOOKUP(2,1/(A107:Y107&lt;&gt;""),A107:Y107)</f>
         <v>46124</v>
       </c>
@@ -8845,8 +9135,11 @@
         <f t="shared" si="3"/>
         <v>אפריל</v>
       </c>
-    </row>
-    <row r="108" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB107" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A108" s="5" t="s">
         <v>100</v>
       </c>
@@ -8874,25 +9167,25 @@
       <c r="I108" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J108" s="13">
+      <c r="J108" s="11">
         <v>45974</v>
       </c>
-      <c r="K108" s="13">
+      <c r="K108" s="11">
         <v>45988</v>
       </c>
-      <c r="L108" s="13">
+      <c r="L108" s="11">
         <v>46030</v>
       </c>
-      <c r="M108" s="13">
+      <c r="M108" s="11">
         <v>46062</v>
       </c>
-      <c r="N108" s="13">
+      <c r="N108" s="11">
         <v>46076</v>
       </c>
-      <c r="O108" s="13">
+      <c r="O108" s="11">
         <v>46097</v>
       </c>
-      <c r="P108" s="13">
+      <c r="P108" s="11">
         <v>46125</v>
       </c>
       <c r="Q108" s="7">
@@ -8901,20 +9194,20 @@
       <c r="R108" s="7">
         <v>46153</v>
       </c>
-      <c r="S108" s="13">
+      <c r="S108" s="11">
         <v>46167</v>
       </c>
-      <c r="T108" s="13">
+      <c r="T108" s="11">
         <v>46181</v>
       </c>
-      <c r="U108" s="13">
+      <c r="U108" s="11">
         <v>46195</v>
       </c>
-      <c r="V108" s="13"/>
-      <c r="W108" s="13"/>
-      <c r="X108" s="13"/>
-      <c r="Y108" s="13"/>
-      <c r="Z108" s="12" cm="1">
+      <c r="V108" s="11"/>
+      <c r="W108" s="11"/>
+      <c r="X108" s="11"/>
+      <c r="Y108" s="11"/>
+      <c r="Z108" s="7" cm="1">
         <f t="array" ref="Z108">LOOKUP(2,1/(A108:Y108&lt;&gt;""),A108:Y108)</f>
         <v>46195</v>
       </c>
@@ -8922,8 +9215,11 @@
         <f t="shared" si="3"/>
         <v>יוני</v>
       </c>
-    </row>
-    <row r="109" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB108" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A109" s="5" t="s">
         <v>100</v>
       </c>
@@ -8951,25 +9247,25 @@
       <c r="I109" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J109" s="13">
+      <c r="J109" s="11">
         <v>45974</v>
       </c>
-      <c r="K109" s="13">
+      <c r="K109" s="11">
         <v>45988</v>
       </c>
-      <c r="L109" s="13">
+      <c r="L109" s="11">
         <v>46030</v>
       </c>
-      <c r="M109" s="13">
+      <c r="M109" s="11">
         <v>46069</v>
       </c>
-      <c r="N109" s="13">
+      <c r="N109" s="11">
         <v>46090</v>
       </c>
-      <c r="O109" s="13">
+      <c r="O109" s="11">
         <v>46104</v>
       </c>
-      <c r="P109" s="13">
+      <c r="P109" s="11">
         <v>46132</v>
       </c>
       <c r="Q109" s="7">
@@ -8978,20 +9274,20 @@
       <c r="R109" s="7">
         <v>46160</v>
       </c>
-      <c r="S109" s="13">
+      <c r="S109" s="11">
         <v>46174</v>
       </c>
-      <c r="T109" s="13">
+      <c r="T109" s="11">
         <v>46188</v>
       </c>
-      <c r="U109" s="13">
+      <c r="U109" s="11">
         <v>46202</v>
       </c>
-      <c r="V109" s="13"/>
-      <c r="W109" s="13"/>
-      <c r="X109" s="13"/>
-      <c r="Y109" s="13"/>
-      <c r="Z109" s="12" cm="1">
+      <c r="V109" s="11"/>
+      <c r="W109" s="11"/>
+      <c r="X109" s="11"/>
+      <c r="Y109" s="11"/>
+      <c r="Z109" s="7" cm="1">
         <f t="array" ref="Z109">LOOKUP(2,1/(A109:Y109&lt;&gt;""),A109:Y109)</f>
         <v>46202</v>
       </c>
@@ -8999,8 +9295,11 @@
         <f t="shared" si="3"/>
         <v>יוני</v>
       </c>
-    </row>
-    <row r="110" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB109" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A110" s="5" t="s">
         <v>100</v>
       </c>
@@ -9028,25 +9327,25 @@
       <c r="I110" s="8">
         <v>0.57291666666666663</v>
       </c>
-      <c r="J110" s="13">
+      <c r="J110" s="11">
         <v>46069</v>
       </c>
-      <c r="K110" s="13">
+      <c r="K110" s="11">
         <v>46076</v>
       </c>
-      <c r="L110" s="13">
+      <c r="L110" s="11">
         <v>46083</v>
       </c>
-      <c r="M110" s="13">
+      <c r="M110" s="11">
         <v>46090</v>
       </c>
-      <c r="N110" s="13">
+      <c r="N110" s="11">
         <v>46097</v>
       </c>
-      <c r="O110" s="13">
+      <c r="O110" s="11">
         <v>46104</v>
       </c>
-      <c r="P110" s="13">
+      <c r="P110" s="11">
         <v>46105</v>
       </c>
       <c r="Q110" s="7">
@@ -9055,20 +9354,20 @@
       <c r="R110" s="7">
         <v>46139</v>
       </c>
-      <c r="S110" s="13">
+      <c r="S110" s="11">
         <v>46146</v>
       </c>
-      <c r="T110" s="13">
+      <c r="T110" s="11">
         <v>46153</v>
       </c>
-      <c r="U110" s="13">
+      <c r="U110" s="11">
         <v>46160</v>
       </c>
-      <c r="V110" s="13"/>
-      <c r="W110" s="13"/>
-      <c r="X110" s="13"/>
-      <c r="Y110" s="13"/>
-      <c r="Z110" s="12" cm="1">
+      <c r="V110" s="11"/>
+      <c r="W110" s="11"/>
+      <c r="X110" s="11"/>
+      <c r="Y110" s="11"/>
+      <c r="Z110" s="7" cm="1">
         <f t="array" ref="Z110">LOOKUP(2,1/(A110:Y110&lt;&gt;""),A110:Y110)</f>
         <v>46160</v>
       </c>
@@ -9076,8 +9375,11 @@
         <f t="shared" si="3"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="111" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB110" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A111" s="5" t="s">
         <v>61</v>
       </c>
@@ -9105,25 +9407,25 @@
       <c r="I111" s="8">
         <v>0.57291666666666663</v>
       </c>
-      <c r="J111" s="13">
+      <c r="J111" s="11">
         <v>46069</v>
       </c>
-      <c r="K111" s="13">
+      <c r="K111" s="11">
         <v>46076</v>
       </c>
-      <c r="L111" s="13">
+      <c r="L111" s="11">
         <v>46083</v>
       </c>
-      <c r="M111" s="13">
+      <c r="M111" s="11">
         <v>46090</v>
       </c>
-      <c r="N111" s="13">
+      <c r="N111" s="11">
         <v>46097</v>
       </c>
-      <c r="O111" s="13">
+      <c r="O111" s="11">
         <v>46104</v>
       </c>
-      <c r="P111" s="13">
+      <c r="P111" s="11">
         <v>46105</v>
       </c>
       <c r="Q111" s="7">
@@ -9132,20 +9434,20 @@
       <c r="R111" s="7">
         <v>46139</v>
       </c>
-      <c r="S111" s="13">
+      <c r="S111" s="11">
         <v>46146</v>
       </c>
-      <c r="T111" s="13">
+      <c r="T111" s="11">
         <v>46153</v>
       </c>
-      <c r="U111" s="13">
+      <c r="U111" s="11">
         <v>46160</v>
       </c>
-      <c r="V111" s="13"/>
-      <c r="W111" s="13"/>
-      <c r="X111" s="13"/>
-      <c r="Y111" s="13"/>
-      <c r="Z111" s="12" cm="1">
+      <c r="V111" s="11"/>
+      <c r="W111" s="11"/>
+      <c r="X111" s="11"/>
+      <c r="Y111" s="11"/>
+      <c r="Z111" s="7" cm="1">
         <f t="array" ref="Z111">LOOKUP(2,1/(A111:Y111&lt;&gt;""),A111:Y111)</f>
         <v>46160</v>
       </c>
@@ -9153,8 +9455,11 @@
         <f t="shared" si="3"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="112" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB111" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A112" s="5" t="s">
         <v>61</v>
       </c>
@@ -9182,39 +9487,39 @@
       <c r="I112" s="8">
         <v>0.64583333333333337</v>
       </c>
-      <c r="J112" s="13">
+      <c r="J112" s="11">
         <v>46062</v>
       </c>
-      <c r="K112" s="13">
+      <c r="K112" s="11">
         <v>46069</v>
       </c>
-      <c r="L112" s="13">
+      <c r="L112" s="11">
         <v>46076</v>
       </c>
-      <c r="M112" s="13">
+      <c r="M112" s="11">
         <v>46083</v>
       </c>
-      <c r="N112" s="13">
+      <c r="N112" s="11">
         <v>46090</v>
       </c>
-      <c r="O112" s="13">
+      <c r="O112" s="11">
         <v>46097</v>
       </c>
-      <c r="P112" s="13">
+      <c r="P112" s="11">
         <v>46104</v>
       </c>
       <c r="Q112" s="7">
         <v>46125</v>
       </c>
       <c r="R112" s="7"/>
-      <c r="S112" s="13"/>
-      <c r="T112" s="13"/>
-      <c r="U112" s="13"/>
-      <c r="V112" s="13"/>
-      <c r="W112" s="13"/>
-      <c r="X112" s="13"/>
-      <c r="Y112" s="13"/>
-      <c r="Z112" s="12" cm="1">
+      <c r="S112" s="11"/>
+      <c r="T112" s="11"/>
+      <c r="U112" s="11"/>
+      <c r="V112" s="11"/>
+      <c r="W112" s="11"/>
+      <c r="X112" s="11"/>
+      <c r="Y112" s="11"/>
+      <c r="Z112" s="7" cm="1">
         <f t="array" ref="Z112">LOOKUP(2,1/(A112:Y112&lt;&gt;""),A112:Y112)</f>
         <v>46125</v>
       </c>
@@ -9222,8 +9527,11 @@
         <f t="shared" si="3"/>
         <v>אפריל</v>
       </c>
-    </row>
-    <row r="113" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB112" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A113" s="5" t="s">
         <v>61</v>
       </c>
@@ -9251,25 +9559,25 @@
       <c r="I113" s="8">
         <v>0.40625</v>
       </c>
-      <c r="J113" s="13">
+      <c r="J113" s="11">
         <v>46035</v>
       </c>
-      <c r="K113" s="13">
+      <c r="K113" s="11">
         <v>46042</v>
       </c>
-      <c r="L113" s="13">
+      <c r="L113" s="11">
         <v>46049</v>
       </c>
-      <c r="M113" s="13">
+      <c r="M113" s="11">
         <v>46056</v>
       </c>
-      <c r="N113" s="13">
+      <c r="N113" s="11">
         <v>46063</v>
       </c>
-      <c r="O113" s="13">
+      <c r="O113" s="11">
         <v>46070</v>
       </c>
-      <c r="P113" s="13">
+      <c r="P113" s="11">
         <v>46077</v>
       </c>
       <c r="Q113" s="7">
@@ -9278,16 +9586,16 @@
       <c r="R113" s="7">
         <v>46098</v>
       </c>
-      <c r="S113" s="13">
+      <c r="S113" s="11">
         <v>46126</v>
       </c>
-      <c r="T113" s="13"/>
-      <c r="U113" s="13"/>
-      <c r="V113" s="13"/>
-      <c r="W113" s="13"/>
-      <c r="X113" s="13"/>
-      <c r="Y113" s="13"/>
-      <c r="Z113" s="12" cm="1">
+      <c r="T113" s="11"/>
+      <c r="U113" s="11"/>
+      <c r="V113" s="11"/>
+      <c r="W113" s="11"/>
+      <c r="X113" s="11"/>
+      <c r="Y113" s="11"/>
+      <c r="Z113" s="7" cm="1">
         <f t="array" ref="Z113">LOOKUP(2,1/(A113:Y113&lt;&gt;""),A113:Y113)</f>
         <v>46126</v>
       </c>
@@ -9295,8 +9603,11 @@
         <f t="shared" si="3"/>
         <v>אפריל</v>
       </c>
-    </row>
-    <row r="114" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB113" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A114" s="5" t="s">
         <v>61</v>
       </c>
@@ -9324,39 +9635,39 @@
       <c r="I114" s="8">
         <v>0.49999999999999933</v>
       </c>
-      <c r="J114" s="13">
+      <c r="J114" s="11">
         <v>46063</v>
       </c>
-      <c r="K114" s="13">
+      <c r="K114" s="11">
         <v>46070</v>
       </c>
-      <c r="L114" s="13">
+      <c r="L114" s="11">
         <v>46077</v>
       </c>
-      <c r="M114" s="13">
+      <c r="M114" s="11">
         <v>46091</v>
       </c>
-      <c r="N114" s="13">
+      <c r="N114" s="11">
         <v>46098</v>
       </c>
-      <c r="O114" s="13">
+      <c r="O114" s="11">
         <v>46126</v>
       </c>
-      <c r="P114" s="13">
+      <c r="P114" s="11">
         <v>46140</v>
       </c>
       <c r="Q114" s="7">
         <v>46147</v>
       </c>
       <c r="R114" s="7"/>
-      <c r="S114" s="13"/>
-      <c r="T114" s="13"/>
-      <c r="U114" s="13"/>
-      <c r="V114" s="13"/>
-      <c r="W114" s="13"/>
-      <c r="X114" s="13"/>
-      <c r="Y114" s="13"/>
-      <c r="Z114" s="12" cm="1">
+      <c r="S114" s="11"/>
+      <c r="T114" s="11"/>
+      <c r="U114" s="11"/>
+      <c r="V114" s="11"/>
+      <c r="W114" s="11"/>
+      <c r="X114" s="11"/>
+      <c r="Y114" s="11"/>
+      <c r="Z114" s="7" cm="1">
         <f t="array" ref="Z114">LOOKUP(2,1/(A114:Y114&lt;&gt;""),A114:Y114)</f>
         <v>46147</v>
       </c>
@@ -9364,8 +9675,11 @@
         <f t="shared" si="3"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="115" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB114" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A115" s="5" t="s">
         <v>133</v>
       </c>
@@ -9393,25 +9707,25 @@
       <c r="I115" s="8">
         <v>0.46875</v>
       </c>
-      <c r="J115" s="13">
+      <c r="J115" s="11">
         <v>46072</v>
       </c>
-      <c r="K115" s="13">
+      <c r="K115" s="11">
         <v>46079</v>
       </c>
-      <c r="L115" s="13">
+      <c r="L115" s="11">
         <v>46086</v>
       </c>
-      <c r="M115" s="13">
+      <c r="M115" s="11">
         <v>46093</v>
       </c>
-      <c r="N115" s="13">
+      <c r="N115" s="11">
         <v>46100</v>
       </c>
-      <c r="O115" s="13">
+      <c r="O115" s="11">
         <v>46121</v>
       </c>
-      <c r="P115" s="13">
+      <c r="P115" s="11">
         <v>46128</v>
       </c>
       <c r="Q115" s="7">
@@ -9420,16 +9734,16 @@
       <c r="R115" s="7">
         <v>46142</v>
       </c>
-      <c r="S115" s="13">
+      <c r="S115" s="11">
         <v>46149</v>
       </c>
-      <c r="T115" s="13"/>
-      <c r="U115" s="13"/>
-      <c r="V115" s="13"/>
-      <c r="W115" s="13"/>
-      <c r="X115" s="13"/>
-      <c r="Y115" s="13"/>
-      <c r="Z115" s="12" cm="1">
+      <c r="T115" s="11"/>
+      <c r="U115" s="11"/>
+      <c r="V115" s="11"/>
+      <c r="W115" s="11"/>
+      <c r="X115" s="11"/>
+      <c r="Y115" s="11"/>
+      <c r="Z115" s="7" cm="1">
         <f t="array" ref="Z115">LOOKUP(2,1/(A115:Y115&lt;&gt;""),A115:Y115)</f>
         <v>46149</v>
       </c>
@@ -9437,8 +9751,11 @@
         <f t="shared" si="3"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="116" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB115" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A116" s="5" t="s">
         <v>133</v>
       </c>
@@ -9466,25 +9783,25 @@
       <c r="I116" s="8">
         <v>0.53125</v>
       </c>
-      <c r="J116" s="13">
+      <c r="J116" s="11">
         <v>46072</v>
       </c>
-      <c r="K116" s="13">
+      <c r="K116" s="11">
         <v>46079</v>
       </c>
-      <c r="L116" s="13">
+      <c r="L116" s="11">
         <v>46086</v>
       </c>
-      <c r="M116" s="13">
+      <c r="M116" s="11">
         <v>46093</v>
       </c>
-      <c r="N116" s="13">
+      <c r="N116" s="11">
         <v>46100</v>
       </c>
-      <c r="O116" s="13">
+      <c r="O116" s="11">
         <v>46121</v>
       </c>
-      <c r="P116" s="13">
+      <c r="P116" s="11">
         <v>46128</v>
       </c>
       <c r="Q116" s="7">
@@ -9493,16 +9810,16 @@
       <c r="R116" s="7">
         <v>46142</v>
       </c>
-      <c r="S116" s="13">
+      <c r="S116" s="11">
         <v>46149</v>
       </c>
-      <c r="T116" s="13"/>
-      <c r="U116" s="13"/>
-      <c r="V116" s="13"/>
-      <c r="W116" s="13"/>
-      <c r="X116" s="13"/>
-      <c r="Y116" s="13"/>
-      <c r="Z116" s="12" cm="1">
+      <c r="T116" s="11"/>
+      <c r="U116" s="11"/>
+      <c r="V116" s="11"/>
+      <c r="W116" s="11"/>
+      <c r="X116" s="11"/>
+      <c r="Y116" s="11"/>
+      <c r="Z116" s="7" cm="1">
         <f t="array" ref="Z116">LOOKUP(2,1/(A116:Y116&lt;&gt;""),A116:Y116)</f>
         <v>46149</v>
       </c>
@@ -9510,8 +9827,11 @@
         <f t="shared" si="3"/>
         <v>מאי</v>
       </c>
-    </row>
-    <row r="117" spans="1:27" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AB116" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A117" s="5" t="s">
         <v>122</v>
       </c>
@@ -9539,25 +9859,25 @@
       <c r="I117" s="8">
         <v>0.56597222222222132</v>
       </c>
-      <c r="J117" s="13">
+      <c r="J117" s="11">
         <v>46041</v>
       </c>
-      <c r="K117" s="13">
+      <c r="K117" s="11">
         <v>46048</v>
       </c>
-      <c r="L117" s="13">
+      <c r="L117" s="11">
         <v>46062</v>
       </c>
-      <c r="M117" s="13">
+      <c r="M117" s="11">
         <v>46069</v>
       </c>
-      <c r="N117" s="13">
+      <c r="N117" s="11">
         <v>46076</v>
       </c>
-      <c r="O117" s="13">
+      <c r="O117" s="11">
         <v>46083</v>
       </c>
-      <c r="P117" s="13">
+      <c r="P117" s="11">
         <v>46090</v>
       </c>
       <c r="Q117" s="7">
@@ -9566,14 +9886,14 @@
       <c r="R117" s="7">
         <v>46104</v>
       </c>
-      <c r="S117" s="13"/>
-      <c r="T117" s="13"/>
-      <c r="U117" s="13"/>
-      <c r="V117" s="13"/>
-      <c r="W117" s="13"/>
-      <c r="X117" s="13"/>
-      <c r="Y117" s="13"/>
-      <c r="Z117" s="12" cm="1">
+      <c r="S117" s="11"/>
+      <c r="T117" s="11"/>
+      <c r="U117" s="11"/>
+      <c r="V117" s="11"/>
+      <c r="W117" s="11"/>
+      <c r="X117" s="11"/>
+      <c r="Y117" s="11"/>
+      <c r="Z117" s="7" cm="1">
         <f t="array" ref="Z117">LOOKUP(2,1/(A117:Y117&lt;&gt;""),A117:Y117)</f>
         <v>46104</v>
       </c>
@@ -9581,8 +9901,11 @@
         <f t="shared" si="3"/>
         <v>מרץ</v>
       </c>
-    </row>
-    <row r="118" spans="1:27" ht="25.1" customHeight="1">
+      <c r="AB117" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28" ht="25.1" customHeight="1">
       <c r="A118" s="9"/>
       <c r="B118" s="5" t="s">
         <v>155</v>
@@ -9596,7 +9919,7 @@
       <c r="G118" s="9"/>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
-      <c r="J118" s="13">
+      <c r="J118" s="11">
         <v>46084</v>
       </c>
       <c r="K118" s="9"/>
@@ -9614,10 +9937,11 @@
       <c r="W118" s="9"/>
       <c r="X118" s="9"/>
       <c r="Y118" s="9"/>
-      <c r="Z118" s="12"/>
+      <c r="Z118" s="7"/>
       <c r="AA118" s="5"/>
-    </row>
-    <row r="119" spans="1:27" ht="25.1" customHeight="1">
+      <c r="AB118" s="13"/>
+    </row>
+    <row r="119" spans="1:28" ht="25.1" customHeight="1">
       <c r="A119" s="9"/>
       <c r="B119" s="5" t="s">
         <v>155</v>
@@ -9631,7 +9955,7 @@
       <c r="G119" s="9"/>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
-      <c r="J119" s="13">
+      <c r="J119" s="11">
         <v>46085</v>
       </c>
       <c r="K119" s="9"/>
@@ -9649,10 +9973,11 @@
       <c r="W119" s="9"/>
       <c r="X119" s="9"/>
       <c r="Y119" s="9"/>
-      <c r="Z119" s="12"/>
+      <c r="Z119" s="7"/>
       <c r="AA119" s="5"/>
-    </row>
-    <row r="120" spans="1:27" ht="25.1" customHeight="1">
+      <c r="AB119" s="13"/>
+    </row>
+    <row r="120" spans="1:28" ht="25.1" customHeight="1">
       <c r="A120" s="9"/>
       <c r="B120" s="5" t="s">
         <v>157</v>
@@ -9666,7 +9991,7 @@
       <c r="G120" s="9"/>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
-      <c r="J120" s="13">
+      <c r="J120" s="11">
         <v>46105</v>
       </c>
       <c r="K120" s="9"/>
@@ -9684,10 +10009,11 @@
       <c r="W120" s="9"/>
       <c r="X120" s="9"/>
       <c r="Y120" s="9"/>
-      <c r="Z120" s="12"/>
+      <c r="Z120" s="7"/>
       <c r="AA120" s="5"/>
-    </row>
-    <row r="121" spans="1:27" ht="25.1" customHeight="1">
+      <c r="AB120" s="13"/>
+    </row>
+    <row r="121" spans="1:28" ht="25.1" customHeight="1">
       <c r="A121" s="9"/>
       <c r="B121" s="5" t="s">
         <v>157</v>
@@ -9701,7 +10027,7 @@
       <c r="G121" s="9"/>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
-      <c r="J121" s="13">
+      <c r="J121" s="11">
         <v>46106</v>
       </c>
       <c r="K121" s="9"/>
@@ -9719,10 +10045,11 @@
       <c r="W121" s="9"/>
       <c r="X121" s="9"/>
       <c r="Y121" s="9"/>
-      <c r="Z121" s="12"/>
+      <c r="Z121" s="7"/>
       <c r="AA121" s="5"/>
-    </row>
-    <row r="122" spans="1:27" ht="25.1" customHeight="1">
+      <c r="AB121" s="13"/>
+    </row>
+    <row r="122" spans="1:28" ht="25.1" customHeight="1">
       <c r="A122" s="9"/>
       <c r="B122" s="5" t="s">
         <v>157</v>
@@ -9736,7 +10063,7 @@
       <c r="G122" s="9"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
-      <c r="J122" s="13">
+      <c r="J122" s="11">
         <v>46107</v>
       </c>
       <c r="K122" s="9"/>
@@ -9754,10 +10081,11 @@
       <c r="W122" s="9"/>
       <c r="X122" s="9"/>
       <c r="Y122" s="9"/>
-      <c r="Z122" s="12"/>
+      <c r="Z122" s="7"/>
       <c r="AA122" s="5"/>
-    </row>
-    <row r="123" spans="1:27" ht="25.1" customHeight="1">
+      <c r="AB122" s="13"/>
+    </row>
+    <row r="123" spans="1:28" ht="25.1" customHeight="1">
       <c r="A123" s="9"/>
       <c r="B123" s="5" t="s">
         <v>157</v>
@@ -9771,7 +10099,7 @@
       <c r="G123" s="9"/>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
-      <c r="J123" s="13">
+      <c r="J123" s="11">
         <v>46108</v>
       </c>
       <c r="K123" s="9"/>
@@ -9789,10 +10117,11 @@
       <c r="W123" s="9"/>
       <c r="X123" s="9"/>
       <c r="Y123" s="9"/>
-      <c r="Z123" s="12"/>
+      <c r="Z123" s="7"/>
       <c r="AA123" s="5"/>
-    </row>
-    <row r="124" spans="1:27" ht="25.1" customHeight="1">
+      <c r="AB123" s="13"/>
+    </row>
+    <row r="124" spans="1:28" ht="25.1" customHeight="1">
       <c r="A124" s="9"/>
       <c r="B124" s="5" t="s">
         <v>157</v>
@@ -9806,7 +10135,7 @@
       <c r="G124" s="9"/>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
-      <c r="J124" s="13">
+      <c r="J124" s="11">
         <v>46109</v>
       </c>
       <c r="K124" s="9"/>
@@ -9824,10 +10153,11 @@
       <c r="W124" s="9"/>
       <c r="X124" s="9"/>
       <c r="Y124" s="9"/>
-      <c r="Z124" s="12"/>
+      <c r="Z124" s="7"/>
       <c r="AA124" s="5"/>
-    </row>
-    <row r="125" spans="1:27" ht="25.1" customHeight="1">
+      <c r="AB124" s="13"/>
+    </row>
+    <row r="125" spans="1:28" ht="25.1" customHeight="1">
       <c r="A125" s="9"/>
       <c r="B125" s="5" t="s">
         <v>157</v>
@@ -9841,7 +10171,7 @@
       <c r="G125" s="9"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
-      <c r="J125" s="13">
+      <c r="J125" s="11">
         <v>46110</v>
       </c>
       <c r="K125" s="9"/>
@@ -9859,10 +10189,11 @@
       <c r="W125" s="9"/>
       <c r="X125" s="9"/>
       <c r="Y125" s="9"/>
-      <c r="Z125" s="12"/>
+      <c r="Z125" s="7"/>
       <c r="AA125" s="5"/>
-    </row>
-    <row r="126" spans="1:27" ht="25.1" customHeight="1">
+      <c r="AB125" s="13"/>
+    </row>
+    <row r="126" spans="1:28" ht="25.1" customHeight="1">
       <c r="A126" s="9"/>
       <c r="B126" s="5" t="s">
         <v>157</v>
@@ -9876,7 +10207,7 @@
       <c r="G126" s="9"/>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
-      <c r="J126" s="13">
+      <c r="J126" s="11">
         <v>46111</v>
       </c>
       <c r="K126" s="9"/>
@@ -9894,10 +10225,11 @@
       <c r="W126" s="9"/>
       <c r="X126" s="9"/>
       <c r="Y126" s="9"/>
-      <c r="Z126" s="12"/>
+      <c r="Z126" s="7"/>
       <c r="AA126" s="5"/>
-    </row>
-    <row r="127" spans="1:27" ht="25.1" customHeight="1">
+      <c r="AB126" s="13"/>
+    </row>
+    <row r="127" spans="1:28" ht="25.1" customHeight="1">
       <c r="A127" s="9"/>
       <c r="B127" s="5" t="s">
         <v>157</v>
@@ -9911,7 +10243,7 @@
       <c r="G127" s="9"/>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
-      <c r="J127" s="13">
+      <c r="J127" s="11">
         <v>46112</v>
       </c>
       <c r="K127" s="9"/>
@@ -9929,10 +10261,11 @@
       <c r="W127" s="9"/>
       <c r="X127" s="9"/>
       <c r="Y127" s="9"/>
-      <c r="Z127" s="12"/>
+      <c r="Z127" s="7"/>
       <c r="AA127" s="5"/>
-    </row>
-    <row r="128" spans="1:27" ht="25.1" customHeight="1">
+      <c r="AB127" s="13"/>
+    </row>
+    <row r="128" spans="1:28" ht="25.1" customHeight="1">
       <c r="A128" s="9"/>
       <c r="B128" s="5" t="s">
         <v>157</v>
@@ -9946,7 +10279,7 @@
       <c r="G128" s="9"/>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
-      <c r="J128" s="13">
+      <c r="J128" s="11">
         <v>46113</v>
       </c>
       <c r="K128" s="9"/>
@@ -9964,10 +10297,11 @@
       <c r="W128" s="9"/>
       <c r="X128" s="9"/>
       <c r="Y128" s="9"/>
-      <c r="Z128" s="12"/>
+      <c r="Z128" s="7"/>
       <c r="AA128" s="5"/>
-    </row>
-    <row r="129" spans="1:27" ht="25.1" customHeight="1">
+      <c r="AB128" s="13"/>
+    </row>
+    <row r="129" spans="1:28" ht="25.1" customHeight="1">
       <c r="A129" s="9"/>
       <c r="B129" s="5" t="s">
         <v>157</v>
@@ -9981,7 +10315,7 @@
       <c r="G129" s="9"/>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
-      <c r="J129" s="13">
+      <c r="J129" s="11">
         <v>46114</v>
       </c>
       <c r="K129" s="9"/>
@@ -9999,10 +10333,11 @@
       <c r="W129" s="9"/>
       <c r="X129" s="9"/>
       <c r="Y129" s="9"/>
-      <c r="Z129" s="12"/>
+      <c r="Z129" s="7"/>
       <c r="AA129" s="5"/>
-    </row>
-    <row r="130" spans="1:27" ht="25.1" customHeight="1">
+      <c r="AB129" s="13"/>
+    </row>
+    <row r="130" spans="1:28" ht="25.1" customHeight="1">
       <c r="A130" s="9"/>
       <c r="B130" s="5" t="s">
         <v>157</v>
@@ -10016,7 +10351,7 @@
       <c r="G130" s="9"/>
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
-      <c r="J130" s="13">
+      <c r="J130" s="11">
         <v>46115</v>
       </c>
       <c r="K130" s="9"/>
@@ -10034,10 +10369,11 @@
       <c r="W130" s="9"/>
       <c r="X130" s="9"/>
       <c r="Y130" s="9"/>
-      <c r="Z130" s="12"/>
+      <c r="Z130" s="7"/>
       <c r="AA130" s="5"/>
-    </row>
-    <row r="131" spans="1:27" ht="25.1" customHeight="1">
+      <c r="AB130" s="13"/>
+    </row>
+    <row r="131" spans="1:28" ht="25.1" customHeight="1">
       <c r="A131" s="9"/>
       <c r="B131" s="5" t="s">
         <v>157</v>
@@ -10051,7 +10387,7 @@
       <c r="G131" s="9"/>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
-      <c r="J131" s="13">
+      <c r="J131" s="11">
         <v>46116</v>
       </c>
       <c r="K131" s="9"/>
@@ -10069,10 +10405,11 @@
       <c r="W131" s="9"/>
       <c r="X131" s="9"/>
       <c r="Y131" s="9"/>
-      <c r="Z131" s="12"/>
+      <c r="Z131" s="7"/>
       <c r="AA131" s="5"/>
-    </row>
-    <row r="132" spans="1:27" ht="25.1" customHeight="1">
+      <c r="AB131" s="13"/>
+    </row>
+    <row r="132" spans="1:28" ht="25.1" customHeight="1">
       <c r="A132" s="9"/>
       <c r="B132" s="5" t="s">
         <v>157</v>
@@ -10086,7 +10423,7 @@
       <c r="G132" s="9"/>
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
-      <c r="J132" s="13">
+      <c r="J132" s="11">
         <v>46117</v>
       </c>
       <c r="K132" s="9"/>
@@ -10104,10 +10441,11 @@
       <c r="W132" s="9"/>
       <c r="X132" s="9"/>
       <c r="Y132" s="9"/>
-      <c r="Z132" s="12"/>
+      <c r="Z132" s="7"/>
       <c r="AA132" s="5"/>
-    </row>
-    <row r="133" spans="1:27" ht="25.1" customHeight="1">
+      <c r="AB132" s="13"/>
+    </row>
+    <row r="133" spans="1:28" ht="25.1" customHeight="1">
       <c r="A133" s="9"/>
       <c r="B133" s="5" t="s">
         <v>157</v>
@@ -10121,7 +10459,7 @@
       <c r="G133" s="9"/>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
-      <c r="J133" s="13">
+      <c r="J133" s="11">
         <v>46118</v>
       </c>
       <c r="K133" s="9"/>
@@ -10139,10 +10477,11 @@
       <c r="W133" s="9"/>
       <c r="X133" s="9"/>
       <c r="Y133" s="9"/>
-      <c r="Z133" s="12"/>
+      <c r="Z133" s="7"/>
       <c r="AA133" s="5"/>
-    </row>
-    <row r="134" spans="1:27" ht="25.1" customHeight="1">
+      <c r="AB133" s="13"/>
+    </row>
+    <row r="134" spans="1:28" ht="25.1" customHeight="1">
       <c r="A134" s="9"/>
       <c r="B134" s="5" t="s">
         <v>157</v>
@@ -10156,7 +10495,7 @@
       <c r="G134" s="9"/>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
-      <c r="J134" s="13">
+      <c r="J134" s="11">
         <v>46119</v>
       </c>
       <c r="K134" s="9"/>
@@ -10174,10 +10513,11 @@
       <c r="W134" s="9"/>
       <c r="X134" s="9"/>
       <c r="Y134" s="9"/>
-      <c r="Z134" s="12"/>
+      <c r="Z134" s="7"/>
       <c r="AA134" s="5"/>
-    </row>
-    <row r="135" spans="1:27" ht="25.1" customHeight="1">
+      <c r="AB134" s="13"/>
+    </row>
+    <row r="135" spans="1:28" ht="25.1" customHeight="1">
       <c r="A135" s="9"/>
       <c r="B135" s="5" t="s">
         <v>157</v>
@@ -10191,7 +10531,7 @@
       <c r="G135" s="9"/>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
-      <c r="J135" s="13">
+      <c r="J135" s="11">
         <v>46120</v>
       </c>
       <c r="K135" s="9"/>
@@ -10209,10 +10549,11 @@
       <c r="W135" s="9"/>
       <c r="X135" s="9"/>
       <c r="Y135" s="9"/>
-      <c r="Z135" s="12"/>
+      <c r="Z135" s="7"/>
       <c r="AA135" s="5"/>
-    </row>
-    <row r="136" spans="1:27" ht="25.1" customHeight="1">
+      <c r="AB135" s="13"/>
+    </row>
+    <row r="136" spans="1:28" ht="25.1" customHeight="1">
       <c r="A136" s="9"/>
       <c r="B136" s="5" t="s">
         <v>158</v>
@@ -10226,7 +10567,7 @@
       <c r="G136" s="9"/>
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
-      <c r="J136" s="13">
+      <c r="J136" s="11">
         <v>46132</v>
       </c>
       <c r="K136" s="9"/>
@@ -10244,10 +10585,11 @@
       <c r="W136" s="9"/>
       <c r="X136" s="9"/>
       <c r="Y136" s="9"/>
-      <c r="Z136" s="12"/>
+      <c r="Z136" s="7"/>
       <c r="AA136" s="5"/>
-    </row>
-    <row r="137" spans="1:27" ht="25.1" customHeight="1">
+      <c r="AB136" s="13"/>
+    </row>
+    <row r="137" spans="1:28" ht="25.1" customHeight="1">
       <c r="A137" s="9"/>
       <c r="B137" s="5" t="s">
         <v>159</v>
@@ -10261,7 +10603,7 @@
       <c r="G137" s="9"/>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
-      <c r="J137" s="13">
+      <c r="J137" s="11">
         <v>46133</v>
       </c>
       <c r="K137" s="9"/>
@@ -10279,10 +10621,11 @@
       <c r="W137" s="9"/>
       <c r="X137" s="9"/>
       <c r="Y137" s="9"/>
-      <c r="Z137" s="12"/>
+      <c r="Z137" s="7"/>
       <c r="AA137" s="5"/>
-    </row>
-    <row r="138" spans="1:27" ht="25.1" customHeight="1">
+      <c r="AB137" s="13"/>
+    </row>
+    <row r="138" spans="1:28" ht="25.1" customHeight="1">
       <c r="A138" s="9"/>
       <c r="B138" s="5" t="s">
         <v>160</v>
@@ -10296,7 +10639,7 @@
       <c r="G138" s="9"/>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
-      <c r="J138" s="13">
+      <c r="J138" s="11">
         <v>46134</v>
       </c>
       <c r="K138" s="9"/>
@@ -10314,10 +10657,11 @@
       <c r="W138" s="9"/>
       <c r="X138" s="9"/>
       <c r="Y138" s="9"/>
-      <c r="Z138" s="12"/>
+      <c r="Z138" s="7"/>
       <c r="AA138" s="5"/>
-    </row>
-    <row r="139" spans="1:27" ht="25.1" customHeight="1">
+      <c r="AB138" s="13"/>
+    </row>
+    <row r="139" spans="1:28" ht="25.1" customHeight="1">
       <c r="A139" s="9"/>
       <c r="B139" s="5" t="s">
         <v>161</v>
@@ -10331,7 +10675,7 @@
       <c r="G139" s="9"/>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
-      <c r="J139" s="13">
+      <c r="J139" s="11">
         <v>46150</v>
       </c>
       <c r="K139" s="9"/>
@@ -10349,10 +10693,11 @@
       <c r="W139" s="9"/>
       <c r="X139" s="9"/>
       <c r="Y139" s="9"/>
-      <c r="Z139" s="12"/>
+      <c r="Z139" s="7"/>
       <c r="AA139" s="5"/>
-    </row>
-    <row r="140" spans="1:27" ht="25.1" customHeight="1">
+      <c r="AB139" s="13"/>
+    </row>
+    <row r="140" spans="1:28" ht="25.1" customHeight="1">
       <c r="A140" s="9"/>
       <c r="B140" s="5" t="s">
         <v>162</v>
@@ -10366,7 +10711,7 @@
       <c r="G140" s="9"/>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
-      <c r="J140" s="13">
+      <c r="J140" s="11">
         <v>46163</v>
       </c>
       <c r="K140" s="9"/>
@@ -10384,10 +10729,11 @@
       <c r="W140" s="9"/>
       <c r="X140" s="9"/>
       <c r="Y140" s="9"/>
-      <c r="Z140" s="12"/>
+      <c r="Z140" s="7"/>
       <c r="AA140" s="5"/>
-    </row>
-    <row r="141" spans="1:27" ht="25.1" customHeight="1">
+      <c r="AB140" s="13"/>
+    </row>
+    <row r="141" spans="1:28" ht="25.1" customHeight="1">
       <c r="A141" s="9"/>
       <c r="B141" s="5" t="s">
         <v>162</v>
@@ -10401,7 +10747,7 @@
       <c r="G141" s="9"/>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
-      <c r="J141" s="13">
+      <c r="J141" s="11">
         <v>46164</v>
       </c>
       <c r="K141" s="9"/>
@@ -10419,8 +10765,9 @@
       <c r="W141" s="9"/>
       <c r="X141" s="9"/>
       <c r="Y141" s="9"/>
-      <c r="Z141" s="12"/>
+      <c r="Z141" s="7"/>
       <c r="AA141" s="5"/>
+      <c r="AB141" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DASHBOARD.xlsx
+++ b/DASHBOARD.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idan\Downloads\דשבורד סטטוס\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461DB511-90A0-49E4-A45B-E957977E01F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7419AD95-7934-4AA9-B1F2-19819100DCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AB$141</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1065,9 +1068,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB141"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB106" sqref="AB106"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.1" customHeight="1"/>
@@ -5076,20 +5079,32 @@
       <c r="R54" s="11">
         <v>46040</v>
       </c>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11"/>
-      <c r="V54" s="11"/>
-      <c r="W54" s="11"/>
-      <c r="X54" s="11"/>
+      <c r="S54" s="11">
+        <v>46075</v>
+      </c>
+      <c r="T54" s="11">
+        <v>46082</v>
+      </c>
+      <c r="U54" s="11">
+        <v>46089</v>
+      </c>
+      <c r="V54" s="11">
+        <v>46096</v>
+      </c>
+      <c r="W54" s="11">
+        <v>46103</v>
+      </c>
+      <c r="X54" s="11">
+        <v>46124</v>
+      </c>
       <c r="Y54" s="11"/>
       <c r="Z54" s="7" cm="1">
         <f t="array" ref="Z54">LOOKUP(2,1/(A54:Y54&lt;&gt;""),A54:Y54)</f>
-        <v>46040</v>
+        <v>46124</v>
       </c>
       <c r="AA54" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>ינואר</v>
+        <v>אפריל</v>
       </c>
       <c r="AB54" s="14"/>
     </row>
@@ -5146,20 +5161,32 @@
       <c r="R55" s="11">
         <v>46040</v>
       </c>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="11"/>
-      <c r="V55" s="11"/>
-      <c r="W55" s="11"/>
-      <c r="X55" s="11"/>
+      <c r="S55" s="11">
+        <v>46075</v>
+      </c>
+      <c r="T55" s="11">
+        <v>46082</v>
+      </c>
+      <c r="U55" s="11">
+        <v>46089</v>
+      </c>
+      <c r="V55" s="11">
+        <v>46096</v>
+      </c>
+      <c r="W55" s="11">
+        <v>46103</v>
+      </c>
+      <c r="X55" s="11">
+        <v>46124</v>
+      </c>
       <c r="Y55" s="11"/>
       <c r="Z55" s="7" cm="1">
         <f t="array" ref="Z55">LOOKUP(2,1/(A55:Y55&lt;&gt;""),A55:Y55)</f>
-        <v>46040</v>
+        <v>46124</v>
       </c>
       <c r="AA55" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>ינואר</v>
+        <v>אפריל</v>
       </c>
       <c r="AB55" s="14"/>
     </row>
@@ -5216,20 +5243,32 @@
       <c r="R56" s="11">
         <v>46040</v>
       </c>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11"/>
-      <c r="U56" s="11"/>
-      <c r="V56" s="11"/>
-      <c r="W56" s="11"/>
-      <c r="X56" s="11"/>
+      <c r="S56" s="11">
+        <v>46075</v>
+      </c>
+      <c r="T56" s="11">
+        <v>46082</v>
+      </c>
+      <c r="U56" s="11">
+        <v>46089</v>
+      </c>
+      <c r="V56" s="11">
+        <v>46096</v>
+      </c>
+      <c r="W56" s="11">
+        <v>46103</v>
+      </c>
+      <c r="X56" s="11">
+        <v>46124</v>
+      </c>
       <c r="Y56" s="11"/>
       <c r="Z56" s="7" cm="1">
         <f t="array" ref="Z56">LOOKUP(2,1/(A56:Y56&lt;&gt;""),A56:Y56)</f>
-        <v>46040</v>
+        <v>46124</v>
       </c>
       <c r="AA56" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>ינואר</v>
+        <v>אפריל</v>
       </c>
       <c r="AB56" s="14"/>
     </row>
@@ -5286,20 +5325,32 @@
       <c r="R57" s="11">
         <v>46040</v>
       </c>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11"/>
-      <c r="U57" s="7"/>
-      <c r="V57" s="7"/>
-      <c r="W57" s="7"/>
-      <c r="X57" s="11"/>
+      <c r="S57" s="11">
+        <v>46075</v>
+      </c>
+      <c r="T57" s="11">
+        <v>46082</v>
+      </c>
+      <c r="U57" s="7">
+        <v>46089</v>
+      </c>
+      <c r="V57" s="7">
+        <v>46096</v>
+      </c>
+      <c r="W57" s="7">
+        <v>46103</v>
+      </c>
+      <c r="X57" s="11">
+        <v>46124</v>
+      </c>
       <c r="Y57" s="11"/>
       <c r="Z57" s="7" cm="1">
         <f t="array" ref="Z57">LOOKUP(2,1/(A57:Y57&lt;&gt;""),A57:Y57)</f>
-        <v>46040</v>
+        <v>46124</v>
       </c>
       <c r="AA57" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>ינואר</v>
+        <v>אפריל</v>
       </c>
       <c r="AB57" s="14"/>
     </row>
@@ -5356,20 +5407,32 @@
       <c r="R58" s="11">
         <v>46040</v>
       </c>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="7"/>
-      <c r="V58" s="11"/>
-      <c r="W58" s="11"/>
-      <c r="X58" s="11"/>
+      <c r="S58" s="11">
+        <v>46075</v>
+      </c>
+      <c r="T58" s="11">
+        <v>46082</v>
+      </c>
+      <c r="U58" s="7">
+        <v>46089</v>
+      </c>
+      <c r="V58" s="11">
+        <v>46096</v>
+      </c>
+      <c r="W58" s="11">
+        <v>46103</v>
+      </c>
+      <c r="X58" s="11">
+        <v>46124</v>
+      </c>
       <c r="Y58" s="11"/>
       <c r="Z58" s="7" cm="1">
         <f t="array" ref="Z58">LOOKUP(2,1/(A58:Y58&lt;&gt;""),A58:Y58)</f>
-        <v>46040</v>
+        <v>46124</v>
       </c>
       <c r="AA58" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>ינואר</v>
+        <v>אפריל</v>
       </c>
       <c r="AB58" s="14"/>
     </row>

--- a/DASHBOARD.xlsx
+++ b/DASHBOARD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idan\Downloads\דשבורד סטטוס\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7419AD95-7934-4AA9-B1F2-19819100DCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304A7373-DFFD-4459-A17E-B4EB6176DCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="172">
   <si>
     <t>Employee</t>
   </si>
@@ -76,9 +76,6 @@
     <t>School</t>
   </si>
   <si>
-    <t>Day</t>
-  </si>
-  <si>
     <t>StartTime</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>ניצן</t>
   </si>
   <si>
-    <t>ראשון</t>
-  </si>
-  <si>
     <t>מיכל שכטמן</t>
   </si>
   <si>
@@ -184,9 +178,6 @@
     <t>מול גלעד</t>
   </si>
   <si>
-    <t>שני</t>
-  </si>
-  <si>
     <t>אלכס זפקה</t>
   </si>
   <si>
@@ -214,9 +205,6 @@
     <t>מקיף ט'</t>
   </si>
   <si>
-    <t>שלישי</t>
-  </si>
-  <si>
     <t>סוהא סאלם</t>
   </si>
   <si>
@@ -232,9 +220,6 @@
     <t>יד בנימין</t>
   </si>
   <si>
-    <t>רביעי</t>
-  </si>
-  <si>
     <t xml:space="preserve">אסיל ג'בר </t>
   </si>
   <si>
@@ -274,9 +259,6 @@
     <t>מתנ"ס</t>
   </si>
   <si>
-    <t>חמישי</t>
-  </si>
-  <si>
     <t>אוריה פדידה</t>
   </si>
   <si>
@@ -364,9 +346,6 @@
     <t>האלה</t>
   </si>
   <si>
-    <t>שישי</t>
-  </si>
-  <si>
     <t>קרוב</t>
   </si>
   <si>
@@ -590,6 +569,9 @@
   </si>
   <si>
     <t>עצמאי</t>
+  </si>
+  <si>
+    <t>EmployeeID</t>
   </si>
 </sst>
 </file>
@@ -722,7 +704,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -748,6 +730,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Comma 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
@@ -1069,16 +1054,16 @@
   <dimension ref="A1:AB141"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A118" sqref="A118:XFD118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="7" width="10.36328125" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="7" width="10.36328125" customWidth="1"/>
     <col min="8" max="9" width="10.36328125" style="2" customWidth="1"/>
     <col min="10" max="25" width="10.81640625" customWidth="1"/>
     <col min="26" max="27" width="11" customWidth="1"/>
@@ -1087,112 +1072,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Z1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="AB1" s="13" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>47</v>
+      <c r="A2" s="5">
+        <v>1503</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>153</v>
+        <v>44</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="H2" s="8">
         <v>0.39583333333333304</v>
@@ -1233,7 +1218,7 @@
       <c r="X2" s="11"/>
       <c r="Y2" s="11"/>
       <c r="Z2" s="7" cm="1">
-        <f t="array" ref="Z2">LOOKUP(2,1/(A2:Y2&lt;&gt;""),A2:Y2)</f>
+        <f t="array" ref="Z2">LOOKUP(2,1/(B2:Y2&lt;&gt;""),B2:Y2)</f>
         <v>46156</v>
       </c>
       <c r="AA2" s="5" t="str">
@@ -1241,30 +1226,30 @@
         <v>מאי</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>47</v>
+      <c r="A3" s="5">
+        <v>1503</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>135</v>
+        <v>44</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="H3" s="8">
         <v>0.58333333333333237</v>
@@ -1305,7 +1290,7 @@
       <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
       <c r="Z3" s="7" cm="1">
-        <f t="array" ref="Z3">LOOKUP(2,1/(A3:Y3&lt;&gt;""),A3:Y3)</f>
+        <f t="array" ref="Z3">LOOKUP(2,1/(B3:Y3&lt;&gt;""),B3:Y3)</f>
         <v>46156</v>
       </c>
       <c r="AA3" s="5" t="str">
@@ -1313,30 +1298,30 @@
         <v>מאי</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>100</v>
+      <c r="A4" s="5">
+        <v>1500</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>55</v>
+        <v>94</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="H4" s="8">
         <v>0.4166666666666663</v>
@@ -1377,7 +1362,7 @@
       <c r="X4" s="11"/>
       <c r="Y4" s="11"/>
       <c r="Z4" s="7" cm="1">
-        <f t="array" ref="Z4">LOOKUP(2,1/(A4:Y4&lt;&gt;""),A4:Y4)</f>
+        <f t="array" ref="Z4">LOOKUP(2,1/(B4:Y4&lt;&gt;""),B4:Y4)</f>
         <v>46156</v>
       </c>
       <c r="AA4" s="5" t="str">
@@ -1385,30 +1370,30 @@
         <v>מאי</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>100</v>
+      <c r="A5" s="5">
+        <v>1500</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>55</v>
+        <v>94</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="H5" s="8">
         <v>0.33333333333333326</v>
@@ -1449,7 +1434,7 @@
       <c r="X5" s="11"/>
       <c r="Y5" s="11"/>
       <c r="Z5" s="7" cm="1">
-        <f t="array" ref="Z5">LOOKUP(2,1/(A5:Y5&lt;&gt;""),A5:Y5)</f>
+        <f t="array" ref="Z5">LOOKUP(2,1/(B5:Y5&lt;&gt;""),B5:Y5)</f>
         <v>46156</v>
       </c>
       <c r="AA5" s="5" t="str">
@@ -1457,30 +1442,30 @@
         <v>מאי</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>100</v>
+      <c r="A6" s="5">
+        <v>1500</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>144</v>
+        <v>94</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="H6" s="8">
         <v>0.49999999999999933</v>
@@ -1521,7 +1506,7 @@
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
       <c r="Z6" s="7" cm="1">
-        <f t="array" ref="Z6">LOOKUP(2,1/(A6:Y6&lt;&gt;""),A6:Y6)</f>
+        <f t="array" ref="Z6">LOOKUP(2,1/(B6:Y6&lt;&gt;""),B6:Y6)</f>
         <v>46156</v>
       </c>
       <c r="AA6" s="5" t="str">
@@ -1529,30 +1514,28 @@
         <v>מאי</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>126</v>
-      </c>
+      <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="H7" s="8">
         <v>0.4895833333333327</v>
@@ -1593,7 +1576,7 @@
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
       <c r="Z7" s="7" cm="1">
-        <f t="array" ref="Z7">LOOKUP(2,1/(A7:Y7&lt;&gt;""),A7:Y7)</f>
+        <f t="array" ref="Z7">LOOKUP(2,1/(B7:Y7&lt;&gt;""),B7:Y7)</f>
         <v>46156</v>
       </c>
       <c r="AA7" s="5" t="str">
@@ -1601,30 +1584,30 @@
         <v>מאי</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>47</v>
+      <c r="A8" s="5">
+        <v>1503</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>154</v>
+        <v>44</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="H8" s="8">
         <v>0.4895833333333327</v>
@@ -1665,7 +1648,7 @@
       <c r="X8" s="11"/>
       <c r="Y8" s="11"/>
       <c r="Z8" s="7" cm="1">
-        <f t="array" ref="Z8">LOOKUP(2,1/(A8:Y8&lt;&gt;""),A8:Y8)</f>
+        <f t="array" ref="Z8">LOOKUP(2,1/(B8:Y8&lt;&gt;""),B8:Y8)</f>
         <v>46156</v>
       </c>
       <c r="AA8" s="5" t="str">
@@ -1673,30 +1656,30 @@
         <v>מאי</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>47</v>
+      <c r="A9" s="5">
+        <v>1503</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>137</v>
+        <v>44</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="H9" s="8">
         <v>0.33333333333333326</v>
@@ -1737,7 +1720,7 @@
       <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
       <c r="Z9" s="7" cm="1">
-        <f t="array" ref="Z9">LOOKUP(2,1/(A9:Y9&lt;&gt;""),A9:Y9)</f>
+        <f t="array" ref="Z9">LOOKUP(2,1/(B9:Y9&lt;&gt;""),B9:Y9)</f>
         <v>46156</v>
       </c>
       <c r="AA9" s="5" t="str">
@@ -1745,30 +1728,30 @@
         <v>מאי</v>
       </c>
       <c r="AB9" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>53</v>
+      <c r="A10" s="5">
+        <v>1501</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="G10" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H10" s="8">
         <v>0.33333333333333326</v>
@@ -1813,7 +1796,7 @@
       <c r="X10" s="11"/>
       <c r="Y10" s="11"/>
       <c r="Z10" s="7" cm="1">
-        <f t="array" ref="Z10">LOOKUP(2,1/(A10:Y10&lt;&gt;""),A10:Y10)</f>
+        <f t="array" ref="Z10">LOOKUP(2,1/(B10:Y10&lt;&gt;""),B10:Y10)</f>
         <v>46174</v>
       </c>
       <c r="AA10" s="5" t="str">
@@ -1821,30 +1804,30 @@
         <v>יוני</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>53</v>
+      <c r="A11" s="5">
+        <v>1501</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="G11" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H11" s="8">
         <v>0.40624999999999967</v>
@@ -1889,7 +1872,7 @@
       <c r="X11" s="11"/>
       <c r="Y11" s="11"/>
       <c r="Z11" s="7" cm="1">
-        <f t="array" ref="Z11">LOOKUP(2,1/(A11:Y11&lt;&gt;""),A11:Y11)</f>
+        <f t="array" ref="Z11">LOOKUP(2,1/(B11:Y11&lt;&gt;""),B11:Y11)</f>
         <v>46174</v>
       </c>
       <c r="AA11" s="5" t="str">
@@ -1897,30 +1880,30 @@
         <v>יוני</v>
       </c>
       <c r="AB11" s="5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>53</v>
+      <c r="A12" s="5">
+        <v>1501</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="G12" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H12" s="8">
         <v>0.48263888888888828</v>
@@ -1965,7 +1948,7 @@
       <c r="X12" s="11"/>
       <c r="Y12" s="11"/>
       <c r="Z12" s="7" cm="1">
-        <f t="array" ref="Z12">LOOKUP(2,1/(A12:Y12&lt;&gt;""),A12:Y12)</f>
+        <f t="array" ref="Z12">LOOKUP(2,1/(B12:Y12&lt;&gt;""),B12:Y12)</f>
         <v>46174</v>
       </c>
       <c r="AA12" s="5" t="str">
@@ -1973,30 +1956,30 @@
         <v>יוני</v>
       </c>
       <c r="AB12" s="5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>53</v>
+      <c r="A13" s="5">
+        <v>1501</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>147</v>
+        <v>49</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="H13" s="8">
         <v>0.36458333333333315</v>
@@ -2041,7 +2024,7 @@
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
       <c r="Z13" s="7" cm="1">
-        <f t="array" ref="Z13">LOOKUP(2,1/(A13:Y13&lt;&gt;""),A13:Y13)</f>
+        <f t="array" ref="Z13">LOOKUP(2,1/(B13:Y13&lt;&gt;""),B13:Y13)</f>
         <v>46170</v>
       </c>
       <c r="AA13" s="5" t="str">
@@ -2049,30 +2032,30 @@
         <v>מאי</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>53</v>
+      <c r="A14" s="5">
+        <v>1501</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>147</v>
+        <v>49</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="H14" s="8">
         <v>0.40972222222222188</v>
@@ -2117,7 +2100,7 @@
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
       <c r="Z14" s="7" cm="1">
-        <f t="array" ref="Z14">LOOKUP(2,1/(A14:Y14&lt;&gt;""),A14:Y14)</f>
+        <f t="array" ref="Z14">LOOKUP(2,1/(B14:Y14&lt;&gt;""),B14:Y14)</f>
         <v>46170</v>
       </c>
       <c r="AA14" s="5" t="str">
@@ -2125,30 +2108,30 @@
         <v>מאי</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>53</v>
+      <c r="A15" s="5">
+        <v>1501</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>131</v>
+        <v>49</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="H15" s="8">
         <v>0.4895833333333327</v>
@@ -2193,7 +2176,7 @@
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
       <c r="Z15" s="7" cm="1">
-        <f t="array" ref="Z15">LOOKUP(2,1/(A15:Y15&lt;&gt;""),A15:Y15)</f>
+        <f t="array" ref="Z15">LOOKUP(2,1/(B15:Y15&lt;&gt;""),B15:Y15)</f>
         <v>46170</v>
       </c>
       <c r="AA15" s="5" t="str">
@@ -2201,30 +2184,30 @@
         <v>מאי</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>53</v>
+      <c r="A16" s="5">
+        <v>1501</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>131</v>
+        <v>49</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="H16" s="8">
         <v>0.42013888888888851</v>
@@ -2267,7 +2250,7 @@
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
       <c r="Z16" s="7" cm="1">
-        <f t="array" ref="Z16">LOOKUP(2,1/(A16:Y16&lt;&gt;""),A16:Y16)</f>
+        <f t="array" ref="Z16">LOOKUP(2,1/(B16:Y16&lt;&gt;""),B16:Y16)</f>
         <v>46176</v>
       </c>
       <c r="AA16" s="5" t="str">
@@ -2275,30 +2258,30 @@
         <v>יוני</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>53</v>
+      <c r="A17" s="5">
+        <v>1501</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>131</v>
+        <v>49</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="H17" s="8">
         <v>0.4895833333333327</v>
@@ -2343,7 +2326,7 @@
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
       <c r="Z17" s="7" cm="1">
-        <f t="array" ref="Z17">LOOKUP(2,1/(A17:Y17&lt;&gt;""),A17:Y17)</f>
+        <f t="array" ref="Z17">LOOKUP(2,1/(B17:Y17&lt;&gt;""),B17:Y17)</f>
         <v>46183</v>
       </c>
       <c r="AA17" s="5" t="str">
@@ -2351,30 +2334,30 @@
         <v>יוני</v>
       </c>
       <c r="AB17" s="5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>53</v>
+      <c r="A18" s="5">
+        <v>1501</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>131</v>
+        <v>49</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="H18" s="8">
         <v>0.34374999999999989</v>
@@ -2419,7 +2402,7 @@
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
       <c r="Z18" s="7" cm="1">
-        <f t="array" ref="Z18">LOOKUP(2,1/(A18:Y18&lt;&gt;""),A18:Y18)</f>
+        <f t="array" ref="Z18">LOOKUP(2,1/(B18:Y18&lt;&gt;""),B18:Y18)</f>
         <v>46183</v>
       </c>
       <c r="AA18" s="5" t="str">
@@ -2427,30 +2410,30 @@
         <v>יוני</v>
       </c>
       <c r="AB18" s="5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>53</v>
+      <c r="A19" s="5">
+        <v>1501</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>163</v>
+        <v>49</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="H19" s="8">
         <v>0.44791666666666619</v>
@@ -2495,7 +2478,7 @@
       <c r="X19" s="11"/>
       <c r="Y19" s="11"/>
       <c r="Z19" s="7" cm="1">
-        <f t="array" ref="Z19">LOOKUP(2,1/(A19:Y19&lt;&gt;""),A19:Y19)</f>
+        <f t="array" ref="Z19">LOOKUP(2,1/(B19:Y19&lt;&gt;""),B19:Y19)</f>
         <v>46182</v>
       </c>
       <c r="AA19" s="5" t="str">
@@ -2503,30 +2486,30 @@
         <v>יוני</v>
       </c>
       <c r="AB19" s="5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>53</v>
+      <c r="A20" s="5">
+        <v>1501</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>163</v>
+        <v>49</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="H20" s="8">
         <v>0.48611111111111049</v>
@@ -2571,7 +2554,7 @@
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
       <c r="Z20" s="7" cm="1">
-        <f t="array" ref="Z20">LOOKUP(2,1/(A20:Y20&lt;&gt;""),A20:Y20)</f>
+        <f t="array" ref="Z20">LOOKUP(2,1/(B20:Y20&lt;&gt;""),B20:Y20)</f>
         <v>46182</v>
       </c>
       <c r="AA20" s="5" t="str">
@@ -2579,30 +2562,30 @@
         <v>יוני</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>53</v>
+      <c r="A21" s="5">
+        <v>1501</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>163</v>
+        <v>49</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="H21" s="8">
         <v>0.5243055555555548</v>
@@ -2647,7 +2630,7 @@
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
       <c r="Z21" s="7" cm="1">
-        <f t="array" ref="Z21">LOOKUP(2,1/(A21:Y21&lt;&gt;""),A21:Y21)</f>
+        <f t="array" ref="Z21">LOOKUP(2,1/(B21:Y21&lt;&gt;""),B21:Y21)</f>
         <v>46182</v>
       </c>
       <c r="AA21" s="5" t="str">
@@ -2655,30 +2638,30 @@
         <v>יוני</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="5">
+        <v>1513</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="H22" s="8">
         <v>0.35416666666666652</v>
@@ -2723,7 +2706,7 @@
       <c r="X22" s="11"/>
       <c r="Y22" s="11"/>
       <c r="Z22" s="7" cm="1">
-        <f t="array" ref="Z22">LOOKUP(2,1/(A22:Y22&lt;&gt;""),A22:Y22)</f>
+        <f t="array" ref="Z22">LOOKUP(2,1/(B22:Y22&lt;&gt;""),B22:Y22)</f>
         <v>46082</v>
       </c>
       <c r="AA22" s="5" t="str">
@@ -2731,30 +2714,30 @@
         <v>מרץ</v>
       </c>
       <c r="AB22" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>61</v>
+      <c r="A23" s="5">
+        <v>1502</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="G23" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H23" s="8">
         <v>0.34374999999999989</v>
@@ -2799,7 +2782,7 @@
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
       <c r="Z23" s="7" cm="1">
-        <f t="array" ref="Z23">LOOKUP(2,1/(A23:Y23&lt;&gt;""),A23:Y23)</f>
+        <f t="array" ref="Z23">LOOKUP(2,1/(B23:Y23&lt;&gt;""),B23:Y23)</f>
         <v>46066</v>
       </c>
       <c r="AA23" s="5" t="str">
@@ -2807,30 +2790,30 @@
         <v>פברואר</v>
       </c>
       <c r="AB23" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="5">
+        <v>1513</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="G24" s="5" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="H24" s="8">
         <v>0.51041666666666596</v>
@@ -2873,7 +2856,7 @@
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
       <c r="Z24" s="7" cm="1">
-        <f t="array" ref="Z24">LOOKUP(2,1/(A24:Y24&lt;&gt;""),A24:Y24)</f>
+        <f t="array" ref="Z24">LOOKUP(2,1/(B24:Y24&lt;&gt;""),B24:Y24)</f>
         <v>46072</v>
       </c>
       <c r="AA24" s="5" t="str">
@@ -2881,30 +2864,30 @@
         <v>פברואר</v>
       </c>
       <c r="AB24" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>133</v>
+      <c r="A25" s="5">
+        <v>1509</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="G25" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -2945,7 +2928,7 @@
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
       <c r="Z25" s="7" cm="1">
-        <f t="array" ref="Z25">LOOKUP(2,1/(A25:Y25&lt;&gt;""),A25:Y25)</f>
+        <f t="array" ref="Z25">LOOKUP(2,1/(B25:Y25&lt;&gt;""),B25:Y25)</f>
         <v>46176</v>
       </c>
       <c r="AA25" s="5" t="str">
@@ -2953,30 +2936,30 @@
         <v>יוני</v>
       </c>
       <c r="AB25" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="14">
+        <v>1513</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="H26" s="8">
         <v>0.43749999999999956</v>
@@ -3021,7 +3004,7 @@
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
       <c r="Z26" s="7" cm="1">
-        <f t="array" ref="Z26">LOOKUP(2,1/(A26:Y26&lt;&gt;""),A26:Y26)</f>
+        <f t="array" ref="Z26">LOOKUP(2,1/(B26:Y26&lt;&gt;""),B26:Y26)</f>
         <v>46082</v>
       </c>
       <c r="AA26" s="5" t="str">
@@ -3029,30 +3012,30 @@
         <v>מרץ</v>
       </c>
       <c r="AB26" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>59</v>
+      <c r="A27" s="14">
+        <v>1517</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="G27" s="5" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="H27" s="8">
         <v>0.35416666666666652</v>
@@ -3097,7 +3080,7 @@
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
       <c r="Z27" s="7" cm="1">
-        <f t="array" ref="Z27">LOOKUP(2,1/(A27:Y27&lt;&gt;""),A27:Y27)</f>
+        <f t="array" ref="Z27">LOOKUP(2,1/(B27:Y27&lt;&gt;""),B27:Y27)</f>
         <v>46147</v>
       </c>
       <c r="AA27" s="5" t="str">
@@ -3105,30 +3088,30 @@
         <v>מאי</v>
       </c>
       <c r="AB27" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="14">
+        <v>1513</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="G28" s="5" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="H28" s="8">
         <v>0.38541666666666641</v>
@@ -3171,7 +3154,7 @@
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
       <c r="Z28" s="7" cm="1">
-        <f t="array" ref="Z28">LOOKUP(2,1/(A28:Y28&lt;&gt;""),A28:Y28)</f>
+        <f t="array" ref="Z28">LOOKUP(2,1/(B28:Y28&lt;&gt;""),B28:Y28)</f>
         <v>46072</v>
       </c>
       <c r="AA28" s="5" t="str">
@@ -3179,30 +3162,30 @@
         <v>פברואר</v>
       </c>
       <c r="AB28" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A29" s="5" t="s">
-        <v>61</v>
+      <c r="A29" s="14">
+        <v>1502</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="G29" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H29" s="8">
         <v>0.43749999999999956</v>
@@ -3247,7 +3230,7 @@
       <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
       <c r="Z29" s="7" cm="1">
-        <f t="array" ref="Z29">LOOKUP(2,1/(A29:Y29&lt;&gt;""),A29:Y29)</f>
+        <f t="array" ref="Z29">LOOKUP(2,1/(B29:Y29&lt;&gt;""),B29:Y29)</f>
         <v>46066</v>
       </c>
       <c r="AA29" s="5" t="str">
@@ -3255,30 +3238,30 @@
         <v>פברואר</v>
       </c>
       <c r="AB29" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A30" s="5" t="s">
-        <v>145</v>
+      <c r="A30" s="14">
+        <v>1522</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>112</v>
+        <v>138</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H30" s="8">
         <v>0.68749999999999867</v>
@@ -3329,7 +3312,7 @@
       <c r="X30" s="11"/>
       <c r="Y30" s="11"/>
       <c r="Z30" s="7" cm="1">
-        <f t="array" ref="Z30">LOOKUP(2,1/(A30:Y30&lt;&gt;""),A30:Y30)</f>
+        <f t="array" ref="Z30">LOOKUP(2,1/(B30:Y30&lt;&gt;""),B30:Y30)</f>
         <v>46196</v>
       </c>
       <c r="AA30" s="5" t="str">
@@ -3337,30 +3320,30 @@
         <v>יוני</v>
       </c>
       <c r="AB30" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A31" s="5" t="s">
-        <v>145</v>
+      <c r="A31" s="14">
+        <v>1522</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>112</v>
+        <v>138</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H31" s="8">
         <v>0.72916666666666519</v>
@@ -3411,7 +3394,7 @@
       <c r="X31" s="11"/>
       <c r="Y31" s="11"/>
       <c r="Z31" s="7" cm="1">
-        <f t="array" ref="Z31">LOOKUP(2,1/(A31:Y31&lt;&gt;""),A31:Y31)</f>
+        <f t="array" ref="Z31">LOOKUP(2,1/(B31:Y31&lt;&gt;""),B31:Y31)</f>
         <v>46196</v>
       </c>
       <c r="AA31" s="5" t="str">
@@ -3419,30 +3402,30 @@
         <v>יוני</v>
       </c>
       <c r="AB31" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A32" s="5" t="s">
-        <v>111</v>
+      <c r="A32" s="14">
+        <v>1515</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="H32" s="8">
         <v>0.42708333333333293</v>
@@ -3487,7 +3470,7 @@
       <c r="X32" s="11"/>
       <c r="Y32" s="11"/>
       <c r="Z32" s="7" cm="1">
-        <f t="array" ref="Z32">LOOKUP(2,1/(A32:Y32&lt;&gt;""),A32:Y32)</f>
+        <f t="array" ref="Z32">LOOKUP(2,1/(B32:Y32&lt;&gt;""),B32:Y32)</f>
         <v>46188</v>
       </c>
       <c r="AA32" s="5" t="str">
@@ -3495,30 +3478,30 @@
         <v>יוני</v>
       </c>
       <c r="AB32" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A33" s="5" t="s">
-        <v>111</v>
+      <c r="A33" s="14">
+        <v>1515</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="H33" s="8">
         <v>0.49999999999999933</v>
@@ -3563,7 +3546,7 @@
       <c r="X33" s="11"/>
       <c r="Y33" s="11"/>
       <c r="Z33" s="7" cm="1">
-        <f t="array" ref="Z33">LOOKUP(2,1/(A33:Y33&lt;&gt;""),A33:Y33)</f>
+        <f t="array" ref="Z33">LOOKUP(2,1/(B33:Y33&lt;&gt;""),B33:Y33)</f>
         <v>46188</v>
       </c>
       <c r="AA33" s="5" t="str">
@@ -3571,30 +3554,30 @@
         <v>יוני</v>
       </c>
       <c r="AB33" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A34" s="5" t="s">
-        <v>111</v>
+      <c r="A34" s="14">
+        <v>1515</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="H34" s="8">
         <v>0.35416666666666652</v>
@@ -3635,7 +3618,7 @@
       <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
       <c r="Z34" s="7" cm="1">
-        <f t="array" ref="Z34">LOOKUP(2,1/(A34:Y34&lt;&gt;""),A34:Y34)</f>
+        <f t="array" ref="Z34">LOOKUP(2,1/(B34:Y34&lt;&gt;""),B34:Y34)</f>
         <v>46195</v>
       </c>
       <c r="AA34" s="5" t="str">
@@ -3643,30 +3626,30 @@
         <v>יוני</v>
       </c>
       <c r="AB34" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A35" s="5" t="s">
-        <v>111</v>
+      <c r="A35" s="14">
+        <v>1515</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="H35" s="8">
         <v>0.44791666666666619</v>
@@ -3711,7 +3694,7 @@
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
       <c r="Z35" s="7" cm="1">
-        <f t="array" ref="Z35">LOOKUP(2,1/(A35:Y35&lt;&gt;""),A35:Y35)</f>
+        <f t="array" ref="Z35">LOOKUP(2,1/(B35:Y35&lt;&gt;""),B35:Y35)</f>
         <v>46189</v>
       </c>
       <c r="AA35" s="5" t="str">
@@ -3719,30 +3702,30 @@
         <v>יוני</v>
       </c>
       <c r="AB35" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A36" s="5" t="s">
-        <v>111</v>
+      <c r="A36" s="14">
+        <v>1515</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="H36" s="8">
         <v>0.52083333333333259</v>
@@ -3787,7 +3770,7 @@
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
       <c r="Z36" s="7" cm="1">
-        <f t="array" ref="Z36">LOOKUP(2,1/(A36:Y36&lt;&gt;""),A36:Y36)</f>
+        <f t="array" ref="Z36">LOOKUP(2,1/(B36:Y36&lt;&gt;""),B36:Y36)</f>
         <v>46189</v>
       </c>
       <c r="AA36" s="5" t="str">
@@ -3795,30 +3778,30 @@
         <v>יוני</v>
       </c>
       <c r="AB36" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A37" s="5" t="s">
-        <v>145</v>
+      <c r="A37" s="14">
+        <v>1522</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>112</v>
+        <v>138</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="H37" s="8">
         <v>0.33333333333333326</v>
@@ -3863,7 +3846,7 @@
       <c r="X37" s="11"/>
       <c r="Y37" s="11"/>
       <c r="Z37" s="7" cm="1">
-        <f t="array" ref="Z37">LOOKUP(2,1/(A37:Y37&lt;&gt;""),A37:Y37)</f>
+        <f t="array" ref="Z37">LOOKUP(2,1/(B37:Y37&lt;&gt;""),B37:Y37)</f>
         <v>46166</v>
       </c>
       <c r="AA37" s="5" t="str">
@@ -3871,30 +3854,30 @@
         <v>מאי</v>
       </c>
       <c r="AB37" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A38" s="5" t="s">
-        <v>111</v>
+      <c r="A38" s="14">
+        <v>1515</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="H38" s="8">
         <v>0.42013888888888851</v>
@@ -3939,7 +3922,7 @@
       <c r="X38" s="11"/>
       <c r="Y38" s="11"/>
       <c r="Z38" s="7" cm="1">
-        <f t="array" ref="Z38">LOOKUP(2,1/(A38:Y38&lt;&gt;""),A38:Y38)</f>
+        <f t="array" ref="Z38">LOOKUP(2,1/(B38:Y38&lt;&gt;""),B38:Y38)</f>
         <v>46152</v>
       </c>
       <c r="AA38" s="5" t="str">
@@ -3947,30 +3930,30 @@
         <v>מאי</v>
       </c>
       <c r="AB38" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A39" s="5" t="s">
-        <v>111</v>
+      <c r="A39" s="14">
+        <v>1515</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="H39" s="8">
         <v>0.52083333333333259</v>
@@ -4015,7 +3998,7 @@
       <c r="X39" s="11"/>
       <c r="Y39" s="11"/>
       <c r="Z39" s="7" cm="1">
-        <f t="array" ref="Z39">LOOKUP(2,1/(A39:Y39&lt;&gt;""),A39:Y39)</f>
+        <f t="array" ref="Z39">LOOKUP(2,1/(B39:Y39&lt;&gt;""),B39:Y39)</f>
         <v>46169</v>
       </c>
       <c r="AA39" s="5" t="str">
@@ -4023,27 +4006,27 @@
         <v>מאי</v>
       </c>
       <c r="AB39" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>112</v>
+      <c r="A40" s="14"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="G40" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="11">
@@ -4083,7 +4066,7 @@
       <c r="X40" s="11"/>
       <c r="Y40" s="11"/>
       <c r="Z40" s="7" cm="1">
-        <f t="array" ref="Z40">LOOKUP(2,1/(A40:Y40&lt;&gt;""),A40:Y40)</f>
+        <f t="array" ref="Z40">LOOKUP(2,1/(B40:Y40&lt;&gt;""),B40:Y40)</f>
         <v>46187</v>
       </c>
       <c r="AA40" s="5" t="str">
@@ -4093,23 +4076,23 @@
       <c r="AB40" s="14"/>
     </row>
     <row r="41" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>112</v>
+      <c r="A41" s="14"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="G41" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="11">
@@ -4149,7 +4132,7 @@
       <c r="X41" s="11"/>
       <c r="Y41" s="11"/>
       <c r="Z41" s="7" cm="1">
-        <f t="array" ref="Z41">LOOKUP(2,1/(A41:Y41&lt;&gt;""),A41:Y41)</f>
+        <f t="array" ref="Z41">LOOKUP(2,1/(B41:Y41&lt;&gt;""),B41:Y41)</f>
         <v>46187</v>
       </c>
       <c r="AA41" s="5" t="str">
@@ -4159,29 +4142,31 @@
       <c r="AB41" s="14"/>
     </row>
     <row r="42" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A42" s="5" t="s">
-        <v>47</v>
+      <c r="A42" s="14">
+        <v>1503</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>164</v>
+        <v>44</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G42" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="11">
-        <v>46174</v>
+        <v>46124</v>
       </c>
       <c r="K42" s="11">
         <v>46181</v>
@@ -4207,7 +4192,7 @@
       <c r="X42" s="11"/>
       <c r="Y42" s="11"/>
       <c r="Z42" s="7" cm="1">
-        <f t="array" ref="Z42">LOOKUP(2,1/(A42:Y42&lt;&gt;""),A42:Y42)</f>
+        <f t="array" ref="Z42">LOOKUP(2,1/(B42:Y42&lt;&gt;""),B42:Y42)</f>
         <v>46202</v>
       </c>
       <c r="AA42" s="5" t="str">
@@ -4215,33 +4200,35 @@
         <v>יוני</v>
       </c>
       <c r="AB42" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A43" s="5" t="s">
-        <v>47</v>
+      <c r="A43" s="14">
+        <v>1503</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>164</v>
+        <v>44</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G43" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="11">
-        <v>46174</v>
+        <v>46124</v>
       </c>
       <c r="K43" s="11">
         <v>46181</v>
@@ -4267,7 +4254,7 @@
       <c r="X43" s="11"/>
       <c r="Y43" s="11"/>
       <c r="Z43" s="7" cm="1">
-        <f t="array" ref="Z43">LOOKUP(2,1/(A43:Y43&lt;&gt;""),A43:Y43)</f>
+        <f t="array" ref="Z43">LOOKUP(2,1/(B43:Y43&lt;&gt;""),B43:Y43)</f>
         <v>46202</v>
       </c>
       <c r="AA43" s="5" t="str">
@@ -4275,30 +4262,30 @@
         <v>יוני</v>
       </c>
       <c r="AB43" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="14">
+        <v>1512</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="10" t="s">
+      <c r="D44" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="F44" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="G44" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="H44" s="8">
         <v>0.36805555555555536</v>
@@ -4341,7 +4328,7 @@
       <c r="X44" s="11"/>
       <c r="Y44" s="11"/>
       <c r="Z44" s="7" cm="1">
-        <f t="array" ref="Z44">LOOKUP(2,1/(A44:Y44&lt;&gt;""),A44:Y44)</f>
+        <f t="array" ref="Z44">LOOKUP(2,1/(B44:Y44&lt;&gt;""),B44:Y44)</f>
         <v>46054</v>
       </c>
       <c r="AA44" s="5" t="str">
@@ -4349,30 +4336,30 @@
         <v>פברואר</v>
       </c>
       <c r="AB44" s="14" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A45" s="5" t="s">
-        <v>27</v>
+      <c r="A45" s="14">
+        <v>1512</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="F45" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="G45" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H45" s="8">
         <v>0.3472222222222221</v>
@@ -4417,7 +4404,7 @@
       <c r="X45" s="11"/>
       <c r="Y45" s="11"/>
       <c r="Z45" s="7" cm="1">
-        <f t="array" ref="Z45">LOOKUP(2,1/(A45:Y45&lt;&gt;""),A45:Y45)</f>
+        <f t="array" ref="Z45">LOOKUP(2,1/(B45:Y45&lt;&gt;""),B45:Y45)</f>
         <v>46094</v>
       </c>
       <c r="AA45" s="5" t="str">
@@ -4425,30 +4412,30 @@
         <v>מרץ</v>
       </c>
       <c r="AB45" s="14" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A46" s="5" t="s">
-        <v>43</v>
+      <c r="A46" s="14">
+        <v>1507</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="F46" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="G46" s="5" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="H46" s="8">
         <v>0.43749999999999956</v>
@@ -4493,7 +4480,7 @@
       <c r="X46" s="11"/>
       <c r="Y46" s="11"/>
       <c r="Z46" s="7" cm="1">
-        <f t="array" ref="Z46">LOOKUP(2,1/(A46:Y46&lt;&gt;""),A46:Y46)</f>
+        <f t="array" ref="Z46">LOOKUP(2,1/(B46:Y46&lt;&gt;""),B46:Y46)</f>
         <v>46079</v>
       </c>
       <c r="AA46" s="5" t="str">
@@ -4501,30 +4488,30 @@
         <v>פברואר</v>
       </c>
       <c r="AB46" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A47" s="5" t="s">
-        <v>133</v>
+      <c r="A47" s="14">
+        <v>1509</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="F47" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>134</v>
-      </c>
       <c r="G47" s="5" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="H47" s="8">
         <v>0.33333333333333326</v>
@@ -4564,8 +4551,8 @@
       <c r="W47" s="11"/>
       <c r="X47" s="11"/>
       <c r="Y47" s="11"/>
-      <c r="Z47" s="7" cm="1">
-        <f t="array" ref="Z47">LOOKUP(2,1/(A47:Y47&lt;&gt;""),A47:Y47)</f>
+      <c r="Z47" s="11" cm="1">
+        <f t="array" ref="Z47">LOOKUP(2,1/(B47:Y47&lt;&gt;""),B47:Y47)</f>
         <v>46075</v>
       </c>
       <c r="AA47" s="5" t="str">
@@ -4573,30 +4560,30 @@
         <v>פברואר</v>
       </c>
       <c r="AB47" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A48" s="5" t="s">
-        <v>133</v>
+      <c r="A48" s="14">
+        <v>1509</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="F48" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>134</v>
-      </c>
       <c r="G48" s="5" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="H48" s="8">
         <v>0.42708333333333293</v>
@@ -4629,15 +4616,15 @@
         <v>46075</v>
       </c>
       <c r="R48" s="11"/>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
       <c r="U48" s="11"/>
       <c r="V48" s="11"/>
       <c r="W48" s="11"/>
       <c r="X48" s="11"/>
       <c r="Y48" s="11"/>
-      <c r="Z48" s="7" cm="1">
-        <f t="array" ref="Z48">LOOKUP(2,1/(A48:Y48&lt;&gt;""),A48:Y48)</f>
+      <c r="Z48" s="11" cm="1">
+        <f t="array" ref="Z48">LOOKUP(2,1/(B48:Y48&lt;&gt;""),B48:Y48)</f>
         <v>46075</v>
       </c>
       <c r="AA48" s="5" t="str">
@@ -4645,30 +4632,30 @@
         <v>פברואר</v>
       </c>
       <c r="AB48" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="14">
+        <v>1507</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="H49" s="8">
         <v>0.34027777777777779</v>
@@ -4720,8 +4707,8 @@
       </c>
       <c r="X49" s="11"/>
       <c r="Y49" s="11"/>
-      <c r="Z49" s="7" cm="1">
-        <f t="array" ref="Z49">LOOKUP(2,1/(A49:Y49&lt;&gt;""),A49:Y49)</f>
+      <c r="Z49" s="11" cm="1">
+        <f t="array" ref="Z49">LOOKUP(2,1/(B49:Y49&lt;&gt;""),B49:Y49)</f>
         <v>46132</v>
       </c>
       <c r="AA49" s="5" t="str">
@@ -4729,30 +4716,30 @@
         <v>אפריל</v>
       </c>
       <c r="AB49" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="14">
+        <v>1507</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="H50" s="8">
         <v>0.34027777777777779</v>
@@ -4798,8 +4785,8 @@
       <c r="W50" s="11"/>
       <c r="X50" s="11"/>
       <c r="Y50" s="11"/>
-      <c r="Z50" s="7" cm="1">
-        <f t="array" ref="Z50">LOOKUP(2,1/(A50:Y50&lt;&gt;""),A50:Y50)</f>
+      <c r="Z50" s="11" cm="1">
+        <f t="array" ref="Z50">LOOKUP(2,1/(B50:Y50&lt;&gt;""),B50:Y50)</f>
         <v>46124</v>
       </c>
       <c r="AA50" s="5" t="str">
@@ -4807,30 +4794,30 @@
         <v>אפריל</v>
       </c>
       <c r="AB50" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="14">
+        <v>1507</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="H51" s="8">
         <v>0.34027777777777779</v>
@@ -4868,8 +4855,8 @@
       <c r="W51" s="11"/>
       <c r="X51" s="11"/>
       <c r="Y51" s="11"/>
-      <c r="Z51" s="7" cm="1">
-        <f t="array" ref="Z51">LOOKUP(2,1/(A51:Y51&lt;&gt;""),A51:Y51)</f>
+      <c r="Z51" s="11" cm="1">
+        <f t="array" ref="Z51">LOOKUP(2,1/(B51:Y51&lt;&gt;""),B51:Y51)</f>
         <v>46096</v>
       </c>
       <c r="AA51" s="5" t="str">
@@ -4877,30 +4864,30 @@
         <v>מרץ</v>
       </c>
       <c r="AB51" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A52" s="5" t="s">
-        <v>43</v>
+      <c r="A52" s="14">
+        <v>1507</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H52" s="8">
         <v>0.42708333333333293</v>
@@ -4944,8 +4931,8 @@
       <c r="W52" s="11"/>
       <c r="X52" s="11"/>
       <c r="Y52" s="11"/>
-      <c r="Z52" s="7" cm="1">
-        <f t="array" ref="Z52">LOOKUP(2,1/(A52:Y52&lt;&gt;""),A52:Y52)</f>
+      <c r="Z52" s="11" cm="1">
+        <f t="array" ref="Z52">LOOKUP(2,1/(B52:Y52&lt;&gt;""),B52:Y52)</f>
         <v>46070</v>
       </c>
       <c r="AA52" s="5" t="str">
@@ -4953,29 +4940,31 @@
         <v>פברואר</v>
       </c>
       <c r="AB52" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A53" s="5" t="s">
-        <v>43</v>
+      <c r="A53" s="14">
+        <v>1507</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G53" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="H53" s="8">
         <v>0.34027777777777779</v>
       </c>
@@ -5014,8 +5003,8 @@
       <c r="W53" s="11"/>
       <c r="X53" s="11"/>
       <c r="Y53" s="11"/>
-      <c r="Z53" s="7" cm="1">
-        <f t="array" ref="Z53">LOOKUP(2,1/(A53:Y53&lt;&gt;""),A53:Y53)</f>
+      <c r="Z53" s="11" cm="1">
+        <f t="array" ref="Z53">LOOKUP(2,1/(B53:Y53&lt;&gt;""),B53:Y53)</f>
         <v>46181</v>
       </c>
       <c r="AA53" s="5" t="str">
@@ -5023,28 +5012,26 @@
         <v>יוני</v>
       </c>
       <c r="AB53" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>115</v>
+      <c r="A54" s="14"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="H54" s="8">
         <v>0.33333333333333326</v>
@@ -5098,8 +5085,8 @@
         <v>46124</v>
       </c>
       <c r="Y54" s="11"/>
-      <c r="Z54" s="7" cm="1">
-        <f t="array" ref="Z54">LOOKUP(2,1/(A54:Y54&lt;&gt;""),A54:Y54)</f>
+      <c r="Z54" s="11" cm="1">
+        <f t="array" ref="Z54">LOOKUP(2,1/(B54:Y54&lt;&gt;""),B54:Y54)</f>
         <v>46124</v>
       </c>
       <c r="AA54" s="5" t="str">
@@ -5109,24 +5096,22 @@
       <c r="AB54" s="14"/>
     </row>
     <row r="55" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>115</v>
+      <c r="A55" s="14"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="H55" s="8">
         <v>0.37499999999999978</v>
@@ -5180,8 +5165,8 @@
         <v>46124</v>
       </c>
       <c r="Y55" s="11"/>
-      <c r="Z55" s="7" cm="1">
-        <f t="array" ref="Z55">LOOKUP(2,1/(A55:Y55&lt;&gt;""),A55:Y55)</f>
+      <c r="Z55" s="11" cm="1">
+        <f t="array" ref="Z55">LOOKUP(2,1/(B55:Y55&lt;&gt;""),B55:Y55)</f>
         <v>46124</v>
       </c>
       <c r="AA55" s="5" t="str">
@@ -5191,24 +5176,22 @@
       <c r="AB55" s="14"/>
     </row>
     <row r="56" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>115</v>
+      <c r="A56" s="14"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="H56" s="8">
         <v>0.4166666666666663</v>
@@ -5262,8 +5245,8 @@
         <v>46124</v>
       </c>
       <c r="Y56" s="11"/>
-      <c r="Z56" s="7" cm="1">
-        <f t="array" ref="Z56">LOOKUP(2,1/(A56:Y56&lt;&gt;""),A56:Y56)</f>
+      <c r="Z56" s="11" cm="1">
+        <f t="array" ref="Z56">LOOKUP(2,1/(B56:Y56&lt;&gt;""),B56:Y56)</f>
         <v>46124</v>
       </c>
       <c r="AA56" s="5" t="str">
@@ -5273,24 +5256,22 @@
       <c r="AB56" s="14"/>
     </row>
     <row r="57" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>115</v>
+      <c r="A57" s="14"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="H57" s="8">
         <v>0.45833333333333282</v>
@@ -5331,21 +5312,21 @@
       <c r="T57" s="11">
         <v>46082</v>
       </c>
-      <c r="U57" s="7">
+      <c r="U57" s="11">
         <v>46089</v>
       </c>
-      <c r="V57" s="7">
+      <c r="V57" s="11">
         <v>46096</v>
       </c>
-      <c r="W57" s="7">
+      <c r="W57" s="11">
         <v>46103</v>
       </c>
       <c r="X57" s="11">
         <v>46124</v>
       </c>
       <c r="Y57" s="11"/>
-      <c r="Z57" s="7" cm="1">
-        <f t="array" ref="Z57">LOOKUP(2,1/(A57:Y57&lt;&gt;""),A57:Y57)</f>
+      <c r="Z57" s="11" cm="1">
+        <f t="array" ref="Z57">LOOKUP(2,1/(B57:Y57&lt;&gt;""),B57:Y57)</f>
         <v>46124</v>
       </c>
       <c r="AA57" s="5" t="str">
@@ -5355,24 +5336,22 @@
       <c r="AB57" s="14"/>
     </row>
     <row r="58" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>115</v>
+      <c r="A58" s="14"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="H58" s="8">
         <v>0.49999999999999933</v>
@@ -5413,7 +5392,7 @@
       <c r="T58" s="11">
         <v>46082</v>
       </c>
-      <c r="U58" s="7">
+      <c r="U58" s="11">
         <v>46089</v>
       </c>
       <c r="V58" s="11">
@@ -5426,8 +5405,8 @@
         <v>46124</v>
       </c>
       <c r="Y58" s="11"/>
-      <c r="Z58" s="7" cm="1">
-        <f t="array" ref="Z58">LOOKUP(2,1/(A58:Y58&lt;&gt;""),A58:Y58)</f>
+      <c r="Z58" s="11" cm="1">
+        <f t="array" ref="Z58">LOOKUP(2,1/(B58:Y58&lt;&gt;""),B58:Y58)</f>
         <v>46124</v>
       </c>
       <c r="AA58" s="5" t="str">
@@ -5437,26 +5416,26 @@
       <c r="AB58" s="14"/>
     </row>
     <row r="59" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A59" s="5" t="s">
-        <v>43</v>
+      <c r="A59" s="14">
+        <v>1507</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>115</v>
+        <v>40</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="H59" s="8">
         <v>0.40624999999999967</v>
@@ -5488,16 +5467,16 @@
       <c r="Q59" s="12">
         <v>46155</v>
       </c>
-      <c r="R59" s="7"/>
-      <c r="S59" s="7"/>
-      <c r="T59" s="7"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
       <c r="U59" s="11"/>
       <c r="V59" s="11"/>
       <c r="W59" s="11"/>
       <c r="X59" s="11"/>
       <c r="Y59" s="11"/>
-      <c r="Z59" s="7" cm="1">
-        <f t="array" ref="Z59">LOOKUP(2,1/(A59:Y59&lt;&gt;""),A59:Y59)</f>
+      <c r="Z59" s="11" cm="1">
+        <f t="array" ref="Z59">LOOKUP(2,1/(B59:Y59&lt;&gt;""),B59:Y59)</f>
         <v>46155</v>
       </c>
       <c r="AA59" s="5" t="str">
@@ -5505,30 +5484,30 @@
         <v>מאי</v>
       </c>
       <c r="AB59" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A60" s="5" t="s">
-        <v>61</v>
+      <c r="A60" s="14">
+        <v>1502</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>149</v>
+        <v>56</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="H60" s="8">
         <v>0.42361111111111072</v>
@@ -5560,20 +5539,20 @@
       <c r="Q60" s="11">
         <v>46131</v>
       </c>
-      <c r="R60" s="7">
+      <c r="R60" s="11">
         <v>46138</v>
       </c>
-      <c r="S60" s="7">
+      <c r="S60" s="11">
         <v>46145</v>
       </c>
-      <c r="T60" s="7"/>
+      <c r="T60" s="11"/>
       <c r="U60" s="11"/>
       <c r="V60" s="11"/>
       <c r="W60" s="11"/>
       <c r="X60" s="11"/>
       <c r="Y60" s="11"/>
-      <c r="Z60" s="7" cm="1">
-        <f t="array" ref="Z60">LOOKUP(2,1/(A60:Y60&lt;&gt;""),A60:Y60)</f>
+      <c r="Z60" s="11" cm="1">
+        <f t="array" ref="Z60">LOOKUP(2,1/(B60:Y60&lt;&gt;""),B60:Y60)</f>
         <v>46145</v>
       </c>
       <c r="AA60" s="5" t="str">
@@ -5581,30 +5560,30 @@
         <v>מאי</v>
       </c>
       <c r="AB60" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A61" s="5" t="s">
-        <v>61</v>
+      <c r="A61" s="14">
+        <v>1502</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>149</v>
+        <v>56</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="H61" s="8">
         <v>0.57291666666666574</v>
@@ -5636,20 +5615,20 @@
       <c r="Q61" s="11">
         <v>46131</v>
       </c>
-      <c r="R61" s="7">
+      <c r="R61" s="11">
         <v>46138</v>
       </c>
-      <c r="S61" s="7">
+      <c r="S61" s="11">
         <v>46145</v>
       </c>
-      <c r="T61" s="7"/>
+      <c r="T61" s="11"/>
       <c r="U61" s="11"/>
       <c r="V61" s="11"/>
       <c r="W61" s="11"/>
       <c r="X61" s="11"/>
       <c r="Y61" s="11"/>
-      <c r="Z61" s="7" cm="1">
-        <f t="array" ref="Z61">LOOKUP(2,1/(A61:Y61&lt;&gt;""),A61:Y61)</f>
+      <c r="Z61" s="11" cm="1">
+        <f t="array" ref="Z61">LOOKUP(2,1/(B61:Y61&lt;&gt;""),B61:Y61)</f>
         <v>46145</v>
       </c>
       <c r="AA61" s="5" t="str">
@@ -5657,30 +5636,30 @@
         <v>מאי</v>
       </c>
       <c r="AB61" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A62" s="5" t="s">
-        <v>82</v>
+      <c r="A62" s="14">
+        <v>1511</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>117</v>
+        <v>76</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="H62" s="8">
         <v>0.33333333333333326</v>
@@ -5709,13 +5688,13 @@
       <c r="P62" s="11">
         <v>46071</v>
       </c>
-      <c r="Q62" s="7">
+      <c r="Q62" s="11">
         <v>46078</v>
       </c>
-      <c r="R62" s="7">
+      <c r="R62" s="11">
         <v>46092</v>
       </c>
-      <c r="S62" s="7">
+      <c r="S62" s="11">
         <v>46099</v>
       </c>
       <c r="T62" s="11"/>
@@ -5724,8 +5703,8 @@
       <c r="W62" s="11"/>
       <c r="X62" s="11"/>
       <c r="Y62" s="11"/>
-      <c r="Z62" s="7" cm="1">
-        <f t="array" ref="Z62">LOOKUP(2,1/(A62:Y62&lt;&gt;""),A62:Y62)</f>
+      <c r="Z62" s="11" cm="1">
+        <f t="array" ref="Z62">LOOKUP(2,1/(B62:Y62&lt;&gt;""),B62:Y62)</f>
         <v>46099</v>
       </c>
       <c r="AA62" s="5" t="str">
@@ -5733,30 +5712,30 @@
         <v>מרץ</v>
       </c>
       <c r="AB62" s="14" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A63" s="5" t="s">
-        <v>82</v>
+      <c r="A63" s="14">
+        <v>1511</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>117</v>
+        <v>76</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="H63" s="8">
         <v>0.4166666666666663</v>
@@ -5794,14 +5773,14 @@
       <c r="S63" s="11">
         <v>46099</v>
       </c>
-      <c r="T63" s="7"/>
+      <c r="T63" s="11"/>
       <c r="U63" s="11"/>
       <c r="V63" s="11"/>
       <c r="W63" s="11"/>
       <c r="X63" s="11"/>
       <c r="Y63" s="11"/>
-      <c r="Z63" s="7" cm="1">
-        <f t="array" ref="Z63">LOOKUP(2,1/(A63:Y63&lt;&gt;""),A63:Y63)</f>
+      <c r="Z63" s="11" cm="1">
+        <f t="array" ref="Z63">LOOKUP(2,1/(B63:Y63&lt;&gt;""),B63:Y63)</f>
         <v>46099</v>
       </c>
       <c r="AA63" s="5" t="str">
@@ -5809,30 +5788,30 @@
         <v>מרץ</v>
       </c>
       <c r="AB63" s="14" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A64" s="5" t="s">
-        <v>61</v>
+      <c r="A64" s="14">
+        <v>1502</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>85</v>
+        <v>56</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="H64" s="8">
         <v>0.36805555555555536</v>
@@ -5866,14 +5845,14 @@
       </c>
       <c r="R64" s="11"/>
       <c r="S64" s="11"/>
-      <c r="T64" s="7"/>
+      <c r="T64" s="11"/>
       <c r="U64" s="11"/>
       <c r="V64" s="11"/>
       <c r="W64" s="11"/>
       <c r="X64" s="11"/>
       <c r="Y64" s="11"/>
-      <c r="Z64" s="7" cm="1">
-        <f t="array" ref="Z64">LOOKUP(2,1/(A64:Y64&lt;&gt;""),A64:Y64)</f>
+      <c r="Z64" s="11" cm="1">
+        <f t="array" ref="Z64">LOOKUP(2,1/(B64:Y64&lt;&gt;""),B64:Y64)</f>
         <v>46125</v>
       </c>
       <c r="AA64" s="5" t="str">
@@ -5881,30 +5860,30 @@
         <v>אפריל</v>
       </c>
       <c r="AB64" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A65" s="5" t="s">
-        <v>61</v>
+      <c r="A65" s="14">
+        <v>1502</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>85</v>
+        <v>56</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="H65" s="8">
         <v>0.45833333333333282</v>
@@ -5942,7 +5921,7 @@
       <c r="S65" s="11">
         <v>46033</v>
       </c>
-      <c r="T65" s="7">
+      <c r="T65" s="11">
         <v>46037</v>
       </c>
       <c r="U65" s="11">
@@ -5960,8 +5939,8 @@
       <c r="Y65" s="11">
         <v>46064</v>
       </c>
-      <c r="Z65" s="7" cm="1">
-        <f t="array" ref="Z65">LOOKUP(2,1/(A65:Y65&lt;&gt;""),A65:Y65)</f>
+      <c r="Z65" s="11" cm="1">
+        <f t="array" ref="Z65">LOOKUP(2,1/(B65:Y65&lt;&gt;""),B65:Y65)</f>
         <v>46064</v>
       </c>
       <c r="AA65" s="5" t="str">
@@ -5969,30 +5948,30 @@
         <v>פברואר</v>
       </c>
       <c r="AB65" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A66" s="5" t="s">
-        <v>68</v>
+      <c r="A66" s="14">
+        <v>1514</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H66" s="8">
         <v>0.63541666666666552</v>
@@ -6046,8 +6025,8 @@
         <v>46191</v>
       </c>
       <c r="Y66" s="11"/>
-      <c r="Z66" s="7" cm="1">
-        <f t="array" ref="Z66">LOOKUP(2,1/(A66:Y66&lt;&gt;""),A66:Y66)</f>
+      <c r="Z66" s="11" cm="1">
+        <f t="array" ref="Z66">LOOKUP(2,1/(B66:Y66&lt;&gt;""),B66:Y66)</f>
         <v>46191</v>
       </c>
       <c r="AA66" s="5" t="str">
@@ -6055,30 +6034,30 @@
         <v>יוני</v>
       </c>
       <c r="AB66" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A67" s="5" t="s">
-        <v>68</v>
+      <c r="A67" s="14">
+        <v>1514</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H67" s="8">
         <v>0.58333333333333237</v>
@@ -6132,8 +6111,8 @@
         <v>46191</v>
       </c>
       <c r="Y67" s="11"/>
-      <c r="Z67" s="7" cm="1">
-        <f t="array" ref="Z67">LOOKUP(2,1/(A67:Y67&lt;&gt;""),A67:Y67)</f>
+      <c r="Z67" s="11" cm="1">
+        <f t="array" ref="Z67">LOOKUP(2,1/(B67:Y67&lt;&gt;""),B67:Y67)</f>
         <v>46191</v>
       </c>
       <c r="AA67" s="5" t="str">
@@ -6141,30 +6120,30 @@
         <v>יוני</v>
       </c>
       <c r="AB67" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A68" s="5" t="s">
-        <v>47</v>
+      <c r="A68" s="14">
+        <v>1503</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>76</v>
+        <v>44</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H68" s="8">
         <v>0.36458333333333315</v>
@@ -6202,14 +6181,14 @@
       <c r="S68" s="11">
         <v>46121</v>
       </c>
-      <c r="T68" s="7"/>
+      <c r="T68" s="11"/>
       <c r="U68" s="11"/>
       <c r="V68" s="11"/>
       <c r="W68" s="11"/>
       <c r="X68" s="11"/>
       <c r="Y68" s="11"/>
-      <c r="Z68" s="7" cm="1">
-        <f t="array" ref="Z68">LOOKUP(2,1/(A68:Y68&lt;&gt;""),A68:Y68)</f>
+      <c r="Z68" s="11" cm="1">
+        <f t="array" ref="Z68">LOOKUP(2,1/(B68:Y68&lt;&gt;""),B68:Y68)</f>
         <v>46121</v>
       </c>
       <c r="AA68" s="5" t="str">
@@ -6217,30 +6196,30 @@
         <v>אפריל</v>
       </c>
       <c r="AB68" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A69" s="5" t="s">
-        <v>47</v>
+      <c r="A69" s="14">
+        <v>1503</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>76</v>
+        <v>44</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H69" s="8">
         <v>0.36458333333333315</v>
@@ -6278,14 +6257,14 @@
       <c r="S69" s="11">
         <v>46121</v>
       </c>
-      <c r="T69" s="7"/>
+      <c r="T69" s="11"/>
       <c r="U69" s="11"/>
       <c r="V69" s="11"/>
       <c r="W69" s="11"/>
       <c r="X69" s="11"/>
       <c r="Y69" s="11"/>
-      <c r="Z69" s="7" cm="1">
-        <f t="array" ref="Z69">LOOKUP(2,1/(A69:Y69&lt;&gt;""),A69:Y69)</f>
+      <c r="Z69" s="11" cm="1">
+        <f t="array" ref="Z69">LOOKUP(2,1/(B69:Y69&lt;&gt;""),B69:Y69)</f>
         <v>46121</v>
       </c>
       <c r="AA69" s="5" t="str">
@@ -6293,30 +6272,30 @@
         <v>אפריל</v>
       </c>
       <c r="AB69" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A70" s="5" t="s">
-        <v>47</v>
+      <c r="A70" s="14">
+        <v>1503</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>76</v>
+        <v>44</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H70" s="8">
         <v>0.36458333333333315</v>
@@ -6348,20 +6327,20 @@
       <c r="Q70" s="11">
         <v>46093</v>
       </c>
-      <c r="R70" s="7">
+      <c r="R70" s="11">
         <v>46100</v>
       </c>
-      <c r="S70" s="7">
+      <c r="S70" s="11">
         <v>46121</v>
       </c>
-      <c r="T70" s="7"/>
-      <c r="U70" s="7"/>
-      <c r="V70" s="7"/>
-      <c r="W70" s="7"/>
+      <c r="T70" s="11"/>
+      <c r="U70" s="11"/>
+      <c r="V70" s="11"/>
+      <c r="W70" s="11"/>
       <c r="X70" s="11"/>
       <c r="Y70" s="11"/>
-      <c r="Z70" s="7" cm="1">
-        <f t="array" ref="Z70">LOOKUP(2,1/(A70:Y70&lt;&gt;""),A70:Y70)</f>
+      <c r="Z70" s="11" cm="1">
+        <f t="array" ref="Z70">LOOKUP(2,1/(B70:Y70&lt;&gt;""),B70:Y70)</f>
         <v>46121</v>
       </c>
       <c r="AA70" s="5" t="str">
@@ -6369,30 +6348,30 @@
         <v>אפריל</v>
       </c>
       <c r="AB70" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A71" s="5" t="s">
-        <v>53</v>
+      <c r="A71" s="14">
+        <v>1501</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>128</v>
+        <v>49</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="H71" s="8">
         <v>0.55208333333333248</v>
@@ -6424,20 +6403,20 @@
       <c r="Q71" s="11">
         <v>46131</v>
       </c>
-      <c r="R71" s="7">
+      <c r="R71" s="11">
         <v>46138</v>
       </c>
-      <c r="S71" s="7">
+      <c r="S71" s="11">
         <v>46145</v>
       </c>
-      <c r="T71" s="7"/>
+      <c r="T71" s="11"/>
       <c r="U71" s="11"/>
       <c r="V71" s="11"/>
       <c r="W71" s="11"/>
       <c r="X71" s="11"/>
       <c r="Y71" s="11"/>
-      <c r="Z71" s="7" cm="1">
-        <f t="array" ref="Z71">LOOKUP(2,1/(A71:Y71&lt;&gt;""),A71:Y71)</f>
+      <c r="Z71" s="11" cm="1">
+        <f t="array" ref="Z71">LOOKUP(2,1/(B71:Y71&lt;&gt;""),B71:Y71)</f>
         <v>46145</v>
       </c>
       <c r="AA71" s="5" t="str">
@@ -6445,30 +6424,30 @@
         <v>מאי</v>
       </c>
       <c r="AB71" s="14" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A72" s="5" t="s">
-        <v>73</v>
+      <c r="A72" s="14">
+        <v>1505</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="H72" s="8">
         <v>0.58333333333333237</v>
@@ -6497,13 +6476,13 @@
       <c r="P72" s="11">
         <v>46005</v>
       </c>
-      <c r="Q72" s="7">
+      <c r="Q72" s="11">
         <v>46019</v>
       </c>
-      <c r="R72" s="7">
+      <c r="R72" s="11">
         <v>46026</v>
       </c>
-      <c r="S72" s="7">
+      <c r="S72" s="11">
         <v>46033</v>
       </c>
       <c r="T72" s="11">
@@ -6520,8 +6499,8 @@
       </c>
       <c r="X72" s="11"/>
       <c r="Y72" s="11"/>
-      <c r="Z72" s="7" cm="1">
-        <f t="array" ref="Z72">LOOKUP(2,1/(A72:Y72&lt;&gt;""),A72:Y72)</f>
+      <c r="Z72" s="11" cm="1">
+        <f t="array" ref="Z72">LOOKUP(2,1/(B72:Y72&lt;&gt;""),B72:Y72)</f>
         <v>46061</v>
       </c>
       <c r="AA72" s="5" t="str">
@@ -6529,30 +6508,30 @@
         <v>פברואר</v>
       </c>
       <c r="AB72" s="14" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A73" s="5" t="s">
-        <v>43</v>
+      <c r="A73" s="14">
+        <v>1507</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>78</v>
+        <v>40</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="H73" s="8">
         <v>0.51041666666666596</v>
@@ -6581,13 +6560,13 @@
       <c r="P73" s="11">
         <v>46049</v>
       </c>
-      <c r="Q73" s="7">
+      <c r="Q73" s="11">
         <v>46056</v>
       </c>
-      <c r="R73" s="7">
+      <c r="R73" s="11">
         <v>46063</v>
       </c>
-      <c r="S73" s="7">
+      <c r="S73" s="11">
         <v>46070</v>
       </c>
       <c r="T73" s="11">
@@ -6604,8 +6583,8 @@
       </c>
       <c r="X73" s="11"/>
       <c r="Y73" s="11"/>
-      <c r="Z73" s="7" cm="1">
-        <f t="array" ref="Z73">LOOKUP(2,1/(A73:Y73&lt;&gt;""),A73:Y73)</f>
+      <c r="Z73" s="11" cm="1">
+        <f t="array" ref="Z73">LOOKUP(2,1/(B73:Y73&lt;&gt;""),B73:Y73)</f>
         <v>46105</v>
       </c>
       <c r="AA73" s="5" t="str">
@@ -6613,30 +6592,30 @@
         <v>מרץ</v>
       </c>
       <c r="AB73" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A74" s="5" t="s">
-        <v>43</v>
+      <c r="A74" s="14">
+        <v>1507</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>78</v>
+        <v>40</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="H74" s="8">
         <v>0.42708333333333293</v>
@@ -6674,14 +6653,14 @@
       <c r="S74" s="11">
         <v>46124</v>
       </c>
-      <c r="T74" s="7"/>
+      <c r="T74" s="11"/>
       <c r="U74" s="11"/>
       <c r="V74" s="11"/>
       <c r="W74" s="11"/>
       <c r="X74" s="11"/>
       <c r="Y74" s="11"/>
-      <c r="Z74" s="7" cm="1">
-        <f t="array" ref="Z74">LOOKUP(2,1/(A74:Y74&lt;&gt;""),A74:Y74)</f>
+      <c r="Z74" s="11" cm="1">
+        <f t="array" ref="Z74">LOOKUP(2,1/(B74:Y74&lt;&gt;""),B74:Y74)</f>
         <v>46124</v>
       </c>
       <c r="AA74" s="5" t="str">
@@ -6689,30 +6668,30 @@
         <v>אפריל</v>
       </c>
       <c r="AB74" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A75" s="5" t="s">
-        <v>87</v>
+      <c r="A75" s="14">
+        <v>1504</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="H75" s="8">
         <v>0.33333333333333326</v>
@@ -6741,23 +6720,23 @@
       <c r="P75" s="11">
         <v>46078</v>
       </c>
-      <c r="Q75" s="7">
+      <c r="Q75" s="11">
         <v>46092</v>
       </c>
-      <c r="R75" s="7">
+      <c r="R75" s="11">
         <v>46099</v>
       </c>
-      <c r="S75" s="7">
+      <c r="S75" s="11">
         <v>46127</v>
       </c>
-      <c r="T75" s="7"/>
+      <c r="T75" s="11"/>
       <c r="U75" s="11"/>
       <c r="V75" s="11"/>
       <c r="W75" s="11"/>
       <c r="X75" s="11"/>
       <c r="Y75" s="11"/>
-      <c r="Z75" s="7" cm="1">
-        <f t="array" ref="Z75">LOOKUP(2,1/(A75:Y75&lt;&gt;""),A75:Y75)</f>
+      <c r="Z75" s="11" cm="1">
+        <f t="array" ref="Z75">LOOKUP(2,1/(B75:Y75&lt;&gt;""),B75:Y75)</f>
         <v>46127</v>
       </c>
       <c r="AA75" s="5" t="str">
@@ -6765,30 +6744,30 @@
         <v>אפריל</v>
       </c>
       <c r="AB75" s="14" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A76" s="5" t="s">
-        <v>87</v>
+      <c r="A76" s="14">
+        <v>1504</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>57</v>
+        <v>81</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H76" s="8">
         <v>0.49999999999999933</v>
@@ -6840,8 +6819,8 @@
       </c>
       <c r="X76" s="11"/>
       <c r="Y76" s="11"/>
-      <c r="Z76" s="7" cm="1">
-        <f t="array" ref="Z76">LOOKUP(2,1/(A76:Y76&lt;&gt;""),A76:Y76)</f>
+      <c r="Z76" s="11" cm="1">
+        <f t="array" ref="Z76">LOOKUP(2,1/(B76:Y76&lt;&gt;""),B76:Y76)</f>
         <v>46197</v>
       </c>
       <c r="AA76" s="5" t="str">
@@ -6849,30 +6828,30 @@
         <v>יוני</v>
       </c>
       <c r="AB76" s="14" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A77" s="5" t="s">
-        <v>34</v>
+      <c r="A77" s="14">
+        <v>1513</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>57</v>
+        <v>32</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H77" s="8">
         <v>0.49999999999999933</v>
@@ -6901,13 +6880,13 @@
       <c r="P77" s="11">
         <v>46029</v>
       </c>
-      <c r="Q77" s="7">
+      <c r="Q77" s="11">
         <v>46036</v>
       </c>
-      <c r="R77" s="7">
+      <c r="R77" s="11">
         <v>46043</v>
       </c>
-      <c r="S77" s="7">
+      <c r="S77" s="11">
         <v>46050</v>
       </c>
       <c r="T77" s="11">
@@ -6918,8 +6897,8 @@
       <c r="W77" s="11"/>
       <c r="X77" s="11"/>
       <c r="Y77" s="11"/>
-      <c r="Z77" s="7" cm="1">
-        <f t="array" ref="Z77">LOOKUP(2,1/(A77:Y77&lt;&gt;""),A77:Y77)</f>
+      <c r="Z77" s="11" cm="1">
+        <f t="array" ref="Z77">LOOKUP(2,1/(B77:Y77&lt;&gt;""),B77:Y77)</f>
         <v>46057</v>
       </c>
       <c r="AA77" s="5" t="str">
@@ -6927,30 +6906,30 @@
         <v>פברואר</v>
       </c>
       <c r="AB77" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A78" s="5" t="s">
-        <v>64</v>
+      <c r="A78" s="14">
+        <v>1516</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H78" s="8">
         <v>0.57291666666666574</v>
@@ -6979,13 +6958,13 @@
       <c r="P78" s="11">
         <v>46099</v>
       </c>
-      <c r="Q78" s="7">
+      <c r="Q78" s="11">
         <v>46127</v>
       </c>
-      <c r="R78" s="7">
+      <c r="R78" s="11">
         <v>46141</v>
       </c>
-      <c r="S78" s="7">
+      <c r="S78" s="11">
         <v>46148</v>
       </c>
       <c r="T78" s="11"/>
@@ -6994,8 +6973,8 @@
       <c r="W78" s="11"/>
       <c r="X78" s="11"/>
       <c r="Y78" s="11"/>
-      <c r="Z78" s="7" cm="1">
-        <f t="array" ref="Z78">LOOKUP(2,1/(A78:Y78&lt;&gt;""),A78:Y78)</f>
+      <c r="Z78" s="11" cm="1">
+        <f t="array" ref="Z78">LOOKUP(2,1/(B78:Y78&lt;&gt;""),B78:Y78)</f>
         <v>46148</v>
       </c>
       <c r="AA78" s="5" t="str">
@@ -7003,27 +6982,27 @@
         <v>מאי</v>
       </c>
       <c r="AB78" s="14" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A79" s="5" t="s">
-        <v>53</v>
+      <c r="A79" s="14">
+        <v>1501</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>52</v>
@@ -7055,16 +7034,16 @@
       <c r="P79" s="11">
         <v>46000</v>
       </c>
-      <c r="Q79" s="7">
+      <c r="Q79" s="11">
         <v>46014</v>
       </c>
-      <c r="R79" s="7">
+      <c r="R79" s="11">
         <v>46021</v>
       </c>
-      <c r="S79" s="7">
+      <c r="S79" s="11">
         <v>46035</v>
       </c>
-      <c r="T79" s="7">
+      <c r="T79" s="11">
         <v>46042</v>
       </c>
       <c r="U79" s="11">
@@ -7076,8 +7055,8 @@
       <c r="W79" s="11"/>
       <c r="X79" s="11"/>
       <c r="Y79" s="11"/>
-      <c r="Z79" s="7" cm="1">
-        <f t="array" ref="Z79">LOOKUP(2,1/(A79:Y79&lt;&gt;""),A79:Y79)</f>
+      <c r="Z79" s="11" cm="1">
+        <f t="array" ref="Z79">LOOKUP(2,1/(B79:Y79&lt;&gt;""),B79:Y79)</f>
         <v>46056</v>
       </c>
       <c r="AA79" s="5" t="str">
@@ -7085,30 +7064,30 @@
         <v>פברואר</v>
       </c>
       <c r="AB79" s="14" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A80" s="5" t="s">
-        <v>87</v>
+      <c r="A80" s="14">
+        <v>1504</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>140</v>
+        <v>81</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="H80" s="8">
         <v>0.34374999999999989</v>
@@ -7156,8 +7135,8 @@
       <c r="W80" s="11"/>
       <c r="X80" s="11"/>
       <c r="Y80" s="11"/>
-      <c r="Z80" s="7" cm="1">
-        <f t="array" ref="Z80">LOOKUP(2,1/(A80:Y80&lt;&gt;""),A80:Y80)</f>
+      <c r="Z80" s="11" cm="1">
+        <f t="array" ref="Z80">LOOKUP(2,1/(B80:Y80&lt;&gt;""),B80:Y80)</f>
         <v>46139</v>
       </c>
       <c r="AA80" s="5" t="str">
@@ -7165,30 +7144,30 @@
         <v>אפריל</v>
       </c>
       <c r="AB80" s="14" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A81" s="5" t="s">
-        <v>122</v>
+      <c r="A81" s="14">
+        <v>1506</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D81" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G81" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="H81" s="8">
         <v>0.33333333333333326</v>
@@ -7232,8 +7211,8 @@
       <c r="W81" s="11"/>
       <c r="X81" s="11"/>
       <c r="Y81" s="11"/>
-      <c r="Z81" s="7" cm="1">
-        <f t="array" ref="Z81">LOOKUP(2,1/(A81:Y81&lt;&gt;""),A81:Y81)</f>
+      <c r="Z81" s="11" cm="1">
+        <f t="array" ref="Z81">LOOKUP(2,1/(B81:Y81&lt;&gt;""),B81:Y81)</f>
         <v>46161</v>
       </c>
       <c r="AA81" s="5" t="str">
@@ -7241,30 +7220,30 @@
         <v>מאי</v>
       </c>
       <c r="AB81" s="14" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A82" s="5" t="s">
-        <v>122</v>
+      <c r="A82" s="14">
+        <v>1506</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D82" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G82" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="H82" s="8">
         <v>0.4166666666666663</v>
@@ -7308,8 +7287,8 @@
       <c r="W82" s="11"/>
       <c r="X82" s="11"/>
       <c r="Y82" s="11"/>
-      <c r="Z82" s="7" cm="1">
-        <f t="array" ref="Z82">LOOKUP(2,1/(A82:Y82&lt;&gt;""),A82:Y82)</f>
+      <c r="Z82" s="11" cm="1">
+        <f t="array" ref="Z82">LOOKUP(2,1/(B82:Y82&lt;&gt;""),B82:Y82)</f>
         <v>46161</v>
       </c>
       <c r="AA82" s="5" t="str">
@@ -7317,30 +7296,30 @@
         <v>מאי</v>
       </c>
       <c r="AB82" s="14" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A83" s="5" t="s">
-        <v>122</v>
+      <c r="A83" s="14">
+        <v>1506</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D83" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G83" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="H83" s="8">
         <v>0.33333333333333326</v>
@@ -7384,8 +7363,8 @@
       <c r="W83" s="11"/>
       <c r="X83" s="11"/>
       <c r="Y83" s="11"/>
-      <c r="Z83" s="7" cm="1">
-        <f t="array" ref="Z83">LOOKUP(2,1/(A83:Y83&lt;&gt;""),A83:Y83)</f>
+      <c r="Z83" s="11" cm="1">
+        <f t="array" ref="Z83">LOOKUP(2,1/(B83:Y83&lt;&gt;""),B83:Y83)</f>
         <v>46162</v>
       </c>
       <c r="AA83" s="5" t="str">
@@ -7393,30 +7372,30 @@
         <v>מאי</v>
       </c>
       <c r="AB83" s="14" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A84" s="5" t="s">
-        <v>122</v>
+      <c r="A84" s="14">
+        <v>1506</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D84" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G84" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="H84" s="8">
         <v>0.4166666666666663</v>
@@ -7460,8 +7439,8 @@
       <c r="W84" s="11"/>
       <c r="X84" s="11"/>
       <c r="Y84" s="11"/>
-      <c r="Z84" s="7" cm="1">
-        <f t="array" ref="Z84">LOOKUP(2,1/(A84:Y84&lt;&gt;""),A84:Y84)</f>
+      <c r="Z84" s="11" cm="1">
+        <f t="array" ref="Z84">LOOKUP(2,1/(B84:Y84&lt;&gt;""),B84:Y84)</f>
         <v>46162</v>
       </c>
       <c r="AA84" s="5" t="str">
@@ -7469,30 +7448,30 @@
         <v>מאי</v>
       </c>
       <c r="AB84" s="14" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A85" s="5" t="s">
-        <v>122</v>
+      <c r="A85" s="14">
+        <v>1506</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="H85" s="8">
         <v>0.42708333333333293</v>
@@ -7532,8 +7511,8 @@
       <c r="W85" s="11"/>
       <c r="X85" s="11"/>
       <c r="Y85" s="11"/>
-      <c r="Z85" s="7" cm="1">
-        <f t="array" ref="Z85">LOOKUP(2,1/(A85:Y85&lt;&gt;""),A85:Y85)</f>
+      <c r="Z85" s="11" cm="1">
+        <f t="array" ref="Z85">LOOKUP(2,1/(B85:Y85&lt;&gt;""),B85:Y85)</f>
         <v>46072</v>
       </c>
       <c r="AA85" s="5" t="str">
@@ -7541,30 +7520,30 @@
         <v>פברואר</v>
       </c>
       <c r="AB85" s="14" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A86" s="5" t="s">
-        <v>122</v>
+      <c r="A86" s="14">
+        <v>1506</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="H86" s="8">
         <v>0.33333333333333326</v>
@@ -7598,14 +7577,14 @@
       </c>
       <c r="R86" s="11"/>
       <c r="S86" s="11"/>
-      <c r="T86" s="7"/>
+      <c r="T86" s="11"/>
       <c r="U86" s="11"/>
       <c r="V86" s="11"/>
       <c r="W86" s="11"/>
       <c r="X86" s="11"/>
       <c r="Y86" s="11"/>
-      <c r="Z86" s="7" cm="1">
-        <f t="array" ref="Z86">LOOKUP(2,1/(A86:Y86&lt;&gt;""),A86:Y86)</f>
+      <c r="Z86" s="11" cm="1">
+        <f t="array" ref="Z86">LOOKUP(2,1/(B86:Y86&lt;&gt;""),B86:Y86)</f>
         <v>46072</v>
       </c>
       <c r="AA86" s="5" t="str">
@@ -7613,30 +7592,30 @@
         <v>פברואר</v>
       </c>
       <c r="AB86" s="14" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A87" s="5" t="s">
-        <v>87</v>
+      <c r="A87" s="14">
+        <v>1504</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="H87" s="8">
         <v>0.54166666666666585</v>
@@ -7674,7 +7653,7 @@
       <c r="S87" s="11">
         <v>46145</v>
       </c>
-      <c r="T87" s="7">
+      <c r="T87" s="11">
         <v>46152</v>
       </c>
       <c r="U87" s="11"/>
@@ -7682,8 +7661,8 @@
       <c r="W87" s="11"/>
       <c r="X87" s="11"/>
       <c r="Y87" s="11"/>
-      <c r="Z87" s="7" cm="1">
-        <f t="array" ref="Z87">LOOKUP(2,1/(A87:Y87&lt;&gt;""),A87:Y87)</f>
+      <c r="Z87" s="11" cm="1">
+        <f t="array" ref="Z87">LOOKUP(2,1/(B87:Y87&lt;&gt;""),B87:Y87)</f>
         <v>46152</v>
       </c>
       <c r="AA87" s="5" t="str">
@@ -7691,30 +7670,30 @@
         <v>מאי</v>
       </c>
       <c r="AB87" s="14" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A88" s="5" t="s">
-        <v>87</v>
+      <c r="A88" s="14">
+        <v>1504</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="H88" s="8">
         <v>0.54166666666666585</v>
@@ -7758,8 +7737,8 @@
       <c r="W88" s="11"/>
       <c r="X88" s="11"/>
       <c r="Y88" s="11"/>
-      <c r="Z88" s="7" cm="1">
-        <f t="array" ref="Z88">LOOKUP(2,1/(A88:Y88&lt;&gt;""),A88:Y88)</f>
+      <c r="Z88" s="11" cm="1">
+        <f t="array" ref="Z88">LOOKUP(2,1/(B88:Y88&lt;&gt;""),B88:Y88)</f>
         <v>46064</v>
       </c>
       <c r="AA88" s="5" t="str">
@@ -7767,30 +7746,30 @@
         <v>פברואר</v>
       </c>
       <c r="AB88" s="14" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A89" s="5" t="s">
-        <v>68</v>
+      <c r="A89" s="14">
+        <v>1514</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>91</v>
+        <v>63</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="H89" s="8">
         <v>0.34374999999999989</v>
@@ -7819,13 +7798,13 @@
       <c r="P89" s="11">
         <v>46030</v>
       </c>
-      <c r="Q89" s="7">
+      <c r="Q89" s="11">
         <v>46037</v>
       </c>
-      <c r="R89" s="7">
+      <c r="R89" s="11">
         <v>46044</v>
       </c>
-      <c r="S89" s="7">
+      <c r="S89" s="11">
         <v>46051</v>
       </c>
       <c r="T89" s="11">
@@ -7840,8 +7819,8 @@
       <c r="W89" s="11"/>
       <c r="X89" s="11"/>
       <c r="Y89" s="11"/>
-      <c r="Z89" s="7" cm="1">
-        <f t="array" ref="Z89">LOOKUP(2,1/(A89:Y89&lt;&gt;""),A89:Y89)</f>
+      <c r="Z89" s="11" cm="1">
+        <f t="array" ref="Z89">LOOKUP(2,1/(B89:Y89&lt;&gt;""),B89:Y89)</f>
         <v>46065</v>
       </c>
       <c r="AA89" s="5" t="str">
@@ -7849,30 +7828,30 @@
         <v>פברואר</v>
       </c>
       <c r="AB89" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A90" s="5" t="s">
-        <v>90</v>
+      <c r="A90" s="14">
+        <v>1510</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="H90" s="8">
         <v>0.43055555555555514</v>
@@ -7901,10 +7880,10 @@
       <c r="P90" s="11">
         <v>46050</v>
       </c>
-      <c r="Q90" s="7">
+      <c r="Q90" s="11">
         <v>46064</v>
       </c>
-      <c r="R90" s="7"/>
+      <c r="R90" s="11"/>
       <c r="S90" s="11"/>
       <c r="T90" s="11"/>
       <c r="U90" s="11"/>
@@ -7912,8 +7891,8 @@
       <c r="W90" s="11"/>
       <c r="X90" s="11"/>
       <c r="Y90" s="11"/>
-      <c r="Z90" s="7" cm="1">
-        <f t="array" ref="Z90">LOOKUP(2,1/(A90:Y90&lt;&gt;""),A90:Y90)</f>
+      <c r="Z90" s="11" cm="1">
+        <f t="array" ref="Z90">LOOKUP(2,1/(B90:Y90&lt;&gt;""),B90:Y90)</f>
         <v>46064</v>
       </c>
       <c r="AA90" s="5" t="str">
@@ -7921,30 +7900,30 @@
         <v>פברואר</v>
       </c>
       <c r="AB90" s="14" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A91" s="5" t="s">
-        <v>90</v>
+      <c r="A91" s="14">
+        <v>1510</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="H91" s="8">
         <v>0.49999999999999933</v>
@@ -7973,10 +7952,10 @@
       <c r="P91" s="11">
         <v>46043</v>
       </c>
-      <c r="Q91" s="7">
+      <c r="Q91" s="11">
         <v>46050</v>
       </c>
-      <c r="R91" s="7">
+      <c r="R91" s="11">
         <v>46064</v>
       </c>
       <c r="S91" s="11">
@@ -7988,8 +7967,8 @@
       <c r="W91" s="11"/>
       <c r="X91" s="11"/>
       <c r="Y91" s="11"/>
-      <c r="Z91" s="7" cm="1">
-        <f t="array" ref="Z91">LOOKUP(2,1/(A91:Y91&lt;&gt;""),A91:Y91)</f>
+      <c r="Z91" s="11" cm="1">
+        <f t="array" ref="Z91">LOOKUP(2,1/(B91:Y91&lt;&gt;""),B91:Y91)</f>
         <v>46078</v>
       </c>
       <c r="AA91" s="5" t="str">
@@ -7997,30 +7976,30 @@
         <v>פברואר</v>
       </c>
       <c r="AB91" s="14" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A92" s="5" t="s">
-        <v>73</v>
+      <c r="A92" s="14">
+        <v>1505</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>91</v>
+        <v>67</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="H92" s="8">
         <v>0.48611111111111049</v>
@@ -8049,10 +8028,10 @@
       <c r="P92" s="11">
         <v>46159</v>
       </c>
-      <c r="Q92" s="7">
+      <c r="Q92" s="11">
         <v>46166</v>
       </c>
-      <c r="R92" s="7"/>
+      <c r="R92" s="11"/>
       <c r="S92" s="11"/>
       <c r="T92" s="11"/>
       <c r="U92" s="11"/>
@@ -8060,8 +8039,8 @@
       <c r="W92" s="11"/>
       <c r="X92" s="11"/>
       <c r="Y92" s="11"/>
-      <c r="Z92" s="7" cm="1">
-        <f t="array" ref="Z92">LOOKUP(2,1/(A92:Y92&lt;&gt;""),A92:Y92)</f>
+      <c r="Z92" s="11" cm="1">
+        <f t="array" ref="Z92">LOOKUP(2,1/(B92:Y92&lt;&gt;""),B92:Y92)</f>
         <v>46166</v>
       </c>
       <c r="AA92" s="5" t="str">
@@ -8069,28 +8048,26 @@
         <v>מאי</v>
       </c>
       <c r="AB92" s="14" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>91</v>
+      <c r="A93" s="14"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="H93" s="8">
         <v>0.33333333333333326</v>
@@ -8119,10 +8096,10 @@
       <c r="P93" s="11">
         <v>46160</v>
       </c>
-      <c r="Q93" s="7">
+      <c r="Q93" s="11">
         <v>46167</v>
       </c>
-      <c r="R93" s="7"/>
+      <c r="R93" s="11"/>
       <c r="S93" s="11"/>
       <c r="T93" s="11"/>
       <c r="U93" s="11"/>
@@ -8130,8 +8107,8 @@
       <c r="W93" s="11"/>
       <c r="X93" s="11"/>
       <c r="Y93" s="11"/>
-      <c r="Z93" s="7" cm="1">
-        <f t="array" ref="Z93">LOOKUP(2,1/(A93:Y93&lt;&gt;""),A93:Y93)</f>
+      <c r="Z93" s="11" cm="1">
+        <f t="array" ref="Z93">LOOKUP(2,1/(B93:Y93&lt;&gt;""),B93:Y93)</f>
         <v>46167</v>
       </c>
       <c r="AA93" s="5" t="str">
@@ -8141,26 +8118,26 @@
       <c r="AB93" s="14"/>
     </row>
     <row r="94" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A94" s="5" t="s">
-        <v>73</v>
+      <c r="A94" s="14">
+        <v>1505</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>91</v>
+        <v>67</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="H94" s="8">
         <v>0.40972222222222188</v>
@@ -8189,10 +8166,10 @@
       <c r="P94" s="11">
         <v>46142</v>
       </c>
-      <c r="Q94" s="7">
+      <c r="Q94" s="11">
         <v>46149</v>
       </c>
-      <c r="R94" s="7"/>
+      <c r="R94" s="11"/>
       <c r="S94" s="11"/>
       <c r="T94" s="11"/>
       <c r="U94" s="11"/>
@@ -8200,8 +8177,8 @@
       <c r="W94" s="11"/>
       <c r="X94" s="11"/>
       <c r="Y94" s="11"/>
-      <c r="Z94" s="7" cm="1">
-        <f t="array" ref="Z94">LOOKUP(2,1/(A94:Y94&lt;&gt;""),A94:Y94)</f>
+      <c r="Z94" s="11" cm="1">
+        <f t="array" ref="Z94">LOOKUP(2,1/(B94:Y94&lt;&gt;""),B94:Y94)</f>
         <v>46149</v>
       </c>
       <c r="AA94" s="5" t="str">
@@ -8209,30 +8186,30 @@
         <v>מאי</v>
       </c>
       <c r="AB94" s="14" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="95" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A95" s="5" t="s">
-        <v>73</v>
+      <c r="A95" s="14">
+        <v>1505</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>91</v>
+        <v>67</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="H95" s="8">
         <v>0.48611111111111049</v>
@@ -8261,10 +8238,10 @@
       <c r="P95" s="11">
         <v>46142</v>
       </c>
-      <c r="Q95" s="7">
+      <c r="Q95" s="11">
         <v>46149</v>
       </c>
-      <c r="R95" s="7"/>
+      <c r="R95" s="11"/>
       <c r="S95" s="11"/>
       <c r="T95" s="11"/>
       <c r="U95" s="11"/>
@@ -8272,8 +8249,8 @@
       <c r="W95" s="11"/>
       <c r="X95" s="11"/>
       <c r="Y95" s="11"/>
-      <c r="Z95" s="7" cm="1">
-        <f t="array" ref="Z95">LOOKUP(2,1/(A95:Y95&lt;&gt;""),A95:Y95)</f>
+      <c r="Z95" s="11" cm="1">
+        <f t="array" ref="Z95">LOOKUP(2,1/(B95:Y95&lt;&gt;""),B95:Y95)</f>
         <v>46149</v>
       </c>
       <c r="AA95" s="5" t="str">
@@ -8281,30 +8258,30 @@
         <v>מאי</v>
       </c>
       <c r="AB95" s="14" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="96" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A96" s="5" t="s">
-        <v>94</v>
+      <c r="A96" s="14">
+        <v>1519</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="H96" s="8">
         <v>0.58333333333333237</v>
@@ -8333,10 +8310,10 @@
       <c r="P96" s="11">
         <v>46065</v>
       </c>
-      <c r="Q96" s="7">
+      <c r="Q96" s="11">
         <v>46072</v>
       </c>
-      <c r="R96" s="7"/>
+      <c r="R96" s="11"/>
       <c r="S96" s="11"/>
       <c r="T96" s="11"/>
       <c r="U96" s="11"/>
@@ -8344,8 +8321,8 @@
       <c r="W96" s="11"/>
       <c r="X96" s="11"/>
       <c r="Y96" s="11"/>
-      <c r="Z96" s="7" cm="1">
-        <f t="array" ref="Z96">LOOKUP(2,1/(A96:Y96&lt;&gt;""),A96:Y96)</f>
+      <c r="Z96" s="11" cm="1">
+        <f t="array" ref="Z96">LOOKUP(2,1/(B96:Y96&lt;&gt;""),B96:Y96)</f>
         <v>46072</v>
       </c>
       <c r="AA96" s="5" t="str">
@@ -8353,30 +8330,30 @@
         <v>פברואר</v>
       </c>
       <c r="AB96" s="14" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A97" s="5" t="s">
-        <v>94</v>
+      <c r="A97" s="14">
+        <v>1519</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="H97" s="8">
         <v>0.47916666666666607</v>
@@ -8405,10 +8382,10 @@
       <c r="P97" s="11">
         <v>46014</v>
       </c>
-      <c r="Q97" s="7">
+      <c r="Q97" s="11">
         <v>46021</v>
       </c>
-      <c r="R97" s="7">
+      <c r="R97" s="11">
         <v>46028</v>
       </c>
       <c r="S97" s="11">
@@ -8430,8 +8407,8 @@
         <v>46070</v>
       </c>
       <c r="Y97" s="11"/>
-      <c r="Z97" s="7" cm="1">
-        <f t="array" ref="Z97">LOOKUP(2,1/(A97:Y97&lt;&gt;""),A97:Y97)</f>
+      <c r="Z97" s="11" cm="1">
+        <f t="array" ref="Z97">LOOKUP(2,1/(B97:Y97&lt;&gt;""),B97:Y97)</f>
         <v>46070</v>
       </c>
       <c r="AA97" s="5" t="str">
@@ -8439,30 +8416,30 @@
         <v>פברואר</v>
       </c>
       <c r="AB97" s="14" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A98" s="5" t="s">
-        <v>94</v>
+      <c r="A98" s="14">
+        <v>1519</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="H98" s="8">
         <v>0.40624999999999967</v>
@@ -8491,10 +8468,10 @@
       <c r="P98" s="11">
         <v>46035</v>
       </c>
-      <c r="Q98" s="7">
+      <c r="Q98" s="11">
         <v>46042</v>
       </c>
-      <c r="R98" s="7">
+      <c r="R98" s="11">
         <v>46049</v>
       </c>
       <c r="S98" s="11">
@@ -8510,8 +8487,8 @@
       <c r="W98" s="11"/>
       <c r="X98" s="11"/>
       <c r="Y98" s="11"/>
-      <c r="Z98" s="7" cm="1">
-        <f t="array" ref="Z98">LOOKUP(2,1/(A98:Y98&lt;&gt;""),A98:Y98)</f>
+      <c r="Z98" s="11" cm="1">
+        <f t="array" ref="Z98">LOOKUP(2,1/(B98:Y98&lt;&gt;""),B98:Y98)</f>
         <v>46070</v>
       </c>
       <c r="AA98" s="5" t="str">
@@ -8519,30 +8496,30 @@
         <v>פברואר</v>
       </c>
       <c r="AB98" s="14" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A99" s="5" t="s">
-        <v>94</v>
+      <c r="A99" s="14">
+        <v>1519</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="H99" s="8">
         <v>0.54861111111111027</v>
@@ -8571,10 +8548,10 @@
       <c r="P99" s="11">
         <v>46029</v>
       </c>
-      <c r="Q99" s="7">
+      <c r="Q99" s="11">
         <v>46036</v>
       </c>
-      <c r="R99" s="7">
+      <c r="R99" s="11">
         <v>46043</v>
       </c>
       <c r="S99" s="11">
@@ -8590,8 +8567,8 @@
       <c r="W99" s="11"/>
       <c r="X99" s="11"/>
       <c r="Y99" s="11"/>
-      <c r="Z99" s="7" cm="1">
-        <f t="array" ref="Z99">LOOKUP(2,1/(A99:Y99&lt;&gt;""),A99:Y99)</f>
+      <c r="Z99" s="11" cm="1">
+        <f t="array" ref="Z99">LOOKUP(2,1/(B99:Y99&lt;&gt;""),B99:Y99)</f>
         <v>46064</v>
       </c>
       <c r="AA99" s="5" t="str">
@@ -8599,30 +8576,30 @@
         <v>פברואר</v>
       </c>
       <c r="AB99" s="14" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="100" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A100" s="5" t="s">
-        <v>47</v>
+      <c r="A100" s="14">
+        <v>1503</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H100" s="8">
         <v>0.3472222222222221</v>
@@ -8651,10 +8628,10 @@
       <c r="P100" s="11">
         <v>46076</v>
       </c>
-      <c r="Q100" s="7">
+      <c r="Q100" s="11">
         <v>46083</v>
       </c>
-      <c r="R100" s="7"/>
+      <c r="R100" s="11"/>
       <c r="S100" s="11"/>
       <c r="T100" s="11"/>
       <c r="U100" s="11"/>
@@ -8662,8 +8639,8 @@
       <c r="W100" s="11"/>
       <c r="X100" s="11"/>
       <c r="Y100" s="11"/>
-      <c r="Z100" s="7" cm="1">
-        <f t="array" ref="Z100">LOOKUP(2,1/(A100:Y100&lt;&gt;""),A100:Y100)</f>
+      <c r="Z100" s="11" cm="1">
+        <f t="array" ref="Z100">LOOKUP(2,1/(B100:Y100&lt;&gt;""),B100:Y100)</f>
         <v>46083</v>
       </c>
       <c r="AA100" s="5" t="str">
@@ -8671,30 +8648,30 @@
         <v>מרץ</v>
       </c>
       <c r="AB100" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="101" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A101" s="5" t="s">
-        <v>47</v>
+      <c r="A101" s="14">
+        <v>1503</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>80</v>
+        <v>44</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="H101" s="8">
         <v>0.4895833333333327</v>
@@ -8723,10 +8700,10 @@
       <c r="P101" s="11">
         <v>46076</v>
       </c>
-      <c r="Q101" s="7">
+      <c r="Q101" s="11">
         <v>46083</v>
       </c>
-      <c r="R101" s="7">
+      <c r="R101" s="11">
         <v>46090</v>
       </c>
       <c r="S101" s="11">
@@ -8738,8 +8715,8 @@
       <c r="W101" s="11"/>
       <c r="X101" s="11"/>
       <c r="Y101" s="11"/>
-      <c r="Z101" s="7" cm="1">
-        <f t="array" ref="Z101">LOOKUP(2,1/(A101:Y101&lt;&gt;""),A101:Y101)</f>
+      <c r="Z101" s="11" cm="1">
+        <f t="array" ref="Z101">LOOKUP(2,1/(B101:Y101&lt;&gt;""),B101:Y101)</f>
         <v>46097</v>
       </c>
       <c r="AA101" s="5" t="str">
@@ -8747,30 +8724,30 @@
         <v>מרץ</v>
       </c>
       <c r="AB101" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="102" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A102" s="5" t="s">
-        <v>47</v>
+      <c r="A102" s="14">
+        <v>1503</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>80</v>
+        <v>44</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="H102" s="8">
         <v>0.40972222222222188</v>
@@ -8799,10 +8776,10 @@
       <c r="P102" s="11">
         <v>46077</v>
       </c>
-      <c r="Q102" s="7">
+      <c r="Q102" s="11">
         <v>46091</v>
       </c>
-      <c r="R102" s="7">
+      <c r="R102" s="11">
         <v>46098</v>
       </c>
       <c r="S102" s="11">
@@ -8814,8 +8791,8 @@
       <c r="W102" s="11"/>
       <c r="X102" s="11"/>
       <c r="Y102" s="11"/>
-      <c r="Z102" s="7" cm="1">
-        <f t="array" ref="Z102">LOOKUP(2,1/(A102:Y102&lt;&gt;""),A102:Y102)</f>
+      <c r="Z102" s="11" cm="1">
+        <f t="array" ref="Z102">LOOKUP(2,1/(B102:Y102&lt;&gt;""),B102:Y102)</f>
         <v>46126</v>
       </c>
       <c r="AA102" s="5" t="str">
@@ -8823,30 +8800,30 @@
         <v>אפריל</v>
       </c>
       <c r="AB102" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="103" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A103" s="5" t="s">
-        <v>47</v>
+      <c r="A103" s="14">
+        <v>1503</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>80</v>
+        <v>44</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="H103" s="8">
         <v>0.4895833333333327</v>
@@ -8875,10 +8852,10 @@
       <c r="P103" s="11">
         <v>46077</v>
       </c>
-      <c r="Q103" s="7">
+      <c r="Q103" s="11">
         <v>46091</v>
       </c>
-      <c r="R103" s="7">
+      <c r="R103" s="11">
         <v>46098</v>
       </c>
       <c r="S103" s="11"/>
@@ -8888,8 +8865,8 @@
       <c r="W103" s="11"/>
       <c r="X103" s="11"/>
       <c r="Y103" s="11"/>
-      <c r="Z103" s="7" cm="1">
-        <f t="array" ref="Z103">LOOKUP(2,1/(A103:Y103&lt;&gt;""),A103:Y103)</f>
+      <c r="Z103" s="11" cm="1">
+        <f t="array" ref="Z103">LOOKUP(2,1/(B103:Y103&lt;&gt;""),B103:Y103)</f>
         <v>46098</v>
       </c>
       <c r="AA103" s="5" t="str">
@@ -8897,30 +8874,30 @@
         <v>מרץ</v>
       </c>
       <c r="AB103" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="104" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A104" s="5" t="s">
-        <v>47</v>
+      <c r="A104" s="14">
+        <v>1503</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>80</v>
+        <v>44</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="H104" s="8">
         <v>0.33333333333333326</v>
@@ -8949,10 +8926,10 @@
       <c r="P104" s="11">
         <v>46077</v>
       </c>
-      <c r="Q104" s="7">
+      <c r="Q104" s="11">
         <v>46091</v>
       </c>
-      <c r="R104" s="7"/>
+      <c r="R104" s="11"/>
       <c r="S104" s="11"/>
       <c r="T104" s="11"/>
       <c r="U104" s="11"/>
@@ -8960,8 +8937,8 @@
       <c r="W104" s="11"/>
       <c r="X104" s="11"/>
       <c r="Y104" s="11"/>
-      <c r="Z104" s="7" cm="1">
-        <f t="array" ref="Z104">LOOKUP(2,1/(A104:Y104&lt;&gt;""),A104:Y104)</f>
+      <c r="Z104" s="11" cm="1">
+        <f t="array" ref="Z104">LOOKUP(2,1/(B104:Y104&lt;&gt;""),B104:Y104)</f>
         <v>46091</v>
       </c>
       <c r="AA104" s="5" t="str">
@@ -8969,30 +8946,30 @@
         <v>מרץ</v>
       </c>
       <c r="AB104" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A105" s="5" t="s">
-        <v>82</v>
+      <c r="A105" s="14">
+        <v>1511</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="H105" s="8">
         <v>0.34374999999999989</v>
@@ -9021,10 +8998,10 @@
       <c r="P105" s="11">
         <v>46035</v>
       </c>
-      <c r="Q105" s="7">
+      <c r="Q105" s="11">
         <v>46042</v>
       </c>
-      <c r="R105" s="7">
+      <c r="R105" s="11">
         <v>46049</v>
       </c>
       <c r="S105" s="11">
@@ -9044,8 +9021,8 @@
       </c>
       <c r="X105" s="11"/>
       <c r="Y105" s="11"/>
-      <c r="Z105" s="7" cm="1">
-        <f t="array" ref="Z105">LOOKUP(2,1/(A105:Y105&lt;&gt;""),A105:Y105)</f>
+      <c r="Z105" s="11" cm="1">
+        <f t="array" ref="Z105">LOOKUP(2,1/(B105:Y105&lt;&gt;""),B105:Y105)</f>
         <v>46091</v>
       </c>
       <c r="AA105" s="5" t="str">
@@ -9053,30 +9030,30 @@
         <v>מרץ</v>
       </c>
       <c r="AB105" s="14" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A106" s="5" t="s">
-        <v>82</v>
+      <c r="A106" s="14">
+        <v>1511</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="H106" s="8">
         <v>0.42708333333333293</v>
@@ -9105,10 +9082,10 @@
       <c r="P106" s="11">
         <v>46049</v>
       </c>
-      <c r="Q106" s="7">
+      <c r="Q106" s="11">
         <v>46056</v>
       </c>
-      <c r="R106" s="7">
+      <c r="R106" s="11">
         <v>46063</v>
       </c>
       <c r="S106" s="11">
@@ -9120,8 +9097,8 @@
       <c r="W106" s="11"/>
       <c r="X106" s="11"/>
       <c r="Y106" s="11"/>
-      <c r="Z106" s="7" cm="1">
-        <f t="array" ref="Z106">LOOKUP(2,1/(A106:Y106&lt;&gt;""),A106:Y106)</f>
+      <c r="Z106" s="11" cm="1">
+        <f t="array" ref="Z106">LOOKUP(2,1/(B106:Y106&lt;&gt;""),B106:Y106)</f>
         <v>46070</v>
       </c>
       <c r="AA106" s="5" t="str">
@@ -9129,30 +9106,30 @@
         <v>פברואר</v>
       </c>
       <c r="AB106" s="14" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A107" s="5" t="s">
-        <v>100</v>
+      <c r="A107" s="14">
+        <v>1500</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>138</v>
+        <v>94</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="H107" s="8">
         <v>0.49999999999999933</v>
@@ -9181,8 +9158,8 @@
       <c r="P107" s="11">
         <v>46124</v>
       </c>
-      <c r="Q107" s="7"/>
-      <c r="R107" s="7"/>
+      <c r="Q107" s="11"/>
+      <c r="R107" s="11"/>
       <c r="S107" s="11"/>
       <c r="T107" s="11"/>
       <c r="U107" s="11"/>
@@ -9190,8 +9167,8 @@
       <c r="W107" s="11"/>
       <c r="X107" s="11"/>
       <c r="Y107" s="11"/>
-      <c r="Z107" s="7" cm="1">
-        <f t="array" ref="Z107">LOOKUP(2,1/(A107:Y107&lt;&gt;""),A107:Y107)</f>
+      <c r="Z107" s="11" cm="1">
+        <f t="array" ref="Z107">LOOKUP(2,1/(B107:Y107&lt;&gt;""),B107:Y107)</f>
         <v>46124</v>
       </c>
       <c r="AA107" s="5" t="str">
@@ -9199,30 +9176,30 @@
         <v>אפריל</v>
       </c>
       <c r="AB107" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A108" s="5" t="s">
-        <v>100</v>
+      <c r="A108" s="14">
+        <v>1500</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="H108" s="8">
         <v>0.35416666666666669</v>
@@ -9251,10 +9228,10 @@
       <c r="P108" s="11">
         <v>46125</v>
       </c>
-      <c r="Q108" s="7">
+      <c r="Q108" s="11">
         <v>46139</v>
       </c>
-      <c r="R108" s="7">
+      <c r="R108" s="11">
         <v>46153</v>
       </c>
       <c r="S108" s="11">
@@ -9270,8 +9247,8 @@
       <c r="W108" s="11"/>
       <c r="X108" s="11"/>
       <c r="Y108" s="11"/>
-      <c r="Z108" s="7" cm="1">
-        <f t="array" ref="Z108">LOOKUP(2,1/(A108:Y108&lt;&gt;""),A108:Y108)</f>
+      <c r="Z108" s="11" cm="1">
+        <f t="array" ref="Z108">LOOKUP(2,1/(B108:Y108&lt;&gt;""),B108:Y108)</f>
         <v>46195</v>
       </c>
       <c r="AA108" s="5" t="str">
@@ -9279,30 +9256,30 @@
         <v>יוני</v>
       </c>
       <c r="AB108" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A109" s="5" t="s">
-        <v>100</v>
+      <c r="A109" s="14">
+        <v>1500</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="H109" s="8">
         <v>0.33333333333333331</v>
@@ -9331,10 +9308,10 @@
       <c r="P109" s="11">
         <v>46132</v>
       </c>
-      <c r="Q109" s="7">
+      <c r="Q109" s="11">
         <v>46146</v>
       </c>
-      <c r="R109" s="7">
+      <c r="R109" s="11">
         <v>46160</v>
       </c>
       <c r="S109" s="11">
@@ -9350,8 +9327,8 @@
       <c r="W109" s="11"/>
       <c r="X109" s="11"/>
       <c r="Y109" s="11"/>
-      <c r="Z109" s="7" cm="1">
-        <f t="array" ref="Z109">LOOKUP(2,1/(A109:Y109&lt;&gt;""),A109:Y109)</f>
+      <c r="Z109" s="11" cm="1">
+        <f t="array" ref="Z109">LOOKUP(2,1/(B109:Y109&lt;&gt;""),B109:Y109)</f>
         <v>46202</v>
       </c>
       <c r="AA109" s="5" t="str">
@@ -9359,30 +9336,30 @@
         <v>יוני</v>
       </c>
       <c r="AB109" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="14">
+        <v>1500</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E110" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B110" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="F110" s="5" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="H110" s="8">
         <v>0.51041666666666663</v>
@@ -9411,10 +9388,10 @@
       <c r="P110" s="11">
         <v>46105</v>
       </c>
-      <c r="Q110" s="7">
+      <c r="Q110" s="11">
         <v>46125</v>
       </c>
-      <c r="R110" s="7">
+      <c r="R110" s="11">
         <v>46139</v>
       </c>
       <c r="S110" s="11">
@@ -9430,8 +9407,8 @@
       <c r="W110" s="11"/>
       <c r="X110" s="11"/>
       <c r="Y110" s="11"/>
-      <c r="Z110" s="7" cm="1">
-        <f t="array" ref="Z110">LOOKUP(2,1/(A110:Y110&lt;&gt;""),A110:Y110)</f>
+      <c r="Z110" s="11" cm="1">
+        <f t="array" ref="Z110">LOOKUP(2,1/(B110:Y110&lt;&gt;""),B110:Y110)</f>
         <v>46160</v>
       </c>
       <c r="AA110" s="5" t="str">
@@ -9439,30 +9416,30 @@
         <v>מאי</v>
       </c>
       <c r="AB110" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A111" s="5" t="s">
-        <v>61</v>
+      <c r="A111" s="14">
+        <v>1502</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>107</v>
+        <v>56</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="H111" s="8">
         <v>0.51041666666666663</v>
@@ -9491,10 +9468,10 @@
       <c r="P111" s="11">
         <v>46105</v>
       </c>
-      <c r="Q111" s="7">
+      <c r="Q111" s="11">
         <v>46125</v>
       </c>
-      <c r="R111" s="7">
+      <c r="R111" s="11">
         <v>46139</v>
       </c>
       <c r="S111" s="11">
@@ -9510,8 +9487,8 @@
       <c r="W111" s="11"/>
       <c r="X111" s="11"/>
       <c r="Y111" s="11"/>
-      <c r="Z111" s="7" cm="1">
-        <f t="array" ref="Z111">LOOKUP(2,1/(A111:Y111&lt;&gt;""),A111:Y111)</f>
+      <c r="Z111" s="11" cm="1">
+        <f t="array" ref="Z111">LOOKUP(2,1/(B111:Y111&lt;&gt;""),B111:Y111)</f>
         <v>46160</v>
       </c>
       <c r="AA111" s="5" t="str">
@@ -9519,30 +9496,30 @@
         <v>מאי</v>
       </c>
       <c r="AB111" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A112" s="5" t="s">
-        <v>61</v>
+      <c r="A112" s="14">
+        <v>1502</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>107</v>
+        <v>56</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="H112" s="8">
         <v>0.59375</v>
@@ -9571,10 +9548,10 @@
       <c r="P112" s="11">
         <v>46104</v>
       </c>
-      <c r="Q112" s="7">
+      <c r="Q112" s="11">
         <v>46125</v>
       </c>
-      <c r="R112" s="7"/>
+      <c r="R112" s="11"/>
       <c r="S112" s="11"/>
       <c r="T112" s="11"/>
       <c r="U112" s="11"/>
@@ -9582,8 +9559,8 @@
       <c r="W112" s="11"/>
       <c r="X112" s="11"/>
       <c r="Y112" s="11"/>
-      <c r="Z112" s="7" cm="1">
-        <f t="array" ref="Z112">LOOKUP(2,1/(A112:Y112&lt;&gt;""),A112:Y112)</f>
+      <c r="Z112" s="11" cm="1">
+        <f t="array" ref="Z112">LOOKUP(2,1/(B112:Y112&lt;&gt;""),B112:Y112)</f>
         <v>46125</v>
       </c>
       <c r="AA112" s="5" t="str">
@@ -9591,30 +9568,30 @@
         <v>אפריל</v>
       </c>
       <c r="AB112" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A113" s="5" t="s">
-        <v>61</v>
+      <c r="A113" s="14">
+        <v>1502</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="H113" s="8">
         <v>0.34374999999999989</v>
@@ -9643,10 +9620,10 @@
       <c r="P113" s="11">
         <v>46077</v>
       </c>
-      <c r="Q113" s="7">
+      <c r="Q113" s="11">
         <v>46091</v>
       </c>
-      <c r="R113" s="7">
+      <c r="R113" s="11">
         <v>46098</v>
       </c>
       <c r="S113" s="11">
@@ -9658,8 +9635,8 @@
       <c r="W113" s="11"/>
       <c r="X113" s="11"/>
       <c r="Y113" s="11"/>
-      <c r="Z113" s="7" cm="1">
-        <f t="array" ref="Z113">LOOKUP(2,1/(A113:Y113&lt;&gt;""),A113:Y113)</f>
+      <c r="Z113" s="11" cm="1">
+        <f t="array" ref="Z113">LOOKUP(2,1/(B113:Y113&lt;&gt;""),B113:Y113)</f>
         <v>46126</v>
       </c>
       <c r="AA113" s="5" t="str">
@@ -9667,30 +9644,30 @@
         <v>אפריל</v>
       </c>
       <c r="AB113" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A114" s="5" t="s">
-        <v>61</v>
+      <c r="A114" s="14">
+        <v>1502</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H114" s="8">
         <v>0.43749999999999956</v>
@@ -9719,10 +9696,10 @@
       <c r="P114" s="11">
         <v>46140</v>
       </c>
-      <c r="Q114" s="7">
+      <c r="Q114" s="11">
         <v>46147</v>
       </c>
-      <c r="R114" s="7"/>
+      <c r="R114" s="11"/>
       <c r="S114" s="11"/>
       <c r="T114" s="11"/>
       <c r="U114" s="11"/>
@@ -9730,8 +9707,8 @@
       <c r="W114" s="11"/>
       <c r="X114" s="11"/>
       <c r="Y114" s="11"/>
-      <c r="Z114" s="7" cm="1">
-        <f t="array" ref="Z114">LOOKUP(2,1/(A114:Y114&lt;&gt;""),A114:Y114)</f>
+      <c r="Z114" s="11" cm="1">
+        <f t="array" ref="Z114">LOOKUP(2,1/(B114:Y114&lt;&gt;""),B114:Y114)</f>
         <v>46147</v>
       </c>
       <c r="AA114" s="5" t="str">
@@ -9739,30 +9716,30 @@
         <v>מאי</v>
       </c>
       <c r="AB114" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A115" s="5" t="s">
-        <v>133</v>
+      <c r="A115" s="14">
+        <v>1509</v>
       </c>
       <c r="B115" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F115" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C115" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="G115" s="5" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="H115" s="8">
         <v>0.375</v>
@@ -9791,10 +9768,10 @@
       <c r="P115" s="11">
         <v>46128</v>
       </c>
-      <c r="Q115" s="7">
+      <c r="Q115" s="11">
         <v>46135</v>
       </c>
-      <c r="R115" s="7">
+      <c r="R115" s="11">
         <v>46142</v>
       </c>
       <c r="S115" s="11">
@@ -9806,8 +9783,8 @@
       <c r="W115" s="11"/>
       <c r="X115" s="11"/>
       <c r="Y115" s="11"/>
-      <c r="Z115" s="7" cm="1">
-        <f t="array" ref="Z115">LOOKUP(2,1/(A115:Y115&lt;&gt;""),A115:Y115)</f>
+      <c r="Z115" s="11" cm="1">
+        <f t="array" ref="Z115">LOOKUP(2,1/(B115:Y115&lt;&gt;""),B115:Y115)</f>
         <v>46149</v>
       </c>
       <c r="AA115" s="5" t="str">
@@ -9815,30 +9792,30 @@
         <v>מאי</v>
       </c>
       <c r="AB115" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A116" s="5" t="s">
-        <v>133</v>
+      <c r="A116" s="14">
+        <v>1509</v>
       </c>
       <c r="B116" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F116" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C116" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="G116" s="5" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="H116" s="8">
         <v>0.5</v>
@@ -9867,10 +9844,10 @@
       <c r="P116" s="11">
         <v>46128</v>
       </c>
-      <c r="Q116" s="7">
+      <c r="Q116" s="11">
         <v>46135</v>
       </c>
-      <c r="R116" s="7">
+      <c r="R116" s="11">
         <v>46142</v>
       </c>
       <c r="S116" s="11">
@@ -9882,8 +9859,8 @@
       <c r="W116" s="11"/>
       <c r="X116" s="11"/>
       <c r="Y116" s="11"/>
-      <c r="Z116" s="7" cm="1">
-        <f t="array" ref="Z116">LOOKUP(2,1/(A116:Y116&lt;&gt;""),A116:Y116)</f>
+      <c r="Z116" s="11" cm="1">
+        <f t="array" ref="Z116">LOOKUP(2,1/(B116:Y116&lt;&gt;""),B116:Y116)</f>
         <v>46149</v>
       </c>
       <c r="AA116" s="5" t="str">
@@ -9891,30 +9868,30 @@
         <v>מאי</v>
       </c>
       <c r="AB116" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
-      <c r="A117" s="5" t="s">
-        <v>122</v>
+      <c r="A117" s="14">
+        <v>1506</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>172</v>
+        <v>35</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="H117" s="8">
         <v>0.50694444444444375</v>
@@ -9943,10 +9920,10 @@
       <c r="P117" s="11">
         <v>46090</v>
       </c>
-      <c r="Q117" s="7">
+      <c r="Q117" s="11">
         <v>46097</v>
       </c>
-      <c r="R117" s="7">
+      <c r="R117" s="11">
         <v>46104</v>
       </c>
       <c r="S117" s="11"/>
@@ -9956,8 +9933,8 @@
       <c r="W117" s="11"/>
       <c r="X117" s="11"/>
       <c r="Y117" s="11"/>
-      <c r="Z117" s="7" cm="1">
-        <f t="array" ref="Z117">LOOKUP(2,1/(A117:Y117&lt;&gt;""),A117:Y117)</f>
+      <c r="Z117" s="11" cm="1">
+        <f t="array" ref="Z117">LOOKUP(2,1/(B117:Y117&lt;&gt;""),B117:Y117)</f>
         <v>46104</v>
       </c>
       <c r="AA117" s="5" t="str">
@@ -9965,18 +9942,18 @@
         <v>מרץ</v>
       </c>
       <c r="AB117" s="14" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="25.1" customHeight="1">
-      <c r="A118" s="9"/>
-      <c r="B118" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D118" s="9"/>
+      <c r="A118" s="13"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
@@ -9985,34 +9962,34 @@
       <c r="J118" s="11">
         <v>46084</v>
       </c>
-      <c r="K118" s="9"/>
-      <c r="L118" s="9"/>
-      <c r="M118" s="9"/>
-      <c r="N118" s="9"/>
-      <c r="O118" s="9"/>
-      <c r="P118" s="9"/>
-      <c r="Q118" s="9"/>
-      <c r="R118" s="9"/>
-      <c r="S118" s="9"/>
-      <c r="T118" s="9"/>
-      <c r="U118" s="9"/>
-      <c r="V118" s="9"/>
-      <c r="W118" s="9"/>
-      <c r="X118" s="9"/>
-      <c r="Y118" s="9"/>
-      <c r="Z118" s="7"/>
+      <c r="K118" s="15"/>
+      <c r="L118" s="15"/>
+      <c r="M118" s="15"/>
+      <c r="N118" s="15"/>
+      <c r="O118" s="15"/>
+      <c r="P118" s="15"/>
+      <c r="Q118" s="15"/>
+      <c r="R118" s="15"/>
+      <c r="S118" s="15"/>
+      <c r="T118" s="15"/>
+      <c r="U118" s="15"/>
+      <c r="V118" s="15"/>
+      <c r="W118" s="15"/>
+      <c r="X118" s="15"/>
+      <c r="Y118" s="15"/>
+      <c r="Z118" s="11"/>
       <c r="AA118" s="5"/>
       <c r="AB118" s="13"/>
     </row>
     <row r="119" spans="1:28" ht="25.1" customHeight="1">
-      <c r="A119" s="9"/>
-      <c r="B119" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D119" s="9"/>
+      <c r="A119" s="13"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
@@ -10021,34 +9998,34 @@
       <c r="J119" s="11">
         <v>46085</v>
       </c>
-      <c r="K119" s="9"/>
-      <c r="L119" s="9"/>
-      <c r="M119" s="9"/>
-      <c r="N119" s="9"/>
-      <c r="O119" s="9"/>
-      <c r="P119" s="9"/>
-      <c r="Q119" s="9"/>
-      <c r="R119" s="9"/>
-      <c r="S119" s="9"/>
-      <c r="T119" s="9"/>
-      <c r="U119" s="9"/>
-      <c r="V119" s="9"/>
-      <c r="W119" s="9"/>
-      <c r="X119" s="9"/>
-      <c r="Y119" s="9"/>
-      <c r="Z119" s="7"/>
+      <c r="K119" s="15"/>
+      <c r="L119" s="15"/>
+      <c r="M119" s="15"/>
+      <c r="N119" s="15"/>
+      <c r="O119" s="15"/>
+      <c r="P119" s="15"/>
+      <c r="Q119" s="15"/>
+      <c r="R119" s="15"/>
+      <c r="S119" s="15"/>
+      <c r="T119" s="15"/>
+      <c r="U119" s="15"/>
+      <c r="V119" s="15"/>
+      <c r="W119" s="15"/>
+      <c r="X119" s="15"/>
+      <c r="Y119" s="15"/>
+      <c r="Z119" s="11"/>
       <c r="AA119" s="5"/>
       <c r="AB119" s="13"/>
     </row>
     <row r="120" spans="1:28" ht="25.1" customHeight="1">
-      <c r="A120" s="9"/>
-      <c r="B120" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D120" s="9"/>
+      <c r="A120" s="13"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
@@ -10057,34 +10034,34 @@
       <c r="J120" s="11">
         <v>46105</v>
       </c>
-      <c r="K120" s="9"/>
-      <c r="L120" s="9"/>
-      <c r="M120" s="9"/>
-      <c r="N120" s="9"/>
-      <c r="O120" s="9"/>
-      <c r="P120" s="9"/>
-      <c r="Q120" s="9"/>
-      <c r="R120" s="9"/>
-      <c r="S120" s="9"/>
-      <c r="T120" s="9"/>
-      <c r="U120" s="9"/>
-      <c r="V120" s="9"/>
-      <c r="W120" s="9"/>
-      <c r="X120" s="9"/>
-      <c r="Y120" s="9"/>
-      <c r="Z120" s="7"/>
+      <c r="K120" s="15"/>
+      <c r="L120" s="15"/>
+      <c r="M120" s="15"/>
+      <c r="N120" s="15"/>
+      <c r="O120" s="15"/>
+      <c r="P120" s="15"/>
+      <c r="Q120" s="15"/>
+      <c r="R120" s="15"/>
+      <c r="S120" s="15"/>
+      <c r="T120" s="15"/>
+      <c r="U120" s="15"/>
+      <c r="V120" s="15"/>
+      <c r="W120" s="15"/>
+      <c r="X120" s="15"/>
+      <c r="Y120" s="15"/>
+      <c r="Z120" s="11"/>
       <c r="AA120" s="5"/>
       <c r="AB120" s="13"/>
     </row>
     <row r="121" spans="1:28" ht="25.1" customHeight="1">
-      <c r="A121" s="9"/>
-      <c r="B121" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D121" s="9"/>
+      <c r="A121" s="13"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
@@ -10093,34 +10070,34 @@
       <c r="J121" s="11">
         <v>46106</v>
       </c>
-      <c r="K121" s="9"/>
-      <c r="L121" s="9"/>
-      <c r="M121" s="9"/>
-      <c r="N121" s="9"/>
-      <c r="O121" s="9"/>
-      <c r="P121" s="9"/>
-      <c r="Q121" s="9"/>
-      <c r="R121" s="9"/>
-      <c r="S121" s="9"/>
-      <c r="T121" s="9"/>
-      <c r="U121" s="9"/>
-      <c r="V121" s="9"/>
-      <c r="W121" s="9"/>
-      <c r="X121" s="9"/>
-      <c r="Y121" s="9"/>
-      <c r="Z121" s="7"/>
+      <c r="K121" s="15"/>
+      <c r="L121" s="15"/>
+      <c r="M121" s="15"/>
+      <c r="N121" s="15"/>
+      <c r="O121" s="15"/>
+      <c r="P121" s="15"/>
+      <c r="Q121" s="15"/>
+      <c r="R121" s="15"/>
+      <c r="S121" s="15"/>
+      <c r="T121" s="15"/>
+      <c r="U121" s="15"/>
+      <c r="V121" s="15"/>
+      <c r="W121" s="15"/>
+      <c r="X121" s="15"/>
+      <c r="Y121" s="15"/>
+      <c r="Z121" s="11"/>
       <c r="AA121" s="5"/>
       <c r="AB121" s="13"/>
     </row>
     <row r="122" spans="1:28" ht="25.1" customHeight="1">
-      <c r="A122" s="9"/>
-      <c r="B122" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D122" s="9"/>
+      <c r="A122" s="13"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
@@ -10129,34 +10106,34 @@
       <c r="J122" s="11">
         <v>46107</v>
       </c>
-      <c r="K122" s="9"/>
-      <c r="L122" s="9"/>
-      <c r="M122" s="9"/>
-      <c r="N122" s="9"/>
-      <c r="O122" s="9"/>
-      <c r="P122" s="9"/>
-      <c r="Q122" s="9"/>
-      <c r="R122" s="9"/>
-      <c r="S122" s="9"/>
-      <c r="T122" s="9"/>
-      <c r="U122" s="9"/>
-      <c r="V122" s="9"/>
-      <c r="W122" s="9"/>
-      <c r="X122" s="9"/>
-      <c r="Y122" s="9"/>
-      <c r="Z122" s="7"/>
+      <c r="K122" s="15"/>
+      <c r="L122" s="15"/>
+      <c r="M122" s="15"/>
+      <c r="N122" s="15"/>
+      <c r="O122" s="15"/>
+      <c r="P122" s="15"/>
+      <c r="Q122" s="15"/>
+      <c r="R122" s="15"/>
+      <c r="S122" s="15"/>
+      <c r="T122" s="15"/>
+      <c r="U122" s="15"/>
+      <c r="V122" s="15"/>
+      <c r="W122" s="15"/>
+      <c r="X122" s="15"/>
+      <c r="Y122" s="15"/>
+      <c r="Z122" s="11"/>
       <c r="AA122" s="5"/>
       <c r="AB122" s="13"/>
     </row>
     <row r="123" spans="1:28" ht="25.1" customHeight="1">
-      <c r="A123" s="9"/>
-      <c r="B123" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D123" s="9"/>
+      <c r="A123" s="13"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
@@ -10165,34 +10142,34 @@
       <c r="J123" s="11">
         <v>46108</v>
       </c>
-      <c r="K123" s="9"/>
-      <c r="L123" s="9"/>
-      <c r="M123" s="9"/>
-      <c r="N123" s="9"/>
-      <c r="O123" s="9"/>
-      <c r="P123" s="9"/>
-      <c r="Q123" s="9"/>
-      <c r="R123" s="9"/>
-      <c r="S123" s="9"/>
-      <c r="T123" s="9"/>
-      <c r="U123" s="9"/>
-      <c r="V123" s="9"/>
-      <c r="W123" s="9"/>
-      <c r="X123" s="9"/>
-      <c r="Y123" s="9"/>
-      <c r="Z123" s="7"/>
+      <c r="K123" s="15"/>
+      <c r="L123" s="15"/>
+      <c r="M123" s="15"/>
+      <c r="N123" s="15"/>
+      <c r="O123" s="15"/>
+      <c r="P123" s="15"/>
+      <c r="Q123" s="15"/>
+      <c r="R123" s="15"/>
+      <c r="S123" s="15"/>
+      <c r="T123" s="15"/>
+      <c r="U123" s="15"/>
+      <c r="V123" s="15"/>
+      <c r="W123" s="15"/>
+      <c r="X123" s="15"/>
+      <c r="Y123" s="15"/>
+      <c r="Z123" s="11"/>
       <c r="AA123" s="5"/>
       <c r="AB123" s="13"/>
     </row>
     <row r="124" spans="1:28" ht="25.1" customHeight="1">
-      <c r="A124" s="9"/>
-      <c r="B124" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D124" s="9"/>
+      <c r="A124" s="13"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
@@ -10201,34 +10178,34 @@
       <c r="J124" s="11">
         <v>46109</v>
       </c>
-      <c r="K124" s="9"/>
-      <c r="L124" s="9"/>
-      <c r="M124" s="9"/>
-      <c r="N124" s="9"/>
-      <c r="O124" s="9"/>
-      <c r="P124" s="9"/>
-      <c r="Q124" s="9"/>
-      <c r="R124" s="9"/>
-      <c r="S124" s="9"/>
-      <c r="T124" s="9"/>
-      <c r="U124" s="9"/>
-      <c r="V124" s="9"/>
-      <c r="W124" s="9"/>
-      <c r="X124" s="9"/>
-      <c r="Y124" s="9"/>
-      <c r="Z124" s="7"/>
+      <c r="K124" s="15"/>
+      <c r="L124" s="15"/>
+      <c r="M124" s="15"/>
+      <c r="N124" s="15"/>
+      <c r="O124" s="15"/>
+      <c r="P124" s="15"/>
+      <c r="Q124" s="15"/>
+      <c r="R124" s="15"/>
+      <c r="S124" s="15"/>
+      <c r="T124" s="15"/>
+      <c r="U124" s="15"/>
+      <c r="V124" s="15"/>
+      <c r="W124" s="15"/>
+      <c r="X124" s="15"/>
+      <c r="Y124" s="15"/>
+      <c r="Z124" s="11"/>
       <c r="AA124" s="5"/>
       <c r="AB124" s="13"/>
     </row>
     <row r="125" spans="1:28" ht="25.1" customHeight="1">
-      <c r="A125" s="9"/>
-      <c r="B125" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D125" s="9"/>
+      <c r="A125" s="13"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
@@ -10237,34 +10214,34 @@
       <c r="J125" s="11">
         <v>46110</v>
       </c>
-      <c r="K125" s="9"/>
-      <c r="L125" s="9"/>
-      <c r="M125" s="9"/>
-      <c r="N125" s="9"/>
-      <c r="O125" s="9"/>
-      <c r="P125" s="9"/>
-      <c r="Q125" s="9"/>
-      <c r="R125" s="9"/>
-      <c r="S125" s="9"/>
-      <c r="T125" s="9"/>
-      <c r="U125" s="9"/>
-      <c r="V125" s="9"/>
-      <c r="W125" s="9"/>
-      <c r="X125" s="9"/>
-      <c r="Y125" s="9"/>
-      <c r="Z125" s="7"/>
+      <c r="K125" s="15"/>
+      <c r="L125" s="15"/>
+      <c r="M125" s="15"/>
+      <c r="N125" s="15"/>
+      <c r="O125" s="15"/>
+      <c r="P125" s="15"/>
+      <c r="Q125" s="15"/>
+      <c r="R125" s="15"/>
+      <c r="S125" s="15"/>
+      <c r="T125" s="15"/>
+      <c r="U125" s="15"/>
+      <c r="V125" s="15"/>
+      <c r="W125" s="15"/>
+      <c r="X125" s="15"/>
+      <c r="Y125" s="15"/>
+      <c r="Z125" s="11"/>
       <c r="AA125" s="5"/>
       <c r="AB125" s="13"/>
     </row>
     <row r="126" spans="1:28" ht="25.1" customHeight="1">
-      <c r="A126" s="9"/>
-      <c r="B126" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D126" s="9"/>
+      <c r="A126" s="13"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
@@ -10273,34 +10250,34 @@
       <c r="J126" s="11">
         <v>46111</v>
       </c>
-      <c r="K126" s="9"/>
-      <c r="L126" s="9"/>
-      <c r="M126" s="9"/>
-      <c r="N126" s="9"/>
-      <c r="O126" s="9"/>
-      <c r="P126" s="9"/>
-      <c r="Q126" s="9"/>
-      <c r="R126" s="9"/>
-      <c r="S126" s="9"/>
-      <c r="T126" s="9"/>
-      <c r="U126" s="9"/>
-      <c r="V126" s="9"/>
-      <c r="W126" s="9"/>
-      <c r="X126" s="9"/>
-      <c r="Y126" s="9"/>
-      <c r="Z126" s="7"/>
+      <c r="K126" s="15"/>
+      <c r="L126" s="15"/>
+      <c r="M126" s="15"/>
+      <c r="N126" s="15"/>
+      <c r="O126" s="15"/>
+      <c r="P126" s="15"/>
+      <c r="Q126" s="15"/>
+      <c r="R126" s="15"/>
+      <c r="S126" s="15"/>
+      <c r="T126" s="15"/>
+      <c r="U126" s="15"/>
+      <c r="V126" s="15"/>
+      <c r="W126" s="15"/>
+      <c r="X126" s="15"/>
+      <c r="Y126" s="15"/>
+      <c r="Z126" s="11"/>
       <c r="AA126" s="5"/>
       <c r="AB126" s="13"/>
     </row>
     <row r="127" spans="1:28" ht="25.1" customHeight="1">
-      <c r="A127" s="9"/>
-      <c r="B127" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D127" s="9"/>
+      <c r="A127" s="13"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
@@ -10309,34 +10286,34 @@
       <c r="J127" s="11">
         <v>46112</v>
       </c>
-      <c r="K127" s="9"/>
-      <c r="L127" s="9"/>
-      <c r="M127" s="9"/>
-      <c r="N127" s="9"/>
-      <c r="O127" s="9"/>
-      <c r="P127" s="9"/>
-      <c r="Q127" s="9"/>
-      <c r="R127" s="9"/>
-      <c r="S127" s="9"/>
-      <c r="T127" s="9"/>
-      <c r="U127" s="9"/>
-      <c r="V127" s="9"/>
-      <c r="W127" s="9"/>
-      <c r="X127" s="9"/>
-      <c r="Y127" s="9"/>
-      <c r="Z127" s="7"/>
+      <c r="K127" s="15"/>
+      <c r="L127" s="15"/>
+      <c r="M127" s="15"/>
+      <c r="N127" s="15"/>
+      <c r="O127" s="15"/>
+      <c r="P127" s="15"/>
+      <c r="Q127" s="15"/>
+      <c r="R127" s="15"/>
+      <c r="S127" s="15"/>
+      <c r="T127" s="15"/>
+      <c r="U127" s="15"/>
+      <c r="V127" s="15"/>
+      <c r="W127" s="15"/>
+      <c r="X127" s="15"/>
+      <c r="Y127" s="15"/>
+      <c r="Z127" s="11"/>
       <c r="AA127" s="5"/>
       <c r="AB127" s="13"/>
     </row>
     <row r="128" spans="1:28" ht="25.1" customHeight="1">
-      <c r="A128" s="9"/>
-      <c r="B128" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D128" s="9"/>
+      <c r="A128" s="13"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
@@ -10345,34 +10322,34 @@
       <c r="J128" s="11">
         <v>46113</v>
       </c>
-      <c r="K128" s="9"/>
-      <c r="L128" s="9"/>
-      <c r="M128" s="9"/>
-      <c r="N128" s="9"/>
-      <c r="O128" s="9"/>
-      <c r="P128" s="9"/>
-      <c r="Q128" s="9"/>
-      <c r="R128" s="9"/>
-      <c r="S128" s="9"/>
-      <c r="T128" s="9"/>
-      <c r="U128" s="9"/>
-      <c r="V128" s="9"/>
-      <c r="W128" s="9"/>
-      <c r="X128" s="9"/>
-      <c r="Y128" s="9"/>
-      <c r="Z128" s="7"/>
+      <c r="K128" s="15"/>
+      <c r="L128" s="15"/>
+      <c r="M128" s="15"/>
+      <c r="N128" s="15"/>
+      <c r="O128" s="15"/>
+      <c r="P128" s="15"/>
+      <c r="Q128" s="15"/>
+      <c r="R128" s="15"/>
+      <c r="S128" s="15"/>
+      <c r="T128" s="15"/>
+      <c r="U128" s="15"/>
+      <c r="V128" s="15"/>
+      <c r="W128" s="15"/>
+      <c r="X128" s="15"/>
+      <c r="Y128" s="15"/>
+      <c r="Z128" s="11"/>
       <c r="AA128" s="5"/>
       <c r="AB128" s="13"/>
     </row>
     <row r="129" spans="1:28" ht="25.1" customHeight="1">
-      <c r="A129" s="9"/>
-      <c r="B129" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D129" s="9"/>
+      <c r="A129" s="13"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
@@ -10381,34 +10358,34 @@
       <c r="J129" s="11">
         <v>46114</v>
       </c>
-      <c r="K129" s="9"/>
-      <c r="L129" s="9"/>
-      <c r="M129" s="9"/>
-      <c r="N129" s="9"/>
-      <c r="O129" s="9"/>
-      <c r="P129" s="9"/>
-      <c r="Q129" s="9"/>
-      <c r="R129" s="9"/>
-      <c r="S129" s="9"/>
-      <c r="T129" s="9"/>
-      <c r="U129" s="9"/>
-      <c r="V129" s="9"/>
-      <c r="W129" s="9"/>
-      <c r="X129" s="9"/>
-      <c r="Y129" s="9"/>
-      <c r="Z129" s="7"/>
+      <c r="K129" s="15"/>
+      <c r="L129" s="15"/>
+      <c r="M129" s="15"/>
+      <c r="N129" s="15"/>
+      <c r="O129" s="15"/>
+      <c r="P129" s="15"/>
+      <c r="Q129" s="15"/>
+      <c r="R129" s="15"/>
+      <c r="S129" s="15"/>
+      <c r="T129" s="15"/>
+      <c r="U129" s="15"/>
+      <c r="V129" s="15"/>
+      <c r="W129" s="15"/>
+      <c r="X129" s="15"/>
+      <c r="Y129" s="15"/>
+      <c r="Z129" s="11"/>
       <c r="AA129" s="5"/>
       <c r="AB129" s="13"/>
     </row>
     <row r="130" spans="1:28" ht="25.1" customHeight="1">
-      <c r="A130" s="9"/>
-      <c r="B130" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D130" s="9"/>
+      <c r="A130" s="13"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
@@ -10417,34 +10394,34 @@
       <c r="J130" s="11">
         <v>46115</v>
       </c>
-      <c r="K130" s="9"/>
-      <c r="L130" s="9"/>
-      <c r="M130" s="9"/>
-      <c r="N130" s="9"/>
-      <c r="O130" s="9"/>
-      <c r="P130" s="9"/>
-      <c r="Q130" s="9"/>
-      <c r="R130" s="9"/>
-      <c r="S130" s="9"/>
-      <c r="T130" s="9"/>
-      <c r="U130" s="9"/>
-      <c r="V130" s="9"/>
-      <c r="W130" s="9"/>
-      <c r="X130" s="9"/>
-      <c r="Y130" s="9"/>
-      <c r="Z130" s="7"/>
+      <c r="K130" s="15"/>
+      <c r="L130" s="15"/>
+      <c r="M130" s="15"/>
+      <c r="N130" s="15"/>
+      <c r="O130" s="15"/>
+      <c r="P130" s="15"/>
+      <c r="Q130" s="15"/>
+      <c r="R130" s="15"/>
+      <c r="S130" s="15"/>
+      <c r="T130" s="15"/>
+      <c r="U130" s="15"/>
+      <c r="V130" s="15"/>
+      <c r="W130" s="15"/>
+      <c r="X130" s="15"/>
+      <c r="Y130" s="15"/>
+      <c r="Z130" s="11"/>
       <c r="AA130" s="5"/>
       <c r="AB130" s="13"/>
     </row>
     <row r="131" spans="1:28" ht="25.1" customHeight="1">
-      <c r="A131" s="9"/>
-      <c r="B131" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D131" s="9"/>
+      <c r="A131" s="13"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
@@ -10453,34 +10430,34 @@
       <c r="J131" s="11">
         <v>46116</v>
       </c>
-      <c r="K131" s="9"/>
-      <c r="L131" s="9"/>
-      <c r="M131" s="9"/>
-      <c r="N131" s="9"/>
-      <c r="O131" s="9"/>
-      <c r="P131" s="9"/>
-      <c r="Q131" s="9"/>
-      <c r="R131" s="9"/>
-      <c r="S131" s="9"/>
-      <c r="T131" s="9"/>
-      <c r="U131" s="9"/>
-      <c r="V131" s="9"/>
-      <c r="W131" s="9"/>
-      <c r="X131" s="9"/>
-      <c r="Y131" s="9"/>
-      <c r="Z131" s="7"/>
+      <c r="K131" s="15"/>
+      <c r="L131" s="15"/>
+      <c r="M131" s="15"/>
+      <c r="N131" s="15"/>
+      <c r="O131" s="15"/>
+      <c r="P131" s="15"/>
+      <c r="Q131" s="15"/>
+      <c r="R131" s="15"/>
+      <c r="S131" s="15"/>
+      <c r="T131" s="15"/>
+      <c r="U131" s="15"/>
+      <c r="V131" s="15"/>
+      <c r="W131" s="15"/>
+      <c r="X131" s="15"/>
+      <c r="Y131" s="15"/>
+      <c r="Z131" s="11"/>
       <c r="AA131" s="5"/>
       <c r="AB131" s="13"/>
     </row>
     <row r="132" spans="1:28" ht="25.1" customHeight="1">
-      <c r="A132" s="9"/>
-      <c r="B132" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D132" s="9"/>
+      <c r="A132" s="13"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
@@ -10489,34 +10466,34 @@
       <c r="J132" s="11">
         <v>46117</v>
       </c>
-      <c r="K132" s="9"/>
-      <c r="L132" s="9"/>
-      <c r="M132" s="9"/>
-      <c r="N132" s="9"/>
-      <c r="O132" s="9"/>
-      <c r="P132" s="9"/>
-      <c r="Q132" s="9"/>
-      <c r="R132" s="9"/>
-      <c r="S132" s="9"/>
-      <c r="T132" s="9"/>
-      <c r="U132" s="9"/>
-      <c r="V132" s="9"/>
-      <c r="W132" s="9"/>
-      <c r="X132" s="9"/>
-      <c r="Y132" s="9"/>
-      <c r="Z132" s="7"/>
+      <c r="K132" s="15"/>
+      <c r="L132" s="15"/>
+      <c r="M132" s="15"/>
+      <c r="N132" s="15"/>
+      <c r="O132" s="15"/>
+      <c r="P132" s="15"/>
+      <c r="Q132" s="15"/>
+      <c r="R132" s="15"/>
+      <c r="S132" s="15"/>
+      <c r="T132" s="15"/>
+      <c r="U132" s="15"/>
+      <c r="V132" s="15"/>
+      <c r="W132" s="15"/>
+      <c r="X132" s="15"/>
+      <c r="Y132" s="15"/>
+      <c r="Z132" s="11"/>
       <c r="AA132" s="5"/>
       <c r="AB132" s="13"/>
     </row>
     <row r="133" spans="1:28" ht="25.1" customHeight="1">
-      <c r="A133" s="9"/>
-      <c r="B133" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D133" s="9"/>
+      <c r="A133" s="13"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
@@ -10525,34 +10502,34 @@
       <c r="J133" s="11">
         <v>46118</v>
       </c>
-      <c r="K133" s="9"/>
-      <c r="L133" s="9"/>
-      <c r="M133" s="9"/>
-      <c r="N133" s="9"/>
-      <c r="O133" s="9"/>
-      <c r="P133" s="9"/>
-      <c r="Q133" s="9"/>
-      <c r="R133" s="9"/>
-      <c r="S133" s="9"/>
-      <c r="T133" s="9"/>
-      <c r="U133" s="9"/>
-      <c r="V133" s="9"/>
-      <c r="W133" s="9"/>
-      <c r="X133" s="9"/>
-      <c r="Y133" s="9"/>
-      <c r="Z133" s="7"/>
+      <c r="K133" s="15"/>
+      <c r="L133" s="15"/>
+      <c r="M133" s="15"/>
+      <c r="N133" s="15"/>
+      <c r="O133" s="15"/>
+      <c r="P133" s="15"/>
+      <c r="Q133" s="15"/>
+      <c r="R133" s="15"/>
+      <c r="S133" s="15"/>
+      <c r="T133" s="15"/>
+      <c r="U133" s="15"/>
+      <c r="V133" s="15"/>
+      <c r="W133" s="15"/>
+      <c r="X133" s="15"/>
+      <c r="Y133" s="15"/>
+      <c r="Z133" s="11"/>
       <c r="AA133" s="5"/>
       <c r="AB133" s="13"/>
     </row>
     <row r="134" spans="1:28" ht="25.1" customHeight="1">
-      <c r="A134" s="9"/>
-      <c r="B134" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D134" s="9"/>
+      <c r="A134" s="13"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
@@ -10561,34 +10538,34 @@
       <c r="J134" s="11">
         <v>46119</v>
       </c>
-      <c r="K134" s="9"/>
-      <c r="L134" s="9"/>
-      <c r="M134" s="9"/>
-      <c r="N134" s="9"/>
-      <c r="O134" s="9"/>
-      <c r="P134" s="9"/>
-      <c r="Q134" s="9"/>
-      <c r="R134" s="9"/>
-      <c r="S134" s="9"/>
-      <c r="T134" s="9"/>
-      <c r="U134" s="9"/>
-      <c r="V134" s="9"/>
-      <c r="W134" s="9"/>
-      <c r="X134" s="9"/>
-      <c r="Y134" s="9"/>
-      <c r="Z134" s="7"/>
+      <c r="K134" s="15"/>
+      <c r="L134" s="15"/>
+      <c r="M134" s="15"/>
+      <c r="N134" s="15"/>
+      <c r="O134" s="15"/>
+      <c r="P134" s="15"/>
+      <c r="Q134" s="15"/>
+      <c r="R134" s="15"/>
+      <c r="S134" s="15"/>
+      <c r="T134" s="15"/>
+      <c r="U134" s="15"/>
+      <c r="V134" s="15"/>
+      <c r="W134" s="15"/>
+      <c r="X134" s="15"/>
+      <c r="Y134" s="15"/>
+      <c r="Z134" s="11"/>
       <c r="AA134" s="5"/>
       <c r="AB134" s="13"/>
     </row>
     <row r="135" spans="1:28" ht="25.1" customHeight="1">
-      <c r="A135" s="9"/>
-      <c r="B135" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D135" s="9"/>
+      <c r="A135" s="13"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
       <c r="G135" s="9"/>
@@ -10597,34 +10574,34 @@
       <c r="J135" s="11">
         <v>46120</v>
       </c>
-      <c r="K135" s="9"/>
-      <c r="L135" s="9"/>
-      <c r="M135" s="9"/>
-      <c r="N135" s="9"/>
-      <c r="O135" s="9"/>
-      <c r="P135" s="9"/>
-      <c r="Q135" s="9"/>
-      <c r="R135" s="9"/>
-      <c r="S135" s="9"/>
-      <c r="T135" s="9"/>
-      <c r="U135" s="9"/>
-      <c r="V135" s="9"/>
-      <c r="W135" s="9"/>
-      <c r="X135" s="9"/>
-      <c r="Y135" s="9"/>
-      <c r="Z135" s="7"/>
+      <c r="K135" s="15"/>
+      <c r="L135" s="15"/>
+      <c r="M135" s="15"/>
+      <c r="N135" s="15"/>
+      <c r="O135" s="15"/>
+      <c r="P135" s="15"/>
+      <c r="Q135" s="15"/>
+      <c r="R135" s="15"/>
+      <c r="S135" s="15"/>
+      <c r="T135" s="15"/>
+      <c r="U135" s="15"/>
+      <c r="V135" s="15"/>
+      <c r="W135" s="15"/>
+      <c r="X135" s="15"/>
+      <c r="Y135" s="15"/>
+      <c r="Z135" s="11"/>
       <c r="AA135" s="5"/>
       <c r="AB135" s="13"/>
     </row>
     <row r="136" spans="1:28" ht="25.1" customHeight="1">
-      <c r="A136" s="9"/>
-      <c r="B136" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D136" s="9"/>
+      <c r="A136" s="13"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
@@ -10653,14 +10630,14 @@
       <c r="AB136" s="13"/>
     </row>
     <row r="137" spans="1:28" ht="25.1" customHeight="1">
-      <c r="A137" s="9"/>
-      <c r="B137" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D137" s="9"/>
+      <c r="A137" s="13"/>
+      <c r="B137" s="9"/>
+      <c r="C137" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
       <c r="G137" s="9"/>
@@ -10689,14 +10666,14 @@
       <c r="AB137" s="13"/>
     </row>
     <row r="138" spans="1:28" ht="25.1" customHeight="1">
-      <c r="A138" s="9"/>
-      <c r="B138" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D138" s="9"/>
+      <c r="A138" s="13"/>
+      <c r="B138" s="9"/>
+      <c r="C138" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
       <c r="G138" s="9"/>
@@ -10725,14 +10702,14 @@
       <c r="AB138" s="13"/>
     </row>
     <row r="139" spans="1:28" ht="25.1" customHeight="1">
-      <c r="A139" s="9"/>
-      <c r="B139" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D139" s="9"/>
+      <c r="A139" s="13"/>
+      <c r="B139" s="9"/>
+      <c r="C139" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
@@ -10761,14 +10738,14 @@
       <c r="AB139" s="13"/>
     </row>
     <row r="140" spans="1:28" ht="25.1" customHeight="1">
-      <c r="A140" s="9"/>
-      <c r="B140" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D140" s="9"/>
+      <c r="A140" s="13"/>
+      <c r="B140" s="9"/>
+      <c r="C140" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
       <c r="G140" s="9"/>
@@ -10797,14 +10774,14 @@
       <c r="AB140" s="13"/>
     </row>
     <row r="141" spans="1:28" ht="25.1" customHeight="1">
-      <c r="A141" s="9"/>
-      <c r="B141" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D141" s="9"/>
+      <c r="A141" s="13"/>
+      <c r="B141" s="9"/>
+      <c r="C141" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
       <c r="G141" s="9"/>

--- a/DASHBOARD.xlsx
+++ b/DASHBOARD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idan\Downloads\דשבורד סטטוס\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304A7373-DFFD-4459-A17E-B4EB6176DCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5710579-C491-4773-9E28-54A91A31F823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="173">
   <si>
     <t>Employee</t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t>EmployeeID</t>
+  </si>
+  <si>
+    <t>MonthStart</t>
   </si>
 </sst>
 </file>
@@ -704,7 +707,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -731,6 +734,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1051,11 +1066,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB141"/>
+  <dimension ref="A1:AC141"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A118" sqref="A118:XFD118"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I117" sqref="A116:I117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.1" customHeight="1"/>
@@ -1066,12 +1081,13 @@
     <col min="5" max="7" width="10.36328125" customWidth="1"/>
     <col min="8" max="9" width="10.36328125" style="2" customWidth="1"/>
     <col min="10" max="25" width="10.81640625" customWidth="1"/>
-    <col min="26" max="27" width="11" customWidth="1"/>
+    <col min="26" max="26" width="11" style="19" customWidth="1"/>
+    <col min="27" max="27" width="11" customWidth="1"/>
     <col min="28" max="28" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>171</v>
       </c>
@@ -1147,7 +1163,7 @@
       <c r="Y1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="16" t="s">
         <v>24</v>
       </c>
       <c r="AA1" s="5" t="s">
@@ -1156,8 +1172,11 @@
       <c r="AB1" s="13" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC1" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A2" s="5">
         <v>1503</v>
       </c>
@@ -1217,19 +1236,23 @@
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
       <c r="Y2" s="11"/>
-      <c r="Z2" s="7" cm="1">
+      <c r="Z2" s="17" cm="1">
         <f t="array" ref="Z2">LOOKUP(2,1/(B2:Y2&lt;&gt;""),B2:Y2)</f>
         <v>46156</v>
       </c>
-      <c r="AA2" s="5" t="str">
-        <f t="shared" ref="AA2:AA33" si="0">TEXT(Z2,"[$-he-IL]mmmm")</f>
-        <v>מאי</v>
+      <c r="AA2" s="16">
+        <f>MONTH(Z2)</f>
+        <v>5</v>
       </c>
       <c r="AB2" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC2" s="16">
+        <f>MONTH(J2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A3" s="5">
         <v>1503</v>
       </c>
@@ -1289,19 +1312,23 @@
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
-      <c r="Z3" s="7" cm="1">
+      <c r="Z3" s="17" cm="1">
         <f t="array" ref="Z3">LOOKUP(2,1/(B3:Y3&lt;&gt;""),B3:Y3)</f>
         <v>46156</v>
       </c>
-      <c r="AA3" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>מאי</v>
+      <c r="AA3" s="16">
+        <f t="shared" ref="AA3:AA66" si="0">MONTH(Z3)</f>
+        <v>5</v>
       </c>
       <c r="AB3" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC3" s="16">
+        <f t="shared" ref="AC3:AC66" si="1">MONTH(J3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A4" s="5">
         <v>1500</v>
       </c>
@@ -1361,19 +1388,23 @@
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
       <c r="Y4" s="11"/>
-      <c r="Z4" s="7" cm="1">
+      <c r="Z4" s="17" cm="1">
         <f t="array" ref="Z4">LOOKUP(2,1/(B4:Y4&lt;&gt;""),B4:Y4)</f>
         <v>46156</v>
       </c>
-      <c r="AA4" s="5" t="str">
+      <c r="AA4" s="16">
         <f t="shared" si="0"/>
-        <v>מאי</v>
+        <v>5</v>
       </c>
       <c r="AB4" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC4" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A5" s="5">
         <v>1500</v>
       </c>
@@ -1433,19 +1464,23 @@
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
       <c r="Y5" s="11"/>
-      <c r="Z5" s="7" cm="1">
+      <c r="Z5" s="17" cm="1">
         <f t="array" ref="Z5">LOOKUP(2,1/(B5:Y5&lt;&gt;""),B5:Y5)</f>
         <v>46156</v>
       </c>
-      <c r="AA5" s="5" t="str">
+      <c r="AA5" s="16">
         <f t="shared" si="0"/>
-        <v>מאי</v>
+        <v>5</v>
       </c>
       <c r="AB5" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC5" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A6" s="5">
         <v>1500</v>
       </c>
@@ -1505,19 +1540,23 @@
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
-      <c r="Z6" s="7" cm="1">
+      <c r="Z6" s="17" cm="1">
         <f t="array" ref="Z6">LOOKUP(2,1/(B6:Y6&lt;&gt;""),B6:Y6)</f>
         <v>46156</v>
       </c>
-      <c r="AA6" s="5" t="str">
+      <c r="AA6" s="16">
         <f t="shared" si="0"/>
-        <v>מאי</v>
+        <v>5</v>
       </c>
       <c r="AB6" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC6" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>119</v>
@@ -1575,19 +1614,23 @@
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
-      <c r="Z7" s="7" cm="1">
+      <c r="Z7" s="17" cm="1">
         <f t="array" ref="Z7">LOOKUP(2,1/(B7:Y7&lt;&gt;""),B7:Y7)</f>
         <v>46156</v>
       </c>
-      <c r="AA7" s="5" t="str">
+      <c r="AA7" s="16">
         <f t="shared" si="0"/>
-        <v>מאי</v>
+        <v>5</v>
       </c>
       <c r="AB7" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC7" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A8" s="5">
         <v>1503</v>
       </c>
@@ -1647,19 +1690,23 @@
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
       <c r="Y8" s="11"/>
-      <c r="Z8" s="7" cm="1">
+      <c r="Z8" s="17" cm="1">
         <f t="array" ref="Z8">LOOKUP(2,1/(B8:Y8&lt;&gt;""),B8:Y8)</f>
         <v>46156</v>
       </c>
-      <c r="AA8" s="5" t="str">
+      <c r="AA8" s="16">
         <f t="shared" si="0"/>
-        <v>מאי</v>
+        <v>5</v>
       </c>
       <c r="AB8" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC8" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A9" s="5">
         <v>1503</v>
       </c>
@@ -1719,19 +1766,23 @@
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
-      <c r="Z9" s="7" cm="1">
+      <c r="Z9" s="17" cm="1">
         <f t="array" ref="Z9">LOOKUP(2,1/(B9:Y9&lt;&gt;""),B9:Y9)</f>
         <v>46156</v>
       </c>
-      <c r="AA9" s="5" t="str">
+      <c r="AA9" s="16">
         <f t="shared" si="0"/>
-        <v>מאי</v>
+        <v>5</v>
       </c>
       <c r="AB9" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC9" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A10" s="5">
         <v>1501</v>
       </c>
@@ -1795,19 +1846,23 @@
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
       <c r="Y10" s="11"/>
-      <c r="Z10" s="7" cm="1">
+      <c r="Z10" s="17" cm="1">
         <f t="array" ref="Z10">LOOKUP(2,1/(B10:Y10&lt;&gt;""),B10:Y10)</f>
         <v>46174</v>
       </c>
-      <c r="AA10" s="5" t="str">
+      <c r="AA10" s="16">
         <f t="shared" si="0"/>
-        <v>יוני</v>
+        <v>6</v>
       </c>
       <c r="AB10" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC10" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A11" s="5">
         <v>1501</v>
       </c>
@@ -1871,19 +1926,23 @@
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="11"/>
-      <c r="Z11" s="7" cm="1">
+      <c r="Z11" s="17" cm="1">
         <f t="array" ref="Z11">LOOKUP(2,1/(B11:Y11&lt;&gt;""),B11:Y11)</f>
         <v>46174</v>
       </c>
-      <c r="AA11" s="5" t="str">
+      <c r="AA11" s="16">
         <f t="shared" si="0"/>
-        <v>יוני</v>
+        <v>6</v>
       </c>
       <c r="AB11" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC11" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A12" s="5">
         <v>1501</v>
       </c>
@@ -1947,19 +2006,23 @@
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="11"/>
-      <c r="Z12" s="7" cm="1">
+      <c r="Z12" s="17" cm="1">
         <f t="array" ref="Z12">LOOKUP(2,1/(B12:Y12&lt;&gt;""),B12:Y12)</f>
         <v>46174</v>
       </c>
-      <c r="AA12" s="5" t="str">
+      <c r="AA12" s="16">
         <f t="shared" si="0"/>
-        <v>יוני</v>
+        <v>6</v>
       </c>
       <c r="AB12" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC12" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A13" s="5">
         <v>1501</v>
       </c>
@@ -2023,19 +2086,23 @@
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
-      <c r="Z13" s="7" cm="1">
+      <c r="Z13" s="17" cm="1">
         <f t="array" ref="Z13">LOOKUP(2,1/(B13:Y13&lt;&gt;""),B13:Y13)</f>
         <v>46170</v>
       </c>
-      <c r="AA13" s="5" t="str">
+      <c r="AA13" s="16">
         <f t="shared" si="0"/>
-        <v>מאי</v>
+        <v>5</v>
       </c>
       <c r="AB13" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC13" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A14" s="5">
         <v>1501</v>
       </c>
@@ -2099,19 +2166,23 @@
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
-      <c r="Z14" s="7" cm="1">
+      <c r="Z14" s="17" cm="1">
         <f t="array" ref="Z14">LOOKUP(2,1/(B14:Y14&lt;&gt;""),B14:Y14)</f>
         <v>46170</v>
       </c>
-      <c r="AA14" s="5" t="str">
+      <c r="AA14" s="16">
         <f t="shared" si="0"/>
-        <v>מאי</v>
+        <v>5</v>
       </c>
       <c r="AB14" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC14" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A15" s="5">
         <v>1501</v>
       </c>
@@ -2175,19 +2246,23 @@
       <c r="W15" s="11"/>
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
-      <c r="Z15" s="7" cm="1">
+      <c r="Z15" s="17" cm="1">
         <f t="array" ref="Z15">LOOKUP(2,1/(B15:Y15&lt;&gt;""),B15:Y15)</f>
         <v>46170</v>
       </c>
-      <c r="AA15" s="5" t="str">
+      <c r="AA15" s="16">
         <f t="shared" si="0"/>
-        <v>מאי</v>
+        <v>5</v>
       </c>
       <c r="AB15" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC15" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A16" s="5">
         <v>1501</v>
       </c>
@@ -2249,19 +2324,23 @@
       <c r="W16" s="11"/>
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
-      <c r="Z16" s="7" cm="1">
+      <c r="Z16" s="17" cm="1">
         <f t="array" ref="Z16">LOOKUP(2,1/(B16:Y16&lt;&gt;""),B16:Y16)</f>
         <v>46176</v>
       </c>
-      <c r="AA16" s="5" t="str">
+      <c r="AA16" s="16">
         <f t="shared" si="0"/>
-        <v>יוני</v>
+        <v>6</v>
       </c>
       <c r="AB16" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC16" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A17" s="5">
         <v>1501</v>
       </c>
@@ -2325,19 +2404,23 @@
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
-      <c r="Z17" s="7" cm="1">
+      <c r="Z17" s="17" cm="1">
         <f t="array" ref="Z17">LOOKUP(2,1/(B17:Y17&lt;&gt;""),B17:Y17)</f>
         <v>46183</v>
       </c>
-      <c r="AA17" s="5" t="str">
+      <c r="AA17" s="16">
         <f t="shared" si="0"/>
-        <v>יוני</v>
+        <v>6</v>
       </c>
       <c r="AB17" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC17" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A18" s="5">
         <v>1501</v>
       </c>
@@ -2401,19 +2484,23 @@
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
-      <c r="Z18" s="7" cm="1">
+      <c r="Z18" s="17" cm="1">
         <f t="array" ref="Z18">LOOKUP(2,1/(B18:Y18&lt;&gt;""),B18:Y18)</f>
         <v>46183</v>
       </c>
-      <c r="AA18" s="5" t="str">
+      <c r="AA18" s="16">
         <f t="shared" si="0"/>
-        <v>יוני</v>
+        <v>6</v>
       </c>
       <c r="AB18" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC18" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A19" s="5">
         <v>1501</v>
       </c>
@@ -2477,19 +2564,23 @@
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
       <c r="Y19" s="11"/>
-      <c r="Z19" s="7" cm="1">
+      <c r="Z19" s="17" cm="1">
         <f t="array" ref="Z19">LOOKUP(2,1/(B19:Y19&lt;&gt;""),B19:Y19)</f>
         <v>46182</v>
       </c>
-      <c r="AA19" s="5" t="str">
+      <c r="AA19" s="16">
         <f t="shared" si="0"/>
-        <v>יוני</v>
+        <v>6</v>
       </c>
       <c r="AB19" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC19" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A20" s="5">
         <v>1501</v>
       </c>
@@ -2553,19 +2644,23 @@
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
-      <c r="Z20" s="7" cm="1">
+      <c r="Z20" s="17" cm="1">
         <f t="array" ref="Z20">LOOKUP(2,1/(B20:Y20&lt;&gt;""),B20:Y20)</f>
         <v>46182</v>
       </c>
-      <c r="AA20" s="5" t="str">
+      <c r="AA20" s="16">
         <f t="shared" si="0"/>
-        <v>יוני</v>
+        <v>6</v>
       </c>
       <c r="AB20" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC20" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A21" s="5">
         <v>1501</v>
       </c>
@@ -2629,19 +2724,23 @@
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
-      <c r="Z21" s="7" cm="1">
+      <c r="Z21" s="17" cm="1">
         <f t="array" ref="Z21">LOOKUP(2,1/(B21:Y21&lt;&gt;""),B21:Y21)</f>
         <v>46182</v>
       </c>
-      <c r="AA21" s="5" t="str">
+      <c r="AA21" s="16">
         <f t="shared" si="0"/>
-        <v>יוני</v>
+        <v>6</v>
       </c>
       <c r="AB21" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC21" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A22" s="5">
         <v>1513</v>
       </c>
@@ -2705,19 +2804,23 @@
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
       <c r="Y22" s="11"/>
-      <c r="Z22" s="7" cm="1">
+      <c r="Z22" s="17" cm="1">
         <f t="array" ref="Z22">LOOKUP(2,1/(B22:Y22&lt;&gt;""),B22:Y22)</f>
         <v>46082</v>
       </c>
-      <c r="AA22" s="5" t="str">
+      <c r="AA22" s="16">
         <f t="shared" si="0"/>
-        <v>מרץ</v>
+        <v>3</v>
       </c>
       <c r="AB22" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC22" s="16">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A23" s="5">
         <v>1502</v>
       </c>
@@ -2781,19 +2884,23 @@
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
-      <c r="Z23" s="7" cm="1">
+      <c r="Z23" s="17" cm="1">
         <f t="array" ref="Z23">LOOKUP(2,1/(B23:Y23&lt;&gt;""),B23:Y23)</f>
         <v>46066</v>
       </c>
-      <c r="AA23" s="5" t="str">
+      <c r="AA23" s="16">
         <f t="shared" si="0"/>
-        <v>פברואר</v>
+        <v>2</v>
       </c>
       <c r="AB23" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC23" s="16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A24" s="5">
         <v>1513</v>
       </c>
@@ -2855,19 +2962,23 @@
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
-      <c r="Z24" s="7" cm="1">
+      <c r="Z24" s="17" cm="1">
         <f t="array" ref="Z24">LOOKUP(2,1/(B24:Y24&lt;&gt;""),B24:Y24)</f>
         <v>46072</v>
       </c>
-      <c r="AA24" s="5" t="str">
+      <c r="AA24" s="16">
         <f t="shared" si="0"/>
-        <v>פברואר</v>
+        <v>2</v>
       </c>
       <c r="AB24" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" s="1" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC24" s="16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" s="1" customFormat="1" ht="25.1" customHeight="1">
       <c r="A25" s="5">
         <v>1509</v>
       </c>
@@ -2927,19 +3038,23 @@
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
-      <c r="Z25" s="7" cm="1">
+      <c r="Z25" s="17" cm="1">
         <f t="array" ref="Z25">LOOKUP(2,1/(B25:Y25&lt;&gt;""),B25:Y25)</f>
         <v>46176</v>
       </c>
-      <c r="AA25" s="5" t="str">
+      <c r="AA25" s="16">
         <f t="shared" si="0"/>
-        <v>יוני</v>
+        <v>6</v>
       </c>
       <c r="AB25" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC25" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A26" s="14">
         <v>1513</v>
       </c>
@@ -3003,19 +3118,23 @@
       <c r="W26" s="11"/>
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
-      <c r="Z26" s="7" cm="1">
+      <c r="Z26" s="17" cm="1">
         <f t="array" ref="Z26">LOOKUP(2,1/(B26:Y26&lt;&gt;""),B26:Y26)</f>
         <v>46082</v>
       </c>
-      <c r="AA26" s="5" t="str">
+      <c r="AA26" s="16">
         <f t="shared" si="0"/>
-        <v>מרץ</v>
+        <v>3</v>
       </c>
       <c r="AB26" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC26" s="16">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A27" s="14">
         <v>1517</v>
       </c>
@@ -3079,19 +3198,23 @@
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
-      <c r="Z27" s="7" cm="1">
+      <c r="Z27" s="17" cm="1">
         <f t="array" ref="Z27">LOOKUP(2,1/(B27:Y27&lt;&gt;""),B27:Y27)</f>
         <v>46147</v>
       </c>
-      <c r="AA27" s="5" t="str">
+      <c r="AA27" s="16">
         <f t="shared" si="0"/>
-        <v>מאי</v>
+        <v>5</v>
       </c>
       <c r="AB27" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC27" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A28" s="14">
         <v>1513</v>
       </c>
@@ -3153,19 +3276,23 @@
       <c r="W28" s="11"/>
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
-      <c r="Z28" s="7" cm="1">
+      <c r="Z28" s="17" cm="1">
         <f t="array" ref="Z28">LOOKUP(2,1/(B28:Y28&lt;&gt;""),B28:Y28)</f>
         <v>46072</v>
       </c>
-      <c r="AA28" s="5" t="str">
+      <c r="AA28" s="16">
         <f t="shared" si="0"/>
-        <v>פברואר</v>
+        <v>2</v>
       </c>
       <c r="AB28" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC28" s="16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A29" s="14">
         <v>1502</v>
       </c>
@@ -3229,19 +3356,23 @@
       <c r="W29" s="11"/>
       <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
-      <c r="Z29" s="7" cm="1">
+      <c r="Z29" s="17" cm="1">
         <f t="array" ref="Z29">LOOKUP(2,1/(B29:Y29&lt;&gt;""),B29:Y29)</f>
         <v>46066</v>
       </c>
-      <c r="AA29" s="5" t="str">
+      <c r="AA29" s="16">
         <f t="shared" si="0"/>
-        <v>פברואר</v>
+        <v>2</v>
       </c>
       <c r="AB29" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC29" s="16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A30" s="14">
         <v>1522</v>
       </c>
@@ -3311,19 +3442,23 @@
       <c r="W30" s="11"/>
       <c r="X30" s="11"/>
       <c r="Y30" s="11"/>
-      <c r="Z30" s="7" cm="1">
+      <c r="Z30" s="17" cm="1">
         <f t="array" ref="Z30">LOOKUP(2,1/(B30:Y30&lt;&gt;""),B30:Y30)</f>
         <v>46196</v>
       </c>
-      <c r="AA30" s="5" t="str">
+      <c r="AA30" s="16">
         <f t="shared" si="0"/>
-        <v>יוני</v>
+        <v>6</v>
       </c>
       <c r="AB30" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC30" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A31" s="14">
         <v>1522</v>
       </c>
@@ -3393,19 +3528,23 @@
       <c r="W31" s="11"/>
       <c r="X31" s="11"/>
       <c r="Y31" s="11"/>
-      <c r="Z31" s="7" cm="1">
+      <c r="Z31" s="17" cm="1">
         <f t="array" ref="Z31">LOOKUP(2,1/(B31:Y31&lt;&gt;""),B31:Y31)</f>
         <v>46196</v>
       </c>
-      <c r="AA31" s="5" t="str">
+      <c r="AA31" s="16">
         <f t="shared" si="0"/>
-        <v>יוני</v>
+        <v>6</v>
       </c>
       <c r="AB31" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC31" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A32" s="14">
         <v>1515</v>
       </c>
@@ -3469,19 +3608,23 @@
       <c r="W32" s="11"/>
       <c r="X32" s="11"/>
       <c r="Y32" s="11"/>
-      <c r="Z32" s="7" cm="1">
+      <c r="Z32" s="17" cm="1">
         <f t="array" ref="Z32">LOOKUP(2,1/(B32:Y32&lt;&gt;""),B32:Y32)</f>
         <v>46188</v>
       </c>
-      <c r="AA32" s="5" t="str">
+      <c r="AA32" s="16">
         <f t="shared" si="0"/>
-        <v>יוני</v>
+        <v>6</v>
       </c>
       <c r="AB32" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="33" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC32" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A33" s="14">
         <v>1515</v>
       </c>
@@ -3545,19 +3688,23 @@
       <c r="W33" s="11"/>
       <c r="X33" s="11"/>
       <c r="Y33" s="11"/>
-      <c r="Z33" s="7" cm="1">
+      <c r="Z33" s="17" cm="1">
         <f t="array" ref="Z33">LOOKUP(2,1/(B33:Y33&lt;&gt;""),B33:Y33)</f>
         <v>46188</v>
       </c>
-      <c r="AA33" s="5" t="str">
+      <c r="AA33" s="16">
         <f t="shared" si="0"/>
-        <v>יוני</v>
+        <v>6</v>
       </c>
       <c r="AB33" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC33" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A34" s="14">
         <v>1515</v>
       </c>
@@ -3617,19 +3764,23 @@
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
-      <c r="Z34" s="7" cm="1">
+      <c r="Z34" s="17" cm="1">
         <f t="array" ref="Z34">LOOKUP(2,1/(B34:Y34&lt;&gt;""),B34:Y34)</f>
         <v>46195</v>
       </c>
-      <c r="AA34" s="5" t="str">
-        <f t="shared" ref="AA34:AA65" si="1">TEXT(Z34,"[$-he-IL]mmmm")</f>
-        <v>יוני</v>
+      <c r="AA34" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="AB34" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC34" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A35" s="14">
         <v>1515</v>
       </c>
@@ -3693,19 +3844,23 @@
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
-      <c r="Z35" s="7" cm="1">
+      <c r="Z35" s="17" cm="1">
         <f t="array" ref="Z35">LOOKUP(2,1/(B35:Y35&lt;&gt;""),B35:Y35)</f>
         <v>46189</v>
       </c>
-      <c r="AA35" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>יוני</v>
+      <c r="AA35" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="AB35" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="36" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC35" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A36" s="14">
         <v>1515</v>
       </c>
@@ -3769,19 +3924,23 @@
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
-      <c r="Z36" s="7" cm="1">
+      <c r="Z36" s="17" cm="1">
         <f t="array" ref="Z36">LOOKUP(2,1/(B36:Y36&lt;&gt;""),B36:Y36)</f>
         <v>46189</v>
       </c>
-      <c r="AA36" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>יוני</v>
+      <c r="AA36" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="AB36" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="37" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC36" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A37" s="14">
         <v>1522</v>
       </c>
@@ -3845,19 +4004,23 @@
       <c r="W37" s="11"/>
       <c r="X37" s="11"/>
       <c r="Y37" s="11"/>
-      <c r="Z37" s="7" cm="1">
+      <c r="Z37" s="17" cm="1">
         <f t="array" ref="Z37">LOOKUP(2,1/(B37:Y37&lt;&gt;""),B37:Y37)</f>
         <v>46166</v>
       </c>
-      <c r="AA37" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>מאי</v>
+      <c r="AA37" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="AB37" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="38" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC37" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A38" s="14">
         <v>1515</v>
       </c>
@@ -3921,19 +4084,23 @@
       <c r="W38" s="11"/>
       <c r="X38" s="11"/>
       <c r="Y38" s="11"/>
-      <c r="Z38" s="7" cm="1">
+      <c r="Z38" s="17" cm="1">
         <f t="array" ref="Z38">LOOKUP(2,1/(B38:Y38&lt;&gt;""),B38:Y38)</f>
         <v>46152</v>
       </c>
-      <c r="AA38" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>מאי</v>
+      <c r="AA38" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="AB38" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="39" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC38" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A39" s="14">
         <v>1515</v>
       </c>
@@ -3997,19 +4164,23 @@
       <c r="W39" s="11"/>
       <c r="X39" s="11"/>
       <c r="Y39" s="11"/>
-      <c r="Z39" s="7" cm="1">
+      <c r="Z39" s="17" cm="1">
         <f t="array" ref="Z39">LOOKUP(2,1/(B39:Y39&lt;&gt;""),B39:Y39)</f>
         <v>46169</v>
       </c>
-      <c r="AA39" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>מאי</v>
+      <c r="AA39" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="AB39" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="40" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC39" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A40" s="14"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
@@ -4065,17 +4236,21 @@
       <c r="W40" s="11"/>
       <c r="X40" s="11"/>
       <c r="Y40" s="11"/>
-      <c r="Z40" s="7" cm="1">
+      <c r="Z40" s="17" cm="1">
         <f t="array" ref="Z40">LOOKUP(2,1/(B40:Y40&lt;&gt;""),B40:Y40)</f>
         <v>46187</v>
       </c>
-      <c r="AA40" s="5" t="str">
+      <c r="AA40" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AB40" s="14"/>
+      <c r="AC40" s="16">
         <f t="shared" si="1"/>
-        <v>יוני</v>
-      </c>
-      <c r="AB40" s="14"/>
-    </row>
-    <row r="41" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A41" s="14"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
@@ -4131,17 +4306,21 @@
       <c r="W41" s="11"/>
       <c r="X41" s="11"/>
       <c r="Y41" s="11"/>
-      <c r="Z41" s="7" cm="1">
+      <c r="Z41" s="17" cm="1">
         <f t="array" ref="Z41">LOOKUP(2,1/(B41:Y41&lt;&gt;""),B41:Y41)</f>
         <v>46187</v>
       </c>
-      <c r="AA41" s="5" t="str">
+      <c r="AA41" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AB41" s="14"/>
+      <c r="AC41" s="16">
         <f t="shared" si="1"/>
-        <v>יוני</v>
-      </c>
-      <c r="AB41" s="14"/>
-    </row>
-    <row r="42" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A42" s="14">
         <v>1503</v>
       </c>
@@ -4191,19 +4370,23 @@
       <c r="W42" s="11"/>
       <c r="X42" s="11"/>
       <c r="Y42" s="11"/>
-      <c r="Z42" s="7" cm="1">
+      <c r="Z42" s="17" cm="1">
         <f t="array" ref="Z42">LOOKUP(2,1/(B42:Y42&lt;&gt;""),B42:Y42)</f>
         <v>46202</v>
       </c>
-      <c r="AA42" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>יוני</v>
+      <c r="AA42" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="AB42" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="43" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC42" s="16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A43" s="14">
         <v>1503</v>
       </c>
@@ -4253,19 +4436,23 @@
       <c r="W43" s="11"/>
       <c r="X43" s="11"/>
       <c r="Y43" s="11"/>
-      <c r="Z43" s="7" cm="1">
+      <c r="Z43" s="17" cm="1">
         <f t="array" ref="Z43">LOOKUP(2,1/(B43:Y43&lt;&gt;""),B43:Y43)</f>
         <v>46202</v>
       </c>
-      <c r="AA43" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>יוני</v>
+      <c r="AA43" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="AB43" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="44" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC43" s="16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A44" s="14">
         <v>1512</v>
       </c>
@@ -4327,19 +4514,23 @@
       <c r="W44" s="11"/>
       <c r="X44" s="11"/>
       <c r="Y44" s="11"/>
-      <c r="Z44" s="7" cm="1">
+      <c r="Z44" s="17" cm="1">
         <f t="array" ref="Z44">LOOKUP(2,1/(B44:Y44&lt;&gt;""),B44:Y44)</f>
         <v>46054</v>
       </c>
-      <c r="AA44" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>פברואר</v>
+      <c r="AA44" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="AB44" s="14" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="45" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC44" s="16">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A45" s="14">
         <v>1512</v>
       </c>
@@ -4403,19 +4594,23 @@
       <c r="W45" s="11"/>
       <c r="X45" s="11"/>
       <c r="Y45" s="11"/>
-      <c r="Z45" s="7" cm="1">
+      <c r="Z45" s="17" cm="1">
         <f t="array" ref="Z45">LOOKUP(2,1/(B45:Y45&lt;&gt;""),B45:Y45)</f>
         <v>46094</v>
       </c>
-      <c r="AA45" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>מרץ</v>
+      <c r="AA45" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="AB45" s="14" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="46" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC45" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A46" s="14">
         <v>1507</v>
       </c>
@@ -4479,19 +4674,23 @@
       <c r="W46" s="11"/>
       <c r="X46" s="11"/>
       <c r="Y46" s="11"/>
-      <c r="Z46" s="7" cm="1">
+      <c r="Z46" s="17" cm="1">
         <f t="array" ref="Z46">LOOKUP(2,1/(B46:Y46&lt;&gt;""),B46:Y46)</f>
         <v>46079</v>
       </c>
-      <c r="AA46" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>פברואר</v>
+      <c r="AA46" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="AB46" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="47" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC46" s="16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A47" s="14">
         <v>1509</v>
       </c>
@@ -4551,19 +4750,23 @@
       <c r="W47" s="11"/>
       <c r="X47" s="11"/>
       <c r="Y47" s="11"/>
-      <c r="Z47" s="11" cm="1">
+      <c r="Z47" s="18" cm="1">
         <f t="array" ref="Z47">LOOKUP(2,1/(B47:Y47&lt;&gt;""),B47:Y47)</f>
         <v>46075</v>
       </c>
-      <c r="AA47" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>פברואר</v>
+      <c r="AA47" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="AB47" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="48" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC47" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A48" s="14">
         <v>1509</v>
       </c>
@@ -4623,19 +4826,23 @@
       <c r="W48" s="11"/>
       <c r="X48" s="11"/>
       <c r="Y48" s="11"/>
-      <c r="Z48" s="11" cm="1">
+      <c r="Z48" s="18" cm="1">
         <f t="array" ref="Z48">LOOKUP(2,1/(B48:Y48&lt;&gt;""),B48:Y48)</f>
         <v>46075</v>
       </c>
-      <c r="AA48" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>פברואר</v>
+      <c r="AA48" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="AB48" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="49" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC48" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A49" s="14">
         <v>1507</v>
       </c>
@@ -4707,19 +4914,23 @@
       </c>
       <c r="X49" s="11"/>
       <c r="Y49" s="11"/>
-      <c r="Z49" s="11" cm="1">
+      <c r="Z49" s="18" cm="1">
         <f t="array" ref="Z49">LOOKUP(2,1/(B49:Y49&lt;&gt;""),B49:Y49)</f>
         <v>46132</v>
       </c>
-      <c r="AA49" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>אפריל</v>
+      <c r="AA49" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="AB49" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="50" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC49" s="16">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A50" s="14">
         <v>1507</v>
       </c>
@@ -4785,19 +4996,23 @@
       <c r="W50" s="11"/>
       <c r="X50" s="11"/>
       <c r="Y50" s="11"/>
-      <c r="Z50" s="11" cm="1">
+      <c r="Z50" s="18" cm="1">
         <f t="array" ref="Z50">LOOKUP(2,1/(B50:Y50&lt;&gt;""),B50:Y50)</f>
         <v>46124</v>
       </c>
-      <c r="AA50" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>אפריל</v>
+      <c r="AA50" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="AB50" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="51" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC50" s="16">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A51" s="14">
         <v>1507</v>
       </c>
@@ -4855,19 +5070,23 @@
       <c r="W51" s="11"/>
       <c r="X51" s="11"/>
       <c r="Y51" s="11"/>
-      <c r="Z51" s="11" cm="1">
+      <c r="Z51" s="18" cm="1">
         <f t="array" ref="Z51">LOOKUP(2,1/(B51:Y51&lt;&gt;""),B51:Y51)</f>
         <v>46096</v>
       </c>
-      <c r="AA51" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>מרץ</v>
+      <c r="AA51" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="AB51" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="52" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC51" s="16">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A52" s="14">
         <v>1507</v>
       </c>
@@ -4931,19 +5150,23 @@
       <c r="W52" s="11"/>
       <c r="X52" s="11"/>
       <c r="Y52" s="11"/>
-      <c r="Z52" s="11" cm="1">
+      <c r="Z52" s="18" cm="1">
         <f t="array" ref="Z52">LOOKUP(2,1/(B52:Y52&lt;&gt;""),B52:Y52)</f>
         <v>46070</v>
       </c>
-      <c r="AA52" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>פברואר</v>
+      <c r="AA52" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="AB52" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="53" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC52" s="16">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A53" s="14">
         <v>1507</v>
       </c>
@@ -5003,19 +5226,23 @@
       <c r="W53" s="11"/>
       <c r="X53" s="11"/>
       <c r="Y53" s="11"/>
-      <c r="Z53" s="11" cm="1">
+      <c r="Z53" s="18" cm="1">
         <f t="array" ref="Z53">LOOKUP(2,1/(B53:Y53&lt;&gt;""),B53:Y53)</f>
         <v>46181</v>
       </c>
-      <c r="AA53" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>יוני</v>
+      <c r="AA53" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="AB53" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="54" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC53" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A54" s="14"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5" t="s">
@@ -5085,17 +5312,21 @@
         <v>46124</v>
       </c>
       <c r="Y54" s="11"/>
-      <c r="Z54" s="11" cm="1">
+      <c r="Z54" s="18" cm="1">
         <f t="array" ref="Z54">LOOKUP(2,1/(B54:Y54&lt;&gt;""),B54:Y54)</f>
         <v>46124</v>
       </c>
-      <c r="AA54" s="5" t="str">
+      <c r="AA54" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AB54" s="14"/>
+      <c r="AC54" s="16">
         <f t="shared" si="1"/>
-        <v>אפריל</v>
-      </c>
-      <c r="AB54" s="14"/>
-    </row>
-    <row r="55" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A55" s="14"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5" t="s">
@@ -5165,17 +5396,21 @@
         <v>46124</v>
       </c>
       <c r="Y55" s="11"/>
-      <c r="Z55" s="11" cm="1">
+      <c r="Z55" s="18" cm="1">
         <f t="array" ref="Z55">LOOKUP(2,1/(B55:Y55&lt;&gt;""),B55:Y55)</f>
         <v>46124</v>
       </c>
-      <c r="AA55" s="5" t="str">
+      <c r="AA55" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AB55" s="14"/>
+      <c r="AC55" s="16">
         <f t="shared" si="1"/>
-        <v>אפריל</v>
-      </c>
-      <c r="AB55" s="14"/>
-    </row>
-    <row r="56" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A56" s="14"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5" t="s">
@@ -5245,17 +5480,21 @@
         <v>46124</v>
       </c>
       <c r="Y56" s="11"/>
-      <c r="Z56" s="11" cm="1">
+      <c r="Z56" s="18" cm="1">
         <f t="array" ref="Z56">LOOKUP(2,1/(B56:Y56&lt;&gt;""),B56:Y56)</f>
         <v>46124</v>
       </c>
-      <c r="AA56" s="5" t="str">
+      <c r="AA56" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AB56" s="14"/>
+      <c r="AC56" s="16">
         <f t="shared" si="1"/>
-        <v>אפריל</v>
-      </c>
-      <c r="AB56" s="14"/>
-    </row>
-    <row r="57" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A57" s="14"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5" t="s">
@@ -5325,17 +5564,21 @@
         <v>46124</v>
       </c>
       <c r="Y57" s="11"/>
-      <c r="Z57" s="11" cm="1">
+      <c r="Z57" s="18" cm="1">
         <f t="array" ref="Z57">LOOKUP(2,1/(B57:Y57&lt;&gt;""),B57:Y57)</f>
         <v>46124</v>
       </c>
-      <c r="AA57" s="5" t="str">
+      <c r="AA57" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AB57" s="14"/>
+      <c r="AC57" s="16">
         <f t="shared" si="1"/>
-        <v>אפריל</v>
-      </c>
-      <c r="AB57" s="14"/>
-    </row>
-    <row r="58" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A58" s="14"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5" t="s">
@@ -5405,17 +5648,21 @@
         <v>46124</v>
       </c>
       <c r="Y58" s="11"/>
-      <c r="Z58" s="11" cm="1">
+      <c r="Z58" s="18" cm="1">
         <f t="array" ref="Z58">LOOKUP(2,1/(B58:Y58&lt;&gt;""),B58:Y58)</f>
         <v>46124</v>
       </c>
-      <c r="AA58" s="5" t="str">
+      <c r="AA58" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AB58" s="14"/>
+      <c r="AC58" s="16">
         <f t="shared" si="1"/>
-        <v>אפריל</v>
-      </c>
-      <c r="AB58" s="14"/>
-    </row>
-    <row r="59" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A59" s="14">
         <v>1507</v>
       </c>
@@ -5475,19 +5722,23 @@
       <c r="W59" s="11"/>
       <c r="X59" s="11"/>
       <c r="Y59" s="11"/>
-      <c r="Z59" s="11" cm="1">
+      <c r="Z59" s="18" cm="1">
         <f t="array" ref="Z59">LOOKUP(2,1/(B59:Y59&lt;&gt;""),B59:Y59)</f>
         <v>46155</v>
       </c>
-      <c r="AA59" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>מאי</v>
+      <c r="AA59" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="AB59" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="60" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC59" s="16">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A60" s="14">
         <v>1502</v>
       </c>
@@ -5551,19 +5802,23 @@
       <c r="W60" s="11"/>
       <c r="X60" s="11"/>
       <c r="Y60" s="11"/>
-      <c r="Z60" s="11" cm="1">
+      <c r="Z60" s="18" cm="1">
         <f t="array" ref="Z60">LOOKUP(2,1/(B60:Y60&lt;&gt;""),B60:Y60)</f>
         <v>46145</v>
       </c>
-      <c r="AA60" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>מאי</v>
+      <c r="AA60" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="AB60" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="61" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC60" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A61" s="14">
         <v>1502</v>
       </c>
@@ -5627,19 +5882,23 @@
       <c r="W61" s="11"/>
       <c r="X61" s="11"/>
       <c r="Y61" s="11"/>
-      <c r="Z61" s="11" cm="1">
+      <c r="Z61" s="18" cm="1">
         <f t="array" ref="Z61">LOOKUP(2,1/(B61:Y61&lt;&gt;""),B61:Y61)</f>
         <v>46145</v>
       </c>
-      <c r="AA61" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>מאי</v>
+      <c r="AA61" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="AB61" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="62" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC61" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A62" s="14">
         <v>1511</v>
       </c>
@@ -5703,19 +5962,23 @@
       <c r="W62" s="11"/>
       <c r="X62" s="11"/>
       <c r="Y62" s="11"/>
-      <c r="Z62" s="11" cm="1">
+      <c r="Z62" s="18" cm="1">
         <f t="array" ref="Z62">LOOKUP(2,1/(B62:Y62&lt;&gt;""),B62:Y62)</f>
         <v>46099</v>
       </c>
-      <c r="AA62" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>מרץ</v>
+      <c r="AA62" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="AB62" s="14" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="63" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC62" s="16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A63" s="14">
         <v>1511</v>
       </c>
@@ -5779,19 +6042,23 @@
       <c r="W63" s="11"/>
       <c r="X63" s="11"/>
       <c r="Y63" s="11"/>
-      <c r="Z63" s="11" cm="1">
+      <c r="Z63" s="18" cm="1">
         <f t="array" ref="Z63">LOOKUP(2,1/(B63:Y63&lt;&gt;""),B63:Y63)</f>
         <v>46099</v>
       </c>
-      <c r="AA63" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>מרץ</v>
+      <c r="AA63" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="AB63" s="14" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="64" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC63" s="16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A64" s="14">
         <v>1502</v>
       </c>
@@ -5851,19 +6118,23 @@
       <c r="W64" s="11"/>
       <c r="X64" s="11"/>
       <c r="Y64" s="11"/>
-      <c r="Z64" s="11" cm="1">
+      <c r="Z64" s="18" cm="1">
         <f t="array" ref="Z64">LOOKUP(2,1/(B64:Y64&lt;&gt;""),B64:Y64)</f>
         <v>46125</v>
       </c>
-      <c r="AA64" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>אפריל</v>
+      <c r="AA64" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="AB64" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="65" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC64" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A65" s="14">
         <v>1502</v>
       </c>
@@ -5939,19 +6210,23 @@
       <c r="Y65" s="11">
         <v>46064</v>
       </c>
-      <c r="Z65" s="11" cm="1">
+      <c r="Z65" s="18" cm="1">
         <f t="array" ref="Z65">LOOKUP(2,1/(B65:Y65&lt;&gt;""),B65:Y65)</f>
         <v>46064</v>
       </c>
-      <c r="AA65" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>פברואר</v>
+      <c r="AA65" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="AB65" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="66" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC65" s="16">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A66" s="14">
         <v>1514</v>
       </c>
@@ -6025,19 +6300,23 @@
         <v>46191</v>
       </c>
       <c r="Y66" s="11"/>
-      <c r="Z66" s="11" cm="1">
+      <c r="Z66" s="18" cm="1">
         <f t="array" ref="Z66">LOOKUP(2,1/(B66:Y66&lt;&gt;""),B66:Y66)</f>
         <v>46191</v>
       </c>
-      <c r="AA66" s="5" t="str">
-        <f t="shared" ref="AA66:AA90" si="2">TEXT(Z66,"[$-he-IL]mmmm")</f>
-        <v>יוני</v>
+      <c r="AA66" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="AB66" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="67" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC66" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A67" s="14">
         <v>1514</v>
       </c>
@@ -6111,19 +6390,23 @@
         <v>46191</v>
       </c>
       <c r="Y67" s="11"/>
-      <c r="Z67" s="11" cm="1">
+      <c r="Z67" s="18" cm="1">
         <f t="array" ref="Z67">LOOKUP(2,1/(B67:Y67&lt;&gt;""),B67:Y67)</f>
         <v>46191</v>
       </c>
-      <c r="AA67" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>יוני</v>
+      <c r="AA67" s="16">
+        <f t="shared" ref="AA67:AA117" si="2">MONTH(Z67)</f>
+        <v>6</v>
       </c>
       <c r="AB67" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="68" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC67" s="16">
+        <f t="shared" ref="AC67:AC117" si="3">MONTH(J67)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A68" s="14">
         <v>1503</v>
       </c>
@@ -6187,19 +6470,23 @@
       <c r="W68" s="11"/>
       <c r="X68" s="11"/>
       <c r="Y68" s="11"/>
-      <c r="Z68" s="11" cm="1">
+      <c r="Z68" s="18" cm="1">
         <f t="array" ref="Z68">LOOKUP(2,1/(B68:Y68&lt;&gt;""),B68:Y68)</f>
         <v>46121</v>
       </c>
-      <c r="AA68" s="5" t="str">
+      <c r="AA68" s="16">
         <f t="shared" si="2"/>
-        <v>אפריל</v>
+        <v>4</v>
       </c>
       <c r="AB68" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="69" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC68" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A69" s="14">
         <v>1503</v>
       </c>
@@ -6263,19 +6550,23 @@
       <c r="W69" s="11"/>
       <c r="X69" s="11"/>
       <c r="Y69" s="11"/>
-      <c r="Z69" s="11" cm="1">
+      <c r="Z69" s="18" cm="1">
         <f t="array" ref="Z69">LOOKUP(2,1/(B69:Y69&lt;&gt;""),B69:Y69)</f>
         <v>46121</v>
       </c>
-      <c r="AA69" s="5" t="str">
+      <c r="AA69" s="16">
         <f t="shared" si="2"/>
-        <v>אפריל</v>
+        <v>4</v>
       </c>
       <c r="AB69" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="70" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC69" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A70" s="14">
         <v>1503</v>
       </c>
@@ -6339,19 +6630,23 @@
       <c r="W70" s="11"/>
       <c r="X70" s="11"/>
       <c r="Y70" s="11"/>
-      <c r="Z70" s="11" cm="1">
+      <c r="Z70" s="18" cm="1">
         <f t="array" ref="Z70">LOOKUP(2,1/(B70:Y70&lt;&gt;""),B70:Y70)</f>
         <v>46121</v>
       </c>
-      <c r="AA70" s="5" t="str">
+      <c r="AA70" s="16">
         <f t="shared" si="2"/>
-        <v>אפריל</v>
+        <v>4</v>
       </c>
       <c r="AB70" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="71" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC70" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A71" s="14">
         <v>1501</v>
       </c>
@@ -6415,19 +6710,23 @@
       <c r="W71" s="11"/>
       <c r="X71" s="11"/>
       <c r="Y71" s="11"/>
-      <c r="Z71" s="11" cm="1">
+      <c r="Z71" s="18" cm="1">
         <f t="array" ref="Z71">LOOKUP(2,1/(B71:Y71&lt;&gt;""),B71:Y71)</f>
         <v>46145</v>
       </c>
-      <c r="AA71" s="5" t="str">
+      <c r="AA71" s="16">
         <f t="shared" si="2"/>
-        <v>מאי</v>
+        <v>5</v>
       </c>
       <c r="AB71" s="14" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="72" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC71" s="16">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A72" s="14">
         <v>1505</v>
       </c>
@@ -6499,19 +6798,23 @@
       </c>
       <c r="X72" s="11"/>
       <c r="Y72" s="11"/>
-      <c r="Z72" s="11" cm="1">
+      <c r="Z72" s="18" cm="1">
         <f t="array" ref="Z72">LOOKUP(2,1/(B72:Y72&lt;&gt;""),B72:Y72)</f>
         <v>46061</v>
       </c>
-      <c r="AA72" s="5" t="str">
+      <c r="AA72" s="16">
         <f t="shared" si="2"/>
-        <v>פברואר</v>
+        <v>2</v>
       </c>
       <c r="AB72" s="14" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="73" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC72" s="16">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A73" s="14">
         <v>1507</v>
       </c>
@@ -6583,19 +6886,23 @@
       </c>
       <c r="X73" s="11"/>
       <c r="Y73" s="11"/>
-      <c r="Z73" s="11" cm="1">
+      <c r="Z73" s="18" cm="1">
         <f t="array" ref="Z73">LOOKUP(2,1/(B73:Y73&lt;&gt;""),B73:Y73)</f>
         <v>46105</v>
       </c>
-      <c r="AA73" s="5" t="str">
+      <c r="AA73" s="16">
         <f t="shared" si="2"/>
-        <v>מרץ</v>
+        <v>3</v>
       </c>
       <c r="AB73" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="74" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC73" s="16">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A74" s="14">
         <v>1507</v>
       </c>
@@ -6659,19 +6966,23 @@
       <c r="W74" s="11"/>
       <c r="X74" s="11"/>
       <c r="Y74" s="11"/>
-      <c r="Z74" s="11" cm="1">
+      <c r="Z74" s="18" cm="1">
         <f t="array" ref="Z74">LOOKUP(2,1/(B74:Y74&lt;&gt;""),B74:Y74)</f>
         <v>46124</v>
       </c>
-      <c r="AA74" s="5" t="str">
+      <c r="AA74" s="16">
         <f t="shared" si="2"/>
-        <v>אפריל</v>
+        <v>4</v>
       </c>
       <c r="AB74" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="75" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC74" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A75" s="14">
         <v>1504</v>
       </c>
@@ -6735,19 +7046,23 @@
       <c r="W75" s="11"/>
       <c r="X75" s="11"/>
       <c r="Y75" s="11"/>
-      <c r="Z75" s="11" cm="1">
+      <c r="Z75" s="18" cm="1">
         <f t="array" ref="Z75">LOOKUP(2,1/(B75:Y75&lt;&gt;""),B75:Y75)</f>
         <v>46127</v>
       </c>
-      <c r="AA75" s="5" t="str">
+      <c r="AA75" s="16">
         <f t="shared" si="2"/>
-        <v>אפריל</v>
+        <v>4</v>
       </c>
       <c r="AB75" s="14" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="76" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC75" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A76" s="14">
         <v>1504</v>
       </c>
@@ -6819,19 +7134,23 @@
       </c>
       <c r="X76" s="11"/>
       <c r="Y76" s="11"/>
-      <c r="Z76" s="11" cm="1">
+      <c r="Z76" s="18" cm="1">
         <f t="array" ref="Z76">LOOKUP(2,1/(B76:Y76&lt;&gt;""),B76:Y76)</f>
         <v>46197</v>
       </c>
-      <c r="AA76" s="5" t="str">
+      <c r="AA76" s="16">
         <f t="shared" si="2"/>
-        <v>יוני</v>
+        <v>6</v>
       </c>
       <c r="AB76" s="14" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="77" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC76" s="16">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A77" s="14">
         <v>1513</v>
       </c>
@@ -6897,19 +7216,23 @@
       <c r="W77" s="11"/>
       <c r="X77" s="11"/>
       <c r="Y77" s="11"/>
-      <c r="Z77" s="11" cm="1">
+      <c r="Z77" s="18" cm="1">
         <f t="array" ref="Z77">LOOKUP(2,1/(B77:Y77&lt;&gt;""),B77:Y77)</f>
         <v>46057</v>
       </c>
-      <c r="AA77" s="5" t="str">
+      <c r="AA77" s="16">
         <f t="shared" si="2"/>
-        <v>פברואר</v>
+        <v>2</v>
       </c>
       <c r="AB77" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="78" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC77" s="16">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A78" s="14">
         <v>1516</v>
       </c>
@@ -6973,19 +7296,23 @@
       <c r="W78" s="11"/>
       <c r="X78" s="11"/>
       <c r="Y78" s="11"/>
-      <c r="Z78" s="11" cm="1">
+      <c r="Z78" s="18" cm="1">
         <f t="array" ref="Z78">LOOKUP(2,1/(B78:Y78&lt;&gt;""),B78:Y78)</f>
         <v>46148</v>
       </c>
-      <c r="AA78" s="5" t="str">
+      <c r="AA78" s="16">
         <f t="shared" si="2"/>
-        <v>מאי</v>
+        <v>5</v>
       </c>
       <c r="AB78" s="14" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="79" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC78" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A79" s="14">
         <v>1501</v>
       </c>
@@ -7055,19 +7382,23 @@
       <c r="W79" s="11"/>
       <c r="X79" s="11"/>
       <c r="Y79" s="11"/>
-      <c r="Z79" s="11" cm="1">
+      <c r="Z79" s="18" cm="1">
         <f t="array" ref="Z79">LOOKUP(2,1/(B79:Y79&lt;&gt;""),B79:Y79)</f>
         <v>46056</v>
       </c>
-      <c r="AA79" s="5" t="str">
+      <c r="AA79" s="16">
         <f t="shared" si="2"/>
-        <v>פברואר</v>
+        <v>2</v>
       </c>
       <c r="AB79" s="14" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="80" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC79" s="16">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A80" s="14">
         <v>1504</v>
       </c>
@@ -7135,19 +7466,23 @@
       <c r="W80" s="11"/>
       <c r="X80" s="11"/>
       <c r="Y80" s="11"/>
-      <c r="Z80" s="11" cm="1">
+      <c r="Z80" s="18" cm="1">
         <f t="array" ref="Z80">LOOKUP(2,1/(B80:Y80&lt;&gt;""),B80:Y80)</f>
         <v>46139</v>
       </c>
-      <c r="AA80" s="5" t="str">
+      <c r="AA80" s="16">
         <f t="shared" si="2"/>
-        <v>אפריל</v>
+        <v>4</v>
       </c>
       <c r="AB80" s="14" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="81" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC80" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A81" s="14">
         <v>1506</v>
       </c>
@@ -7211,19 +7546,23 @@
       <c r="W81" s="11"/>
       <c r="X81" s="11"/>
       <c r="Y81" s="11"/>
-      <c r="Z81" s="11" cm="1">
+      <c r="Z81" s="18" cm="1">
         <f t="array" ref="Z81">LOOKUP(2,1/(B81:Y81&lt;&gt;""),B81:Y81)</f>
         <v>46161</v>
       </c>
-      <c r="AA81" s="5" t="str">
+      <c r="AA81" s="16">
         <f t="shared" si="2"/>
-        <v>מאי</v>
+        <v>5</v>
       </c>
       <c r="AB81" s="14" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="82" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC81" s="16">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A82" s="14">
         <v>1506</v>
       </c>
@@ -7287,19 +7626,23 @@
       <c r="W82" s="11"/>
       <c r="X82" s="11"/>
       <c r="Y82" s="11"/>
-      <c r="Z82" s="11" cm="1">
+      <c r="Z82" s="18" cm="1">
         <f t="array" ref="Z82">LOOKUP(2,1/(B82:Y82&lt;&gt;""),B82:Y82)</f>
         <v>46161</v>
       </c>
-      <c r="AA82" s="5" t="str">
+      <c r="AA82" s="16">
         <f t="shared" si="2"/>
-        <v>מאי</v>
+        <v>5</v>
       </c>
       <c r="AB82" s="14" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="83" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC82" s="16">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A83" s="14">
         <v>1506</v>
       </c>
@@ -7363,19 +7706,23 @@
       <c r="W83" s="11"/>
       <c r="X83" s="11"/>
       <c r="Y83" s="11"/>
-      <c r="Z83" s="11" cm="1">
+      <c r="Z83" s="18" cm="1">
         <f t="array" ref="Z83">LOOKUP(2,1/(B83:Y83&lt;&gt;""),B83:Y83)</f>
         <v>46162</v>
       </c>
-      <c r="AA83" s="5" t="str">
+      <c r="AA83" s="16">
         <f t="shared" si="2"/>
-        <v>מאי</v>
+        <v>5</v>
       </c>
       <c r="AB83" s="14" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="84" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC83" s="16">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A84" s="14">
         <v>1506</v>
       </c>
@@ -7439,19 +7786,23 @@
       <c r="W84" s="11"/>
       <c r="X84" s="11"/>
       <c r="Y84" s="11"/>
-      <c r="Z84" s="11" cm="1">
+      <c r="Z84" s="18" cm="1">
         <f t="array" ref="Z84">LOOKUP(2,1/(B84:Y84&lt;&gt;""),B84:Y84)</f>
         <v>46162</v>
       </c>
-      <c r="AA84" s="5" t="str">
+      <c r="AA84" s="16">
         <f t="shared" si="2"/>
-        <v>מאי</v>
+        <v>5</v>
       </c>
       <c r="AB84" s="14" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="85" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC84" s="16">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A85" s="14">
         <v>1506</v>
       </c>
@@ -7511,19 +7862,23 @@
       <c r="W85" s="11"/>
       <c r="X85" s="11"/>
       <c r="Y85" s="11"/>
-      <c r="Z85" s="11" cm="1">
+      <c r="Z85" s="18" cm="1">
         <f t="array" ref="Z85">LOOKUP(2,1/(B85:Y85&lt;&gt;""),B85:Y85)</f>
         <v>46072</v>
       </c>
-      <c r="AA85" s="5" t="str">
+      <c r="AA85" s="16">
         <f t="shared" si="2"/>
-        <v>פברואר</v>
+        <v>2</v>
       </c>
       <c r="AB85" s="14" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="86" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC85" s="16">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A86" s="14">
         <v>1506</v>
       </c>
@@ -7583,19 +7938,23 @@
       <c r="W86" s="11"/>
       <c r="X86" s="11"/>
       <c r="Y86" s="11"/>
-      <c r="Z86" s="11" cm="1">
+      <c r="Z86" s="18" cm="1">
         <f t="array" ref="Z86">LOOKUP(2,1/(B86:Y86&lt;&gt;""),B86:Y86)</f>
         <v>46072</v>
       </c>
-      <c r="AA86" s="5" t="str">
+      <c r="AA86" s="16">
         <f t="shared" si="2"/>
-        <v>פברואר</v>
+        <v>2</v>
       </c>
       <c r="AB86" s="14" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="87" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC86" s="16">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A87" s="14">
         <v>1504</v>
       </c>
@@ -7661,19 +8020,23 @@
       <c r="W87" s="11"/>
       <c r="X87" s="11"/>
       <c r="Y87" s="11"/>
-      <c r="Z87" s="11" cm="1">
+      <c r="Z87" s="18" cm="1">
         <f t="array" ref="Z87">LOOKUP(2,1/(B87:Y87&lt;&gt;""),B87:Y87)</f>
         <v>46152</v>
       </c>
-      <c r="AA87" s="5" t="str">
+      <c r="AA87" s="16">
         <f t="shared" si="2"/>
-        <v>מאי</v>
+        <v>5</v>
       </c>
       <c r="AB87" s="14" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="88" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC87" s="16">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A88" s="14">
         <v>1504</v>
       </c>
@@ -7737,19 +8100,23 @@
       <c r="W88" s="11"/>
       <c r="X88" s="11"/>
       <c r="Y88" s="11"/>
-      <c r="Z88" s="11" cm="1">
+      <c r="Z88" s="18" cm="1">
         <f t="array" ref="Z88">LOOKUP(2,1/(B88:Y88&lt;&gt;""),B88:Y88)</f>
         <v>46064</v>
       </c>
-      <c r="AA88" s="5" t="str">
+      <c r="AA88" s="16">
         <f t="shared" si="2"/>
-        <v>פברואר</v>
+        <v>2</v>
       </c>
       <c r="AB88" s="14" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="89" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC88" s="16">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A89" s="14">
         <v>1514</v>
       </c>
@@ -7819,19 +8186,23 @@
       <c r="W89" s="11"/>
       <c r="X89" s="11"/>
       <c r="Y89" s="11"/>
-      <c r="Z89" s="11" cm="1">
+      <c r="Z89" s="18" cm="1">
         <f t="array" ref="Z89">LOOKUP(2,1/(B89:Y89&lt;&gt;""),B89:Y89)</f>
         <v>46065</v>
       </c>
-      <c r="AA89" s="5" t="str">
+      <c r="AA89" s="16">
         <f t="shared" si="2"/>
-        <v>פברואר</v>
+        <v>2</v>
       </c>
       <c r="AB89" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="90" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC89" s="16">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A90" s="14">
         <v>1510</v>
       </c>
@@ -7891,19 +8262,23 @@
       <c r="W90" s="11"/>
       <c r="X90" s="11"/>
       <c r="Y90" s="11"/>
-      <c r="Z90" s="11" cm="1">
+      <c r="Z90" s="18" cm="1">
         <f t="array" ref="Z90">LOOKUP(2,1/(B90:Y90&lt;&gt;""),B90:Y90)</f>
         <v>46064</v>
       </c>
-      <c r="AA90" s="5" t="str">
+      <c r="AA90" s="16">
         <f t="shared" si="2"/>
-        <v>פברואר</v>
+        <v>2</v>
       </c>
       <c r="AB90" s="14" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="91" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC90" s="16">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A91" s="14">
         <v>1510</v>
       </c>
@@ -7967,19 +8342,23 @@
       <c r="W91" s="11"/>
       <c r="X91" s="11"/>
       <c r="Y91" s="11"/>
-      <c r="Z91" s="11" cm="1">
+      <c r="Z91" s="18" cm="1">
         <f t="array" ref="Z91">LOOKUP(2,1/(B91:Y91&lt;&gt;""),B91:Y91)</f>
         <v>46078</v>
       </c>
-      <c r="AA91" s="5" t="str">
-        <f t="shared" ref="AA91:AA117" si="3">TEXT(Z91,"[$-he-IL]mmmm")</f>
-        <v>פברואר</v>
+      <c r="AA91" s="16">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="AB91" s="14" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="92" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC91" s="16">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A92" s="14">
         <v>1505</v>
       </c>
@@ -8039,19 +8418,23 @@
       <c r="W92" s="11"/>
       <c r="X92" s="11"/>
       <c r="Y92" s="11"/>
-      <c r="Z92" s="11" cm="1">
+      <c r="Z92" s="18" cm="1">
         <f t="array" ref="Z92">LOOKUP(2,1/(B92:Y92&lt;&gt;""),B92:Y92)</f>
         <v>46166</v>
       </c>
-      <c r="AA92" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>מאי</v>
+      <c r="AA92" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="AB92" s="14" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="93" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC92" s="16">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A93" s="14"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5" t="s">
@@ -8107,17 +8490,21 @@
       <c r="W93" s="11"/>
       <c r="X93" s="11"/>
       <c r="Y93" s="11"/>
-      <c r="Z93" s="11" cm="1">
+      <c r="Z93" s="18" cm="1">
         <f t="array" ref="Z93">LOOKUP(2,1/(B93:Y93&lt;&gt;""),B93:Y93)</f>
         <v>46167</v>
       </c>
-      <c r="AA93" s="5" t="str">
+      <c r="AA93" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AB93" s="14"/>
+      <c r="AC93" s="16">
         <f t="shared" si="3"/>
-        <v>מאי</v>
-      </c>
-      <c r="AB93" s="14"/>
-    </row>
-    <row r="94" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A94" s="14">
         <v>1505</v>
       </c>
@@ -8177,19 +8564,23 @@
       <c r="W94" s="11"/>
       <c r="X94" s="11"/>
       <c r="Y94" s="11"/>
-      <c r="Z94" s="11" cm="1">
+      <c r="Z94" s="18" cm="1">
         <f t="array" ref="Z94">LOOKUP(2,1/(B94:Y94&lt;&gt;""),B94:Y94)</f>
         <v>46149</v>
       </c>
-      <c r="AA94" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>מאי</v>
+      <c r="AA94" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="AB94" s="14" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="95" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC94" s="16">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A95" s="14">
         <v>1505</v>
       </c>
@@ -8249,19 +8640,23 @@
       <c r="W95" s="11"/>
       <c r="X95" s="11"/>
       <c r="Y95" s="11"/>
-      <c r="Z95" s="11" cm="1">
+      <c r="Z95" s="18" cm="1">
         <f t="array" ref="Z95">LOOKUP(2,1/(B95:Y95&lt;&gt;""),B95:Y95)</f>
         <v>46149</v>
       </c>
-      <c r="AA95" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>מאי</v>
+      <c r="AA95" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="AB95" s="14" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="96" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC95" s="16">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A96" s="14">
         <v>1519</v>
       </c>
@@ -8321,19 +8716,23 @@
       <c r="W96" s="11"/>
       <c r="X96" s="11"/>
       <c r="Y96" s="11"/>
-      <c r="Z96" s="11" cm="1">
+      <c r="Z96" s="18" cm="1">
         <f t="array" ref="Z96">LOOKUP(2,1/(B96:Y96&lt;&gt;""),B96:Y96)</f>
         <v>46072</v>
       </c>
-      <c r="AA96" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>פברואר</v>
+      <c r="AA96" s="16">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="AB96" s="14" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="97" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC96" s="16">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A97" s="14">
         <v>1519</v>
       </c>
@@ -8407,19 +8806,23 @@
         <v>46070</v>
       </c>
       <c r="Y97" s="11"/>
-      <c r="Z97" s="11" cm="1">
+      <c r="Z97" s="18" cm="1">
         <f t="array" ref="Z97">LOOKUP(2,1/(B97:Y97&lt;&gt;""),B97:Y97)</f>
         <v>46070</v>
       </c>
-      <c r="AA97" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>פברואר</v>
+      <c r="AA97" s="16">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="AB97" s="14" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="98" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC97" s="16">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A98" s="14">
         <v>1519</v>
       </c>
@@ -8487,19 +8890,23 @@
       <c r="W98" s="11"/>
       <c r="X98" s="11"/>
       <c r="Y98" s="11"/>
-      <c r="Z98" s="11" cm="1">
+      <c r="Z98" s="18" cm="1">
         <f t="array" ref="Z98">LOOKUP(2,1/(B98:Y98&lt;&gt;""),B98:Y98)</f>
         <v>46070</v>
       </c>
-      <c r="AA98" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>פברואר</v>
+      <c r="AA98" s="16">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="AB98" s="14" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="99" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC98" s="16">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A99" s="14">
         <v>1519</v>
       </c>
@@ -8567,19 +8974,23 @@
       <c r="W99" s="11"/>
       <c r="X99" s="11"/>
       <c r="Y99" s="11"/>
-      <c r="Z99" s="11" cm="1">
+      <c r="Z99" s="18" cm="1">
         <f t="array" ref="Z99">LOOKUP(2,1/(B99:Y99&lt;&gt;""),B99:Y99)</f>
         <v>46064</v>
       </c>
-      <c r="AA99" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>פברואר</v>
+      <c r="AA99" s="16">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="AB99" s="14" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="100" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC99" s="16">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A100" s="14">
         <v>1503</v>
       </c>
@@ -8639,19 +9050,23 @@
       <c r="W100" s="11"/>
       <c r="X100" s="11"/>
       <c r="Y100" s="11"/>
-      <c r="Z100" s="11" cm="1">
+      <c r="Z100" s="18" cm="1">
         <f t="array" ref="Z100">LOOKUP(2,1/(B100:Y100&lt;&gt;""),B100:Y100)</f>
         <v>46083</v>
       </c>
-      <c r="AA100" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>מרץ</v>
+      <c r="AA100" s="16">
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AB100" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="101" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC100" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A101" s="14">
         <v>1503</v>
       </c>
@@ -8715,19 +9130,23 @@
       <c r="W101" s="11"/>
       <c r="X101" s="11"/>
       <c r="Y101" s="11"/>
-      <c r="Z101" s="11" cm="1">
+      <c r="Z101" s="18" cm="1">
         <f t="array" ref="Z101">LOOKUP(2,1/(B101:Y101&lt;&gt;""),B101:Y101)</f>
         <v>46097</v>
       </c>
-      <c r="AA101" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>מרץ</v>
+      <c r="AA101" s="16">
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AB101" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="102" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC101" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A102" s="14">
         <v>1503</v>
       </c>
@@ -8791,19 +9210,23 @@
       <c r="W102" s="11"/>
       <c r="X102" s="11"/>
       <c r="Y102" s="11"/>
-      <c r="Z102" s="11" cm="1">
+      <c r="Z102" s="18" cm="1">
         <f t="array" ref="Z102">LOOKUP(2,1/(B102:Y102&lt;&gt;""),B102:Y102)</f>
         <v>46126</v>
       </c>
-      <c r="AA102" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>אפריל</v>
+      <c r="AA102" s="16">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="AB102" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="103" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC102" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A103" s="14">
         <v>1503</v>
       </c>
@@ -8865,19 +9288,23 @@
       <c r="W103" s="11"/>
       <c r="X103" s="11"/>
       <c r="Y103" s="11"/>
-      <c r="Z103" s="11" cm="1">
+      <c r="Z103" s="18" cm="1">
         <f t="array" ref="Z103">LOOKUP(2,1/(B103:Y103&lt;&gt;""),B103:Y103)</f>
         <v>46098</v>
       </c>
-      <c r="AA103" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>מרץ</v>
+      <c r="AA103" s="16">
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AB103" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="104" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC103" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A104" s="14">
         <v>1503</v>
       </c>
@@ -8937,19 +9364,23 @@
       <c r="W104" s="11"/>
       <c r="X104" s="11"/>
       <c r="Y104" s="11"/>
-      <c r="Z104" s="11" cm="1">
+      <c r="Z104" s="18" cm="1">
         <f t="array" ref="Z104">LOOKUP(2,1/(B104:Y104&lt;&gt;""),B104:Y104)</f>
         <v>46091</v>
       </c>
-      <c r="AA104" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>מרץ</v>
+      <c r="AA104" s="16">
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AB104" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="105" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC104" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A105" s="14">
         <v>1511</v>
       </c>
@@ -9021,19 +9452,23 @@
       </c>
       <c r="X105" s="11"/>
       <c r="Y105" s="11"/>
-      <c r="Z105" s="11" cm="1">
+      <c r="Z105" s="18" cm="1">
         <f t="array" ref="Z105">LOOKUP(2,1/(B105:Y105&lt;&gt;""),B105:Y105)</f>
         <v>46091</v>
       </c>
-      <c r="AA105" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>מרץ</v>
+      <c r="AA105" s="16">
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AB105" s="14" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="106" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC105" s="16">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A106" s="14">
         <v>1511</v>
       </c>
@@ -9097,19 +9532,23 @@
       <c r="W106" s="11"/>
       <c r="X106" s="11"/>
       <c r="Y106" s="11"/>
-      <c r="Z106" s="11" cm="1">
+      <c r="Z106" s="18" cm="1">
         <f t="array" ref="Z106">LOOKUP(2,1/(B106:Y106&lt;&gt;""),B106:Y106)</f>
         <v>46070</v>
       </c>
-      <c r="AA106" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>פברואר</v>
+      <c r="AA106" s="16">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="AB106" s="14" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="107" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC106" s="16">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A107" s="14">
         <v>1500</v>
       </c>
@@ -9167,19 +9606,23 @@
       <c r="W107" s="11"/>
       <c r="X107" s="11"/>
       <c r="Y107" s="11"/>
-      <c r="Z107" s="11" cm="1">
+      <c r="Z107" s="18" cm="1">
         <f t="array" ref="Z107">LOOKUP(2,1/(B107:Y107&lt;&gt;""),B107:Y107)</f>
         <v>46124</v>
       </c>
-      <c r="AA107" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>אפריל</v>
+      <c r="AA107" s="16">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="AB107" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="108" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC107" s="16">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A108" s="14">
         <v>1500</v>
       </c>
@@ -9247,19 +9690,23 @@
       <c r="W108" s="11"/>
       <c r="X108" s="11"/>
       <c r="Y108" s="11"/>
-      <c r="Z108" s="11" cm="1">
+      <c r="Z108" s="18" cm="1">
         <f t="array" ref="Z108">LOOKUP(2,1/(B108:Y108&lt;&gt;""),B108:Y108)</f>
         <v>46195</v>
       </c>
-      <c r="AA108" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>יוני</v>
+      <c r="AA108" s="16">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="AB108" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="109" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC108" s="16">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A109" s="14">
         <v>1500</v>
       </c>
@@ -9327,19 +9774,23 @@
       <c r="W109" s="11"/>
       <c r="X109" s="11"/>
       <c r="Y109" s="11"/>
-      <c r="Z109" s="11" cm="1">
+      <c r="Z109" s="18" cm="1">
         <f t="array" ref="Z109">LOOKUP(2,1/(B109:Y109&lt;&gt;""),B109:Y109)</f>
         <v>46202</v>
       </c>
-      <c r="AA109" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>יוני</v>
+      <c r="AA109" s="16">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="AB109" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="110" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC109" s="16">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A110" s="14">
         <v>1500</v>
       </c>
@@ -9407,19 +9858,23 @@
       <c r="W110" s="11"/>
       <c r="X110" s="11"/>
       <c r="Y110" s="11"/>
-      <c r="Z110" s="11" cm="1">
+      <c r="Z110" s="18" cm="1">
         <f t="array" ref="Z110">LOOKUP(2,1/(B110:Y110&lt;&gt;""),B110:Y110)</f>
         <v>46160</v>
       </c>
-      <c r="AA110" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>מאי</v>
+      <c r="AA110" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="AB110" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="111" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC110" s="16">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A111" s="14">
         <v>1502</v>
       </c>
@@ -9487,19 +9942,23 @@
       <c r="W111" s="11"/>
       <c r="X111" s="11"/>
       <c r="Y111" s="11"/>
-      <c r="Z111" s="11" cm="1">
+      <c r="Z111" s="18" cm="1">
         <f t="array" ref="Z111">LOOKUP(2,1/(B111:Y111&lt;&gt;""),B111:Y111)</f>
         <v>46160</v>
       </c>
-      <c r="AA111" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>מאי</v>
+      <c r="AA111" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="AB111" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="112" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC111" s="16">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A112" s="14">
         <v>1502</v>
       </c>
@@ -9559,19 +10018,23 @@
       <c r="W112" s="11"/>
       <c r="X112" s="11"/>
       <c r="Y112" s="11"/>
-      <c r="Z112" s="11" cm="1">
+      <c r="Z112" s="18" cm="1">
         <f t="array" ref="Z112">LOOKUP(2,1/(B112:Y112&lt;&gt;""),B112:Y112)</f>
         <v>46125</v>
       </c>
-      <c r="AA112" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>אפריל</v>
+      <c r="AA112" s="16">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="AB112" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="113" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC112" s="16">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A113" s="14">
         <v>1502</v>
       </c>
@@ -9635,19 +10098,23 @@
       <c r="W113" s="11"/>
       <c r="X113" s="11"/>
       <c r="Y113" s="11"/>
-      <c r="Z113" s="11" cm="1">
+      <c r="Z113" s="18" cm="1">
         <f t="array" ref="Z113">LOOKUP(2,1/(B113:Y113&lt;&gt;""),B113:Y113)</f>
         <v>46126</v>
       </c>
-      <c r="AA113" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>אפריל</v>
+      <c r="AA113" s="16">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="AB113" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="114" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC113" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A114" s="14">
         <v>1502</v>
       </c>
@@ -9707,19 +10174,23 @@
       <c r="W114" s="11"/>
       <c r="X114" s="11"/>
       <c r="Y114" s="11"/>
-      <c r="Z114" s="11" cm="1">
+      <c r="Z114" s="18" cm="1">
         <f t="array" ref="Z114">LOOKUP(2,1/(B114:Y114&lt;&gt;""),B114:Y114)</f>
         <v>46147</v>
       </c>
-      <c r="AA114" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>מאי</v>
+      <c r="AA114" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="AB114" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="115" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC114" s="16">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A115" s="14">
         <v>1509</v>
       </c>
@@ -9783,19 +10254,23 @@
       <c r="W115" s="11"/>
       <c r="X115" s="11"/>
       <c r="Y115" s="11"/>
-      <c r="Z115" s="11" cm="1">
+      <c r="Z115" s="18" cm="1">
         <f t="array" ref="Z115">LOOKUP(2,1/(B115:Y115&lt;&gt;""),B115:Y115)</f>
         <v>46149</v>
       </c>
-      <c r="AA115" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>מאי</v>
+      <c r="AA115" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="AB115" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="116" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC115" s="16">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A116" s="14">
         <v>1509</v>
       </c>
@@ -9859,19 +10334,23 @@
       <c r="W116" s="11"/>
       <c r="X116" s="11"/>
       <c r="Y116" s="11"/>
-      <c r="Z116" s="11" cm="1">
+      <c r="Z116" s="18" cm="1">
         <f t="array" ref="Z116">LOOKUP(2,1/(B116:Y116&lt;&gt;""),B116:Y116)</f>
         <v>46149</v>
       </c>
-      <c r="AA116" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>מאי</v>
+      <c r="AA116" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="AB116" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="117" spans="1:28" s="3" customFormat="1" ht="25.1" customHeight="1">
+      <c r="AC116" s="16">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A117" s="14">
         <v>1506</v>
       </c>
@@ -9933,19 +10412,23 @@
       <c r="W117" s="11"/>
       <c r="X117" s="11"/>
       <c r="Y117" s="11"/>
-      <c r="Z117" s="11" cm="1">
+      <c r="Z117" s="18" cm="1">
         <f t="array" ref="Z117">LOOKUP(2,1/(B117:Y117&lt;&gt;""),B117:Y117)</f>
         <v>46104</v>
       </c>
-      <c r="AA117" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>מרץ</v>
+      <c r="AA117" s="16">
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AB117" s="14" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="118" spans="1:28" ht="25.1" customHeight="1">
+      <c r="AC117" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" ht="25.1" customHeight="1">
       <c r="A118" s="13"/>
       <c r="B118" s="9"/>
       <c r="C118" s="5" t="s">
@@ -9977,11 +10460,12 @@
       <c r="W118" s="15"/>
       <c r="X118" s="15"/>
       <c r="Y118" s="15"/>
-      <c r="Z118" s="11"/>
+      <c r="Z118" s="18"/>
       <c r="AA118" s="5"/>
       <c r="AB118" s="13"/>
-    </row>
-    <row r="119" spans="1:28" ht="25.1" customHeight="1">
+      <c r="AC118" s="5"/>
+    </row>
+    <row r="119" spans="1:29" ht="25.1" customHeight="1">
       <c r="A119" s="13"/>
       <c r="B119" s="9"/>
       <c r="C119" s="5" t="s">
@@ -10013,11 +10497,12 @@
       <c r="W119" s="15"/>
       <c r="X119" s="15"/>
       <c r="Y119" s="15"/>
-      <c r="Z119" s="11"/>
+      <c r="Z119" s="18"/>
       <c r="AA119" s="5"/>
       <c r="AB119" s="13"/>
-    </row>
-    <row r="120" spans="1:28" ht="25.1" customHeight="1">
+      <c r="AC119" s="5"/>
+    </row>
+    <row r="120" spans="1:29" ht="25.1" customHeight="1">
       <c r="A120" s="13"/>
       <c r="B120" s="9"/>
       <c r="C120" s="5" t="s">
@@ -10049,11 +10534,12 @@
       <c r="W120" s="15"/>
       <c r="X120" s="15"/>
       <c r="Y120" s="15"/>
-      <c r="Z120" s="11"/>
+      <c r="Z120" s="18"/>
       <c r="AA120" s="5"/>
       <c r="AB120" s="13"/>
-    </row>
-    <row r="121" spans="1:28" ht="25.1" customHeight="1">
+      <c r="AC120" s="5"/>
+    </row>
+    <row r="121" spans="1:29" ht="25.1" customHeight="1">
       <c r="A121" s="13"/>
       <c r="B121" s="9"/>
       <c r="C121" s="5" t="s">
@@ -10085,11 +10571,12 @@
       <c r="W121" s="15"/>
       <c r="X121" s="15"/>
       <c r="Y121" s="15"/>
-      <c r="Z121" s="11"/>
+      <c r="Z121" s="18"/>
       <c r="AA121" s="5"/>
       <c r="AB121" s="13"/>
-    </row>
-    <row r="122" spans="1:28" ht="25.1" customHeight="1">
+      <c r="AC121" s="5"/>
+    </row>
+    <row r="122" spans="1:29" ht="25.1" customHeight="1">
       <c r="A122" s="13"/>
       <c r="B122" s="9"/>
       <c r="C122" s="5" t="s">
@@ -10121,11 +10608,12 @@
       <c r="W122" s="15"/>
       <c r="X122" s="15"/>
       <c r="Y122" s="15"/>
-      <c r="Z122" s="11"/>
+      <c r="Z122" s="18"/>
       <c r="AA122" s="5"/>
       <c r="AB122" s="13"/>
-    </row>
-    <row r="123" spans="1:28" ht="25.1" customHeight="1">
+      <c r="AC122" s="5"/>
+    </row>
+    <row r="123" spans="1:29" ht="25.1" customHeight="1">
       <c r="A123" s="13"/>
       <c r="B123" s="9"/>
       <c r="C123" s="5" t="s">
@@ -10157,11 +10645,12 @@
       <c r="W123" s="15"/>
       <c r="X123" s="15"/>
       <c r="Y123" s="15"/>
-      <c r="Z123" s="11"/>
+      <c r="Z123" s="18"/>
       <c r="AA123" s="5"/>
       <c r="AB123" s="13"/>
-    </row>
-    <row r="124" spans="1:28" ht="25.1" customHeight="1">
+      <c r="AC123" s="5"/>
+    </row>
+    <row r="124" spans="1:29" ht="25.1" customHeight="1">
       <c r="A124" s="13"/>
       <c r="B124" s="9"/>
       <c r="C124" s="5" t="s">
@@ -10193,11 +10682,12 @@
       <c r="W124" s="15"/>
       <c r="X124" s="15"/>
       <c r="Y124" s="15"/>
-      <c r="Z124" s="11"/>
+      <c r="Z124" s="18"/>
       <c r="AA124" s="5"/>
       <c r="AB124" s="13"/>
-    </row>
-    <row r="125" spans="1:28" ht="25.1" customHeight="1">
+      <c r="AC124" s="5"/>
+    </row>
+    <row r="125" spans="1:29" ht="25.1" customHeight="1">
       <c r="A125" s="13"/>
       <c r="B125" s="9"/>
       <c r="C125" s="5" t="s">
@@ -10229,11 +10719,12 @@
       <c r="W125" s="15"/>
       <c r="X125" s="15"/>
       <c r="Y125" s="15"/>
-      <c r="Z125" s="11"/>
+      <c r="Z125" s="18"/>
       <c r="AA125" s="5"/>
       <c r="AB125" s="13"/>
-    </row>
-    <row r="126" spans="1:28" ht="25.1" customHeight="1">
+      <c r="AC125" s="5"/>
+    </row>
+    <row r="126" spans="1:29" ht="25.1" customHeight="1">
       <c r="A126" s="13"/>
       <c r="B126" s="9"/>
       <c r="C126" s="5" t="s">
@@ -10265,11 +10756,12 @@
       <c r="W126" s="15"/>
       <c r="X126" s="15"/>
       <c r="Y126" s="15"/>
-      <c r="Z126" s="11"/>
+      <c r="Z126" s="18"/>
       <c r="AA126" s="5"/>
       <c r="AB126" s="13"/>
-    </row>
-    <row r="127" spans="1:28" ht="25.1" customHeight="1">
+      <c r="AC126" s="5"/>
+    </row>
+    <row r="127" spans="1:29" ht="25.1" customHeight="1">
       <c r="A127" s="13"/>
       <c r="B127" s="9"/>
       <c r="C127" s="5" t="s">
@@ -10301,11 +10793,12 @@
       <c r="W127" s="15"/>
       <c r="X127" s="15"/>
       <c r="Y127" s="15"/>
-      <c r="Z127" s="11"/>
+      <c r="Z127" s="18"/>
       <c r="AA127" s="5"/>
       <c r="AB127" s="13"/>
-    </row>
-    <row r="128" spans="1:28" ht="25.1" customHeight="1">
+      <c r="AC127" s="5"/>
+    </row>
+    <row r="128" spans="1:29" ht="25.1" customHeight="1">
       <c r="A128" s="13"/>
       <c r="B128" s="9"/>
       <c r="C128" s="5" t="s">
@@ -10337,11 +10830,12 @@
       <c r="W128" s="15"/>
       <c r="X128" s="15"/>
       <c r="Y128" s="15"/>
-      <c r="Z128" s="11"/>
+      <c r="Z128" s="18"/>
       <c r="AA128" s="5"/>
       <c r="AB128" s="13"/>
-    </row>
-    <row r="129" spans="1:28" ht="25.1" customHeight="1">
+      <c r="AC128" s="5"/>
+    </row>
+    <row r="129" spans="1:29" ht="25.1" customHeight="1">
       <c r="A129" s="13"/>
       <c r="B129" s="9"/>
       <c r="C129" s="5" t="s">
@@ -10373,11 +10867,12 @@
       <c r="W129" s="15"/>
       <c r="X129" s="15"/>
       <c r="Y129" s="15"/>
-      <c r="Z129" s="11"/>
+      <c r="Z129" s="18"/>
       <c r="AA129" s="5"/>
       <c r="AB129" s="13"/>
-    </row>
-    <row r="130" spans="1:28" ht="25.1" customHeight="1">
+      <c r="AC129" s="5"/>
+    </row>
+    <row r="130" spans="1:29" ht="25.1" customHeight="1">
       <c r="A130" s="13"/>
       <c r="B130" s="9"/>
       <c r="C130" s="5" t="s">
@@ -10409,11 +10904,12 @@
       <c r="W130" s="15"/>
       <c r="X130" s="15"/>
       <c r="Y130" s="15"/>
-      <c r="Z130" s="11"/>
+      <c r="Z130" s="18"/>
       <c r="AA130" s="5"/>
       <c r="AB130" s="13"/>
-    </row>
-    <row r="131" spans="1:28" ht="25.1" customHeight="1">
+      <c r="AC130" s="5"/>
+    </row>
+    <row r="131" spans="1:29" ht="25.1" customHeight="1">
       <c r="A131" s="13"/>
       <c r="B131" s="9"/>
       <c r="C131" s="5" t="s">
@@ -10445,11 +10941,12 @@
       <c r="W131" s="15"/>
       <c r="X131" s="15"/>
       <c r="Y131" s="15"/>
-      <c r="Z131" s="11"/>
+      <c r="Z131" s="18"/>
       <c r="AA131" s="5"/>
       <c r="AB131" s="13"/>
-    </row>
-    <row r="132" spans="1:28" ht="25.1" customHeight="1">
+      <c r="AC131" s="5"/>
+    </row>
+    <row r="132" spans="1:29" ht="25.1" customHeight="1">
       <c r="A132" s="13"/>
       <c r="B132" s="9"/>
       <c r="C132" s="5" t="s">
@@ -10481,11 +10978,12 @@
       <c r="W132" s="15"/>
       <c r="X132" s="15"/>
       <c r="Y132" s="15"/>
-      <c r="Z132" s="11"/>
+      <c r="Z132" s="18"/>
       <c r="AA132" s="5"/>
       <c r="AB132" s="13"/>
-    </row>
-    <row r="133" spans="1:28" ht="25.1" customHeight="1">
+      <c r="AC132" s="5"/>
+    </row>
+    <row r="133" spans="1:29" ht="25.1" customHeight="1">
       <c r="A133" s="13"/>
       <c r="B133" s="9"/>
       <c r="C133" s="5" t="s">
@@ -10517,11 +11015,12 @@
       <c r="W133" s="15"/>
       <c r="X133" s="15"/>
       <c r="Y133" s="15"/>
-      <c r="Z133" s="11"/>
+      <c r="Z133" s="18"/>
       <c r="AA133" s="5"/>
       <c r="AB133" s="13"/>
-    </row>
-    <row r="134" spans="1:28" ht="25.1" customHeight="1">
+      <c r="AC133" s="5"/>
+    </row>
+    <row r="134" spans="1:29" ht="25.1" customHeight="1">
       <c r="A134" s="13"/>
       <c r="B134" s="9"/>
       <c r="C134" s="5" t="s">
@@ -10553,11 +11052,12 @@
       <c r="W134" s="15"/>
       <c r="X134" s="15"/>
       <c r="Y134" s="15"/>
-      <c r="Z134" s="11"/>
+      <c r="Z134" s="18"/>
       <c r="AA134" s="5"/>
       <c r="AB134" s="13"/>
-    </row>
-    <row r="135" spans="1:28" ht="25.1" customHeight="1">
+      <c r="AC134" s="5"/>
+    </row>
+    <row r="135" spans="1:29" ht="25.1" customHeight="1">
       <c r="A135" s="13"/>
       <c r="B135" s="9"/>
       <c r="C135" s="5" t="s">
@@ -10589,11 +11089,12 @@
       <c r="W135" s="15"/>
       <c r="X135" s="15"/>
       <c r="Y135" s="15"/>
-      <c r="Z135" s="11"/>
+      <c r="Z135" s="18"/>
       <c r="AA135" s="5"/>
       <c r="AB135" s="13"/>
-    </row>
-    <row r="136" spans="1:28" ht="25.1" customHeight="1">
+      <c r="AC135" s="5"/>
+    </row>
+    <row r="136" spans="1:29" ht="25.1" customHeight="1">
       <c r="A136" s="13"/>
       <c r="B136" s="9"/>
       <c r="C136" s="5" t="s">
@@ -10625,11 +11126,12 @@
       <c r="W136" s="9"/>
       <c r="X136" s="9"/>
       <c r="Y136" s="9"/>
-      <c r="Z136" s="7"/>
+      <c r="Z136" s="17"/>
       <c r="AA136" s="5"/>
       <c r="AB136" s="13"/>
-    </row>
-    <row r="137" spans="1:28" ht="25.1" customHeight="1">
+      <c r="AC136" s="5"/>
+    </row>
+    <row r="137" spans="1:29" ht="25.1" customHeight="1">
       <c r="A137" s="13"/>
       <c r="B137" s="9"/>
       <c r="C137" s="5" t="s">
@@ -10661,11 +11163,12 @@
       <c r="W137" s="9"/>
       <c r="X137" s="9"/>
       <c r="Y137" s="9"/>
-      <c r="Z137" s="7"/>
+      <c r="Z137" s="17"/>
       <c r="AA137" s="5"/>
       <c r="AB137" s="13"/>
-    </row>
-    <row r="138" spans="1:28" ht="25.1" customHeight="1">
+      <c r="AC137" s="5"/>
+    </row>
+    <row r="138" spans="1:29" ht="25.1" customHeight="1">
       <c r="A138" s="13"/>
       <c r="B138" s="9"/>
       <c r="C138" s="5" t="s">
@@ -10697,11 +11200,12 @@
       <c r="W138" s="9"/>
       <c r="X138" s="9"/>
       <c r="Y138" s="9"/>
-      <c r="Z138" s="7"/>
+      <c r="Z138" s="17"/>
       <c r="AA138" s="5"/>
       <c r="AB138" s="13"/>
-    </row>
-    <row r="139" spans="1:28" ht="25.1" customHeight="1">
+      <c r="AC138" s="5"/>
+    </row>
+    <row r="139" spans="1:29" ht="25.1" customHeight="1">
       <c r="A139" s="13"/>
       <c r="B139" s="9"/>
       <c r="C139" s="5" t="s">
@@ -10733,11 +11237,12 @@
       <c r="W139" s="9"/>
       <c r="X139" s="9"/>
       <c r="Y139" s="9"/>
-      <c r="Z139" s="7"/>
+      <c r="Z139" s="17"/>
       <c r="AA139" s="5"/>
       <c r="AB139" s="13"/>
-    </row>
-    <row r="140" spans="1:28" ht="25.1" customHeight="1">
+      <c r="AC139" s="5"/>
+    </row>
+    <row r="140" spans="1:29" ht="25.1" customHeight="1">
       <c r="A140" s="13"/>
       <c r="B140" s="9"/>
       <c r="C140" s="5" t="s">
@@ -10769,11 +11274,12 @@
       <c r="W140" s="9"/>
       <c r="X140" s="9"/>
       <c r="Y140" s="9"/>
-      <c r="Z140" s="7"/>
+      <c r="Z140" s="17"/>
       <c r="AA140" s="5"/>
       <c r="AB140" s="13"/>
-    </row>
-    <row r="141" spans="1:28" ht="25.1" customHeight="1">
+      <c r="AC140" s="5"/>
+    </row>
+    <row r="141" spans="1:29" ht="25.1" customHeight="1">
       <c r="A141" s="13"/>
       <c r="B141" s="9"/>
       <c r="C141" s="5" t="s">
@@ -10805,9 +11311,10 @@
       <c r="W141" s="9"/>
       <c r="X141" s="9"/>
       <c r="Y141" s="9"/>
-      <c r="Z141" s="7"/>
+      <c r="Z141" s="17"/>
       <c r="AA141" s="5"/>
       <c r="AB141" s="13"/>
+      <c r="AC141" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DASHBOARD.xlsx
+++ b/DASHBOARD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idan\Downloads\דשבורד סטטוס\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5710579-C491-4773-9E28-54A91A31F823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564F68E2-BC07-4C25-A6ED-5C2D85746F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1068,9 +1068,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC141"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I117" sqref="A116:I117"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F107" sqref="F105:F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.1" customHeight="1"/>
@@ -1345,7 +1345,7 @@
         <v>51</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>135</v>
@@ -1421,7 +1421,7 @@
         <v>51</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>136</v>
@@ -1497,7 +1497,7 @@
         <v>137</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>137</v>
@@ -2837,7 +2837,7 @@
         <v>34</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>95</v>
@@ -2995,7 +2995,7 @@
         <v>34</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>55</v>
@@ -3309,7 +3309,7 @@
         <v>34</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>96</v>
@@ -9397,7 +9397,7 @@
         <v>77</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>78</v>
@@ -9485,7 +9485,7 @@
         <v>77</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>78</v>
@@ -9565,7 +9565,7 @@
         <v>131</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G107" s="5" t="s">
         <v>132</v>
@@ -10207,7 +10207,7 @@
         <v>34</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>163</v>
@@ -10287,7 +10287,7 @@
         <v>34</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>164</v>
